--- a/$RBLX.xlsx
+++ b/$RBLX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7249BD-EC2D-9D4F-85D8-0799F4FA1155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21EE986-41FE-403C-824E-0F8C29A11E1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18880" xr2:uid="{DB6ABC51-E0DE-6747-8CA5-53C172A4844D}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18885" activeTab="1" xr2:uid="{DB6ABC51-E0DE-6747-8CA5-53C172A4844D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,22 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="218">
   <si>
     <t>Price</t>
   </si>
@@ -698,8 +688,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="#,##0.000"/>
@@ -1218,7 +1208,7 @@
     <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="239">
@@ -1344,8 +1334,8 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1429,7 +1419,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1559,7 +1549,7 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="36" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="17" fontId="37" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1666,6 +1656,21 @@
     <xf numFmtId="165" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1675,58 +1680,43 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="172" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="172" fontId="19" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1736,7 +1726,7 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1760,7 +1750,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3751,54 +3741,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE4A73D-2F46-7341-9C57-6E5B7A39A15C}">
   <dimension ref="B1:AI68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH11" sqref="AH11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="6" customWidth="1"/>
     <col min="3" max="8" width="9" style="6"/>
     <col min="9" max="9" width="9" style="6" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="9.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="9.1640625" style="6" customWidth="1"/>
-    <col min="21" max="21" width="9.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="9.125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="9.125" style="6" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="L1" s="236" t="s">
+    <row r="1" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="L1" s="230" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="237"/>
-      <c r="N1" s="237"/>
-      <c r="O1" s="237"/>
-      <c r="P1" s="237"/>
-      <c r="Q1" s="237"/>
-      <c r="R1" s="237"/>
-      <c r="S1" s="238"/>
-      <c r="U1" s="232" t="s">
+      <c r="M1" s="231"/>
+      <c r="N1" s="231"/>
+      <c r="O1" s="231"/>
+      <c r="P1" s="231"/>
+      <c r="Q1" s="231"/>
+      <c r="R1" s="231"/>
+      <c r="S1" s="232"/>
+      <c r="U1" s="218" t="s">
         <v>127</v>
       </c>
-      <c r="V1" s="233"/>
-      <c r="W1" s="233"/>
-      <c r="X1" s="233"/>
-      <c r="Y1" s="233"/>
-      <c r="Z1" s="233"/>
-      <c r="AA1" s="233"/>
-      <c r="AB1" s="233"/>
-      <c r="AC1" s="233"/>
-      <c r="AD1" s="233"/>
-      <c r="AE1" s="233"/>
-      <c r="AF1" s="233"/>
-      <c r="AG1" s="233"/>
-      <c r="AH1" s="233"/>
-      <c r="AI1" s="234"/>
-    </row>
-    <row r="2" spans="2:35" ht="19" x14ac:dyDescent="0.25">
+      <c r="V1" s="219"/>
+      <c r="W1" s="219"/>
+      <c r="X1" s="219"/>
+      <c r="Y1" s="219"/>
+      <c r="Z1" s="219"/>
+      <c r="AA1" s="219"/>
+      <c r="AB1" s="219"/>
+      <c r="AC1" s="219"/>
+      <c r="AD1" s="219"/>
+      <c r="AE1" s="219"/>
+      <c r="AF1" s="219"/>
+      <c r="AG1" s="219"/>
+      <c r="AH1" s="219"/>
+      <c r="AI1" s="220"/>
+    </row>
+    <row r="2" spans="2:35" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
         <v>57</v>
       </c>
@@ -3824,7 +3814,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="3" spans="2:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="46" t="s">
         <v>111</v>
       </c>
@@ -3902,7 +3892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:35" x14ac:dyDescent="0.25">
       <c r="J4" s="31" t="s">
         <v>87</v>
       </c>
@@ -3976,17 +3966,17 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="5" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B5" s="218" t="s">
+    <row r="5" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B5" s="223" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="219"/>
-      <c r="D5" s="220"/>
-      <c r="F5" s="218" t="s">
+      <c r="C5" s="224"/>
+      <c r="D5" s="225"/>
+      <c r="F5" s="223" t="s">
         <v>193</v>
       </c>
-      <c r="G5" s="219"/>
-      <c r="H5" s="220"/>
+      <c r="G5" s="224"/>
+      <c r="H5" s="225"/>
       <c r="K5" s="28" t="s">
         <v>73</v>
       </c>
@@ -4073,7 +4063,7 @@
         <v>-3.512014787430684E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B6" s="40" t="s">
         <v>0</v>
       </c>
@@ -4084,10 +4074,10 @@
       <c r="F6" s="181" t="s">
         <v>194</v>
       </c>
-      <c r="G6" s="235" t="s">
+      <c r="G6" s="226" t="s">
         <v>198</v>
       </c>
-      <c r="H6" s="224"/>
+      <c r="H6" s="222"/>
       <c r="K6" s="28" t="s">
         <v>74</v>
       </c>
@@ -4169,7 +4159,7 @@
         <v>0.20833333333333326</v>
       </c>
     </row>
-    <row r="7" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B7" s="40" t="s">
         <v>1</v>
       </c>
@@ -4182,10 +4172,10 @@
       <c r="F7" s="181" t="s">
         <v>195</v>
       </c>
-      <c r="G7" s="223">
+      <c r="G7" s="227">
         <v>2004</v>
       </c>
-      <c r="H7" s="224"/>
+      <c r="H7" s="222"/>
       <c r="K7" s="28"/>
       <c r="L7" s="61"/>
       <c r="M7" s="61"/>
@@ -4212,7 +4202,7 @@
       <c r="AH7" s="24"/>
       <c r="AI7" s="24"/>
     </row>
-    <row r="8" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B8" s="40" t="s">
         <v>2</v>
       </c>
@@ -4224,11 +4214,11 @@
       <c r="F8" s="181" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="223">
+      <c r="G8" s="227">
         <f>AI4</f>
         <v>52.2</v>
       </c>
-      <c r="H8" s="224"/>
+      <c r="H8" s="222"/>
       <c r="K8" s="28" t="s">
         <v>75</v>
       </c>
@@ -4298,7 +4288,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="9" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B9" s="40" t="s">
         <v>3</v>
       </c>
@@ -4309,8 +4299,8 @@
         <v>13</v>
       </c>
       <c r="F9" s="167"/>
-      <c r="G9" s="223"/>
-      <c r="H9" s="224"/>
+      <c r="G9" s="227"/>
+      <c r="H9" s="222"/>
       <c r="K9" s="28" t="s">
         <v>77</v>
       </c>
@@ -4393,7 +4383,7 @@
       </c>
       <c r="AI9" s="24"/>
     </row>
-    <row r="10" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
         <v>4</v>
       </c>
@@ -4404,8 +4394,8 @@
         <v>13</v>
       </c>
       <c r="F10" s="167"/>
-      <c r="G10" s="223"/>
-      <c r="H10" s="224"/>
+      <c r="G10" s="227"/>
+      <c r="H10" s="222"/>
       <c r="K10" s="28" t="s">
         <v>78</v>
       </c>
@@ -4485,7 +4475,7 @@
       </c>
       <c r="AI10" s="160"/>
     </row>
-    <row r="11" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B11" s="40" t="s">
         <v>7</v>
       </c>
@@ -4499,10 +4489,10 @@
       <c r="F11" s="181" t="s">
         <v>199</v>
       </c>
-      <c r="G11" s="235" t="s">
+      <c r="G11" s="226" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="224"/>
+      <c r="H11" s="222"/>
       <c r="K11" s="28"/>
       <c r="L11" s="61"/>
       <c r="M11" s="61"/>
@@ -4518,7 +4508,7 @@
       <c r="AH11" s="161"/>
       <c r="AI11" s="161"/>
     </row>
-    <row r="12" spans="2:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="42" t="s">
         <v>5</v>
       </c>
@@ -4530,10 +4520,10 @@
       <c r="F12" s="182" t="s">
         <v>196</v>
       </c>
-      <c r="G12" s="227" t="s">
+      <c r="G12" s="228" t="s">
         <v>197</v>
       </c>
-      <c r="H12" s="228"/>
+      <c r="H12" s="229"/>
       <c r="K12" s="28" t="s">
         <v>76</v>
       </c>
@@ -4603,7 +4593,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="13" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:35" x14ac:dyDescent="0.25">
       <c r="K13" s="28" t="s">
         <v>79</v>
       </c>
@@ -4686,7 +4676,7 @@
       </c>
       <c r="AI13" s="24"/>
     </row>
-    <row r="14" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:35" x14ac:dyDescent="0.25">
       <c r="K14" s="28" t="s">
         <v>80</v>
       </c>
@@ -4766,17 +4756,17 @@
       </c>
       <c r="AI14" s="33"/>
     </row>
-    <row r="15" spans="2:35" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="218" t="s">
+    <row r="15" spans="2:35" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="223" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="219"/>
-      <c r="D15" s="220"/>
-      <c r="F15" s="218" t="s">
+      <c r="C15" s="224"/>
+      <c r="D15" s="225"/>
+      <c r="F15" s="223" t="s">
         <v>204</v>
       </c>
-      <c r="G15" s="219"/>
-      <c r="H15" s="220"/>
+      <c r="G15" s="224"/>
+      <c r="H15" s="225"/>
       <c r="K15" s="28"/>
       <c r="L15" s="63"/>
       <c r="M15" s="63"/>
@@ -4787,22 +4777,22 @@
       <c r="R15" s="63"/>
       <c r="S15" s="63"/>
     </row>
-    <row r="16" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="231" t="s">
+      <c r="C16" s="221" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="224"/>
+      <c r="D16" s="222"/>
       <c r="F16" s="181" t="s">
         <v>205</v>
       </c>
-      <c r="G16" s="225">
+      <c r="G16" s="235">
         <f>C6/'Financial Model'!L61</f>
         <v>39.924974402465928</v>
       </c>
-      <c r="H16" s="226"/>
+      <c r="H16" s="236"/>
       <c r="J16" s="31" t="s">
         <v>86</v>
       </c>
@@ -4877,22 +4867,22 @@
         <v>11300</v>
       </c>
     </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B17" s="105" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="221" t="s">
+      <c r="C17" s="233" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="222"/>
+      <c r="D17" s="234"/>
       <c r="F17" s="181" t="s">
         <v>215</v>
       </c>
-      <c r="G17" s="225">
+      <c r="G17" s="235">
         <f>C8/'Financial Model'!W3</f>
         <v>11.475129359867568</v>
       </c>
-      <c r="H17" s="226"/>
+      <c r="H17" s="236"/>
       <c r="K17" s="28" t="s">
         <v>84</v>
       </c>
@@ -4977,19 +4967,19 @@
         <v>-6.7361276179911944E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B18" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="231" t="s">
+      <c r="C18" s="221" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="224"/>
+      <c r="D18" s="222"/>
       <c r="F18" s="181" t="s">
         <v>216</v>
       </c>
-      <c r="G18" s="223"/>
-      <c r="H18" s="224"/>
+      <c r="G18" s="227"/>
+      <c r="H18" s="222"/>
       <c r="K18" s="28" t="s">
         <v>85</v>
       </c>
@@ -5071,24 +5061,24 @@
         <v>0.16040254672417342</v>
       </c>
     </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B19" s="91"/>
-      <c r="C19" s="223"/>
-      <c r="D19" s="224"/>
+      <c r="C19" s="227"/>
+      <c r="D19" s="222"/>
       <c r="F19" s="181"/>
-      <c r="G19" s="223"/>
-      <c r="H19" s="224"/>
+      <c r="G19" s="227"/>
+      <c r="H19" s="222"/>
       <c r="K19" s="28"/>
       <c r="L19" s="63"/>
       <c r="M19" s="63"/>
     </row>
-    <row r="20" spans="2:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="92"/>
-      <c r="C20" s="229"/>
-      <c r="D20" s="230"/>
+      <c r="C20" s="237"/>
+      <c r="D20" s="238"/>
       <c r="F20" s="182"/>
-      <c r="G20" s="227"/>
-      <c r="H20" s="228"/>
+      <c r="G20" s="228"/>
+      <c r="H20" s="229"/>
       <c r="J20" s="31"/>
       <c r="K20" s="200" t="s">
         <v>214</v>
@@ -5108,30 +5098,30 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
     </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:35" x14ac:dyDescent="0.25">
       <c r="K21" s="200" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
       <c r="K22" s="200" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="23" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B23" s="218" t="s">
+    <row r="23" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B23" s="223" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="219"/>
-      <c r="D23" s="219"/>
-      <c r="E23" s="219"/>
-      <c r="F23" s="219"/>
-      <c r="G23" s="220"/>
+      <c r="C23" s="224"/>
+      <c r="D23" s="224"/>
+      <c r="E23" s="224"/>
+      <c r="F23" s="224"/>
+      <c r="G23" s="225"/>
       <c r="K23" s="200" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B24" s="108" t="s">
         <v>169</v>
       </c>
@@ -5144,7 +5134,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B25" s="108" t="s">
         <v>170</v>
       </c>
@@ -5160,7 +5150,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B26" s="98"/>
       <c r="C26" s="96"/>
       <c r="D26" s="96"/>
@@ -5174,7 +5164,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B27" s="98" t="s">
         <v>149</v>
       </c>
@@ -5190,7 +5180,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B28" s="95" t="s">
         <v>162</v>
       </c>
@@ -5200,7 +5190,7 @@
       <c r="F28" s="99"/>
       <c r="G28" s="97"/>
     </row>
-    <row r="29" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B29" s="104" t="s">
         <v>163</v>
       </c>
@@ -5216,7 +5206,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B30" s="95" t="s">
         <v>161</v>
       </c>
@@ -5228,7 +5218,7 @@
       <c r="J30" s="94"/>
       <c r="K30" s="94"/>
     </row>
-    <row r="31" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B31" s="100" t="s">
         <v>150</v>
       </c>
@@ -5238,14 +5228,14 @@
       <c r="F31" s="102"/>
       <c r="G31" s="103"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="218" t="s">
+      <c r="K31" s="223" t="s">
         <v>181</v>
       </c>
-      <c r="L31" s="219"/>
-      <c r="M31" s="219"/>
-      <c r="N31" s="220"/>
-    </row>
-    <row r="32" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="L31" s="224"/>
+      <c r="M31" s="224"/>
+      <c r="N31" s="225"/>
+    </row>
+    <row r="32" spans="2:35" x14ac:dyDescent="0.25">
       <c r="J32" s="7"/>
       <c r="K32" s="173" t="s">
         <v>176</v>
@@ -5254,15 +5244,15 @@
       <c r="M32" s="96"/>
       <c r="N32" s="97"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B33" s="218" t="s">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="223" t="s">
         <v>187</v>
       </c>
-      <c r="C33" s="219"/>
-      <c r="D33" s="219"/>
-      <c r="E33" s="219"/>
-      <c r="F33" s="219"/>
-      <c r="G33" s="220"/>
+      <c r="C33" s="224"/>
+      <c r="D33" s="224"/>
+      <c r="E33" s="224"/>
+      <c r="F33" s="224"/>
+      <c r="G33" s="225"/>
       <c r="J33" s="7"/>
       <c r="K33" s="173" t="s">
         <v>177</v>
@@ -5273,7 +5263,7 @@
       <c r="M33" s="170"/>
       <c r="N33" s="97"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="209">
         <v>44743</v>
       </c>
@@ -5294,7 +5284,7 @@
       <c r="M34" s="171"/>
       <c r="N34" s="97"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="167"/>
       <c r="C35" s="211" t="s">
         <v>208</v>
@@ -5315,7 +5305,7 @@
       <c r="M35" s="172"/>
       <c r="N35" s="97"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="167"/>
       <c r="C36" s="96"/>
       <c r="D36" s="96"/>
@@ -5330,7 +5320,7 @@
       <c r="M36" s="96"/>
       <c r="N36" s="97"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="167"/>
       <c r="C37" s="96"/>
       <c r="D37" s="96"/>
@@ -5345,7 +5335,7 @@
       <c r="M37" s="96"/>
       <c r="N37" s="97"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="167"/>
       <c r="C38" s="96"/>
       <c r="D38" s="96"/>
@@ -5360,7 +5350,7 @@
       <c r="M38" s="96"/>
       <c r="N38" s="97"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="167"/>
       <c r="C39" s="96"/>
       <c r="D39" s="96"/>
@@ -5375,7 +5365,7 @@
       <c r="M39" s="96"/>
       <c r="N39" s="97"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="178">
         <v>44682</v>
       </c>
@@ -5396,7 +5386,7 @@
       <c r="M40" s="96"/>
       <c r="N40" s="97"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="167"/>
       <c r="C41" s="177" t="s">
         <v>188</v>
@@ -5413,7 +5403,7 @@
       <c r="M41" s="96"/>
       <c r="N41" s="97"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="168"/>
       <c r="C42" s="101"/>
       <c r="D42" s="101"/>
@@ -5426,7 +5416,7 @@
       <c r="M42" s="96"/>
       <c r="N42" s="97"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J43" s="7"/>
       <c r="K43" s="180" t="s">
         <v>191</v>
@@ -5437,7 +5427,7 @@
       <c r="M43" s="96"/>
       <c r="N43" s="97"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J44" s="7"/>
       <c r="K44" s="174" t="s">
         <v>154</v>
@@ -5446,7 +5436,7 @@
       <c r="M44" s="96"/>
       <c r="N44" s="97"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="215" t="s">
         <v>217</v>
       </c>
@@ -5458,7 +5448,7 @@
       <c r="M45" s="96"/>
       <c r="N45" s="97"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J46" s="7"/>
       <c r="K46" s="174" t="s">
         <v>156</v>
@@ -5467,7 +5457,7 @@
       <c r="M46" s="96"/>
       <c r="N46" s="97"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J47" s="7"/>
       <c r="K47" s="174" t="s">
         <v>157</v>
@@ -5476,7 +5466,7 @@
       <c r="M47" s="96"/>
       <c r="N47" s="97"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J48" s="7"/>
       <c r="K48" s="176" t="s">
         <v>158</v>
@@ -5485,99 +5475,88 @@
       <c r="M48" s="101"/>
       <c r="N48" s="103"/>
     </row>
-    <row r="51" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K51" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K52" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K53" s="21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K54" s="21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="11:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="11:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K55" s="22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="11:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="11:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K56" s="22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="11:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="11:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K57" s="22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K58" s="90" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K61" s="106" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="62" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K62" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K63" s="87" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K64" s="94" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K65" s="94" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="66" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K66" s="94" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K67" s="94" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K68" s="94" t="s">
         <v>147</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="L1:S1"/>
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="K31:N31"/>
     <mergeCell ref="B5:D5"/>
@@ -5593,6 +5572,17 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="C16:D16"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="L1:S1"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
@@ -5610,39 +5600,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0FDCAC-3416-844A-BCBB-390EC350CF59}">
   <dimension ref="B1:BZ73"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="6" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.1640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="29.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" customWidth="1"/>
+    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="9.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.125" style="7" customWidth="1"/>
     <col min="13" max="14" width="9" style="7"/>
     <col min="15" max="16" width="9" style="6"/>
     <col min="17" max="18" width="9" style="7"/>
     <col min="19" max="21" width="9" style="6"/>
     <col min="22" max="22" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.125" style="6" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9" style="6"/>
     <col min="25" max="25" width="9" style="6" bestFit="1" customWidth="1"/>
     <col min="26" max="40" width="9" style="6"/>
-    <col min="41" max="41" width="15.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.875" style="6" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="10" style="6" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="9" style="6"/>
-    <col min="44" max="44" width="10.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.125" style="6" bestFit="1" customWidth="1"/>
     <col min="45" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:39" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:39" ht="15" x14ac:dyDescent="0.25">
       <c r="C1" s="2" t="s">
         <v>67</v>
       </c>
@@ -5746,7 +5736,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="2:39" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:39" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C2" s="34">
         <v>43921</v>
       </c>
@@ -5844,7 +5834,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="2:39" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:39" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -5879,8 +5869,8 @@
         <v>591.20699999999999</v>
       </c>
       <c r="M3" s="118">
-        <f>I3*1.15</f>
-        <v>585.7364</v>
+        <f>I3*1.25</f>
+        <v>636.67000000000007</v>
       </c>
       <c r="N3" s="4">
         <f>J3*1.15</f>
@@ -5905,70 +5895,70 @@
       </c>
       <c r="X3" s="129">
         <f>SUM(K3:N3)</f>
-        <v>2368.1617499999998</v>
+        <v>2419.0953500000001</v>
       </c>
       <c r="Y3" s="3">
         <f>X3*1.15</f>
-        <v>2723.3860124999997</v>
+        <v>2781.9596524999997</v>
       </c>
       <c r="Z3" s="3">
         <f t="shared" ref="Z3:AK3" si="0">Y3*1.15</f>
-        <v>3131.8939143749994</v>
+        <v>3199.2536003749992</v>
       </c>
       <c r="AA3" s="3">
         <f t="shared" si="0"/>
-        <v>3601.6780015312493</v>
+        <v>3679.141640431249</v>
       </c>
       <c r="AB3" s="3">
         <f t="shared" si="0"/>
-        <v>4141.929701760936</v>
+        <v>4231.0128864959361</v>
       </c>
       <c r="AC3" s="3">
         <f t="shared" si="0"/>
-        <v>4763.2191570250761</v>
+        <v>4865.6648194703257</v>
       </c>
       <c r="AD3" s="3">
         <f t="shared" si="0"/>
-        <v>5477.7020305788374</v>
+        <v>5595.5145423908743</v>
       </c>
       <c r="AE3" s="3">
         <f t="shared" si="0"/>
-        <v>6299.3573351656623</v>
+        <v>6434.841723749505</v>
       </c>
       <c r="AF3" s="3">
         <f t="shared" si="0"/>
-        <v>7244.2609354405113</v>
+        <v>7400.0679823119299</v>
       </c>
       <c r="AG3" s="3">
         <f t="shared" si="0"/>
-        <v>8330.9000757565882</v>
+        <v>8510.078179658718</v>
       </c>
       <c r="AH3" s="3">
         <f t="shared" si="0"/>
-        <v>9580.5350871200753</v>
+        <v>9786.5899066075253</v>
       </c>
       <c r="AI3" s="3">
         <f t="shared" si="0"/>
-        <v>11017.615350188085</v>
+        <v>11254.578392598652</v>
       </c>
       <c r="AJ3" s="3">
         <f t="shared" si="0"/>
-        <v>12670.257652716296</v>
+        <v>12942.765151488449</v>
       </c>
       <c r="AK3" s="3">
         <f t="shared" si="0"/>
-        <v>14570.796300623741</v>
+        <v>14884.179924211716</v>
       </c>
       <c r="AL3" s="3">
         <f t="shared" ref="AL3:AM3" si="1">AK3*1.15</f>
-        <v>16756.415745717299</v>
+        <v>17116.806912843473</v>
       </c>
       <c r="AM3" s="3">
         <f t="shared" si="1"/>
-        <v>19269.878107574892</v>
-      </c>
-    </row>
-    <row r="4" spans="2:39" ht="15" x14ac:dyDescent="0.2">
+        <v>19684.327949769991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:39" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>34</v>
       </c>
@@ -6004,7 +5994,7 @@
       </c>
       <c r="M4" s="119">
         <f t="shared" ref="M4:N4" si="2">M3-M5</f>
-        <v>152.29146400000002</v>
+        <v>165.5342</v>
       </c>
       <c r="N4" s="5">
         <f t="shared" si="2"/>
@@ -6029,70 +6019,70 @@
       </c>
       <c r="X4" s="130">
         <f>SUM(K4:N4)</f>
-        <v>601.14239500000008</v>
+        <v>614.385131</v>
       </c>
       <c r="Y4" s="9">
         <f>Y3-Y5</f>
-        <v>735.31422337499998</v>
+        <v>751.12910617500006</v>
       </c>
       <c r="Z4" s="9">
         <f t="shared" ref="Z4:AK4" si="3">Z3-Z5</f>
-        <v>845.61135688124978</v>
+        <v>863.7984721012499</v>
       </c>
       <c r="AA4" s="9">
         <f t="shared" si="3"/>
-        <v>972.45306041343747</v>
+        <v>993.36824291643734</v>
       </c>
       <c r="AB4" s="9">
         <f t="shared" si="3"/>
-        <v>1118.3210194754529</v>
+        <v>1142.3734793539029</v>
       </c>
       <c r="AC4" s="9">
         <f t="shared" si="3"/>
-        <v>1286.0691723967707</v>
+        <v>1313.729501256988</v>
       </c>
       <c r="AD4" s="9">
         <f t="shared" si="3"/>
-        <v>1478.9795482562863</v>
+        <v>1510.7889264455362</v>
       </c>
       <c r="AE4" s="9">
         <f t="shared" si="3"/>
-        <v>1700.8264804947294</v>
+        <v>1737.4072654123665</v>
       </c>
       <c r="AF4" s="9">
         <f t="shared" si="3"/>
-        <v>1955.9504525689381</v>
+        <v>1998.0183552242215</v>
       </c>
       <c r="AG4" s="9">
         <f t="shared" si="3"/>
-        <v>2249.3430204542792</v>
+        <v>2297.7211085078543</v>
       </c>
       <c r="AH4" s="9">
         <f t="shared" si="3"/>
-        <v>2586.7444735224208</v>
+        <v>2642.3792747840316</v>
       </c>
       <c r="AI4" s="9">
         <f t="shared" si="3"/>
-        <v>2974.7561445507836</v>
+        <v>3038.7361660016359</v>
       </c>
       <c r="AJ4" s="9">
         <f t="shared" si="3"/>
-        <v>3420.9695662333997</v>
+        <v>3494.5465909018822</v>
       </c>
       <c r="AK4" s="9">
         <f t="shared" si="3"/>
-        <v>3934.1150011684094</v>
+        <v>4018.7285795371627</v>
       </c>
       <c r="AL4" s="9">
         <f t="shared" ref="AL4" si="4">AL3-AL5</f>
-        <v>4524.2322513436702</v>
+        <v>4621.5378664677373</v>
       </c>
       <c r="AM4" s="9">
         <f t="shared" ref="AM4" si="5">AM3-AM5</f>
-        <v>5202.8670890452213</v>
-      </c>
-    </row>
-    <row r="5" spans="2:39" ht="15" x14ac:dyDescent="0.2">
+        <v>5314.7685464378974</v>
+      </c>
+    </row>
+    <row r="5" spans="2:39" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -6138,7 +6128,7 @@
       </c>
       <c r="M5" s="120">
         <f>M3*0.74</f>
-        <v>433.44493599999998</v>
+        <v>471.13580000000007</v>
       </c>
       <c r="N5" s="57">
         <f>N3*0.74</f>
@@ -6167,70 +6157,70 @@
       </c>
       <c r="X5" s="129">
         <f>X3-X4</f>
-        <v>1767.0193549999997</v>
+        <v>1804.7102190000001</v>
       </c>
       <c r="Y5" s="58">
         <f>Y3*0.73</f>
-        <v>1988.0717891249997</v>
+        <v>2030.8305463249997</v>
       </c>
       <c r="Z5" s="58">
         <f t="shared" ref="Z5:AK5" si="8">Z3*0.73</f>
-        <v>2286.2825574937497</v>
+        <v>2335.4551282737493</v>
       </c>
       <c r="AA5" s="58">
         <f t="shared" si="8"/>
-        <v>2629.2249411178118</v>
+        <v>2685.7733975148117</v>
       </c>
       <c r="AB5" s="58">
         <f t="shared" si="8"/>
-        <v>3023.6086822854832</v>
+        <v>3088.6394071420332</v>
       </c>
       <c r="AC5" s="58">
         <f t="shared" si="8"/>
-        <v>3477.1499846283054</v>
+        <v>3551.9353182133377</v>
       </c>
       <c r="AD5" s="58">
         <f t="shared" si="8"/>
-        <v>3998.7224823225511</v>
+        <v>4084.7256159453382</v>
       </c>
       <c r="AE5" s="58">
         <f t="shared" si="8"/>
-        <v>4598.530854670933</v>
+        <v>4697.4344583371385</v>
       </c>
       <c r="AF5" s="58">
         <f t="shared" si="8"/>
-        <v>5288.3104828715732</v>
+        <v>5402.0496270877084</v>
       </c>
       <c r="AG5" s="58">
         <f t="shared" si="8"/>
-        <v>6081.557055302309</v>
+        <v>6212.3570711508637</v>
       </c>
       <c r="AH5" s="58">
         <f t="shared" si="8"/>
-        <v>6993.7906135976546</v>
+        <v>7144.2106318234937</v>
       </c>
       <c r="AI5" s="58">
         <f t="shared" si="8"/>
-        <v>8042.8592056373018</v>
+        <v>8215.8422265970166</v>
       </c>
       <c r="AJ5" s="58">
         <f t="shared" si="8"/>
-        <v>9249.2880864828967</v>
+        <v>9448.218560586567</v>
       </c>
       <c r="AK5" s="58">
         <f t="shared" si="8"/>
-        <v>10636.681299455331</v>
+        <v>10865.451344674553</v>
       </c>
       <c r="AL5" s="58">
         <f t="shared" ref="AL5:AM5" si="9">AL3*0.73</f>
-        <v>12232.183494373628</v>
+        <v>12495.269046375735</v>
       </c>
       <c r="AM5" s="58">
         <f t="shared" si="9"/>
-        <v>14067.011018529671</v>
-      </c>
-    </row>
-    <row r="6" spans="2:39" ht="15" x14ac:dyDescent="0.2">
+        <v>14369.559403332094</v>
+      </c>
+    </row>
+    <row r="6" spans="2:39" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
@@ -6356,7 +6346,7 @@
         <v>779.38135538082281</v>
       </c>
     </row>
-    <row r="7" spans="2:39" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:39" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
@@ -6481,7 +6471,7 @@
         <v>1412.9518528496542</v>
       </c>
     </row>
-    <row r="8" spans="2:39" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:39" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
@@ -6606,7 +6596,7 @@
         <v>755.81141808473603</v>
       </c>
     </row>
-    <row r="9" spans="2:39" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:39" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>21</v>
       </c>
@@ -6731,7 +6721,7 @@
         <v>254.90376657199999</v>
       </c>
     </row>
-    <row r="10" spans="2:39" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:39" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
@@ -6855,7 +6845,7 @@
         <v>56.232972727291902</v>
       </c>
     </row>
-    <row r="11" spans="2:39" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:39" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
@@ -6989,7 +6979,7 @@
         <v>3259.2813656145045</v>
       </c>
     </row>
-    <row r="12" spans="2:39" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:39" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
@@ -7035,7 +7025,7 @@
       </c>
       <c r="M12" s="118">
         <f t="shared" si="28"/>
-        <v>-165.15242192800008</v>
+        <v>-127.46155792799999</v>
       </c>
       <c r="N12" s="4">
         <f t="shared" si="28"/>
@@ -7060,70 +7050,70 @@
       </c>
       <c r="X12" s="118">
         <f>X5-X11</f>
-        <v>-668.11633740673619</v>
+        <v>-630.42547340673582</v>
       </c>
       <c r="Y12" s="4">
         <f t="shared" ref="Y12:AK12" si="29">Y5-Y11</f>
-        <v>-484.32858564423577</v>
+        <v>-441.56982844423578</v>
       </c>
       <c r="Z12" s="4">
         <f t="shared" si="29"/>
-        <v>-225.52534013611103</v>
+        <v>-176.35276935611137</v>
       </c>
       <c r="AA12" s="4">
         <f t="shared" si="29"/>
-        <v>75.79479158486356</v>
+        <v>132.34324798186344</v>
       </c>
       <c r="AB12" s="4">
         <f t="shared" si="29"/>
-        <v>426.26462525882562</v>
+        <v>491.29535011537564</v>
       </c>
       <c r="AC12" s="4">
         <f t="shared" si="29"/>
-        <v>833.5182250304365</v>
+        <v>908.30355861546877</v>
       </c>
       <c r="AD12" s="4">
         <f t="shared" si="29"/>
-        <v>1306.3416851922539</v>
+        <v>1392.344818815041</v>
       </c>
       <c r="AE12" s="4">
         <f t="shared" si="29"/>
-        <v>1854.8465443488594</v>
+        <v>1953.750148015065</v>
       </c>
       <c r="AF12" s="4">
         <f t="shared" si="29"/>
-        <v>2490.669228341214</v>
+        <v>2604.4083725573491</v>
       </c>
       <c r="AG12" s="4">
         <f t="shared" si="29"/>
-        <v>3227.2004277593942</v>
+        <v>3358.0004436079489</v>
       </c>
       <c r="AH12" s="4">
         <f t="shared" si="29"/>
-        <v>4079.8489017875436</v>
+        <v>4230.2689200133827</v>
       </c>
       <c r="AI12" s="4">
         <f t="shared" si="29"/>
-        <v>5066.3448739316218</v>
+        <v>5239.3278948913367</v>
       </c>
       <c r="AJ12" s="4">
         <f t="shared" si="29"/>
-        <v>6207.0889600622904</v>
+        <v>6406.0194341659608</v>
       </c>
       <c r="AK12" s="4">
         <f t="shared" si="29"/>
-        <v>7525.5534603231808</v>
+        <v>7754.3235055424029</v>
       </c>
       <c r="AL12" s="4">
         <f t="shared" ref="AL12" si="30">AL5-AL11</f>
-        <v>9048.7438712445928</v>
+        <v>9311.8294232466997</v>
       </c>
       <c r="AM12" s="4">
         <f t="shared" ref="AM12" si="31">AM5-AM11</f>
-        <v>10807.729652915166</v>
-      </c>
-    </row>
-    <row r="13" spans="2:39" ht="15" x14ac:dyDescent="0.2">
+        <v>11110.27803771759</v>
+      </c>
+    </row>
+    <row r="13" spans="2:39" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
@@ -7248,7 +7238,7 @@
         <v>-6.0720532103376552</v>
       </c>
     </row>
-    <row r="14" spans="2:39" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:39" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
         <v>93</v>
       </c>
@@ -7372,7 +7362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:39" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:39" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="39" t="s">
         <v>92</v>
       </c>
@@ -7497,7 +7487,7 @@
         <v>21.196999999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:39" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:39" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>26</v>
       </c>
@@ -7543,7 +7533,7 @@
       </c>
       <c r="M16" s="119">
         <f t="shared" si="40"/>
-        <v>-165.8944219280001</v>
+        <v>-128.20355792799998</v>
       </c>
       <c r="N16" s="5">
         <f t="shared" si="40"/>
@@ -7568,70 +7558,70 @@
       </c>
       <c r="X16" s="119">
         <f>X12+X13+X14-X15</f>
-        <v>-694.70133740673623</v>
+        <v>-657.01047340673585</v>
       </c>
       <c r="Y16" s="5">
         <f>Y12+Y13+Y14-Y15</f>
-        <v>-510.95668964423578</v>
+        <v>-468.19793244423579</v>
       </c>
       <c r="Z16" s="5">
         <f t="shared" ref="Z16:AK16" si="42">Z12+Z13+Z14-Z15</f>
-        <v>-252.19689296811103</v>
+        <v>-203.02432218811137</v>
       </c>
       <c r="AA16" s="5">
         <f t="shared" si="42"/>
-        <v>49.079442330207556</v>
+        <v>105.62789872720744</v>
       </c>
       <c r="AB16" s="5">
         <f t="shared" si="42"/>
-        <v>399.50512921013234</v>
+        <v>464.53585406668236</v>
       </c>
       <c r="AC16" s="5">
         <f t="shared" si="42"/>
-        <v>806.7142290133537</v>
+        <v>881.49956259838598</v>
       </c>
       <c r="AD16" s="5">
         <f t="shared" si="42"/>
-        <v>1279.4928332070344</v>
+        <v>1365.4959668298216</v>
       </c>
       <c r="AE16" s="5">
         <f t="shared" si="42"/>
-        <v>1827.9524775477582</v>
+        <v>1926.8560812139638</v>
       </c>
       <c r="AF16" s="5">
         <f t="shared" si="42"/>
-        <v>2463.7295850057039</v>
+        <v>2577.4687292218391</v>
       </c>
       <c r="AG16" s="5">
         <f t="shared" si="42"/>
-        <v>3200.2148432772001</v>
+        <v>3331.0148591257548</v>
       </c>
       <c r="AH16" s="5">
         <f t="shared" si="42"/>
-        <v>4052.8170086294917</v>
+        <v>4203.2370268553314</v>
       </c>
       <c r="AI16" s="5">
         <f t="shared" si="42"/>
-        <v>5039.2663016283059</v>
+        <v>5212.2493225880207</v>
       </c>
       <c r="AJ16" s="5">
         <f t="shared" si="42"/>
-        <v>6179.9633351805478</v>
+        <v>6378.8938092842182</v>
       </c>
       <c r="AK16" s="5">
         <f t="shared" si="42"/>
-        <v>7498.3804064423839</v>
+        <v>7727.150451661606</v>
       </c>
       <c r="AL16" s="5">
         <f t="shared" ref="AL16" si="43">AL12+AL13+AL14-AL15</f>
-        <v>9021.5230089327506</v>
+        <v>9284.6085609348575</v>
       </c>
       <c r="AM16" s="5">
         <f t="shared" ref="AM16" si="44">AM12+AM13+AM14-AM15</f>
-        <v>10780.460599704829</v>
-      </c>
-    </row>
-    <row r="17" spans="2:78" ht="15" x14ac:dyDescent="0.2">
+        <v>11083.008984507253</v>
+      </c>
+    </row>
+    <row r="17" spans="2:78" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="s">
         <v>94</v>
       </c>
@@ -7755,7 +7745,7 @@
         <v>1.1129276344999999</v>
       </c>
     </row>
-    <row r="18" spans="2:78" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:78" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
@@ -7801,7 +7791,7 @@
       </c>
       <c r="M18" s="118">
         <f t="shared" si="47"/>
-        <v>-166.17318882800009</v>
+        <v>-128.48232482799997</v>
       </c>
       <c r="N18" s="4">
         <f t="shared" si="47"/>
@@ -7826,226 +7816,226 @@
       </c>
       <c r="X18" s="129">
         <f>X16-X17</f>
-        <v>-695.81426504123624</v>
+        <v>-658.12340104123587</v>
       </c>
       <c r="Y18" s="3">
         <f>Y16-Y17</f>
-        <v>-512.06961727873579</v>
+        <v>-469.3108600787358</v>
       </c>
       <c r="Z18" s="3">
         <f t="shared" ref="Z18:AK18" si="49">Z16-Z17</f>
-        <v>-253.30982060261104</v>
+        <v>-204.13724982261138</v>
       </c>
       <c r="AA18" s="3">
         <f t="shared" si="49"/>
-        <v>47.966514695707559</v>
+        <v>104.51497109270744</v>
       </c>
       <c r="AB18" s="3">
         <f t="shared" si="49"/>
-        <v>398.39220157563233</v>
+        <v>463.42292643218235</v>
       </c>
       <c r="AC18" s="3">
         <f t="shared" si="49"/>
-        <v>805.60130137885369</v>
+        <v>880.38663496388597</v>
       </c>
       <c r="AD18" s="3">
         <f t="shared" si="49"/>
-        <v>1278.3799055725344</v>
+        <v>1364.3830391953215</v>
       </c>
       <c r="AE18" s="3">
         <f t="shared" si="49"/>
-        <v>1826.8395499132582</v>
+        <v>1925.7431535794638</v>
       </c>
       <c r="AF18" s="3">
         <f t="shared" si="49"/>
-        <v>2462.6166573712039</v>
+        <v>2576.3558015873391</v>
       </c>
       <c r="AG18" s="3">
         <f t="shared" si="49"/>
-        <v>3199.1019156427001</v>
+        <v>3329.9019314912548</v>
       </c>
       <c r="AH18" s="3">
         <f t="shared" si="49"/>
-        <v>4051.7040809949917</v>
+        <v>4202.1240992208313</v>
       </c>
       <c r="AI18" s="3">
         <f t="shared" si="49"/>
-        <v>5038.1533739938059</v>
+        <v>5211.1363949535207</v>
       </c>
       <c r="AJ18" s="3">
         <f t="shared" si="49"/>
-        <v>6178.8504075460478</v>
+        <v>6377.7808816497181</v>
       </c>
       <c r="AK18" s="3">
         <f t="shared" si="49"/>
-        <v>7497.2674788078839</v>
+        <v>7726.037524027106</v>
       </c>
       <c r="AL18" s="3">
         <f t="shared" ref="AL18" si="50">AL16-AL17</f>
-        <v>9020.4100812982506</v>
+        <v>9283.4956333003574</v>
       </c>
       <c r="AM18" s="3">
         <f t="shared" ref="AM18" si="51">AM16-AM17</f>
-        <v>10779.347672070329</v>
+        <v>11081.896056872753</v>
       </c>
       <c r="AN18" s="3">
         <f>AM18*(1+$AP$21)</f>
-        <v>10887.141148791032</v>
+        <v>11192.71501744148</v>
       </c>
       <c r="AO18" s="3">
         <f t="shared" ref="AO18:BZ18" si="52">AN18*(1+$AP$21)</f>
-        <v>10996.012560278943</v>
+        <v>11304.642167615895</v>
       </c>
       <c r="AP18" s="3">
         <f t="shared" si="52"/>
-        <v>11105.972685881732</v>
+        <v>11417.688589292055</v>
       </c>
       <c r="AQ18" s="3">
         <f t="shared" si="52"/>
-        <v>11217.032412740549</v>
+        <v>11531.865475184975</v>
       </c>
       <c r="AR18" s="3">
         <f t="shared" si="52"/>
-        <v>11329.202736867956</v>
+        <v>11647.184129936824</v>
       </c>
       <c r="AS18" s="3">
         <f t="shared" si="52"/>
-        <v>11442.494764236635</v>
+        <v>11763.655971236192</v>
       </c>
       <c r="AT18" s="3">
         <f t="shared" si="52"/>
-        <v>11556.919711879002</v>
+        <v>11881.292530948554</v>
       </c>
       <c r="AU18" s="3">
         <f t="shared" si="52"/>
-        <v>11672.488908997791</v>
+        <v>12000.105456258039</v>
       </c>
       <c r="AV18" s="3">
         <f t="shared" si="52"/>
-        <v>11789.213798087769</v>
+        <v>12120.10651082062</v>
       </c>
       <c r="AW18" s="3">
         <f t="shared" si="52"/>
-        <v>11907.105936068647</v>
+        <v>12241.307575928826</v>
       </c>
       <c r="AX18" s="3">
         <f t="shared" si="52"/>
-        <v>12026.176995429334</v>
+        <v>12363.720651688114</v>
       </c>
       <c r="AY18" s="3">
         <f t="shared" si="52"/>
-        <v>12146.438765383627</v>
+        <v>12487.357858204996</v>
       </c>
       <c r="AZ18" s="3">
         <f t="shared" si="52"/>
-        <v>12267.903153037463</v>
+        <v>12612.231436787046</v>
       </c>
       <c r="BA18" s="3">
         <f t="shared" si="52"/>
-        <v>12390.582184567838</v>
+        <v>12738.353751154917</v>
       </c>
       <c r="BB18" s="3">
         <f t="shared" si="52"/>
-        <v>12514.488006413518</v>
+        <v>12865.737288666465</v>
       </c>
       <c r="BC18" s="3">
         <f t="shared" si="52"/>
-        <v>12639.632886477653</v>
+        <v>12994.394661553129</v>
       </c>
       <c r="BD18" s="3">
         <f t="shared" si="52"/>
-        <v>12766.029215342431</v>
+        <v>13124.33860816866</v>
       </c>
       <c r="BE18" s="3">
         <f t="shared" si="52"/>
-        <v>12893.689507495856</v>
+        <v>13255.581994250348</v>
       </c>
       <c r="BF18" s="3">
         <f t="shared" si="52"/>
-        <v>13022.626402570815</v>
+        <v>13388.137814192851</v>
       </c>
       <c r="BG18" s="3">
         <f t="shared" si="52"/>
-        <v>13152.852666596524</v>
+        <v>13522.019192334779</v>
       </c>
       <c r="BH18" s="3">
         <f t="shared" si="52"/>
-        <v>13284.381193262489</v>
+        <v>13657.239384258128</v>
       </c>
       <c r="BI18" s="3">
         <f t="shared" si="52"/>
-        <v>13417.225005195114</v>
+        <v>13793.811778100709</v>
       </c>
       <c r="BJ18" s="3">
         <f t="shared" si="52"/>
-        <v>13551.397255247066</v>
+        <v>13931.749895881716</v>
       </c>
       <c r="BK18" s="3">
         <f t="shared" si="52"/>
-        <v>13686.911227799537</v>
+        <v>14071.067394840533</v>
       </c>
       <c r="BL18" s="3">
         <f t="shared" si="52"/>
-        <v>13823.780340077532</v>
+        <v>14211.778068788939</v>
       </c>
       <c r="BM18" s="3">
         <f t="shared" si="52"/>
-        <v>13962.018143478308</v>
+        <v>14353.895849476829</v>
       </c>
       <c r="BN18" s="3">
         <f t="shared" si="52"/>
-        <v>14101.63832491309</v>
+        <v>14497.434807971596</v>
       </c>
       <c r="BO18" s="3">
         <f t="shared" si="52"/>
-        <v>14242.654708162221</v>
+        <v>14642.409156051313</v>
       </c>
       <c r="BP18" s="3">
         <f t="shared" si="52"/>
-        <v>14385.081255243844</v>
+        <v>14788.833247611827</v>
       </c>
       <c r="BQ18" s="3">
         <f t="shared" si="52"/>
-        <v>14528.932067796282</v>
+        <v>14936.721580087946</v>
       </c>
       <c r="BR18" s="3">
         <f t="shared" si="52"/>
-        <v>14674.221388474245</v>
+        <v>15086.088795888825</v>
       </c>
       <c r="BS18" s="3">
         <f t="shared" si="52"/>
-        <v>14820.963602358988</v>
+        <v>15236.949683847713</v>
       </c>
       <c r="BT18" s="3">
         <f t="shared" si="52"/>
-        <v>14969.173238382578</v>
+        <v>15389.319180686191</v>
       </c>
       <c r="BU18" s="3">
         <f t="shared" si="52"/>
-        <v>15118.864970766404</v>
+        <v>15543.212372493053</v>
       </c>
       <c r="BV18" s="3">
         <f t="shared" si="52"/>
-        <v>15270.053620474069</v>
+        <v>15698.644496217985</v>
       </c>
       <c r="BW18" s="3">
         <f t="shared" si="52"/>
-        <v>15422.75415667881</v>
+        <v>15855.630941180165</v>
       </c>
       <c r="BX18" s="3">
         <f t="shared" si="52"/>
-        <v>15576.981698245598</v>
+        <v>16014.187250591967</v>
       </c>
       <c r="BY18" s="3">
         <f t="shared" si="52"/>
-        <v>15732.751515228054</v>
+        <v>16174.329123097887</v>
       </c>
       <c r="BZ18" s="3">
         <f t="shared" si="52"/>
-        <v>15890.079030380335</v>
-      </c>
-    </row>
-    <row r="19" spans="2:78" ht="15" x14ac:dyDescent="0.2">
+        <v>16336.072414328866</v>
+      </c>
+    </row>
+    <row r="19" spans="2:78" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>31</v>
       </c>
@@ -8090,7 +8080,7 @@
       </c>
       <c r="M19" s="124">
         <f t="shared" si="53"/>
-        <v>-0.27978675669104691</v>
+        <v>-0.21632643153378855</v>
       </c>
       <c r="N19" s="8">
         <f t="shared" si="53"/>
@@ -8115,70 +8105,70 @@
       </c>
       <c r="X19" s="124">
         <f>X18/X20</f>
-        <v>-1.1715464922368304</v>
+        <v>-1.1080861670795716</v>
       </c>
       <c r="Y19" s="35">
         <f>X19</f>
-        <v>-1.1715464922368304</v>
+        <v>-1.1080861670795716</v>
       </c>
       <c r="Z19" s="35">
         <f t="shared" ref="Z19:AK19" si="55">Y19</f>
-        <v>-1.1715464922368304</v>
+        <v>-1.1080861670795716</v>
       </c>
       <c r="AA19" s="35">
         <f t="shared" si="55"/>
-        <v>-1.1715464922368304</v>
+        <v>-1.1080861670795716</v>
       </c>
       <c r="AB19" s="35">
         <f t="shared" si="55"/>
-        <v>-1.1715464922368304</v>
+        <v>-1.1080861670795716</v>
       </c>
       <c r="AC19" s="35">
         <f t="shared" si="55"/>
-        <v>-1.1715464922368304</v>
+        <v>-1.1080861670795716</v>
       </c>
       <c r="AD19" s="35">
         <f t="shared" si="55"/>
-        <v>-1.1715464922368304</v>
+        <v>-1.1080861670795716</v>
       </c>
       <c r="AE19" s="35">
         <f t="shared" si="55"/>
-        <v>-1.1715464922368304</v>
+        <v>-1.1080861670795716</v>
       </c>
       <c r="AF19" s="35">
         <f t="shared" si="55"/>
-        <v>-1.1715464922368304</v>
+        <v>-1.1080861670795716</v>
       </c>
       <c r="AG19" s="35">
         <f t="shared" si="55"/>
-        <v>-1.1715464922368304</v>
+        <v>-1.1080861670795716</v>
       </c>
       <c r="AH19" s="35">
         <f t="shared" si="55"/>
-        <v>-1.1715464922368304</v>
+        <v>-1.1080861670795716</v>
       </c>
       <c r="AI19" s="35">
         <f t="shared" si="55"/>
-        <v>-1.1715464922368304</v>
+        <v>-1.1080861670795716</v>
       </c>
       <c r="AJ19" s="35">
         <f t="shared" si="55"/>
-        <v>-1.1715464922368304</v>
+        <v>-1.1080861670795716</v>
       </c>
       <c r="AK19" s="35">
         <f t="shared" si="55"/>
-        <v>-1.1715464922368304</v>
+        <v>-1.1080861670795716</v>
       </c>
       <c r="AL19" s="35">
         <f t="shared" ref="AL19:AM19" si="56">AK19</f>
-        <v>-1.1715464922368304</v>
+        <v>-1.1080861670795716</v>
       </c>
       <c r="AM19" s="35">
         <f t="shared" si="56"/>
-        <v>-1.1715464922368304</v>
-      </c>
-    </row>
-    <row r="20" spans="2:78" ht="15" x14ac:dyDescent="0.2">
+        <v>-1.1080861670795716</v>
+      </c>
+    </row>
+    <row r="20" spans="2:78" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>1</v>
       </c>
@@ -8300,7 +8290,7 @@
         <v>593.928</v>
       </c>
     </row>
-    <row r="21" spans="2:78" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:78" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -8317,7 +8307,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="2:78" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:78" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>16</v>
       </c>
@@ -8388,7 +8378,7 @@
       </c>
       <c r="X22" s="126">
         <f t="shared" ref="X22:AK22" si="63">X5/X3</f>
-        <v>0.74615653048192332</v>
+        <v>0.7460269058844663</v>
       </c>
       <c r="Y22" s="10">
         <f t="shared" si="63"/>
@@ -8416,7 +8406,7 @@
       </c>
       <c r="AE22" s="10">
         <f t="shared" si="63"/>
-        <v>0.72999999999999987</v>
+        <v>0.73</v>
       </c>
       <c r="AF22" s="10">
         <f t="shared" si="63"/>
@@ -8440,7 +8430,7 @@
       </c>
       <c r="AK22" s="10">
         <f t="shared" si="63"/>
-        <v>0.73</v>
+        <v>0.73000000000000009</v>
       </c>
       <c r="AL22" s="10">
         <f t="shared" ref="AL22:AM22" si="64">AL5/AL3</f>
@@ -8458,7 +8448,7 @@
       </c>
       <c r="AR22" s="68"/>
     </row>
-    <row r="23" spans="2:78" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:78" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>24</v>
       </c>
@@ -8504,7 +8494,7 @@
       </c>
       <c r="M23" s="127">
         <f t="shared" ref="M23" si="67">M12/M3</f>
-        <v>-0.28195690404079393</v>
+        <v>-0.20020035171753023</v>
       </c>
       <c r="N23" s="14">
         <f t="shared" ref="N23" si="68">N12/N3</f>
@@ -8529,78 +8519,78 @@
       </c>
       <c r="X23" s="127">
         <f t="shared" ref="X23:AK23" si="69">X12/X3</f>
-        <v>-0.28212445260833058</v>
+        <v>-0.26060381349033462</v>
       </c>
       <c r="Y23" s="14">
         <f t="shared" si="69"/>
-        <v>-0.17784059381271272</v>
+        <v>-0.1587261799600222</v>
       </c>
       <c r="Z23" s="14">
         <f t="shared" si="69"/>
-        <v>-7.2009252644535005E-2</v>
+        <v>-5.5123097879905568E-2</v>
       </c>
       <c r="AA23" s="14">
         <f t="shared" si="69"/>
-        <v>2.1044299782667825E-2</v>
+        <v>3.597122941055101E-2</v>
       </c>
       <c r="AB23" s="14">
         <f t="shared" si="69"/>
-        <v>0.10291450023345393</v>
+        <v>0.11611766810813459</v>
       </c>
       <c r="AC23" s="14">
         <f t="shared" si="69"/>
-        <v>0.17499052585080296</v>
+        <v>0.1866761464909838</v>
       </c>
       <c r="AD23" s="14">
         <f t="shared" si="69"/>
-        <v>0.2384835242770974</v>
+        <v>0.24883231171446732</v>
       </c>
       <c r="AE23" s="14">
         <f t="shared" si="69"/>
-        <v>0.29445012334739701</v>
+        <v>0.30362054451226472</v>
       </c>
       <c r="AF23" s="14">
         <f t="shared" si="69"/>
-        <v>0.34381274370672027</v>
+        <v>0.35194384413529128</v>
       </c>
       <c r="AG23" s="14">
         <f t="shared" si="69"/>
-        <v>0.38737716194084937</v>
+        <v>0.39459102169407045</v>
       </c>
       <c r="AH23" s="14">
         <f t="shared" si="69"/>
-        <v>0.42584770732403349</v>
+        <v>0.43225157694175675</v>
       </c>
       <c r="AI23" s="14">
         <f t="shared" si="69"/>
-        <v>0.45984042035422235</v>
+        <v>0.4655285797588718</v>
       </c>
       <c r="AJ23" s="14">
         <f t="shared" si="69"/>
-        <v>0.48989445441400253</v>
+        <v>0.49494983175440321</v>
       </c>
       <c r="AK23" s="14">
         <f t="shared" si="69"/>
-        <v>0.51648196193649554</v>
+        <v>0.52097754428032961</v>
       </c>
       <c r="AL23" s="14">
         <f t="shared" ref="AL23:AM23" si="70">AL12/AL3</f>
-        <v>0.54001667233383865</v>
+        <v>0.54401673575342113</v>
       </c>
       <c r="AM23" s="14">
         <f t="shared" si="70"/>
-        <v>0.56086133978536701</v>
+        <v>0.56442252263163561</v>
       </c>
       <c r="AO23" s="146" t="s">
         <v>115</v>
       </c>
       <c r="AP23" s="141">
         <f>NPV(AP22,X18:BZ18)</f>
-        <v>96369.738915896727</v>
+        <v>99519.172695990259</v>
       </c>
       <c r="AR23" s="69"/>
     </row>
-    <row r="24" spans="2:78" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:78" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>29</v>
       </c>
@@ -8646,7 +8636,7 @@
       </c>
       <c r="M24" s="126">
         <f t="shared" ref="M24" si="73">M18/M3</f>
-        <v>-0.28369961099907753</v>
+        <v>-0.20180364211915114</v>
       </c>
       <c r="N24" s="10">
         <f t="shared" ref="N24" si="74">N18/N3</f>
@@ -8671,67 +8661,67 @@
       </c>
       <c r="X24" s="126">
         <f t="shared" ref="X24:AK24" si="75">X18/X3</f>
-        <v>-0.29382041367792394</v>
+        <v>-0.27205351828783264</v>
       </c>
       <c r="Y24" s="10">
         <f t="shared" si="75"/>
-        <v>-0.18802682209881397</v>
+        <v>-0.16869793911532505</v>
       </c>
       <c r="Z24" s="10">
         <f t="shared" si="75"/>
-        <v>-8.0880715480160681E-2</v>
+        <v>-6.3807773725310032E-2</v>
       </c>
       <c r="AA24" s="10">
         <f t="shared" si="75"/>
-        <v>1.3317824268386749E-2</v>
+        <v>2.840743339265861E-2</v>
       </c>
       <c r="AB24" s="10">
         <f t="shared" si="75"/>
-        <v>9.6185167364442811E-2</v>
+        <v>0.10953002008367375</v>
       </c>
       <c r="AC24" s="10">
         <f t="shared" si="75"/>
-        <v>0.16912958963702215</v>
+        <v>0.18093861119264776</v>
       </c>
       <c r="AD24" s="10">
         <f t="shared" si="75"/>
-        <v>0.23337886917471595</v>
+        <v>0.24383513417022457</v>
       </c>
       <c r="AE24" s="10">
         <f t="shared" si="75"/>
-        <v>0.29000411513648727</v>
+        <v>0.29926814617242153</v>
       </c>
       <c r="AF24" s="10">
         <f t="shared" si="75"/>
-        <v>0.33994035821149732</v>
+        <v>0.3481529909921765</v>
       </c>
       <c r="AG24" s="10">
         <f t="shared" si="75"/>
-        <v>0.384004355658073</v>
+        <v>0.39128922921655168</v>
       </c>
       <c r="AH24" s="10">
         <f t="shared" si="75"/>
-        <v>0.42290999867450418</v>
+        <v>0.42937572119822048</v>
       </c>
       <c r="AI24" s="10">
         <f t="shared" si="75"/>
-        <v>0.45728165431985224</v>
+        <v>0.46302368806462979</v>
       </c>
       <c r="AJ24" s="10">
         <f t="shared" si="75"/>
-        <v>0.48766572684663623</v>
+        <v>0.49276802962898991</v>
       </c>
       <c r="AK24" s="10">
         <f t="shared" si="75"/>
-        <v>0.51454068289232369</v>
+        <v>0.51907713850323445</v>
       </c>
       <c r="AL24" s="10">
         <f t="shared" ref="AL24:AM24" si="76">AL18/AL3</f>
-        <v>0.53832575045792463</v>
+        <v>0.54236141592124598</v>
       </c>
       <c r="AM24" s="10">
         <f t="shared" si="76"/>
-        <v>0.55938847209588849</v>
+        <v>0.56298066589579676</v>
       </c>
       <c r="AO24" s="146" t="s">
         <v>7</v>
@@ -8741,7 +8731,7 @@
         <v>2087.13</v>
       </c>
     </row>
-    <row r="25" spans="2:78" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:78" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>30</v>
       </c>
@@ -8787,7 +8777,7 @@
       </c>
       <c r="M25" s="126">
         <f t="shared" ref="M25" si="79">M17/M16</f>
-        <v>-1.6803874220737073E-3</v>
+        <v>-2.1744084525061108E-3</v>
       </c>
       <c r="N25" s="10">
         <f t="shared" ref="N25" si="80">N17/N16</f>
@@ -8812,77 +8802,77 @@
       </c>
       <c r="X25" s="126">
         <f t="shared" ref="X25:AK25" si="81">X17/X16</f>
-        <v>-1.6020231638742318E-3</v>
+        <v>-1.6939267782585547E-3</v>
       </c>
       <c r="Y25" s="10">
         <f t="shared" si="81"/>
-        <v>-2.1781251856686696E-3</v>
+        <v>-2.3770451712376026E-3</v>
       </c>
       <c r="Z25" s="10">
         <f t="shared" si="81"/>
-        <v>-4.4129315845327392E-3</v>
+        <v>-5.481745352011673E-3</v>
       </c>
       <c r="AA25" s="10">
         <f t="shared" si="81"/>
-        <v>2.2676044829772077E-2</v>
+        <v>1.0536303835544672E-2</v>
       </c>
       <c r="AB25" s="10">
         <f t="shared" si="81"/>
-        <v>2.7857655712716029E-3</v>
+        <v>2.395784146168927E-3</v>
       </c>
       <c r="AC25" s="10">
         <f t="shared" si="81"/>
-        <v>1.3795810145324427E-3</v>
+        <v>1.2625390660653717E-3</v>
       </c>
       <c r="AD25" s="10">
         <f t="shared" si="81"/>
-        <v>8.6981935780793647E-4</v>
+        <v>8.1503546076654306E-4</v>
       </c>
       <c r="AE25" s="10">
         <f t="shared" si="81"/>
-        <v>6.0883838511656429E-4</v>
+        <v>5.7758731715906351E-4</v>
       </c>
       <c r="AF25" s="10">
         <f t="shared" si="81"/>
-        <v>4.5172475147974619E-4</v>
+        <v>4.3179093576665919E-4</v>
       </c>
       <c r="AG25" s="10">
         <f t="shared" si="81"/>
-        <v>3.4776653724919896E-4</v>
+        <v>3.3411067844713683E-4</v>
       </c>
       <c r="AH25" s="10">
         <f t="shared" si="81"/>
-        <v>2.7460594251610426E-4</v>
+        <v>2.6477869969960773E-4</v>
       </c>
       <c r="AI25" s="10">
         <f t="shared" si="81"/>
-        <v>2.2085112551809114E-4</v>
+        <v>2.1352156537811235E-4</v>
       </c>
       <c r="AJ25" s="10">
         <f t="shared" si="81"/>
-        <v>1.8008644617104118E-4</v>
+        <v>1.7447031848691059E-4</v>
       </c>
       <c r="AK25" s="10">
         <f t="shared" si="81"/>
-        <v>1.4842240246224449E-4</v>
+        <v>1.4402820825892962E-4</v>
       </c>
       <c r="AL25" s="10">
         <f t="shared" ref="AL25:AM25" si="82">AL17/AL16</f>
-        <v>1.2336360871640227E-4</v>
+        <v>1.198680189041745E-4</v>
       </c>
       <c r="AM25" s="10">
         <f t="shared" si="82"/>
-        <v>1.0323562933205953E-4</v>
+        <v>1.0041746208594997E-4</v>
       </c>
       <c r="AO25" s="146" t="s">
         <v>116</v>
       </c>
       <c r="AP25" s="141">
         <f>AP23+AP24</f>
-        <v>98456.868915896732</v>
-      </c>
-    </row>
-    <row r="26" spans="2:78" x14ac:dyDescent="0.2">
+        <v>101606.30269599026</v>
+      </c>
+    </row>
+    <row r="26" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="M26" s="125"/>
       <c r="O26" s="7"/>
@@ -8896,11 +8886,11 @@
       </c>
       <c r="AP26" s="142">
         <f>AP25/Main!C7</f>
-        <v>165.77239819624052</v>
+        <v>171.0751180210232</v>
       </c>
       <c r="AQ26" s="68"/>
     </row>
-    <row r="27" spans="2:78" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:78" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
         <v>56</v>
       </c>
@@ -8944,12 +8934,12 @@
         <v>0.10066947912438984</v>
       </c>
       <c r="M27" s="126">
-        <f>M3/R3-1</f>
-        <v>4.868631421394598E-2</v>
+        <f t="shared" ref="M27:N27" si="84">M3/L3-1</f>
+        <v>7.6898615882423638E-2</v>
       </c>
       <c r="N27" s="10">
-        <f t="shared" ref="N27" si="84">N3/M3-1</f>
-        <v>0.11668721629729673</v>
+        <f t="shared" si="84"/>
+        <v>2.7352238993513023E-2</v>
       </c>
       <c r="O27" s="10"/>
       <c r="Q27" s="80">
@@ -8971,7 +8961,7 @@
         <v>37.08</v>
       </c>
     </row>
-    <row r="28" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
@@ -9013,7 +9003,7 @@
       </c>
       <c r="M28" s="128">
         <f>M3/I3-1</f>
-        <v>0.14999999999999991</v>
+        <v>0.25000000000000022</v>
       </c>
       <c r="N28" s="13">
         <f>N3/J3-1</f>
@@ -9035,7 +9025,7 @@
       </c>
       <c r="X28" s="128">
         <f t="shared" ref="X28:AK28" si="86">X3/W3-1</f>
-        <v>0.23394393233363586</v>
+        <v>0.26048316964371776</v>
       </c>
       <c r="Y28" s="13">
         <f t="shared" si="86"/>
@@ -9071,7 +9061,7 @@
       </c>
       <c r="AG28" s="13">
         <f t="shared" si="86"/>
-        <v>0.15000000000000013</v>
+        <v>0.14999999999999991</v>
       </c>
       <c r="AH28" s="13">
         <f t="shared" si="86"/>
@@ -9102,10 +9092,10 @@
       </c>
       <c r="AP28" s="144">
         <f>AP26/AP27-1</f>
-        <v>3.4706687755188925</v>
-      </c>
-    </row>
-    <row r="29" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>3.6136763220340669</v>
+      </c>
+    </row>
+    <row r="29" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -9142,7 +9132,7 @@
       <c r="AO29" s="85"/>
       <c r="AP29" s="86"/>
     </row>
-    <row r="30" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>171</v>
       </c>
@@ -9181,7 +9171,7 @@
       <c r="AM30" s="13"/>
       <c r="AO30" s="86"/>
     </row>
-    <row r="31" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>122</v>
       </c>
@@ -9257,7 +9247,7 @@
       <c r="AM31" s="13"/>
       <c r="AO31" s="86"/>
     </row>
-    <row r="32" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="87" t="s">
         <v>128</v>
       </c>
@@ -9338,7 +9328,7 @@
       <c r="AO32" s="85"/>
       <c r="AP32" s="86"/>
     </row>
-    <row r="33" spans="2:42" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="87" t="s">
         <v>129</v>
       </c>
@@ -9396,11 +9386,11 @@
       </c>
       <c r="AP33" s="56"/>
     </row>
-    <row r="34" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="AP34" s="56"/>
     </row>
-    <row r="35" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>36</v>
       </c>
@@ -9412,7 +9402,7 @@
       <c r="K35" s="107"/>
       <c r="L35" s="107"/>
     </row>
-    <row r="36" spans="2:42" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:42" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>3</v>
       </c>
@@ -9452,7 +9442,7 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="13"/>
     </row>
-    <row r="37" spans="2:42" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
         <v>37</v>
       </c>
@@ -9487,7 +9477,7 @@
         <v>186.82499999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:42" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
         <v>41</v>
       </c>
@@ -9522,7 +9512,7 @@
         <v>57.594999999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:42" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
         <v>38</v>
       </c>
@@ -9557,7 +9547,7 @@
         <v>405.89100000000002</v>
       </c>
     </row>
-    <row r="40" spans="2:42" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
         <v>42</v>
       </c>
@@ -9592,7 +9582,7 @@
         <v>425.95</v>
       </c>
     </row>
-    <row r="41" spans="2:42" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
         <v>39</v>
       </c>
@@ -9627,7 +9617,7 @@
         <v>424.416</v>
       </c>
     </row>
-    <row r="42" spans="2:42" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
         <v>40</v>
       </c>
@@ -9662,7 +9652,7 @@
         <v>154.328</v>
       </c>
     </row>
-    <row r="43" spans="2:42" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
         <v>45</v>
       </c>
@@ -9704,7 +9694,7 @@
         <v>186.77</v>
       </c>
     </row>
-    <row r="44" spans="2:42" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
         <v>44</v>
       </c>
@@ -9739,7 +9729,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="45" spans="2:42" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="11" t="s">
         <v>43</v>
       </c>
@@ -9781,13 +9771,13 @@
         <v>4919.420000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C46" s="2"/>
       <c r="F46" s="5"/>
       <c r="K46" s="84"/>
       <c r="L46" s="84"/>
     </row>
-    <row r="47" spans="2:42" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B47" s="11" t="s">
         <v>46</v>
       </c>
@@ -9822,7 +9812,7 @@
         <v>77.509</v>
       </c>
     </row>
-    <row r="48" spans="2:42" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B48" s="11" t="s">
         <v>47</v>
       </c>
@@ -9857,7 +9847,7 @@
         <v>231.19900000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B49" s="11" t="s">
         <v>48</v>
       </c>
@@ -9892,7 +9882,7 @@
         <v>147.19200000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B50" s="11" t="s">
         <v>49</v>
       </c>
@@ -9929,7 +9919,7 @@
       <c r="Q50" s="55"/>
       <c r="R50" s="55"/>
     </row>
-    <row r="51" spans="2:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B51" s="11" t="s">
         <v>50</v>
       </c>
@@ -9964,7 +9954,7 @@
         <v>716.154</v>
       </c>
     </row>
-    <row r="52" spans="2:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B52" s="11" t="s">
         <v>51</v>
       </c>
@@ -9999,7 +9989,7 @@
         <v>399.77600000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:18" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:18" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>4</v>
       </c>
@@ -10038,7 +10028,7 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
     </row>
-    <row r="54" spans="2:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
         <v>52</v>
       </c>
@@ -10073,7 +10063,7 @@
         <v>1.2999999999999999E-4</v>
       </c>
     </row>
-    <row r="55" spans="2:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B55" s="11" t="s">
         <v>53</v>
       </c>
@@ -10115,7 +10105,7 @@
         <v>4367.8141299999997</v>
       </c>
     </row>
-    <row r="56" spans="2:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -10127,7 +10117,7 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" spans="2:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B57" s="11" t="s">
         <v>54</v>
       </c>
@@ -10162,7 +10152,7 @@
         <v>551.59299999999996</v>
       </c>
     </row>
-    <row r="58" spans="2:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B58" s="11" t="s">
         <v>55</v>
       </c>
@@ -10203,10 +10193,10 @@
         <v>4919.4071299999996</v>
       </c>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F59" s="5"/>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B60" s="200" t="s">
         <v>200</v>
       </c>
@@ -10239,7 +10229,7 @@
         <v>551.60587000000123</v>
       </c>
     </row>
-    <row r="61" spans="2:18" s="213" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:18" s="213" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B61" s="213" t="s">
         <v>201</v>
       </c>
@@ -10285,7 +10275,7 @@
       <c r="Q61" s="214"/>
       <c r="R61" s="214"/>
     </row>
-    <row r="62" spans="2:18" s="213" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:18" s="213" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -10301,7 +10291,7 @@
       <c r="Q62" s="214"/>
       <c r="R62" s="214"/>
     </row>
-    <row r="63" spans="2:18" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:18" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="63" t="s">
         <v>3</v>
       </c>
@@ -10341,7 +10331,7 @@
       <c r="Q63" s="61"/>
       <c r="R63" s="61"/>
     </row>
-    <row r="64" spans="2:18" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:18" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="63" t="s">
         <v>4</v>
       </c>
@@ -10381,7 +10371,7 @@
       <c r="Q64" s="61"/>
       <c r="R64" s="61"/>
     </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B65" s="215" t="s">
         <v>7</v>
       </c>
@@ -10414,7 +10404,7 @@
         <v>2087.13</v>
       </c>
     </row>
-    <row r="67" spans="2:18" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="63" t="s">
         <v>0</v>
       </c>
@@ -10433,7 +10423,7 @@
       <c r="Q67" s="61"/>
       <c r="R67" s="61"/>
     </row>
-    <row r="68" spans="2:18" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:18" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="63" t="s">
         <v>2</v>
       </c>
@@ -10452,7 +10442,7 @@
       <c r="Q68" s="61"/>
       <c r="R68" s="61"/>
     </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B69" s="215" t="s">
         <v>5</v>
       </c>
@@ -10485,17 +10475,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B71" s="215" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B72" s="215" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B73" s="215" t="s">
         <v>216</v>
       </c>
@@ -10509,7 +10499,7 @@
   <pageSetup paperSize="119" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
   <ignoredErrors>
     <ignoredError sqref="V3:V4 V6:V8 V9:V13 W3:W4 V17:V20 W17:W20 W6:W13 V15 W15" formulaRange="1"/>
-    <ignoredError sqref="V5 V16:W16 X5 V14:X14 X16 X21 Y16:AK16 Y18 Z18:AK20 AL13:AM18 X18:X19 M27" formula="1"/>
+    <ignoredError sqref="V5 V16:W16 X5 V14:X14 X16 X21 Y16:AK16 Y18 Z18:AK20 AL13:AM18 X18:X19" formula="1"/>
     <ignoredError sqref="W5" formula="1" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
@@ -10527,9 +10517,9 @@
       <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="23" bestFit="1" customWidth="1"/>
     <col min="3" max="17" width="9" style="23"/>
     <col min="18" max="18" width="9" style="153" customWidth="1"/>
@@ -10539,7 +10529,7 @@
     <col min="28" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="30" t="s">
         <v>81</v>
       </c>
@@ -10622,7 +10612,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>87</v>
       </c>
@@ -10703,7 +10693,7 @@
         <v>57.591860754231618</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
         <v>73</v>
       </c>
@@ -10791,7 +10781,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
         <v>74</v>
       </c>
@@ -10879,7 +10869,7 @@
         <v>0.26506009344825054</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B5" s="28"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
@@ -10901,7 +10891,7 @@
       <c r="Z5" s="37"/>
       <c r="AA5" s="154"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B6" s="28" t="s">
         <v>75</v>
       </c>
@@ -10977,7 +10967,7 @@
         <v>27.493131956981287</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B7" s="28" t="s">
         <v>77</v>
       </c>
@@ -11061,7 +11051,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B8" s="28" t="s">
         <v>78</v>
       </c>
@@ -11145,7 +11135,7 @@
         <v>0.22874332768631445</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B9" s="28"/>
       <c r="C9" s="25"/>
       <c r="P9" s="53"/>
@@ -11155,7 +11145,7 @@
       <c r="Z9" s="37"/>
       <c r="AA9" s="154"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B10" s="28" t="s">
         <v>76</v>
       </c>
@@ -11231,7 +11221,7 @@
         <v>33.805673094984186</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B11" s="28" t="s">
         <v>79</v>
       </c>
@@ -11315,7 +11305,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B12" s="28" t="s">
         <v>80</v>
       </c>
@@ -11399,7 +11389,7 @@
         <v>0.53662150431746292</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B13" s="28"/>
       <c r="P13" s="53"/>
       <c r="Q13" s="53"/>
@@ -11407,7 +11397,7 @@
       <c r="Y13" s="37"/>
       <c r="Z13" s="37"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>86</v>
       </c>
@@ -11487,7 +11477,7 @@
         <v>13334.311356202335</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
         <v>84</v>
       </c>
@@ -11572,7 +11562,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B16" s="28" t="s">
         <v>85</v>
       </c>
@@ -11657,11 +11647,11 @@
         <v>0.28790373846547879</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="P17" s="53"/>
       <c r="Q17" s="53"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>173</v>
       </c>
@@ -11727,7 +11717,7 @@
       </c>
       <c r="Z18" s="137"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>175</v>
       </c>
@@ -11808,7 +11798,7 @@
       </c>
       <c r="Z19" s="137"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="31"/>
       <c r="B20" s="200" t="s">
         <v>203</v>
@@ -11877,7 +11867,7 @@
       <c r="T20" s="164"/>
       <c r="Z20" s="137"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
       <c r="B21" s="200" t="s">
         <v>202</v>
@@ -11943,11 +11933,11 @@
       <c r="T21" s="164"/>
       <c r="Z21" s="137"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="P22" s="53"/>
       <c r="Q22" s="53"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B24" s="109"/>
       <c r="P24" s="110"/>
       <c r="Q24" s="110"/>

--- a/$RBLX.xlsx
+++ b/$RBLX.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21EE986-41FE-403C-824E-0F8C29A11E1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F211DF-8056-4B4C-8606-7FC2820DBD2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18885" activeTab="1" xr2:uid="{DB6ABC51-E0DE-6747-8CA5-53C172A4844D}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="220">
   <si>
     <t>Price</t>
   </si>
@@ -681,6 +681,12 @@
   </si>
   <si>
     <t xml:space="preserve">Roblox announce in-game ads at RDC 2022 </t>
+  </si>
+  <si>
+    <t>R&amp;D Q/Q</t>
+  </si>
+  <si>
+    <t>R&amp;D Y/Y</t>
   </si>
 </sst>
 </file>
@@ -699,9 +705,16 @@
     <numFmt numFmtId="171" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="172" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1205,519 +1218,548 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="32" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="23" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="20" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="20" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="32" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="10" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="23" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="20" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="20" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="12" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="15" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="20" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="20" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="20" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="20" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="20" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="23" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="15" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="33" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="33" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="33" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="8" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="33" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="33" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="23" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="37" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="38" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="17" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="19" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="19" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="19" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="31" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="10" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="19" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="19" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="19" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="11" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="14" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="19" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="19" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="19" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="19" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="19" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="22" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="14" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="31" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="32" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="32" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="32" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="31" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="7" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="32" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="31" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="32" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="22" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="36" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="37" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="23" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="22" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="20" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="19" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="20" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="19" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="19" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="20" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="19" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="20" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="20" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="23" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="23" fillId="12" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="22" fillId="12" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="20" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="33" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="33" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="32" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="23" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="22" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="20" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="20" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="19" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="15" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="32" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="33" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3151,13 +3193,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>683190</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>656520</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
@@ -3208,7 +3250,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3258,7 +3300,7 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3739,10 +3781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE4A73D-2F46-7341-9C57-6E5B7A39A15C}">
-  <dimension ref="B1:AI68"/>
+  <dimension ref="B1:AJ68"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH11" sqref="AH11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3754,12 +3796,12 @@
     <col min="10" max="10" width="12.625" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.125" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="9.125" style="6" customWidth="1"/>
-    <col min="21" max="21" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="6"/>
+    <col min="15" max="21" width="9.125" style="6" customWidth="1"/>
+    <col min="22" max="22" width="9.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:36" x14ac:dyDescent="0.25">
       <c r="L1" s="230" t="s">
         <v>125</v>
       </c>
@@ -3769,11 +3811,11 @@
       <c r="P1" s="231"/>
       <c r="Q1" s="231"/>
       <c r="R1" s="231"/>
-      <c r="S1" s="232"/>
-      <c r="U1" s="218" t="s">
+      <c r="S1" s="231"/>
+      <c r="T1" s="232"/>
+      <c r="V1" s="218" t="s">
         <v>127</v>
       </c>
-      <c r="V1" s="219"/>
       <c r="W1" s="219"/>
       <c r="X1" s="219"/>
       <c r="Y1" s="219"/>
@@ -3786,9 +3828,10 @@
       <c r="AF1" s="219"/>
       <c r="AG1" s="219"/>
       <c r="AH1" s="219"/>
-      <c r="AI1" s="220"/>
-    </row>
-    <row r="2" spans="2:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AI1" s="219"/>
+      <c r="AJ1" s="220"/>
+    </row>
+    <row r="2" spans="2:36" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
         <v>57</v>
       </c>
@@ -3813,8 +3856,9 @@
       <c r="S2" s="202">
         <v>44788</v>
       </c>
-    </row>
-    <row r="3" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T2" s="202"/>
+    </row>
+    <row r="3" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="46" t="s">
         <v>111</v>
       </c>
@@ -3845,54 +3889,57 @@
       <c r="S3" s="59">
         <v>44774</v>
       </c>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26" t="s">
+      <c r="T3" s="59">
+        <v>44805</v>
+      </c>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="V3" s="26" t="s">
+      <c r="W3" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="W3" s="26" t="s">
+      <c r="X3" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="X3" s="26" t="s">
+      <c r="Y3" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="Y3" s="26" t="s">
+      <c r="Z3" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="Z3" s="26" t="s">
+      <c r="AA3" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="AA3" s="26" t="s">
+      <c r="AB3" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="AB3" s="26" t="s">
+      <c r="AC3" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="AC3" s="26" t="s">
+      <c r="AD3" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="AD3" s="26" t="s">
+      <c r="AE3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AE3" s="26" t="s">
+      <c r="AF3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AF3" s="26" t="s">
+      <c r="AG3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="26" t="s">
+      <c r="AH3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="AH3" s="26" t="s">
+      <c r="AI3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AI3" s="26" t="s">
+      <c r="AJ3" s="26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
       <c r="J4" s="31" t="s">
         <v>87</v>
       </c>
@@ -3919,54 +3966,57 @@
       <c r="S4" s="60">
         <v>59.9</v>
       </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1">
+      <c r="T4" s="60">
+        <v>57.8</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1">
         <v>13.7</v>
       </c>
-      <c r="V4" s="1">
+      <c r="W4" s="1">
         <v>15.8</v>
       </c>
-      <c r="W4" s="1">
+      <c r="X4" s="1">
         <v>17.100000000000001</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Y4" s="1">
         <v>18.399999999999999</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Z4" s="1">
         <v>19.100000000000001</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="AA4" s="1">
         <v>23.6</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AB4" s="1">
         <v>33.4</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AC4" s="1">
         <v>36.200000000000003</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AD4" s="1">
         <v>37.1</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AE4" s="1">
         <v>42.1</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AF4" s="1">
         <v>43.2</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AG4" s="1">
         <v>47.3</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AH4" s="1">
         <v>49.5</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AI4" s="1">
         <v>54.1</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AJ4" s="1">
         <v>52.2</v>
       </c>
     </row>
-    <row r="5" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B5" s="223" t="s">
         <v>82</v>
       </c>
@@ -4002,73 +4052,76 @@
       <c r="S5" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="V5" s="24">
-        <f t="shared" ref="V5:AH5" si="0">V4/U4-1</f>
+      <c r="T5" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="W5" s="24">
+        <f t="shared" ref="W5:AI5" si="0">W4/V4-1</f>
         <v>0.15328467153284686</v>
       </c>
-      <c r="W5" s="24">
+      <c r="X5" s="24">
         <f t="shared" si="0"/>
         <v>8.2278481012658222E-2</v>
       </c>
-      <c r="X5" s="24">
+      <c r="Y5" s="24">
         <f t="shared" si="0"/>
         <v>7.6023391812865215E-2</v>
       </c>
-      <c r="Y5" s="24">
+      <c r="Z5" s="24">
         <f t="shared" si="0"/>
         <v>3.8043478260869623E-2</v>
       </c>
-      <c r="Z5" s="24">
+      <c r="AA5" s="24">
         <f t="shared" si="0"/>
         <v>0.23560209424083767</v>
       </c>
-      <c r="AA5" s="24">
+      <c r="AB5" s="24">
         <f t="shared" si="0"/>
         <v>0.41525423728813537</v>
       </c>
-      <c r="AB5" s="24">
+      <c r="AC5" s="24">
         <f t="shared" si="0"/>
         <v>8.3832335329341534E-2</v>
       </c>
-      <c r="AC5" s="24">
+      <c r="AD5" s="24">
         <f t="shared" si="0"/>
         <v>2.4861878453038555E-2</v>
       </c>
-      <c r="AD5" s="24">
+      <c r="AE5" s="24">
         <f t="shared" si="0"/>
         <v>0.13477088948787053</v>
       </c>
-      <c r="AE5" s="24">
+      <c r="AF5" s="24">
         <f t="shared" si="0"/>
         <v>2.6128266033254244E-2</v>
       </c>
-      <c r="AF5" s="24">
+      <c r="AG5" s="24">
         <f t="shared" si="0"/>
         <v>9.4907407407407218E-2</v>
       </c>
-      <c r="AG5" s="24">
+      <c r="AH5" s="24">
         <f t="shared" si="0"/>
         <v>4.6511627906976827E-2</v>
       </c>
-      <c r="AH5" s="24">
+      <c r="AI5" s="24">
         <f t="shared" si="0"/>
         <v>9.2929292929292862E-2</v>
       </c>
-      <c r="AI5" s="24">
-        <f t="shared" ref="AI5" si="1">AI4/AH4-1</f>
+      <c r="AJ5" s="24">
+        <f t="shared" ref="AJ5" si="1">AJ4/AI4-1</f>
         <v>-3.512014787430684E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B6" s="40" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="9">
-        <v>37.08</v>
+        <v>40.75</v>
       </c>
       <c r="D6" s="44"/>
       <c r="F6" s="181" t="s">
@@ -4101,10 +4154,10 @@
       <c r="S6" s="62">
         <v>0.24</v>
       </c>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25" t="s">
-        <v>33</v>
-      </c>
+      <c r="T6" s="62">
+        <v>0.27</v>
+      </c>
+      <c r="U6" s="25"/>
       <c r="V6" s="25" t="s">
         <v>33</v>
       </c>
@@ -4114,52 +4167,55 @@
       <c r="X6" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="Y6" s="33">
-        <f t="shared" ref="Y6:AH6" si="2">Y4/U4-1</f>
+      <c r="Y6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z6" s="33">
+        <f t="shared" ref="Z6:AI6" si="2">Z4/V4-1</f>
         <v>0.39416058394160602</v>
       </c>
-      <c r="Z6" s="29">
+      <c r="AA6" s="29">
         <f t="shared" si="2"/>
         <v>0.49367088607594933</v>
       </c>
-      <c r="AA6" s="24">
+      <c r="AB6" s="24">
         <f t="shared" si="2"/>
         <v>0.95321637426900563</v>
       </c>
-      <c r="AB6" s="24">
+      <c r="AC6" s="24">
         <f t="shared" si="2"/>
         <v>0.96739130434782639</v>
       </c>
-      <c r="AC6" s="33">
+      <c r="AD6" s="33">
         <f t="shared" si="2"/>
         <v>0.94240837696335067</v>
       </c>
-      <c r="AD6" s="24">
+      <c r="AE6" s="24">
         <f t="shared" si="2"/>
         <v>0.78389830508474567</v>
       </c>
-      <c r="AE6" s="24">
+      <c r="AF6" s="24">
         <f t="shared" si="2"/>
         <v>0.29341317365269481</v>
       </c>
-      <c r="AF6" s="24">
+      <c r="AG6" s="24">
         <f t="shared" si="2"/>
         <v>0.30662983425414336</v>
       </c>
-      <c r="AG6" s="33">
+      <c r="AH6" s="33">
         <f t="shared" si="2"/>
         <v>0.33423180592991919</v>
       </c>
-      <c r="AH6" s="33">
+      <c r="AI6" s="33">
         <f t="shared" si="2"/>
         <v>0.28503562945368177</v>
       </c>
-      <c r="AI6" s="33">
-        <f t="shared" ref="AI6" si="3">AI4/AE4-1</f>
+      <c r="AJ6" s="33">
+        <f t="shared" ref="AJ6" si="3">AJ4/AF4-1</f>
         <v>0.20833333333333326</v>
       </c>
     </row>
-    <row r="7" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B7" s="40" t="s">
         <v>1</v>
       </c>
@@ -4185,12 +4241,12 @@
       <c r="Q7" s="206"/>
       <c r="R7" s="61"/>
       <c r="S7" s="61"/>
-      <c r="T7" s="25"/>
+      <c r="T7" s="61"/>
       <c r="U7" s="25"/>
       <c r="V7" s="25"/>
       <c r="W7" s="25"/>
       <c r="X7" s="25"/>
-      <c r="Y7" s="24"/>
+      <c r="Y7" s="25"/>
       <c r="Z7" s="24"/>
       <c r="AA7" s="24"/>
       <c r="AB7" s="24"/>
@@ -4201,21 +4257,22 @@
       <c r="AG7" s="24"/>
       <c r="AH7" s="24"/>
       <c r="AI7" s="24"/>
-    </row>
-    <row r="8" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ7" s="24"/>
+    </row>
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B8" s="40" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="9">
         <f>C6*C7</f>
-        <v>22022.85024</v>
+        <v>24202.565999999999</v>
       </c>
       <c r="D8" s="41"/>
       <c r="F8" s="181" t="s">
         <v>62</v>
       </c>
       <c r="G8" s="227">
-        <f>AI4</f>
+        <f>AJ4</f>
         <v>52.2</v>
       </c>
       <c r="H8" s="222"/>
@@ -4244,51 +4301,57 @@
       <c r="S8" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="V8" s="6">
+      <c r="T8" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="W8" s="6">
         <v>9</v>
       </c>
-      <c r="W8" s="6">
+      <c r="X8" s="6">
         <v>9.9</v>
       </c>
-      <c r="X8" s="6">
+      <c r="Y8" s="6">
         <v>10.8</v>
       </c>
-      <c r="Y8" s="6">
+      <c r="Z8" s="6">
         <v>11</v>
       </c>
-      <c r="Z8" s="6">
+      <c r="AA8" s="6">
         <v>13.3</v>
       </c>
-      <c r="AA8" s="23">
+      <c r="AB8" s="23">
         <v>17.899999999999999</v>
       </c>
-      <c r="AB8" s="6">
+      <c r="AC8" s="6">
         <v>19.3</v>
       </c>
-      <c r="AC8" s="6">
+      <c r="AD8" s="6">
         <v>19.5</v>
       </c>
-      <c r="AD8" s="6">
+      <c r="AE8" s="6">
         <v>21.3</v>
       </c>
-      <c r="AE8" s="6">
+      <c r="AF8" s="6">
         <v>21.5</v>
       </c>
-      <c r="AF8" s="6">
+      <c r="AG8" s="6">
         <v>23.1</v>
       </c>
-      <c r="AG8" s="6">
+      <c r="AH8" s="6">
         <v>23.6</v>
       </c>
-      <c r="AH8" s="6">
+      <c r="AI8" s="6">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="9" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ8" s="6">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B9" s="40" t="s">
         <v>3</v>
       </c>
@@ -4326,64 +4389,70 @@
       <c r="S9" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25" t="s">
-        <v>33</v>
-      </c>
+      <c r="T9" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" s="25"/>
       <c r="V9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="W9" s="24">
-        <f t="shared" ref="W9:AH9" si="4">W8/V8-1</f>
+      <c r="W9" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9" s="24">
+        <f t="shared" ref="X9:AI9" si="4">X8/W8-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="X9" s="24">
+      <c r="Y9" s="24">
         <f t="shared" si="4"/>
         <v>9.090909090909105E-2</v>
       </c>
-      <c r="Y9" s="24">
+      <c r="Z9" s="24">
         <f t="shared" si="4"/>
         <v>1.8518518518518379E-2</v>
       </c>
-      <c r="Z9" s="24">
+      <c r="AA9" s="24">
         <f t="shared" si="4"/>
         <v>0.20909090909090922</v>
       </c>
-      <c r="AA9" s="24">
+      <c r="AB9" s="24">
         <f t="shared" si="4"/>
         <v>0.34586466165413521</v>
       </c>
-      <c r="AB9" s="24">
+      <c r="AC9" s="24">
         <f t="shared" si="4"/>
         <v>7.8212290502793325E-2</v>
       </c>
-      <c r="AC9" s="24">
+      <c r="AD9" s="24">
         <f t="shared" si="4"/>
         <v>1.0362694300518172E-2</v>
       </c>
-      <c r="AD9" s="24">
+      <c r="AE9" s="24">
         <f t="shared" si="4"/>
         <v>9.2307692307692424E-2</v>
       </c>
-      <c r="AE9" s="24">
+      <c r="AF9" s="24">
         <f t="shared" si="4"/>
         <v>9.3896713615022609E-3</v>
       </c>
-      <c r="AF9" s="24">
+      <c r="AG9" s="24">
         <f t="shared" si="4"/>
         <v>7.441860465116279E-2</v>
       </c>
-      <c r="AG9" s="24">
+      <c r="AH9" s="24">
         <f t="shared" si="4"/>
         <v>2.1645021645021689E-2</v>
       </c>
-      <c r="AH9" s="24">
+      <c r="AI9" s="24">
         <f t="shared" si="4"/>
         <v>8.0508474576271194E-2</v>
       </c>
-      <c r="AI9" s="24"/>
-    </row>
-    <row r="10" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ9" s="24">
+        <f t="shared" ref="AJ9" si="5">AJ8/AI8-1</f>
+        <v>-5.0980392156862786E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
         <v>4</v>
       </c>
@@ -4421,10 +4490,10 @@
       <c r="S10" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25" t="s">
-        <v>33</v>
-      </c>
+      <c r="T10" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10" s="25"/>
       <c r="V10" s="25" t="s">
         <v>33</v>
       </c>
@@ -4437,45 +4506,51 @@
       <c r="Y10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="Z10" s="29">
-        <f t="shared" ref="Z10:AH10" si="5">Z8/V8-1</f>
+      <c r="Z10" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA10" s="29">
+        <f t="shared" ref="AA10:AI10" si="6">AA8/W8-1</f>
         <v>0.47777777777777786</v>
       </c>
-      <c r="AA10" s="24">
-        <f t="shared" si="5"/>
+      <c r="AB10" s="24">
+        <f t="shared" si="6"/>
         <v>0.80808080808080796</v>
       </c>
-      <c r="AB10" s="24">
-        <f t="shared" si="5"/>
+      <c r="AC10" s="24">
+        <f t="shared" si="6"/>
         <v>0.78703703703703698</v>
       </c>
-      <c r="AC10" s="33">
-        <f t="shared" si="5"/>
+      <c r="AD10" s="33">
+        <f t="shared" si="6"/>
         <v>0.77272727272727271</v>
       </c>
-      <c r="AD10" s="24">
-        <f t="shared" si="5"/>
+      <c r="AE10" s="24">
+        <f t="shared" si="6"/>
         <v>0.60150375939849621</v>
       </c>
-      <c r="AE10" s="24">
-        <f t="shared" si="5"/>
+      <c r="AF10" s="24">
+        <f t="shared" si="6"/>
         <v>0.2011173184357542</v>
       </c>
-      <c r="AF10" s="24">
-        <f t="shared" si="5"/>
+      <c r="AG10" s="24">
+        <f t="shared" si="6"/>
         <v>0.19689119170984459</v>
       </c>
-      <c r="AG10" s="33">
-        <f t="shared" si="5"/>
+      <c r="AH10" s="33">
+        <f t="shared" si="6"/>
         <v>0.2102564102564104</v>
       </c>
-      <c r="AH10" s="160">
-        <f t="shared" si="5"/>
+      <c r="AI10" s="160">
+        <f t="shared" si="6"/>
         <v>0.19718309859154926</v>
       </c>
-      <c r="AI10" s="160"/>
-    </row>
-    <row r="11" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ10" s="160">
+        <f t="shared" ref="AJ10" si="7">AJ8/AF8-1</f>
+        <v>0.12558139534883717</v>
+      </c>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B11" s="40" t="s">
         <v>7</v>
       </c>
@@ -4502,19 +4577,20 @@
       <c r="Q11" s="206"/>
       <c r="R11" s="61"/>
       <c r="S11" s="61"/>
-      <c r="T11" s="25"/>
+      <c r="T11" s="61"/>
       <c r="U11" s="25"/>
-      <c r="AA11" s="23"/>
-      <c r="AH11" s="161"/>
+      <c r="V11" s="25"/>
+      <c r="AB11" s="23"/>
       <c r="AI11" s="161"/>
-    </row>
-    <row r="12" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AJ11" s="161"/>
+    </row>
+    <row r="12" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="42" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="45">
         <f>C8-C9+C10</f>
-        <v>19935.720240000002</v>
+        <v>22115.436000000002</v>
       </c>
       <c r="D12" s="43"/>
       <c r="F12" s="182" t="s">
@@ -4549,51 +4625,57 @@
       <c r="S12" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="V12" s="6">
+      <c r="T12" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="W12" s="6">
         <v>6.4</v>
       </c>
-      <c r="W12" s="6">
+      <c r="X12" s="6">
         <v>6.7</v>
       </c>
-      <c r="X12" s="6">
+      <c r="Y12" s="6">
         <v>7.1</v>
       </c>
-      <c r="Y12" s="6">
+      <c r="Z12" s="6">
         <v>7.7</v>
       </c>
-      <c r="Z12" s="23">
+      <c r="AA12" s="23">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AA12" s="6">
+      <c r="AB12" s="6">
         <v>7.7</v>
       </c>
-      <c r="AB12" s="6">
+      <c r="AC12" s="6">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AC12" s="6">
+      <c r="AD12" s="6">
         <v>16.100000000000001</v>
       </c>
-      <c r="AD12" s="6">
+      <c r="AE12" s="6">
         <v>17.2</v>
       </c>
-      <c r="AE12" s="6">
+      <c r="AF12" s="6">
         <v>21.4</v>
       </c>
-      <c r="AF12" s="6">
+      <c r="AG12" s="6">
         <v>23.8</v>
       </c>
-      <c r="AG12" s="6">
+      <c r="AH12" s="6">
         <v>25.6</v>
       </c>
-      <c r="AH12" s="6">
+      <c r="AI12" s="6">
         <v>28.3</v>
       </c>
-    </row>
-    <row r="13" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ12" s="6">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
       <c r="K13" s="28" t="s">
         <v>79</v>
       </c>
@@ -4619,64 +4701,70 @@
       <c r="S13" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25" t="s">
-        <v>33</v>
-      </c>
+      <c r="T13" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13" s="25"/>
       <c r="V13" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="W13" s="24">
-        <f t="shared" ref="W13:AH13" si="6">W12/V12-1</f>
+      <c r="W13" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="X13" s="24">
+        <f t="shared" ref="X13:AI13" si="8">X12/W12-1</f>
         <v>4.6875E-2</v>
       </c>
-      <c r="X13" s="24">
-        <f t="shared" si="6"/>
+      <c r="Y13" s="24">
+        <f t="shared" si="8"/>
         <v>5.9701492537313383E-2</v>
       </c>
-      <c r="Y13" s="24">
-        <f t="shared" si="6"/>
+      <c r="Z13" s="24">
+        <f t="shared" si="8"/>
         <v>8.4507042253521236E-2</v>
       </c>
-      <c r="Z13" s="24">
-        <f t="shared" si="6"/>
+      <c r="AA13" s="24">
+        <f t="shared" si="8"/>
         <v>0.2597402597402596</v>
       </c>
-      <c r="AA13" s="24">
-        <f t="shared" si="6"/>
+      <c r="AB13" s="24">
+        <f t="shared" si="8"/>
         <v>-0.20618556701030921</v>
       </c>
-      <c r="AB13" s="24">
-        <f t="shared" si="6"/>
+      <c r="AC13" s="24">
+        <f t="shared" si="8"/>
         <v>0.2597402597402596</v>
       </c>
-      <c r="AC13" s="24">
-        <f t="shared" si="6"/>
+      <c r="AD13" s="24">
+        <f t="shared" si="8"/>
         <v>0.65979381443299001</v>
       </c>
-      <c r="AD13" s="24">
-        <f t="shared" si="6"/>
+      <c r="AE13" s="24">
+        <f t="shared" si="8"/>
         <v>6.8322981366459423E-2</v>
       </c>
-      <c r="AE13" s="24">
-        <f t="shared" si="6"/>
+      <c r="AF13" s="24">
+        <f t="shared" si="8"/>
         <v>0.2441860465116279</v>
       </c>
-      <c r="AF13" s="24">
-        <f t="shared" si="6"/>
+      <c r="AG13" s="24">
+        <f t="shared" si="8"/>
         <v>0.11214953271028039</v>
       </c>
-      <c r="AG13" s="24">
-        <f t="shared" si="6"/>
+      <c r="AH13" s="24">
+        <f t="shared" si="8"/>
         <v>7.5630252100840289E-2</v>
       </c>
-      <c r="AH13" s="24">
-        <f t="shared" si="6"/>
+      <c r="AI13" s="24">
+        <f t="shared" si="8"/>
         <v>0.10546875</v>
       </c>
-      <c r="AI13" s="24"/>
-    </row>
-    <row r="14" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AJ13" s="24">
+        <f t="shared" ref="AJ13" si="9">AJ12/AI12-1</f>
+        <v>-3.8869257950530089E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
       <c r="K14" s="28" t="s">
         <v>80</v>
       </c>
@@ -4702,10 +4790,10 @@
       <c r="S14" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25" t="s">
-        <v>33</v>
-      </c>
+      <c r="T14" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" s="25"/>
       <c r="V14" s="25" t="s">
         <v>33</v>
       </c>
@@ -4718,45 +4806,51 @@
       <c r="Y14" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="Z14" s="29">
-        <f t="shared" ref="Z14:AH14" si="7">Z12/V12-1</f>
+      <c r="Z14" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA14" s="29">
+        <f t="shared" ref="AA14:AI14" si="10">AA12/W12-1</f>
         <v>0.51562499999999978</v>
       </c>
-      <c r="AA14" s="24">
-        <f t="shared" si="7"/>
+      <c r="AB14" s="24">
+        <f t="shared" si="10"/>
         <v>0.14925373134328357</v>
       </c>
-      <c r="AB14" s="24">
-        <f t="shared" si="7"/>
+      <c r="AC14" s="24">
+        <f t="shared" si="10"/>
         <v>0.36619718309859151</v>
       </c>
-      <c r="AC14" s="33">
-        <f t="shared" si="7"/>
+      <c r="AD14" s="33">
+        <f t="shared" si="10"/>
         <v>1.0909090909090908</v>
       </c>
-      <c r="AD14" s="24">
-        <f t="shared" si="7"/>
+      <c r="AE14" s="24">
+        <f t="shared" si="10"/>
         <v>0.77319587628865993</v>
       </c>
-      <c r="AE14" s="24">
-        <f t="shared" si="7"/>
+      <c r="AF14" s="24">
+        <f t="shared" si="10"/>
         <v>1.779220779220779</v>
       </c>
-      <c r="AF14" s="24">
-        <f t="shared" si="7"/>
+      <c r="AG14" s="24">
+        <f t="shared" si="10"/>
         <v>1.4536082474226806</v>
       </c>
-      <c r="AG14" s="33">
-        <f t="shared" si="7"/>
+      <c r="AH14" s="33">
+        <f t="shared" si="10"/>
         <v>0.59006211180124213</v>
       </c>
-      <c r="AH14" s="33">
-        <f t="shared" si="7"/>
+      <c r="AI14" s="33">
+        <f t="shared" si="10"/>
         <v>0.64534883720930236</v>
       </c>
-      <c r="AI14" s="33"/>
-    </row>
-    <row r="15" spans="2:35" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ14" s="33">
+        <f t="shared" ref="AJ14" si="11">AJ12/AF12-1</f>
+        <v>0.27102803738317771</v>
+      </c>
+    </row>
+    <row r="15" spans="2:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="223" t="s">
         <v>130</v>
       </c>
@@ -4776,8 +4870,9 @@
       <c r="Q15" s="208"/>
       <c r="R15" s="63"/>
       <c r="S15" s="63"/>
-    </row>
-    <row r="16" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T15" s="63"/>
+    </row>
+    <row r="16" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="93" t="s">
         <v>132</v>
       </c>
@@ -4789,8 +4884,8 @@
         <v>205</v>
       </c>
       <c r="G16" s="235">
-        <f>C6/'Financial Model'!L61</f>
-        <v>39.924974402465928</v>
+        <f>C6/'Financial Model'!L64</f>
+        <v>43.876556281027149</v>
       </c>
       <c r="H16" s="236"/>
       <c r="J16" s="31" t="s">
@@ -4819,55 +4914,58 @@
       <c r="S16" s="64">
         <v>4700</v>
       </c>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32">
+      <c r="T16" s="64">
+        <v>4000</v>
+      </c>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32">
         <v>2530</v>
       </c>
-      <c r="V16" s="32">
+      <c r="W16" s="32">
         <v>2974</v>
       </c>
-      <c r="W16" s="32">
+      <c r="X16" s="32">
         <v>3248</v>
       </c>
-      <c r="X16" s="32">
+      <c r="Y16" s="32">
         <v>3730</v>
       </c>
-      <c r="Y16" s="32">
+      <c r="Z16" s="32">
         <v>3701</v>
       </c>
-      <c r="Z16" s="32">
+      <c r="AA16" s="32">
         <v>4875</v>
       </c>
-      <c r="AA16" s="32">
+      <c r="AB16" s="32">
         <v>8586</v>
       </c>
-      <c r="AB16" s="32">
+      <c r="AC16" s="32">
         <v>8711</v>
       </c>
-      <c r="AC16" s="32">
+      <c r="AD16" s="32">
         <v>8430</v>
       </c>
-      <c r="AD16" s="32">
+      <c r="AE16" s="32">
         <v>9674</v>
       </c>
-      <c r="AE16" s="32">
+      <c r="AF16" s="32">
         <v>9738</v>
       </c>
-      <c r="AF16" s="32">
+      <c r="AG16" s="32">
         <v>11184</v>
       </c>
-      <c r="AG16" s="32">
+      <c r="AH16" s="32">
         <v>10818</v>
       </c>
-      <c r="AH16" s="32">
-        <f>AG16*1.12</f>
+      <c r="AI16" s="32">
+        <f>AH16*1.12</f>
         <v>12116.160000000002</v>
       </c>
-      <c r="AI16" s="32">
+      <c r="AJ16" s="32">
         <v>11300</v>
       </c>
     </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B17" s="105" t="s">
         <v>164</v>
       </c>
@@ -4880,7 +4978,7 @@
       </c>
       <c r="G17" s="235">
         <f>C8/'Financial Model'!W3</f>
-        <v>11.475129359867568</v>
+        <v>12.610882454547017</v>
       </c>
       <c r="H17" s="236"/>
       <c r="K17" s="28" t="s">
@@ -4906,68 +5004,71 @@
       <c r="S17" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="V17" s="24">
-        <f t="shared" ref="V17:AH17" si="8">V16/U16-1</f>
+      <c r="T17" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="W17" s="24">
+        <f t="shared" ref="W17:AI17" si="12">W16/V16-1</f>
         <v>0.17549407114624516</v>
       </c>
-      <c r="W17" s="24">
-        <f t="shared" si="8"/>
+      <c r="X17" s="24">
+        <f t="shared" si="12"/>
         <v>9.2131809011432475E-2</v>
       </c>
-      <c r="X17" s="24">
-        <f t="shared" si="8"/>
+      <c r="Y17" s="24">
+        <f t="shared" si="12"/>
         <v>0.14839901477832518</v>
       </c>
-      <c r="Y17" s="24">
-        <f t="shared" si="8"/>
+      <c r="Z17" s="24">
+        <f t="shared" si="12"/>
         <v>-7.7747989276139018E-3</v>
       </c>
-      <c r="Z17" s="24">
-        <f t="shared" si="8"/>
+      <c r="AA17" s="24">
+        <f t="shared" si="12"/>
         <v>0.31721156444204279</v>
       </c>
-      <c r="AA17" s="24">
-        <f t="shared" si="8"/>
+      <c r="AB17" s="24">
+        <f t="shared" si="12"/>
         <v>0.76123076923076916</v>
       </c>
-      <c r="AB17" s="24">
-        <f t="shared" si="8"/>
+      <c r="AC17" s="24">
+        <f t="shared" si="12"/>
         <v>1.455858374097363E-2</v>
       </c>
-      <c r="AC17" s="24">
-        <f t="shared" si="8"/>
+      <c r="AD17" s="24">
+        <f t="shared" si="12"/>
         <v>-3.2258064516129004E-2</v>
       </c>
-      <c r="AD17" s="24">
-        <f t="shared" si="8"/>
+      <c r="AE17" s="24">
+        <f t="shared" si="12"/>
         <v>0.14756820877817312</v>
       </c>
-      <c r="AE17" s="24">
-        <f t="shared" si="8"/>
+      <c r="AF17" s="24">
+        <f t="shared" si="12"/>
         <v>6.6156708703741796E-3</v>
       </c>
-      <c r="AF17" s="24">
-        <f t="shared" si="8"/>
+      <c r="AG17" s="24">
+        <f t="shared" si="12"/>
         <v>0.14849044978435</v>
       </c>
-      <c r="AG17" s="24">
-        <f t="shared" si="8"/>
+      <c r="AH17" s="24">
+        <f t="shared" si="12"/>
         <v>-3.272532188841204E-2</v>
       </c>
-      <c r="AH17" s="24">
-        <f t="shared" si="8"/>
+      <c r="AI17" s="24">
+        <f t="shared" si="12"/>
         <v>0.12000000000000011</v>
       </c>
-      <c r="AI17" s="24">
-        <f t="shared" ref="AI17" si="9">AI16/AH16-1</f>
+      <c r="AJ17" s="24">
+        <f t="shared" ref="AJ17" si="13">AJ16/AI16-1</f>
         <v>-6.7361276179911944E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B18" s="93" t="s">
         <v>133</v>
       </c>
@@ -5003,10 +5104,10 @@
       <c r="S18" s="62">
         <v>0.18</v>
       </c>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25" t="s">
-        <v>33</v>
-      </c>
+      <c r="T18" s="62">
+        <v>0.16</v>
+      </c>
+      <c r="U18" s="25"/>
       <c r="V18" s="25" t="s">
         <v>33</v>
       </c>
@@ -5016,52 +5117,55 @@
       <c r="X18" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="Y18" s="33">
-        <f t="shared" ref="Y18:AH18" si="10">Y16/U16-1</f>
+      <c r="Y18" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z18" s="33">
+        <f t="shared" ref="Z18:AI18" si="14">Z16/V16-1</f>
         <v>0.46284584980237153</v>
       </c>
-      <c r="Z18" s="24">
-        <f t="shared" si="10"/>
+      <c r="AA18" s="24">
+        <f t="shared" si="14"/>
         <v>0.63920645595158043</v>
       </c>
-      <c r="AA18" s="24">
-        <f t="shared" si="10"/>
+      <c r="AB18" s="24">
+        <f t="shared" si="14"/>
         <v>1.6434729064039408</v>
       </c>
-      <c r="AB18" s="24">
-        <f t="shared" si="10"/>
+      <c r="AC18" s="24">
+        <f t="shared" si="14"/>
         <v>1.3353887399463806</v>
       </c>
-      <c r="AC18" s="33">
-        <f t="shared" si="10"/>
+      <c r="AD18" s="33">
+        <f t="shared" si="14"/>
         <v>1.2777627668197784</v>
       </c>
-      <c r="AD18" s="24">
-        <f t="shared" si="10"/>
+      <c r="AE18" s="24">
+        <f t="shared" si="14"/>
         <v>0.98441025641025637</v>
       </c>
-      <c r="AE18" s="24">
-        <f t="shared" si="10"/>
+      <c r="AF18" s="24">
+        <f t="shared" si="14"/>
         <v>0.13417190775681331</v>
       </c>
-      <c r="AF18" s="24">
-        <f t="shared" si="10"/>
+      <c r="AG18" s="24">
+        <f t="shared" si="14"/>
         <v>0.28389392721845952</v>
       </c>
-      <c r="AG18" s="33">
-        <f t="shared" si="10"/>
+      <c r="AH18" s="33">
+        <f t="shared" si="14"/>
         <v>0.28327402135231328</v>
       </c>
-      <c r="AH18" s="160">
-        <f t="shared" si="10"/>
+      <c r="AI18" s="160">
+        <f t="shared" si="14"/>
         <v>0.25244573082489175</v>
       </c>
-      <c r="AI18" s="160">
-        <f t="shared" ref="AI18" si="11">AI16/AE16-1</f>
+      <c r="AJ18" s="160">
+        <f t="shared" ref="AJ18" si="15">AJ16/AF16-1</f>
         <v>0.16040254672417342</v>
       </c>
     </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B19" s="91"/>
       <c r="C19" s="227"/>
       <c r="D19" s="222"/>
@@ -5072,7 +5176,7 @@
       <c r="L19" s="63"/>
       <c r="M19" s="63"/>
     </row>
-    <row r="20" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="92"/>
       <c r="C20" s="237"/>
       <c r="D20" s="238"/>
@@ -5084,7 +5188,6 @@
         <v>214</v>
       </c>
       <c r="M20" s="60"/>
-      <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
@@ -5097,18 +5200,19 @@
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
-    </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AH20" s="1"/>
+    </row>
+    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
       <c r="K21" s="200" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
       <c r="K22" s="200" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="23" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B23" s="223" t="s">
         <v>159</v>
       </c>
@@ -5121,7 +5225,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B24" s="108" t="s">
         <v>169</v>
       </c>
@@ -5134,7 +5238,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B25" s="108" t="s">
         <v>170</v>
       </c>
@@ -5150,7 +5254,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B26" s="98"/>
       <c r="C26" s="96"/>
       <c r="D26" s="96"/>
@@ -5164,7 +5268,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B27" s="98" t="s">
         <v>149</v>
       </c>
@@ -5180,7 +5284,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B28" s="95" t="s">
         <v>162</v>
       </c>
@@ -5190,7 +5294,7 @@
       <c r="F28" s="99"/>
       <c r="G28" s="97"/>
     </row>
-    <row r="29" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B29" s="104" t="s">
         <v>163</v>
       </c>
@@ -5206,7 +5310,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B30" s="95" t="s">
         <v>161</v>
       </c>
@@ -5218,7 +5322,7 @@
       <c r="J30" s="94"/>
       <c r="K30" s="94"/>
     </row>
-    <row r="31" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B31" s="100" t="s">
         <v>150</v>
       </c>
@@ -5235,7 +5339,7 @@
       <c r="M31" s="224"/>
       <c r="N31" s="225"/>
     </row>
-    <row r="32" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
       <c r="J32" s="7"/>
       <c r="K32" s="173" t="s">
         <v>176</v>
@@ -5572,7 +5676,7 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="V1:AJ1"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="G6:H6"/>
@@ -5582,9 +5686,9 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="L1:T1"/>
   </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K55" r:id="rId1" xr:uid="{F79BC045-05D5-43FB-A051-BA2031CC85A7}"/>
     <hyperlink ref="K57" r:id="rId2" xr:uid="{58004FA9-9F7A-4B71-811E-FF4EE09F281F}"/>
@@ -5598,13 +5702,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0FDCAC-3416-844A-BCBB-390EC350CF59}">
-  <dimension ref="B1:BZ73"/>
+  <dimension ref="B1:BZ76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="L15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8958,7 +9062,7 @@
       </c>
       <c r="AP27" s="143">
         <f>Main!C6</f>
-        <v>37.08</v>
+        <v>40.75</v>
       </c>
     </row>
     <row r="28" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -9092,7 +9196,7 @@
       </c>
       <c r="AP28" s="144">
         <f>AP26/AP27-1</f>
-        <v>3.6136763220340669</v>
+        <v>3.198162405423882</v>
       </c>
     </row>
     <row r="29" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -9106,14 +9210,14 @@
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
-      <c r="M29" s="128"/>
+      <c r="M29" s="250"/>
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
-      <c r="Q29" s="13"/>
+      <c r="Q29" s="82"/>
       <c r="R29" s="197"/>
       <c r="V29" s="13"/>
       <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
+      <c r="X29" s="128"/>
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
       <c r="AA29" s="13"/>
@@ -9129,107 +9233,141 @@
       <c r="AK29" s="13"/>
       <c r="AL29" s="13"/>
       <c r="AM29" s="13"/>
-      <c r="AO29" s="85"/>
-      <c r="AP29" s="86"/>
-    </row>
-    <row r="30" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="128"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="197"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13"/>
-      <c r="AA30" s="13"/>
-      <c r="AB30" s="13"/>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="13"/>
-      <c r="AE30" s="13"/>
-      <c r="AF30" s="13"/>
-      <c r="AG30" s="13"/>
-      <c r="AH30" s="13"/>
-      <c r="AI30" s="13"/>
-      <c r="AJ30" s="13"/>
-      <c r="AK30" s="13"/>
-      <c r="AL30" s="13"/>
-      <c r="AM30" s="13"/>
-      <c r="AO30" s="86"/>
+      <c r="AO29" s="239"/>
+      <c r="AP29" s="240"/>
+    </row>
+    <row r="30" spans="2:78" s="241" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30" s="241" t="s">
+        <v>218</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="242">
+        <f t="shared" ref="D30:L30" si="88">D8/C8-1</f>
+        <v>-0.18539132546702008</v>
+      </c>
+      <c r="E30" s="242">
+        <f t="shared" si="88"/>
+        <v>0.28470272553355347</v>
+      </c>
+      <c r="F30" s="242">
+        <f t="shared" si="88"/>
+        <v>0.16165777055774733</v>
+      </c>
+      <c r="G30" s="242">
+        <f t="shared" si="88"/>
+        <v>0.60893668736577489</v>
+      </c>
+      <c r="H30" s="242">
+        <f t="shared" si="88"/>
+        <v>0.29079922188651119</v>
+      </c>
+      <c r="I30" s="242">
+        <f t="shared" si="88"/>
+        <v>0.10819411934459877</v>
+      </c>
+      <c r="J30" s="242">
+        <f t="shared" si="88"/>
+        <v>0.25552461210170341</v>
+      </c>
+      <c r="K30" s="242">
+        <f t="shared" si="88"/>
+        <v>2.4151639108140888E-2</v>
+      </c>
+      <c r="L30" s="242">
+        <f>L8/K8-1</f>
+        <v>0.19123884744771091</v>
+      </c>
+      <c r="M30" s="251">
+        <f t="shared" ref="M30:N30" si="89">M8/L8-1</f>
+        <v>-0.14026981054699483</v>
+      </c>
+      <c r="N30" s="248">
+        <f t="shared" si="89"/>
+        <v>1.2000000000000011E-2</v>
+      </c>
+      <c r="O30" s="242"/>
+      <c r="Q30" s="244"/>
+      <c r="R30" s="245"/>
+      <c r="V30" s="242"/>
+      <c r="W30" s="242"/>
+      <c r="X30" s="243"/>
+      <c r="Y30" s="242"/>
+      <c r="Z30" s="242"/>
+      <c r="AA30" s="242"/>
+      <c r="AB30" s="242"/>
+      <c r="AC30" s="242"/>
+      <c r="AD30" s="242"/>
+      <c r="AE30" s="242"/>
+      <c r="AF30" s="242"/>
+      <c r="AG30" s="242"/>
+      <c r="AH30" s="242"/>
+      <c r="AI30" s="242"/>
+      <c r="AJ30" s="242"/>
+      <c r="AK30" s="242"/>
+      <c r="AL30" s="242"/>
+      <c r="AM30" s="242"/>
+      <c r="AO30" s="246"/>
+      <c r="AP30" s="247"/>
     </row>
     <row r="31" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="4">
-        <v>249.57599999999999</v>
-      </c>
-      <c r="D31" s="4">
-        <v>494.17099999999999</v>
-      </c>
-      <c r="E31" s="4">
-        <v>496.48500000000001</v>
-      </c>
-      <c r="F31" s="4">
-        <f>1882.543-E31-D31-C31</f>
-        <v>642.31099999999992</v>
-      </c>
-      <c r="G31" s="4">
-        <v>652.27700000000004</v>
-      </c>
-      <c r="H31" s="4">
-        <v>665.48</v>
-      </c>
-      <c r="I31" s="4">
-        <v>637.83299999999997</v>
-      </c>
-      <c r="J31" s="89">
-        <f>2725.706-I31-H31-G31</f>
-        <v>770.11599999999999</v>
-      </c>
-      <c r="K31" s="4">
-        <v>631.20600000000002</v>
-      </c>
-      <c r="L31" s="4">
-        <v>639.90200000000004</v>
-      </c>
-      <c r="M31" s="165">
-        <f>R31*(1+M32)</f>
-        <v>637.53384014999995</v>
-      </c>
-      <c r="N31" s="165">
-        <f>M31*(1+N32)</f>
-        <v>640.7215093507499</v>
+        <v>219</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="13">
+        <f t="shared" ref="G31:K31" si="90">G8/C8-1</f>
+        <v>0.95599991904308945</v>
+      </c>
+      <c r="H31" s="13">
+        <f t="shared" si="90"/>
+        <v>2.0994061964272404</v>
+      </c>
+      <c r="I31" s="13">
+        <f t="shared" si="90"/>
+        <v>1.6735708207627447</v>
+      </c>
+      <c r="J31" s="13">
+        <f t="shared" si="90"/>
+        <v>1.8896066059566814</v>
+      </c>
+      <c r="K31" s="13">
+        <f t="shared" si="90"/>
+        <v>0.83934853689830713</v>
+      </c>
+      <c r="L31" s="13">
+        <f>L8/H8-1</f>
+        <v>0.69747811588161723</v>
+      </c>
+      <c r="M31" s="250">
+        <f t="shared" ref="M31:N31" si="91">M8/I8-1</f>
+        <v>0.31689309362363915</v>
+      </c>
+      <c r="N31" s="249">
+        <f t="shared" si="91"/>
+        <v>6.1465301358161195E-2</v>
       </c>
       <c r="O31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="198">
-        <f>K31*(1+R32)</f>
-        <v>634.36203</v>
-      </c>
-      <c r="V31" s="3">
-        <f>SUM(C31:F31)</f>
-        <v>1882.5429999999999</v>
-      </c>
-      <c r="W31" s="3">
-        <f>SUM(D31:G31)</f>
-        <v>2285.2439999999997</v>
-      </c>
-      <c r="X31" s="13"/>
+      <c r="Q31" s="82"/>
+      <c r="R31" s="197"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13">
+        <f>W8/V8-1</f>
+        <v>1.6470687523891319</v>
+      </c>
+      <c r="X31" s="128"/>
       <c r="Y31" s="13"/>
       <c r="Z31" s="13"/>
       <c r="AA31" s="13"/>
@@ -9245,70 +9383,27 @@
       <c r="AK31" s="13"/>
       <c r="AL31" s="13"/>
       <c r="AM31" s="13"/>
-      <c r="AO31" s="86"/>
+      <c r="AO31" s="239"/>
+      <c r="AP31" s="240"/>
     </row>
     <row r="32" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="87" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="135">
-        <f t="shared" ref="D32:L32" si="88">D31/C31-1</f>
-        <v>0.98004215148892526</v>
-      </c>
-      <c r="E32" s="135">
-        <f t="shared" si="88"/>
-        <v>4.6825896299054204E-3</v>
-      </c>
-      <c r="F32" s="135">
-        <f t="shared" si="88"/>
-        <v>0.29371682931004939</v>
-      </c>
-      <c r="G32" s="135">
-        <f t="shared" si="88"/>
-        <v>1.5515848241739683E-2</v>
-      </c>
-      <c r="H32" s="135">
-        <f t="shared" si="88"/>
-        <v>2.0241400509292795E-2</v>
-      </c>
-      <c r="I32" s="135">
-        <f t="shared" si="88"/>
-        <v>-4.1544449119432669E-2</v>
-      </c>
-      <c r="J32" s="135">
-        <f t="shared" si="88"/>
-        <v>0.20739441201693865</v>
-      </c>
-      <c r="K32" s="135">
-        <f t="shared" si="88"/>
-        <v>-0.18037542396210438</v>
-      </c>
-      <c r="L32" s="135">
-        <f t="shared" si="88"/>
-        <v>1.3776801868169875E-2</v>
-      </c>
-      <c r="M32" s="128">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N32" s="128">
-        <v>5.0000000000000001E-3</v>
-      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="128"/>
+      <c r="N32" s="13"/>
       <c r="O32" s="13"/>
       <c r="Q32" s="13"/>
-      <c r="R32" s="197">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="V32" s="49">
-        <f>R32</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="W32" s="49">
-        <f>S32</f>
-        <v>0</v>
-      </c>
+      <c r="R32" s="197"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
       <c r="X32" s="13"/>
       <c r="Y32" s="13"/>
       <c r="Z32" s="13"/>
@@ -9328,228 +9423,319 @@
       <c r="AO32" s="85"/>
       <c r="AP32" s="86"/>
     </row>
-    <row r="33" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="87" t="s">
+    <row r="33" spans="2:42" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="128"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="197"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="13"/>
+      <c r="AB33" s="13"/>
+      <c r="AC33" s="13"/>
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="13"/>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="13"/>
+      <c r="AI33" s="13"/>
+      <c r="AJ33" s="13"/>
+      <c r="AK33" s="13"/>
+      <c r="AL33" s="13"/>
+      <c r="AM33" s="13"/>
+      <c r="AO33" s="86"/>
+    </row>
+    <row r="34" spans="2:42" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="4">
+        <v>249.57599999999999</v>
+      </c>
+      <c r="D34" s="4">
+        <v>494.17099999999999</v>
+      </c>
+      <c r="E34" s="4">
+        <v>496.48500000000001</v>
+      </c>
+      <c r="F34" s="4">
+        <f>1882.543-E34-D34-C34</f>
+        <v>642.31099999999992</v>
+      </c>
+      <c r="G34" s="4">
+        <v>652.27700000000004</v>
+      </c>
+      <c r="H34" s="4">
+        <v>665.48</v>
+      </c>
+      <c r="I34" s="4">
+        <v>637.83299999999997</v>
+      </c>
+      <c r="J34" s="89">
+        <f>2725.706-I34-H34-G34</f>
+        <v>770.11599999999999</v>
+      </c>
+      <c r="K34" s="4">
+        <v>631.20600000000002</v>
+      </c>
+      <c r="L34" s="4">
+        <v>639.90200000000004</v>
+      </c>
+      <c r="M34" s="165">
+        <f>R34*(1+M35)</f>
+        <v>637.53384014999995</v>
+      </c>
+      <c r="N34" s="165">
+        <f>M34*(1+N35)</f>
+        <v>640.7215093507499</v>
+      </c>
+      <c r="O34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="198">
+        <f>K34*(1+R35)</f>
+        <v>634.36203</v>
+      </c>
+      <c r="V34" s="3">
+        <f>SUM(C34:F34)</f>
+        <v>1882.5429999999999</v>
+      </c>
+      <c r="W34" s="3">
+        <f>SUM(D34:G34)</f>
+        <v>2285.2439999999997</v>
+      </c>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
+      <c r="AA34" s="13"/>
+      <c r="AB34" s="13"/>
+      <c r="AC34" s="13"/>
+      <c r="AD34" s="13"/>
+      <c r="AE34" s="13"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="13"/>
+      <c r="AI34" s="13"/>
+      <c r="AJ34" s="13"/>
+      <c r="AK34" s="13"/>
+      <c r="AL34" s="13"/>
+      <c r="AM34" s="13"/>
+      <c r="AO34" s="86"/>
+    </row>
+    <row r="35" spans="2:42" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B35" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="135">
+        <f t="shared" ref="D35:L35" si="92">D34/C34-1</f>
+        <v>0.98004215148892526</v>
+      </c>
+      <c r="E35" s="135">
+        <f t="shared" si="92"/>
+        <v>4.6825896299054204E-3</v>
+      </c>
+      <c r="F35" s="135">
+        <f t="shared" si="92"/>
+        <v>0.29371682931004939</v>
+      </c>
+      <c r="G35" s="135">
+        <f t="shared" si="92"/>
+        <v>1.5515848241739683E-2</v>
+      </c>
+      <c r="H35" s="135">
+        <f t="shared" si="92"/>
+        <v>2.0241400509292795E-2</v>
+      </c>
+      <c r="I35" s="135">
+        <f t="shared" si="92"/>
+        <v>-4.1544449119432669E-2</v>
+      </c>
+      <c r="J35" s="135">
+        <f t="shared" si="92"/>
+        <v>0.20739441201693865</v>
+      </c>
+      <c r="K35" s="135">
+        <f t="shared" si="92"/>
+        <v>-0.18037542396210438</v>
+      </c>
+      <c r="L35" s="135">
+        <f t="shared" si="92"/>
+        <v>1.3776801868169875E-2</v>
+      </c>
+      <c r="M35" s="128">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N35" s="128">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="197">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="V35" s="49">
+        <f>R35</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="W35" s="49">
+        <f>S35</f>
+        <v>0</v>
+      </c>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="13"/>
+      <c r="AB35" s="13"/>
+      <c r="AC35" s="13"/>
+      <c r="AD35" s="13"/>
+      <c r="AE35" s="13"/>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="13"/>
+      <c r="AI35" s="13"/>
+      <c r="AJ35" s="13"/>
+      <c r="AK35" s="13"/>
+      <c r="AL35" s="13"/>
+      <c r="AM35" s="13"/>
+      <c r="AO35" s="85"/>
+      <c r="AP35" s="86"/>
+    </row>
+    <row r="36" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="B36" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" s="88">
-        <f>G31/C31-1</f>
+      <c r="C36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="88">
+        <f>G34/C34-1</f>
         <v>1.6135405647978973</v>
       </c>
-      <c r="H33" s="88">
-        <f>H31/D31-1</f>
+      <c r="H36" s="88">
+        <f>H34/D34-1</f>
         <v>0.3466593547577661</v>
       </c>
-      <c r="I33" s="88">
-        <f>I31/E31-1</f>
+      <c r="I36" s="88">
+        <f>I34/E34-1</f>
         <v>0.28469742288286648</v>
       </c>
-      <c r="J33" s="88">
-        <f>J31/F31-1</f>
+      <c r="J36" s="88">
+        <f>J34/F34-1</f>
         <v>0.19897681964033009</v>
       </c>
-      <c r="K33" s="88">
-        <f t="shared" ref="K33:L33" si="89">K31/G31-1</f>
+      <c r="K36" s="88">
+        <f t="shared" ref="K36:L36" si="93">K34/G34-1</f>
         <v>-3.2303760518920699E-2</v>
       </c>
-      <c r="L33" s="88">
-        <f t="shared" si="89"/>
+      <c r="L36" s="88">
+        <f t="shared" si="93"/>
         <v>-3.8435415038769016E-2</v>
       </c>
-      <c r="M33" s="166">
-        <f>M31/I31-1</f>
+      <c r="M36" s="166">
+        <f>M34/I34-1</f>
         <v>-4.6902535616688557E-4</v>
       </c>
-      <c r="N33" s="166">
-        <f>N31/J31-1</f>
+      <c r="N36" s="166">
+        <f>N34/J34-1</f>
         <v>-0.16801948102526121</v>
       </c>
-      <c r="R33" s="199">
-        <f>R31/H31-1</f>
+      <c r="R36" s="199">
+        <f>R34/H34-1</f>
         <v>-4.6760188134880143E-2</v>
       </c>
-      <c r="W33" s="88">
-        <f>W31/V31-1</f>
+      <c r="W36" s="88">
+        <f>W34/V34-1</f>
         <v>0.21391330769071404</v>
       </c>
-      <c r="AP33" s="56"/>
-    </row>
-    <row r="34" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="AP34" s="56"/>
-    </row>
-    <row r="35" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B35" s="12" t="s">
+      <c r="AP36" s="56"/>
+    </row>
+    <row r="37" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="AP37" s="56"/>
+    </row>
+    <row r="38" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B38" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="107"/>
-      <c r="J35" s="107"/>
-      <c r="K35" s="107"/>
-      <c r="L35" s="107"/>
-    </row>
-    <row r="36" spans="2:42" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="107"/>
+      <c r="K38" s="107"/>
+      <c r="L38" s="107"/>
+    </row>
+    <row r="39" spans="2:42" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" s="4">
+      <c r="C39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="4">
         <v>893.94299999999998</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G39" s="4">
         <v>1600.53</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H39" s="4">
         <v>1780.2619999999999</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I39" s="4">
         <v>1925.559</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J39" s="4">
         <f>3004.3</f>
         <v>3004.3</v>
       </c>
-      <c r="K36" s="179">
+      <c r="K39" s="179">
         <v>3132.9639999999999</v>
       </c>
-      <c r="L36" s="179">
+      <c r="L39" s="179">
         <v>3075.4749999999999</v>
       </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="13"/>
-    </row>
-    <row r="37" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="B37" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F37" s="5">
-        <v>246.98599999999999</v>
-      </c>
-      <c r="G37" s="5">
-        <v>233.78100000000001</v>
-      </c>
-      <c r="H37" s="5">
-        <v>217.01</v>
-      </c>
-      <c r="I37" s="5">
-        <v>168.762</v>
-      </c>
-      <c r="J37" s="5">
-        <v>307.34899999999999</v>
-      </c>
-      <c r="K37" s="83">
-        <v>179.732</v>
-      </c>
-      <c r="L37" s="83">
-        <v>186.82499999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="B38" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F38" s="5">
-        <v>26.274000000000001</v>
-      </c>
-      <c r="G38" s="5">
-        <v>29.135000000000002</v>
-      </c>
-      <c r="H38" s="5">
-        <v>45.432000000000002</v>
-      </c>
-      <c r="I38" s="5">
-        <v>37.667000000000002</v>
-      </c>
-      <c r="J38" s="5">
-        <v>32.091000000000001</v>
-      </c>
-      <c r="K38" s="83">
-        <v>43.122999999999998</v>
-      </c>
-      <c r="L38" s="83">
-        <v>57.594999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="B39" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F39" s="5">
-        <v>256.928</v>
-      </c>
-      <c r="G39" s="5">
-        <v>309.38799999999998</v>
-      </c>
-      <c r="H39" s="5">
-        <v>351.57299999999998</v>
-      </c>
-      <c r="I39" s="5">
-        <v>379.61099999999999</v>
-      </c>
-      <c r="J39" s="5">
-        <v>406.02499999999998</v>
-      </c>
-      <c r="K39" s="83">
-        <v>398.19400000000002</v>
-      </c>
-      <c r="L39" s="83">
-        <v>405.89100000000002</v>
-      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="13"/>
     </row>
     <row r="40" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>33</v>
@@ -9561,30 +9747,30 @@
         <v>33</v>
       </c>
       <c r="F40" s="5">
-        <v>206.41499999999999</v>
+        <v>246.98599999999999</v>
       </c>
       <c r="G40" s="5">
-        <v>209.79400000000001</v>
+        <v>233.78100000000001</v>
       </c>
       <c r="H40" s="5">
-        <v>218.58099999999999</v>
+        <v>217.01</v>
       </c>
       <c r="I40" s="5">
-        <v>227.33</v>
+        <v>168.762</v>
       </c>
       <c r="J40" s="5">
-        <v>271.35199999999998</v>
+        <v>307.34899999999999</v>
       </c>
       <c r="K40" s="83">
-        <v>338.87900000000002</v>
+        <v>179.732</v>
       </c>
       <c r="L40" s="83">
-        <v>425.95</v>
+        <v>186.82499999999999</v>
       </c>
     </row>
     <row r="41" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>33</v>
@@ -9595,31 +9781,31 @@
       <c r="E41" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F41" s="15" t="s">
-        <v>33</v>
+      <c r="F41" s="5">
+        <v>26.274000000000001</v>
       </c>
       <c r="G41" s="5">
-        <v>205.11699999999999</v>
+        <v>29.135000000000002</v>
       </c>
       <c r="H41" s="5">
-        <v>228.232</v>
+        <v>45.432000000000002</v>
       </c>
       <c r="I41" s="5">
-        <v>220.404</v>
+        <v>37.667000000000002</v>
       </c>
       <c r="J41" s="5">
-        <v>221.285</v>
+        <v>32.091000000000001</v>
       </c>
       <c r="K41" s="83">
-        <v>286.24200000000002</v>
+        <v>43.122999999999998</v>
       </c>
       <c r="L41" s="83">
-        <v>424.416</v>
+        <v>57.594999999999999</v>
       </c>
     </row>
     <row r="42" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>33</v>
@@ -9631,155 +9817,177 @@
         <v>33</v>
       </c>
       <c r="F42" s="5">
-        <v>113.79300000000001</v>
+        <v>256.928</v>
       </c>
       <c r="G42" s="5">
-        <v>123.595</v>
+        <v>309.38799999999998</v>
       </c>
       <c r="H42" s="5">
-        <v>127.011</v>
+        <v>351.57299999999998</v>
       </c>
       <c r="I42" s="5">
-        <v>125.643</v>
+        <v>379.61099999999999</v>
       </c>
       <c r="J42" s="5">
-        <v>137.524</v>
+        <v>406.02499999999998</v>
       </c>
       <c r="K42" s="83">
-        <v>159.404</v>
+        <v>398.19400000000002</v>
       </c>
       <c r="L42" s="83">
-        <v>154.328</v>
+        <v>405.89100000000002</v>
       </c>
     </row>
     <row r="43" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="5">
+        <v>206.41499999999999</v>
+      </c>
+      <c r="G43" s="5">
+        <v>209.79400000000001</v>
+      </c>
+      <c r="H43" s="5">
+        <v>218.58099999999999</v>
+      </c>
+      <c r="I43" s="5">
+        <v>227.33</v>
+      </c>
+      <c r="J43" s="5">
+        <v>271.35199999999998</v>
+      </c>
+      <c r="K43" s="83">
+        <v>338.87900000000002</v>
+      </c>
+      <c r="L43" s="83">
+        <v>425.95</v>
+      </c>
+    </row>
+    <row r="44" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="B44" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="5">
+        <v>205.11699999999999</v>
+      </c>
+      <c r="H44" s="5">
+        <v>228.232</v>
+      </c>
+      <c r="I44" s="5">
+        <v>220.404</v>
+      </c>
+      <c r="J44" s="5">
+        <v>221.285</v>
+      </c>
+      <c r="K44" s="83">
+        <v>286.24200000000002</v>
+      </c>
+      <c r="L44" s="83">
+        <v>424.416</v>
+      </c>
+    </row>
+    <row r="45" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="B45" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" s="5">
+        <v>113.79300000000001</v>
+      </c>
+      <c r="G45" s="5">
+        <v>123.595</v>
+      </c>
+      <c r="H45" s="5">
+        <v>127.011</v>
+      </c>
+      <c r="I45" s="5">
+        <v>125.643</v>
+      </c>
+      <c r="J45" s="5">
+        <v>137.524</v>
+      </c>
+      <c r="K45" s="83">
+        <v>159.404</v>
+      </c>
+      <c r="L45" s="83">
+        <v>154.328</v>
+      </c>
+    </row>
+    <row r="46" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="B46" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F43" s="5">
+      <c r="C46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" s="5">
         <f>42.326+59.568</f>
         <v>101.89400000000001</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G46" s="5">
         <f>40.202+59.568</f>
         <v>99.77</v>
       </c>
-      <c r="H43" s="19">
+      <c r="H46" s="19">
         <f>38.079+59.568</f>
         <v>97.646999999999991</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I46" s="5">
         <f>118.071+63.478</f>
         <v>181.54900000000001</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J46" s="5">
         <f>59.666+118.071</f>
         <v>177.73699999999999</v>
       </c>
-      <c r="K43" s="83">
+      <c r="K46" s="83">
         <f>118.071+55.854</f>
         <v>173.92500000000001</v>
       </c>
-      <c r="L43" s="83">
+      <c r="L46" s="83">
         <f>56.317+130.453</f>
         <v>186.77</v>
       </c>
     </row>
-    <row r="44" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="B44" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F44" s="5">
-        <v>1.5669999999999999</v>
-      </c>
-      <c r="G44" s="5">
-        <v>4.9690000000000003</v>
-      </c>
-      <c r="H44" s="5">
-        <v>8.0429999999999993</v>
-      </c>
-      <c r="I44" s="5">
-        <v>5.7549999999999999</v>
-      </c>
-      <c r="J44" s="5">
-        <v>2.9329999999999998</v>
-      </c>
-      <c r="K44" s="83">
-        <v>3.3679999999999999</v>
-      </c>
-      <c r="L44" s="83">
-        <v>2.17</v>
-      </c>
-    </row>
-    <row r="45" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="B45" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F45" s="5">
-        <f t="shared" ref="F45:L45" si="90">SUM(F36:F44)</f>
-        <v>1847.8</v>
-      </c>
-      <c r="G45" s="5">
-        <f t="shared" si="90"/>
-        <v>2816.0789999999997</v>
-      </c>
-      <c r="H45" s="5">
-        <f t="shared" si="90"/>
-        <v>3073.7910000000002</v>
-      </c>
-      <c r="I45" s="5">
-        <f t="shared" si="90"/>
-        <v>3272.2799999999997</v>
-      </c>
-      <c r="J45" s="5">
-        <f t="shared" si="90"/>
-        <v>4560.5960000000005</v>
-      </c>
-      <c r="K45" s="5">
-        <f t="shared" si="90"/>
-        <v>4715.831000000001</v>
-      </c>
-      <c r="L45" s="5">
-        <f t="shared" si="90"/>
-        <v>4919.420000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="C46" s="2"/>
-      <c r="F46" s="5"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="84"/>
-    </row>
     <row r="47" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B47" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>33</v>
@@ -9791,30 +9999,30 @@
         <v>33</v>
       </c>
       <c r="F47" s="5">
-        <v>12.012</v>
+        <v>1.5669999999999999</v>
       </c>
       <c r="G47" s="5">
-        <v>8.2690000000000001</v>
+        <v>4.9690000000000003</v>
       </c>
       <c r="H47" s="5">
-        <v>11.112</v>
+        <v>8.0429999999999993</v>
       </c>
       <c r="I47" s="5">
-        <v>20.733000000000001</v>
+        <v>5.7549999999999999</v>
       </c>
       <c r="J47" s="5">
-        <v>64.394999999999996</v>
+        <v>2.9329999999999998</v>
       </c>
       <c r="K47" s="83">
-        <v>54.295000000000002</v>
+        <v>3.3679999999999999</v>
       </c>
       <c r="L47" s="83">
-        <v>77.509</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="48" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B48" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>33</v>
@@ -9826,65 +10034,43 @@
         <v>33</v>
       </c>
       <c r="F48" s="5">
-        <v>65.391999999999996</v>
+        <f t="shared" ref="F48:L48" si="94">SUM(F39:F47)</f>
+        <v>1847.8</v>
       </c>
       <c r="G48" s="5">
-        <v>122.285</v>
+        <f t="shared" si="94"/>
+        <v>2816.0789999999997</v>
       </c>
       <c r="H48" s="5">
-        <v>182.084</v>
+        <f t="shared" si="94"/>
+        <v>3073.7910000000002</v>
       </c>
       <c r="I48" s="5">
-        <v>157.916</v>
+        <f t="shared" si="94"/>
+        <v>3272.2799999999997</v>
       </c>
       <c r="J48" s="5">
-        <v>180.76900000000001</v>
-      </c>
-      <c r="K48" s="83">
-        <v>223.32300000000001</v>
-      </c>
-      <c r="L48" s="83">
-        <v>231.19900000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="2:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="B49" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F49" s="5">
-        <v>80.912000000000006</v>
-      </c>
-      <c r="G49" s="5">
-        <v>84.337000000000003</v>
-      </c>
-      <c r="H49" s="5">
-        <v>90.614999999999995</v>
-      </c>
-      <c r="I49" s="5">
-        <v>117.756</v>
-      </c>
-      <c r="J49" s="5">
-        <v>163.90600000000001</v>
-      </c>
-      <c r="K49" s="83">
-        <v>149.816</v>
-      </c>
-      <c r="L49" s="83">
-        <v>147.19200000000001</v>
-      </c>
+        <f t="shared" si="94"/>
+        <v>4560.5960000000005</v>
+      </c>
+      <c r="K48" s="5">
+        <f t="shared" si="94"/>
+        <v>4715.831000000001</v>
+      </c>
+      <c r="L48" s="5">
+        <f t="shared" si="94"/>
+        <v>4919.420000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C49" s="2"/>
+      <c r="F49" s="5"/>
+      <c r="K49" s="84"/>
+      <c r="L49" s="84"/>
     </row>
     <row r="50" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B50" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>33</v>
@@ -9896,32 +10082,30 @@
         <v>33</v>
       </c>
       <c r="F50" s="5">
-        <v>1070.23</v>
+        <v>12.012</v>
       </c>
       <c r="G50" s="5">
-        <v>1295.4639999999999</v>
+        <v>8.2690000000000001</v>
       </c>
       <c r="H50" s="5">
-        <v>1488.2</v>
+        <v>11.112</v>
       </c>
       <c r="I50" s="5">
-        <v>1621.1859999999999</v>
+        <v>20.733000000000001</v>
       </c>
       <c r="J50" s="5">
-        <v>1758.02</v>
+        <v>64.394999999999996</v>
       </c>
       <c r="K50" s="83">
-        <v>1747.2940000000001</v>
+        <v>54.295000000000002</v>
       </c>
       <c r="L50" s="83">
-        <v>1807.6389999999999</v>
-      </c>
-      <c r="Q50" s="55"/>
-      <c r="R50" s="55"/>
+        <v>77.509</v>
+      </c>
     </row>
     <row r="51" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B51" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>33</v>
@@ -9933,30 +10117,30 @@
         <v>33</v>
       </c>
       <c r="F51" s="5">
-        <v>484.69900000000001</v>
+        <v>65.391999999999996</v>
       </c>
       <c r="G51" s="5">
-        <v>528.904</v>
+        <v>122.285</v>
       </c>
       <c r="H51" s="5">
-        <v>551.66499999999996</v>
+        <v>182.084</v>
       </c>
       <c r="I51" s="5">
-        <v>550.11800000000005</v>
+        <v>157.916</v>
       </c>
       <c r="J51" s="5">
-        <v>616.83399999999995</v>
+        <v>180.76900000000001</v>
       </c>
       <c r="K51" s="83">
-        <v>724.35900000000004</v>
+        <v>223.32300000000001</v>
       </c>
       <c r="L51" s="83">
-        <v>716.154</v>
+        <v>231.19900000000001</v>
       </c>
     </row>
     <row r="52" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B52" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>33</v>
@@ -9967,31 +10151,31 @@
       <c r="E52" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F52" s="15" t="s">
-        <v>33</v>
+      <c r="F52" s="5">
+        <v>80.912000000000006</v>
       </c>
       <c r="G52" s="5">
-        <v>184.721</v>
+        <v>84.337000000000003</v>
       </c>
       <c r="H52" s="5">
-        <v>206.376</v>
+        <v>90.614999999999995</v>
       </c>
       <c r="I52" s="5">
-        <v>196.447</v>
+        <v>117.756</v>
       </c>
       <c r="J52" s="5">
-        <v>194.61600000000001</v>
+        <v>163.90600000000001</v>
       </c>
       <c r="K52" s="83">
-        <v>259.84100000000001</v>
+        <v>149.816</v>
       </c>
       <c r="L52" s="83">
-        <v>399.77600000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="2:18" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>4</v>
+        <v>147.19200000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="B53" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>33</v>
@@ -10002,35 +10186,33 @@
       <c r="E53" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="4">
-        <v>0</v>
-      </c>
-      <c r="G53" s="4">
-        <v>0</v>
-      </c>
-      <c r="H53" s="4">
-        <v>0</v>
-      </c>
-      <c r="I53" s="4">
-        <v>0</v>
-      </c>
-      <c r="J53" s="4">
-        <v>987.72299999999996</v>
-      </c>
-      <c r="K53" s="179">
-        <v>988.03399999999999</v>
-      </c>
-      <c r="L53" s="179">
-        <v>988.34500000000003</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
+      <c r="F53" s="5">
+        <v>1070.23</v>
+      </c>
+      <c r="G53" s="5">
+        <v>1295.4639999999999</v>
+      </c>
+      <c r="H53" s="5">
+        <v>1488.2</v>
+      </c>
+      <c r="I53" s="5">
+        <v>1621.1859999999999</v>
+      </c>
+      <c r="J53" s="5">
+        <v>1758.02</v>
+      </c>
+      <c r="K53" s="83">
+        <v>1747.2940000000001</v>
+      </c>
+      <c r="L53" s="83">
+        <v>1807.6389999999999</v>
+      </c>
+      <c r="Q53" s="55"/>
+      <c r="R53" s="55"/>
     </row>
     <row r="54" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>33</v>
@@ -10042,30 +10224,30 @@
         <v>33</v>
       </c>
       <c r="F54" s="5">
-        <v>22.109000000000002</v>
+        <v>484.69900000000001</v>
       </c>
       <c r="G54" s="5">
-        <v>0.505</v>
+        <v>528.904</v>
       </c>
       <c r="H54" s="5">
-        <v>1.7</v>
+        <v>551.66499999999996</v>
       </c>
       <c r="I54" s="5">
-        <v>2.2930000000000001</v>
+        <v>550.11800000000005</v>
       </c>
       <c r="J54" s="5">
-        <v>1.4079999999999999</v>
+        <v>616.83399999999995</v>
       </c>
       <c r="K54" s="83">
-        <v>1.4079999999999999</v>
+        <v>724.35900000000004</v>
       </c>
       <c r="L54" s="83">
-        <v>1.2999999999999999E-4</v>
+        <v>716.154</v>
       </c>
     </row>
     <row r="55" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B55" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>33</v>
@@ -10076,50 +10258,70 @@
       <c r="E55" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F55" s="5">
-        <f t="shared" ref="F55:L55" si="91">SUM(F47:F54)</f>
-        <v>1735.354</v>
+      <c r="F55" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="G55" s="5">
-        <f t="shared" si="91"/>
-        <v>2224.4850000000001</v>
+        <v>184.721</v>
       </c>
       <c r="H55" s="5">
-        <f t="shared" si="91"/>
-        <v>2531.752</v>
+        <v>206.376</v>
       </c>
       <c r="I55" s="5">
-        <f t="shared" si="91"/>
-        <v>2666.4490000000001</v>
+        <v>196.447</v>
       </c>
       <c r="J55" s="5">
-        <f t="shared" si="91"/>
-        <v>3967.6709999999998</v>
-      </c>
-      <c r="K55" s="5">
-        <f t="shared" si="91"/>
-        <v>4148.37</v>
-      </c>
-      <c r="L55" s="5">
-        <f t="shared" si="91"/>
-        <v>4367.8141299999997</v>
-      </c>
-    </row>
-    <row r="56" spans="2:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
+        <v>194.61600000000001</v>
+      </c>
+      <c r="K55" s="83">
+        <v>259.84100000000001</v>
+      </c>
+      <c r="L55" s="83">
+        <v>399.77600000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0</v>
+      </c>
+      <c r="G56" s="4">
+        <v>0</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+      <c r="I56" s="4">
+        <v>0</v>
+      </c>
+      <c r="J56" s="4">
+        <v>987.72299999999996</v>
+      </c>
+      <c r="K56" s="179">
+        <v>988.03399999999999</v>
+      </c>
+      <c r="L56" s="179">
+        <v>988.34500000000003</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
     </row>
     <row r="57" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B57" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>33</v>
@@ -10131,367 +10333,456 @@
         <v>33</v>
       </c>
       <c r="F57" s="5">
-        <v>-232.381</v>
+        <v>22.109000000000002</v>
       </c>
       <c r="G57" s="5">
-        <v>591.59400000000005</v>
+        <v>0.505</v>
       </c>
       <c r="H57" s="5">
-        <v>542.03899999999999</v>
+        <v>1.7</v>
       </c>
       <c r="I57" s="5">
-        <v>605.84</v>
+        <v>2.2930000000000001</v>
       </c>
       <c r="J57" s="5">
-        <v>592.923</v>
+        <v>1.4079999999999999</v>
       </c>
       <c r="K57" s="83">
-        <v>567.46100000000001</v>
+        <v>1.4079999999999999</v>
       </c>
       <c r="L57" s="83">
-        <v>551.59299999999996</v>
+        <v>1.2999999999999999E-4</v>
       </c>
     </row>
     <row r="58" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B58" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" s="5">
+        <f t="shared" ref="F58:L58" si="95">SUM(F50:F57)</f>
+        <v>1735.354</v>
+      </c>
+      <c r="G58" s="5">
+        <f t="shared" si="95"/>
+        <v>2224.4850000000001</v>
+      </c>
+      <c r="H58" s="5">
+        <f t="shared" si="95"/>
+        <v>2531.752</v>
+      </c>
+      <c r="I58" s="5">
+        <f t="shared" si="95"/>
+        <v>2666.4490000000001</v>
+      </c>
+      <c r="J58" s="5">
+        <f t="shared" si="95"/>
+        <v>3967.6709999999998</v>
+      </c>
+      <c r="K58" s="5">
+        <f t="shared" si="95"/>
+        <v>4148.37</v>
+      </c>
+      <c r="L58" s="5">
+        <f t="shared" si="95"/>
+        <v>4367.8141299999997</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+    </row>
+    <row r="60" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="B60" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" s="5">
+        <v>-232.381</v>
+      </c>
+      <c r="G60" s="5">
+        <v>591.59400000000005</v>
+      </c>
+      <c r="H60" s="5">
+        <v>542.03899999999999</v>
+      </c>
+      <c r="I60" s="5">
+        <v>605.84</v>
+      </c>
+      <c r="J60" s="5">
+        <v>592.923</v>
+      </c>
+      <c r="K60" s="83">
+        <v>567.46100000000001</v>
+      </c>
+      <c r="L60" s="83">
+        <v>551.59299999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="B61" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F58" s="5">
+      <c r="C61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" s="5">
         <v>1847.8</v>
       </c>
-      <c r="G58" s="5">
-        <f t="shared" ref="G58:L58" si="92">G57+G55</f>
+      <c r="G61" s="5">
+        <f t="shared" ref="G61:L61" si="96">G60+G58</f>
         <v>2816.0790000000002</v>
       </c>
-      <c r="H58" s="5">
-        <f t="shared" si="92"/>
+      <c r="H61" s="5">
+        <f t="shared" si="96"/>
         <v>3073.7910000000002</v>
       </c>
-      <c r="I58" s="5">
-        <f t="shared" si="92"/>
+      <c r="I61" s="5">
+        <f t="shared" si="96"/>
         <v>3272.2890000000002</v>
       </c>
-      <c r="J58" s="5">
-        <f t="shared" si="92"/>
+      <c r="J61" s="5">
+        <f t="shared" si="96"/>
         <v>4560.5940000000001</v>
       </c>
-      <c r="K58" s="5">
-        <f t="shared" si="92"/>
+      <c r="K61" s="5">
+        <f t="shared" si="96"/>
         <v>4715.8310000000001</v>
       </c>
-      <c r="L58" s="5">
-        <f t="shared" si="92"/>
+      <c r="L61" s="5">
+        <f t="shared" si="96"/>
         <v>4919.4071299999996</v>
       </c>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="F59" s="5"/>
-    </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B60" s="200" t="s">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="F62" s="5"/>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B63" s="200" t="s">
         <v>200</v>
       </c>
-      <c r="F60" s="5">
-        <f t="shared" ref="F60:K60" si="93">F45-F55</f>
+      <c r="F63" s="5">
+        <f t="shared" ref="F63:K63" si="97">F48-F58</f>
         <v>112.44599999999991</v>
       </c>
-      <c r="G60" s="5">
-        <f t="shared" si="93"/>
+      <c r="G63" s="5">
+        <f t="shared" si="97"/>
         <v>591.5939999999996</v>
       </c>
-      <c r="H60" s="5">
-        <f t="shared" si="93"/>
+      <c r="H63" s="5">
+        <f t="shared" si="97"/>
         <v>542.03900000000021</v>
       </c>
-      <c r="I60" s="5">
-        <f t="shared" si="93"/>
+      <c r="I63" s="5">
+        <f t="shared" si="97"/>
         <v>605.83099999999968</v>
       </c>
-      <c r="J60" s="5">
-        <f t="shared" si="93"/>
+      <c r="J63" s="5">
+        <f t="shared" si="97"/>
         <v>592.92500000000064</v>
       </c>
-      <c r="K60" s="5">
-        <f t="shared" si="93"/>
+      <c r="K63" s="5">
+        <f t="shared" si="97"/>
         <v>567.46100000000115</v>
       </c>
-      <c r="L60" s="5">
-        <f>L45-L55</f>
+      <c r="L63" s="5">
+        <f>L48-L58</f>
         <v>551.60587000000123</v>
       </c>
     </row>
-    <row r="61" spans="2:18" s="213" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B61" s="213" t="s">
+    <row r="64" spans="2:18" s="213" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B64" s="213" t="s">
         <v>201</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F61" s="214">
-        <f t="shared" ref="F61:K61" si="94">F60/F20</f>
+      <c r="C64" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F64" s="214">
+        <f t="shared" ref="F64:K64" si="98">F63/F20</f>
         <v>0.576205873460791</v>
       </c>
-      <c r="G61" s="214">
-        <f t="shared" si="94"/>
+      <c r="G64" s="214">
+        <f t="shared" si="98"/>
         <v>2.0324522286428865</v>
       </c>
-      <c r="H61" s="214">
-        <f t="shared" si="94"/>
+      <c r="H64" s="214">
+        <f t="shared" si="98"/>
         <v>0.94878172588832532</v>
       </c>
-      <c r="I61" s="214">
-        <f t="shared" si="94"/>
+      <c r="I64" s="214">
+        <f t="shared" si="98"/>
         <v>1.0519141148607816</v>
       </c>
-      <c r="J61" s="214">
-        <f t="shared" si="94"/>
+      <c r="J64" s="214">
+        <f t="shared" si="98"/>
         <v>1.0195860954198812</v>
       </c>
-      <c r="K61" s="214">
-        <f t="shared" si="94"/>
+      <c r="K64" s="214">
+        <f t="shared" si="98"/>
         <v>0.96421538058964962</v>
       </c>
-      <c r="L61" s="214">
-        <f>L60/L20</f>
+      <c r="L64" s="214">
+        <f>L63/L20</f>
         <v>0.92874198556054144</v>
       </c>
-      <c r="M61" s="214"/>
-      <c r="N61" s="214"/>
-      <c r="Q61" s="214"/>
-      <c r="R61" s="214"/>
-    </row>
-    <row r="62" spans="2:18" s="213" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="214"/>
-      <c r="G62" s="214"/>
-      <c r="H62" s="214"/>
-      <c r="I62" s="214"/>
-      <c r="J62" s="214"/>
-      <c r="K62" s="214"/>
-      <c r="L62" s="214"/>
-      <c r="M62" s="214"/>
-      <c r="N62" s="214"/>
-      <c r="Q62" s="214"/>
-      <c r="R62" s="214"/>
-    </row>
-    <row r="63" spans="2:18" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="63" t="s">
+      <c r="M64" s="214"/>
+      <c r="N64" s="214"/>
+      <c r="Q64" s="214"/>
+      <c r="R64" s="214"/>
+    </row>
+    <row r="65" spans="2:18" s="213" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="214"/>
+      <c r="G65" s="214"/>
+      <c r="H65" s="214"/>
+      <c r="I65" s="214"/>
+      <c r="J65" s="214"/>
+      <c r="K65" s="214"/>
+      <c r="L65" s="214"/>
+      <c r="M65" s="214"/>
+      <c r="N65" s="214"/>
+      <c r="Q65" s="214"/>
+      <c r="R65" s="214"/>
+    </row>
+    <row r="66" spans="2:18" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="216"/>
-      <c r="D63" s="216"/>
-      <c r="E63" s="216"/>
-      <c r="F63" s="217">
-        <f t="shared" ref="F63:K63" si="95">F36</f>
+      <c r="C66" s="216"/>
+      <c r="D66" s="216"/>
+      <c r="E66" s="216"/>
+      <c r="F66" s="217">
+        <f t="shared" ref="F66:K66" si="99">F39</f>
         <v>893.94299999999998</v>
       </c>
-      <c r="G63" s="217">
-        <f t="shared" si="95"/>
+      <c r="G66" s="217">
+        <f t="shared" si="99"/>
         <v>1600.53</v>
       </c>
-      <c r="H63" s="217">
-        <f t="shared" si="95"/>
+      <c r="H66" s="217">
+        <f t="shared" si="99"/>
         <v>1780.2619999999999</v>
       </c>
-      <c r="I63" s="217">
-        <f t="shared" si="95"/>
+      <c r="I66" s="217">
+        <f t="shared" si="99"/>
         <v>1925.559</v>
       </c>
-      <c r="J63" s="217">
-        <f t="shared" si="95"/>
+      <c r="J66" s="217">
+        <f t="shared" si="99"/>
         <v>3004.3</v>
       </c>
-      <c r="K63" s="217">
-        <f t="shared" si="95"/>
+      <c r="K66" s="217">
+        <f t="shared" si="99"/>
         <v>3132.9639999999999</v>
       </c>
-      <c r="L63" s="217">
-        <f>L36</f>
+      <c r="L66" s="217">
+        <f>L39</f>
         <v>3075.4749999999999</v>
       </c>
-      <c r="M63" s="61"/>
-      <c r="N63" s="61"/>
-      <c r="Q63" s="61"/>
-      <c r="R63" s="61"/>
-    </row>
-    <row r="64" spans="2:18" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" s="216"/>
-      <c r="D64" s="216"/>
-      <c r="E64" s="216"/>
-      <c r="F64" s="217">
-        <f t="shared" ref="F64:K64" si="96">F53</f>
-        <v>0</v>
-      </c>
-      <c r="G64" s="217">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="217">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="I64" s="217">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="217">
-        <f t="shared" si="96"/>
-        <v>987.72299999999996</v>
-      </c>
-      <c r="K64" s="217">
-        <f t="shared" si="96"/>
-        <v>988.03399999999999</v>
-      </c>
-      <c r="L64" s="217">
-        <f>L53</f>
-        <v>988.34500000000003</v>
-      </c>
-      <c r="M64" s="61"/>
-      <c r="N64" s="61"/>
-      <c r="Q64" s="61"/>
-      <c r="R64" s="61"/>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B65" s="215" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="5">
-        <f>F63-F64</f>
-        <v>893.94299999999998</v>
-      </c>
-      <c r="G65" s="5">
-        <f t="shared" ref="G65:L65" si="97">G63-G64</f>
-        <v>1600.53</v>
-      </c>
-      <c r="H65" s="5">
-        <f t="shared" si="97"/>
-        <v>1780.2619999999999</v>
-      </c>
-      <c r="I65" s="5">
-        <f t="shared" si="97"/>
-        <v>1925.559</v>
-      </c>
-      <c r="J65" s="5">
-        <f t="shared" si="97"/>
-        <v>2016.5770000000002</v>
-      </c>
-      <c r="K65" s="5">
-        <f t="shared" si="97"/>
-        <v>2144.9299999999998</v>
-      </c>
-      <c r="L65" s="5">
-        <f t="shared" si="97"/>
-        <v>2087.13</v>
-      </c>
+      <c r="M66" s="61"/>
+      <c r="N66" s="61"/>
+      <c r="Q66" s="61"/>
+      <c r="R66" s="61"/>
     </row>
     <row r="67" spans="2:18" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="63" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C67" s="216"/>
       <c r="D67" s="216"/>
       <c r="E67" s="216"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="61"/>
-      <c r="I67" s="61"/>
-      <c r="J67" s="61"/>
-      <c r="K67" s="61"/>
-      <c r="L67" s="61"/>
+      <c r="F67" s="217">
+        <f t="shared" ref="F67:K67" si="100">F56</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="217">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="217">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="217">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="217">
+        <f t="shared" si="100"/>
+        <v>987.72299999999996</v>
+      </c>
+      <c r="K67" s="217">
+        <f t="shared" si="100"/>
+        <v>988.03399999999999</v>
+      </c>
+      <c r="L67" s="217">
+        <f>L56</f>
+        <v>988.34500000000003</v>
+      </c>
       <c r="M67" s="61"/>
       <c r="N67" s="61"/>
       <c r="Q67" s="61"/>
       <c r="R67" s="61"/>
     </row>
-    <row r="68" spans="2:18" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="63" t="s">
+    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B68" s="215" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="5">
+        <f>F66-F67</f>
+        <v>893.94299999999998</v>
+      </c>
+      <c r="G68" s="5">
+        <f t="shared" ref="G68:L68" si="101">G66-G67</f>
+        <v>1600.53</v>
+      </c>
+      <c r="H68" s="5">
+        <f t="shared" si="101"/>
+        <v>1780.2619999999999</v>
+      </c>
+      <c r="I68" s="5">
+        <f t="shared" si="101"/>
+        <v>1925.559</v>
+      </c>
+      <c r="J68" s="5">
+        <f t="shared" si="101"/>
+        <v>2016.5770000000002</v>
+      </c>
+      <c r="K68" s="5">
+        <f t="shared" si="101"/>
+        <v>2144.9299999999998</v>
+      </c>
+      <c r="L68" s="5">
+        <f t="shared" si="101"/>
+        <v>2087.13</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="216"/>
+      <c r="D70" s="216"/>
+      <c r="E70" s="216"/>
+      <c r="F70" s="61"/>
+      <c r="G70" s="61"/>
+      <c r="H70" s="61"/>
+      <c r="I70" s="61"/>
+      <c r="J70" s="61"/>
+      <c r="K70" s="61"/>
+      <c r="L70" s="61"/>
+      <c r="M70" s="61"/>
+      <c r="N70" s="61"/>
+      <c r="Q70" s="61"/>
+      <c r="R70" s="61"/>
+    </row>
+    <row r="71" spans="2:18" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C68" s="216"/>
-      <c r="D68" s="216"/>
-      <c r="E68" s="216"/>
-      <c r="F68" s="61"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="61"/>
-      <c r="I68" s="61"/>
-      <c r="J68" s="61"/>
-      <c r="K68" s="61"/>
-      <c r="L68" s="61"/>
-      <c r="M68" s="61"/>
-      <c r="N68" s="61"/>
-      <c r="Q68" s="61"/>
-      <c r="R68" s="61"/>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B69" s="215" t="s">
-        <v>5</v>
-      </c>
-      <c r="F69" s="7">
-        <f>F68-F66</f>
-        <v>0</v>
-      </c>
-      <c r="G69" s="7">
-        <f t="shared" ref="G69:L69" si="98">G68-G66</f>
-        <v>0</v>
-      </c>
-      <c r="H69" s="7">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="I69" s="7">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="7">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="K69" s="7">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="L69" s="7">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B71" s="215" t="s">
-        <v>205</v>
-      </c>
+      <c r="C71" s="216"/>
+      <c r="D71" s="216"/>
+      <c r="E71" s="216"/>
+      <c r="F71" s="61"/>
+      <c r="G71" s="61"/>
+      <c r="H71" s="61"/>
+      <c r="I71" s="61"/>
+      <c r="J71" s="61"/>
+      <c r="K71" s="61"/>
+      <c r="L71" s="61"/>
+      <c r="M71" s="61"/>
+      <c r="N71" s="61"/>
+      <c r="Q71" s="61"/>
+      <c r="R71" s="61"/>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B72" s="215" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="7">
+        <f>F71-F69</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="7">
+        <f t="shared" ref="G72:L72" si="102">G71-G69</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B74" s="215" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B75" s="215" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B73" s="215" t="s">
+    <row r="76" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B76" s="215" t="s">
         <v>216</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="L1" r:id="rId1" xr:uid="{F0F1B078-C7E3-AA47-9924-08C1D4511F24}"/>
   </hyperlinks>
@@ -10514,7 +10805,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10669,11 +10960,11 @@
         <v>57.622945937595496</v>
       </c>
       <c r="S2" s="150">
-        <f t="shared" ref="S2:T2" si="0">R2*(S3+1)</f>
+        <f>R2*(S3+1)</f>
         <v>60.669440306430879</v>
       </c>
       <c r="T2" s="150">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="T2" si="0">S2*(T3+1)</f>
         <v>63.366917527131726</v>
       </c>
       <c r="X2" s="3">
@@ -10846,11 +11137,11 @@
         <v>0.33386448929619195</v>
       </c>
       <c r="S4" s="152">
-        <f t="shared" ref="S4" si="3">S2/N2-1</f>
+        <f>S2/N2-1</f>
         <v>0.28265201493511372</v>
       </c>
       <c r="T4" s="152">
-        <f t="shared" ref="T4" si="4">T2/O2-1</f>
+        <f>T2/O2-1</f>
         <v>0.28013974802286312</v>
       </c>
       <c r="X4" s="155" t="s">
@@ -10937,18 +11228,20 @@
       <c r="P6" s="53">
         <v>25.5</v>
       </c>
-      <c r="Q6" s="53"/>
+      <c r="Q6" s="53">
+        <v>24.2</v>
+      </c>
       <c r="R6" s="154">
         <f>P6*(R7+1)</f>
         <v>26.685506297991481</v>
       </c>
       <c r="S6" s="154">
         <f>R6*(S7+1)</f>
-        <v>28.17364052822029</v>
+        <v>27.603926166979321</v>
       </c>
       <c r="T6" s="154">
         <f>S6*(T7+1)</f>
-        <v>29.613381001713385</v>
+        <v>28.333111356265665</v>
       </c>
       <c r="X6" s="37">
         <f>AVERAGE(D6:G6)</f>
@@ -10964,7 +11257,7 @@
       </c>
       <c r="AA6" s="150">
         <f>AVERAGE(P6:T6)</f>
-        <v>27.493131956981287</v>
+        <v>26.464508764247295</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -10978,65 +11271,68 @@
         <v>33</v>
       </c>
       <c r="E7" s="29">
-        <f t="shared" ref="E7:P7" si="5">E6/D6-1</f>
+        <f t="shared" ref="E7:P7" si="3">E6/D6-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="F7" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9.090909090909105E-2</v>
       </c>
       <c r="G7" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.8518518518518379E-2</v>
       </c>
       <c r="H7" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.20909090909090922</v>
       </c>
       <c r="I7" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.34586466165413521</v>
       </c>
       <c r="J7" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>7.8212290502793325E-2</v>
       </c>
       <c r="K7" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.0362694300518172E-2</v>
       </c>
       <c r="L7" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9.2307692307692424E-2</v>
       </c>
       <c r="M7" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9.3896713615022609E-3</v>
       </c>
       <c r="N7" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>7.441860465116279E-2</v>
       </c>
       <c r="O7" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.1645021645021689E-2</v>
       </c>
       <c r="P7" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8.0508474576271194E-2</v>
       </c>
-      <c r="Q7" s="29"/>
+      <c r="Q7" s="29">
+        <f t="shared" ref="Q7" si="4">Q6/P6-1</f>
+        <v>-5.0980392156862786E-2</v>
+      </c>
       <c r="R7" s="151">
         <f>AVERAGE(M7:P7)</f>
         <v>4.6490443058489483E-2</v>
       </c>
       <c r="S7" s="151">
         <f>AVERAGE(N7:R7)</f>
-        <v>5.5765635982736289E-2</v>
+        <v>3.4416430354816473E-2</v>
       </c>
       <c r="T7" s="151">
         <f>AVERAGE(O7:S7)</f>
-        <v>5.1102393815629664E-2</v>
+        <v>2.6415995495547212E-2</v>
       </c>
       <c r="X7" s="136" t="s">
         <v>33</v>
@@ -11071,53 +11367,56 @@
         <v>33</v>
       </c>
       <c r="H8" s="29">
-        <f t="shared" ref="H8:P8" si="6">H6/D6-1</f>
+        <f t="shared" ref="H8:P8" si="5">H6/D6-1</f>
         <v>0.47777777777777786</v>
       </c>
       <c r="I8" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.80808080808080796</v>
       </c>
       <c r="J8" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.78703703703703698</v>
       </c>
       <c r="K8" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.77272727272727271</v>
       </c>
       <c r="L8" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.60150375939849621</v>
       </c>
       <c r="M8" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.2011173184357542</v>
       </c>
       <c r="N8" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.19689119170984459</v>
       </c>
       <c r="O8" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.2102564102564104</v>
       </c>
       <c r="P8" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.19718309859154926</v>
       </c>
-      <c r="Q8" s="33"/>
+      <c r="Q8" s="33">
+        <f t="shared" ref="Q8" si="6">Q6/M6-1</f>
+        <v>0.12558139534883717</v>
+      </c>
       <c r="R8" s="152">
         <f>R6/M6-1</f>
         <v>0.24118633944146417</v>
       </c>
       <c r="S8" s="152">
         <f>S6/N6-1</f>
-        <v>0.2196381181047744</v>
+        <v>0.19497515874369342</v>
       </c>
       <c r="T8" s="152">
         <f>T6/O6-1</f>
-        <v>0.25480427973361786</v>
+        <v>0.20055556594346036</v>
       </c>
       <c r="X8" s="155" t="s">
         <v>33</v>
@@ -11132,7 +11431,7 @@
       </c>
       <c r="AA8" s="152">
         <f>AA6/Z6-1</f>
-        <v>0.22874332768631445</v>
+        <v>0.18277134141887363</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -11191,18 +11490,20 @@
       <c r="P10" s="53">
         <v>28.3</v>
       </c>
-      <c r="Q10" s="53"/>
+      <c r="Q10" s="53">
+        <v>27.7</v>
+      </c>
       <c r="R10" s="154">
         <f>P10*(R11+1)</f>
         <v>32.102349662858444</v>
       </c>
       <c r="S10" s="154">
         <f>R10*(S11+1)</f>
-        <v>35.534148466673749</v>
+        <v>34.711665668471007</v>
       </c>
       <c r="T10" s="154">
         <f>S10*(T11+1)</f>
-        <v>39.286194250404549</v>
+        <v>37.31877131558975</v>
       </c>
       <c r="X10" s="37">
         <f>AVERAGE(D10:G10)</f>
@@ -11218,7 +11519,7 @@
       </c>
       <c r="AA10" s="150">
         <f>AVERAGE(P10:T10)</f>
-        <v>33.805673094984186</v>
+        <v>32.026557329383834</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -11279,18 +11580,21 @@
         <f t="shared" si="7"/>
         <v>0.10546875</v>
       </c>
-      <c r="Q11" s="29"/>
+      <c r="Q11" s="29">
+        <f t="shared" ref="Q11" si="8">Q10/P10-1</f>
+        <v>-2.1201413427561877E-2</v>
+      </c>
       <c r="R11" s="151">
         <f>AVERAGE(M11:P11)</f>
         <v>0.13435864533068714</v>
       </c>
       <c r="S11" s="151">
         <f>AVERAGE(N11:R11)</f>
-        <v>0.10690179503545195</v>
+        <v>8.1281153342849188E-2</v>
       </c>
       <c r="T11" s="151">
         <f>AVERAGE(O11:S11)</f>
-        <v>0.10558986061674484</v>
+        <v>7.5107477469362943E-2</v>
       </c>
       <c r="X11" s="136" t="s">
         <v>33</v>
@@ -11325,53 +11629,56 @@
         <v>33</v>
       </c>
       <c r="H12" s="29">
-        <f t="shared" ref="H12:P12" si="8">H10/D10-1</f>
+        <f t="shared" ref="H12:P12" si="9">H10/D10-1</f>
         <v>0.51562499999999978</v>
       </c>
       <c r="I12" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.14925373134328357</v>
       </c>
       <c r="J12" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.36619718309859151</v>
       </c>
       <c r="K12" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.0909090909090908</v>
       </c>
       <c r="L12" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.77319587628865993</v>
       </c>
       <c r="M12" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.779220779220779</v>
       </c>
       <c r="N12" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.4536082474226806</v>
       </c>
       <c r="O12" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.59006211180124213</v>
       </c>
       <c r="P12" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.64534883720930236</v>
       </c>
-      <c r="Q12" s="33"/>
+      <c r="Q12" s="33">
+        <f t="shared" ref="Q12" si="10">Q10/M10-1</f>
+        <v>0.29439252336448596</v>
+      </c>
       <c r="R12" s="152">
         <f>R10/M10-1</f>
         <v>0.50010979732983385</v>
       </c>
       <c r="S12" s="152">
         <f>S10/N10-1</f>
-        <v>0.49303144817956923</v>
+        <v>0.45847334741474821</v>
       </c>
       <c r="T12" s="152">
         <f>T10/O10-1</f>
-        <v>0.53461696290642768</v>
+        <v>0.45776450451522455</v>
       </c>
       <c r="X12" s="155" t="s">
         <v>33</v>
@@ -11386,7 +11693,7 @@
       </c>
       <c r="AA12" s="152">
         <f>AA10/Z10-1</f>
-        <v>0.53662150431746292</v>
+        <v>0.45575260588108346</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -11447,18 +11754,20 @@
         <f>O14*1.12</f>
         <v>12116.160000000002</v>
       </c>
-      <c r="Q14" s="32"/>
+      <c r="Q14" s="32">
+        <v>11924</v>
+      </c>
       <c r="R14" s="156">
         <f>P14*(R15+1)</f>
         <v>12850.341134695112</v>
       </c>
       <c r="S14" s="156">
         <f>R14*(S15+1)</f>
-        <v>13802.423961767507</v>
+        <v>13571.246601638479</v>
       </c>
       <c r="T14" s="156">
         <f>S14*(T15+1)</f>
-        <v>14568.320328346719</v>
+        <v>14081.824505090588</v>
       </c>
       <c r="X14" s="137">
         <f>AVERAGE(D14:G14)</f>
@@ -11474,7 +11783,7 @@
       </c>
       <c r="AA14" s="159">
         <f>AVERAGE(P14:T14)</f>
-        <v>13334.311356202335</v>
+        <v>12908.714448284836</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -11485,69 +11794,72 @@
         <v>33</v>
       </c>
       <c r="D15" s="29">
-        <f t="shared" ref="D15:P15" si="9">D14/C14-1</f>
+        <f t="shared" ref="D15:P15" si="11">D14/C14-1</f>
         <v>0.17549407114624516</v>
       </c>
       <c r="E15" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.2131809011432475E-2</v>
       </c>
       <c r="F15" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.14839901477832518</v>
       </c>
       <c r="G15" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-7.7747989276139018E-3</v>
       </c>
       <c r="H15" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.31721156444204279</v>
       </c>
       <c r="I15" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.76123076923076916</v>
       </c>
       <c r="J15" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.455858374097363E-2</v>
       </c>
       <c r="K15" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-3.2258064516129004E-2</v>
       </c>
       <c r="L15" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.14756820877817312</v>
       </c>
       <c r="M15" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6.6156708703741796E-3</v>
       </c>
       <c r="N15" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.14849044978435</v>
       </c>
       <c r="O15" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-3.272532188841204E-2</v>
       </c>
       <c r="P15" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.12000000000000011</v>
       </c>
-      <c r="Q15" s="29"/>
+      <c r="Q15" s="29">
+        <f t="shared" ref="Q15" si="12">Q14/P14-1</f>
+        <v>-1.5859810368961891E-2</v>
+      </c>
       <c r="R15" s="151">
         <f>AVERAGE(M15:P15)</f>
         <v>6.0595199691578061E-2</v>
       </c>
       <c r="S15" s="151">
         <f>AVERAGE(N15:R15)</f>
-        <v>7.4090081896879031E-2</v>
+        <v>5.6100103443710844E-2</v>
       </c>
       <c r="T15" s="151">
         <f>AVERAGE(O15:S15)</f>
-        <v>5.5489989925011293E-2</v>
+        <v>3.7622034175583019E-2</v>
       </c>
       <c r="X15" s="136" t="s">
         <v>33</v>
@@ -11579,57 +11891,60 @@
         <v>33</v>
       </c>
       <c r="G16" s="33">
-        <f t="shared" ref="G16:P16" si="10">G14/C14-1</f>
+        <f t="shared" ref="G16:P16" si="13">G14/C14-1</f>
         <v>0.46284584980237153</v>
       </c>
       <c r="H16" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.63920645595158043</v>
       </c>
       <c r="I16" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.6434729064039408</v>
       </c>
       <c r="J16" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3353887399463806</v>
       </c>
       <c r="K16" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2777627668197784</v>
       </c>
       <c r="L16" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.98441025641025637</v>
       </c>
       <c r="M16" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.13417190775681331</v>
       </c>
       <c r="N16" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.28389392721845952</v>
       </c>
       <c r="O16" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.28327402135231328</v>
       </c>
       <c r="P16" s="138">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.25244573082489175</v>
       </c>
-      <c r="Q16" s="138"/>
+      <c r="Q16" s="138">
+        <f t="shared" ref="Q16" si="14">Q14/M14-1</f>
+        <v>0.22448141302115432</v>
+      </c>
       <c r="R16" s="157">
         <f>R14/M14-1</f>
         <v>0.3196078388473107</v>
       </c>
       <c r="S16" s="157">
         <f>S14/N14-1</f>
-        <v>0.2341223141780675</v>
+        <v>0.21345194935966361</v>
       </c>
       <c r="T16" s="157">
         <f>T14/O14-1</f>
-        <v>0.34667409210082445</v>
+        <v>0.30170313413667849</v>
       </c>
       <c r="X16" s="155" t="s">
         <v>33</v>
@@ -11644,7 +11959,7 @@
       </c>
       <c r="AA16" s="152">
         <f>AA14/Z14-1</f>
-        <v>0.28790373846547879</v>
+        <v>0.24679716504417204</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
@@ -11725,55 +12040,55 @@
         <v>174</v>
       </c>
       <c r="C19" s="163">
-        <f t="shared" ref="C19:O19" si="11">C2*C18</f>
+        <f t="shared" ref="C19:O19" si="15">C2*C18</f>
         <v>143.02799999999999</v>
       </c>
       <c r="D19" s="163">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>141.88400000000001</v>
       </c>
       <c r="E19" s="163">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>150.13800000000001</v>
       </c>
       <c r="F19" s="163">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>165.6</v>
       </c>
       <c r="G19" s="163">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>236.267</v>
       </c>
       <c r="H19" s="163">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>249.68800000000002</v>
       </c>
       <c r="I19" s="163">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>494.654</v>
       </c>
       <c r="J19" s="163">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>497.02600000000007</v>
       </c>
       <c r="K19" s="163">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>641.83000000000004</v>
       </c>
       <c r="L19" s="163">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>651.70800000000008</v>
       </c>
       <c r="M19" s="163">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>665.7120000000001</v>
       </c>
       <c r="N19" s="163">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>638.077</v>
       </c>
       <c r="O19" s="163">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>770.22</v>
       </c>
       <c r="P19" s="163">
@@ -11807,55 +12122,55 @@
         <v>33</v>
       </c>
       <c r="D20" s="201">
-        <f t="shared" ref="D20:P20" si="12">D18/C18-1</f>
+        <f t="shared" ref="D20:P20" si="16">D18/C18-1</f>
         <v>-0.13984674329501912</v>
       </c>
       <c r="E20" s="201">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-2.2271714922049157E-2</v>
       </c>
       <c r="F20" s="201">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2.5056947608200542E-2</v>
       </c>
       <c r="G20" s="201">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.37444444444444436</v>
       </c>
       <c r="H20" s="201">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-0.14470493128536777</v>
       </c>
       <c r="I20" s="201">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.39981096408317573</v>
       </c>
       <c r="J20" s="201">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-7.2923700202565889E-2</v>
       </c>
       <c r="K20" s="201">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.26001456664238898</v>
       </c>
       <c r="L20" s="201">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-0.10520231213872833</v>
       </c>
       <c r="M20" s="201">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-4.5219638242893767E-3</v>
       </c>
       <c r="N20" s="201">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-0.12459441920830627</v>
       </c>
       <c r="O20" s="201">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.15344699777613058</v>
       </c>
       <c r="P20" s="201">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-0.25</v>
       </c>
       <c r="Q20" s="201">
@@ -11885,43 +12200,43 @@
         <v>33</v>
       </c>
       <c r="G21" s="201">
-        <f t="shared" ref="G21:P21" si="13">G18/C18-1</f>
+        <f t="shared" ref="G21:P21" si="17">G18/C18-1</f>
         <v>0.18486590038314166</v>
       </c>
       <c r="H21" s="201">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.17817371937639193</v>
       </c>
       <c r="I21" s="201">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.68678815489749456</v>
       </c>
       <c r="J21" s="201">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.52555555555555555</v>
       </c>
       <c r="K21" s="201">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.39854486661277289</v>
       </c>
       <c r="L21" s="201">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.46313799621928164</v>
       </c>
       <c r="M21" s="201">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>4.0513166779203136E-2</v>
       </c>
       <c r="N21" s="201">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-1.7479970866715266E-2</v>
       </c>
       <c r="O21" s="201">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-0.10057803468208093</v>
       </c>
       <c r="P21" s="201">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-0.24612403100775193</v>
       </c>
       <c r="Q21" s="201">
@@ -11943,7 +12258,7 @@
       <c r="Q24" s="110"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
   <ignoredErrors>

--- a/$RBLX.xlsx
+++ b/$RBLX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F211DF-8056-4B4C-8606-7FC2820DBD2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA99C3FC-06D7-4507-8382-84F30AF3D44D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18885" activeTab="1" xr2:uid="{DB6ABC51-E0DE-6747-8CA5-53C172A4844D}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="221">
   <si>
     <t>Price</t>
   </si>
@@ -687,6 +687,9 @@
   </si>
   <si>
     <t>R&amp;D Y/Y</t>
+  </si>
+  <si>
+    <t>EV/E</t>
   </si>
 </sst>
 </file>
@@ -705,9 +708,16 @@
     <numFmt numFmtId="171" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="172" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1218,549 +1228,549 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="21" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="21" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="21" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="21" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="33" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="10" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="21" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="21" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="21" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="21" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="13" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="16" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="21" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="21" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="21" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="21" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="21" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="24" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="33" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="34" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="34" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="34" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="9" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="34" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="33" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="34" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="24" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="38" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="39" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="17" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="32" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="20" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="20" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="32" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="10" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="20" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="20" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="12" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="15" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="20" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="20" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="20" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="20" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="20" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="23" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="15" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="33" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="33" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="33" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="8" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="33" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="33" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="23" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="37" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="38" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="24" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="23" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="21" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="20" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="21" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="20" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="21" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="21" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="20" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="24" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="24" fillId="12" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="23" fillId="12" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="34" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="34" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="33" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="24" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="23" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="33" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="21" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="21" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="20" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="20" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="15" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="32" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="33" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent3" xfId="5" builtinId="38"/>
@@ -2161,10 +2171,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Metrics!$D$6:$P$6</c:f>
+              <c:f>Metrics!$D$6:$Q$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>9</c:v>
                 </c:pt>
@@ -2203,6 +2213,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2362,10 +2375,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Metrics!$D$10:$P$10</c:f>
+              <c:f>Metrics!$D$10:$Q$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>6.4</c:v>
                 </c:pt>
@@ -2404,6 +2417,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>28.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3250,7 +3266,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3300,7 +3316,7 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3355,8 +3371,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>22225</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3371,8 +3387,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12620625" y="0"/>
-          <a:ext cx="0" cy="8013700"/>
+          <a:off x="12623800" y="0"/>
+          <a:ext cx="0" cy="10029825"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3405,8 +3421,8 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3421,8 +3437,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18770600" y="0"/>
-          <a:ext cx="0" cy="8013700"/>
+          <a:off x="18773775" y="0"/>
+          <a:ext cx="0" cy="10163175"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3784,7 +3800,7 @@
   <dimension ref="B1:AJ68"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:H8"/>
+      <selection activeCell="G16" sqref="G16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3802,34 +3818,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="L1" s="230" t="s">
+      <c r="L1" s="245" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="231"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="231"/>
-      <c r="P1" s="231"/>
-      <c r="Q1" s="231"/>
-      <c r="R1" s="231"/>
-      <c r="S1" s="231"/>
-      <c r="T1" s="232"/>
-      <c r="V1" s="218" t="s">
+      <c r="M1" s="246"/>
+      <c r="N1" s="246"/>
+      <c r="O1" s="246"/>
+      <c r="P1" s="246"/>
+      <c r="Q1" s="246"/>
+      <c r="R1" s="246"/>
+      <c r="S1" s="246"/>
+      <c r="T1" s="247"/>
+      <c r="V1" s="241" t="s">
         <v>127</v>
       </c>
-      <c r="W1" s="219"/>
-      <c r="X1" s="219"/>
-      <c r="Y1" s="219"/>
-      <c r="Z1" s="219"/>
-      <c r="AA1" s="219"/>
-      <c r="AB1" s="219"/>
-      <c r="AC1" s="219"/>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="219"/>
-      <c r="AG1" s="219"/>
-      <c r="AH1" s="219"/>
-      <c r="AI1" s="219"/>
-      <c r="AJ1" s="220"/>
+      <c r="W1" s="242"/>
+      <c r="X1" s="242"/>
+      <c r="Y1" s="242"/>
+      <c r="Z1" s="242"/>
+      <c r="AA1" s="242"/>
+      <c r="AB1" s="242"/>
+      <c r="AC1" s="242"/>
+      <c r="AD1" s="242"/>
+      <c r="AE1" s="242"/>
+      <c r="AF1" s="242"/>
+      <c r="AG1" s="242"/>
+      <c r="AH1" s="242"/>
+      <c r="AI1" s="242"/>
+      <c r="AJ1" s="243"/>
     </row>
     <row r="2" spans="2:36" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
@@ -4017,16 +4033,16 @@
       </c>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B5" s="223" t="s">
+      <c r="B5" s="227" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="224"/>
-      <c r="D5" s="225"/>
-      <c r="F5" s="223" t="s">
+      <c r="C5" s="228"/>
+      <c r="D5" s="229"/>
+      <c r="F5" s="227" t="s">
         <v>193</v>
       </c>
-      <c r="G5" s="224"/>
-      <c r="H5" s="225"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="229"/>
       <c r="K5" s="28" t="s">
         <v>73</v>
       </c>
@@ -4121,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="9">
-        <v>40.75</v>
+        <v>46.5</v>
       </c>
       <c r="D6" s="44"/>
       <c r="F6" s="181" t="s">
         <v>194</v>
       </c>
-      <c r="G6" s="226" t="s">
+      <c r="G6" s="244" t="s">
         <v>198</v>
       </c>
-      <c r="H6" s="222"/>
+      <c r="H6" s="233"/>
       <c r="K6" s="28" t="s">
         <v>74</v>
       </c>
@@ -4228,10 +4244,10 @@
       <c r="F7" s="181" t="s">
         <v>195</v>
       </c>
-      <c r="G7" s="227">
+      <c r="G7" s="232">
         <v>2004</v>
       </c>
-      <c r="H7" s="222"/>
+      <c r="H7" s="233"/>
       <c r="K7" s="28"/>
       <c r="L7" s="61"/>
       <c r="M7" s="61"/>
@@ -4265,17 +4281,17 @@
       </c>
       <c r="C8" s="9">
         <f>C6*C7</f>
-        <v>24202.565999999999</v>
+        <v>27617.651999999998</v>
       </c>
       <c r="D8" s="41"/>
       <c r="F8" s="181" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="227">
+      <c r="G8" s="232">
         <f>AJ4</f>
         <v>52.2</v>
       </c>
-      <c r="H8" s="222"/>
+      <c r="H8" s="233"/>
       <c r="K8" s="28" t="s">
         <v>75</v>
       </c>
@@ -4362,8 +4378,8 @@
         <v>13</v>
       </c>
       <c r="F9" s="167"/>
-      <c r="G9" s="227"/>
-      <c r="H9" s="222"/>
+      <c r="G9" s="232"/>
+      <c r="H9" s="233"/>
       <c r="K9" s="28" t="s">
         <v>77</v>
       </c>
@@ -4463,8 +4479,8 @@
         <v>13</v>
       </c>
       <c r="F10" s="167"/>
-      <c r="G10" s="227"/>
-      <c r="H10" s="222"/>
+      <c r="G10" s="232"/>
+      <c r="H10" s="233"/>
       <c r="K10" s="28" t="s">
         <v>78</v>
       </c>
@@ -4564,10 +4580,10 @@
       <c r="F11" s="181" t="s">
         <v>199</v>
       </c>
-      <c r="G11" s="226" t="s">
+      <c r="G11" s="244" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="222"/>
+      <c r="H11" s="233"/>
       <c r="K11" s="28"/>
       <c r="L11" s="61"/>
       <c r="M11" s="61"/>
@@ -4590,16 +4606,16 @@
       </c>
       <c r="C12" s="45">
         <f>C8-C9+C10</f>
-        <v>22115.436000000002</v>
+        <v>25530.522000000001</v>
       </c>
       <c r="D12" s="43"/>
       <c r="F12" s="182" t="s">
         <v>196</v>
       </c>
-      <c r="G12" s="228" t="s">
+      <c r="G12" s="236" t="s">
         <v>197</v>
       </c>
-      <c r="H12" s="229"/>
+      <c r="H12" s="237"/>
       <c r="K12" s="28" t="s">
         <v>76</v>
       </c>
@@ -4851,16 +4867,16 @@
       </c>
     </row>
     <row r="15" spans="2:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="223" t="s">
+      <c r="B15" s="227" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="224"/>
-      <c r="D15" s="225"/>
-      <c r="F15" s="223" t="s">
+      <c r="C15" s="228"/>
+      <c r="D15" s="229"/>
+      <c r="F15" s="227" t="s">
         <v>204</v>
       </c>
-      <c r="G15" s="224"/>
-      <c r="H15" s="225"/>
+      <c r="G15" s="228"/>
+      <c r="H15" s="229"/>
       <c r="K15" s="28"/>
       <c r="L15" s="63"/>
       <c r="M15" s="63"/>
@@ -4876,18 +4892,18 @@
       <c r="B16" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="221" t="s">
+      <c r="C16" s="240" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="222"/>
+      <c r="D16" s="233"/>
       <c r="F16" s="181" t="s">
         <v>205</v>
       </c>
-      <c r="G16" s="235">
+      <c r="G16" s="234">
         <f>C6/'Financial Model'!L64</f>
-        <v>43.876556281027149</v>
-      </c>
-      <c r="H16" s="236"/>
+        <v>50.067726799208891</v>
+      </c>
+      <c r="H16" s="235"/>
       <c r="J16" s="31" t="s">
         <v>86</v>
       </c>
@@ -4969,18 +4985,18 @@
       <c r="B17" s="105" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="233" t="s">
+      <c r="C17" s="230" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="234"/>
+      <c r="D17" s="231"/>
       <c r="F17" s="181" t="s">
         <v>215</v>
       </c>
-      <c r="G17" s="235">
+      <c r="G17" s="234">
         <f>C8/'Financial Model'!W3</f>
-        <v>12.610882454547017</v>
-      </c>
-      <c r="H17" s="236"/>
+        <v>14.390332126047516</v>
+      </c>
+      <c r="H17" s="235"/>
       <c r="K17" s="28" t="s">
         <v>84</v>
       </c>
@@ -5072,15 +5088,15 @@
       <c r="B18" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="221" t="s">
+      <c r="C18" s="240" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="222"/>
+      <c r="D18" s="233"/>
       <c r="F18" s="181" t="s">
         <v>216</v>
       </c>
-      <c r="G18" s="227"/>
-      <c r="H18" s="222"/>
+      <c r="G18" s="232"/>
+      <c r="H18" s="233"/>
       <c r="K18" s="28" t="s">
         <v>85</v>
       </c>
@@ -5167,22 +5183,22 @@
     </row>
     <row r="19" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B19" s="91"/>
-      <c r="C19" s="227"/>
-      <c r="D19" s="222"/>
+      <c r="C19" s="232"/>
+      <c r="D19" s="233"/>
       <c r="F19" s="181"/>
-      <c r="G19" s="227"/>
-      <c r="H19" s="222"/>
+      <c r="G19" s="232"/>
+      <c r="H19" s="233"/>
       <c r="K19" s="28"/>
       <c r="L19" s="63"/>
       <c r="M19" s="63"/>
     </row>
     <row r="20" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="92"/>
-      <c r="C20" s="237"/>
-      <c r="D20" s="238"/>
+      <c r="C20" s="238"/>
+      <c r="D20" s="239"/>
       <c r="F20" s="182"/>
-      <c r="G20" s="228"/>
-      <c r="H20" s="229"/>
+      <c r="G20" s="236"/>
+      <c r="H20" s="237"/>
       <c r="J20" s="31"/>
       <c r="K20" s="200" t="s">
         <v>214</v>
@@ -5213,14 +5229,14 @@
       </c>
     </row>
     <row r="23" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B23" s="223" t="s">
+      <c r="B23" s="227" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="224"/>
-      <c r="D23" s="224"/>
-      <c r="E23" s="224"/>
-      <c r="F23" s="224"/>
-      <c r="G23" s="225"/>
+      <c r="C23" s="228"/>
+      <c r="D23" s="228"/>
+      <c r="E23" s="228"/>
+      <c r="F23" s="228"/>
+      <c r="G23" s="229"/>
       <c r="K23" s="200" t="s">
         <v>211</v>
       </c>
@@ -5332,12 +5348,12 @@
       <c r="F31" s="102"/>
       <c r="G31" s="103"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="223" t="s">
+      <c r="K31" s="227" t="s">
         <v>181</v>
       </c>
-      <c r="L31" s="224"/>
-      <c r="M31" s="224"/>
-      <c r="N31" s="225"/>
+      <c r="L31" s="228"/>
+      <c r="M31" s="228"/>
+      <c r="N31" s="229"/>
     </row>
     <row r="32" spans="2:36" x14ac:dyDescent="0.25">
       <c r="J32" s="7"/>
@@ -5349,14 +5365,14 @@
       <c r="N32" s="97"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="223" t="s">
+      <c r="B33" s="227" t="s">
         <v>187</v>
       </c>
-      <c r="C33" s="224"/>
-      <c r="D33" s="224"/>
-      <c r="E33" s="224"/>
-      <c r="F33" s="224"/>
-      <c r="G33" s="225"/>
+      <c r="C33" s="228"/>
+      <c r="D33" s="228"/>
+      <c r="E33" s="228"/>
+      <c r="F33" s="228"/>
+      <c r="G33" s="229"/>
       <c r="J33" s="7"/>
       <c r="K33" s="173" t="s">
         <v>177</v>
@@ -5661,6 +5677,17 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="V1:AJ1"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="L1:T1"/>
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="K31:N31"/>
     <mergeCell ref="B5:D5"/>
@@ -5676,19 +5703,8 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="V1:AJ1"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="L1:T1"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K55" r:id="rId1" xr:uid="{F79BC045-05D5-43FB-A051-BA2031CC85A7}"/>
     <hyperlink ref="K57" r:id="rId2" xr:uid="{58004FA9-9F7A-4B71-811E-FF4EE09F281F}"/>
@@ -5702,13 +5718,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0FDCAC-3416-844A-BCBB-390EC350CF59}">
-  <dimension ref="B1:BZ76"/>
+  <dimension ref="B1:BZ77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W31" sqref="W31"/>
+      <selection pane="bottomRight" activeCell="AR26" sqref="AR26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7984,159 +8000,159 @@
       </c>
       <c r="AN18" s="3">
         <f>AM18*(1+$AP$21)</f>
-        <v>11192.71501744148</v>
+        <v>10971.077096304025</v>
       </c>
       <c r="AO18" s="3">
         <f t="shared" ref="AO18:BZ18" si="52">AN18*(1+$AP$21)</f>
-        <v>11304.642167615895</v>
+        <v>10861.366325340985</v>
       </c>
       <c r="AP18" s="3">
         <f t="shared" si="52"/>
-        <v>11417.688589292055</v>
+        <v>10752.752662087574</v>
       </c>
       <c r="AQ18" s="3">
         <f t="shared" si="52"/>
-        <v>11531.865475184975</v>
+        <v>10645.225135466699</v>
       </c>
       <c r="AR18" s="3">
         <f t="shared" si="52"/>
-        <v>11647.184129936824</v>
+        <v>10538.772884112032</v>
       </c>
       <c r="AS18" s="3">
         <f t="shared" si="52"/>
-        <v>11763.655971236192</v>
+        <v>10433.385155270911</v>
       </c>
       <c r="AT18" s="3">
         <f t="shared" si="52"/>
-        <v>11881.292530948554</v>
+        <v>10329.051303718203</v>
       </c>
       <c r="AU18" s="3">
         <f t="shared" si="52"/>
-        <v>12000.105456258039</v>
+        <v>10225.760790681021</v>
       </c>
       <c r="AV18" s="3">
         <f t="shared" si="52"/>
-        <v>12120.10651082062</v>
+        <v>10123.503182774211</v>
       </c>
       <c r="AW18" s="3">
         <f t="shared" si="52"/>
-        <v>12241.307575928826</v>
+        <v>10022.268150946469</v>
       </c>
       <c r="AX18" s="3">
         <f t="shared" si="52"/>
-        <v>12363.720651688114</v>
+        <v>9922.0454694370037</v>
       </c>
       <c r="AY18" s="3">
         <f t="shared" si="52"/>
-        <v>12487.357858204996</v>
+        <v>9822.8250147426334</v>
       </c>
       <c r="AZ18" s="3">
         <f t="shared" si="52"/>
-        <v>12612.231436787046</v>
+        <v>9724.5967645952078</v>
       </c>
       <c r="BA18" s="3">
         <f t="shared" si="52"/>
-        <v>12738.353751154917</v>
+        <v>9627.3507969492548</v>
       </c>
       <c r="BB18" s="3">
         <f t="shared" si="52"/>
-        <v>12865.737288666465</v>
+        <v>9531.0772889797627</v>
       </c>
       <c r="BC18" s="3">
         <f t="shared" si="52"/>
-        <v>12994.394661553129</v>
+        <v>9435.7665160899651</v>
       </c>
       <c r="BD18" s="3">
         <f t="shared" si="52"/>
-        <v>13124.33860816866</v>
+        <v>9341.408850929065</v>
       </c>
       <c r="BE18" s="3">
         <f t="shared" si="52"/>
-        <v>13255.581994250348</v>
+        <v>9247.9947624197739</v>
       </c>
       <c r="BF18" s="3">
         <f t="shared" si="52"/>
-        <v>13388.137814192851</v>
+        <v>9155.514814795577</v>
       </c>
       <c r="BG18" s="3">
         <f t="shared" si="52"/>
-        <v>13522.019192334779</v>
+        <v>9063.9596666476209</v>
       </c>
       <c r="BH18" s="3">
         <f t="shared" si="52"/>
-        <v>13657.239384258128</v>
+        <v>8973.3200699811441</v>
       </c>
       <c r="BI18" s="3">
         <f t="shared" si="52"/>
-        <v>13793.811778100709</v>
+        <v>8883.5868692813328</v>
       </c>
       <c r="BJ18" s="3">
         <f t="shared" si="52"/>
-        <v>13931.749895881716</v>
+        <v>8794.7510005885197</v>
       </c>
       <c r="BK18" s="3">
         <f t="shared" si="52"/>
-        <v>14071.067394840533</v>
+        <v>8706.8034905826353</v>
       </c>
       <c r="BL18" s="3">
         <f t="shared" si="52"/>
-        <v>14211.778068788939</v>
+        <v>8619.7354556768096</v>
       </c>
       <c r="BM18" s="3">
         <f t="shared" si="52"/>
-        <v>14353.895849476829</v>
+        <v>8533.5381011200407</v>
       </c>
       <c r="BN18" s="3">
         <f t="shared" si="52"/>
-        <v>14497.434807971596</v>
+        <v>8448.2027201088404</v>
       </c>
       <c r="BO18" s="3">
         <f t="shared" si="52"/>
-        <v>14642.409156051313</v>
+        <v>8363.7206929077511</v>
       </c>
       <c r="BP18" s="3">
         <f t="shared" si="52"/>
-        <v>14788.833247611827</v>
+        <v>8280.0834859786737</v>
       </c>
       <c r="BQ18" s="3">
         <f t="shared" si="52"/>
-        <v>14936.721580087946</v>
+        <v>8197.2826511188869</v>
       </c>
       <c r="BR18" s="3">
         <f t="shared" si="52"/>
-        <v>15086.088795888825</v>
+        <v>8115.3098246076979</v>
       </c>
       <c r="BS18" s="3">
         <f t="shared" si="52"/>
-        <v>15236.949683847713</v>
+        <v>8034.1567263616207</v>
       </c>
       <c r="BT18" s="3">
         <f t="shared" si="52"/>
-        <v>15389.319180686191</v>
+        <v>7953.8151590980042</v>
       </c>
       <c r="BU18" s="3">
         <f t="shared" si="52"/>
-        <v>15543.212372493053</v>
+        <v>7874.2770075070239</v>
       </c>
       <c r="BV18" s="3">
         <f t="shared" si="52"/>
-        <v>15698.644496217985</v>
+        <v>7795.5342374319534</v>
       </c>
       <c r="BW18" s="3">
         <f t="shared" si="52"/>
-        <v>15855.630941180165</v>
+        <v>7717.5788950576334</v>
       </c>
       <c r="BX18" s="3">
         <f t="shared" si="52"/>
-        <v>16014.187250591967</v>
+        <v>7640.4031061070573</v>
       </c>
       <c r="BY18" s="3">
         <f t="shared" si="52"/>
-        <v>16174.329123097887</v>
+        <v>7563.9990750459865</v>
       </c>
       <c r="BZ18" s="3">
         <f t="shared" si="52"/>
-        <v>16336.072414328866</v>
+        <v>7488.3590842955264</v>
       </c>
     </row>
     <row r="19" spans="2:78" ht="15" x14ac:dyDescent="0.25">
@@ -8408,7 +8424,7 @@
         <v>118</v>
       </c>
       <c r="AP21" s="139">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="22" spans="2:78" ht="15" x14ac:dyDescent="0.25">
@@ -8690,7 +8706,7 @@
       </c>
       <c r="AP23" s="141">
         <f>NPV(AP22,X18:BZ18)</f>
-        <v>99519.172695990259</v>
+        <v>82186.236313802889</v>
       </c>
       <c r="AR23" s="69"/>
     </row>
@@ -8973,7 +8989,7 @@
       </c>
       <c r="AP25" s="141">
         <f>AP23+AP24</f>
-        <v>101606.30269599026</v>
+        <v>84273.366313802893</v>
       </c>
     </row>
     <row r="26" spans="2:78" x14ac:dyDescent="0.25">
@@ -8990,9 +9006,10 @@
       </c>
       <c r="AP26" s="142">
         <f>AP25/Main!C7</f>
-        <v>171.0751180210232</v>
+        <v>141.89155303976727</v>
       </c>
       <c r="AQ26" s="68"/>
+      <c r="AS26" s="9"/>
     </row>
     <row r="27" spans="2:78" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
@@ -9062,7 +9079,7 @@
       </c>
       <c r="AP27" s="143">
         <f>Main!C6</f>
-        <v>40.75</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="28" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -9196,7 +9213,7 @@
       </c>
       <c r="AP28" s="144">
         <f>AP26/AP27-1</f>
-        <v>3.198162405423882</v>
+        <v>2.051431248167038</v>
       </c>
     </row>
     <row r="29" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -9210,7 +9227,7 @@
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
-      <c r="M29" s="250"/>
+      <c r="M29" s="225"/>
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
       <c r="Q29" s="82"/>
@@ -9233,83 +9250,79 @@
       <c r="AK29" s="13"/>
       <c r="AL29" s="13"/>
       <c r="AM29" s="13"/>
-      <c r="AO29" s="239"/>
-      <c r="AP29" s="240"/>
-    </row>
-    <row r="30" spans="2:78" s="241" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="241" t="s">
+    </row>
+    <row r="30" spans="2:78" s="218" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30" s="218" t="s">
         <v>218</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="242">
-        <f t="shared" ref="D30:L30" si="88">D8/C8-1</f>
+      <c r="D30" s="219">
+        <f t="shared" ref="D30:K30" si="88">D8/C8-1</f>
         <v>-0.18539132546702008</v>
       </c>
-      <c r="E30" s="242">
+      <c r="E30" s="219">
         <f t="shared" si="88"/>
         <v>0.28470272553355347</v>
       </c>
-      <c r="F30" s="242">
+      <c r="F30" s="219">
         <f t="shared" si="88"/>
         <v>0.16165777055774733</v>
       </c>
-      <c r="G30" s="242">
+      <c r="G30" s="219">
         <f t="shared" si="88"/>
         <v>0.60893668736577489</v>
       </c>
-      <c r="H30" s="242">
+      <c r="H30" s="219">
         <f t="shared" si="88"/>
         <v>0.29079922188651119</v>
       </c>
-      <c r="I30" s="242">
+      <c r="I30" s="219">
         <f t="shared" si="88"/>
         <v>0.10819411934459877</v>
       </c>
-      <c r="J30" s="242">
+      <c r="J30" s="219">
         <f t="shared" si="88"/>
         <v>0.25552461210170341</v>
       </c>
-      <c r="K30" s="242">
+      <c r="K30" s="219">
         <f t="shared" si="88"/>
         <v>2.4151639108140888E-2</v>
       </c>
-      <c r="L30" s="242">
+      <c r="L30" s="219">
         <f>L8/K8-1</f>
         <v>0.19123884744771091</v>
       </c>
-      <c r="M30" s="251">
+      <c r="M30" s="226">
         <f t="shared" ref="M30:N30" si="89">M8/L8-1</f>
         <v>-0.14026981054699483</v>
       </c>
-      <c r="N30" s="248">
+      <c r="N30" s="223">
         <f t="shared" si="89"/>
         <v>1.2000000000000011E-2</v>
       </c>
-      <c r="O30" s="242"/>
-      <c r="Q30" s="244"/>
-      <c r="R30" s="245"/>
-      <c r="V30" s="242"/>
-      <c r="W30" s="242"/>
-      <c r="X30" s="243"/>
-      <c r="Y30" s="242"/>
-      <c r="Z30" s="242"/>
-      <c r="AA30" s="242"/>
-      <c r="AB30" s="242"/>
-      <c r="AC30" s="242"/>
-      <c r="AD30" s="242"/>
-      <c r="AE30" s="242"/>
-      <c r="AF30" s="242"/>
-      <c r="AG30" s="242"/>
-      <c r="AH30" s="242"/>
-      <c r="AI30" s="242"/>
-      <c r="AJ30" s="242"/>
-      <c r="AK30" s="242"/>
-      <c r="AL30" s="242"/>
-      <c r="AM30" s="242"/>
-      <c r="AO30" s="246"/>
-      <c r="AP30" s="247"/>
+      <c r="O30" s="219"/>
+      <c r="Q30" s="221"/>
+      <c r="R30" s="222"/>
+      <c r="V30" s="219"/>
+      <c r="W30" s="219"/>
+      <c r="X30" s="220"/>
+      <c r="Y30" s="219"/>
+      <c r="Z30" s="219"/>
+      <c r="AA30" s="219"/>
+      <c r="AB30" s="219"/>
+      <c r="AC30" s="219"/>
+      <c r="AD30" s="219"/>
+      <c r="AE30" s="219"/>
+      <c r="AF30" s="219"/>
+      <c r="AG30" s="219"/>
+      <c r="AH30" s="219"/>
+      <c r="AI30" s="219"/>
+      <c r="AJ30" s="219"/>
+      <c r="AK30" s="219"/>
+      <c r="AL30" s="219"/>
+      <c r="AM30" s="219"/>
     </row>
     <row r="31" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
@@ -9351,11 +9364,11 @@
         <f>L8/H8-1</f>
         <v>0.69747811588161723</v>
       </c>
-      <c r="M31" s="250">
+      <c r="M31" s="225">
         <f t="shared" ref="M31:N31" si="91">M8/I8-1</f>
         <v>0.31689309362363915</v>
       </c>
-      <c r="N31" s="249">
+      <c r="N31" s="224">
         <f t="shared" si="91"/>
         <v>6.1465301358161195E-2</v>
       </c>
@@ -9383,8 +9396,6 @@
       <c r="AK31" s="13"/>
       <c r="AL31" s="13"/>
       <c r="AM31" s="13"/>
-      <c r="AO31" s="239"/>
-      <c r="AP31" s="240"/>
     </row>
     <row r="32" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
@@ -10702,13 +10713,24 @@
       <c r="C70" s="216"/>
       <c r="D70" s="216"/>
       <c r="E70" s="216"/>
-      <c r="F70" s="61"/>
-      <c r="G70" s="61"/>
-      <c r="H70" s="61"/>
-      <c r="I70" s="61"/>
-      <c r="J70" s="61"/>
-      <c r="K70" s="61"/>
-      <c r="L70" s="61"/>
+      <c r="G70" s="61">
+        <v>64.83</v>
+      </c>
+      <c r="H70" s="61">
+        <v>89.98</v>
+      </c>
+      <c r="I70" s="61">
+        <v>75.55</v>
+      </c>
+      <c r="J70" s="61">
+        <v>103.16</v>
+      </c>
+      <c r="K70" s="61">
+        <v>46.24</v>
+      </c>
+      <c r="L70" s="61">
+        <v>32.86</v>
+      </c>
       <c r="M70" s="61"/>
       <c r="N70" s="61"/>
       <c r="Q70" s="61"/>
@@ -10722,12 +10744,30 @@
       <c r="D71" s="216"/>
       <c r="E71" s="216"/>
       <c r="F71" s="61"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="61"/>
-      <c r="J71" s="61"/>
-      <c r="K71" s="61"/>
-      <c r="L71" s="61"/>
+      <c r="G71" s="217">
+        <f t="shared" ref="G71:I71" si="102">G70*G20</f>
+        <v>18870.327420000001</v>
+      </c>
+      <c r="H71" s="217">
+        <f t="shared" si="102"/>
+        <v>51405.574000000001</v>
+      </c>
+      <c r="I71" s="217">
+        <f t="shared" si="102"/>
+        <v>43511.662599999996</v>
+      </c>
+      <c r="J71" s="217">
+        <f>J70*J20</f>
+        <v>59991.150599999994</v>
+      </c>
+      <c r="K71" s="217">
+        <f t="shared" ref="K71:L71" si="103">K70*K20</f>
+        <v>27213.211039999998</v>
+      </c>
+      <c r="L71" s="217">
+        <f t="shared" si="103"/>
+        <v>19516.47408</v>
+      </c>
       <c r="M71" s="61"/>
       <c r="N71" s="61"/>
       <c r="Q71" s="61"/>
@@ -10737,59 +10777,136 @@
       <c r="B72" s="215" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="7">
-        <f>F71-F69</f>
-        <v>0</v>
-      </c>
-      <c r="G72" s="7">
-        <f t="shared" ref="G72:L72" si="102">G71-G69</f>
-        <v>0</v>
-      </c>
-      <c r="H72" s="7">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="I72" s="7">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="J72" s="7">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="K72" s="7">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="L72" s="7">
-        <f t="shared" si="102"/>
-        <v>0</v>
+      <c r="F72" s="5">
+        <f t="shared" ref="F72:K72" si="104">F71-F68</f>
+        <v>-893.94299999999998</v>
+      </c>
+      <c r="G72" s="5">
+        <f t="shared" si="104"/>
+        <v>17269.797420000003</v>
+      </c>
+      <c r="H72" s="5">
+        <f t="shared" si="104"/>
+        <v>49625.311999999998</v>
+      </c>
+      <c r="I72" s="5">
+        <f t="shared" si="104"/>
+        <v>41586.103599999995</v>
+      </c>
+      <c r="J72" s="5">
+        <f t="shared" si="104"/>
+        <v>57974.573599999996</v>
+      </c>
+      <c r="K72" s="5">
+        <f t="shared" si="104"/>
+        <v>25068.281039999998</v>
+      </c>
+      <c r="L72" s="5">
+        <f>L71-L68</f>
+        <v>17429.344079999999</v>
       </c>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B74" s="215" t="s">
         <v>205</v>
       </c>
+      <c r="G74" s="248">
+        <f t="shared" ref="G74:J74" si="105">G70/G64</f>
+        <v>31.897428675747243</v>
+      </c>
+      <c r="H74" s="248">
+        <f t="shared" si="105"/>
+        <v>94.837408378363875</v>
+      </c>
+      <c r="I74" s="248">
+        <f t="shared" si="105"/>
+        <v>71.82145284741128</v>
+      </c>
+      <c r="J74" s="248">
+        <f>J70/J64</f>
+        <v>101.1783119281527</v>
+      </c>
+      <c r="K74" s="248">
+        <f t="shared" ref="K74:L74" si="106">K70/K64</f>
+        <v>47.956090444982024</v>
+      </c>
+      <c r="L74" s="248">
+        <f t="shared" si="106"/>
+        <v>35.381193604774282</v>
+      </c>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B75" s="215" t="s">
         <v>215</v>
       </c>
+      <c r="G75" s="248">
+        <f t="shared" ref="G75" si="107">G71/SUM(D3:G3)</f>
+        <v>16.419103099215079</v>
+      </c>
+      <c r="H75" s="248">
+        <f t="shared" ref="H75" si="108">H71/SUM(E3:H3)</f>
+        <v>36.639779500911978</v>
+      </c>
+      <c r="I75" s="248">
+        <f t="shared" ref="I75" si="109">I71/SUM(F3:I3)</f>
+        <v>26.205198922441955</v>
+      </c>
+      <c r="J75" s="248">
+        <f t="shared" ref="J75:K75" si="110">J71/SUM(G3:J3)</f>
+        <v>31.25872473727074</v>
+      </c>
+      <c r="K75" s="248">
+        <f t="shared" si="110"/>
+        <v>13.150678086094159</v>
+      </c>
+      <c r="L75" s="248">
+        <f>L71/SUM(I3:L3)</f>
+        <v>8.8452081220206615</v>
+      </c>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="215" t="s">
+      <c r="B76" s="249" t="s">
+        <v>220</v>
+      </c>
+      <c r="G76" s="248">
+        <f t="shared" ref="G76" si="111">G72/SUM(D3:G3)</f>
+        <v>15.026479298976499</v>
+      </c>
+      <c r="H76" s="248">
+        <f t="shared" ref="H76" si="112">H72/SUM(E3:H3)</f>
+        <v>35.370881946458979</v>
+      </c>
+      <c r="I76" s="248">
+        <f t="shared" ref="I76" si="113">I72/SUM(F3:I3)</f>
+        <v>25.045517733153215</v>
+      </c>
+      <c r="J76" s="248">
+        <f t="shared" ref="J76:K76" si="114">J72/SUM(G3:J3)</f>
+        <v>30.207976006431906</v>
+      </c>
+      <c r="K76" s="248">
+        <f t="shared" si="114"/>
+        <v>12.114149030197565</v>
+      </c>
+      <c r="L76" s="248">
+        <f>L72/SUM(I3:L3)</f>
+        <v>7.8992842244949566</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B77" s="215" t="s">
         <v>216</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="L1" r:id="rId1" xr:uid="{F0F1B078-C7E3-AA47-9924-08C1D4511F24}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="119" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
   <ignoredErrors>
-    <ignoredError sqref="V3:V4 V6:V8 V9:V13 W3:W4 V17:V20 W17:W20 W6:W13 V15 W15" formulaRange="1"/>
+    <ignoredError sqref="V3:V4 V6:V8 V9:V13 W3:W4 V17:V20 W17:W20 W6:W13 V15 W15 K75:L75 K76:L76 G75:J76" formulaRange="1"/>
     <ignoredError sqref="V5 V16:W16 X5 V14:X14 X16 X21 Y16:AK16 Y18 Z18:AK20 AL13:AM18 X18:X19" formula="1"/>
     <ignoredError sqref="W5" formula="1" formulaRange="1"/>
   </ignoredErrors>
@@ -10805,7 +10922,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12258,7 +12375,7 @@
       <c r="Q24" s="110"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
   <ignoredErrors>

--- a/$RBLX.xlsx
+++ b/$RBLX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA99C3FC-06D7-4507-8382-84F30AF3D44D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101D6C23-3082-4DD7-8F2D-0E375298258E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18885" activeTab="1" xr2:uid="{DB6ABC51-E0DE-6747-8CA5-53C172A4844D}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18885" xr2:uid="{DB6ABC51-E0DE-6747-8CA5-53C172A4844D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="220">
   <si>
     <t>Price</t>
   </si>
@@ -645,9 +645,6 @@
   </si>
   <si>
     <t>P/B</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
   <si>
     <t>July was "biggest engagement month in Roblox history"</t>
@@ -708,9 +705,16 @@
     <numFmt numFmtId="171" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="172" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1026,8 +1030,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1096,6 +1107,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1228,549 +1245,566 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="250">
+  <cellXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="22" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="22" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="22" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="34" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="10" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="22" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="14" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="17" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="22" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="22" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="22" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="25" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="17" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="34" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="35" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="35" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="35" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="34" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="10" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="35" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="34" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="35" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="25" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="39" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="40" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="17" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="24" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="21" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="21" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="21" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="21" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="33" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="10" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="24" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="21" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="21" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="21" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="21" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="13" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="16" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="21" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="21" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="21" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="21" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="21" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="24" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="34" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="34" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="34" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="9" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="34" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="34" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="24" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="38" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="39" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="25" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="25" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="24" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="22" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="21" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="22" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="21" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="22" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="21" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="22" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="21" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="22" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="22" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="25" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="24" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="25" fillId="12" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="24" fillId="12" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="22" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="35" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="35" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="34" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="25" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="24" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="33" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="9" fontId="34" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="35" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="21" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="21" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="22" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="22" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="34" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="35" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="35" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="35" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="34" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="10" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="35" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent3" xfId="5" builtinId="38"/>
@@ -1784,6 +1818,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF7C80"/>
       <color rgb="FFECA09F"/>
       <color rgb="FFFF2000"/>
     </mruColors>
@@ -1917,9 +1952,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Metrics!$D$1:$Q$1</c:f>
+              <c:f>Metrics!$D$1:$R$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Q119</c:v>
                 </c:pt>
@@ -1962,15 +1997,18 @@
                 <c:pt idx="13">
                   <c:v>Q222</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q322</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Metrics!$D$2:$Q$2</c:f>
+              <c:f>Metrics!$D$2:$R$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>15.8</c:v>
                 </c:pt>
@@ -2012,6 +2050,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>52.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>58.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2121,9 +2162,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Metrics!$D$1:$Q$1</c:f>
+              <c:f>Metrics!$D$1:$R$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Q119</c:v>
                 </c:pt>
@@ -2165,6 +2206,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Q222</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q322</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2325,9 +2369,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Metrics!$D$1:$Q$1</c:f>
+              <c:f>Metrics!$D$1:$R$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Q119</c:v>
                 </c:pt>
@@ -2369,6 +2413,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Q222</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q322</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3258,13 +3305,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>86</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -3308,13 +3355,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -3363,13 +3410,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>22225</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>22225</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -3413,13 +3460,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -3799,8 +3846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE4A73D-2F46-7341-9C57-6E5B7A39A15C}">
   <dimension ref="B1:AJ68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:H16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3818,34 +3865,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="L1" s="245" t="s">
+      <c r="L1" s="240" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="246"/>
-      <c r="N1" s="246"/>
-      <c r="O1" s="246"/>
-      <c r="P1" s="246"/>
-      <c r="Q1" s="246"/>
-      <c r="R1" s="246"/>
-      <c r="S1" s="246"/>
-      <c r="T1" s="247"/>
-      <c r="V1" s="241" t="s">
+      <c r="M1" s="241"/>
+      <c r="N1" s="241"/>
+      <c r="O1" s="241"/>
+      <c r="P1" s="241"/>
+      <c r="Q1" s="241"/>
+      <c r="R1" s="241"/>
+      <c r="S1" s="241"/>
+      <c r="T1" s="242"/>
+      <c r="V1" s="228" t="s">
         <v>127</v>
       </c>
-      <c r="W1" s="242"/>
-      <c r="X1" s="242"/>
-      <c r="Y1" s="242"/>
-      <c r="Z1" s="242"/>
-      <c r="AA1" s="242"/>
-      <c r="AB1" s="242"/>
-      <c r="AC1" s="242"/>
-      <c r="AD1" s="242"/>
-      <c r="AE1" s="242"/>
-      <c r="AF1" s="242"/>
-      <c r="AG1" s="242"/>
-      <c r="AH1" s="242"/>
-      <c r="AI1" s="242"/>
-      <c r="AJ1" s="243"/>
+      <c r="W1" s="229"/>
+      <c r="X1" s="229"/>
+      <c r="Y1" s="229"/>
+      <c r="Z1" s="229"/>
+      <c r="AA1" s="229"/>
+      <c r="AB1" s="229"/>
+      <c r="AC1" s="229"/>
+      <c r="AD1" s="229"/>
+      <c r="AE1" s="229"/>
+      <c r="AF1" s="229"/>
+      <c r="AG1" s="229"/>
+      <c r="AH1" s="229"/>
+      <c r="AI1" s="229"/>
+      <c r="AJ1" s="230"/>
     </row>
     <row r="2" spans="2:36" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
@@ -3865,7 +3912,7 @@
       <c r="P2" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="Q2" s="204"/>
+      <c r="Q2" s="203"/>
       <c r="R2" s="202">
         <v>44757</v>
       </c>
@@ -3975,7 +4022,7 @@
       <c r="P4" s="60">
         <v>50.4</v>
       </c>
-      <c r="Q4" s="205"/>
+      <c r="Q4" s="204"/>
       <c r="R4" s="60">
         <v>58.5</v>
       </c>
@@ -4033,16 +4080,16 @@
       </c>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B5" s="227" t="s">
+      <c r="B5" s="233" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="228"/>
-      <c r="D5" s="229"/>
-      <c r="F5" s="227" t="s">
+      <c r="C5" s="234"/>
+      <c r="D5" s="235"/>
+      <c r="F5" s="233" t="s">
         <v>193</v>
       </c>
-      <c r="G5" s="228"/>
-      <c r="H5" s="229"/>
+      <c r="G5" s="234"/>
+      <c r="H5" s="235"/>
       <c r="K5" s="28" t="s">
         <v>73</v>
       </c>
@@ -4059,7 +4106,7 @@
       <c r="P5" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="Q5" s="206" t="s">
+      <c r="Q5" s="205" t="s">
         <v>33</v>
       </c>
       <c r="R5" s="61" t="s">
@@ -4137,16 +4184,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="9">
-        <v>46.5</v>
+        <v>31.68</v>
       </c>
       <c r="D6" s="44"/>
       <c r="F6" s="181" t="s">
         <v>194</v>
       </c>
-      <c r="G6" s="244" t="s">
+      <c r="G6" s="236" t="s">
         <v>198</v>
       </c>
-      <c r="H6" s="233"/>
+      <c r="H6" s="232"/>
       <c r="K6" s="28" t="s">
         <v>74</v>
       </c>
@@ -4163,7 +4210,7 @@
       <c r="P6" s="62">
         <v>0.17</v>
       </c>
-      <c r="Q6" s="207"/>
+      <c r="Q6" s="206"/>
       <c r="R6" s="62">
         <v>0.26</v>
       </c>
@@ -4236,25 +4283,27 @@
         <v>1</v>
       </c>
       <c r="C7" s="9">
-        <v>593.928</v>
-      </c>
-      <c r="D7" s="184" t="s">
-        <v>13</v>
+        <f>'Financial Model'!M20</f>
+        <v>597.779</v>
+      </c>
+      <c r="D7" s="184" t="str">
+        <f>$G$11</f>
+        <v>Q322</v>
       </c>
       <c r="F7" s="181" t="s">
         <v>195</v>
       </c>
-      <c r="G7" s="232">
+      <c r="G7" s="237">
         <v>2004</v>
       </c>
-      <c r="H7" s="233"/>
+      <c r="H7" s="232"/>
       <c r="K7" s="28"/>
       <c r="L7" s="61"/>
       <c r="M7" s="61"/>
       <c r="N7" s="114"/>
       <c r="O7" s="61"/>
       <c r="P7" s="61"/>
-      <c r="Q7" s="206"/>
+      <c r="Q7" s="205"/>
       <c r="R7" s="61"/>
       <c r="S7" s="61"/>
       <c r="T7" s="61"/>
@@ -4281,17 +4330,17 @@
       </c>
       <c r="C8" s="9">
         <f>C6*C7</f>
-        <v>27617.651999999998</v>
+        <v>18937.638719999999</v>
       </c>
       <c r="D8" s="41"/>
       <c r="F8" s="181" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="232">
+      <c r="G8" s="237">
         <f>AJ4</f>
         <v>52.2</v>
       </c>
-      <c r="H8" s="233"/>
+      <c r="H8" s="232"/>
       <c r="K8" s="28" t="s">
         <v>75</v>
       </c>
@@ -4308,7 +4357,7 @@
       <c r="P8" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="206" t="s">
+      <c r="Q8" s="205" t="s">
         <v>33</v>
       </c>
       <c r="R8" s="61" t="s">
@@ -4372,14 +4421,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="9">
-        <v>3075.4749999999999</v>
-      </c>
-      <c r="D9" s="184" t="s">
-        <v>13</v>
+        <f>'Financial Model'!M66</f>
+        <v>3021.5070000000001</v>
+      </c>
+      <c r="D9" s="184" t="str">
+        <f t="shared" ref="D9:D11" si="4">$G$11</f>
+        <v>Q322</v>
       </c>
       <c r="F9" s="167"/>
-      <c r="G9" s="232"/>
-      <c r="H9" s="233"/>
+      <c r="G9" s="237"/>
+      <c r="H9" s="232"/>
       <c r="K9" s="28" t="s">
         <v>77</v>
       </c>
@@ -4396,7 +4447,7 @@
       <c r="P9" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="206" t="s">
+      <c r="Q9" s="205" t="s">
         <v>33</v>
       </c>
       <c r="R9" s="61" t="s">
@@ -4416,55 +4467,55 @@
         <v>33</v>
       </c>
       <c r="X9" s="24">
-        <f t="shared" ref="X9:AI9" si="4">X8/W8-1</f>
+        <f t="shared" ref="X9:AI9" si="5">X8/W8-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="Y9" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.090909090909105E-2</v>
       </c>
       <c r="Z9" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8518518518518379E-2</v>
       </c>
       <c r="AA9" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20909090909090922</v>
       </c>
       <c r="AB9" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.34586466165413521</v>
       </c>
       <c r="AC9" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.8212290502793325E-2</v>
       </c>
       <c r="AD9" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0362694300518172E-2</v>
       </c>
       <c r="AE9" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.2307692307692424E-2</v>
       </c>
       <c r="AF9" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.3896713615022609E-3</v>
       </c>
       <c r="AG9" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.441860465116279E-2</v>
       </c>
       <c r="AH9" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1645021645021689E-2</v>
       </c>
       <c r="AI9" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.0508474576271194E-2</v>
       </c>
       <c r="AJ9" s="24">
-        <f t="shared" ref="AJ9" si="5">AJ8/AI8-1</f>
+        <f t="shared" ref="AJ9" si="6">AJ8/AI8-1</f>
         <v>-5.0980392156862786E-2</v>
       </c>
     </row>
@@ -4473,14 +4524,16 @@
         <v>4</v>
       </c>
       <c r="C10" s="9">
-        <v>988.34500000000003</v>
-      </c>
-      <c r="D10" s="184" t="s">
-        <v>13</v>
+        <f>'Financial Model'!M67</f>
+        <v>988.66300000000001</v>
+      </c>
+      <c r="D10" s="184" t="str">
+        <f t="shared" si="4"/>
+        <v>Q322</v>
       </c>
       <c r="F10" s="167"/>
-      <c r="G10" s="232"/>
-      <c r="H10" s="233"/>
+      <c r="G10" s="237"/>
+      <c r="H10" s="232"/>
       <c r="K10" s="28" t="s">
         <v>78</v>
       </c>
@@ -4497,7 +4550,7 @@
       <c r="P10" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" s="206" t="s">
+      <c r="Q10" s="205" t="s">
         <v>33</v>
       </c>
       <c r="R10" s="61" t="s">
@@ -4526,43 +4579,43 @@
         <v>33</v>
       </c>
       <c r="AA10" s="29">
-        <f t="shared" ref="AA10:AI10" si="6">AA8/W8-1</f>
+        <f t="shared" ref="AA10:AI10" si="7">AA8/W8-1</f>
         <v>0.47777777777777786</v>
       </c>
       <c r="AB10" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.80808080808080796</v>
       </c>
       <c r="AC10" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.78703703703703698</v>
       </c>
       <c r="AD10" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.77272727272727271</v>
       </c>
       <c r="AE10" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.60150375939849621</v>
       </c>
       <c r="AF10" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.2011173184357542</v>
       </c>
       <c r="AG10" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.19689119170984459</v>
       </c>
       <c r="AH10" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.2102564102564104</v>
       </c>
       <c r="AI10" s="160">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.19718309859154926</v>
       </c>
       <c r="AJ10" s="160">
-        <f t="shared" ref="AJ10" si="7">AJ8/AF8-1</f>
+        <f t="shared" ref="AJ10" si="8">AJ8/AF8-1</f>
         <v>0.12558139534883717</v>
       </c>
     </row>
@@ -4572,25 +4625,26 @@
       </c>
       <c r="C11" s="9">
         <f>C9-C10</f>
-        <v>2087.13</v>
-      </c>
-      <c r="D11" s="184" t="s">
-        <v>13</v>
+        <v>2032.8440000000001</v>
+      </c>
+      <c r="D11" s="184" t="str">
+        <f t="shared" si="4"/>
+        <v>Q322</v>
       </c>
       <c r="F11" s="181" t="s">
         <v>199</v>
       </c>
-      <c r="G11" s="244" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="233"/>
+      <c r="G11" s="260" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="232"/>
       <c r="K11" s="28"/>
       <c r="L11" s="61"/>
       <c r="M11" s="61"/>
       <c r="N11" s="114"/>
       <c r="O11" s="61"/>
       <c r="P11" s="61"/>
-      <c r="Q11" s="206"/>
+      <c r="Q11" s="205"/>
       <c r="R11" s="61"/>
       <c r="S11" s="61"/>
       <c r="T11" s="61"/>
@@ -4606,16 +4660,16 @@
       </c>
       <c r="C12" s="45">
         <f>C8-C9+C10</f>
-        <v>25530.522000000001</v>
+        <v>16904.794719999998</v>
       </c>
       <c r="D12" s="43"/>
       <c r="F12" s="182" t="s">
         <v>196</v>
       </c>
-      <c r="G12" s="236" t="s">
+      <c r="G12" s="238" t="s">
         <v>197</v>
       </c>
-      <c r="H12" s="237"/>
+      <c r="H12" s="239"/>
       <c r="K12" s="28" t="s">
         <v>76</v>
       </c>
@@ -4632,7 +4686,7 @@
       <c r="P12" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="206" t="s">
+      <c r="Q12" s="205" t="s">
         <v>33</v>
       </c>
       <c r="R12" s="61" t="s">
@@ -4708,7 +4762,7 @@
       <c r="P13" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="Q13" s="206" t="s">
+      <c r="Q13" s="205" t="s">
         <v>33</v>
       </c>
       <c r="R13" s="61" t="s">
@@ -4728,55 +4782,55 @@
         <v>33</v>
       </c>
       <c r="X13" s="24">
-        <f t="shared" ref="X13:AI13" si="8">X12/W12-1</f>
+        <f t="shared" ref="X13:AI13" si="9">X12/W12-1</f>
         <v>4.6875E-2</v>
       </c>
       <c r="Y13" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.9701492537313383E-2</v>
       </c>
       <c r="Z13" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.4507042253521236E-2</v>
       </c>
       <c r="AA13" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.2597402597402596</v>
       </c>
       <c r="AB13" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.20618556701030921</v>
       </c>
       <c r="AC13" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.2597402597402596</v>
       </c>
       <c r="AD13" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.65979381443299001</v>
       </c>
       <c r="AE13" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.8322981366459423E-2</v>
       </c>
       <c r="AF13" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.2441860465116279</v>
       </c>
       <c r="AG13" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.11214953271028039</v>
       </c>
       <c r="AH13" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.5630252100840289E-2</v>
       </c>
       <c r="AI13" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.10546875</v>
       </c>
       <c r="AJ13" s="24">
-        <f t="shared" ref="AJ13" si="9">AJ12/AI12-1</f>
+        <f t="shared" ref="AJ13" si="10">AJ12/AI12-1</f>
         <v>-3.8869257950530089E-2</v>
       </c>
     </row>
@@ -4797,7 +4851,7 @@
       <c r="P14" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="Q14" s="206" t="s">
+      <c r="Q14" s="205" t="s">
         <v>33</v>
       </c>
       <c r="R14" s="61" t="s">
@@ -4826,64 +4880,64 @@
         <v>33</v>
       </c>
       <c r="AA14" s="29">
-        <f t="shared" ref="AA14:AI14" si="10">AA12/W12-1</f>
+        <f t="shared" ref="AA14:AI14" si="11">AA12/W12-1</f>
         <v>0.51562499999999978</v>
       </c>
       <c r="AB14" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.14925373134328357</v>
       </c>
       <c r="AC14" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.36619718309859151</v>
       </c>
       <c r="AD14" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0909090909090908</v>
       </c>
       <c r="AE14" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.77319587628865993</v>
       </c>
       <c r="AF14" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.779220779220779</v>
       </c>
       <c r="AG14" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4536082474226806</v>
       </c>
       <c r="AH14" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.59006211180124213</v>
       </c>
       <c r="AI14" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.64534883720930236</v>
       </c>
       <c r="AJ14" s="33">
-        <f t="shared" ref="AJ14" si="11">AJ12/AF12-1</f>
+        <f t="shared" ref="AJ14" si="12">AJ12/AF12-1</f>
         <v>0.27102803738317771</v>
       </c>
     </row>
     <row r="15" spans="2:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="227" t="s">
+      <c r="B15" s="233" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="228"/>
-      <c r="D15" s="229"/>
-      <c r="F15" s="227" t="s">
+      <c r="C15" s="234"/>
+      <c r="D15" s="235"/>
+      <c r="F15" s="233" t="s">
         <v>204</v>
       </c>
-      <c r="G15" s="228"/>
-      <c r="H15" s="229"/>
+      <c r="G15" s="234"/>
+      <c r="H15" s="235"/>
       <c r="K15" s="28"/>
       <c r="L15" s="63"/>
       <c r="M15" s="63"/>
       <c r="N15" s="111"/>
       <c r="O15" s="63"/>
       <c r="P15" s="63"/>
-      <c r="Q15" s="208"/>
+      <c r="Q15" s="207"/>
       <c r="R15" s="63"/>
       <c r="S15" s="63"/>
       <c r="T15" s="63"/>
@@ -4892,18 +4946,18 @@
       <c r="B16" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="240" t="s">
+      <c r="C16" s="231" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="233"/>
+      <c r="D16" s="232"/>
       <c r="F16" s="181" t="s">
         <v>205</v>
       </c>
-      <c r="G16" s="234">
-        <f>C6/'Financial Model'!L64</f>
-        <v>50.067726799208891</v>
-      </c>
-      <c r="H16" s="235"/>
+      <c r="G16" s="245">
+        <f>C6/'Financial Model'!M64</f>
+        <v>44.601967818517387</v>
+      </c>
+      <c r="H16" s="246"/>
       <c r="J16" s="31" t="s">
         <v>86</v>
       </c>
@@ -4923,7 +4977,7 @@
       <c r="P16" s="64">
         <v>3600</v>
       </c>
-      <c r="Q16" s="208"/>
+      <c r="Q16" s="207"/>
       <c r="R16" s="64">
         <v>4700</v>
       </c>
@@ -4985,18 +5039,18 @@
       <c r="B17" s="105" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="230" t="s">
+      <c r="C17" s="243" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="231"/>
+      <c r="D17" s="244"/>
       <c r="F17" s="181" t="s">
-        <v>215</v>
-      </c>
-      <c r="G17" s="234">
-        <f>C8/'Financial Model'!W3</f>
-        <v>14.390332126047516</v>
-      </c>
-      <c r="H17" s="235"/>
+        <v>214</v>
+      </c>
+      <c r="G17" s="245">
+        <f>C8/'Financial Model'!X3</f>
+        <v>9.8675626321852903</v>
+      </c>
+      <c r="H17" s="246"/>
       <c r="K17" s="28" t="s">
         <v>84</v>
       </c>
@@ -5013,7 +5067,7 @@
       <c r="P17" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" s="206"/>
+      <c r="Q17" s="205"/>
       <c r="R17" s="61" t="s">
         <v>33</v>
       </c>
@@ -5028,59 +5082,59 @@
         <v>33</v>
       </c>
       <c r="W17" s="24">
-        <f t="shared" ref="W17:AI17" si="12">W16/V16-1</f>
+        <f t="shared" ref="W17:AI17" si="13">W16/V16-1</f>
         <v>0.17549407114624516</v>
       </c>
       <c r="X17" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.2131809011432475E-2</v>
       </c>
       <c r="Y17" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.14839901477832518</v>
       </c>
       <c r="Z17" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-7.7747989276139018E-3</v>
       </c>
       <c r="AA17" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.31721156444204279</v>
       </c>
       <c r="AB17" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.76123076923076916</v>
       </c>
       <c r="AC17" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.455858374097363E-2</v>
       </c>
       <c r="AD17" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-3.2258064516129004E-2</v>
       </c>
       <c r="AE17" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.14756820877817312</v>
       </c>
       <c r="AF17" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.6156708703741796E-3</v>
       </c>
       <c r="AG17" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.14849044978435</v>
       </c>
       <c r="AH17" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-3.272532188841204E-2</v>
       </c>
       <c r="AI17" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="AJ17" s="24">
-        <f t="shared" ref="AJ17" si="13">AJ16/AI16-1</f>
+        <f t="shared" ref="AJ17" si="14">AJ16/AI16-1</f>
         <v>-6.7361276179911944E-2</v>
       </c>
     </row>
@@ -5088,15 +5142,15 @@
       <c r="B18" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="240" t="s">
+      <c r="C18" s="231" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="233"/>
+      <c r="D18" s="232"/>
       <c r="F18" s="181" t="s">
-        <v>216</v>
-      </c>
-      <c r="G18" s="232"/>
-      <c r="H18" s="233"/>
+        <v>215</v>
+      </c>
+      <c r="G18" s="237"/>
+      <c r="H18" s="232"/>
       <c r="K18" s="28" t="s">
         <v>85</v>
       </c>
@@ -5113,7 +5167,7 @@
       <c r="P18" s="62">
         <v>0.1</v>
       </c>
-      <c r="Q18" s="207"/>
+      <c r="Q18" s="206"/>
       <c r="R18" s="62">
         <v>0.25</v>
       </c>
@@ -5137,71 +5191,71 @@
         <v>33</v>
       </c>
       <c r="Z18" s="33">
-        <f t="shared" ref="Z18:AI18" si="14">Z16/V16-1</f>
+        <f t="shared" ref="Z18:AI18" si="15">Z16/V16-1</f>
         <v>0.46284584980237153</v>
       </c>
       <c r="AA18" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.63920645595158043</v>
       </c>
       <c r="AB18" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.6434729064039408</v>
       </c>
       <c r="AC18" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.3353887399463806</v>
       </c>
       <c r="AD18" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.2777627668197784</v>
       </c>
       <c r="AE18" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.98441025641025637</v>
       </c>
       <c r="AF18" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.13417190775681331</v>
       </c>
       <c r="AG18" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.28389392721845952</v>
       </c>
       <c r="AH18" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.28327402135231328</v>
       </c>
       <c r="AI18" s="160">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.25244573082489175</v>
       </c>
       <c r="AJ18" s="160">
-        <f t="shared" ref="AJ18" si="15">AJ16/AF16-1</f>
+        <f t="shared" ref="AJ18" si="16">AJ16/AF16-1</f>
         <v>0.16040254672417342</v>
       </c>
     </row>
     <row r="19" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B19" s="91"/>
-      <c r="C19" s="232"/>
-      <c r="D19" s="233"/>
+      <c r="C19" s="237"/>
+      <c r="D19" s="232"/>
       <c r="F19" s="181"/>
-      <c r="G19" s="232"/>
-      <c r="H19" s="233"/>
+      <c r="G19" s="237"/>
+      <c r="H19" s="232"/>
       <c r="K19" s="28"/>
       <c r="L19" s="63"/>
       <c r="M19" s="63"/>
     </row>
     <row r="20" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="92"/>
-      <c r="C20" s="238"/>
-      <c r="D20" s="239"/>
+      <c r="C20" s="247"/>
+      <c r="D20" s="248"/>
       <c r="F20" s="182"/>
-      <c r="G20" s="236"/>
-      <c r="H20" s="237"/>
+      <c r="G20" s="238"/>
+      <c r="H20" s="239"/>
       <c r="J20" s="31"/>
       <c r="K20" s="200" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M20" s="60"/>
       <c r="V20" s="1"/>
@@ -5220,25 +5274,25 @@
     </row>
     <row r="21" spans="2:36" x14ac:dyDescent="0.25">
       <c r="K21" s="200" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="2:36" x14ac:dyDescent="0.25">
       <c r="K22" s="200" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B23" s="227" t="s">
+      <c r="B23" s="233" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="228"/>
-      <c r="D23" s="228"/>
-      <c r="E23" s="228"/>
-      <c r="F23" s="228"/>
-      <c r="G23" s="229"/>
+      <c r="C23" s="234"/>
+      <c r="D23" s="234"/>
+      <c r="E23" s="234"/>
+      <c r="F23" s="234"/>
+      <c r="G23" s="235"/>
       <c r="K23" s="200" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="2:36" x14ac:dyDescent="0.25">
@@ -5348,12 +5402,12 @@
       <c r="F31" s="102"/>
       <c r="G31" s="103"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="227" t="s">
+      <c r="K31" s="233" t="s">
         <v>181</v>
       </c>
-      <c r="L31" s="228"/>
-      <c r="M31" s="228"/>
-      <c r="N31" s="229"/>
+      <c r="L31" s="234"/>
+      <c r="M31" s="234"/>
+      <c r="N31" s="235"/>
     </row>
     <row r="32" spans="2:36" x14ac:dyDescent="0.25">
       <c r="J32" s="7"/>
@@ -5365,14 +5419,14 @@
       <c r="N32" s="97"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="227" t="s">
+      <c r="B33" s="233" t="s">
         <v>187</v>
       </c>
-      <c r="C33" s="228"/>
-      <c r="D33" s="228"/>
-      <c r="E33" s="228"/>
-      <c r="F33" s="228"/>
-      <c r="G33" s="229"/>
+      <c r="C33" s="234"/>
+      <c r="D33" s="234"/>
+      <c r="E33" s="234"/>
+      <c r="F33" s="234"/>
+      <c r="G33" s="235"/>
       <c r="J33" s="7"/>
       <c r="K33" s="173" t="s">
         <v>177</v>
@@ -5384,11 +5438,11 @@
       <c r="N33" s="97"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="209">
+      <c r="B34" s="208">
         <v>44743</v>
       </c>
-      <c r="C34" s="210" t="s">
-        <v>207</v>
+      <c r="C34" s="209" t="s">
+        <v>206</v>
       </c>
       <c r="D34" s="96"/>
       <c r="E34" s="96"/>
@@ -5406,15 +5460,15 @@
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="167"/>
-      <c r="C35" s="211" t="s">
-        <v>208</v>
+      <c r="C35" s="210" t="s">
+        <v>207</v>
       </c>
       <c r="D35" s="96"/>
       <c r="E35" s="96"/>
       <c r="F35" s="96"/>
       <c r="G35" s="97"/>
-      <c r="J35" s="212" t="s">
-        <v>209</v>
+      <c r="J35" s="211" t="s">
+        <v>208</v>
       </c>
       <c r="K35" s="173" t="s">
         <v>184</v>
@@ -5496,8 +5550,8 @@
       <c r="E40" s="96"/>
       <c r="F40" s="96"/>
       <c r="G40" s="97"/>
-      <c r="J40" s="212" t="s">
-        <v>210</v>
+      <c r="J40" s="211" t="s">
+        <v>209</v>
       </c>
       <c r="K40" s="173" t="s">
         <v>182</v>
@@ -5557,8 +5611,8 @@
       <c r="N44" s="97"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="215" t="s">
-        <v>217</v>
+      <c r="B45" s="214" t="s">
+        <v>216</v>
       </c>
       <c r="J45" s="7"/>
       <c r="K45" s="174" t="s">
@@ -5677,17 +5731,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="V1:AJ1"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="L1:T1"/>
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="K31:N31"/>
     <mergeCell ref="B5:D5"/>
@@ -5703,8 +5746,19 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="C16:D16"/>
+    <mergeCell ref="V1:AJ1"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="L1:T1"/>
   </mergeCells>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K55" r:id="rId1" xr:uid="{F79BC045-05D5-43FB-A051-BA2031CC85A7}"/>
     <hyperlink ref="K57" r:id="rId2" xr:uid="{58004FA9-9F7A-4B71-811E-FF4EE09F281F}"/>
@@ -5718,13 +5772,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0FDCAC-3416-844A-BCBB-390EC350CF59}">
-  <dimension ref="B1:BZ77"/>
+  <dimension ref="B1:CA77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AR26" sqref="AR26"/>
+      <selection pane="bottomRight" activeCell="M74" sqref="M74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5735,24 +5789,24 @@
     <col min="4" max="4" width="9.125" customWidth="1"/>
     <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="9.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.125" style="7" customWidth="1"/>
-    <col min="13" max="14" width="9" style="7"/>
-    <col min="15" max="16" width="9" style="6"/>
-    <col min="17" max="18" width="9" style="7"/>
-    <col min="19" max="21" width="9" style="6"/>
-    <col min="22" max="22" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9" style="6"/>
-    <col min="25" max="25" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="40" width="9" style="6"/>
-    <col min="41" max="41" width="15.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9" style="6"/>
-    <col min="44" max="44" width="10.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="45" max="16384" width="9" style="6"/>
+    <col min="11" max="13" width="9.125" style="7" customWidth="1"/>
+    <col min="14" max="15" width="9" style="7"/>
+    <col min="16" max="17" width="9" style="6"/>
+    <col min="18" max="19" width="9" style="7"/>
+    <col min="20" max="22" width="9" style="6"/>
+    <col min="23" max="23" width="10.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9" style="6"/>
+    <col min="26" max="26" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="41" width="9" style="6"/>
+    <col min="42" max="42" width="15.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9" style="6"/>
+    <col min="45" max="45" width="10.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="46" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:40" ht="15" x14ac:dyDescent="0.25">
       <c r="C1" s="2" t="s">
         <v>67</v>
       </c>
@@ -5783,80 +5837,83 @@
       <c r="L1" s="183" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="116" t="s">
+      <c r="M1" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="116" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="70" t="s">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="185" t="s">
+      <c r="S1" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="2"/>
       <c r="T1" s="2"/>
-      <c r="V1" s="2" t="s">
+      <c r="U1" s="2"/>
+      <c r="W1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="X1" s="116" t="s">
+      <c r="Y1" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="2:39" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:40" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C2" s="34">
         <v>43921</v>
       </c>
@@ -5887,28 +5944,28 @@
       <c r="L2" s="34">
         <v>44742</v>
       </c>
-      <c r="M2" s="117" t="s">
+      <c r="M2" s="34">
+        <v>44834</v>
+      </c>
+      <c r="N2" s="117" t="s">
         <v>119</v>
       </c>
-      <c r="N2" s="52" t="s">
+      <c r="O2" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="Q2" s="71" t="s">
+      <c r="R2" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="R2" s="186" t="s">
+      <c r="S2" s="186" t="s">
         <v>119</v>
       </c>
-      <c r="V2" s="34">
+      <c r="W2" s="34">
         <v>44196</v>
       </c>
-      <c r="W2" s="34">
+      <c r="X2" s="34">
         <v>44561</v>
       </c>
-      <c r="X2" s="117" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y2" s="52" t="s">
+      <c r="Y2" s="117" t="s">
         <v>119</v>
       </c>
       <c r="Z2" s="52" t="s">
@@ -5953,8 +6010,11 @@
       <c r="AM2" s="52" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="3" spans="2:39" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AN2" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="2:40" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -5988,97 +6048,100 @@
       <c r="L3" s="4">
         <v>591.20699999999999</v>
       </c>
-      <c r="M3" s="118">
+      <c r="M3" s="4">
+        <v>517.70699999999999</v>
+      </c>
+      <c r="N3" s="118">
         <f>I3*1.25</f>
         <v>636.67000000000007</v>
       </c>
-      <c r="N3" s="4">
+      <c r="O3" s="4">
         <f>J3*1.15</f>
         <v>654.08434999999997</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="Q3" s="72">
+      <c r="P3" s="13"/>
+      <c r="R3" s="72">
         <f>G3*1.67</f>
         <v>646.24991999999997</v>
       </c>
-      <c r="R3" s="187">
+      <c r="S3" s="187">
         <f>H3*1.23</f>
         <v>558.54300000000001</v>
       </c>
-      <c r="V3" s="3">
+      <c r="W3" s="3">
         <f>SUM(C3:F3)</f>
         <v>923.88499999999999</v>
       </c>
-      <c r="W3" s="3">
+      <c r="X3" s="3">
         <f>SUM(G3:J3)</f>
         <v>1919.181</v>
       </c>
-      <c r="X3" s="129">
-        <f>SUM(K3:N3)</f>
-        <v>2419.0953500000001</v>
-      </c>
-      <c r="Y3" s="3">
-        <f>X3*1.15</f>
-        <v>2781.9596524999997</v>
+      <c r="Y3" s="129">
+        <f>SUM(K3:O3)</f>
+        <v>2936.8023499999999</v>
       </c>
       <c r="Z3" s="3">
-        <f t="shared" ref="Z3:AK3" si="0">Y3*1.15</f>
-        <v>3199.2536003749992</v>
+        <f>Y3*1.15</f>
+        <v>3377.3227024999997</v>
       </c>
       <c r="AA3" s="3">
-        <f t="shared" si="0"/>
-        <v>3679.141640431249</v>
+        <f t="shared" ref="AA3:AL3" si="0">Z3*1.15</f>
+        <v>3883.9211078749995</v>
       </c>
       <c r="AB3" s="3">
         <f t="shared" si="0"/>
-        <v>4231.0128864959361</v>
+        <v>4466.5092740562495</v>
       </c>
       <c r="AC3" s="3">
         <f t="shared" si="0"/>
-        <v>4865.6648194703257</v>
+        <v>5136.4856651646869</v>
       </c>
       <c r="AD3" s="3">
         <f t="shared" si="0"/>
-        <v>5595.5145423908743</v>
+        <v>5906.9585149393897</v>
       </c>
       <c r="AE3" s="3">
         <f t="shared" si="0"/>
-        <v>6434.841723749505</v>
+        <v>6793.0022921802974</v>
       </c>
       <c r="AF3" s="3">
         <f t="shared" si="0"/>
-        <v>7400.0679823119299</v>
+        <v>7811.9526360073414</v>
       </c>
       <c r="AG3" s="3">
         <f t="shared" si="0"/>
-        <v>8510.078179658718</v>
+        <v>8983.7455314084418</v>
       </c>
       <c r="AH3" s="3">
         <f t="shared" si="0"/>
-        <v>9786.5899066075253</v>
+        <v>10331.307361119707</v>
       </c>
       <c r="AI3" s="3">
         <f t="shared" si="0"/>
-        <v>11254.578392598652</v>
+        <v>11881.003465287662</v>
       </c>
       <c r="AJ3" s="3">
         <f t="shared" si="0"/>
-        <v>12942.765151488449</v>
+        <v>13663.153985080809</v>
       </c>
       <c r="AK3" s="3">
         <f t="shared" si="0"/>
-        <v>14884.179924211716</v>
+        <v>15712.62708284293</v>
       </c>
       <c r="AL3" s="3">
-        <f t="shared" ref="AL3:AM3" si="1">AK3*1.15</f>
-        <v>17116.806912843473</v>
+        <f t="shared" si="0"/>
+        <v>18069.521145269369</v>
       </c>
       <c r="AM3" s="3">
+        <f t="shared" ref="AM3:AN3" si="1">AL3*1.15</f>
+        <v>20779.949317059774</v>
+      </c>
+      <c r="AN3" s="3">
         <f t="shared" si="1"/>
-        <v>19684.327949769991</v>
-      </c>
-    </row>
-    <row r="4" spans="2:39" ht="15" x14ac:dyDescent="0.25">
+        <v>23896.941714618737</v>
+      </c>
+    </row>
+    <row r="4" spans="2:40" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>34</v>
       </c>
@@ -6112,97 +6175,100 @@
       <c r="L4" s="5">
         <v>143.15700000000001</v>
       </c>
-      <c r="M4" s="119">
-        <f t="shared" ref="M4:N4" si="2">M3-M5</f>
+      <c r="M4" s="5">
+        <v>126.437</v>
+      </c>
+      <c r="N4" s="119">
+        <f t="shared" ref="N4:O4" si="2">N3-N5</f>
         <v>165.5342</v>
       </c>
-      <c r="N4" s="5">
+      <c r="O4" s="5">
         <f t="shared" si="2"/>
         <v>170.06193100000002</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="Q4" s="73">
-        <f>Q3-Q5</f>
+      <c r="P4" s="5"/>
+      <c r="R4" s="73">
+        <f>R3-R5</f>
         <v>174.48747839999999</v>
       </c>
-      <c r="R4" s="188">
-        <f>R3-R5</f>
+      <c r="S4" s="188">
+        <f>S3-S5</f>
         <v>145.22118</v>
       </c>
-      <c r="V4" s="37">
+      <c r="W4" s="37">
         <f>SUM(C4:F4)</f>
         <v>239.89799999999997</v>
       </c>
-      <c r="W4" s="37">
+      <c r="X4" s="37">
         <f>SUM(G4:J4)</f>
         <v>496.87</v>
       </c>
-      <c r="X4" s="130">
-        <f>SUM(K4:N4)</f>
-        <v>614.385131</v>
-      </c>
-      <c r="Y4" s="9">
-        <f>Y3-Y5</f>
-        <v>751.12910617500006</v>
+      <c r="Y4" s="130">
+        <f>SUM(K4:O4)</f>
+        <v>740.8221309999999</v>
       </c>
       <c r="Z4" s="9">
-        <f t="shared" ref="Z4:AK4" si="3">Z3-Z5</f>
-        <v>863.7984721012499</v>
+        <f>Z3-Z5</f>
+        <v>911.87712967500011</v>
       </c>
       <c r="AA4" s="9">
-        <f t="shared" si="3"/>
-        <v>993.36824291643734</v>
+        <f t="shared" ref="AA4:AL4" si="3">AA3-AA5</f>
+        <v>1048.6586991262498</v>
       </c>
       <c r="AB4" s="9">
         <f t="shared" si="3"/>
-        <v>1142.3734793539029</v>
+        <v>1205.9575039951874</v>
       </c>
       <c r="AC4" s="9">
         <f t="shared" si="3"/>
-        <v>1313.729501256988</v>
+        <v>1386.8511295944654</v>
       </c>
       <c r="AD4" s="9">
         <f t="shared" si="3"/>
-        <v>1510.7889264455362</v>
+        <v>1594.878799033635</v>
       </c>
       <c r="AE4" s="9">
         <f t="shared" si="3"/>
-        <v>1737.4072654123665</v>
+        <v>1834.1106188886806</v>
       </c>
       <c r="AF4" s="9">
         <f t="shared" si="3"/>
-        <v>1998.0183552242215</v>
+        <v>2109.2272117219827</v>
       </c>
       <c r="AG4" s="9">
         <f t="shared" si="3"/>
-        <v>2297.7211085078543</v>
+        <v>2425.6112934802795</v>
       </c>
       <c r="AH4" s="9">
         <f t="shared" si="3"/>
-        <v>2642.3792747840316</v>
+        <v>2789.4529875023209</v>
       </c>
       <c r="AI4" s="9">
         <f t="shared" si="3"/>
-        <v>3038.7361660016359</v>
+        <v>3207.8709356276686</v>
       </c>
       <c r="AJ4" s="9">
         <f t="shared" si="3"/>
-        <v>3494.5465909018822</v>
+        <v>3689.0515759718182</v>
       </c>
       <c r="AK4" s="9">
         <f t="shared" si="3"/>
-        <v>4018.7285795371627</v>
+        <v>4242.4093123675921</v>
       </c>
       <c r="AL4" s="9">
-        <f t="shared" ref="AL4" si="4">AL3-AL5</f>
-        <v>4621.5378664677373</v>
+        <f t="shared" si="3"/>
+        <v>4878.7707092227301</v>
       </c>
       <c r="AM4" s="9">
-        <f t="shared" ref="AM4" si="5">AM3-AM5</f>
-        <v>5314.7685464378974</v>
-      </c>
-    </row>
-    <row r="5" spans="2:39" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AM4" si="4">AM3-AM5</f>
+        <v>5610.5863156061387</v>
+      </c>
+      <c r="AN4" s="9">
+        <f t="shared" ref="AN4" si="5">AN3-AN5</f>
+        <v>6452.1742629470609</v>
+      </c>
+    </row>
+    <row r="5" spans="2:40" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -6239,108 +6305,112 @@
         <v>416.78100000000001</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" ref="K5:L5" si="7">K3-K4</f>
+        <f t="shared" ref="K5:M5" si="7">K3-K4</f>
         <v>401.50200000000001</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="7"/>
         <v>448.04999999999995</v>
       </c>
-      <c r="M5" s="120">
-        <f>M3*0.74</f>
+      <c r="M5" s="4">
+        <f t="shared" si="7"/>
+        <v>391.27</v>
+      </c>
+      <c r="N5" s="120">
+        <f>N3*0.74</f>
         <v>471.13580000000007</v>
       </c>
-      <c r="N5" s="57">
-        <f>N3*0.74</f>
+      <c r="O5" s="57">
+        <f>O3*0.74</f>
         <v>484.02241899999996</v>
       </c>
-      <c r="O5" s="57"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="74">
-        <f>Q3*0.73</f>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="74">
+        <f>R3*0.73</f>
         <v>471.76244159999999</v>
       </c>
-      <c r="R5" s="189">
-        <f>R3*0.74</f>
+      <c r="S5" s="189">
+        <f>S3*0.74</f>
         <v>413.32182</v>
       </c>
-      <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="3">
-        <f>V3-V4</f>
-        <v>683.98700000000008</v>
-      </c>
+      <c r="V5" s="1"/>
       <c r="W5" s="3">
         <f>W3-W4</f>
+        <v>683.98700000000008</v>
+      </c>
+      <c r="X5" s="3">
+        <f>X3-X4</f>
         <v>1422.3110000000001</v>
       </c>
-      <c r="X5" s="129">
-        <f>X3-X4</f>
-        <v>1804.7102190000001</v>
-      </c>
-      <c r="Y5" s="58">
-        <f>Y3*0.73</f>
-        <v>2030.8305463249997</v>
+      <c r="Y5" s="129">
+        <f>Y3-Y4</f>
+        <v>2195.980219</v>
       </c>
       <c r="Z5" s="58">
-        <f t="shared" ref="Z5:AK5" si="8">Z3*0.73</f>
-        <v>2335.4551282737493</v>
+        <f>Z3*0.73</f>
+        <v>2465.4455728249995</v>
       </c>
       <c r="AA5" s="58">
-        <f t="shared" si="8"/>
-        <v>2685.7733975148117</v>
+        <f t="shared" ref="AA5:AL5" si="8">AA3*0.73</f>
+        <v>2835.2624087487497</v>
       </c>
       <c r="AB5" s="58">
         <f t="shared" si="8"/>
-        <v>3088.6394071420332</v>
+        <v>3260.5517700610621</v>
       </c>
       <c r="AC5" s="58">
         <f t="shared" si="8"/>
-        <v>3551.9353182133377</v>
+        <v>3749.6345355702215</v>
       </c>
       <c r="AD5" s="58">
         <f t="shared" si="8"/>
-        <v>4084.7256159453382</v>
+        <v>4312.0797159057547</v>
       </c>
       <c r="AE5" s="58">
         <f t="shared" si="8"/>
-        <v>4697.4344583371385</v>
+        <v>4958.8916732916168</v>
       </c>
       <c r="AF5" s="58">
         <f t="shared" si="8"/>
-        <v>5402.0496270877084</v>
+        <v>5702.7254242853587</v>
       </c>
       <c r="AG5" s="58">
         <f t="shared" si="8"/>
-        <v>6212.3570711508637</v>
+        <v>6558.1342379281623</v>
       </c>
       <c r="AH5" s="58">
         <f t="shared" si="8"/>
-        <v>7144.2106318234937</v>
+        <v>7541.854373617386</v>
       </c>
       <c r="AI5" s="58">
         <f t="shared" si="8"/>
-        <v>8215.8422265970166</v>
+        <v>8673.1325296599935</v>
       </c>
       <c r="AJ5" s="58">
         <f t="shared" si="8"/>
-        <v>9448.218560586567</v>
+        <v>9974.1024091089912</v>
       </c>
       <c r="AK5" s="58">
         <f t="shared" si="8"/>
-        <v>10865.451344674553</v>
+        <v>11470.217770475338</v>
       </c>
       <c r="AL5" s="58">
-        <f t="shared" ref="AL5:AM5" si="9">AL3*0.73</f>
-        <v>12495.269046375735</v>
+        <f t="shared" si="8"/>
+        <v>13190.750436046639</v>
       </c>
       <c r="AM5" s="58">
+        <f t="shared" ref="AM5:AN5" si="9">AM3*0.73</f>
+        <v>15169.363001453636</v>
+      </c>
+      <c r="AN5" s="58">
         <f t="shared" si="9"/>
-        <v>14369.559403332094</v>
-      </c>
-    </row>
-    <row r="6" spans="2:39" ht="15" x14ac:dyDescent="0.25">
+        <v>17444.767451671676</v>
+      </c>
+    </row>
+    <row r="6" spans="2:40" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
@@ -6374,99 +6444,102 @@
       <c r="L6" s="5">
         <v>143.148</v>
       </c>
-      <c r="M6" s="121">
+      <c r="M6" s="5">
+        <v>151.47</v>
+      </c>
+      <c r="N6" s="121">
         <f>I6*1.15</f>
         <v>149.44479999999999</v>
       </c>
-      <c r="N6" s="48">
+      <c r="O6" s="48">
         <f>J6*1.15</f>
         <v>183.67455000000001</v>
       </c>
-      <c r="O6" s="48"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="75">
+      <c r="P6" s="48"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="75">
         <f>G6*1.025</f>
         <v>121.91144999999999</v>
       </c>
-      <c r="R6" s="190">
+      <c r="S6" s="190">
         <f>H6*1.23</f>
         <v>159.54821999999999</v>
       </c>
-      <c r="T6" s="9"/>
-      <c r="V6" s="37">
+      <c r="U6" s="9"/>
+      <c r="W6" s="37">
         <f>SUM(C6:F6)</f>
         <v>328.74</v>
       </c>
-      <c r="W6" s="37">
+      <c r="X6" s="37">
         <f>SUM(G6:J6)</f>
         <v>538.32100000000003</v>
       </c>
-      <c r="X6" s="131">
-        <f>SUM(K6:N6)</f>
-        <v>623.38934999999992</v>
-      </c>
-      <c r="Y6" s="50">
-        <f>X6*1.015</f>
-        <v>632.74019024999984</v>
+      <c r="Y6" s="131">
+        <f>SUM(K6:O6)</f>
+        <v>774.85934999999995</v>
       </c>
       <c r="Z6" s="50">
-        <f t="shared" ref="Z6:AK6" si="10">Y6*1.015</f>
-        <v>642.23129310374975</v>
+        <f>Y6*1.015</f>
+        <v>786.4822402499999</v>
       </c>
       <c r="AA6" s="50">
-        <f t="shared" si="10"/>
-        <v>651.86476250030591</v>
+        <f t="shared" ref="AA6:AL6" si="10">Z6*1.015</f>
+        <v>798.27947385374978</v>
       </c>
       <c r="AB6" s="50">
         <f t="shared" si="10"/>
-        <v>661.64273393781048</v>
+        <v>810.25366596155595</v>
       </c>
       <c r="AC6" s="50">
         <f t="shared" si="10"/>
-        <v>671.56737494687752</v>
+        <v>822.40747095097925</v>
       </c>
       <c r="AD6" s="50">
         <f t="shared" si="10"/>
-        <v>681.64088557108062</v>
+        <v>834.74358301524387</v>
       </c>
       <c r="AE6" s="50">
         <f t="shared" si="10"/>
-        <v>691.86549885464672</v>
+        <v>847.26473676047249</v>
       </c>
       <c r="AF6" s="50">
         <f t="shared" si="10"/>
-        <v>702.24348133746639</v>
+        <v>859.97370781187954</v>
       </c>
       <c r="AG6" s="50">
         <f t="shared" si="10"/>
-        <v>712.77713355752837</v>
+        <v>872.87331342905759</v>
       </c>
       <c r="AH6" s="50">
         <f t="shared" si="10"/>
-        <v>723.46879056089119</v>
+        <v>885.96641313049338</v>
       </c>
       <c r="AI6" s="50">
         <f t="shared" si="10"/>
-        <v>734.32082241930448</v>
+        <v>899.25590932745069</v>
       </c>
       <c r="AJ6" s="50">
         <f t="shared" si="10"/>
-        <v>745.33563475559401</v>
+        <v>912.7447479673624</v>
       </c>
       <c r="AK6" s="50">
         <f t="shared" si="10"/>
-        <v>756.51566927692784</v>
+        <v>926.43591918687275</v>
       </c>
       <c r="AL6" s="50">
-        <f t="shared" ref="AL6:AM6" si="11">AK6*1.015</f>
-        <v>767.86340431608164</v>
+        <f t="shared" si="10"/>
+        <v>940.33245797467578</v>
       </c>
       <c r="AM6" s="50">
+        <f t="shared" ref="AM6:AN6" si="11">AL6*1.015</f>
+        <v>954.43744484429578</v>
+      </c>
+      <c r="AN6" s="50">
         <f t="shared" si="11"/>
-        <v>779.38135538082281</v>
-      </c>
-    </row>
-    <row r="7" spans="2:39" ht="15" x14ac:dyDescent="0.25">
+        <v>968.75400651696009</v>
+      </c>
+    </row>
+    <row r="7" spans="2:40" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
@@ -6500,98 +6573,101 @@
       <c r="L7" s="5">
         <v>158.23500000000001</v>
       </c>
-      <c r="M7" s="121">
+      <c r="M7" s="5">
+        <v>190.98599999999999</v>
+      </c>
+      <c r="N7" s="121">
         <f>I7*1.5</f>
         <v>176.0805</v>
       </c>
-      <c r="N7" s="48">
+      <c r="O7" s="48">
         <f>J7*1.5</f>
         <v>203.98349999999999</v>
       </c>
-      <c r="O7" s="48"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="75">
+      <c r="P7" s="48"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="75">
         <f>J7*1.11</f>
         <v>150.94779000000003</v>
       </c>
-      <c r="R7" s="190">
+      <c r="S7" s="190">
         <f>H7*1.5</f>
         <v>163.47900000000001</v>
       </c>
-      <c r="V7" s="37">
+      <c r="W7" s="37">
         <f>SUM(C7:F7)</f>
         <v>264.226</v>
       </c>
-      <c r="W7" s="37">
+      <c r="X7" s="37">
         <f>SUM(G7:J7)</f>
         <v>456.49800000000005</v>
       </c>
-      <c r="X7" s="131">
-        <f>SUM(K7:N7)</f>
-        <v>679.654</v>
-      </c>
-      <c r="Y7" s="50">
-        <f>X7*1.05</f>
-        <v>713.63670000000002</v>
+      <c r="Y7" s="131">
+        <f>SUM(K7:O7)</f>
+        <v>870.6400000000001</v>
       </c>
       <c r="Z7" s="50">
-        <f t="shared" ref="Z7:AK7" si="12">Y7*1.05</f>
-        <v>749.318535</v>
+        <f>Y7*1.05</f>
+        <v>914.17200000000014</v>
       </c>
       <c r="AA7" s="50">
-        <f t="shared" si="12"/>
-        <v>786.78446174999999</v>
+        <f t="shared" ref="AA7:AL7" si="12">Z7*1.05</f>
+        <v>959.88060000000019</v>
       </c>
       <c r="AB7" s="50">
         <f t="shared" si="12"/>
-        <v>826.12368483750004</v>
+        <v>1007.8746300000003</v>
       </c>
       <c r="AC7" s="50">
         <f t="shared" si="12"/>
-        <v>867.42986907937507</v>
+        <v>1058.2683615000003</v>
       </c>
       <c r="AD7" s="50">
         <f t="shared" si="12"/>
-        <v>910.80136253334388</v>
+        <v>1111.1817795750003</v>
       </c>
       <c r="AE7" s="50">
         <f t="shared" si="12"/>
-        <v>956.34143066001116</v>
+        <v>1166.7408685537503</v>
       </c>
       <c r="AF7" s="50">
         <f t="shared" si="12"/>
-        <v>1004.1585021930117</v>
+        <v>1225.0779119814379</v>
       </c>
       <c r="AG7" s="50">
         <f t="shared" si="12"/>
-        <v>1054.3664273026623</v>
+        <v>1286.3318075805098</v>
       </c>
       <c r="AH7" s="50">
         <f t="shared" si="12"/>
-        <v>1107.0847486677953</v>
+        <v>1350.6483979595353</v>
       </c>
       <c r="AI7" s="50">
         <f t="shared" si="12"/>
-        <v>1162.4389861011853</v>
+        <v>1418.180817857512</v>
       </c>
       <c r="AJ7" s="50">
         <f t="shared" si="12"/>
-        <v>1220.5609354062447</v>
+        <v>1489.0898587503877</v>
       </c>
       <c r="AK7" s="50">
         <f t="shared" si="12"/>
-        <v>1281.588982176557</v>
+        <v>1563.5443516879072</v>
       </c>
       <c r="AL7" s="50">
-        <f t="shared" ref="AL7:AM7" si="13">AK7*1.05</f>
-        <v>1345.6684312853849</v>
+        <f t="shared" si="12"/>
+        <v>1641.7215692723028</v>
       </c>
       <c r="AM7" s="50">
+        <f t="shared" ref="AM7:AN7" si="13">AL7*1.05</f>
+        <v>1723.807647735918</v>
+      </c>
+      <c r="AN7" s="50">
         <f t="shared" si="13"/>
-        <v>1412.9518528496542</v>
-      </c>
-    </row>
-    <row r="8" spans="2:39" ht="15" x14ac:dyDescent="0.25">
+        <v>1809.998030122714</v>
+      </c>
+    </row>
+    <row r="8" spans="2:40" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
@@ -6625,98 +6701,101 @@
       <c r="L8" s="5">
         <v>211.75700000000001</v>
       </c>
-      <c r="M8" s="122">
-        <f>R8*1.012</f>
+      <c r="M8" s="5">
+        <v>235.55099999999999</v>
+      </c>
+      <c r="N8" s="122">
+        <f>S8*1.012</f>
         <v>182.05388572800001</v>
       </c>
-      <c r="N8" s="47">
-        <f>M8*1.012</f>
+      <c r="O8" s="47">
+        <f>N8*1.012</f>
         <v>184.23853235673602</v>
       </c>
-      <c r="O8" s="47"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="76">
+      <c r="P8" s="47"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="76">
         <f>J8*1.1</f>
         <v>190.92700000000002</v>
       </c>
-      <c r="R8" s="191">
+      <c r="S8" s="191">
         <f>K8*1.012</f>
         <v>179.89514400000002</v>
       </c>
-      <c r="V8" s="37">
+      <c r="W8" s="37">
         <f>SUM(C8:F8)</f>
         <v>201.43299999999999</v>
       </c>
-      <c r="W8" s="37">
+      <c r="X8" s="37">
         <f>SUM(G8:J8)</f>
         <v>533.20699999999999</v>
       </c>
-      <c r="X8" s="131">
-        <f>SUM(K8:N8)</f>
-        <v>755.81141808473603</v>
-      </c>
-      <c r="Y8" s="50">
-        <f>X8*1</f>
-        <v>755.81141808473603</v>
+      <c r="Y8" s="131">
+        <f>SUM(K8:O8)</f>
+        <v>991.36241808473596</v>
       </c>
       <c r="Z8" s="50">
-        <f t="shared" ref="Z8:AK8" si="14">Y8*1</f>
-        <v>755.81141808473603</v>
+        <f>Y8*1</f>
+        <v>991.36241808473596</v>
       </c>
       <c r="AA8" s="50">
-        <f t="shared" si="14"/>
-        <v>755.81141808473603</v>
+        <f t="shared" ref="AA8:AL8" si="14">Z8*1</f>
+        <v>991.36241808473596</v>
       </c>
       <c r="AB8" s="50">
         <f t="shared" si="14"/>
-        <v>755.81141808473603</v>
+        <v>991.36241808473596</v>
       </c>
       <c r="AC8" s="50">
         <f t="shared" si="14"/>
-        <v>755.81141808473603</v>
+        <v>991.36241808473596</v>
       </c>
       <c r="AD8" s="50">
         <f t="shared" si="14"/>
-        <v>755.81141808473603</v>
+        <v>991.36241808473596</v>
       </c>
       <c r="AE8" s="50">
         <f t="shared" si="14"/>
-        <v>755.81141808473603</v>
+        <v>991.36241808473596</v>
       </c>
       <c r="AF8" s="50">
         <f t="shared" si="14"/>
-        <v>755.81141808473603</v>
+        <v>991.36241808473596</v>
       </c>
       <c r="AG8" s="50">
         <f t="shared" si="14"/>
-        <v>755.81141808473603</v>
+        <v>991.36241808473596</v>
       </c>
       <c r="AH8" s="50">
         <f t="shared" si="14"/>
-        <v>755.81141808473603</v>
+        <v>991.36241808473596</v>
       </c>
       <c r="AI8" s="50">
         <f t="shared" si="14"/>
-        <v>755.81141808473603</v>
+        <v>991.36241808473596</v>
       </c>
       <c r="AJ8" s="50">
         <f t="shared" si="14"/>
-        <v>755.81141808473603</v>
+        <v>991.36241808473596</v>
       </c>
       <c r="AK8" s="50">
         <f t="shared" si="14"/>
-        <v>755.81141808473603</v>
+        <v>991.36241808473596</v>
       </c>
       <c r="AL8" s="50">
-        <f t="shared" ref="AL8:AM8" si="15">AK8*1</f>
-        <v>755.81141808473603</v>
+        <f t="shared" si="14"/>
+        <v>991.36241808473596</v>
       </c>
       <c r="AM8" s="50">
+        <f t="shared" ref="AM8:AN8" si="15">AL8*1</f>
+        <v>991.36241808473596</v>
+      </c>
+      <c r="AN8" s="50">
         <f t="shared" si="15"/>
-        <v>755.81141808473603</v>
-      </c>
-    </row>
-    <row r="9" spans="2:39" ht="15" x14ac:dyDescent="0.25">
+        <v>991.36241808473596</v>
+      </c>
+    </row>
+    <row r="9" spans="2:40" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>21</v>
       </c>
@@ -6750,98 +6829,101 @@
       <c r="L9" s="5">
         <v>78.676000000000002</v>
       </c>
-      <c r="M9" s="119">
-        <f>R9*1.01</f>
+      <c r="M9" s="5">
+        <v>81.165000000000006</v>
+      </c>
+      <c r="N9" s="119">
+        <f>S9*1.01</f>
         <v>58.933217200000001</v>
       </c>
-      <c r="N9" s="5">
-        <f>M9*1.01</f>
+      <c r="O9" s="5">
+        <f>N9*1.01</f>
         <v>59.522549372</v>
       </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="73">
+      <c r="P9" s="5"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="73">
         <f>G9*1.01</f>
         <v>95.318749999999994</v>
       </c>
-      <c r="R9" s="188">
+      <c r="S9" s="188">
         <f>K9*1.01</f>
         <v>58.349719999999998</v>
       </c>
-      <c r="V9" s="37">
+      <c r="W9" s="37">
         <f>SUM(C9:F9)</f>
         <v>97.340999999999994</v>
       </c>
-      <c r="W9" s="37">
+      <c r="X9" s="37">
         <f>SUM(G9:J9)</f>
         <v>303.02</v>
       </c>
-      <c r="X9" s="131">
-        <f>SUM(K9:N9)</f>
-        <v>254.90376657199999</v>
-      </c>
-      <c r="Y9" s="50">
-        <f>X9*1</f>
-        <v>254.90376657199999</v>
+      <c r="Y9" s="131">
+        <f>SUM(K9:O9)</f>
+        <v>336.06876657200002</v>
       </c>
       <c r="Z9" s="50">
-        <f t="shared" ref="Z9:AK9" si="16">Y9*1</f>
-        <v>254.90376657199999</v>
+        <f>Y9*1</f>
+        <v>336.06876657200002</v>
       </c>
       <c r="AA9" s="50">
-        <f t="shared" si="16"/>
-        <v>254.90376657199999</v>
+        <f t="shared" ref="AA9:AL9" si="16">Z9*1</f>
+        <v>336.06876657200002</v>
       </c>
       <c r="AB9" s="50">
         <f t="shared" si="16"/>
-        <v>254.90376657199999</v>
+        <v>336.06876657200002</v>
       </c>
       <c r="AC9" s="50">
         <f t="shared" si="16"/>
-        <v>254.90376657199999</v>
+        <v>336.06876657200002</v>
       </c>
       <c r="AD9" s="50">
         <f t="shared" si="16"/>
-        <v>254.90376657199999</v>
+        <v>336.06876657200002</v>
       </c>
       <c r="AE9" s="50">
         <f t="shared" si="16"/>
-        <v>254.90376657199999</v>
+        <v>336.06876657200002</v>
       </c>
       <c r="AF9" s="50">
         <f t="shared" si="16"/>
-        <v>254.90376657199999</v>
+        <v>336.06876657200002</v>
       </c>
       <c r="AG9" s="50">
         <f t="shared" si="16"/>
-        <v>254.90376657199999</v>
+        <v>336.06876657200002</v>
       </c>
       <c r="AH9" s="50">
         <f t="shared" si="16"/>
-        <v>254.90376657199999</v>
+        <v>336.06876657200002</v>
       </c>
       <c r="AI9" s="50">
         <f t="shared" si="16"/>
-        <v>254.90376657199999</v>
+        <v>336.06876657200002</v>
       </c>
       <c r="AJ9" s="50">
         <f t="shared" si="16"/>
-        <v>254.90376657199999</v>
+        <v>336.06876657200002</v>
       </c>
       <c r="AK9" s="50">
         <f t="shared" si="16"/>
-        <v>254.90376657199999</v>
+        <v>336.06876657200002</v>
       </c>
       <c r="AL9" s="50">
-        <f t="shared" ref="AL9:AM9" si="17">AK9*1</f>
-        <v>254.90376657199999</v>
+        <f t="shared" si="16"/>
+        <v>336.06876657200002</v>
       </c>
       <c r="AM9" s="50">
+        <f t="shared" ref="AM9:AN9" si="17">AL9*1</f>
+        <v>336.06876657200002</v>
+      </c>
+      <c r="AN9" s="50">
         <f t="shared" si="17"/>
-        <v>254.90376657199999</v>
-      </c>
-    </row>
-    <row r="10" spans="2:39" ht="15" x14ac:dyDescent="0.25">
+        <v>336.06876657200002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:40" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
@@ -6875,97 +6957,100 @@
       <c r="L10" s="5">
         <v>26.501000000000001</v>
       </c>
-      <c r="M10" s="122">
-        <f>R10*1.05</f>
+      <c r="M10" s="5">
+        <v>32.104999999999997</v>
+      </c>
+      <c r="N10" s="122">
+        <f>S10*1.05</f>
         <v>32.084955000000001</v>
       </c>
-      <c r="N10" s="47">
-        <f>M10*1.05</f>
+      <c r="O10" s="47">
+        <f>N10*1.05</f>
         <v>33.68920275</v>
       </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="77">
+      <c r="P10" s="7"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="77">
         <v>25</v>
       </c>
-      <c r="R10" s="191">
+      <c r="S10" s="191">
         <f>K10*1.05</f>
         <v>30.557100000000002</v>
       </c>
-      <c r="V10" s="37">
+      <c r="W10" s="37">
         <f>SUM(C10:F10)</f>
         <v>58.384</v>
       </c>
-      <c r="W10" s="37">
+      <c r="X10" s="37">
         <f>SUM(G10:J10)</f>
         <v>86.363</v>
       </c>
-      <c r="X10" s="131">
-        <f>SUM(K10:N10)</f>
-        <v>121.37715775000001</v>
-      </c>
-      <c r="Y10" s="50">
-        <f>X10*0.95</f>
-        <v>115.30829986250001</v>
+      <c r="Y10" s="131">
+        <f>SUM(K10:O10)</f>
+        <v>153.48215775</v>
       </c>
       <c r="Z10" s="50">
-        <f t="shared" ref="Z10:AK10" si="18">Y10*0.95</f>
-        <v>109.542884869375</v>
+        <f>Y10*0.95</f>
+        <v>145.80804986249998</v>
       </c>
       <c r="AA10" s="50">
-        <f t="shared" si="18"/>
-        <v>104.06574062590624</v>
+        <f t="shared" ref="AA10:AL10" si="18">Z10*0.95</f>
+        <v>138.51764736937497</v>
       </c>
       <c r="AB10" s="50">
         <f t="shared" si="18"/>
-        <v>98.862453594610926</v>
+        <v>131.59176500090621</v>
       </c>
       <c r="AC10" s="50">
         <f t="shared" si="18"/>
-        <v>93.919330914880376</v>
+        <v>125.01217675086089</v>
       </c>
       <c r="AD10" s="50">
         <f t="shared" si="18"/>
-        <v>89.223364369136348</v>
+        <v>118.76156791331783</v>
       </c>
       <c r="AE10" s="50">
         <f t="shared" si="18"/>
-        <v>84.762196150679529</v>
+        <v>112.82348951765194</v>
       </c>
       <c r="AF10" s="50">
         <f t="shared" si="18"/>
-        <v>80.524086343145555</v>
+        <v>107.18231504176933</v>
       </c>
       <c r="AG10" s="50">
         <f t="shared" si="18"/>
-        <v>76.497882025988275</v>
+        <v>101.82319928968086</v>
       </c>
       <c r="AH10" s="50">
         <f t="shared" si="18"/>
-        <v>72.672987924688854</v>
+        <v>96.732039325196808</v>
       </c>
       <c r="AI10" s="50">
         <f t="shared" si="18"/>
-        <v>69.039338528454408</v>
+        <v>91.89543735893696</v>
       </c>
       <c r="AJ10" s="50">
         <f t="shared" si="18"/>
-        <v>65.587371602031681</v>
+        <v>87.300665490990113</v>
       </c>
       <c r="AK10" s="50">
         <f t="shared" si="18"/>
-        <v>62.308003021930091</v>
+        <v>82.935632216440609</v>
       </c>
       <c r="AL10" s="50">
-        <f t="shared" ref="AL10:AM10" si="19">AK10*0.95</f>
-        <v>59.192602870833582</v>
+        <f t="shared" si="18"/>
+        <v>78.788850605618578</v>
       </c>
       <c r="AM10" s="50">
+        <f t="shared" ref="AM10:AN10" si="19">AL10*0.95</f>
+        <v>74.849408075337649</v>
+      </c>
+      <c r="AN10" s="50">
         <f t="shared" si="19"/>
-        <v>56.232972727291902</v>
-      </c>
-    </row>
-    <row r="11" spans="2:39" ht="15" x14ac:dyDescent="0.25">
+        <v>71.106937671570762</v>
+      </c>
+    </row>
+    <row r="11" spans="2:40" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
@@ -7006,234 +7091,242 @@
         <v>553.11300000000006</v>
       </c>
       <c r="L11" s="5">
-        <f t="shared" ref="L11:N11" si="22">L10+L9+L8+L7+L6</f>
+        <f t="shared" ref="L11:O11" si="22">L10+L9+L8+L7+L6</f>
         <v>618.31700000000001</v>
       </c>
-      <c r="M11" s="119">
+      <c r="M11" s="5">
+        <f t="shared" ref="M11" si="23">M10+M9+M8+M7+M6</f>
+        <v>691.27700000000004</v>
+      </c>
+      <c r="N11" s="119">
         <f t="shared" si="22"/>
         <v>598.59735792800006</v>
       </c>
-      <c r="N11" s="5">
+      <c r="O11" s="5">
         <f t="shared" si="22"/>
         <v>665.10833447873597</v>
       </c>
-      <c r="O11" s="5"/>
-      <c r="Q11" s="73">
-        <f>Q10+Q9+Q8+Q7+Q6</f>
+      <c r="P11" s="5"/>
+      <c r="R11" s="73">
+        <f>R10+R9+R8+R7+R6</f>
         <v>584.10499000000004</v>
       </c>
-      <c r="R11" s="188">
-        <f>R10+R9+R8+R7+R6</f>
+      <c r="S11" s="188">
+        <f>S10+S9+S8+S7+S6</f>
         <v>591.82918400000005</v>
-      </c>
-      <c r="V11" s="9">
-        <f>SUM(V6:V10)</f>
-        <v>950.12400000000002</v>
       </c>
       <c r="W11" s="9">
         <f>SUM(W6:W10)</f>
+        <v>950.12400000000002</v>
+      </c>
+      <c r="X11" s="9">
+        <f>SUM(X6:X10)</f>
         <v>1917.4090000000001</v>
       </c>
-      <c r="X11" s="132">
-        <f>SUM(X6:X10)</f>
-        <v>2435.1356924067359</v>
-      </c>
-      <c r="Y11" s="9">
-        <f t="shared" ref="Y11:AK11" si="23">SUM(Y6:Y10)</f>
-        <v>2472.4003747692354</v>
+      <c r="Y11" s="132">
+        <f>SUM(Y6:Y10)</f>
+        <v>3126.4126924067364</v>
       </c>
       <c r="Z11" s="9">
-        <f t="shared" si="23"/>
-        <v>2511.8078976298607</v>
+        <f t="shared" ref="Z11:AL11" si="24">SUM(Z6:Z10)</f>
+        <v>3173.893474769236</v>
       </c>
       <c r="AA11" s="9">
-        <f t="shared" si="23"/>
-        <v>2553.4301495329482</v>
+        <f t="shared" si="24"/>
+        <v>3224.1089058798611</v>
       </c>
       <c r="AB11" s="9">
-        <f t="shared" si="23"/>
-        <v>2597.3440570266575</v>
+        <f t="shared" si="24"/>
+        <v>3277.1512456191986</v>
       </c>
       <c r="AC11" s="9">
-        <f t="shared" si="23"/>
-        <v>2643.6317595978689</v>
+        <f t="shared" si="24"/>
+        <v>3333.1191938585766</v>
       </c>
       <c r="AD11" s="9">
-        <f t="shared" si="23"/>
-        <v>2692.3807971302972</v>
+        <f t="shared" si="24"/>
+        <v>3392.1181151602982</v>
       </c>
       <c r="AE11" s="9">
-        <f t="shared" si="23"/>
-        <v>2743.6843103220735</v>
+        <f t="shared" si="24"/>
+        <v>3454.2602794886111</v>
       </c>
       <c r="AF11" s="9">
-        <f t="shared" si="23"/>
-        <v>2797.6412545303592</v>
+        <f t="shared" si="24"/>
+        <v>3519.6651194918231</v>
       </c>
       <c r="AG11" s="9">
-        <f t="shared" si="23"/>
-        <v>2854.3566275429148</v>
+        <f t="shared" si="24"/>
+        <v>3588.4595049559844</v>
       </c>
       <c r="AH11" s="9">
-        <f t="shared" si="23"/>
-        <v>2913.941711810111</v>
+        <f t="shared" si="24"/>
+        <v>3660.7780350719613</v>
       </c>
       <c r="AI11" s="9">
-        <f t="shared" si="23"/>
-        <v>2976.51433170568</v>
+        <f t="shared" si="24"/>
+        <v>3736.7633492006357</v>
       </c>
       <c r="AJ11" s="9">
-        <f t="shared" si="23"/>
-        <v>3042.1991264206063</v>
+        <f t="shared" si="24"/>
+        <v>3816.5664568654761</v>
       </c>
       <c r="AK11" s="9">
-        <f t="shared" si="23"/>
-        <v>3111.1278391321507</v>
+        <f t="shared" si="24"/>
+        <v>3900.3470877479572</v>
       </c>
       <c r="AL11" s="9">
-        <f t="shared" ref="AL11" si="24">SUM(AL6:AL10)</f>
-        <v>3183.4396231290361</v>
+        <f t="shared" si="24"/>
+        <v>3988.2740625093334</v>
       </c>
       <c r="AM11" s="9">
         <f t="shared" ref="AM11" si="25">SUM(AM6:AM10)</f>
-        <v>3259.2813656145045</v>
-      </c>
-    </row>
-    <row r="12" spans="2:39" ht="15" x14ac:dyDescent="0.25">
+        <v>4080.5256853122874</v>
+      </c>
+      <c r="AN11" s="9">
+        <f t="shared" ref="AN11" si="26">SUM(AN6:AN10)</f>
+        <v>4177.2901589679805</v>
+      </c>
+    </row>
+    <row r="12" spans="2:40" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" ref="C12:J12" si="26">C5-C11</f>
+        <f t="shared" ref="C12:J12" si="27">C5-C11</f>
         <v>-72.966000000000008</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-73.045999999999992</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-51.518000000000001</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-68.606999999999971</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-135.05600000000004</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-142.94599999999997</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-77.44599999999997</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-139.65000000000003</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" ref="K12" si="27">K5-K11</f>
+        <f t="shared" ref="K12" si="28">K5-K11</f>
         <v>-151.61100000000005</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" ref="L12:N12" si="28">L5-L11</f>
+        <f t="shared" ref="L12:O12" si="29">L5-L11</f>
         <v>-170.26700000000005</v>
       </c>
-      <c r="M12" s="118">
-        <f t="shared" si="28"/>
+      <c r="M12" s="4">
+        <f t="shared" ref="M12" si="30">M5-M11</f>
+        <v>-300.00700000000006</v>
+      </c>
+      <c r="N12" s="118">
+        <f t="shared" si="29"/>
         <v>-127.46155792799999</v>
       </c>
-      <c r="N12" s="4">
-        <f t="shared" si="28"/>
+      <c r="O12" s="4">
+        <f t="shared" si="29"/>
         <v>-181.08591547873601</v>
       </c>
-      <c r="O12" s="4"/>
-      <c r="Q12" s="72">
-        <f>Q5-Q11</f>
+      <c r="P12" s="4"/>
+      <c r="R12" s="72">
+        <f>R5-R11</f>
         <v>-112.34254840000006</v>
       </c>
-      <c r="R12" s="187">
-        <f>R5-R11</f>
+      <c r="S12" s="187">
+        <f>S5-S11</f>
         <v>-178.50736400000005</v>
-      </c>
-      <c r="V12" s="4">
-        <f>V5-V11</f>
-        <v>-266.13699999999994</v>
       </c>
       <c r="W12" s="4">
         <f>W5-W11</f>
+        <v>-266.13699999999994</v>
+      </c>
+      <c r="X12" s="4">
+        <f>X5-X11</f>
         <v>-495.09799999999996</v>
       </c>
-      <c r="X12" s="118">
-        <f>X5-X11</f>
-        <v>-630.42547340673582</v>
-      </c>
-      <c r="Y12" s="4">
-        <f t="shared" ref="Y12:AK12" si="29">Y5-Y11</f>
-        <v>-441.56982844423578</v>
+      <c r="Y12" s="118">
+        <f>Y5-Y11</f>
+        <v>-930.43247340673634</v>
       </c>
       <c r="Z12" s="4">
-        <f t="shared" si="29"/>
-        <v>-176.35276935611137</v>
+        <f t="shared" ref="Z12:AL12" si="31">Z5-Z11</f>
+        <v>-708.44790194423649</v>
       </c>
       <c r="AA12" s="4">
-        <f t="shared" si="29"/>
-        <v>132.34324798186344</v>
+        <f t="shared" si="31"/>
+        <v>-388.84649713111139</v>
       </c>
       <c r="AB12" s="4">
-        <f t="shared" si="29"/>
-        <v>491.29535011537564</v>
+        <f t="shared" si="31"/>
+        <v>-16.599475558136419</v>
       </c>
       <c r="AC12" s="4">
-        <f t="shared" si="29"/>
-        <v>908.30355861546877</v>
+        <f t="shared" si="31"/>
+        <v>416.51534171164485</v>
       </c>
       <c r="AD12" s="4">
-        <f t="shared" si="29"/>
-        <v>1392.344818815041</v>
+        <f t="shared" si="31"/>
+        <v>919.96160074545651</v>
       </c>
       <c r="AE12" s="4">
-        <f t="shared" si="29"/>
-        <v>1953.750148015065</v>
+        <f t="shared" si="31"/>
+        <v>1504.6313938030057</v>
       </c>
       <c r="AF12" s="4">
-        <f t="shared" si="29"/>
-        <v>2604.4083725573491</v>
+        <f t="shared" si="31"/>
+        <v>2183.0603047935356</v>
       </c>
       <c r="AG12" s="4">
-        <f t="shared" si="29"/>
-        <v>3358.0004436079489</v>
+        <f t="shared" si="31"/>
+        <v>2969.6747329721779</v>
       </c>
       <c r="AH12" s="4">
-        <f t="shared" si="29"/>
-        <v>4230.2689200133827</v>
+        <f t="shared" si="31"/>
+        <v>3881.0763385454247</v>
       </c>
       <c r="AI12" s="4">
-        <f t="shared" si="29"/>
-        <v>5239.3278948913367</v>
+        <f t="shared" si="31"/>
+        <v>4936.3691804593582</v>
       </c>
       <c r="AJ12" s="4">
-        <f t="shared" si="29"/>
-        <v>6406.0194341659608</v>
+        <f t="shared" si="31"/>
+        <v>6157.5359522435156</v>
       </c>
       <c r="AK12" s="4">
-        <f t="shared" si="29"/>
-        <v>7754.3235055424029</v>
+        <f t="shared" si="31"/>
+        <v>7569.87068272738</v>
       </c>
       <c r="AL12" s="4">
-        <f t="shared" ref="AL12" si="30">AL5-AL11</f>
-        <v>9311.8294232466997</v>
+        <f t="shared" si="31"/>
+        <v>9202.4763735373053</v>
       </c>
       <c r="AM12" s="4">
-        <f t="shared" ref="AM12" si="31">AM5-AM11</f>
-        <v>11110.27803771759</v>
-      </c>
-    </row>
-    <row r="13" spans="2:39" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AM12" si="32">AM5-AM11</f>
+        <v>11088.837316141347</v>
+      </c>
+      <c r="AN12" s="4">
+        <f t="shared" ref="AN12" si="33">AN5-AN11</f>
+        <v>13267.477292703696</v>
+      </c>
+    </row>
+    <row r="13" spans="2:40" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
@@ -7268,97 +7361,100 @@
         <f>4.197-9.891</f>
         <v>-5.694</v>
       </c>
-      <c r="M13" s="119">
-        <f t="shared" ref="M13:N15" si="32">I13</f>
+      <c r="M13" s="5">
+        <v>12.763999999999999</v>
+      </c>
+      <c r="N13" s="119">
+        <f>I13</f>
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="N13" s="5">
-        <f t="shared" si="32"/>
+      <c r="O13" s="5">
+        <f>J13</f>
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="O13" s="5"/>
-      <c r="Q13" s="73">
-        <f t="shared" ref="Q13:R15" si="33">G13</f>
+      <c r="P13" s="5"/>
+      <c r="R13" s="73">
+        <f>G13</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="R13" s="188">
-        <f t="shared" si="33"/>
+      <c r="S13" s="188">
+        <f>H13</f>
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="V13" s="37">
+      <c r="W13" s="37">
         <f>SUM(C13:F13)</f>
         <v>1.8220000000000003</v>
       </c>
-      <c r="W13" s="37">
+      <c r="X13" s="37">
         <f>SUM(G13:J13)</f>
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="X13" s="131">
-        <f>SUM(K13:N13)</f>
-        <v>-5.3879999999999999</v>
-      </c>
-      <c r="Y13" s="50">
-        <f>X13*1.008</f>
-        <v>-5.4311040000000004</v>
+      <c r="Y13" s="131">
+        <f>SUM(K13:O13)</f>
+        <v>7.3759999999999994</v>
       </c>
       <c r="Z13" s="50">
-        <f t="shared" ref="Z13:AK13" si="34">Y13*1.008</f>
-        <v>-5.4745528320000005</v>
+        <f>Y13*1.008</f>
+        <v>7.4350079999999998</v>
       </c>
       <c r="AA13" s="50">
-        <f t="shared" si="34"/>
-        <v>-5.5183492546560009</v>
+        <f t="shared" ref="AA13:AL13" si="34">Z13*1.008</f>
+        <v>7.4944880639999996</v>
       </c>
       <c r="AB13" s="50">
         <f t="shared" si="34"/>
-        <v>-5.5624960486932489</v>
+        <v>7.5544439685119995</v>
       </c>
       <c r="AC13" s="50">
         <f t="shared" si="34"/>
-        <v>-5.6069960170827953</v>
+        <v>7.6148795202600956</v>
       </c>
       <c r="AD13" s="50">
         <f t="shared" si="34"/>
-        <v>-5.6518519852194578</v>
+        <v>7.6757985564221762</v>
       </c>
       <c r="AE13" s="50">
         <f t="shared" si="34"/>
-        <v>-5.6970668011012133</v>
+        <v>7.7372049448735538</v>
       </c>
       <c r="AF13" s="50">
         <f t="shared" si="34"/>
-        <v>-5.7426433355100235</v>
+        <v>7.7991025844325419</v>
       </c>
       <c r="AG13" s="50">
         <f t="shared" si="34"/>
-        <v>-5.7885844821941035</v>
+        <v>7.8614954051080019</v>
       </c>
       <c r="AH13" s="50">
         <f t="shared" si="34"/>
-        <v>-5.8348931580516563</v>
+        <v>7.9243873683488664</v>
       </c>
       <c r="AI13" s="50">
         <f t="shared" si="34"/>
-        <v>-5.8815723033160694</v>
+        <v>7.9877824672956574</v>
       </c>
       <c r="AJ13" s="50">
         <f t="shared" si="34"/>
-        <v>-5.9286248817425982</v>
+        <v>8.0516847270340222</v>
       </c>
       <c r="AK13" s="50">
         <f t="shared" si="34"/>
-        <v>-5.9760538807965391</v>
+        <v>8.1160982048502941</v>
       </c>
       <c r="AL13" s="50">
-        <f t="shared" ref="AL13:AM13" si="35">AK13*1.008</f>
-        <v>-6.0238623118429118</v>
+        <f t="shared" si="34"/>
+        <v>8.1810269904890962</v>
       </c>
       <c r="AM13" s="50">
+        <f t="shared" ref="AM13:AN13" si="35">AL13*1.008</f>
+        <v>8.2464752064130096</v>
+      </c>
+      <c r="AN13" s="50">
         <f t="shared" si="35"/>
-        <v>-6.0720532103376552</v>
-      </c>
-    </row>
-    <row r="14" spans="2:39" ht="15" x14ac:dyDescent="0.25">
+        <v>8.3124470080643142</v>
+      </c>
+    </row>
+    <row r="14" spans="2:40" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
         <v>93</v>
       </c>
@@ -7392,45 +7488,44 @@
       <c r="L14" s="38">
         <v>0</v>
       </c>
-      <c r="M14" s="123">
-        <f t="shared" si="32"/>
+      <c r="M14" s="38">
         <v>0</v>
       </c>
-      <c r="N14" s="49">
-        <f t="shared" si="32"/>
+      <c r="N14" s="123">
+        <f>I14</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="49">
+        <f>J14</f>
         <v>1.4E-2</v>
       </c>
-      <c r="O14" s="49"/>
-      <c r="Q14" s="78">
-        <f t="shared" si="33"/>
+      <c r="P14" s="49"/>
+      <c r="R14" s="78">
+        <f>G14</f>
         <v>0</v>
       </c>
-      <c r="R14" s="192">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="49">
-        <f>R14</f>
+      <c r="S14" s="192">
+        <f>H14</f>
         <v>0</v>
       </c>
       <c r="W14" s="49">
         <f>S14</f>
         <v>0</v>
       </c>
-      <c r="X14" s="123">
+      <c r="X14" s="49">
         <f>T14</f>
         <v>0</v>
       </c>
-      <c r="Y14" s="51">
-        <f>X14</f>
+      <c r="Y14" s="123">
+        <f>U14</f>
         <v>0</v>
       </c>
       <c r="Z14" s="51">
-        <f t="shared" ref="Z14:AK14" si="36">Y14</f>
+        <f>Y14</f>
         <v>0</v>
       </c>
       <c r="AA14" s="51">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="AA14:AL14" si="36">Z14</f>
         <v>0</v>
       </c>
       <c r="AB14" s="51">
@@ -7474,15 +7569,19 @@
         <v>0</v>
       </c>
       <c r="AL14" s="51">
-        <f t="shared" ref="AL14:AM14" si="37">AK14</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AM14" s="51">
+        <f t="shared" ref="AM14:AN14" si="37">AL14</f>
+        <v>0</v>
+      </c>
+      <c r="AN14" s="51">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:40" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="39" t="s">
         <v>92</v>
       </c>
@@ -7517,102 +7616,106 @@
       <c r="L15" s="49">
         <v>3.0510000000000002</v>
       </c>
-      <c r="M15" s="123">
-        <f t="shared" si="32"/>
+      <c r="M15" s="250">
+        <f>4.302+10.005</f>
+        <v>14.307</v>
+      </c>
+      <c r="N15" s="123">
+        <f>I15</f>
         <v>0.77</v>
       </c>
-      <c r="N15" s="49">
-        <f t="shared" si="32"/>
+      <c r="O15" s="49">
+        <f>J15</f>
         <v>6.9980000000000002</v>
       </c>
-      <c r="O15" s="49"/>
-      <c r="Q15" s="78">
-        <f t="shared" si="33"/>
+      <c r="P15" s="49"/>
+      <c r="R15" s="78">
+        <f>G15</f>
         <v>1.05</v>
       </c>
-      <c r="R15" s="192">
-        <f t="shared" si="33"/>
+      <c r="S15" s="192">
+        <f>H15</f>
         <v>0</v>
       </c>
-      <c r="V15" s="37">
+      <c r="W15" s="37">
         <f>SUM(C15:F15)</f>
         <v>3.157</v>
       </c>
-      <c r="W15" s="37">
+      <c r="X15" s="37">
         <f>SUM(G15:J15)</f>
         <v>8.8179999999999996</v>
       </c>
-      <c r="X15" s="131">
-        <f>SUM(K15:N15)</f>
-        <v>21.196999999999999</v>
-      </c>
-      <c r="Y15" s="9">
-        <f>X15</f>
-        <v>21.196999999999999</v>
+      <c r="Y15" s="131">
+        <f>SUM(K15:O15)</f>
+        <v>35.503999999999998</v>
       </c>
       <c r="Z15" s="9">
-        <f t="shared" ref="Z15:AK15" si="38">Y15</f>
-        <v>21.196999999999999</v>
+        <f>Y15</f>
+        <v>35.503999999999998</v>
       </c>
       <c r="AA15" s="9">
-        <f t="shared" si="38"/>
-        <v>21.196999999999999</v>
+        <f t="shared" ref="AA15:AL15" si="38">Z15</f>
+        <v>35.503999999999998</v>
       </c>
       <c r="AB15" s="9">
         <f t="shared" si="38"/>
-        <v>21.196999999999999</v>
+        <v>35.503999999999998</v>
       </c>
       <c r="AC15" s="9">
         <f t="shared" si="38"/>
-        <v>21.196999999999999</v>
+        <v>35.503999999999998</v>
       </c>
       <c r="AD15" s="9">
         <f t="shared" si="38"/>
-        <v>21.196999999999999</v>
+        <v>35.503999999999998</v>
       </c>
       <c r="AE15" s="9">
         <f t="shared" si="38"/>
-        <v>21.196999999999999</v>
+        <v>35.503999999999998</v>
       </c>
       <c r="AF15" s="9">
         <f t="shared" si="38"/>
-        <v>21.196999999999999</v>
+        <v>35.503999999999998</v>
       </c>
       <c r="AG15" s="9">
         <f t="shared" si="38"/>
-        <v>21.196999999999999</v>
+        <v>35.503999999999998</v>
       </c>
       <c r="AH15" s="9">
         <f t="shared" si="38"/>
-        <v>21.196999999999999</v>
+        <v>35.503999999999998</v>
       </c>
       <c r="AI15" s="9">
         <f t="shared" si="38"/>
-        <v>21.196999999999999</v>
+        <v>35.503999999999998</v>
       </c>
       <c r="AJ15" s="9">
         <f t="shared" si="38"/>
-        <v>21.196999999999999</v>
+        <v>35.503999999999998</v>
       </c>
       <c r="AK15" s="9">
         <f t="shared" si="38"/>
-        <v>21.196999999999999</v>
+        <v>35.503999999999998</v>
       </c>
       <c r="AL15" s="9">
-        <f t="shared" ref="AL15:AM15" si="39">AK15</f>
-        <v>21.196999999999999</v>
+        <f t="shared" si="38"/>
+        <v>35.503999999999998</v>
       </c>
       <c r="AM15" s="9">
+        <f t="shared" ref="AM15:AN15" si="39">AL15</f>
+        <v>35.503999999999998</v>
+      </c>
+      <c r="AN15" s="9">
         <f t="shared" si="39"/>
-        <v>21.196999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="2:39" ht="15" x14ac:dyDescent="0.25">
+        <v>35.503999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="2:40" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" ref="C16:N16" si="40">C12+C13+C14-C15</f>
+        <f t="shared" ref="C16:O16" si="40">C12+C13+C14-C15</f>
         <v>-74.876000000000005</v>
       </c>
       <c r="D16" s="5">
@@ -7651,97 +7754,101 @@
         <f t="shared" si="40"/>
         <v>-179.01200000000003</v>
       </c>
-      <c r="M16" s="119">
+      <c r="M16" s="5">
+        <f t="shared" si="40"/>
+        <v>-301.55000000000007</v>
+      </c>
+      <c r="N16" s="119">
         <f t="shared" si="40"/>
         <v>-128.20355792799998</v>
       </c>
-      <c r="N16" s="5">
+      <c r="O16" s="5">
         <f t="shared" si="40"/>
         <v>-188.03691547873601</v>
       </c>
-      <c r="O16" s="5"/>
-      <c r="Q16" s="73">
-        <f>Q12+Q13+Q14-Q15</f>
+      <c r="P16" s="5"/>
+      <c r="R16" s="73">
+        <f>R12+R13+R14-R15</f>
         <v>-113.38754840000006</v>
       </c>
-      <c r="R16" s="188">
-        <f>R12+R13+R14-R15</f>
+      <c r="S16" s="188">
+        <f>S12+S13+S14-S15</f>
         <v>-178.48136400000004</v>
-      </c>
-      <c r="V16" s="5">
-        <f>V12+V13+V14-V15</f>
-        <v>-267.47199999999992</v>
       </c>
       <c r="W16" s="5">
         <f>W12+W13+W14-W15</f>
+        <v>-267.47199999999992</v>
+      </c>
+      <c r="X16" s="5">
+        <f>X12+X13+X14-X15</f>
         <v>-503.82399999999996</v>
       </c>
-      <c r="X16" s="119">
-        <f>X12+X13+X14-X15</f>
-        <v>-657.01047340673585</v>
-      </c>
-      <c r="Y16" s="5">
+      <c r="Y16" s="119">
         <f>Y12+Y13+Y14-Y15</f>
-        <v>-468.19793244423579</v>
+        <v>-958.56047340673638</v>
       </c>
       <c r="Z16" s="5">
-        <f t="shared" ref="Z16:AK16" si="42">Z12+Z13+Z14-Z15</f>
-        <v>-203.02432218811137</v>
+        <f>Z12+Z13+Z14-Z15</f>
+        <v>-736.51689394423647</v>
       </c>
       <c r="AA16" s="5">
-        <f t="shared" si="42"/>
-        <v>105.62789872720744</v>
+        <f t="shared" ref="AA16:AL16" si="42">AA12+AA13+AA14-AA15</f>
+        <v>-416.85600906711142</v>
       </c>
       <c r="AB16" s="5">
         <f t="shared" si="42"/>
-        <v>464.53585406668236</v>
+        <v>-44.54903158962442</v>
       </c>
       <c r="AC16" s="5">
         <f t="shared" si="42"/>
-        <v>881.49956259838598</v>
+        <v>388.62622123190494</v>
       </c>
       <c r="AD16" s="5">
         <f t="shared" si="42"/>
-        <v>1365.4959668298216</v>
+        <v>892.13339930187863</v>
       </c>
       <c r="AE16" s="5">
         <f t="shared" si="42"/>
-        <v>1926.8560812139638</v>
+        <v>1476.8645987478794</v>
       </c>
       <c r="AF16" s="5">
         <f t="shared" si="42"/>
-        <v>2577.4687292218391</v>
+        <v>2155.3554073779683</v>
       </c>
       <c r="AG16" s="5">
         <f t="shared" si="42"/>
-        <v>3331.0148591257548</v>
+        <v>2942.0322283772862</v>
       </c>
       <c r="AH16" s="5">
         <f t="shared" si="42"/>
-        <v>4203.2370268553314</v>
+        <v>3853.4967259137738</v>
       </c>
       <c r="AI16" s="5">
         <f t="shared" si="42"/>
-        <v>5212.2493225880207</v>
+        <v>4908.8529629266541</v>
       </c>
       <c r="AJ16" s="5">
         <f t="shared" si="42"/>
-        <v>6378.8938092842182</v>
+        <v>6130.0836369705494</v>
       </c>
       <c r="AK16" s="5">
         <f t="shared" si="42"/>
-        <v>7727.150451661606</v>
+        <v>7542.4827809322305</v>
       </c>
       <c r="AL16" s="5">
-        <f t="shared" ref="AL16" si="43">AL12+AL13+AL14-AL15</f>
-        <v>9284.6085609348575</v>
+        <f t="shared" si="42"/>
+        <v>9175.1534005277936</v>
       </c>
       <c r="AM16" s="5">
-        <f t="shared" ref="AM16" si="44">AM12+AM13+AM14-AM15</f>
-        <v>11083.008984507253</v>
-      </c>
-    </row>
-    <row r="17" spans="2:78" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AM16" si="43">AM12+AM13+AM14-AM15</f>
+        <v>11061.57979134776</v>
+      </c>
+      <c r="AN16" s="5">
+        <f t="shared" ref="AN16" si="44">AN12+AN13+AN14-AN15</f>
+        <v>13240.285739711759</v>
+      </c>
+    </row>
+    <row r="17" spans="2:79" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="s">
         <v>94</v>
       </c>
@@ -7775,102 +7882,105 @@
       <c r="L17" s="5">
         <v>0.27800000000000002</v>
       </c>
-      <c r="M17" s="119">
-        <f>R17*1.005</f>
+      <c r="M17" s="5">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="N17" s="119">
+        <f>S17*1.005</f>
         <v>0.27876689999999998</v>
       </c>
-      <c r="N17" s="5">
-        <f>M17*1.005</f>
+      <c r="O17" s="5">
+        <f>N17*1.005</f>
         <v>0.28016073449999995</v>
       </c>
-      <c r="O17" s="5"/>
-      <c r="Q17" s="73">
+      <c r="P17" s="5"/>
+      <c r="R17" s="73">
         <f>J17*1.005</f>
         <v>0.65927999999999998</v>
       </c>
-      <c r="R17" s="188">
+      <c r="S17" s="188">
         <f>K17*1.005</f>
         <v>0.27738000000000002</v>
       </c>
-      <c r="V17" s="37">
+      <c r="W17" s="37">
         <f>SUM(C17:F17)</f>
         <v>-6.6559999999999997</v>
       </c>
-      <c r="W17" s="37">
+      <c r="X17" s="37">
         <f>SUM(G17:J17)</f>
         <v>-0.31999999999999995</v>
       </c>
-      <c r="X17" s="131">
-        <f>SUM(K17:N17)</f>
-        <v>1.1129276344999999</v>
-      </c>
-      <c r="Y17" s="9">
-        <f>X17</f>
-        <v>1.1129276344999999</v>
+      <c r="Y17" s="131">
+        <f>SUM(K17:O17)</f>
+        <v>1.4649276345</v>
       </c>
       <c r="Z17" s="9">
-        <f t="shared" ref="Z17:AK17" si="45">Y17</f>
-        <v>1.1129276344999999</v>
+        <f>Y17</f>
+        <v>1.4649276345</v>
       </c>
       <c r="AA17" s="9">
-        <f t="shared" si="45"/>
-        <v>1.1129276344999999</v>
+        <f t="shared" ref="AA17:AL17" si="45">Z17</f>
+        <v>1.4649276345</v>
       </c>
       <c r="AB17" s="9">
         <f t="shared" si="45"/>
-        <v>1.1129276344999999</v>
+        <v>1.4649276345</v>
       </c>
       <c r="AC17" s="9">
         <f t="shared" si="45"/>
-        <v>1.1129276344999999</v>
+        <v>1.4649276345</v>
       </c>
       <c r="AD17" s="9">
         <f t="shared" si="45"/>
-        <v>1.1129276344999999</v>
+        <v>1.4649276345</v>
       </c>
       <c r="AE17" s="9">
         <f t="shared" si="45"/>
-        <v>1.1129276344999999</v>
+        <v>1.4649276345</v>
       </c>
       <c r="AF17" s="9">
         <f t="shared" si="45"/>
-        <v>1.1129276344999999</v>
+        <v>1.4649276345</v>
       </c>
       <c r="AG17" s="9">
         <f t="shared" si="45"/>
-        <v>1.1129276344999999</v>
+        <v>1.4649276345</v>
       </c>
       <c r="AH17" s="9">
         <f t="shared" si="45"/>
-        <v>1.1129276344999999</v>
+        <v>1.4649276345</v>
       </c>
       <c r="AI17" s="9">
         <f t="shared" si="45"/>
-        <v>1.1129276344999999</v>
+        <v>1.4649276345</v>
       </c>
       <c r="AJ17" s="9">
         <f t="shared" si="45"/>
-        <v>1.1129276344999999</v>
+        <v>1.4649276345</v>
       </c>
       <c r="AK17" s="9">
         <f t="shared" si="45"/>
-        <v>1.1129276344999999</v>
+        <v>1.4649276345</v>
       </c>
       <c r="AL17" s="9">
-        <f t="shared" ref="AL17:AM17" si="46">AK17</f>
-        <v>1.1129276344999999</v>
+        <f t="shared" si="45"/>
+        <v>1.4649276345</v>
       </c>
       <c r="AM17" s="9">
+        <f t="shared" ref="AM17:AN17" si="46">AL17</f>
+        <v>1.4649276345</v>
+      </c>
+      <c r="AN17" s="9">
         <f t="shared" si="46"/>
-        <v>1.1129276344999999</v>
-      </c>
-    </row>
-    <row r="18" spans="2:78" ht="15" x14ac:dyDescent="0.25">
+        <v>1.4649276345</v>
+      </c>
+    </row>
+    <row r="18" spans="2:79" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" ref="C18:N18" si="47">+C16-C17</f>
+        <f t="shared" ref="C18:O18" si="47">+C16-C17</f>
         <v>-74.87700000000001</v>
       </c>
       <c r="D18" s="4">
@@ -7902,265 +8012,269 @@
         <v>-147.25700000000003</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" ref="K18:L18" si="48">+K16-K17</f>
+        <f t="shared" ref="K18:M18" si="48">+K16-K17</f>
         <v>-162.00600000000003</v>
       </c>
       <c r="L18" s="4">
         <f t="shared" si="48"/>
         <v>-179.29000000000002</v>
       </c>
-      <c r="M18" s="118">
+      <c r="M18" s="4">
+        <f t="shared" si="48"/>
+        <v>-301.90200000000004</v>
+      </c>
+      <c r="N18" s="118">
         <f t="shared" si="47"/>
         <v>-128.48232482799997</v>
       </c>
-      <c r="N18" s="4">
+      <c r="O18" s="4">
         <f t="shared" si="47"/>
         <v>-188.31707621323599</v>
       </c>
-      <c r="O18" s="4"/>
-      <c r="Q18" s="72">
-        <f>+Q16-Q17</f>
+      <c r="P18" s="4"/>
+      <c r="R18" s="72">
+        <f>+R16-R17</f>
         <v>-114.04682840000005</v>
       </c>
-      <c r="R18" s="187">
-        <f>+R16-R17</f>
+      <c r="S18" s="187">
+        <f>+S16-S17</f>
         <v>-178.75874400000004</v>
-      </c>
-      <c r="V18" s="3">
-        <f>V16-V17</f>
-        <v>-260.81599999999992</v>
       </c>
       <c r="W18" s="3">
         <f>W16-W17</f>
+        <v>-260.81599999999992</v>
+      </c>
+      <c r="X18" s="3">
+        <f>X16-X17</f>
         <v>-503.50399999999996</v>
       </c>
-      <c r="X18" s="129">
-        <f>X16-X17</f>
-        <v>-658.12340104123587</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="129">
         <f>Y16-Y17</f>
-        <v>-469.3108600787358</v>
+        <v>-960.02540104123636</v>
       </c>
       <c r="Z18" s="3">
-        <f t="shared" ref="Z18:AK18" si="49">Z16-Z17</f>
-        <v>-204.13724982261138</v>
+        <f>Z16-Z17</f>
+        <v>-737.98182157873646</v>
       </c>
       <c r="AA18" s="3">
-        <f t="shared" si="49"/>
-        <v>104.51497109270744</v>
+        <f t="shared" ref="AA18:AL18" si="49">AA16-AA17</f>
+        <v>-418.3209367016114</v>
       </c>
       <c r="AB18" s="3">
         <f t="shared" si="49"/>
-        <v>463.42292643218235</v>
+        <v>-46.01395922412442</v>
       </c>
       <c r="AC18" s="3">
         <f t="shared" si="49"/>
-        <v>880.38663496388597</v>
+        <v>387.16129359740495</v>
       </c>
       <c r="AD18" s="3">
         <f t="shared" si="49"/>
-        <v>1364.3830391953215</v>
+        <v>890.66847166737864</v>
       </c>
       <c r="AE18" s="3">
         <f t="shared" si="49"/>
-        <v>1925.7431535794638</v>
+        <v>1475.3996711133793</v>
       </c>
       <c r="AF18" s="3">
         <f t="shared" si="49"/>
-        <v>2576.3558015873391</v>
+        <v>2153.8904797434684</v>
       </c>
       <c r="AG18" s="3">
         <f t="shared" si="49"/>
-        <v>3329.9019314912548</v>
+        <v>2940.5673007427863</v>
       </c>
       <c r="AH18" s="3">
         <f t="shared" si="49"/>
-        <v>4202.1240992208313</v>
+        <v>3852.031798279274</v>
       </c>
       <c r="AI18" s="3">
         <f t="shared" si="49"/>
-        <v>5211.1363949535207</v>
+        <v>4907.3880352921542</v>
       </c>
       <c r="AJ18" s="3">
         <f t="shared" si="49"/>
-        <v>6377.7808816497181</v>
+        <v>6128.6187093360495</v>
       </c>
       <c r="AK18" s="3">
         <f t="shared" si="49"/>
-        <v>7726.037524027106</v>
+        <v>7541.0178532977307</v>
       </c>
       <c r="AL18" s="3">
-        <f t="shared" ref="AL18" si="50">AL16-AL17</f>
-        <v>9283.4956333003574</v>
+        <f t="shared" si="49"/>
+        <v>9173.6884728932928</v>
       </c>
       <c r="AM18" s="3">
-        <f t="shared" ref="AM18" si="51">AM16-AM17</f>
-        <v>11081.896056872753</v>
+        <f t="shared" ref="AM18" si="50">AM16-AM17</f>
+        <v>11060.114863713259</v>
       </c>
       <c r="AN18" s="3">
-        <f>AM18*(1+$AP$21)</f>
-        <v>10971.077096304025</v>
+        <f t="shared" ref="AN18" si="51">AN16-AN17</f>
+        <v>13238.820812077258</v>
       </c>
       <c r="AO18" s="3">
-        <f t="shared" ref="AO18:BZ18" si="52">AN18*(1+$AP$21)</f>
-        <v>10861.366325340985</v>
+        <f>AN18*(1+$AQ$21)</f>
+        <v>13106.432603956486</v>
       </c>
       <c r="AP18" s="3">
-        <f t="shared" si="52"/>
-        <v>10752.752662087574</v>
+        <f t="shared" ref="AP18:CA18" si="52">AO18*(1+$AQ$21)</f>
+        <v>12975.368277916921</v>
       </c>
       <c r="AQ18" s="3">
         <f t="shared" si="52"/>
-        <v>10645.225135466699</v>
+        <v>12845.614595137751</v>
       </c>
       <c r="AR18" s="3">
         <f t="shared" si="52"/>
-        <v>10538.772884112032</v>
+        <v>12717.158449186374</v>
       </c>
       <c r="AS18" s="3">
         <f t="shared" si="52"/>
-        <v>10433.385155270911</v>
+        <v>12589.986864694511</v>
       </c>
       <c r="AT18" s="3">
         <f t="shared" si="52"/>
-        <v>10329.051303718203</v>
+        <v>12464.086996047565</v>
       </c>
       <c r="AU18" s="3">
         <f t="shared" si="52"/>
-        <v>10225.760790681021</v>
+        <v>12339.446126087088</v>
       </c>
       <c r="AV18" s="3">
         <f t="shared" si="52"/>
-        <v>10123.503182774211</v>
+        <v>12216.051664826218</v>
       </c>
       <c r="AW18" s="3">
         <f t="shared" si="52"/>
-        <v>10022.268150946469</v>
+        <v>12093.891148177956</v>
       </c>
       <c r="AX18" s="3">
         <f t="shared" si="52"/>
-        <v>9922.0454694370037</v>
+        <v>11972.952236696176</v>
       </c>
       <c r="AY18" s="3">
         <f t="shared" si="52"/>
-        <v>9822.8250147426334</v>
+        <v>11853.222714329213</v>
       </c>
       <c r="AZ18" s="3">
         <f t="shared" si="52"/>
-        <v>9724.5967645952078</v>
+        <v>11734.690487185921</v>
       </c>
       <c r="BA18" s="3">
         <f t="shared" si="52"/>
-        <v>9627.3507969492548</v>
+        <v>11617.343582314061</v>
       </c>
       <c r="BB18" s="3">
         <f t="shared" si="52"/>
-        <v>9531.0772889797627</v>
+        <v>11501.17014649092</v>
       </c>
       <c r="BC18" s="3">
         <f t="shared" si="52"/>
-        <v>9435.7665160899651</v>
+        <v>11386.158445026011</v>
       </c>
       <c r="BD18" s="3">
         <f t="shared" si="52"/>
-        <v>9341.408850929065</v>
+        <v>11272.296860575751</v>
       </c>
       <c r="BE18" s="3">
         <f t="shared" si="52"/>
-        <v>9247.9947624197739</v>
+        <v>11159.573891969992</v>
       </c>
       <c r="BF18" s="3">
         <f t="shared" si="52"/>
-        <v>9155.514814795577</v>
+        <v>11047.978153050293</v>
       </c>
       <c r="BG18" s="3">
         <f t="shared" si="52"/>
-        <v>9063.9596666476209</v>
+        <v>10937.49837151979</v>
       </c>
       <c r="BH18" s="3">
         <f t="shared" si="52"/>
-        <v>8973.3200699811441</v>
+        <v>10828.123387804593</v>
       </c>
       <c r="BI18" s="3">
         <f t="shared" si="52"/>
-        <v>8883.5868692813328</v>
+        <v>10719.842153926547</v>
       </c>
       <c r="BJ18" s="3">
         <f t="shared" si="52"/>
-        <v>8794.7510005885197</v>
+        <v>10612.643732387281</v>
       </c>
       <c r="BK18" s="3">
         <f t="shared" si="52"/>
-        <v>8706.8034905826353</v>
+        <v>10506.517295063408</v>
       </c>
       <c r="BL18" s="3">
         <f t="shared" si="52"/>
-        <v>8619.7354556768096</v>
+        <v>10401.452122112774</v>
       </c>
       <c r="BM18" s="3">
         <f t="shared" si="52"/>
-        <v>8533.5381011200407</v>
+        <v>10297.437600891646</v>
       </c>
       <c r="BN18" s="3">
         <f t="shared" si="52"/>
-        <v>8448.2027201088404</v>
+        <v>10194.463224882729</v>
       </c>
       <c r="BO18" s="3">
         <f t="shared" si="52"/>
-        <v>8363.7206929077511</v>
+        <v>10092.518592633902</v>
       </c>
       <c r="BP18" s="3">
         <f t="shared" si="52"/>
-        <v>8280.0834859786737</v>
+        <v>9991.5934067075632</v>
       </c>
       <c r="BQ18" s="3">
         <f t="shared" si="52"/>
-        <v>8197.2826511188869</v>
+        <v>9891.6774726404874</v>
       </c>
       <c r="BR18" s="3">
         <f t="shared" si="52"/>
-        <v>8115.3098246076979</v>
+        <v>9792.7606979140819</v>
       </c>
       <c r="BS18" s="3">
         <f t="shared" si="52"/>
-        <v>8034.1567263616207</v>
+        <v>9694.8330909349406</v>
       </c>
       <c r="BT18" s="3">
         <f t="shared" si="52"/>
-        <v>7953.8151590980042</v>
+        <v>9597.8847600255904</v>
       </c>
       <c r="BU18" s="3">
         <f t="shared" si="52"/>
-        <v>7874.2770075070239</v>
+        <v>9501.9059124253345</v>
       </c>
       <c r="BV18" s="3">
         <f t="shared" si="52"/>
-        <v>7795.5342374319534</v>
+        <v>9406.8868533010809</v>
       </c>
       <c r="BW18" s="3">
         <f t="shared" si="52"/>
-        <v>7717.5788950576334</v>
+        <v>9312.8179847680694</v>
       </c>
       <c r="BX18" s="3">
         <f t="shared" si="52"/>
-        <v>7640.4031061070573</v>
+        <v>9219.6898049203883</v>
       </c>
       <c r="BY18" s="3">
         <f t="shared" si="52"/>
-        <v>7563.9990750459865</v>
+        <v>9127.4929068711845</v>
       </c>
       <c r="BZ18" s="3">
         <f t="shared" si="52"/>
-        <v>7488.3590842955264</v>
-      </c>
-    </row>
-    <row r="19" spans="2:78" ht="15" x14ac:dyDescent="0.25">
+        <v>9036.2179778024729</v>
+      </c>
+      <c r="CA18" s="3">
+        <f t="shared" si="52"/>
+        <v>8945.8557980244477</v>
+      </c>
+    </row>
+    <row r="19" spans="2:79" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="8">
-        <f t="shared" ref="C19:N19" si="53">C18/C20</f>
+        <f t="shared" ref="C19:O19" si="53">C18/C20</f>
         <v>-0.44164277878047925</v>
       </c>
       <c r="D19" s="8">
@@ -8187,108 +8301,113 @@
         <f t="shared" si="53"/>
         <v>-0.13402623920879539</v>
       </c>
-      <c r="J19" s="203" t="s">
-        <v>206</v>
+      <c r="J19" s="8">
+        <f t="shared" ref="J19:K19" si="54">J18/J20</f>
+        <v>-0.25322121626385352</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" ref="K19" si="54">K18/K20</f>
+        <f t="shared" si="54"/>
         <v>-0.27527649820482197</v>
       </c>
       <c r="L19" s="8">
         <f t="shared" si="53"/>
         <v>-0.30187160733287538</v>
       </c>
-      <c r="M19" s="124">
+      <c r="M19" s="8">
+        <f t="shared" si="53"/>
+        <v>-0.50503948783747843</v>
+      </c>
+      <c r="N19" s="124">
         <f t="shared" si="53"/>
         <v>-0.21632643153378855</v>
       </c>
-      <c r="N19" s="8">
+      <c r="O19" s="8">
         <f t="shared" si="53"/>
         <v>-0.31707054763074982</v>
       </c>
-      <c r="O19" s="8"/>
-      <c r="Q19" s="79">
-        <f>Q18/Q20</f>
+      <c r="P19" s="8"/>
+      <c r="R19" s="79">
+        <f>R18/R20</f>
         <v>-0.1961134384000964</v>
       </c>
-      <c r="R19" s="193">
-        <f>R18/R20</f>
+      <c r="S19" s="193">
+        <f>S18/S20</f>
         <v>-0.30739120431272415</v>
-      </c>
-      <c r="V19" s="8">
-        <f>V18/V20</f>
-        <v>-1.4321087303581006</v>
       </c>
       <c r="W19" s="8">
         <f>W18/W20</f>
+        <v>-1.4321087303581006</v>
+      </c>
+      <c r="X19" s="8">
+        <f>X18/X20</f>
         <v>-0.99711610963437214</v>
       </c>
-      <c r="X19" s="124">
-        <f>X18/X20</f>
-        <v>-1.1080861670795716</v>
-      </c>
-      <c r="Y19" s="35">
-        <f>X19</f>
-        <v>-1.1080861670795716</v>
+      <c r="Y19" s="124">
+        <f>Y18/Y20</f>
+        <v>-1.6164003061671388</v>
       </c>
       <c r="Z19" s="35">
-        <f t="shared" ref="Z19:AK19" si="55">Y19</f>
-        <v>-1.1080861670795716</v>
+        <f>Y19</f>
+        <v>-1.6164003061671388</v>
       </c>
       <c r="AA19" s="35">
-        <f t="shared" si="55"/>
-        <v>-1.1080861670795716</v>
+        <f t="shared" ref="AA19:AL19" si="55">Z19</f>
+        <v>-1.6164003061671388</v>
       </c>
       <c r="AB19" s="35">
         <f t="shared" si="55"/>
-        <v>-1.1080861670795716</v>
+        <v>-1.6164003061671388</v>
       </c>
       <c r="AC19" s="35">
         <f t="shared" si="55"/>
-        <v>-1.1080861670795716</v>
+        <v>-1.6164003061671388</v>
       </c>
       <c r="AD19" s="35">
         <f t="shared" si="55"/>
-        <v>-1.1080861670795716</v>
+        <v>-1.6164003061671388</v>
       </c>
       <c r="AE19" s="35">
         <f t="shared" si="55"/>
-        <v>-1.1080861670795716</v>
+        <v>-1.6164003061671388</v>
       </c>
       <c r="AF19" s="35">
         <f t="shared" si="55"/>
-        <v>-1.1080861670795716</v>
+        <v>-1.6164003061671388</v>
       </c>
       <c r="AG19" s="35">
         <f t="shared" si="55"/>
-        <v>-1.1080861670795716</v>
+        <v>-1.6164003061671388</v>
       </c>
       <c r="AH19" s="35">
         <f t="shared" si="55"/>
-        <v>-1.1080861670795716</v>
+        <v>-1.6164003061671388</v>
       </c>
       <c r="AI19" s="35">
         <f t="shared" si="55"/>
-        <v>-1.1080861670795716</v>
+        <v>-1.6164003061671388</v>
       </c>
       <c r="AJ19" s="35">
         <f t="shared" si="55"/>
-        <v>-1.1080861670795716</v>
+        <v>-1.6164003061671388</v>
       </c>
       <c r="AK19" s="35">
         <f t="shared" si="55"/>
-        <v>-1.1080861670795716</v>
+        <v>-1.6164003061671388</v>
       </c>
       <c r="AL19" s="35">
-        <f t="shared" ref="AL19:AM19" si="56">AK19</f>
-        <v>-1.1080861670795716</v>
+        <f t="shared" si="55"/>
+        <v>-1.6164003061671388</v>
       </c>
       <c r="AM19" s="35">
+        <f t="shared" ref="AM19:AN19" si="56">AL19</f>
+        <v>-1.6164003061671388</v>
+      </c>
+      <c r="AN19" s="35">
         <f t="shared" si="56"/>
-        <v>-1.1080861670795716</v>
-      </c>
-    </row>
-    <row r="20" spans="2:78" ht="15" x14ac:dyDescent="0.25">
+        <v>-1.6164003061671388</v>
+      </c>
+    </row>
+    <row r="20" spans="2:79" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>1</v>
       </c>
@@ -8322,43 +8441,42 @@
       <c r="L20" s="5">
         <v>593.928</v>
       </c>
-      <c r="M20" s="119">
+      <c r="M20" s="5">
+        <v>597.779</v>
+      </c>
+      <c r="N20" s="119">
         <f>L20</f>
         <v>593.928</v>
       </c>
-      <c r="N20" s="5">
-        <f>M20</f>
+      <c r="O20" s="5">
+        <f>N20</f>
         <v>593.928</v>
       </c>
-      <c r="O20" s="5"/>
-      <c r="Q20" s="73">
+      <c r="P20" s="5"/>
+      <c r="R20" s="73">
         <v>581.53499999999997</v>
       </c>
-      <c r="R20" s="188">
+      <c r="S20" s="188">
         <v>581.53499999999997</v>
       </c>
-      <c r="V20" s="9">
+      <c r="W20" s="9">
         <f>AVERAGE(C20:F20)</f>
         <v>182.12025000000003</v>
       </c>
-      <c r="W20" s="9">
+      <c r="X20" s="9">
         <f>AVERAGE(G20:J20)</f>
         <v>504.96024999999997</v>
       </c>
-      <c r="X20" s="133">
-        <f>N20</f>
+      <c r="Y20" s="133">
+        <f>O20</f>
         <v>593.928</v>
       </c>
-      <c r="Y20" s="35">
-        <f>X20</f>
+      <c r="Z20" s="35">
+        <f>Y20</f>
         <v>593.928</v>
       </c>
-      <c r="Z20" s="35">
-        <f t="shared" ref="Z20:AK20" si="57">Y20</f>
-        <v>593.928</v>
-      </c>
       <c r="AA20" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="AA20:AL20" si="57">Z20</f>
         <v>593.928</v>
       </c>
       <c r="AB20" s="35">
@@ -8402,32 +8520,36 @@
         <v>593.928</v>
       </c>
       <c r="AL20" s="35">
-        <f t="shared" ref="AL20:AM20" si="58">AK20</f>
+        <f t="shared" si="57"/>
         <v>593.928</v>
       </c>
       <c r="AM20" s="35">
+        <f t="shared" ref="AM20:AN20" si="58">AL20</f>
+        <v>593.928</v>
+      </c>
+      <c r="AN20" s="35">
         <f t="shared" si="58"/>
         <v>593.928</v>
       </c>
     </row>
-    <row r="21" spans="2:78" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:79" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="M21" s="125"/>
-      <c r="O21" s="7"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="194"/>
-      <c r="X21" s="134"/>
-      <c r="AO21" s="145" t="s">
+      <c r="N21" s="125"/>
+      <c r="P21" s="7"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="194"/>
+      <c r="Y21" s="134"/>
+      <c r="AP21" s="145" t="s">
         <v>118</v>
       </c>
-      <c r="AP21" s="139">
+      <c r="AQ21" s="139">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="22" spans="2:78" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:79" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>16</v>
       </c>
@@ -8468,41 +8590,41 @@
         <v>0.74748945328353822</v>
       </c>
       <c r="L22" s="10">
-        <f t="shared" ref="L22" si="60">L5/L3</f>
+        <f t="shared" ref="L22:M22" si="60">L5/L3</f>
         <v>0.75785638532696664</v>
       </c>
-      <c r="M22" s="126">
-        <f t="shared" ref="M22" si="61">M5/M3</f>
+      <c r="M22" s="10">
+        <f t="shared" si="60"/>
+        <v>0.75577498469211346</v>
+      </c>
+      <c r="N22" s="126">
+        <f t="shared" ref="N22" si="61">N5/N3</f>
         <v>0.74</v>
       </c>
-      <c r="N22" s="10">
-        <f t="shared" ref="N22" si="62">N5/N3</f>
+      <c r="O22" s="10">
+        <f t="shared" ref="O22" si="62">O5/O3</f>
         <v>0.74</v>
       </c>
-      <c r="O22" s="10"/>
-      <c r="Q22" s="80">
-        <f>Q5/Q3</f>
+      <c r="P22" s="10"/>
+      <c r="R22" s="80">
+        <f>R5/R3</f>
         <v>0.73</v>
       </c>
-      <c r="R22" s="195">
-        <f>R5/R3</f>
+      <c r="S22" s="195">
+        <f>S5/S3</f>
         <v>0.74</v>
-      </c>
-      <c r="V22" s="10">
-        <f>V5/V3</f>
-        <v>0.74033781260654741</v>
       </c>
       <c r="W22" s="10">
         <f>W5/W3</f>
+        <v>0.74033781260654741</v>
+      </c>
+      <c r="X22" s="10">
+        <f>X5/X3</f>
         <v>0.74110310596030293</v>
       </c>
-      <c r="X22" s="126">
-        <f t="shared" ref="X22:AK22" si="63">X5/X3</f>
-        <v>0.7460269058844663</v>
-      </c>
-      <c r="Y22" s="10">
-        <f t="shared" si="63"/>
-        <v>0.73</v>
+      <c r="Y22" s="126">
+        <f t="shared" ref="Y22:AL22" si="63">Y5/Y3</f>
+        <v>0.7477453220506991</v>
       </c>
       <c r="Z22" s="10">
         <f t="shared" si="63"/>
@@ -8550,25 +8672,29 @@
       </c>
       <c r="AK22" s="10">
         <f t="shared" si="63"/>
-        <v>0.73000000000000009</v>
+        <v>0.73</v>
       </c>
       <c r="AL22" s="10">
-        <f t="shared" ref="AL22:AM22" si="64">AL5/AL3</f>
+        <f t="shared" si="63"/>
         <v>0.73</v>
       </c>
       <c r="AM22" s="10">
+        <f t="shared" ref="AM22:AN22" si="64">AM5/AM3</f>
+        <v>0.73</v>
+      </c>
+      <c r="AN22" s="10">
         <f t="shared" si="64"/>
-        <v>0.73</v>
-      </c>
-      <c r="AO22" s="146" t="s">
+        <v>0.72999999999999987</v>
+      </c>
+      <c r="AP22" s="146" t="s">
         <v>114</v>
       </c>
-      <c r="AP22" s="140">
+      <c r="AQ22" s="140">
         <v>0.06</v>
       </c>
-      <c r="AR22" s="68"/>
-    </row>
-    <row r="23" spans="2:78" ht="15" x14ac:dyDescent="0.25">
+      <c r="AS22" s="68"/>
+    </row>
+    <row r="23" spans="2:79" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>24</v>
       </c>
@@ -8612,406 +8738,418 @@
         <f t="shared" si="66"/>
         <v>-0.2879989580637578</v>
       </c>
-      <c r="M23" s="127">
+      <c r="M23" s="14">
         <f t="shared" ref="M23" si="67">M12/M3</f>
+        <v>-0.5794918747476856</v>
+      </c>
+      <c r="N23" s="127">
+        <f t="shared" ref="N23" si="68">N12/N3</f>
         <v>-0.20020035171753023</v>
       </c>
-      <c r="N23" s="14">
-        <f t="shared" ref="N23" si="68">N12/N3</f>
+      <c r="O23" s="14">
+        <f t="shared" ref="O23" si="69">O12/O3</f>
         <v>-0.2768540716174237</v>
       </c>
-      <c r="O23" s="14"/>
-      <c r="Q23" s="81">
-        <f>Q12/Q3</f>
+      <c r="P23" s="14"/>
+      <c r="R23" s="81">
+        <f>R12/R3</f>
         <v>-0.17383762059111754</v>
       </c>
-      <c r="R23" s="196">
-        <f>R12/R3</f>
+      <c r="S23" s="196">
+        <f>S12/S3</f>
         <v>-0.31959466683854248</v>
-      </c>
-      <c r="V23" s="14">
-        <f>V12/V3</f>
-        <v>-0.28806290826239189</v>
       </c>
       <c r="W23" s="14">
         <f>W12/W3</f>
+        <v>-0.28806290826239189</v>
+      </c>
+      <c r="X23" s="14">
+        <f>X12/X3</f>
         <v>-0.25797358352338834</v>
       </c>
-      <c r="X23" s="127">
-        <f t="shared" ref="X23:AK23" si="69">X12/X3</f>
-        <v>-0.26060381349033462</v>
-      </c>
-      <c r="Y23" s="14">
-        <f t="shared" si="69"/>
-        <v>-0.1587261799600222</v>
+      <c r="Y23" s="127">
+        <f t="shared" ref="Y23:AL23" si="70">Y12/Y3</f>
+        <v>-0.31681821332196097</v>
       </c>
       <c r="Z23" s="14">
-        <f t="shared" si="69"/>
-        <v>-5.5123097879905568E-2</v>
+        <f t="shared" si="70"/>
+        <v>-0.20976612670735351</v>
       </c>
       <c r="AA23" s="14">
-        <f t="shared" si="69"/>
-        <v>3.597122941055101E-2</v>
+        <f t="shared" si="70"/>
+        <v>-0.10011699165121818</v>
       </c>
       <c r="AB23" s="14">
-        <f t="shared" si="69"/>
-        <v>0.11611766810813459</v>
+        <f t="shared" si="70"/>
+        <v>-3.7164314545487655E-3</v>
       </c>
       <c r="AC23" s="14">
-        <f t="shared" si="69"/>
-        <v>0.1866761464909838</v>
+        <f t="shared" si="70"/>
+        <v>8.1089555946086814E-2</v>
       </c>
       <c r="AD23" s="14">
-        <f t="shared" si="69"/>
-        <v>0.24883231171446732</v>
+        <f t="shared" si="70"/>
+        <v>0.15574201146305089</v>
       </c>
       <c r="AE23" s="14">
-        <f t="shared" si="69"/>
-        <v>0.30362054451226472</v>
+        <f t="shared" si="70"/>
+        <v>0.22149725983973956</v>
       </c>
       <c r="AF23" s="14">
-        <f t="shared" si="69"/>
-        <v>0.35194384413529128</v>
+        <f t="shared" si="70"/>
+        <v>0.27945129809559227</v>
       </c>
       <c r="AG23" s="14">
-        <f t="shared" si="69"/>
-        <v>0.39459102169407045</v>
+        <f t="shared" si="70"/>
+        <v>0.33056086936008772</v>
       </c>
       <c r="AH23" s="14">
-        <f t="shared" si="69"/>
-        <v>0.43225157694175675</v>
+        <f t="shared" si="70"/>
+        <v>0.3756616856789356</v>
       </c>
       <c r="AI23" s="14">
-        <f t="shared" si="69"/>
-        <v>0.4655285797588718</v>
+        <f t="shared" si="70"/>
+        <v>0.41548419667427805</v>
       </c>
       <c r="AJ23" s="14">
-        <f t="shared" si="69"/>
-        <v>0.49494983175440321</v>
+        <f t="shared" si="70"/>
+        <v>0.45066724410535852</v>
       </c>
       <c r="AK23" s="14">
-        <f t="shared" si="69"/>
-        <v>0.52097754428032961</v>
+        <f t="shared" si="70"/>
+        <v>0.4817698939086475</v>
       </c>
       <c r="AL23" s="14">
-        <f t="shared" ref="AL23:AM23" si="70">AL12/AL3</f>
-        <v>0.54401673575342113</v>
+        <f t="shared" si="70"/>
+        <v>0.50928169593174466</v>
       </c>
       <c r="AM23" s="14">
-        <f t="shared" si="70"/>
-        <v>0.56442252263163561</v>
-      </c>
-      <c r="AO23" s="146" t="s">
+        <f t="shared" ref="AM23:AN23" si="71">AM12/AM3</f>
+        <v>0.53363158624442419</v>
+      </c>
+      <c r="AN23" s="14">
+        <f t="shared" si="71"/>
+        <v>0.55519561670887108</v>
+      </c>
+      <c r="AP23" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="AP23" s="141">
-        <f>NPV(AP22,X18:BZ18)</f>
-        <v>82186.236313802889</v>
-      </c>
-      <c r="AR23" s="69"/>
-    </row>
-    <row r="24" spans="2:78" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ23" s="141">
+        <f>NPV(AQ22,Y18:CA18)</f>
+        <v>96813.135439722959</v>
+      </c>
+      <c r="AS23" s="69"/>
+    </row>
+    <row r="24" spans="2:79" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="10">
-        <f t="shared" ref="C24:J24" si="71">C18/C3</f>
+        <f t="shared" ref="C24:J24" si="72">C18/C3</f>
         <v>-0.4634338057807762</v>
       </c>
       <c r="D24" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>-0.36060820791249149</v>
       </c>
       <c r="E24" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>-0.1985360083202998</v>
       </c>
       <c r="F24" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>-0.19527497588779671</v>
       </c>
       <c r="G24" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>-0.35170914992144231</v>
       </c>
       <c r="H24" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>-0.3147764809513322</v>
       </c>
       <c r="I24" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>-0.15155025366359329</v>
       </c>
       <c r="J24" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>-0.2589047574674429</v>
       </c>
       <c r="K24" s="10">
-        <f t="shared" ref="K24:L24" si="72">K18/K3</f>
+        <f t="shared" ref="K24:L24" si="73">K18/K3</f>
         <v>-0.30161188828113661</v>
       </c>
       <c r="L24" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>-0.30326095597650232</v>
       </c>
-      <c r="M24" s="126">
-        <f t="shared" ref="M24" si="73">M18/M3</f>
+      <c r="M24" s="10">
+        <f t="shared" ref="M24" si="74">M18/M3</f>
+        <v>-0.5831522463478378</v>
+      </c>
+      <c r="N24" s="126">
+        <f t="shared" ref="N24" si="75">N18/N3</f>
         <v>-0.20180364211915114</v>
       </c>
-      <c r="N24" s="10">
-        <f t="shared" ref="N24" si="74">N18/N3</f>
+      <c r="O24" s="10">
+        <f t="shared" ref="O24" si="76">O18/O3</f>
         <v>-0.28790946643691445</v>
       </c>
-      <c r="O24" s="10"/>
-      <c r="Q24" s="80">
-        <f>Q18/Q3</f>
+      <c r="P24" s="10"/>
+      <c r="R24" s="80">
+        <f>R18/R3</f>
         <v>-0.17647480466999524</v>
       </c>
-      <c r="R24" s="195">
-        <f>R18/R3</f>
+      <c r="S24" s="195">
+        <f>S18/S3</f>
         <v>-0.32004473066532035</v>
-      </c>
-      <c r="V24" s="10">
-        <f>V18/V3</f>
-        <v>-0.28230353344842696</v>
       </c>
       <c r="W24" s="10">
         <f>W18/W3</f>
+        <v>-0.28230353344842696</v>
+      </c>
+      <c r="X24" s="10">
+        <f>X18/X3</f>
         <v>-0.26235357686429783</v>
       </c>
-      <c r="X24" s="126">
-        <f t="shared" ref="X24:AK24" si="75">X18/X3</f>
-        <v>-0.27205351828783264</v>
-      </c>
-      <c r="Y24" s="10">
-        <f t="shared" si="75"/>
-        <v>-0.16869793911532505</v>
+      <c r="Y24" s="126">
+        <f t="shared" ref="Y24:AL24" si="77">Y18/Y3</f>
+        <v>-0.32689479461947324</v>
       </c>
       <c r="Z24" s="10">
-        <f t="shared" si="75"/>
-        <v>-6.3807773725310032E-2</v>
+        <f t="shared" si="77"/>
+        <v>-0.21851089948628816</v>
       </c>
       <c r="AA24" s="10">
-        <f t="shared" si="75"/>
-        <v>2.840743339265861E-2</v>
+        <f t="shared" si="77"/>
+        <v>-0.1077058274570583</v>
       </c>
       <c r="AB24" s="10">
-        <f t="shared" si="75"/>
-        <v>0.10953002008367375</v>
+        <f t="shared" si="77"/>
+        <v>-1.0301995675100649E-2</v>
       </c>
       <c r="AC24" s="10">
-        <f t="shared" si="75"/>
-        <v>0.18093861119264776</v>
+        <f t="shared" si="77"/>
+        <v>7.5374744297079965E-2</v>
       </c>
       <c r="AD24" s="10">
-        <f t="shared" si="75"/>
-        <v>0.24383513417022457</v>
+        <f t="shared" si="77"/>
+        <v>0.1507829231261357</v>
       </c>
       <c r="AE24" s="10">
-        <f t="shared" si="75"/>
-        <v>0.29926814617242153</v>
+        <f t="shared" si="77"/>
+        <v>0.21719404876570883</v>
       </c>
       <c r="AF24" s="10">
-        <f t="shared" si="75"/>
-        <v>0.3481529909921765</v>
+        <f t="shared" si="77"/>
+        <v>0.27571729887552332</v>
       </c>
       <c r="AG24" s="10">
-        <f t="shared" si="75"/>
-        <v>0.39128922921655168</v>
+        <f t="shared" si="77"/>
+        <v>0.32732085859535404</v>
       </c>
       <c r="AH24" s="10">
-        <f t="shared" si="75"/>
-        <v>0.42937572119822048</v>
+        <f t="shared" si="77"/>
+        <v>0.37285037252650188</v>
       </c>
       <c r="AI24" s="10">
-        <f t="shared" si="75"/>
-        <v>0.46302368806462979</v>
+        <f t="shared" si="77"/>
+        <v>0.41304491237881624</v>
       </c>
       <c r="AJ24" s="10">
-        <f t="shared" si="75"/>
-        <v>0.49276802962898991</v>
+        <f t="shared" si="77"/>
+        <v>0.44855080430390115</v>
       </c>
       <c r="AK24" s="10">
-        <f t="shared" si="75"/>
-        <v>0.51907713850323445</v>
+        <f t="shared" si="77"/>
+        <v>0.47993361094479137</v>
       </c>
       <c r="AL24" s="10">
-        <f t="shared" ref="AL24:AM24" si="76">AL18/AL3</f>
-        <v>0.54236141592124598</v>
+        <f t="shared" si="77"/>
+        <v>0.50768852141358378</v>
       </c>
       <c r="AM24" s="10">
-        <f t="shared" si="76"/>
-        <v>0.56298066589579676</v>
-      </c>
-      <c r="AO24" s="146" t="s">
+        <f t="shared" ref="AM24:AN24" si="78">AM18/AM3</f>
+        <v>0.53224936668316147</v>
+      </c>
+      <c r="AN24" s="10">
+        <f t="shared" si="78"/>
+        <v>0.5539964473352893</v>
+      </c>
+      <c r="AP24" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="AP24" s="141">
+      <c r="AQ24" s="141">
         <f>Main!C11</f>
-        <v>2087.13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:78" ht="15" x14ac:dyDescent="0.25">
+        <v>2032.8440000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:79" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="10">
-        <f t="shared" ref="C25:J25" si="77">C17/C16</f>
+        <f t="shared" ref="C25:J25" si="79">C17/C16</f>
         <v>-1.3355414284951119E-5</v>
       </c>
       <c r="D25" s="10">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>-6.9196490354009248E-5</v>
       </c>
       <c r="E25" s="10">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>-3.8003800380038001E-4</v>
       </c>
       <c r="F25" s="10">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>9.9393019726858919E-2</v>
       </c>
       <c r="G25" s="10">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>-1.4694969177302145E-5</v>
       </c>
       <c r="H25" s="10">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>-1.3993842709207952E-4</v>
       </c>
       <c r="I25" s="10">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1.2764107024095776E-2</v>
       </c>
       <c r="J25" s="10">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>-4.4747307317139712E-3</v>
       </c>
       <c r="K25" s="10">
-        <f t="shared" ref="K25:L25" si="78">K17/K16</f>
+        <f t="shared" ref="K25:L25" si="80">K17/K16</f>
         <v>-1.7065479502875161E-3</v>
       </c>
       <c r="L25" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>-1.5529685160771344E-3</v>
       </c>
-      <c r="M25" s="126">
-        <f t="shared" ref="M25" si="79">M17/M16</f>
+      <c r="M25" s="10">
+        <f t="shared" ref="M25" si="81">M17/M16</f>
+        <v>-1.1673022715967497E-3</v>
+      </c>
+      <c r="N25" s="126">
+        <f t="shared" ref="N25" si="82">N17/N16</f>
         <v>-2.1744084525061108E-3</v>
       </c>
-      <c r="N25" s="10">
-        <f t="shared" ref="N25" si="80">N17/N16</f>
+      <c r="O25" s="10">
+        <f t="shared" ref="O25" si="83">O17/O16</f>
         <v>-1.4899241129685606E-3</v>
       </c>
-      <c r="O25" s="10"/>
-      <c r="Q25" s="80">
-        <f>Q17/Q16</f>
+      <c r="P25" s="10"/>
+      <c r="R25" s="80">
+        <f>R17/R16</f>
         <v>-5.8143950486894873E-3</v>
       </c>
-      <c r="R25" s="195">
-        <f>R17/R16</f>
+      <c r="S25" s="195">
+        <f>S17/S16</f>
         <v>-1.554111834331342E-3</v>
-      </c>
-      <c r="V25" s="10">
-        <f>V17/V16</f>
-        <v>2.4884847759765513E-2</v>
       </c>
       <c r="W25" s="10">
         <f>W17/W16</f>
+        <v>2.4884847759765513E-2</v>
+      </c>
+      <c r="X25" s="10">
+        <f>X17/X16</f>
         <v>6.3514243069008223E-4</v>
       </c>
-      <c r="X25" s="126">
-        <f t="shared" ref="X25:AK25" si="81">X17/X16</f>
-        <v>-1.6939267782585547E-3</v>
-      </c>
-      <c r="Y25" s="10">
-        <f t="shared" si="81"/>
-        <v>-2.3770451712376026E-3</v>
+      <c r="Y25" s="126">
+        <f t="shared" ref="Y25:AL25" si="84">Y17/Y16</f>
+        <v>-1.5282579191833647E-3</v>
       </c>
       <c r="Z25" s="10">
-        <f t="shared" si="81"/>
-        <v>-5.481745352011673E-3</v>
+        <f t="shared" si="84"/>
+        <v>-1.9889939342123404E-3</v>
       </c>
       <c r="AA25" s="10">
-        <f t="shared" si="81"/>
-        <v>1.0536303835544672E-2</v>
+        <f t="shared" si="84"/>
+        <v>-3.5142293804961201E-3</v>
       </c>
       <c r="AB25" s="10">
-        <f t="shared" si="81"/>
-        <v>2.395784146168927E-3</v>
+        <f t="shared" si="84"/>
+        <v>-3.2883489993555441E-2</v>
       </c>
       <c r="AC25" s="10">
-        <f t="shared" si="81"/>
-        <v>1.2625390660653717E-3</v>
+        <f t="shared" si="84"/>
+        <v>3.7695028139283315E-3</v>
       </c>
       <c r="AD25" s="10">
-        <f t="shared" si="81"/>
-        <v>8.1503546076654306E-4</v>
+        <f t="shared" si="84"/>
+        <v>1.642049984504952E-3</v>
       </c>
       <c r="AE25" s="10">
-        <f t="shared" si="81"/>
-        <v>5.7758731715906351E-4</v>
+        <f t="shared" si="84"/>
+        <v>9.9191736042830193E-4</v>
       </c>
       <c r="AF25" s="10">
-        <f t="shared" si="81"/>
-        <v>4.3179093576665919E-4</v>
+        <f t="shared" si="84"/>
+        <v>6.7966871240140992E-4</v>
       </c>
       <c r="AG25" s="10">
-        <f t="shared" si="81"/>
-        <v>3.3411067844713683E-4</v>
+        <f t="shared" si="84"/>
+        <v>4.9793051903717549E-4</v>
       </c>
       <c r="AH25" s="10">
-        <f t="shared" si="81"/>
-        <v>2.6477869969960773E-4</v>
+        <f t="shared" si="84"/>
+        <v>3.8015541174558123E-4</v>
       </c>
       <c r="AI25" s="10">
-        <f t="shared" si="81"/>
-        <v>2.1352156537811235E-4</v>
+        <f t="shared" si="84"/>
+        <v>2.9842564965046564E-4</v>
       </c>
       <c r="AJ25" s="10">
-        <f t="shared" si="81"/>
-        <v>1.7447031848691059E-4</v>
+        <f t="shared" si="84"/>
+        <v>2.3897351508632246E-4</v>
       </c>
       <c r="AK25" s="10">
-        <f t="shared" si="81"/>
-        <v>1.4402820825892962E-4</v>
+        <f t="shared" si="84"/>
+        <v>1.9422353050687892E-4</v>
       </c>
       <c r="AL25" s="10">
-        <f t="shared" ref="AL25:AM25" si="82">AL17/AL16</f>
-        <v>1.198680189041745E-4</v>
+        <f t="shared" si="84"/>
+        <v>1.5966246781396932E-4</v>
       </c>
       <c r="AM25" s="10">
-        <f t="shared" si="82"/>
-        <v>1.0041746208594997E-4</v>
-      </c>
-      <c r="AO25" s="146" t="s">
+        <f t="shared" ref="AM25:AN25" si="85">AM17/AM16</f>
+        <v>1.3243385322283255E-4</v>
+      </c>
+      <c r="AN25" s="10">
+        <f t="shared" si="85"/>
+        <v>1.1064169333643788E-4</v>
+      </c>
+      <c r="AP25" s="146" t="s">
         <v>116</v>
       </c>
-      <c r="AP25" s="141">
-        <f>AP23+AP24</f>
-        <v>84273.366313802893</v>
-      </c>
-    </row>
-    <row r="26" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="AQ25" s="141">
+        <f>AQ23+AQ24</f>
+        <v>98845.979439722956</v>
+      </c>
+    </row>
+    <row r="26" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="M26" s="125"/>
-      <c r="O26" s="7"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="194"/>
-      <c r="V26" s="7"/>
+      <c r="N26" s="125"/>
+      <c r="P26" s="7"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="194"/>
       <c r="W26" s="7"/>
-      <c r="X26" s="134"/>
-      <c r="AO26" s="40" t="s">
+      <c r="X26" s="7"/>
+      <c r="Y26" s="134"/>
+      <c r="AP26" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="AP26" s="142">
-        <f>AP25/Main!C7</f>
-        <v>141.89155303976727</v>
-      </c>
-      <c r="AQ26" s="68"/>
-      <c r="AS26" s="9"/>
-    </row>
-    <row r="27" spans="2:78" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ26" s="142">
+        <f>AQ25/Main!C7</f>
+        <v>165.35538960004109</v>
+      </c>
+      <c r="AR26" s="68"/>
+      <c r="AT26" s="9"/>
+    </row>
+    <row r="27" spans="2:79" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
         <v>56</v>
       </c>
@@ -9019,70 +9157,74 @@
         <v>33</v>
       </c>
       <c r="D27" s="10">
-        <f t="shared" ref="D27:L27" si="83">D3/C3-1</f>
+        <f t="shared" ref="D27:L27" si="86">D3/C3-1</f>
         <v>0.24027975490499487</v>
       </c>
       <c r="E27" s="10">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>0.25710607209868663</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>0.23061441603086785</v>
       </c>
       <c r="G27" s="10">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>0.24827343722279016</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>0.17345778549574131</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>0.12163840563752482</v>
       </c>
       <c r="J27" s="10">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>0.11668721629729695</v>
       </c>
       <c r="K27" s="10">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>-5.5620119943245783E-2</v>
       </c>
       <c r="L27" s="10">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>0.10066947912438984</v>
       </c>
-      <c r="M27" s="126">
-        <f t="shared" ref="M27:N27" si="84">M3/L3-1</f>
+      <c r="M27" s="10">
+        <f t="shared" ref="M27" si="87">M3/L3-1</f>
+        <v>-0.12432193800141067</v>
+      </c>
+      <c r="N27" s="126">
+        <f>N3/L3-1</f>
         <v>7.6898615882423638E-2</v>
       </c>
-      <c r="N27" s="10">
-        <f t="shared" si="84"/>
+      <c r="O27" s="10">
+        <f t="shared" ref="O27" si="88">O3/N3-1</f>
         <v>2.7352238993513023E-2</v>
       </c>
-      <c r="O27" s="10"/>
-      <c r="Q27" s="80">
-        <f>Q3/J3-1</f>
+      <c r="P27" s="10"/>
+      <c r="R27" s="80">
+        <f>R3/J3-1</f>
         <v>0.13622563817648281</v>
       </c>
-      <c r="R27" s="195">
-        <f>R3/K3-1</f>
+      <c r="S27" s="195">
+        <f>S3/K3-1</f>
         <v>3.9857838081372554E-2</v>
       </c>
-      <c r="V27" s="10"/>
       <c r="W27" s="10"/>
-      <c r="X27" s="134"/>
-      <c r="AO27" s="147" t="s">
+      <c r="X27" s="10"/>
+      <c r="Y27" s="134"/>
+      <c r="AP27" s="147" t="s">
         <v>121</v>
       </c>
-      <c r="AP27" s="143">
+      <c r="AQ27" s="143">
         <f>Main!C6</f>
-        <v>46.5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>31.68</v>
+      </c>
+    </row>
+    <row r="28" spans="2:79" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
@@ -9099,124 +9241,128 @@
         <v>33</v>
       </c>
       <c r="G28" s="13">
-        <f t="shared" ref="G28:L28" si="85">G3/C3-1</f>
+        <f t="shared" ref="G28:L28" si="89">G3/C3-1</f>
         <v>1.3950980998947826</v>
       </c>
       <c r="H28" s="13">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v>1.2660585252904308</v>
       </c>
       <c r="I28" s="13">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v>1.0218646045872801</v>
       </c>
       <c r="J28" s="13">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v>0.83468544461612404</v>
       </c>
       <c r="K28" s="13">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v>0.38802923178698423</v>
       </c>
       <c r="L28" s="13">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v>0.3019312926668134</v>
       </c>
-      <c r="M28" s="128">
-        <f>M3/I3-1</f>
+      <c r="M28" s="13">
+        <f t="shared" ref="M28" si="90">M3/I3-1</f>
+        <v>1.6435123376317362E-2</v>
+      </c>
+      <c r="N28" s="128">
+        <f>N3/I3-1</f>
         <v>0.25000000000000022</v>
       </c>
-      <c r="N28" s="13">
-        <f>N3/J3-1</f>
+      <c r="O28" s="13">
+        <f>O3/J3-1</f>
         <v>0.14999999999999991</v>
       </c>
-      <c r="O28" s="13"/>
-      <c r="Q28" s="82">
-        <f>Q3/G3-1</f>
+      <c r="P28" s="13"/>
+      <c r="R28" s="82">
+        <f>R3/G3-1</f>
         <v>0.66999999999999993</v>
       </c>
-      <c r="R28" s="197">
-        <f>R3/H3-1</f>
+      <c r="S28" s="197">
+        <f>S3/H3-1</f>
         <v>0.22999999999999998</v>
       </c>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13">
-        <f>W3/V3-1</f>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13">
+        <f>X3/W3-1</f>
         <v>1.0772942519902369</v>
       </c>
-      <c r="X28" s="128">
-        <f t="shared" ref="X28:AK28" si="86">X3/W3-1</f>
-        <v>0.26048316964371776</v>
-      </c>
-      <c r="Y28" s="13">
-        <f t="shared" si="86"/>
+      <c r="Y28" s="128">
+        <f t="shared" ref="Y28:AL28" si="91">Y3/X3-1</f>
+        <v>0.53023729913958073</v>
+      </c>
+      <c r="Z28" s="13">
+        <f t="shared" si="91"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="Z28" s="13">
-        <f t="shared" si="86"/>
+      <c r="AA28" s="13">
+        <f t="shared" si="91"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AA28" s="13">
-        <f t="shared" si="86"/>
+      <c r="AB28" s="13">
+        <f t="shared" si="91"/>
+        <v>0.15000000000000013</v>
+      </c>
+      <c r="AC28" s="13">
+        <f t="shared" si="91"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AB28" s="13">
-        <f t="shared" si="86"/>
+      <c r="AD28" s="13">
+        <f t="shared" si="91"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AC28" s="13">
-        <f t="shared" si="86"/>
+      <c r="AE28" s="13">
+        <f t="shared" si="91"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AD28" s="13">
-        <f t="shared" si="86"/>
+      <c r="AF28" s="13">
+        <f t="shared" si="91"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AE28" s="13">
-        <f t="shared" si="86"/>
+      <c r="AG28" s="13">
+        <f t="shared" si="91"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AF28" s="13">
-        <f t="shared" si="86"/>
+      <c r="AH28" s="13">
+        <f t="shared" si="91"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AG28" s="13">
-        <f t="shared" si="86"/>
+      <c r="AI28" s="13">
+        <f t="shared" si="91"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AH28" s="13">
-        <f t="shared" si="86"/>
+      <c r="AJ28" s="13">
+        <f t="shared" si="91"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AI28" s="13">
-        <f t="shared" si="86"/>
+      <c r="AK28" s="13">
+        <f t="shared" si="91"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AJ28" s="13">
-        <f t="shared" si="86"/>
+      <c r="AL28" s="13">
+        <f t="shared" si="91"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AK28" s="13">
-        <f t="shared" si="86"/>
+      <c r="AM28" s="13">
+        <f t="shared" ref="AM28:AN28" si="92">AM3/AL3-1</f>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AL28" s="13">
-        <f t="shared" ref="AL28:AM28" si="87">AL3/AK3-1</f>
+      <c r="AN28" s="13">
+        <f t="shared" si="92"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AM28" s="13">
-        <f t="shared" si="87"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AO28" s="148" t="s">
+      <c r="AP28" s="148" t="s">
         <v>120</v>
       </c>
-      <c r="AP28" s="144">
-        <f>AP26/AP27-1</f>
-        <v>2.051431248167038</v>
-      </c>
-    </row>
-    <row r="29" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ28" s="144">
+        <f>AQ26/AQ27-1</f>
+        <v>4.2195514393952367</v>
+      </c>
+    </row>
+    <row r="29" spans="2:79" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -9227,15 +9373,15 @@
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
-      <c r="M29" s="225"/>
-      <c r="N29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="224"/>
       <c r="O29" s="13"/>
-      <c r="Q29" s="82"/>
-      <c r="R29" s="197"/>
-      <c r="V29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="R29" s="82"/>
+      <c r="S29" s="197"/>
       <c r="W29" s="13"/>
-      <c r="X29" s="128"/>
-      <c r="Y29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="128"/>
       <c r="Z29" s="13"/>
       <c r="AA29" s="13"/>
       <c r="AB29" s="13"/>
@@ -9250,83 +9396,88 @@
       <c r="AK29" s="13"/>
       <c r="AL29" s="13"/>
       <c r="AM29" s="13"/>
-    </row>
-    <row r="30" spans="2:78" s="218" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="218" t="s">
-        <v>218</v>
+      <c r="AN29" s="13"/>
+    </row>
+    <row r="30" spans="2:79" s="217" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30" s="217" t="s">
+        <v>217</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="219">
-        <f t="shared" ref="D30:K30" si="88">D8/C8-1</f>
+      <c r="D30" s="218">
+        <f t="shared" ref="D30:K30" si="93">D8/C8-1</f>
         <v>-0.18539132546702008</v>
       </c>
-      <c r="E30" s="219">
-        <f t="shared" si="88"/>
+      <c r="E30" s="218">
+        <f t="shared" si="93"/>
         <v>0.28470272553355347</v>
       </c>
-      <c r="F30" s="219">
-        <f t="shared" si="88"/>
+      <c r="F30" s="218">
+        <f t="shared" si="93"/>
         <v>0.16165777055774733</v>
       </c>
-      <c r="G30" s="219">
-        <f t="shared" si="88"/>
+      <c r="G30" s="218">
+        <f t="shared" si="93"/>
         <v>0.60893668736577489</v>
       </c>
-      <c r="H30" s="219">
-        <f t="shared" si="88"/>
+      <c r="H30" s="218">
+        <f t="shared" si="93"/>
         <v>0.29079922188651119</v>
       </c>
-      <c r="I30" s="219">
-        <f t="shared" si="88"/>
+      <c r="I30" s="218">
+        <f t="shared" si="93"/>
         <v>0.10819411934459877</v>
       </c>
-      <c r="J30" s="219">
-        <f t="shared" si="88"/>
+      <c r="J30" s="218">
+        <f t="shared" si="93"/>
         <v>0.25552461210170341</v>
       </c>
-      <c r="K30" s="219">
-        <f t="shared" si="88"/>
+      <c r="K30" s="218">
+        <f t="shared" si="93"/>
         <v>2.4151639108140888E-2</v>
       </c>
-      <c r="L30" s="219">
+      <c r="L30" s="218">
         <f>L8/K8-1</f>
         <v>0.19123884744771091</v>
       </c>
-      <c r="M30" s="226">
-        <f t="shared" ref="M30:N30" si="89">M8/L8-1</f>
+      <c r="M30" s="218">
+        <f t="shared" ref="M30" si="94">M8/L8-1</f>
+        <v>0.11236464438011495</v>
+      </c>
+      <c r="N30" s="225">
+        <f>N8/L8-1</f>
         <v>-0.14026981054699483</v>
       </c>
-      <c r="N30" s="223">
-        <f t="shared" si="89"/>
+      <c r="O30" s="222">
+        <f t="shared" ref="O30" si="95">O8/N8-1</f>
         <v>1.2000000000000011E-2</v>
       </c>
-      <c r="O30" s="219"/>
-      <c r="Q30" s="221"/>
-      <c r="R30" s="222"/>
-      <c r="V30" s="219"/>
-      <c r="W30" s="219"/>
-      <c r="X30" s="220"/>
+      <c r="P30" s="218"/>
+      <c r="R30" s="220"/>
+      <c r="S30" s="221"/>
+      <c r="W30" s="218"/>
+      <c r="X30" s="218"/>
       <c r="Y30" s="219"/>
-      <c r="Z30" s="219"/>
-      <c r="AA30" s="219"/>
-      <c r="AB30" s="219"/>
-      <c r="AC30" s="219"/>
-      <c r="AD30" s="219"/>
-      <c r="AE30" s="219"/>
-      <c r="AF30" s="219"/>
-      <c r="AG30" s="219"/>
-      <c r="AH30" s="219"/>
-      <c r="AI30" s="219"/>
-      <c r="AJ30" s="219"/>
-      <c r="AK30" s="219"/>
-      <c r="AL30" s="219"/>
-      <c r="AM30" s="219"/>
-    </row>
-    <row r="31" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="Z30" s="218"/>
+      <c r="AA30" s="218"/>
+      <c r="AB30" s="218"/>
+      <c r="AC30" s="218"/>
+      <c r="AD30" s="218"/>
+      <c r="AE30" s="218"/>
+      <c r="AF30" s="218"/>
+      <c r="AG30" s="218"/>
+      <c r="AH30" s="218"/>
+      <c r="AI30" s="218"/>
+      <c r="AJ30" s="218"/>
+      <c r="AK30" s="218"/>
+      <c r="AL30" s="218"/>
+      <c r="AM30" s="218"/>
+      <c r="AN30" s="218"/>
+    </row>
+    <row r="31" spans="2:79" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>33</v>
@@ -9341,47 +9492,50 @@
         <v>33</v>
       </c>
       <c r="G31" s="13">
-        <f t="shared" ref="G31:K31" si="90">G8/C8-1</f>
+        <f t="shared" ref="G31:K31" si="96">G8/C8-1</f>
         <v>0.95599991904308945</v>
       </c>
       <c r="H31" s="13">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>2.0994061964272404</v>
       </c>
       <c r="I31" s="13">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>1.6735708207627447</v>
       </c>
       <c r="J31" s="13">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>1.8896066059566814</v>
       </c>
       <c r="K31" s="13">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0.83934853689830713</v>
       </c>
       <c r="L31" s="13">
         <f>L8/H8-1</f>
         <v>0.69747811588161723</v>
       </c>
-      <c r="M31" s="225">
-        <f t="shared" ref="M31:N31" si="91">M8/I8-1</f>
+      <c r="M31" s="13">
+        <f t="shared" ref="M31" si="97">M8/I8-1</f>
+        <v>0.70386632427935902</v>
+      </c>
+      <c r="N31" s="224">
+        <f>N8/I8-1</f>
         <v>0.31689309362363915</v>
       </c>
-      <c r="N31" s="224">
-        <f t="shared" si="91"/>
+      <c r="O31" s="223">
+        <f>O8/J8-1</f>
         <v>6.1465301358161195E-2</v>
       </c>
-      <c r="O31" s="13"/>
-      <c r="Q31" s="82"/>
-      <c r="R31" s="197"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13">
-        <f>W8/V8-1</f>
+      <c r="P31" s="13"/>
+      <c r="R31" s="82"/>
+      <c r="S31" s="197"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13">
+        <f>X8/W8-1</f>
         <v>1.6470687523891319</v>
       </c>
-      <c r="X31" s="128"/>
-      <c r="Y31" s="13"/>
+      <c r="Y31" s="128"/>
       <c r="Z31" s="13"/>
       <c r="AA31" s="13"/>
       <c r="AB31" s="13"/>
@@ -9396,8 +9550,9 @@
       <c r="AK31" s="13"/>
       <c r="AL31" s="13"/>
       <c r="AM31" s="13"/>
-    </row>
-    <row r="32" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AN31" s="13"/>
+    </row>
+    <row r="32" spans="2:79" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -9408,12 +9563,12 @@
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
-      <c r="M32" s="128"/>
-      <c r="N32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="128"/>
       <c r="O32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="197"/>
-      <c r="V32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="197"/>
       <c r="W32" s="13"/>
       <c r="X32" s="13"/>
       <c r="Y32" s="13"/>
@@ -9431,10 +9586,11 @@
       <c r="AK32" s="13"/>
       <c r="AL32" s="13"/>
       <c r="AM32" s="13"/>
-      <c r="AO32" s="85"/>
-      <c r="AP32" s="86"/>
-    </row>
-    <row r="33" spans="2:42" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AN32" s="13"/>
+      <c r="AP32" s="85"/>
+      <c r="AQ32" s="86"/>
+    </row>
+    <row r="33" spans="2:43" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>171</v>
       </c>
@@ -9448,12 +9604,12 @@
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
-      <c r="M33" s="128"/>
-      <c r="N33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="128"/>
       <c r="O33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="197"/>
-      <c r="V33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="197"/>
       <c r="W33" s="13"/>
       <c r="X33" s="13"/>
       <c r="Y33" s="13"/>
@@ -9471,9 +9627,10 @@
       <c r="AK33" s="13"/>
       <c r="AL33" s="13"/>
       <c r="AM33" s="13"/>
-      <c r="AO33" s="86"/>
-    </row>
-    <row r="34" spans="2:42" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AN33" s="13"/>
+      <c r="AP33" s="86"/>
+    </row>
+    <row r="34" spans="2:43" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>122</v>
       </c>
@@ -9509,29 +9666,31 @@
       <c r="L34" s="4">
         <v>639.90200000000004</v>
       </c>
-      <c r="M34" s="165">
-        <f>R34*(1+M35)</f>
+      <c r="M34" s="4">
+        <v>701.7</v>
+      </c>
+      <c r="N34" s="165">
+        <f>S34*(1+N35)</f>
         <v>637.53384014999995</v>
       </c>
-      <c r="N34" s="165">
-        <f>M34*(1+N35)</f>
+      <c r="O34" s="165">
+        <f>N34*(1+O35)</f>
         <v>640.7215093507499</v>
       </c>
-      <c r="O34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="198">
-        <f>K34*(1+R35)</f>
+      <c r="P34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="198">
+        <f>K34*(1+S35)</f>
         <v>634.36203</v>
       </c>
-      <c r="V34" s="3">
+      <c r="W34" s="3">
         <f>SUM(C34:F34)</f>
         <v>1882.5429999999999</v>
       </c>
-      <c r="W34" s="3">
+      <c r="X34" s="3">
         <f>SUM(D34:G34)</f>
         <v>2285.2439999999997</v>
       </c>
-      <c r="X34" s="13"/>
       <c r="Y34" s="13"/>
       <c r="Z34" s="13"/>
       <c r="AA34" s="13"/>
@@ -9547,9 +9706,10 @@
       <c r="AK34" s="13"/>
       <c r="AL34" s="13"/>
       <c r="AM34" s="13"/>
-      <c r="AO34" s="86"/>
-    </row>
-    <row r="35" spans="2:42" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AN34" s="13"/>
+      <c r="AP34" s="86"/>
+    </row>
+    <row r="35" spans="2:43" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="87" t="s">
         <v>128</v>
       </c>
@@ -9557,61 +9717,64 @@
         <v>33</v>
       </c>
       <c r="D35" s="135">
-        <f t="shared" ref="D35:L35" si="92">D34/C34-1</f>
+        <f t="shared" ref="D35:L35" si="98">D34/C34-1</f>
         <v>0.98004215148892526</v>
       </c>
       <c r="E35" s="135">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>4.6825896299054204E-3</v>
       </c>
       <c r="F35" s="135">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0.29371682931004939</v>
       </c>
       <c r="G35" s="135">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>1.5515848241739683E-2</v>
       </c>
       <c r="H35" s="135">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>2.0241400509292795E-2</v>
       </c>
       <c r="I35" s="135">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>-4.1544449119432669E-2</v>
       </c>
       <c r="J35" s="135">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0.20739441201693865</v>
       </c>
       <c r="K35" s="135">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>-0.18037542396210438</v>
       </c>
       <c r="L35" s="135">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>1.3776801868169875E-2</v>
       </c>
-      <c r="M35" s="128">
-        <v>5.0000000000000001E-3</v>
+      <c r="M35" s="135">
+        <f t="shared" ref="M35" si="99">M34/L34-1</f>
+        <v>9.6574162918696915E-2</v>
       </c>
       <c r="N35" s="128">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="197">
+      <c r="O35" s="128">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="V35" s="49">
-        <f>R35</f>
+      <c r="P35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="197">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="W35" s="49">
         <f>S35</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="X35" s="49">
+        <f>T35</f>
         <v>0</v>
       </c>
-      <c r="X35" s="13"/>
       <c r="Y35" s="13"/>
       <c r="Z35" s="13"/>
       <c r="AA35" s="13"/>
@@ -9627,10 +9790,11 @@
       <c r="AK35" s="13"/>
       <c r="AL35" s="13"/>
       <c r="AM35" s="13"/>
-      <c r="AO35" s="85"/>
-      <c r="AP35" s="86"/>
-    </row>
-    <row r="36" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="AN35" s="13"/>
+      <c r="AP35" s="85"/>
+      <c r="AQ35" s="86"/>
+    </row>
+    <row r="36" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="87" t="s">
         <v>129</v>
       </c>
@@ -9663,36 +9827,40 @@
         <v>0.19897681964033009</v>
       </c>
       <c r="K36" s="88">
-        <f t="shared" ref="K36:L36" si="93">K34/G34-1</f>
+        <f t="shared" ref="K36:L36" si="100">K34/G34-1</f>
         <v>-3.2303760518920699E-2</v>
       </c>
       <c r="L36" s="88">
-        <f t="shared" si="93"/>
+        <f t="shared" si="100"/>
         <v>-3.8435415038769016E-2</v>
       </c>
-      <c r="M36" s="166">
-        <f>M34/I34-1</f>
+      <c r="M36" s="88">
+        <f t="shared" ref="M36" si="101">M34/I34-1</f>
+        <v>0.10013122557158383</v>
+      </c>
+      <c r="N36" s="166">
+        <f>N34/I34-1</f>
         <v>-4.6902535616688557E-4</v>
       </c>
-      <c r="N36" s="166">
-        <f>N34/J34-1</f>
+      <c r="O36" s="166">
+        <f>O34/J34-1</f>
         <v>-0.16801948102526121</v>
       </c>
-      <c r="R36" s="199">
-        <f>R34/H34-1</f>
+      <c r="S36" s="199">
+        <f>S34/H34-1</f>
         <v>-4.6760188134880143E-2</v>
       </c>
-      <c r="W36" s="88">
-        <f>W34/V34-1</f>
+      <c r="X36" s="88">
+        <f>X34/W34-1</f>
         <v>0.21391330769071404</v>
       </c>
-      <c r="AP36" s="56"/>
-    </row>
-    <row r="37" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="AQ36" s="56"/>
+    </row>
+    <row r="37" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
-      <c r="AP37" s="56"/>
-    </row>
-    <row r="38" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="AQ37" s="56"/>
+    </row>
+    <row r="38" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>36</v>
       </c>
@@ -9703,8 +9871,9 @@
       <c r="J38" s="107"/>
       <c r="K38" s="107"/>
       <c r="L38" s="107"/>
-    </row>
-    <row r="39" spans="2:42" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="M38" s="107"/>
+    </row>
+    <row r="39" spans="2:43" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>3</v>
       </c>
@@ -9739,12 +9908,15 @@
       <c r="L39" s="179">
         <v>3075.4749999999999</v>
       </c>
-      <c r="M39" s="2"/>
+      <c r="M39" s="179">
+        <v>3021.5070000000001</v>
+      </c>
       <c r="N39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="13"/>
-    </row>
-    <row r="40" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="O39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="13"/>
+    </row>
+    <row r="40" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
         <v>37</v>
       </c>
@@ -9778,8 +9950,11 @@
       <c r="L40" s="83">
         <v>186.82499999999999</v>
       </c>
-    </row>
-    <row r="41" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="M40" s="83">
+        <v>185.83099999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
         <v>41</v>
       </c>
@@ -9813,8 +9988,11 @@
       <c r="L41" s="83">
         <v>57.594999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="M41" s="83">
+        <v>72.924999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
         <v>38</v>
       </c>
@@ -9848,8 +10026,11 @@
       <c r="L42" s="83">
         <v>405.89100000000002</v>
       </c>
-    </row>
-    <row r="43" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="M42" s="83">
+        <v>387.81700000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
         <v>42</v>
       </c>
@@ -9883,8 +10064,11 @@
       <c r="L43" s="83">
         <v>425.95</v>
       </c>
-    </row>
-    <row r="44" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="M43" s="83">
+        <v>525.928</v>
+      </c>
+    </row>
+    <row r="44" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
         <v>39</v>
       </c>
@@ -9918,8 +10102,11 @@
       <c r="L44" s="83">
         <v>424.416</v>
       </c>
-    </row>
-    <row r="45" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="M44" s="83">
+        <v>452.85199999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="11" t="s">
         <v>40</v>
       </c>
@@ -9953,8 +10140,11 @@
       <c r="L45" s="83">
         <v>154.328</v>
       </c>
-    </row>
-    <row r="46" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="M45" s="83">
+        <v>204.92099999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B46" s="11" t="s">
         <v>45</v>
       </c>
@@ -9995,8 +10185,12 @@
         <f>56.317+130.453</f>
         <v>186.77</v>
       </c>
-    </row>
-    <row r="47" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="M46" s="83">
+        <f>53.655+130.452</f>
+        <v>184.107</v>
+      </c>
+    </row>
+    <row r="47" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B47" s="11" t="s">
         <v>44</v>
       </c>
@@ -10030,8 +10224,11 @@
       <c r="L47" s="83">
         <v>2.17</v>
       </c>
-    </row>
-    <row r="48" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="M47" s="83">
+        <v>2.4350000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B48" s="11" t="s">
         <v>43</v>
       </c>
@@ -10045,41 +10242,46 @@
         <v>33</v>
       </c>
       <c r="F48" s="5">
-        <f t="shared" ref="F48:L48" si="94">SUM(F39:F47)</f>
+        <f t="shared" ref="F48:M48" si="102">SUM(F39:F47)</f>
         <v>1847.8</v>
       </c>
       <c r="G48" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>2816.0789999999997</v>
       </c>
       <c r="H48" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>3073.7910000000002</v>
       </c>
       <c r="I48" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>3272.2799999999997</v>
       </c>
       <c r="J48" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>4560.5960000000005</v>
       </c>
       <c r="K48" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>4715.831000000001</v>
       </c>
       <c r="L48" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>4919.420000000001</v>
       </c>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="M48" s="5">
+        <f t="shared" si="102"/>
+        <v>5038.3230000000012</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C49" s="2"/>
       <c r="F49" s="5"/>
       <c r="K49" s="84"/>
       <c r="L49" s="84"/>
-    </row>
-    <row r="50" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="M49" s="84"/>
+    </row>
+    <row r="50" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B50" s="11" t="s">
         <v>46</v>
       </c>
@@ -10113,8 +10315,11 @@
       <c r="L50" s="83">
         <v>77.509</v>
       </c>
-    </row>
-    <row r="51" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="M50" s="83">
+        <v>45.098999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B51" s="11" t="s">
         <v>47</v>
       </c>
@@ -10148,8 +10353,11 @@
       <c r="L51" s="83">
         <v>231.19900000000001</v>
       </c>
-    </row>
-    <row r="52" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="M51" s="83">
+        <v>273.83199999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B52" s="11" t="s">
         <v>48</v>
       </c>
@@ -10183,8 +10391,11 @@
       <c r="L52" s="83">
         <v>147.19200000000001</v>
       </c>
-    </row>
-    <row r="53" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="M52" s="83">
+        <v>168.36699999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B53" s="11" t="s">
         <v>49</v>
       </c>
@@ -10218,10 +10429,13 @@
       <c r="L53" s="83">
         <v>1807.6389999999999</v>
       </c>
-      <c r="Q53" s="55"/>
+      <c r="M53" s="83">
+        <v>1750.86</v>
+      </c>
       <c r="R53" s="55"/>
-    </row>
-    <row r="54" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="S53" s="55"/>
+    </row>
+    <row r="54" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
         <v>50</v>
       </c>
@@ -10255,8 +10469,11 @@
       <c r="L54" s="83">
         <v>716.154</v>
       </c>
-    </row>
-    <row r="55" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="M54" s="83">
+        <v>960.92399999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B55" s="11" t="s">
         <v>51</v>
       </c>
@@ -10290,8 +10507,11 @@
       <c r="L55" s="83">
         <v>399.77600000000001</v>
       </c>
-    </row>
-    <row r="56" spans="2:18" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="M55" s="83">
+        <v>425.97300000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>4</v>
       </c>
@@ -10325,12 +10545,15 @@
       <c r="L56" s="179">
         <v>988.34500000000003</v>
       </c>
-      <c r="M56" s="2"/>
+      <c r="M56" s="179">
+        <v>988.66300000000001</v>
+      </c>
       <c r="N56" s="2"/>
-      <c r="Q56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="R56" s="2"/>
-    </row>
-    <row r="57" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="S56" s="2"/>
+    </row>
+    <row r="57" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B57" s="11" t="s">
         <v>52</v>
       </c>
@@ -10364,8 +10587,11 @@
       <c r="L57" s="83">
         <v>1.2999999999999999E-4</v>
       </c>
-    </row>
-    <row r="58" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="M57" s="83">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B58" s="11" t="s">
         <v>53</v>
       </c>
@@ -10379,35 +10605,39 @@
         <v>33</v>
       </c>
       <c r="F58" s="5">
-        <f t="shared" ref="F58:L58" si="95">SUM(F50:F57)</f>
+        <f t="shared" ref="F58:M58" si="103">SUM(F50:F57)</f>
         <v>1735.354</v>
       </c>
       <c r="G58" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="103"/>
         <v>2224.4850000000001</v>
       </c>
       <c r="H58" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="103"/>
         <v>2531.752</v>
       </c>
       <c r="I58" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="103"/>
         <v>2666.4490000000001</v>
       </c>
       <c r="J58" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="103"/>
         <v>3967.6709999999998</v>
       </c>
       <c r="K58" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="103"/>
         <v>4148.37</v>
       </c>
       <c r="L58" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="103"/>
         <v>4367.8141299999997</v>
       </c>
-    </row>
-    <row r="59" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="M58" s="5">
+        <f t="shared" si="103"/>
+        <v>4613.7309999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -10418,8 +10648,9 @@
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
-    </row>
-    <row r="60" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="M59" s="5"/>
+    </row>
+    <row r="60" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B60" s="11" t="s">
         <v>54</v>
       </c>
@@ -10453,8 +10684,11 @@
       <c r="L60" s="83">
         <v>551.59299999999996</v>
       </c>
-    </row>
-    <row r="61" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="M60" s="83">
+        <v>424.59300000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B61" s="11" t="s">
         <v>55</v>
       </c>
@@ -10471,68 +10705,76 @@
         <v>1847.8</v>
       </c>
       <c r="G61" s="5">
-        <f t="shared" ref="G61:L61" si="96">G60+G58</f>
+        <f t="shared" ref="G61:M61" si="104">G60+G58</f>
         <v>2816.0790000000002</v>
       </c>
       <c r="H61" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="104"/>
         <v>3073.7910000000002</v>
       </c>
       <c r="I61" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="104"/>
         <v>3272.2890000000002</v>
       </c>
       <c r="J61" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="104"/>
         <v>4560.5940000000001</v>
       </c>
       <c r="K61" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="104"/>
         <v>4715.8310000000001</v>
       </c>
       <c r="L61" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="104"/>
         <v>4919.4071299999996</v>
       </c>
-    </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="M61" s="5">
+        <f t="shared" si="104"/>
+        <v>5038.3239999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
       <c r="F62" s="5"/>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B63" s="200" t="s">
         <v>200</v>
       </c>
       <c r="F63" s="5">
-        <f t="shared" ref="F63:K63" si="97">F48-F58</f>
+        <f t="shared" ref="F63:K63" si="105">F48-F58</f>
         <v>112.44599999999991</v>
       </c>
       <c r="G63" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="105"/>
         <v>591.5939999999996</v>
       </c>
       <c r="H63" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="105"/>
         <v>542.03900000000021</v>
       </c>
       <c r="I63" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="105"/>
         <v>605.83099999999968</v>
       </c>
       <c r="J63" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="105"/>
         <v>592.92500000000064</v>
       </c>
       <c r="K63" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="105"/>
         <v>567.46100000000115</v>
       </c>
       <c r="L63" s="5">
         <f>L48-L58</f>
         <v>551.60587000000123</v>
       </c>
-    </row>
-    <row r="64" spans="2:18" s="213" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B64" s="213" t="s">
+      <c r="M63" s="5">
+        <f t="shared" ref="M63" si="106">M48-M58</f>
+        <v>424.59200000000146</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" s="212" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B64" s="212" t="s">
         <v>201</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -10544,137 +10786,150 @@
       <c r="E64" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F64" s="214">
-        <f t="shared" ref="F64:K64" si="98">F63/F20</f>
+      <c r="F64" s="213">
+        <f t="shared" ref="F64:K64" si="107">F63/F20</f>
         <v>0.576205873460791</v>
       </c>
-      <c r="G64" s="214">
-        <f t="shared" si="98"/>
+      <c r="G64" s="213">
+        <f t="shared" si="107"/>
         <v>2.0324522286428865</v>
       </c>
-      <c r="H64" s="214">
-        <f t="shared" si="98"/>
+      <c r="H64" s="213">
+        <f t="shared" si="107"/>
         <v>0.94878172588832532</v>
       </c>
-      <c r="I64" s="214">
-        <f t="shared" si="98"/>
+      <c r="I64" s="213">
+        <f t="shared" si="107"/>
         <v>1.0519141148607816</v>
       </c>
-      <c r="J64" s="214">
-        <f t="shared" si="98"/>
+      <c r="J64" s="213">
+        <f t="shared" si="107"/>
         <v>1.0195860954198812</v>
       </c>
-      <c r="K64" s="214">
-        <f t="shared" si="98"/>
+      <c r="K64" s="213">
+        <f t="shared" si="107"/>
         <v>0.96421538058964962</v>
       </c>
-      <c r="L64" s="214">
+      <c r="L64" s="213">
         <f>L63/L20</f>
         <v>0.92874198556054144</v>
       </c>
-      <c r="M64" s="214"/>
-      <c r="N64" s="214"/>
-      <c r="Q64" s="214"/>
-      <c r="R64" s="214"/>
-    </row>
-    <row r="65" spans="2:18" s="213" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="M64" s="213">
+        <f t="shared" ref="M64" si="108">M63/M20</f>
+        <v>0.71028256261929823</v>
+      </c>
+      <c r="N64" s="213"/>
+      <c r="O64" s="213"/>
+      <c r="R64" s="213"/>
+      <c r="S64" s="213"/>
+    </row>
+    <row r="65" spans="2:19" s="212" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
-      <c r="F65" s="214"/>
-      <c r="G65" s="214"/>
-      <c r="H65" s="214"/>
-      <c r="I65" s="214"/>
-      <c r="J65" s="214"/>
-      <c r="K65" s="214"/>
-      <c r="L65" s="214"/>
-      <c r="M65" s="214"/>
-      <c r="N65" s="214"/>
-      <c r="Q65" s="214"/>
-      <c r="R65" s="214"/>
-    </row>
-    <row r="66" spans="2:18" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F65" s="213"/>
+      <c r="G65" s="213"/>
+      <c r="H65" s="213"/>
+      <c r="I65" s="213"/>
+      <c r="J65" s="213"/>
+      <c r="K65" s="213"/>
+      <c r="L65" s="213"/>
+      <c r="M65" s="213"/>
+      <c r="N65" s="213"/>
+      <c r="O65" s="213"/>
+      <c r="R65" s="213"/>
+      <c r="S65" s="213"/>
+    </row>
+    <row r="66" spans="2:19" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="216"/>
-      <c r="D66" s="216"/>
-      <c r="E66" s="216"/>
-      <c r="F66" s="217">
-        <f t="shared" ref="F66:K66" si="99">F39</f>
+      <c r="C66" s="215"/>
+      <c r="D66" s="215"/>
+      <c r="E66" s="215"/>
+      <c r="F66" s="216">
+        <f t="shared" ref="F66:K66" si="109">F39</f>
         <v>893.94299999999998</v>
       </c>
-      <c r="G66" s="217">
-        <f t="shared" si="99"/>
+      <c r="G66" s="216">
+        <f t="shared" si="109"/>
         <v>1600.53</v>
       </c>
-      <c r="H66" s="217">
-        <f t="shared" si="99"/>
+      <c r="H66" s="216">
+        <f t="shared" si="109"/>
         <v>1780.2619999999999</v>
       </c>
-      <c r="I66" s="217">
-        <f t="shared" si="99"/>
+      <c r="I66" s="216">
+        <f t="shared" si="109"/>
         <v>1925.559</v>
       </c>
-      <c r="J66" s="217">
-        <f t="shared" si="99"/>
+      <c r="J66" s="216">
+        <f t="shared" si="109"/>
         <v>3004.3</v>
       </c>
-      <c r="K66" s="217">
-        <f t="shared" si="99"/>
+      <c r="K66" s="216">
+        <f t="shared" si="109"/>
         <v>3132.9639999999999</v>
       </c>
-      <c r="L66" s="217">
+      <c r="L66" s="216">
         <f>L39</f>
         <v>3075.4749999999999</v>
       </c>
-      <c r="M66" s="61"/>
+      <c r="M66" s="216">
+        <f t="shared" ref="M66" si="110">M39</f>
+        <v>3021.5070000000001</v>
+      </c>
       <c r="N66" s="61"/>
-      <c r="Q66" s="61"/>
+      <c r="O66" s="61"/>
       <c r="R66" s="61"/>
-    </row>
-    <row r="67" spans="2:18" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S66" s="61"/>
+    </row>
+    <row r="67" spans="2:19" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C67" s="216"/>
-      <c r="D67" s="216"/>
-      <c r="E67" s="216"/>
-      <c r="F67" s="217">
-        <f t="shared" ref="F67:K67" si="100">F56</f>
+      <c r="C67" s="215"/>
+      <c r="D67" s="215"/>
+      <c r="E67" s="215"/>
+      <c r="F67" s="216">
+        <f t="shared" ref="F67:K67" si="111">F56</f>
         <v>0</v>
       </c>
-      <c r="G67" s="217">
-        <f t="shared" si="100"/>
+      <c r="G67" s="216">
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
-      <c r="H67" s="217">
-        <f t="shared" si="100"/>
+      <c r="H67" s="216">
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
-      <c r="I67" s="217">
-        <f t="shared" si="100"/>
+      <c r="I67" s="216">
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
-      <c r="J67" s="217">
-        <f t="shared" si="100"/>
+      <c r="J67" s="216">
+        <f t="shared" si="111"/>
         <v>987.72299999999996</v>
       </c>
-      <c r="K67" s="217">
-        <f t="shared" si="100"/>
+      <c r="K67" s="216">
+        <f t="shared" si="111"/>
         <v>988.03399999999999</v>
       </c>
-      <c r="L67" s="217">
+      <c r="L67" s="216">
         <f>L56</f>
         <v>988.34500000000003</v>
       </c>
-      <c r="M67" s="61"/>
+      <c r="M67" s="216">
+        <f t="shared" ref="M67" si="112">M56</f>
+        <v>988.66300000000001</v>
+      </c>
       <c r="N67" s="61"/>
-      <c r="Q67" s="61"/>
+      <c r="O67" s="61"/>
       <c r="R67" s="61"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B68" s="215" t="s">
+      <c r="S67" s="61"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B68" s="214" t="s">
         <v>7</v>
       </c>
       <c r="F68" s="5">
@@ -10682,37 +10937,41 @@
         <v>893.94299999999998</v>
       </c>
       <c r="G68" s="5">
-        <f t="shared" ref="G68:L68" si="101">G66-G67</f>
+        <f t="shared" ref="G68:L68" si="113">G66-G67</f>
         <v>1600.53</v>
       </c>
       <c r="H68" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="113"/>
         <v>1780.2619999999999</v>
       </c>
       <c r="I68" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="113"/>
         <v>1925.559</v>
       </c>
       <c r="J68" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="113"/>
         <v>2016.5770000000002</v>
       </c>
       <c r="K68" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="113"/>
         <v>2144.9299999999998</v>
       </c>
       <c r="L68" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="113"/>
         <v>2087.13</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M68" s="5">
+        <f t="shared" ref="M68" si="114">M66-M67</f>
+        <v>2032.8440000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C70" s="216"/>
-      <c r="D70" s="216"/>
-      <c r="E70" s="216"/>
+      <c r="C70" s="215"/>
+      <c r="D70" s="215"/>
+      <c r="E70" s="215"/>
       <c r="G70" s="61">
         <v>64.83</v>
       </c>
@@ -10731,213 +10990,238 @@
       <c r="L70" s="61">
         <v>32.86</v>
       </c>
-      <c r="M70" s="61"/>
+      <c r="M70" s="61">
+        <v>35.840000000000003</v>
+      </c>
       <c r="N70" s="61"/>
-      <c r="Q70" s="61"/>
+      <c r="O70" s="61"/>
       <c r="R70" s="61"/>
-    </row>
-    <row r="71" spans="2:18" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S70" s="61"/>
+    </row>
+    <row r="71" spans="2:19" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="216"/>
-      <c r="D71" s="216"/>
-      <c r="E71" s="216"/>
+      <c r="C71" s="215"/>
+      <c r="D71" s="215"/>
+      <c r="E71" s="215"/>
       <c r="F71" s="61"/>
-      <c r="G71" s="217">
-        <f t="shared" ref="G71:I71" si="102">G70*G20</f>
+      <c r="G71" s="216">
+        <f t="shared" ref="G71:I71" si="115">G70*G20</f>
         <v>18870.327420000001</v>
       </c>
-      <c r="H71" s="217">
-        <f t="shared" si="102"/>
+      <c r="H71" s="216">
+        <f t="shared" si="115"/>
         <v>51405.574000000001</v>
       </c>
-      <c r="I71" s="217">
-        <f t="shared" si="102"/>
+      <c r="I71" s="216">
+        <f t="shared" si="115"/>
         <v>43511.662599999996</v>
       </c>
-      <c r="J71" s="217">
+      <c r="J71" s="216">
         <f>J70*J20</f>
         <v>59991.150599999994</v>
       </c>
-      <c r="K71" s="217">
-        <f t="shared" ref="K71:L71" si="103">K70*K20</f>
+      <c r="K71" s="216">
+        <f t="shared" ref="K71:L71" si="116">K70*K20</f>
         <v>27213.211039999998</v>
       </c>
-      <c r="L71" s="217">
-        <f t="shared" si="103"/>
+      <c r="L71" s="216">
+        <f t="shared" si="116"/>
         <v>19516.47408</v>
       </c>
-      <c r="M71" s="61"/>
+      <c r="M71" s="216">
+        <f t="shared" ref="M71" si="117">M70*M20</f>
+        <v>21424.399360000003</v>
+      </c>
       <c r="N71" s="61"/>
-      <c r="Q71" s="61"/>
+      <c r="O71" s="61"/>
       <c r="R71" s="61"/>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B72" s="215" t="s">
+      <c r="S71" s="61"/>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B72" s="214" t="s">
         <v>5</v>
       </c>
       <c r="F72" s="5">
-        <f t="shared" ref="F72:K72" si="104">F71-F68</f>
+        <f t="shared" ref="F72:K72" si="118">F71-F68</f>
         <v>-893.94299999999998</v>
       </c>
       <c r="G72" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>17269.797420000003</v>
       </c>
       <c r="H72" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>49625.311999999998</v>
       </c>
       <c r="I72" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>41586.103599999995</v>
       </c>
       <c r="J72" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>57974.573599999996</v>
       </c>
       <c r="K72" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>25068.281039999998</v>
       </c>
       <c r="L72" s="5">
         <f>L71-L68</f>
         <v>17429.344079999999</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B74" s="215" t="s">
+      <c r="M72" s="5">
+        <f t="shared" ref="M72" si="119">M71-M68</f>
+        <v>19391.555360000002</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B74" s="214" t="s">
         <v>205</v>
       </c>
-      <c r="G74" s="248">
-        <f t="shared" ref="G74:J74" si="105">G70/G64</f>
+      <c r="G74" s="226">
+        <f t="shared" ref="G74:I74" si="120">G70/G64</f>
         <v>31.897428675747243</v>
       </c>
-      <c r="H74" s="248">
-        <f t="shared" si="105"/>
+      <c r="H74" s="226">
+        <f t="shared" si="120"/>
         <v>94.837408378363875</v>
       </c>
-      <c r="I74" s="248">
-        <f t="shared" si="105"/>
+      <c r="I74" s="226">
+        <f t="shared" si="120"/>
         <v>71.82145284741128</v>
       </c>
-      <c r="J74" s="248">
+      <c r="J74" s="226">
         <f>J70/J64</f>
         <v>101.1783119281527</v>
       </c>
-      <c r="K74" s="248">
-        <f t="shared" ref="K74:L74" si="106">K70/K64</f>
+      <c r="K74" s="226">
+        <f t="shared" ref="K74:L74" si="121">K70/K64</f>
         <v>47.956090444982024</v>
       </c>
-      <c r="L74" s="248">
-        <f t="shared" si="106"/>
+      <c r="L74" s="226">
+        <f t="shared" si="121"/>
         <v>35.381193604774282</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B75" s="215" t="s">
-        <v>215</v>
-      </c>
-      <c r="G75" s="248">
-        <f t="shared" ref="G75" si="107">G71/SUM(D3:G3)</f>
+      <c r="M74" s="226">
+        <f t="shared" ref="M74" si="122">M70/M64</f>
+        <v>50.45879187549442</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B75" s="214" t="s">
+        <v>214</v>
+      </c>
+      <c r="G75" s="226">
+        <f t="shared" ref="G75" si="123">G71/SUM(D3:G3)</f>
         <v>16.419103099215079</v>
       </c>
-      <c r="H75" s="248">
-        <f t="shared" ref="H75" si="108">H71/SUM(E3:H3)</f>
+      <c r="H75" s="226">
+        <f t="shared" ref="H75" si="124">H71/SUM(E3:H3)</f>
         <v>36.639779500911978</v>
       </c>
-      <c r="I75" s="248">
-        <f t="shared" ref="I75" si="109">I71/SUM(F3:I3)</f>
+      <c r="I75" s="226">
+        <f t="shared" ref="I75" si="125">I71/SUM(F3:I3)</f>
         <v>26.205198922441955</v>
       </c>
-      <c r="J75" s="248">
-        <f t="shared" ref="J75:K75" si="110">J71/SUM(G3:J3)</f>
+      <c r="J75" s="226">
+        <f t="shared" ref="J75:K75" si="126">J71/SUM(G3:J3)</f>
         <v>31.25872473727074</v>
       </c>
-      <c r="K75" s="248">
-        <f t="shared" si="110"/>
+      <c r="K75" s="226">
+        <f t="shared" si="126"/>
         <v>13.150678086094159</v>
       </c>
-      <c r="L75" s="248">
+      <c r="L75" s="226">
         <f>L71/SUM(I3:L3)</f>
         <v>8.8452081220206615</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="249" t="s">
-        <v>220</v>
-      </c>
-      <c r="G76" s="248">
-        <f t="shared" ref="G76" si="111">G72/SUM(D3:G3)</f>
+      <c r="M75" s="226">
+        <f t="shared" ref="M75" si="127">M71/SUM(J3:M3)</f>
+        <v>9.6732142474976506</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B76" s="227" t="s">
+        <v>219</v>
+      </c>
+      <c r="G76" s="226">
+        <f t="shared" ref="G76" si="128">G72/SUM(D3:G3)</f>
         <v>15.026479298976499</v>
       </c>
-      <c r="H76" s="248">
-        <f t="shared" ref="H76" si="112">H72/SUM(E3:H3)</f>
+      <c r="H76" s="226">
+        <f t="shared" ref="H76" si="129">H72/SUM(E3:H3)</f>
         <v>35.370881946458979</v>
       </c>
-      <c r="I76" s="248">
-        <f t="shared" ref="I76" si="113">I72/SUM(F3:I3)</f>
+      <c r="I76" s="226">
+        <f t="shared" ref="I76" si="130">I72/SUM(F3:I3)</f>
         <v>25.045517733153215</v>
       </c>
-      <c r="J76" s="248">
-        <f t="shared" ref="J76:K76" si="114">J72/SUM(G3:J3)</f>
+      <c r="J76" s="226">
+        <f t="shared" ref="J76:K76" si="131">J72/SUM(G3:J3)</f>
         <v>30.207976006431906</v>
       </c>
-      <c r="K76" s="248">
-        <f t="shared" si="114"/>
+      <c r="K76" s="226">
+        <f t="shared" si="131"/>
         <v>12.114149030197565</v>
       </c>
-      <c r="L76" s="248">
+      <c r="L76" s="226">
         <f>L72/SUM(I3:L3)</f>
         <v>7.8992842244949566</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B77" s="215" t="s">
-        <v>216</v>
+      <c r="M76" s="226">
+        <f t="shared" ref="M76" si="132">M72/SUM(J3:M3)</f>
+        <v>8.7553758888431883</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B77" s="214" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="L1" r:id="rId1" xr:uid="{F0F1B078-C7E3-AA47-9924-08C1D4511F24}"/>
+    <hyperlink ref="M1" r:id="rId2" xr:uid="{9D82E829-DF9B-4456-A9EF-305989A97DF8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="119" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
+  <pageSetup paperSize="119" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId3"/>
   <ignoredErrors>
-    <ignoredError sqref="V3:V4 V6:V8 V9:V13 W3:W4 V17:V20 W17:W20 W6:W13 V15 W15 K75:L75 K76:L76 G75:J76" formulaRange="1"/>
-    <ignoredError sqref="V5 V16:W16 X5 V14:X14 X16 X21 Y16:AK16 Y18 Z18:AK20 AL13:AM18 X18:X19" formula="1"/>
-    <ignoredError sqref="W5" formula="1" formulaRange="1"/>
+    <ignoredError sqref="W3:W4 W6:W8 W9:W13 X3:X4 W17:W20 X17:X20 X6:X13 W15 X15 K75 K76 G75:J76 L75:M76" formulaRange="1"/>
+    <ignoredError sqref="W5 W16:X16 Y5 W14:Y14 Y16 Y21 Z16:AL16 Z18 AA18:AL20 AM13:AN18 Y18:Y19" formula="1"/>
+    <ignoredError sqref="X5" formula="1" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DC1264-D281-9E4E-B0F5-F497A82B7907}">
-  <dimension ref="A1:AD24"/>
+  <dimension ref="A1:AE24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.875" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="9" style="23"/>
-    <col min="18" max="18" width="9" style="153" customWidth="1"/>
-    <col min="19" max="20" width="9" style="153"/>
-    <col min="21" max="26" width="9" style="23"/>
-    <col min="27" max="27" width="9" style="153"/>
-    <col min="28" max="16384" width="9" style="23"/>
+    <col min="3" max="18" width="9" style="23"/>
+    <col min="19" max="19" width="9" style="255" customWidth="1"/>
+    <col min="20" max="20" width="9" style="255"/>
+    <col min="21" max="21" width="9" style="153"/>
+    <col min="22" max="27" width="9" style="23"/>
+    <col min="28" max="28" width="9" style="153"/>
+    <col min="29" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B1" s="30" t="s">
         <v>81</v>
       </c>
@@ -10986,41 +11270,44 @@
       <c r="Q1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="149" t="s">
+      <c r="R1" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="S1" s="251" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="149" t="s">
+      <c r="T1" s="251" t="s">
         <v>109</v>
       </c>
-      <c r="T1" s="149" t="s">
+      <c r="U1" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="26"/>
       <c r="V1" s="26"/>
       <c r="W1" s="26"/>
-      <c r="X1" s="26" t="s">
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="Y1" s="26" t="s">
+      <c r="Z1" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="Z1" s="26" t="s">
+      <c r="AA1" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="149" t="s">
+      <c r="AB1" s="149" t="s">
         <v>91</v>
       </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AC1" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="AC1" s="26" t="s">
+      <c r="AD1" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="AD1" s="26" t="s">
+      <c r="AE1" s="26" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>87</v>
       </c>
@@ -11072,36 +11359,39 @@
       <c r="Q2" s="1">
         <v>52.2</v>
       </c>
-      <c r="R2" s="150">
-        <f>P2*(R3+1)</f>
+      <c r="R2" s="1">
+        <v>58.8</v>
+      </c>
+      <c r="S2" s="252">
+        <f>P2*(S3+1)</f>
         <v>57.622945937595496</v>
       </c>
-      <c r="S2" s="150">
-        <f>R2*(S3+1)</f>
-        <v>60.669440306430879</v>
-      </c>
-      <c r="T2" s="150">
-        <f t="shared" ref="T2" si="0">S2*(T3+1)</f>
-        <v>63.366917527131726</v>
-      </c>
-      <c r="X2" s="3">
+      <c r="T2" s="252">
+        <f>S2*(T3+1)</f>
+        <v>61.375967883490013</v>
+      </c>
+      <c r="U2" s="150">
+        <f t="shared" ref="U2" si="0">T2*(U3+1)</f>
+        <v>65.06883086112515</v>
+      </c>
+      <c r="Y2" s="3">
         <f>AVERAGE(D2:G2)</f>
         <v>17.600000000000001</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Z2" s="3">
         <f>AVERAGE(H2:K2)</f>
         <v>32.575000000000003</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="AA2" s="3">
         <f>AVERAGE(L2:O2)</f>
         <v>45.525000000000006</v>
       </c>
-      <c r="AA2" s="150">
-        <f>AVERAGE(P2:T2)</f>
-        <v>57.591860754231618</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AB2" s="150">
+        <f>AVERAGE(P2:U2)</f>
+        <v>58.194624113701785</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
         <v>73</v>
       </c>
@@ -11164,20 +11454,21 @@
         <f t="shared" si="1"/>
         <v>-3.512014787430684E-2</v>
       </c>
-      <c r="R3" s="151">
+      <c r="R3" s="54">
+        <f t="shared" ref="R3" si="2">R2/Q2-1</f>
+        <v>0.12643678160919536</v>
+      </c>
+      <c r="S3" s="253">
         <f>AVERAGE(M3:P3)</f>
         <v>6.5119148569232788E-2</v>
       </c>
-      <c r="S3" s="151">
-        <f>AVERAGE(N3:R3)</f>
-        <v>5.2869465787720574E-2</v>
-      </c>
-      <c r="T3" s="151">
-        <f>AVERAGE(O3:S3)</f>
-        <v>4.4461877463783238E-2</v>
-      </c>
-      <c r="X3" s="136" t="s">
-        <v>33</v>
+      <c r="T3" s="253">
+        <f>AVERAGE(N3:S3)</f>
+        <v>6.5130685091299698E-2</v>
+      </c>
+      <c r="U3" s="151">
+        <f>AVERAGE(O3:T3)</f>
+        <v>6.0167898038615115E-2</v>
       </c>
       <c r="Y3" s="136" t="s">
         <v>33</v>
@@ -11185,11 +11476,14 @@
       <c r="Z3" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="AA3" s="158" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA3" s="136" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB3" s="158" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
         <v>74</v>
       </c>
@@ -11206,78 +11500,82 @@
         <v>33</v>
       </c>
       <c r="G4" s="33">
-        <f t="shared" ref="G4:Q4" si="2">G2/C2-1</f>
+        <f t="shared" ref="G4:Q4" si="3">G2/C2-1</f>
         <v>0.39416058394160602</v>
       </c>
       <c r="H4" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.49367088607594933</v>
       </c>
       <c r="I4" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.95321637426900563</v>
       </c>
       <c r="J4" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96739130434782639</v>
       </c>
       <c r="K4" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.94240837696335067</v>
       </c>
       <c r="L4" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78389830508474567</v>
       </c>
       <c r="M4" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.29341317365269481</v>
       </c>
       <c r="N4" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.30662983425414336</v>
       </c>
       <c r="O4" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.33423180592991919</v>
       </c>
       <c r="P4" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28503562945368177</v>
       </c>
       <c r="Q4" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.20833333333333326</v>
       </c>
-      <c r="R4" s="152">
-        <f>R2/M2-1</f>
+      <c r="R4" s="54">
+        <f t="shared" ref="R4" si="4">R2/N2-1</f>
+        <v>0.24312896405919671</v>
+      </c>
+      <c r="S4" s="254">
+        <f>S2/M2-1</f>
         <v>0.33386448929619195</v>
       </c>
-      <c r="S4" s="152">
-        <f>S2/N2-1</f>
-        <v>0.28265201493511372</v>
-      </c>
-      <c r="T4" s="152">
-        <f>T2/O2-1</f>
-        <v>0.28013974802286312</v>
-      </c>
-      <c r="X4" s="155" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y4" s="29">
-        <f>Y2/X2-1</f>
-        <v>0.85085227272727271</v>
+      <c r="T4" s="254">
+        <f>T2/N2-1</f>
+        <v>0.29758917301247401</v>
+      </c>
+      <c r="U4" s="152">
+        <f>U2/O2-1</f>
+        <v>0.31452183557828595</v>
+      </c>
+      <c r="Y4" s="155" t="s">
+        <v>33</v>
       </c>
       <c r="Z4" s="29">
         <f>Z2/Y2-1</f>
+        <v>0.85085227272727271</v>
+      </c>
+      <c r="AA4" s="29">
+        <f>AA2/Z2-1</f>
         <v>0.3975441289332311</v>
       </c>
-      <c r="AA4" s="152">
-        <f>AA2/Z2-1</f>
-        <v>0.26506009344825054</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AB4" s="152">
+        <f>AB2/AA2-1</f>
+        <v>0.27830036493578869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B5" s="28"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
@@ -11294,12 +11592,13 @@
       <c r="O5" s="29"/>
       <c r="P5" s="53"/>
       <c r="Q5" s="53"/>
-      <c r="X5" s="37"/>
+      <c r="R5" s="53"/>
       <c r="Y5" s="37"/>
       <c r="Z5" s="37"/>
-      <c r="AA5" s="154"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="154"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B6" s="28" t="s">
         <v>75</v>
       </c>
@@ -11348,36 +11647,37 @@
       <c r="Q6" s="53">
         <v>24.2</v>
       </c>
-      <c r="R6" s="154">
-        <f>P6*(R7+1)</f>
+      <c r="R6" s="53"/>
+      <c r="S6" s="256">
+        <f>P6*(S7+1)</f>
         <v>26.685506297991481</v>
       </c>
-      <c r="S6" s="154">
-        <f>R6*(S7+1)</f>
+      <c r="T6" s="256">
+        <f>S6*(T7+1)</f>
         <v>27.603926166979321</v>
       </c>
-      <c r="T6" s="154">
-        <f>S6*(T7+1)</f>
+      <c r="U6" s="154">
+        <f>T6*(U7+1)</f>
         <v>28.333111356265665</v>
       </c>
-      <c r="X6" s="37">
+      <c r="Y6" s="37">
         <f>AVERAGE(D6:G6)</f>
         <v>10.175000000000001</v>
       </c>
-      <c r="Y6" s="37">
+      <c r="Z6" s="37">
         <f>AVERAGE(H6:K6)</f>
         <v>17.5</v>
       </c>
-      <c r="Z6" s="37">
+      <c r="AA6" s="37">
         <f>AVERAGE(L6:O6)</f>
         <v>22.375</v>
       </c>
-      <c r="AA6" s="150">
-        <f>AVERAGE(P6:T6)</f>
+      <c r="AB6" s="150">
+        <f>AVERAGE(P6:U6)</f>
         <v>26.464508764247295</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B7" s="28" t="s">
         <v>77</v>
       </c>
@@ -11388,83 +11688,84 @@
         <v>33</v>
       </c>
       <c r="E7" s="29">
-        <f t="shared" ref="E7:P7" si="3">E6/D6-1</f>
+        <f t="shared" ref="E7:P7" si="5">E6/D6-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="F7" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.090909090909105E-2</v>
       </c>
       <c r="G7" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.8518518518518379E-2</v>
       </c>
       <c r="H7" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.20909090909090922</v>
       </c>
       <c r="I7" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.34586466165413521</v>
       </c>
       <c r="J7" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.8212290502793325E-2</v>
       </c>
       <c r="K7" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0362694300518172E-2</v>
       </c>
       <c r="L7" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.2307692307692424E-2</v>
       </c>
       <c r="M7" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.3896713615022609E-3</v>
       </c>
       <c r="N7" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.441860465116279E-2</v>
       </c>
       <c r="O7" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.1645021645021689E-2</v>
       </c>
       <c r="P7" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.0508474576271194E-2</v>
       </c>
       <c r="Q7" s="29">
-        <f t="shared" ref="Q7" si="4">Q6/P6-1</f>
+        <f t="shared" ref="Q7" si="6">Q6/P6-1</f>
         <v>-5.0980392156862786E-2</v>
       </c>
-      <c r="R7" s="151">
+      <c r="R7" s="29"/>
+      <c r="S7" s="253">
         <f>AVERAGE(M7:P7)</f>
         <v>4.6490443058489483E-2</v>
       </c>
-      <c r="S7" s="151">
-        <f>AVERAGE(N7:R7)</f>
+      <c r="T7" s="253">
+        <f>AVERAGE(N7:S7)</f>
         <v>3.4416430354816473E-2</v>
       </c>
-      <c r="T7" s="151">
-        <f>AVERAGE(O7:S7)</f>
+      <c r="U7" s="151">
+        <f>AVERAGE(O7:T7)</f>
         <v>2.6415995495547212E-2</v>
       </c>
-      <c r="X7" s="136" t="s">
-        <v>33</v>
-      </c>
       <c r="Y7" s="136" t="s">
         <v>33</v>
       </c>
       <c r="Z7" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="AA7" s="158" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA7" s="136" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB7" s="158" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B8" s="28" t="s">
         <v>78</v>
       </c>
@@ -11484,84 +11785,86 @@
         <v>33</v>
       </c>
       <c r="H8" s="29">
-        <f t="shared" ref="H8:P8" si="5">H6/D6-1</f>
+        <f t="shared" ref="H8:P8" si="7">H6/D6-1</f>
         <v>0.47777777777777786</v>
       </c>
       <c r="I8" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.80808080808080796</v>
       </c>
       <c r="J8" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.78703703703703698</v>
       </c>
       <c r="K8" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.77272727272727271</v>
       </c>
       <c r="L8" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.60150375939849621</v>
       </c>
       <c r="M8" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.2011173184357542</v>
       </c>
       <c r="N8" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.19689119170984459</v>
       </c>
       <c r="O8" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.2102564102564104</v>
       </c>
       <c r="P8" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.19718309859154926</v>
       </c>
       <c r="Q8" s="33">
-        <f t="shared" ref="Q8" si="6">Q6/M6-1</f>
+        <f t="shared" ref="Q8" si="8">Q6/M6-1</f>
         <v>0.12558139534883717</v>
       </c>
-      <c r="R8" s="152">
-        <f>R6/M6-1</f>
+      <c r="R8" s="33"/>
+      <c r="S8" s="254">
+        <f>S6/M6-1</f>
         <v>0.24118633944146417</v>
       </c>
-      <c r="S8" s="152">
-        <f>S6/N6-1</f>
+      <c r="T8" s="254">
+        <f>T6/N6-1</f>
         <v>0.19497515874369342</v>
       </c>
-      <c r="T8" s="152">
-        <f>T6/O6-1</f>
+      <c r="U8" s="152">
+        <f>U6/O6-1</f>
         <v>0.20055556594346036</v>
       </c>
-      <c r="X8" s="155" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y8" s="29">
-        <f>Y6/X6-1</f>
-        <v>0.71990171990171969</v>
+      <c r="Y8" s="155" t="s">
+        <v>33</v>
       </c>
       <c r="Z8" s="29">
         <f>Z6/Y6-1</f>
+        <v>0.71990171990171969</v>
+      </c>
+      <c r="AA8" s="29">
+        <f>AA6/Z6-1</f>
         <v>0.27857142857142847</v>
       </c>
-      <c r="AA8" s="152">
-        <f>AA6/Z6-1</f>
+      <c r="AB8" s="152">
+        <f>AB6/AA6-1</f>
         <v>0.18277134141887363</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B9" s="28"/>
       <c r="C9" s="25"/>
       <c r="P9" s="53"/>
       <c r="Q9" s="53"/>
-      <c r="X9" s="37"/>
+      <c r="R9" s="53"/>
       <c r="Y9" s="37"/>
       <c r="Z9" s="37"/>
-      <c r="AA9" s="154"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="154"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B10" s="28" t="s">
         <v>76</v>
       </c>
@@ -11610,36 +11913,37 @@
       <c r="Q10" s="53">
         <v>27.7</v>
       </c>
-      <c r="R10" s="154">
-        <f>P10*(R11+1)</f>
+      <c r="R10" s="53"/>
+      <c r="S10" s="256">
+        <f>P10*(S11+1)</f>
         <v>32.102349662858444</v>
       </c>
-      <c r="S10" s="154">
-        <f>R10*(S11+1)</f>
+      <c r="T10" s="256">
+        <f>S10*(T11+1)</f>
         <v>34.711665668471007</v>
       </c>
-      <c r="T10" s="154">
-        <f>S10*(T11+1)</f>
+      <c r="U10" s="154">
+        <f>T10*(U11+1)</f>
         <v>37.31877131558975</v>
       </c>
-      <c r="X10" s="37">
+      <c r="Y10" s="37">
         <f>AVERAGE(D10:G10)</f>
         <v>6.9750000000000005</v>
       </c>
-      <c r="Y10" s="37">
+      <c r="Z10" s="37">
         <f>AVERAGE(H10:K10)</f>
         <v>10.8</v>
       </c>
-      <c r="Z10" s="37">
+      <c r="AA10" s="37">
         <f>AVERAGE(L10:O10)</f>
         <v>22</v>
       </c>
-      <c r="AA10" s="150">
-        <f>AVERAGE(P10:T10)</f>
+      <c r="AB10" s="150">
+        <f>AVERAGE(P10:U10)</f>
         <v>32.026557329383834</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B11" s="28" t="s">
         <v>79</v>
       </c>
@@ -11650,83 +11954,84 @@
         <v>33</v>
       </c>
       <c r="E11" s="29">
-        <f t="shared" ref="E11:P11" si="7">E10/D10-1</f>
+        <f t="shared" ref="E11:P11" si="9">E10/D10-1</f>
         <v>4.6875E-2</v>
       </c>
       <c r="F11" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.9701492537313383E-2</v>
       </c>
       <c r="G11" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.4507042253521236E-2</v>
       </c>
       <c r="H11" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.2597402597402596</v>
       </c>
       <c r="I11" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.20618556701030921</v>
       </c>
       <c r="J11" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.2597402597402596</v>
       </c>
       <c r="K11" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.65979381443299001</v>
       </c>
       <c r="L11" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.8322981366459423E-2</v>
       </c>
       <c r="M11" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.2441860465116279</v>
       </c>
       <c r="N11" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.11214953271028039</v>
       </c>
       <c r="O11" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.5630252100840289E-2</v>
       </c>
       <c r="P11" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.10546875</v>
       </c>
       <c r="Q11" s="29">
-        <f t="shared" ref="Q11" si="8">Q10/P10-1</f>
+        <f t="shared" ref="Q11" si="10">Q10/P10-1</f>
         <v>-2.1201413427561877E-2</v>
       </c>
-      <c r="R11" s="151">
+      <c r="R11" s="29"/>
+      <c r="S11" s="253">
         <f>AVERAGE(M11:P11)</f>
         <v>0.13435864533068714</v>
       </c>
-      <c r="S11" s="151">
-        <f>AVERAGE(N11:R11)</f>
+      <c r="T11" s="253">
+        <f>AVERAGE(N11:S11)</f>
         <v>8.1281153342849188E-2</v>
       </c>
-      <c r="T11" s="151">
-        <f>AVERAGE(O11:S11)</f>
+      <c r="U11" s="151">
+        <f>AVERAGE(O11:T11)</f>
         <v>7.5107477469362943E-2</v>
       </c>
-      <c r="X11" s="136" t="s">
-        <v>33</v>
-      </c>
       <c r="Y11" s="136" t="s">
         <v>33</v>
       </c>
       <c r="Z11" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="AA11" s="158" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA11" s="136" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB11" s="158" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B12" s="28" t="s">
         <v>80</v>
       </c>
@@ -11746,82 +12051,84 @@
         <v>33</v>
       </c>
       <c r="H12" s="29">
-        <f t="shared" ref="H12:P12" si="9">H10/D10-1</f>
+        <f t="shared" ref="H12:P12" si="11">H10/D10-1</f>
         <v>0.51562499999999978</v>
       </c>
       <c r="I12" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.14925373134328357</v>
       </c>
       <c r="J12" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.36619718309859151</v>
       </c>
       <c r="K12" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.0909090909090908</v>
       </c>
       <c r="L12" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.77319587628865993</v>
       </c>
       <c r="M12" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.779220779220779</v>
       </c>
       <c r="N12" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.4536082474226806</v>
       </c>
       <c r="O12" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.59006211180124213</v>
       </c>
       <c r="P12" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.64534883720930236</v>
       </c>
       <c r="Q12" s="33">
-        <f t="shared" ref="Q12" si="10">Q10/M10-1</f>
+        <f t="shared" ref="Q12" si="12">Q10/M10-1</f>
         <v>0.29439252336448596</v>
       </c>
-      <c r="R12" s="152">
-        <f>R10/M10-1</f>
+      <c r="R12" s="33"/>
+      <c r="S12" s="254">
+        <f>S10/M10-1</f>
         <v>0.50010979732983385</v>
       </c>
-      <c r="S12" s="152">
-        <f>S10/N10-1</f>
+      <c r="T12" s="254">
+        <f>T10/N10-1</f>
         <v>0.45847334741474821</v>
       </c>
-      <c r="T12" s="152">
-        <f>T10/O10-1</f>
+      <c r="U12" s="152">
+        <f>U10/O10-1</f>
         <v>0.45776450451522455</v>
       </c>
-      <c r="X12" s="155" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y12" s="29">
-        <f>Y10/X10-1</f>
-        <v>0.54838709677419351</v>
+      <c r="Y12" s="155" t="s">
+        <v>33</v>
       </c>
       <c r="Z12" s="29">
         <f>Z10/Y10-1</f>
+        <v>0.54838709677419351</v>
+      </c>
+      <c r="AA12" s="29">
+        <f>AA10/Z10-1</f>
         <v>1.0370370370370368</v>
       </c>
-      <c r="AA12" s="152">
-        <f>AA10/Z10-1</f>
+      <c r="AB12" s="152">
+        <f>AB10/AA10-1</f>
         <v>0.45575260588108346</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B13" s="28"/>
       <c r="P13" s="53"/>
       <c r="Q13" s="53"/>
-      <c r="X13" s="37"/>
+      <c r="R13" s="53"/>
       <c r="Y13" s="37"/>
       <c r="Z13" s="37"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA13" s="37"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>86</v>
       </c>
@@ -11874,36 +12181,39 @@
       <c r="Q14" s="32">
         <v>11924</v>
       </c>
-      <c r="R14" s="156">
-        <f>P14*(R15+1)</f>
+      <c r="R14" s="32">
+        <v>13400</v>
+      </c>
+      <c r="S14" s="257">
+        <f>P14*(S15+1)</f>
         <v>12850.341134695112</v>
       </c>
-      <c r="S14" s="156">
-        <f>R14*(S15+1)</f>
-        <v>13571.246601638479</v>
-      </c>
-      <c r="T14" s="156">
+      <c r="T14" s="257">
         <f>S14*(T15+1)</f>
-        <v>14081.824505090588</v>
-      </c>
-      <c r="X14" s="137">
+        <v>13716.206720264463</v>
+      </c>
+      <c r="U14" s="156">
+        <f>T14*(U15+1)</f>
+        <v>14454.995400896689</v>
+      </c>
+      <c r="Y14" s="137">
         <f>AVERAGE(D14:G14)</f>
         <v>3413.25</v>
       </c>
-      <c r="Y14" s="137">
+      <c r="Z14" s="137">
         <f>AVERAGE(K14:N14)</f>
         <v>9756.5</v>
       </c>
-      <c r="Z14" s="137">
+      <c r="AA14" s="137">
         <f>AVERAGE(L14:O14)</f>
         <v>10353.5</v>
       </c>
-      <c r="AA14" s="159">
-        <f>AVERAGE(P14:T14)</f>
-        <v>12908.714448284836</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AB14" s="159">
+        <f>AVERAGE(P14:U14)</f>
+        <v>13076.950542642711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
         <v>84</v>
       </c>
@@ -11911,75 +12221,76 @@
         <v>33</v>
       </c>
       <c r="D15" s="29">
-        <f t="shared" ref="D15:P15" si="11">D14/C14-1</f>
+        <f t="shared" ref="D15:P15" si="13">D14/C14-1</f>
         <v>0.17549407114624516</v>
       </c>
       <c r="E15" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.2131809011432475E-2</v>
       </c>
       <c r="F15" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.14839901477832518</v>
       </c>
       <c r="G15" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-7.7747989276139018E-3</v>
       </c>
       <c r="H15" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.31721156444204279</v>
       </c>
       <c r="I15" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.76123076923076916</v>
       </c>
       <c r="J15" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.455858374097363E-2</v>
       </c>
       <c r="K15" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.2258064516129004E-2</v>
       </c>
       <c r="L15" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.14756820877817312</v>
       </c>
       <c r="M15" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6.6156708703741796E-3</v>
       </c>
       <c r="N15" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.14849044978435</v>
       </c>
       <c r="O15" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.272532188841204E-2</v>
       </c>
       <c r="P15" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="Q15" s="29">
-        <f t="shared" ref="Q15" si="12">Q14/P14-1</f>
+        <f t="shared" ref="Q15" si="14">Q14/P14-1</f>
         <v>-1.5859810368961891E-2</v>
       </c>
-      <c r="R15" s="151">
+      <c r="R15" s="29">
+        <f t="shared" ref="R15" si="15">R14/Q14-1</f>
+        <v>0.12378396511237844</v>
+      </c>
+      <c r="S15" s="253">
         <f>AVERAGE(M15:P15)</f>
         <v>6.0595199691578061E-2</v>
       </c>
-      <c r="S15" s="151">
-        <f>AVERAGE(N15:R15)</f>
-        <v>5.6100103443710844E-2</v>
-      </c>
-      <c r="T15" s="151">
-        <f>AVERAGE(O15:S15)</f>
-        <v>3.7622034175583019E-2</v>
-      </c>
-      <c r="X15" s="136" t="s">
-        <v>33</v>
+      <c r="T15" s="253">
+        <f>AVERAGE(N15:S15)</f>
+        <v>6.738074705515544E-2</v>
+      </c>
+      <c r="U15" s="151">
+        <f>AVERAGE(O15:T15)</f>
+        <v>5.3862463266956352E-2</v>
       </c>
       <c r="Y15" s="136" t="s">
         <v>33</v>
@@ -11987,11 +12298,14 @@
       <c r="Z15" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="AA15" s="158" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA15" s="136" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB15" s="158" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B16" s="28" t="s">
         <v>85</v>
       </c>
@@ -12008,82 +12322,87 @@
         <v>33</v>
       </c>
       <c r="G16" s="33">
-        <f t="shared" ref="G16:P16" si="13">G14/C14-1</f>
+        <f t="shared" ref="G16:P16" si="16">G14/C14-1</f>
         <v>0.46284584980237153</v>
       </c>
       <c r="H16" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.63920645595158043</v>
       </c>
       <c r="I16" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.6434729064039408</v>
       </c>
       <c r="J16" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3353887399463806</v>
       </c>
       <c r="K16" s="33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2777627668197784</v>
       </c>
       <c r="L16" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.98441025641025637</v>
       </c>
       <c r="M16" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.13417190775681331</v>
       </c>
       <c r="N16" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.28389392721845952</v>
       </c>
       <c r="O16" s="33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.28327402135231328</v>
       </c>
       <c r="P16" s="138">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.25244573082489175</v>
       </c>
       <c r="Q16" s="138">
-        <f t="shared" ref="Q16" si="14">Q14/M14-1</f>
+        <f t="shared" ref="Q16" si="17">Q14/M14-1</f>
         <v>0.22448141302115432</v>
       </c>
-      <c r="R16" s="157">
-        <f>R14/M14-1</f>
+      <c r="R16" s="138">
+        <f t="shared" ref="R16" si="18">R14/N14-1</f>
+        <v>0.198140200286123</v>
+      </c>
+      <c r="S16" s="258">
+        <f>S14/M14-1</f>
         <v>0.3196078388473107</v>
       </c>
-      <c r="S16" s="157">
-        <f>S14/N14-1</f>
-        <v>0.21345194935966361</v>
-      </c>
-      <c r="T16" s="157">
-        <f>T14/O14-1</f>
-        <v>0.30170313413667849</v>
-      </c>
-      <c r="X16" s="155" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y16" s="29">
-        <f>Y14/X14-1</f>
-        <v>1.8584193950047609</v>
+      <c r="T16" s="258">
+        <f>T14/N14-1</f>
+        <v>0.22641333335697977</v>
+      </c>
+      <c r="U16" s="157">
+        <f>U14/O14-1</f>
+        <v>0.33619850257872885</v>
+      </c>
+      <c r="Y16" s="155" t="s">
+        <v>33</v>
       </c>
       <c r="Z16" s="29">
         <f>Z14/Y14-1</f>
+        <v>1.8584193950047609</v>
+      </c>
+      <c r="AA16" s="29">
+        <f>AA14/Z14-1</f>
         <v>6.1189975913493511E-2</v>
       </c>
-      <c r="AA16" s="152">
-        <f>AA14/Z14-1</f>
-        <v>0.24679716504417204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB16" s="152">
+        <f>AB14/AA14-1</f>
+        <v>0.26304636525259206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P17" s="53"/>
       <c r="Q17" s="53"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R17" s="53"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>173</v>
       </c>
@@ -12135,21 +12454,24 @@
       <c r="Q18" s="53">
         <v>12.25</v>
       </c>
-      <c r="R18" s="164">
+      <c r="R18" s="53">
+        <v>11.94</v>
+      </c>
+      <c r="S18" s="259">
         <f>AVERAGE(M18:P18)</f>
         <v>14.032500000000001</v>
       </c>
-      <c r="S18" s="164">
-        <f>AVERAGE(N18:R18)</f>
-        <v>13.400499999999999</v>
-      </c>
-      <c r="T18" s="164">
-        <f>AVERAGE(O18:S18)</f>
-        <v>13.3826</v>
-      </c>
-      <c r="Z18" s="137"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T18" s="259">
+        <f>AVERAGE(N18:S18)</f>
+        <v>13.157083333333333</v>
+      </c>
+      <c r="U18" s="164">
+        <f>AVERAGE(O18:T18)</f>
+        <v>13.101597222222223</v>
+      </c>
+      <c r="AA18" s="137"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>175</v>
       </c>
@@ -12157,55 +12479,55 @@
         <v>174</v>
       </c>
       <c r="C19" s="163">
-        <f t="shared" ref="C19:O19" si="15">C2*C18</f>
+        <f t="shared" ref="C19:O19" si="19">C2*C18</f>
         <v>143.02799999999999</v>
       </c>
       <c r="D19" s="163">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>141.88400000000001</v>
       </c>
       <c r="E19" s="163">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>150.13800000000001</v>
       </c>
       <c r="F19" s="163">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>165.6</v>
       </c>
       <c r="G19" s="163">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>236.267</v>
       </c>
       <c r="H19" s="163">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>249.68800000000002</v>
       </c>
       <c r="I19" s="163">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>494.654</v>
       </c>
       <c r="J19" s="163">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>497.02600000000007</v>
       </c>
       <c r="K19" s="163">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>641.83000000000004</v>
       </c>
       <c r="L19" s="163">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>651.70800000000008</v>
       </c>
       <c r="M19" s="163">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>665.7120000000001</v>
       </c>
       <c r="N19" s="163">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>638.077</v>
       </c>
       <c r="O19" s="163">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>770.22</v>
       </c>
       <c r="P19" s="163">
@@ -12216,21 +12538,25 @@
         <f>Q2*Q18</f>
         <v>639.45000000000005</v>
       </c>
-      <c r="R19" s="164">
-        <f>R2*R18</f>
+      <c r="R19" s="163">
+        <f t="shared" ref="R19" si="20">R2*R18</f>
+        <v>702.07199999999989</v>
+      </c>
+      <c r="S19" s="259">
+        <f>S2*S18</f>
         <v>808.59398886930887</v>
       </c>
-      <c r="S19" s="164">
-        <f>S2*S18</f>
-        <v>813.00083482632692</v>
-      </c>
-      <c r="T19" s="164">
+      <c r="T19" s="259">
         <f>T2*T18</f>
-        <v>848.01411049859303</v>
-      </c>
-      <c r="Z19" s="137"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+        <v>807.52872410706834</v>
+      </c>
+      <c r="U19" s="164">
+        <f>U2*U18</f>
+        <v>852.5056136633649</v>
+      </c>
+      <c r="AA19" s="137"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="31"/>
       <c r="B20" s="200" t="s">
         <v>203</v>
@@ -12239,67 +12565,71 @@
         <v>33</v>
       </c>
       <c r="D20" s="201">
-        <f t="shared" ref="D20:P20" si="16">D18/C18-1</f>
+        <f t="shared" ref="D20:P20" si="21">D18/C18-1</f>
         <v>-0.13984674329501912</v>
       </c>
       <c r="E20" s="201">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>-2.2271714922049157E-2</v>
       </c>
       <c r="F20" s="201">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>2.5056947608200542E-2</v>
       </c>
       <c r="G20" s="201">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.37444444444444436</v>
       </c>
       <c r="H20" s="201">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>-0.14470493128536777</v>
       </c>
       <c r="I20" s="201">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.39981096408317573</v>
       </c>
       <c r="J20" s="201">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>-7.2923700202565889E-2</v>
       </c>
       <c r="K20" s="201">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.26001456664238898</v>
       </c>
       <c r="L20" s="201">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>-0.10520231213872833</v>
       </c>
       <c r="M20" s="201">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>-4.5219638242893767E-3</v>
       </c>
       <c r="N20" s="201">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>-0.12459441920830627</v>
       </c>
       <c r="O20" s="201">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.15344699777613058</v>
       </c>
       <c r="P20" s="201">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>-0.25</v>
       </c>
       <c r="Q20" s="201">
         <f>Q18/P18-1</f>
         <v>4.9700085689802886E-2</v>
       </c>
-      <c r="R20" s="164"/>
-      <c r="S20" s="164"/>
-      <c r="T20" s="164"/>
-      <c r="Z20" s="137"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R20" s="201">
+        <f t="shared" ref="R20" si="22">R18/Q18-1</f>
+        <v>-2.5306122448979673E-2</v>
+      </c>
+      <c r="S20" s="259"/>
+      <c r="T20" s="259"/>
+      <c r="U20" s="164"/>
+      <c r="AA20" s="137"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
       <c r="B21" s="200" t="s">
         <v>202</v>
@@ -12317,69 +12647,75 @@
         <v>33</v>
       </c>
       <c r="G21" s="201">
-        <f t="shared" ref="G21:P21" si="17">G18/C18-1</f>
+        <f t="shared" ref="G21:P21" si="23">G18/C18-1</f>
         <v>0.18486590038314166</v>
       </c>
       <c r="H21" s="201">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.17817371937639193</v>
       </c>
       <c r="I21" s="201">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.68678815489749456</v>
       </c>
       <c r="J21" s="201">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.52555555555555555</v>
       </c>
       <c r="K21" s="201">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.39854486661277289</v>
       </c>
       <c r="L21" s="201">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.46313799621928164</v>
       </c>
       <c r="M21" s="201">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>4.0513166779203136E-2</v>
       </c>
       <c r="N21" s="201">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-1.7479970866715266E-2</v>
       </c>
       <c r="O21" s="201">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-0.10057803468208093</v>
       </c>
       <c r="P21" s="201">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-0.24612403100775193</v>
       </c>
       <c r="Q21" s="201">
         <f>Q18/M18-1</f>
         <v>-0.20506164828033746</v>
       </c>
-      <c r="R21" s="164"/>
-      <c r="S21" s="164"/>
-      <c r="T21" s="164"/>
-      <c r="Z21" s="137"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R21" s="201">
+        <f t="shared" ref="R21" si="24">R18/N18-1</f>
+        <v>-0.11489992587101561</v>
+      </c>
+      <c r="S21" s="259"/>
+      <c r="T21" s="259"/>
+      <c r="U21" s="164"/>
+      <c r="AA21" s="137"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P22" s="53"/>
       <c r="Q22" s="53"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R22" s="53"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B24" s="109"/>
       <c r="P24" s="110"/>
       <c r="Q24" s="110"/>
+      <c r="R24" s="110"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="X2:Z16 R18" formulaRange="1"/>
+    <ignoredError sqref="Y2:AA16 S18" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/$RBLX.xlsx
+++ b/$RBLX.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5204DB72-C939-4BED-A70E-818CAB7670B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F615CB2-6500-43F7-A913-B86459033241}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18885" xr2:uid="{DB6ABC51-E0DE-6747-8CA5-53C172A4844D}"/>
   </bookViews>
@@ -1350,7 +1350,7 @@
     <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="272">
+  <cellXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1828,72 +1828,6 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="22" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="22" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="36" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1935,6 +1869,73 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="22" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="22" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent3" xfId="5" builtinId="38"/>
@@ -2345,10 +2346,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Metrics!$D$6:$Q$6</c:f>
+              <c:f>Metrics!$D$6:$R$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>9</c:v>
                 </c:pt>
@@ -2390,6 +2391,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2552,10 +2556,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Metrics!$D$10:$Q$10</c:f>
+              <c:f>Metrics!$D$10:$R$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>6.4</c:v>
                 </c:pt>
@@ -2597,6 +2601,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>27.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3564,7 +3571,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12623800" y="0"/>
+          <a:off x="13309600" y="0"/>
           <a:ext cx="0" cy="10029825"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3976,8 +3983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE4A73D-2F46-7341-9C57-6E5B7A39A15C}">
   <dimension ref="B1:AL86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:AL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3995,35 +4002,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="L1" s="254" t="s">
+      <c r="L1" s="269" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="255"/>
-      <c r="N1" s="255"/>
-      <c r="O1" s="255"/>
-      <c r="P1" s="255"/>
-      <c r="Q1" s="255"/>
-      <c r="R1" s="255"/>
-      <c r="S1" s="255"/>
-      <c r="T1" s="255"/>
-      <c r="U1" s="256"/>
-      <c r="W1" s="249" t="s">
+      <c r="M1" s="270"/>
+      <c r="N1" s="270"/>
+      <c r="O1" s="270"/>
+      <c r="P1" s="270"/>
+      <c r="Q1" s="270"/>
+      <c r="R1" s="270"/>
+      <c r="S1" s="270"/>
+      <c r="T1" s="270"/>
+      <c r="U1" s="271"/>
+      <c r="W1" s="264" t="s">
         <v>127</v>
       </c>
-      <c r="X1" s="250"/>
-      <c r="Y1" s="250"/>
-      <c r="Z1" s="250"/>
-      <c r="AA1" s="250"/>
-      <c r="AB1" s="250"/>
-      <c r="AC1" s="250"/>
-      <c r="AD1" s="250"/>
-      <c r="AE1" s="250"/>
-      <c r="AF1" s="250"/>
-      <c r="AG1" s="250"/>
-      <c r="AH1" s="250"/>
-      <c r="AI1" s="250"/>
-      <c r="AJ1" s="250"/>
-      <c r="AK1" s="251"/>
+      <c r="X1" s="265"/>
+      <c r="Y1" s="265"/>
+      <c r="Z1" s="265"/>
+      <c r="AA1" s="265"/>
+      <c r="AB1" s="265"/>
+      <c r="AC1" s="265"/>
+      <c r="AD1" s="265"/>
+      <c r="AE1" s="265"/>
+      <c r="AF1" s="265"/>
+      <c r="AG1" s="265"/>
+      <c r="AH1" s="265"/>
+      <c r="AI1" s="265"/>
+      <c r="AJ1" s="265"/>
+      <c r="AK1" s="265"/>
+      <c r="AL1" s="266"/>
     </row>
     <row r="2" spans="2:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
@@ -4051,7 +4059,7 @@
         <v>44788</v>
       </c>
       <c r="T2" s="197"/>
-      <c r="U2" s="257"/>
+      <c r="U2" s="235"/>
     </row>
     <row r="3" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="46" t="s">
@@ -4222,16 +4230,16 @@
       </c>
     </row>
     <row r="5" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B5" s="235" t="s">
+      <c r="B5" s="250" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="236"/>
-      <c r="D5" s="237"/>
-      <c r="F5" s="235" t="s">
+      <c r="C5" s="251"/>
+      <c r="D5" s="252"/>
+      <c r="F5" s="250" t="s">
         <v>193</v>
       </c>
-      <c r="G5" s="236"/>
-      <c r="H5" s="237"/>
+      <c r="G5" s="251"/>
+      <c r="H5" s="252"/>
       <c r="K5" s="28" t="s">
         <v>73</v>
       </c>
@@ -4339,10 +4347,10 @@
       <c r="F6" s="176" t="s">
         <v>194</v>
       </c>
-      <c r="G6" s="252" t="s">
+      <c r="G6" s="267" t="s">
         <v>198</v>
       </c>
-      <c r="H6" s="241"/>
+      <c r="H6" s="256"/>
       <c r="K6" s="28" t="s">
         <v>74</v>
       </c>
@@ -4447,10 +4455,10 @@
       <c r="F7" s="176" t="s">
         <v>195</v>
       </c>
-      <c r="G7" s="240">
+      <c r="G7" s="255">
         <v>2004</v>
       </c>
-      <c r="H7" s="241"/>
+      <c r="H7" s="256"/>
       <c r="K7" s="28"/>
       <c r="L7" s="60"/>
       <c r="M7" s="60"/>
@@ -4491,11 +4499,11 @@
       <c r="F8" s="176" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="240">
+      <c r="G8" s="255">
         <f>AL4</f>
         <v>58.8</v>
       </c>
-      <c r="H8" s="241"/>
+      <c r="H8" s="256"/>
       <c r="K8" s="28" t="s">
         <v>75</v>
       </c>
@@ -4572,6 +4580,9 @@
       </c>
       <c r="AK8" s="6">
         <v>24.2</v>
+      </c>
+      <c r="AL8" s="6">
+        <v>26.4</v>
       </c>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.25">
@@ -4587,8 +4598,8 @@
         <v>Q322</v>
       </c>
       <c r="F9" s="162"/>
-      <c r="G9" s="240"/>
-      <c r="H9" s="241"/>
+      <c r="G9" s="255"/>
+      <c r="H9" s="256"/>
       <c r="K9" s="28" t="s">
         <v>77</v>
       </c>
@@ -4676,8 +4687,12 @@
         <v>8.0508474576271194E-2</v>
       </c>
       <c r="AK9" s="24">
-        <f t="shared" ref="AK9" si="8">AK8/AJ8-1</f>
+        <f t="shared" ref="AK9:AL9" si="8">AK8/AJ8-1</f>
         <v>-5.0980392156862786E-2</v>
+      </c>
+      <c r="AL9" s="24">
+        <f t="shared" si="8"/>
+        <v>9.0909090909090828E-2</v>
       </c>
     </row>
     <row r="10" spans="2:38" x14ac:dyDescent="0.25">
@@ -4693,8 +4708,8 @@
         <v>Q322</v>
       </c>
       <c r="F10" s="162"/>
-      <c r="G10" s="240"/>
-      <c r="H10" s="241"/>
+      <c r="G10" s="255"/>
+      <c r="H10" s="256"/>
       <c r="K10" s="28" t="s">
         <v>78</v>
       </c>
@@ -4779,8 +4794,12 @@
         <v>0.19718309859154926</v>
       </c>
       <c r="AK10" s="155">
-        <f t="shared" ref="AK10" si="10">AK8/AG8-1</f>
+        <f t="shared" ref="AK10:AL10" si="10">AK8/AG8-1</f>
         <v>0.12558139534883717</v>
+      </c>
+      <c r="AL10" s="155">
+        <f t="shared" si="10"/>
+        <v>0.14285714285714279</v>
       </c>
     </row>
     <row r="11" spans="2:38" x14ac:dyDescent="0.25">
@@ -4798,10 +4817,10 @@
       <c r="F11" s="176" t="s">
         <v>199</v>
       </c>
-      <c r="G11" s="253" t="s">
+      <c r="G11" s="268" t="s">
         <v>109</v>
       </c>
-      <c r="H11" s="241"/>
+      <c r="H11" s="256"/>
       <c r="K11" s="28"/>
       <c r="L11" s="60"/>
       <c r="M11" s="60"/>
@@ -4831,10 +4850,10 @@
       <c r="F12" s="177" t="s">
         <v>196</v>
       </c>
-      <c r="G12" s="244" t="s">
+      <c r="G12" s="259" t="s">
         <v>197</v>
       </c>
-      <c r="H12" s="245"/>
+      <c r="H12" s="260"/>
       <c r="K12" s="28" t="s">
         <v>76</v>
       </c>
@@ -4911,6 +4930,9 @@
       </c>
       <c r="AK12" s="6">
         <v>27.2</v>
+      </c>
+      <c r="AL12" s="6">
+        <v>31.9</v>
       </c>
     </row>
     <row r="13" spans="2:38" x14ac:dyDescent="0.25">
@@ -5001,8 +5023,12 @@
         <v>0.10546875</v>
       </c>
       <c r="AK13" s="24">
-        <f t="shared" ref="AK13" si="12">AK12/AJ12-1</f>
+        <f t="shared" ref="AK13:AL13" si="12">AK12/AJ12-1</f>
         <v>-3.8869257950530089E-2</v>
+      </c>
+      <c r="AL13" s="24">
+        <f t="shared" si="12"/>
+        <v>0.17279411764705888</v>
       </c>
     </row>
     <row r="14" spans="2:38" x14ac:dyDescent="0.25">
@@ -5090,21 +5116,25 @@
         <v>0.64534883720930236</v>
       </c>
       <c r="AK14" s="33">
-        <f t="shared" ref="AK14" si="14">AK12/AG12-1</f>
+        <f t="shared" ref="AK14:AL14" si="14">AK12/AG12-1</f>
         <v>0.27102803738317771</v>
       </c>
+      <c r="AL14" s="33">
+        <f t="shared" si="14"/>
+        <v>0.34033613445378141</v>
+      </c>
     </row>
     <row r="15" spans="2:38" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="235" t="s">
+      <c r="B15" s="250" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="236"/>
-      <c r="D15" s="237"/>
-      <c r="F15" s="235" t="s">
+      <c r="C15" s="251"/>
+      <c r="D15" s="252"/>
+      <c r="F15" s="250" t="s">
         <v>204</v>
       </c>
-      <c r="G15" s="236"/>
-      <c r="H15" s="237"/>
+      <c r="G15" s="251"/>
+      <c r="H15" s="252"/>
       <c r="K15" s="28"/>
       <c r="L15" s="62"/>
       <c r="M15" s="62"/>
@@ -5121,18 +5151,18 @@
       <c r="B16" s="92" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="248" t="s">
+      <c r="C16" s="263" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="241"/>
+      <c r="D16" s="256"/>
       <c r="F16" s="176" t="s">
         <v>205</v>
       </c>
-      <c r="G16" s="242">
+      <c r="G16" s="257">
         <f>C6/'Financial Model'!M64</f>
         <v>44.601967818517387</v>
       </c>
-      <c r="H16" s="243"/>
+      <c r="H16" s="258"/>
       <c r="J16" s="31" t="s">
         <v>86</v>
       </c>
@@ -5162,7 +5192,7 @@
       <c r="T16" s="63">
         <v>4000</v>
       </c>
-      <c r="U16" s="258"/>
+      <c r="U16" s="236"/>
       <c r="V16" s="32"/>
       <c r="W16" s="32">
         <v>2530</v>
@@ -5210,23 +5240,26 @@
       <c r="AK16" s="32">
         <v>11300</v>
       </c>
-    </row>
-    <row r="17" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL16" s="272">
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B17" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="238" t="s">
+      <c r="C17" s="253" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="239"/>
+      <c r="D17" s="254"/>
       <c r="F17" s="176" t="s">
         <v>214</v>
       </c>
-      <c r="G17" s="242">
+      <c r="G17" s="257">
         <f>C8/'Financial Model'!W3</f>
         <v>9.8675626321852903</v>
       </c>
-      <c r="H17" s="243"/>
+      <c r="H17" s="258"/>
       <c r="K17" s="28" t="s">
         <v>84</v>
       </c>
@@ -5311,26 +5344,30 @@
         <v>0.12000000000000011</v>
       </c>
       <c r="AK17" s="24">
-        <f t="shared" ref="AK17" si="16">AK16/AJ16-1</f>
+        <f t="shared" ref="AK17:AL17" si="16">AK16/AJ16-1</f>
         <v>-6.7361276179911944E-2</v>
       </c>
-    </row>
-    <row r="18" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL17" s="24">
+        <f t="shared" si="16"/>
+        <v>0.18584070796460184</v>
+      </c>
+    </row>
+    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B18" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="248" t="s">
+      <c r="C18" s="263" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="241"/>
+      <c r="D18" s="256"/>
       <c r="F18" s="176" t="s">
         <v>215</v>
       </c>
-      <c r="G18" s="242">
+      <c r="G18" s="257">
         <f>C6/SUM('Financial Model'!J19:M19)</f>
         <v>-23.723072493855522</v>
       </c>
-      <c r="H18" s="243"/>
+      <c r="H18" s="258"/>
       <c r="K18" s="28" t="s">
         <v>85</v>
       </c>
@@ -5412,28 +5449,32 @@
         <v>0.25244573082489175</v>
       </c>
       <c r="AK18" s="155">
-        <f t="shared" ref="AK18" si="18">AK16/AG16-1</f>
+        <f t="shared" ref="AK18:AL18" si="18">AK16/AG16-1</f>
         <v>0.16040254672417342</v>
       </c>
-    </row>
-    <row r="19" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL18" s="155">
+        <f t="shared" si="18"/>
+        <v>0.198140200286123</v>
+      </c>
+    </row>
+    <row r="19" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B19" s="90"/>
-      <c r="C19" s="240"/>
-      <c r="D19" s="241"/>
+      <c r="C19" s="255"/>
+      <c r="D19" s="256"/>
       <c r="F19" s="176"/>
-      <c r="G19" s="240"/>
-      <c r="H19" s="241"/>
+      <c r="G19" s="255"/>
+      <c r="H19" s="256"/>
       <c r="K19" s="28"/>
       <c r="L19" s="62"/>
       <c r="M19" s="62"/>
     </row>
-    <row r="20" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="91"/>
-      <c r="C20" s="246"/>
-      <c r="D20" s="247"/>
+      <c r="C20" s="261"/>
+      <c r="D20" s="262"/>
       <c r="F20" s="177"/>
-      <c r="G20" s="244"/>
-      <c r="H20" s="245"/>
+      <c r="G20" s="259"/>
+      <c r="H20" s="260"/>
       <c r="J20" s="31"/>
       <c r="K20" s="195" t="s">
         <v>213</v>
@@ -5453,30 +5494,30 @@
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
     </row>
-    <row r="21" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:38" x14ac:dyDescent="0.25">
       <c r="K21" s="195" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:38" x14ac:dyDescent="0.25">
       <c r="K22" s="195" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B23" s="235" t="s">
+    <row r="23" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B23" s="250" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="236"/>
-      <c r="D23" s="236"/>
-      <c r="E23" s="236"/>
-      <c r="F23" s="236"/>
-      <c r="G23" s="237"/>
+      <c r="C23" s="251"/>
+      <c r="D23" s="251"/>
+      <c r="E23" s="251"/>
+      <c r="F23" s="251"/>
+      <c r="G23" s="252"/>
       <c r="K23" s="195" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B24" s="107" t="s">
         <v>169</v>
       </c>
@@ -5489,7 +5530,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B25" s="107" t="s">
         <v>170</v>
       </c>
@@ -5505,7 +5546,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B26" s="97"/>
       <c r="C26" s="95"/>
       <c r="D26" s="95"/>
@@ -5519,7 +5560,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B27" s="97" t="s">
         <v>149</v>
       </c>
@@ -5535,7 +5576,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B28" s="94" t="s">
         <v>162</v>
       </c>
@@ -5545,7 +5586,7 @@
       <c r="F28" s="98"/>
       <c r="G28" s="96"/>
     </row>
-    <row r="29" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B29" s="103" t="s">
         <v>163</v>
       </c>
@@ -5561,7 +5602,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B30" s="94" t="s">
         <v>161</v>
       </c>
@@ -5573,7 +5614,7 @@
       <c r="J30" s="93"/>
       <c r="K30" s="93"/>
     </row>
-    <row r="31" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B31" s="99" t="s">
         <v>150</v>
       </c>
@@ -5583,14 +5624,14 @@
       <c r="F31" s="101"/>
       <c r="G31" s="102"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="235" t="s">
+      <c r="K31" s="250" t="s">
         <v>181</v>
       </c>
-      <c r="L31" s="236"/>
-      <c r="M31" s="236"/>
-      <c r="N31" s="237"/>
-    </row>
-    <row r="32" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="L31" s="251"/>
+      <c r="M31" s="251"/>
+      <c r="N31" s="252"/>
+    </row>
+    <row r="32" spans="2:38" x14ac:dyDescent="0.25">
       <c r="J32" s="7"/>
       <c r="K32" s="168" t="s">
         <v>176</v>
@@ -5600,14 +5641,14 @@
       <c r="N32" s="96"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="235" t="s">
+      <c r="B33" s="250" t="s">
         <v>187</v>
       </c>
-      <c r="C33" s="236"/>
-      <c r="D33" s="236"/>
-      <c r="E33" s="236"/>
-      <c r="F33" s="236"/>
-      <c r="G33" s="237"/>
+      <c r="C33" s="251"/>
+      <c r="D33" s="251"/>
+      <c r="E33" s="251"/>
+      <c r="F33" s="251"/>
+      <c r="G33" s="252"/>
       <c r="J33" s="7"/>
       <c r="K33" s="168" t="s">
         <v>177</v>
@@ -5825,11 +5866,11 @@
       <c r="N47" s="96"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="259" t="s">
+      <c r="B48" s="237" t="s">
         <v>220</v>
       </c>
       <c r="J48" s="7"/>
-      <c r="K48" s="261" t="s">
+      <c r="K48" s="239" t="s">
         <v>158</v>
       </c>
       <c r="L48" s="95"/>
@@ -5837,7 +5878,7 @@
       <c r="N48" s="96"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="259" t="s">
+      <c r="B49" s="237" t="s">
         <v>222</v>
       </c>
       <c r="K49" s="170"/>
@@ -5846,13 +5887,13 @@
       <c r="N49" s="96"/>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="260" t="s">
+      <c r="B50" s="238" t="s">
         <v>223</v>
       </c>
-      <c r="J50" s="262" t="s">
+      <c r="J50" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="K50" s="261" t="s">
+      <c r="K50" s="239" t="s">
         <v>237</v>
       </c>
       <c r="L50" s="166" t="s">
@@ -5862,7 +5903,7 @@
       <c r="N50" s="96"/>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="260" t="s">
+      <c r="B51" s="238" t="s">
         <v>224</v>
       </c>
       <c r="K51" s="171"/>
@@ -5871,12 +5912,12 @@
       <c r="N51" s="102"/>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B52" s="260" t="s">
+      <c r="B52" s="238" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="260" t="s">
+      <c r="B53" s="238" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5886,7 +5927,7 @@
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="259" t="s">
+      <c r="B55" s="237" t="s">
         <v>227</v>
       </c>
       <c r="K55" s="21" t="s">
@@ -5899,7 +5940,7 @@
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="259" t="s">
+      <c r="B57" s="237" t="s">
         <v>228</v>
       </c>
       <c r="K57" s="21" t="s">
@@ -5907,7 +5948,7 @@
       </c>
     </row>
     <row r="58" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="259" t="s">
+      <c r="B58" s="237" t="s">
         <v>229</v>
       </c>
       <c r="K58" s="22" t="s">
@@ -5915,7 +5956,7 @@
       </c>
     </row>
     <row r="59" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="260" t="s">
+      <c r="B59" s="238" t="s">
         <v>230</v>
       </c>
       <c r="K59" s="22" t="s">
@@ -5923,7 +5964,7 @@
       </c>
     </row>
     <row r="60" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="260" t="s">
+      <c r="B60" s="238" t="s">
         <v>231</v>
       </c>
       <c r="K60" s="22" t="s">
@@ -5931,7 +5972,7 @@
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="260" t="s">
+      <c r="B61" s="238" t="s">
         <v>232</v>
       </c>
       <c r="K61" s="89" t="s">
@@ -5939,12 +5980,12 @@
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B62" s="260" t="s">
+      <c r="B62" s="238" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B64" s="259" t="s">
+      <c r="B64" s="237" t="s">
         <v>234</v>
       </c>
       <c r="K64" s="105" t="s">
@@ -5952,7 +5993,7 @@
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="259" t="s">
+      <c r="B65" s="237" t="s">
         <v>235</v>
       </c>
       <c r="K65" s="1" t="s">
@@ -5965,7 +6006,7 @@
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="259" t="s">
+      <c r="B67" s="237" t="s">
         <v>236</v>
       </c>
       <c r="K67" s="93" t="s">
@@ -5978,7 +6019,7 @@
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B69" s="259" t="s">
+      <c r="B69" s="237" t="s">
         <v>240</v>
       </c>
       <c r="K69" s="93" t="s">
@@ -5991,7 +6032,7 @@
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B71" s="259" t="s">
+      <c r="B71" s="237" t="s">
         <v>241</v>
       </c>
       <c r="K71" s="93" t="s">
@@ -5999,63 +6040,62 @@
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="260" t="s">
+      <c r="B72" s="238" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B74" s="259" t="s">
+      <c r="B74" s="237" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B76" s="259" t="s">
+      <c r="B76" s="237" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B77" s="260" t="s">
+      <c r="B77" s="238" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="259" t="s">
+      <c r="B79" s="237" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B80" s="260" t="s">
+      <c r="B80" s="238" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="259" t="s">
+      <c r="B82" s="237" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="260" t="s">
+      <c r="B83" s="238" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="260" t="s">
+      <c r="B84" s="238" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="260" t="s">
+      <c r="B85" s="238" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="271" t="s">
+      <c r="B86" s="249" t="s">
         <v>252</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="W1:AK1"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="G6:H6"/>
@@ -6066,6 +6106,7 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="L1:U1"/>
+    <mergeCell ref="W1:AL1"/>
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="K31:N31"/>
     <mergeCell ref="B5:D5"/>
@@ -6099,10 +6140,10 @@
   <dimension ref="B1:BZ82"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O34" sqref="O34"/>
+      <selection pane="bottomRight" activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6114,7 +6155,7 @@
     <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="9.125" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="9.125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="9" style="266"/>
+    <col min="14" max="14" width="9" style="244"/>
     <col min="15" max="16" width="9" style="6"/>
     <col min="17" max="19" width="9" style="7"/>
     <col min="20" max="21" width="9" style="6"/>
@@ -6375,8 +6416,8 @@
         <v>517.70699999999999</v>
       </c>
       <c r="N3" s="117">
-        <f>J3*1.15</f>
-        <v>654.08434999999997</v>
+        <f>M3*1.2</f>
+        <v>621.24839999999995</v>
       </c>
       <c r="O3" s="13"/>
       <c r="Q3" s="71">
@@ -6401,67 +6442,67 @@
       </c>
       <c r="X3" s="124">
         <f>SUM(K3:N3)</f>
-        <v>2300.1323499999999</v>
+        <v>2267.2963999999997</v>
       </c>
       <c r="Y3" s="3">
         <f>X3*1.15</f>
-        <v>2645.1522024999995</v>
+        <v>2607.3908599999995</v>
       </c>
       <c r="Z3" s="3">
         <f t="shared" ref="Z3:AK3" si="0">Y3*1.15</f>
-        <v>3041.925032874999</v>
+        <v>2998.4994889999994</v>
       </c>
       <c r="AA3" s="3">
         <f t="shared" si="0"/>
-        <v>3498.2137878062485</v>
+        <v>3448.2744123499988</v>
       </c>
       <c r="AB3" s="3">
         <f t="shared" si="0"/>
-        <v>4022.9458559771856</v>
+        <v>3965.5155742024981</v>
       </c>
       <c r="AC3" s="3">
         <f t="shared" si="0"/>
-        <v>4626.3877343737631</v>
+        <v>4560.3429103328726</v>
       </c>
       <c r="AD3" s="3">
         <f t="shared" si="0"/>
-        <v>5320.3458945298271</v>
+        <v>5244.3943468828029</v>
       </c>
       <c r="AE3" s="3">
         <f t="shared" si="0"/>
-        <v>6118.3977787093008</v>
+        <v>6031.0534989152229</v>
       </c>
       <c r="AF3" s="3">
         <f t="shared" si="0"/>
-        <v>7036.1574455156951</v>
+        <v>6935.7115237525059</v>
       </c>
       <c r="AG3" s="3">
         <f t="shared" si="0"/>
-        <v>8091.5810623430489</v>
+        <v>7976.068252315381</v>
       </c>
       <c r="AH3" s="3">
         <f t="shared" si="0"/>
-        <v>9305.3182216945061</v>
+        <v>9172.4784901626881</v>
       </c>
       <c r="AI3" s="3">
         <f t="shared" si="0"/>
-        <v>10701.115954948682</v>
+        <v>10548.350263687091</v>
       </c>
       <c r="AJ3" s="3">
         <f t="shared" si="0"/>
-        <v>12306.283348190984</v>
+        <v>12130.602803240154</v>
       </c>
       <c r="AK3" s="3">
         <f t="shared" si="0"/>
-        <v>14152.225850419631</v>
+        <v>13950.193223726175</v>
       </c>
       <c r="AL3" s="3">
         <f t="shared" ref="AL3:AM3" si="1">AK3*1.15</f>
-        <v>16275.059727982574</v>
+        <v>16042.7222072851</v>
       </c>
       <c r="AM3" s="3">
         <f t="shared" si="1"/>
-        <v>18716.318687179959</v>
+        <v>18449.130538377864</v>
       </c>
     </row>
     <row r="4" spans="2:39" ht="15" x14ac:dyDescent="0.25">
@@ -6502,8 +6543,8 @@
         <v>126.437</v>
       </c>
       <c r="N4" s="118">
-        <f t="shared" ref="N4" si="2">N3-N5</f>
-        <v>170.06193100000002</v>
+        <f>M4*0.85</f>
+        <v>107.47144999999999</v>
       </c>
       <c r="O4" s="5"/>
       <c r="Q4" s="72">
@@ -6528,67 +6569,67 @@
       </c>
       <c r="X4" s="125">
         <f>SUM(K4:N4)</f>
-        <v>575.28793100000007</v>
+        <v>512.69745</v>
       </c>
       <c r="Y4" s="9">
         <f>Y3-Y5</f>
-        <v>714.19109467499993</v>
+        <v>703.99553219999984</v>
       </c>
       <c r="Z4" s="9">
-        <f t="shared" ref="Z4:AK4" si="3">Z3-Z5</f>
-        <v>821.31975887624958</v>
+        <f t="shared" ref="Z4:AK4" si="2">Z3-Z5</f>
+        <v>809.59486203000006</v>
       </c>
       <c r="AA4" s="9">
-        <f t="shared" si="3"/>
-        <v>944.51772270768697</v>
+        <f t="shared" si="2"/>
+        <v>931.03409133449986</v>
       </c>
       <c r="AB4" s="9">
-        <f t="shared" si="3"/>
-        <v>1086.1953811138401</v>
+        <f t="shared" si="2"/>
+        <v>1070.6892050346746</v>
       </c>
       <c r="AC4" s="9">
-        <f t="shared" si="3"/>
-        <v>1249.124688280916</v>
+        <f t="shared" si="2"/>
+        <v>1231.2925857898758</v>
       </c>
       <c r="AD4" s="9">
-        <f t="shared" si="3"/>
-        <v>1436.4933915230536</v>
+        <f t="shared" si="2"/>
+        <v>1415.9864736583568</v>
       </c>
       <c r="AE4" s="9">
-        <f t="shared" si="3"/>
-        <v>1651.9674002515112</v>
+        <f t="shared" si="2"/>
+        <v>1628.3844447071106</v>
       </c>
       <c r="AF4" s="9">
-        <f t="shared" si="3"/>
-        <v>1899.762510289238</v>
+        <f t="shared" si="2"/>
+        <v>1872.6421114131763</v>
       </c>
       <c r="AG4" s="9">
-        <f t="shared" si="3"/>
-        <v>2184.7268868326237</v>
+        <f t="shared" si="2"/>
+        <v>2153.5384281251527</v>
       </c>
       <c r="AH4" s="9">
-        <f t="shared" si="3"/>
-        <v>2512.4359198575166</v>
+        <f t="shared" si="2"/>
+        <v>2476.5691923439263</v>
       </c>
       <c r="AI4" s="9">
-        <f t="shared" si="3"/>
-        <v>2889.3013078361446</v>
+        <f t="shared" si="2"/>
+        <v>2848.0545711955147</v>
       </c>
       <c r="AJ4" s="9">
-        <f t="shared" si="3"/>
-        <v>3322.6965040115665</v>
+        <f t="shared" si="2"/>
+        <v>3275.2627568748412</v>
       </c>
       <c r="AK4" s="9">
-        <f t="shared" si="3"/>
-        <v>3821.1009796133003</v>
+        <f t="shared" si="2"/>
+        <v>3766.5521704060684</v>
       </c>
       <c r="AL4" s="9">
-        <f t="shared" ref="AL4" si="4">AL3-AL5</f>
-        <v>4394.2661265552961</v>
+        <f t="shared" ref="AL4" si="3">AL3-AL5</f>
+        <v>4331.5349959669766</v>
       </c>
       <c r="AM4" s="9">
-        <f t="shared" ref="AM4" si="5">AM3-AM5</f>
-        <v>5053.4060455385898</v>
+        <f t="shared" ref="AM4" si="4">AM3-AM5</f>
+        <v>4981.2652453620231</v>
       </c>
     </row>
     <row r="5" spans="2:39" ht="15" x14ac:dyDescent="0.25">
@@ -6596,52 +6637,52 @@
         <v>17</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" ref="C5:J5" si="6">C3-C4</f>
+        <f t="shared" ref="C5:J5" si="5">C3-C4</f>
         <v>119.77699999999999</v>
       </c>
       <c r="D5" s="4">
+        <f t="shared" si="5"/>
+        <v>146.72300000000001</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="5"/>
+        <v>186.096</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="5"/>
+        <v>231.39100000000002</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="5"/>
+        <v>289.03899999999999</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="5"/>
+        <v>337.17</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="5"/>
+        <v>379.32100000000003</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="5"/>
+        <v>416.78100000000001</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" ref="K5:M5" si="6">K3-K4</f>
+        <v>401.50200000000001</v>
+      </c>
+      <c r="L5" s="4">
         <f t="shared" si="6"/>
-        <v>146.72300000000001</v>
-      </c>
-      <c r="E5" s="4">
+        <v>448.04999999999995</v>
+      </c>
+      <c r="M5" s="4">
         <f t="shared" si="6"/>
-        <v>186.096</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" si="6"/>
-        <v>231.39100000000002</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" si="6"/>
-        <v>289.03899999999999</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" si="6"/>
-        <v>337.17</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="6"/>
-        <v>379.32100000000003</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="6"/>
-        <v>416.78100000000001</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" ref="K5:M5" si="7">K3-K4</f>
-        <v>401.50200000000001</v>
-      </c>
-      <c r="L5" s="4">
-        <f t="shared" si="7"/>
-        <v>448.04999999999995</v>
-      </c>
-      <c r="M5" s="4">
-        <f t="shared" si="7"/>
         <v>391.27</v>
       </c>
-      <c r="N5" s="263">
-        <f>N3*0.74</f>
-        <v>484.02241899999996</v>
+      <c r="N5" s="241">
+        <f>N3*0.76</f>
+        <v>472.14878399999998</v>
       </c>
       <c r="O5" s="57"/>
       <c r="P5" s="1"/>
@@ -6669,67 +6710,67 @@
       </c>
       <c r="X5" s="124">
         <f>X3-X4</f>
-        <v>1724.8444189999998</v>
+        <v>1754.5989499999996</v>
       </c>
       <c r="Y5" s="3">
         <f>Y3*0.73</f>
-        <v>1930.9611078249995</v>
+        <v>1903.3953277999997</v>
       </c>
       <c r="Z5" s="3">
-        <f t="shared" ref="Z5:AK5" si="8">Z3*0.73</f>
-        <v>2220.6052739987495</v>
+        <f t="shared" ref="Z5:AK5" si="7">Z3*0.73</f>
+        <v>2188.9046269699993</v>
       </c>
       <c r="AA5" s="3">
+        <f t="shared" si="7"/>
+        <v>2517.2403210154989</v>
+      </c>
+      <c r="AB5" s="3">
+        <f t="shared" si="7"/>
+        <v>2894.8263691678235</v>
+      </c>
+      <c r="AC5" s="3">
+        <f t="shared" si="7"/>
+        <v>3329.0503245429968</v>
+      </c>
+      <c r="AD5" s="3">
+        <f t="shared" si="7"/>
+        <v>3828.4078732244461</v>
+      </c>
+      <c r="AE5" s="3">
+        <f t="shared" si="7"/>
+        <v>4402.6690542081124</v>
+      </c>
+      <c r="AF5" s="3">
+        <f t="shared" si="7"/>
+        <v>5063.0694123393296</v>
+      </c>
+      <c r="AG5" s="3">
+        <f t="shared" si="7"/>
+        <v>5822.5298241902283</v>
+      </c>
+      <c r="AH5" s="3">
+        <f t="shared" si="7"/>
+        <v>6695.9092978187618</v>
+      </c>
+      <c r="AI5" s="3">
+        <f t="shared" si="7"/>
+        <v>7700.2956924915761</v>
+      </c>
+      <c r="AJ5" s="3">
+        <f t="shared" si="7"/>
+        <v>8855.3400463653124</v>
+      </c>
+      <c r="AK5" s="3">
+        <f t="shared" si="7"/>
+        <v>10183.641053320107</v>
+      </c>
+      <c r="AL5" s="3">
+        <f t="shared" ref="AL5:AM5" si="8">AL3*0.73</f>
+        <v>11711.187211318123</v>
+      </c>
+      <c r="AM5" s="3">
         <f t="shared" si="8"/>
-        <v>2553.6960650985616</v>
-      </c>
-      <c r="AB5" s="3">
-        <f t="shared" si="8"/>
-        <v>2936.7504748633455</v>
-      </c>
-      <c r="AC5" s="3">
-        <f t="shared" si="8"/>
-        <v>3377.2630460928472</v>
-      </c>
-      <c r="AD5" s="3">
-        <f t="shared" si="8"/>
-        <v>3883.8525030067735</v>
-      </c>
-      <c r="AE5" s="3">
-        <f t="shared" si="8"/>
-        <v>4466.4303784577896</v>
-      </c>
-      <c r="AF5" s="3">
-        <f t="shared" si="8"/>
-        <v>5136.3949352264572</v>
-      </c>
-      <c r="AG5" s="3">
-        <f t="shared" si="8"/>
-        <v>5906.8541755104252</v>
-      </c>
-      <c r="AH5" s="3">
-        <f t="shared" si="8"/>
-        <v>6792.8823018369894</v>
-      </c>
-      <c r="AI5" s="3">
-        <f t="shared" si="8"/>
-        <v>7811.8146471125374</v>
-      </c>
-      <c r="AJ5" s="3">
-        <f t="shared" si="8"/>
-        <v>8983.5868441794173</v>
-      </c>
-      <c r="AK5" s="3">
-        <f t="shared" si="8"/>
-        <v>10331.12487080633</v>
-      </c>
-      <c r="AL5" s="3">
-        <f t="shared" ref="AL5:AM5" si="9">AL3*0.73</f>
-        <v>11880.793601427278</v>
-      </c>
-      <c r="AM5" s="3">
-        <f t="shared" si="9"/>
-        <v>13662.912641641369</v>
+        <v>13467.865293015841</v>
       </c>
     </row>
     <row r="6" spans="2:39" ht="15" x14ac:dyDescent="0.25">
@@ -6769,7 +6810,7 @@
       <c r="M6" s="5">
         <v>151.47</v>
       </c>
-      <c r="N6" s="264">
+      <c r="N6" s="242">
         <f>J6*1.15</f>
         <v>183.67455000000001</v>
       </c>
@@ -6805,59 +6846,59 @@
         <v>634.79576824999992</v>
       </c>
       <c r="Z6" s="50">
-        <f t="shared" ref="Z6:AK6" si="10">Y6*1.015</f>
+        <f t="shared" ref="Z6:AK6" si="9">Y6*1.015</f>
         <v>644.31770477374982</v>
       </c>
       <c r="AA6" s="50">
+        <f t="shared" si="9"/>
+        <v>653.98247034535598</v>
+      </c>
+      <c r="AB6" s="50">
+        <f t="shared" si="9"/>
+        <v>663.7922074005362</v>
+      </c>
+      <c r="AC6" s="50">
+        <f t="shared" si="9"/>
+        <v>673.74909051154418</v>
+      </c>
+      <c r="AD6" s="50">
+        <f t="shared" si="9"/>
+        <v>683.85532686921727</v>
+      </c>
+      <c r="AE6" s="50">
+        <f t="shared" si="9"/>
+        <v>694.11315677225548</v>
+      </c>
+      <c r="AF6" s="50">
+        <f t="shared" si="9"/>
+        <v>704.52485412383919</v>
+      </c>
+      <c r="AG6" s="50">
+        <f t="shared" si="9"/>
+        <v>715.09272693569676</v>
+      </c>
+      <c r="AH6" s="50">
+        <f t="shared" si="9"/>
+        <v>725.81911783973214</v>
+      </c>
+      <c r="AI6" s="50">
+        <f t="shared" si="9"/>
+        <v>736.70640460732807</v>
+      </c>
+      <c r="AJ6" s="50">
+        <f t="shared" si="9"/>
+        <v>747.75700067643788</v>
+      </c>
+      <c r="AK6" s="50">
+        <f t="shared" si="9"/>
+        <v>758.97335568658434</v>
+      </c>
+      <c r="AL6" s="50">
+        <f t="shared" ref="AL6:AM6" si="10">AK6*1.015</f>
+        <v>770.35795602188307</v>
+      </c>
+      <c r="AM6" s="50">
         <f t="shared" si="10"/>
-        <v>653.98247034535598</v>
-      </c>
-      <c r="AB6" s="50">
-        <f t="shared" si="10"/>
-        <v>663.7922074005362</v>
-      </c>
-      <c r="AC6" s="50">
-        <f t="shared" si="10"/>
-        <v>673.74909051154418</v>
-      </c>
-      <c r="AD6" s="50">
-        <f t="shared" si="10"/>
-        <v>683.85532686921727</v>
-      </c>
-      <c r="AE6" s="50">
-        <f t="shared" si="10"/>
-        <v>694.11315677225548</v>
-      </c>
-      <c r="AF6" s="50">
-        <f t="shared" si="10"/>
-        <v>704.52485412383919</v>
-      </c>
-      <c r="AG6" s="50">
-        <f t="shared" si="10"/>
-        <v>715.09272693569676</v>
-      </c>
-      <c r="AH6" s="50">
-        <f t="shared" si="10"/>
-        <v>725.81911783973214</v>
-      </c>
-      <c r="AI6" s="50">
-        <f t="shared" si="10"/>
-        <v>736.70640460732807</v>
-      </c>
-      <c r="AJ6" s="50">
-        <f t="shared" si="10"/>
-        <v>747.75700067643788</v>
-      </c>
-      <c r="AK6" s="50">
-        <f t="shared" si="10"/>
-        <v>758.97335568658434</v>
-      </c>
-      <c r="AL6" s="50">
-        <f t="shared" ref="AL6:AM6" si="11">AK6*1.015</f>
-        <v>770.35795602188307</v>
-      </c>
-      <c r="AM6" s="50">
-        <f t="shared" si="11"/>
         <v>781.91332536221125</v>
       </c>
     </row>
@@ -6898,7 +6939,7 @@
       <c r="M7" s="5">
         <v>190.98599999999999</v>
       </c>
-      <c r="N7" s="264">
+      <c r="N7" s="242">
         <f>J7*1.5</f>
         <v>203.98349999999999</v>
       </c>
@@ -6933,59 +6974,59 @@
         <v>729.28747500000009</v>
       </c>
       <c r="Z7" s="50">
-        <f t="shared" ref="Z7:AK7" si="12">Y7*1.05</f>
+        <f t="shared" ref="Z7:AK7" si="11">Y7*1.05</f>
         <v>765.75184875000014</v>
       </c>
       <c r="AA7" s="50">
+        <f t="shared" si="11"/>
+        <v>804.03944118750019</v>
+      </c>
+      <c r="AB7" s="50">
+        <f t="shared" si="11"/>
+        <v>844.24141324687525</v>
+      </c>
+      <c r="AC7" s="50">
+        <f t="shared" si="11"/>
+        <v>886.45348390921902</v>
+      </c>
+      <c r="AD7" s="50">
+        <f t="shared" si="11"/>
+        <v>930.77615810468001</v>
+      </c>
+      <c r="AE7" s="50">
+        <f t="shared" si="11"/>
+        <v>977.31496600991409</v>
+      </c>
+      <c r="AF7" s="50">
+        <f t="shared" si="11"/>
+        <v>1026.1807143104099</v>
+      </c>
+      <c r="AG7" s="50">
+        <f t="shared" si="11"/>
+        <v>1077.4897500259306</v>
+      </c>
+      <c r="AH7" s="50">
+        <f t="shared" si="11"/>
+        <v>1131.364237527227</v>
+      </c>
+      <c r="AI7" s="50">
+        <f t="shared" si="11"/>
+        <v>1187.9324494035884</v>
+      </c>
+      <c r="AJ7" s="50">
+        <f t="shared" si="11"/>
+        <v>1247.3290718737678</v>
+      </c>
+      <c r="AK7" s="50">
+        <f t="shared" si="11"/>
+        <v>1309.6955254674563</v>
+      </c>
+      <c r="AL7" s="50">
+        <f t="shared" ref="AL7:AM7" si="12">AK7*1.05</f>
+        <v>1375.1803017408292</v>
+      </c>
+      <c r="AM7" s="50">
         <f t="shared" si="12"/>
-        <v>804.03944118750019</v>
-      </c>
-      <c r="AB7" s="50">
-        <f t="shared" si="12"/>
-        <v>844.24141324687525</v>
-      </c>
-      <c r="AC7" s="50">
-        <f t="shared" si="12"/>
-        <v>886.45348390921902</v>
-      </c>
-      <c r="AD7" s="50">
-        <f t="shared" si="12"/>
-        <v>930.77615810468001</v>
-      </c>
-      <c r="AE7" s="50">
-        <f t="shared" si="12"/>
-        <v>977.31496600991409</v>
-      </c>
-      <c r="AF7" s="50">
-        <f t="shared" si="12"/>
-        <v>1026.1807143104099</v>
-      </c>
-      <c r="AG7" s="50">
-        <f t="shared" si="12"/>
-        <v>1077.4897500259306</v>
-      </c>
-      <c r="AH7" s="50">
-        <f t="shared" si="12"/>
-        <v>1131.364237527227</v>
-      </c>
-      <c r="AI7" s="50">
-        <f t="shared" si="12"/>
-        <v>1187.9324494035884</v>
-      </c>
-      <c r="AJ7" s="50">
-        <f t="shared" si="12"/>
-        <v>1247.3290718737678</v>
-      </c>
-      <c r="AK7" s="50">
-        <f t="shared" si="12"/>
-        <v>1309.6955254674563</v>
-      </c>
-      <c r="AL7" s="50">
-        <f t="shared" ref="AL7:AM7" si="13">AK7*1.05</f>
-        <v>1375.1803017408292</v>
-      </c>
-      <c r="AM7" s="50">
-        <f t="shared" si="13"/>
         <v>1443.9393168278707</v>
       </c>
     </row>
@@ -7026,7 +7067,7 @@
       <c r="M8" s="5">
         <v>235.55099999999999</v>
       </c>
-      <c r="N8" s="265">
+      <c r="N8" s="243">
         <f>M8*1.08</f>
         <v>254.39508000000001</v>
       </c>
@@ -7061,59 +7102,59 @@
         <v>879.46507999999994</v>
       </c>
       <c r="Z8" s="50">
-        <f t="shared" ref="Z8:AK8" si="14">Y8*1</f>
+        <f t="shared" ref="Z8:AK8" si="13">Y8*1</f>
         <v>879.46507999999994</v>
       </c>
       <c r="AA8" s="50">
+        <f t="shared" si="13"/>
+        <v>879.46507999999994</v>
+      </c>
+      <c r="AB8" s="50">
+        <f t="shared" si="13"/>
+        <v>879.46507999999994</v>
+      </c>
+      <c r="AC8" s="50">
+        <f t="shared" si="13"/>
+        <v>879.46507999999994</v>
+      </c>
+      <c r="AD8" s="50">
+        <f t="shared" si="13"/>
+        <v>879.46507999999994</v>
+      </c>
+      <c r="AE8" s="50">
+        <f t="shared" si="13"/>
+        <v>879.46507999999994</v>
+      </c>
+      <c r="AF8" s="50">
+        <f t="shared" si="13"/>
+        <v>879.46507999999994</v>
+      </c>
+      <c r="AG8" s="50">
+        <f t="shared" si="13"/>
+        <v>879.46507999999994</v>
+      </c>
+      <c r="AH8" s="50">
+        <f t="shared" si="13"/>
+        <v>879.46507999999994</v>
+      </c>
+      <c r="AI8" s="50">
+        <f t="shared" si="13"/>
+        <v>879.46507999999994</v>
+      </c>
+      <c r="AJ8" s="50">
+        <f t="shared" si="13"/>
+        <v>879.46507999999994</v>
+      </c>
+      <c r="AK8" s="50">
+        <f t="shared" si="13"/>
+        <v>879.46507999999994</v>
+      </c>
+      <c r="AL8" s="50">
+        <f t="shared" ref="AL8:AM8" si="14">AK8*1</f>
+        <v>879.46507999999994</v>
+      </c>
+      <c r="AM8" s="50">
         <f t="shared" si="14"/>
-        <v>879.46507999999994</v>
-      </c>
-      <c r="AB8" s="50">
-        <f t="shared" si="14"/>
-        <v>879.46507999999994</v>
-      </c>
-      <c r="AC8" s="50">
-        <f t="shared" si="14"/>
-        <v>879.46507999999994</v>
-      </c>
-      <c r="AD8" s="50">
-        <f t="shared" si="14"/>
-        <v>879.46507999999994</v>
-      </c>
-      <c r="AE8" s="50">
-        <f t="shared" si="14"/>
-        <v>879.46507999999994</v>
-      </c>
-      <c r="AF8" s="50">
-        <f t="shared" si="14"/>
-        <v>879.46507999999994</v>
-      </c>
-      <c r="AG8" s="50">
-        <f t="shared" si="14"/>
-        <v>879.46507999999994</v>
-      </c>
-      <c r="AH8" s="50">
-        <f t="shared" si="14"/>
-        <v>879.46507999999994</v>
-      </c>
-      <c r="AI8" s="50">
-        <f t="shared" si="14"/>
-        <v>879.46507999999994</v>
-      </c>
-      <c r="AJ8" s="50">
-        <f t="shared" si="14"/>
-        <v>879.46507999999994</v>
-      </c>
-      <c r="AK8" s="50">
-        <f t="shared" si="14"/>
-        <v>879.46507999999994</v>
-      </c>
-      <c r="AL8" s="50">
-        <f t="shared" ref="AL8:AM8" si="15">AK8*1</f>
-        <v>879.46507999999994</v>
-      </c>
-      <c r="AM8" s="50">
-        <f t="shared" si="15"/>
         <v>879.46507999999994</v>
       </c>
     </row>
@@ -7189,59 +7230,59 @@
         <v>299.58965000000001</v>
       </c>
       <c r="Z9" s="50">
-        <f t="shared" ref="Z9:AK9" si="16">Y9*1</f>
+        <f t="shared" ref="Z9:AK9" si="15">Y9*1</f>
         <v>299.58965000000001</v>
       </c>
       <c r="AA9" s="50">
+        <f t="shared" si="15"/>
+        <v>299.58965000000001</v>
+      </c>
+      <c r="AB9" s="50">
+        <f t="shared" si="15"/>
+        <v>299.58965000000001</v>
+      </c>
+      <c r="AC9" s="50">
+        <f t="shared" si="15"/>
+        <v>299.58965000000001</v>
+      </c>
+      <c r="AD9" s="50">
+        <f t="shared" si="15"/>
+        <v>299.58965000000001</v>
+      </c>
+      <c r="AE9" s="50">
+        <f t="shared" si="15"/>
+        <v>299.58965000000001</v>
+      </c>
+      <c r="AF9" s="50">
+        <f t="shared" si="15"/>
+        <v>299.58965000000001</v>
+      </c>
+      <c r="AG9" s="50">
+        <f t="shared" si="15"/>
+        <v>299.58965000000001</v>
+      </c>
+      <c r="AH9" s="50">
+        <f t="shared" si="15"/>
+        <v>299.58965000000001</v>
+      </c>
+      <c r="AI9" s="50">
+        <f t="shared" si="15"/>
+        <v>299.58965000000001</v>
+      </c>
+      <c r="AJ9" s="50">
+        <f t="shared" si="15"/>
+        <v>299.58965000000001</v>
+      </c>
+      <c r="AK9" s="50">
+        <f t="shared" si="15"/>
+        <v>299.58965000000001</v>
+      </c>
+      <c r="AL9" s="50">
+        <f t="shared" ref="AL9:AM9" si="16">AK9*1</f>
+        <v>299.58965000000001</v>
+      </c>
+      <c r="AM9" s="50">
         <f t="shared" si="16"/>
-        <v>299.58965000000001</v>
-      </c>
-      <c r="AB9" s="50">
-        <f t="shared" si="16"/>
-        <v>299.58965000000001</v>
-      </c>
-      <c r="AC9" s="50">
-        <f t="shared" si="16"/>
-        <v>299.58965000000001</v>
-      </c>
-      <c r="AD9" s="50">
-        <f t="shared" si="16"/>
-        <v>299.58965000000001</v>
-      </c>
-      <c r="AE9" s="50">
-        <f t="shared" si="16"/>
-        <v>299.58965000000001</v>
-      </c>
-      <c r="AF9" s="50">
-        <f t="shared" si="16"/>
-        <v>299.58965000000001</v>
-      </c>
-      <c r="AG9" s="50">
-        <f t="shared" si="16"/>
-        <v>299.58965000000001</v>
-      </c>
-      <c r="AH9" s="50">
-        <f t="shared" si="16"/>
-        <v>299.58965000000001</v>
-      </c>
-      <c r="AI9" s="50">
-        <f t="shared" si="16"/>
-        <v>299.58965000000001</v>
-      </c>
-      <c r="AJ9" s="50">
-        <f t="shared" si="16"/>
-        <v>299.58965000000001</v>
-      </c>
-      <c r="AK9" s="50">
-        <f t="shared" si="16"/>
-        <v>299.58965000000001</v>
-      </c>
-      <c r="AL9" s="50">
-        <f t="shared" ref="AL9:AM9" si="17">AK9*1</f>
-        <v>299.58965000000001</v>
-      </c>
-      <c r="AM9" s="50">
-        <f t="shared" si="17"/>
         <v>299.58965000000001</v>
       </c>
     </row>
@@ -7282,7 +7323,7 @@
       <c r="M10" s="5">
         <v>32.104999999999997</v>
       </c>
-      <c r="N10" s="265">
+      <c r="N10" s="243">
         <f>M10*1.05</f>
         <v>33.710249999999995</v>
       </c>
@@ -7316,59 +7357,59 @@
         <v>115.34733749999999</v>
       </c>
       <c r="Z10" s="50">
-        <f t="shared" ref="Z10:AK10" si="18">Y10*0.95</f>
+        <f t="shared" ref="Z10:AK10" si="17">Y10*0.95</f>
         <v>109.57997062499999</v>
       </c>
       <c r="AA10" s="50">
+        <f t="shared" si="17"/>
+        <v>104.10097209374999</v>
+      </c>
+      <c r="AB10" s="50">
+        <f t="shared" si="17"/>
+        <v>98.895923489062483</v>
+      </c>
+      <c r="AC10" s="50">
+        <f t="shared" si="17"/>
+        <v>93.951127314609352</v>
+      </c>
+      <c r="AD10" s="50">
+        <f t="shared" si="17"/>
+        <v>89.253570948878874</v>
+      </c>
+      <c r="AE10" s="50">
+        <f t="shared" si="17"/>
+        <v>84.790892401434931</v>
+      </c>
+      <c r="AF10" s="50">
+        <f t="shared" si="17"/>
+        <v>80.551347781363177</v>
+      </c>
+      <c r="AG10" s="50">
+        <f t="shared" si="17"/>
+        <v>76.523780392295009</v>
+      </c>
+      <c r="AH10" s="50">
+        <f t="shared" si="17"/>
+        <v>72.69759137268025</v>
+      </c>
+      <c r="AI10" s="50">
+        <f t="shared" si="17"/>
+        <v>69.062711804046231</v>
+      </c>
+      <c r="AJ10" s="50">
+        <f t="shared" si="17"/>
+        <v>65.609576213843923</v>
+      </c>
+      <c r="AK10" s="50">
+        <f t="shared" si="17"/>
+        <v>62.329097403151721</v>
+      </c>
+      <c r="AL10" s="50">
+        <f t="shared" ref="AL10:AM10" si="18">AK10*0.95</f>
+        <v>59.212642532994131</v>
+      </c>
+      <c r="AM10" s="50">
         <f t="shared" si="18"/>
-        <v>104.10097209374999</v>
-      </c>
-      <c r="AB10" s="50">
-        <f t="shared" si="18"/>
-        <v>98.895923489062483</v>
-      </c>
-      <c r="AC10" s="50">
-        <f t="shared" si="18"/>
-        <v>93.951127314609352</v>
-      </c>
-      <c r="AD10" s="50">
-        <f t="shared" si="18"/>
-        <v>89.253570948878874</v>
-      </c>
-      <c r="AE10" s="50">
-        <f t="shared" si="18"/>
-        <v>84.790892401434931</v>
-      </c>
-      <c r="AF10" s="50">
-        <f t="shared" si="18"/>
-        <v>80.551347781363177</v>
-      </c>
-      <c r="AG10" s="50">
-        <f t="shared" si="18"/>
-        <v>76.523780392295009</v>
-      </c>
-      <c r="AH10" s="50">
-        <f t="shared" si="18"/>
-        <v>72.69759137268025</v>
-      </c>
-      <c r="AI10" s="50">
-        <f t="shared" si="18"/>
-        <v>69.062711804046231</v>
-      </c>
-      <c r="AJ10" s="50">
-        <f t="shared" si="18"/>
-        <v>65.609576213843923</v>
-      </c>
-      <c r="AK10" s="50">
-        <f t="shared" si="18"/>
-        <v>62.329097403151721</v>
-      </c>
-      <c r="AL10" s="50">
-        <f t="shared" ref="AL10:AM10" si="19">AK10*0.95</f>
-        <v>59.212642532994131</v>
-      </c>
-      <c r="AM10" s="50">
-        <f t="shared" si="19"/>
         <v>56.252010406344425</v>
       </c>
     </row>
@@ -7377,51 +7418,51 @@
         <v>23</v>
       </c>
       <c r="C11" s="5">
-        <f t="shared" ref="C11:J11" si="20">C10+C9+C8+C7+C6</f>
+        <f t="shared" ref="C11:J11" si="19">C10+C9+C8+C7+C6</f>
         <v>192.74299999999999</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>219.76900000000001</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>237.614</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>299.99799999999999</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>424.09500000000003</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>480.11599999999999</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>456.767</v>
       </c>
       <c r="J11" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>556.43100000000004</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" ref="K11" si="21">K10+K9+K8+K7+K6</f>
+        <f t="shared" ref="K11" si="20">K10+K9+K8+K7+K6</f>
         <v>553.11300000000006</v>
       </c>
       <c r="L11" s="5">
-        <f t="shared" ref="L11:N11" si="22">L10+L9+L8+L7+L6</f>
+        <f t="shared" ref="L11:N11" si="21">L10+L9+L8+L7+L6</f>
         <v>618.31700000000001</v>
       </c>
       <c r="M11" s="5">
-        <f t="shared" ref="M11" si="23">M10+M9+M8+M7+M6</f>
+        <f t="shared" ref="M11" si="22">M10+M9+M8+M7+M6</f>
         <v>691.27700000000004</v>
       </c>
       <c r="N11" s="118">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>757.74002999999993</v>
       </c>
       <c r="O11" s="5"/>
@@ -7450,63 +7491,63 @@
         <v>2620.4470299999998</v>
       </c>
       <c r="Y11" s="9">
-        <f t="shared" ref="Y11:AK11" si="24">SUM(Y6:Y10)</f>
+        <f t="shared" ref="Y11:AK11" si="23">SUM(Y6:Y10)</f>
         <v>2658.4853107499998</v>
       </c>
       <c r="Z11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>2698.7042541487499</v>
       </c>
       <c r="AA11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>2741.1776136266062</v>
       </c>
       <c r="AB11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>2785.9842741364737</v>
       </c>
       <c r="AC11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>2833.2084317353724</v>
       </c>
       <c r="AD11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>2882.9397859227761</v>
       </c>
       <c r="AE11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>2935.2737451836042</v>
       </c>
       <c r="AF11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>2990.3116462156122</v>
       </c>
       <c r="AG11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>3048.1609873539223</v>
       </c>
       <c r="AH11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>3108.9356767396393</v>
       </c>
       <c r="AI11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>3172.7562958149624</v>
       </c>
       <c r="AJ11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>3239.7503787640494</v>
       </c>
       <c r="AK11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>3310.0527085571921</v>
       </c>
       <c r="AL11" s="9">
-        <f t="shared" ref="AL11" si="25">SUM(AL6:AL10)</f>
+        <f t="shared" ref="AL11" si="24">SUM(AL6:AL10)</f>
         <v>3383.8056302957066</v>
       </c>
       <c r="AM11" s="9">
-        <f t="shared" ref="AM11" si="26">SUM(AM6:AM10)</f>
+        <f t="shared" ref="AM11" si="25">SUM(AM6:AM10)</f>
         <v>3461.1593825964264</v>
       </c>
     </row>
@@ -7515,52 +7556,52 @@
         <v>28</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" ref="C12:J12" si="27">C5-C11</f>
+        <f t="shared" ref="C12:J12" si="26">C5-C11</f>
         <v>-72.966000000000008</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>-73.045999999999992</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>-51.518000000000001</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>-68.606999999999971</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>-135.05600000000004</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>-142.94599999999997</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>-77.44599999999997</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>-139.65000000000003</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" ref="K12" si="28">K5-K11</f>
+        <f t="shared" ref="K12" si="27">K5-K11</f>
         <v>-151.61100000000005</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" ref="L12:N12" si="29">L5-L11</f>
+        <f t="shared" ref="L12:N12" si="28">L5-L11</f>
         <v>-170.26700000000005</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" ref="M12" si="30">M5-M11</f>
+        <f t="shared" ref="M12" si="29">M5-M11</f>
         <v>-300.00700000000006</v>
       </c>
       <c r="N12" s="117">
-        <f t="shared" si="29"/>
-        <v>-273.71761099999998</v>
+        <f t="shared" si="28"/>
+        <v>-285.59124599999996</v>
       </c>
       <c r="O12" s="4"/>
       <c r="Q12" s="71">
@@ -7585,67 +7626,67 @@
       </c>
       <c r="X12" s="117">
         <f>X5-X11</f>
-        <v>-895.60261100000002</v>
+        <v>-865.84808000000021</v>
       </c>
       <c r="Y12" s="4">
-        <f t="shared" ref="Y12:AK12" si="31">Y5-Y11</f>
-        <v>-727.52420292500028</v>
+        <f t="shared" ref="Y12:AK12" si="30">Y5-Y11</f>
+        <v>-755.08998295000015</v>
       </c>
       <c r="Z12" s="4">
-        <f t="shared" si="31"/>
-        <v>-478.09898015000044</v>
+        <f t="shared" si="30"/>
+        <v>-509.7996271787506</v>
       </c>
       <c r="AA12" s="4">
-        <f t="shared" si="31"/>
-        <v>-187.48154852804464</v>
+        <f t="shared" si="30"/>
+        <v>-223.9372926111073</v>
       </c>
       <c r="AB12" s="4">
-        <f t="shared" si="31"/>
-        <v>150.76620072687183</v>
+        <f t="shared" si="30"/>
+        <v>108.8420950313498</v>
       </c>
       <c r="AC12" s="4">
-        <f t="shared" si="31"/>
-        <v>544.05461435747475</v>
+        <f t="shared" si="30"/>
+        <v>495.84189280762439</v>
       </c>
       <c r="AD12" s="4">
-        <f t="shared" si="31"/>
-        <v>1000.9127170839974</v>
+        <f t="shared" si="30"/>
+        <v>945.46808730167004</v>
       </c>
       <c r="AE12" s="4">
-        <f t="shared" si="31"/>
-        <v>1531.1566332741854</v>
+        <f t="shared" si="30"/>
+        <v>1467.3953090245082</v>
       </c>
       <c r="AF12" s="4">
-        <f t="shared" si="31"/>
-        <v>2146.083289010845</v>
+        <f t="shared" si="30"/>
+        <v>2072.7577661237174</v>
       </c>
       <c r="AG12" s="4">
-        <f t="shared" si="31"/>
-        <v>2858.6931881565029</v>
+        <f t="shared" si="30"/>
+        <v>2774.3688368363059</v>
       </c>
       <c r="AH12" s="4">
-        <f t="shared" si="31"/>
-        <v>3683.9466250973501</v>
+        <f t="shared" si="30"/>
+        <v>3586.9736210791225</v>
       </c>
       <c r="AI12" s="4">
-        <f t="shared" si="31"/>
-        <v>4639.0583512975754</v>
+        <f t="shared" si="30"/>
+        <v>4527.5393966766133</v>
       </c>
       <c r="AJ12" s="4">
-        <f t="shared" si="31"/>
-        <v>5743.8364654153684</v>
+        <f t="shared" si="30"/>
+        <v>5615.5896676012635</v>
       </c>
       <c r="AK12" s="4">
-        <f t="shared" si="31"/>
-        <v>7021.0721622491383</v>
+        <f t="shared" si="30"/>
+        <v>6873.5883447629149</v>
       </c>
       <c r="AL12" s="4">
-        <f t="shared" ref="AL12" si="32">AL5-AL11</f>
-        <v>8496.9879711315716</v>
+        <f t="shared" ref="AL12" si="31">AL5-AL11</f>
+        <v>8327.3815810224169</v>
       </c>
       <c r="AM12" s="4">
-        <f t="shared" ref="AM12" si="33">AM5-AM11</f>
-        <v>10201.753259044943</v>
+        <f t="shared" ref="AM12" si="32">AM5-AM11</f>
+        <v>10006.705910419414</v>
       </c>
     </row>
     <row r="13" spans="2:39" ht="15" x14ac:dyDescent="0.25">
@@ -7692,15 +7733,15 @@
       </c>
       <c r="O13" s="5"/>
       <c r="Q13" s="72">
-        <f t="shared" ref="Q13:S15" si="34">G13</f>
+        <f t="shared" ref="Q13:S15" si="33">G13</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="R13" s="183">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="S13" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="V13" s="37">
@@ -7720,59 +7761,59 @@
         <v>7.406784</v>
       </c>
       <c r="Z13" s="50">
-        <f t="shared" ref="Z13:AK13" si="35">Y13*1.008</f>
+        <f t="shared" ref="Z13:AK13" si="34">Y13*1.008</f>
         <v>7.4660382720000005</v>
       </c>
       <c r="AA13" s="50">
+        <f t="shared" si="34"/>
+        <v>7.5257665781760004</v>
+      </c>
+      <c r="AB13" s="50">
+        <f t="shared" si="34"/>
+        <v>7.5859727108014088</v>
+      </c>
+      <c r="AC13" s="50">
+        <f t="shared" si="34"/>
+        <v>7.6466604924878201</v>
+      </c>
+      <c r="AD13" s="50">
+        <f t="shared" si="34"/>
+        <v>7.7078337764277229</v>
+      </c>
+      <c r="AE13" s="50">
+        <f t="shared" si="34"/>
+        <v>7.7694964466391445</v>
+      </c>
+      <c r="AF13" s="50">
+        <f t="shared" si="34"/>
+        <v>7.8316524182122578</v>
+      </c>
+      <c r="AG13" s="50">
+        <f t="shared" si="34"/>
+        <v>7.8943056375579559</v>
+      </c>
+      <c r="AH13" s="50">
+        <f t="shared" si="34"/>
+        <v>7.9574600826584199</v>
+      </c>
+      <c r="AI13" s="50">
+        <f t="shared" si="34"/>
+        <v>8.0211197633196871</v>
+      </c>
+      <c r="AJ13" s="50">
+        <f t="shared" si="34"/>
+        <v>8.0852887214262452</v>
+      </c>
+      <c r="AK13" s="50">
+        <f t="shared" si="34"/>
+        <v>8.149971031197655</v>
+      </c>
+      <c r="AL13" s="50">
+        <f t="shared" ref="AL13:AM13" si="35">AK13*1.008</f>
+        <v>8.215170799447236</v>
+      </c>
+      <c r="AM13" s="50">
         <f t="shared" si="35"/>
-        <v>7.5257665781760004</v>
-      </c>
-      <c r="AB13" s="50">
-        <f t="shared" si="35"/>
-        <v>7.5859727108014088</v>
-      </c>
-      <c r="AC13" s="50">
-        <f t="shared" si="35"/>
-        <v>7.6466604924878201</v>
-      </c>
-      <c r="AD13" s="50">
-        <f t="shared" si="35"/>
-        <v>7.7078337764277229</v>
-      </c>
-      <c r="AE13" s="50">
-        <f t="shared" si="35"/>
-        <v>7.7694964466391445</v>
-      </c>
-      <c r="AF13" s="50">
-        <f t="shared" si="35"/>
-        <v>7.8316524182122578</v>
-      </c>
-      <c r="AG13" s="50">
-        <f t="shared" si="35"/>
-        <v>7.8943056375579559</v>
-      </c>
-      <c r="AH13" s="50">
-        <f t="shared" si="35"/>
-        <v>7.9574600826584199</v>
-      </c>
-      <c r="AI13" s="50">
-        <f t="shared" si="35"/>
-        <v>8.0211197633196871</v>
-      </c>
-      <c r="AJ13" s="50">
-        <f t="shared" si="35"/>
-        <v>8.0852887214262452</v>
-      </c>
-      <c r="AK13" s="50">
-        <f t="shared" si="35"/>
-        <v>8.149971031197655</v>
-      </c>
-      <c r="AL13" s="50">
-        <f t="shared" ref="AL13:AM13" si="36">AK13*1.008</f>
-        <v>8.215170799447236</v>
-      </c>
-      <c r="AM13" s="50">
-        <f t="shared" si="36"/>
         <v>8.2808921658428147</v>
       </c>
     </row>
@@ -7819,15 +7860,15 @@
       </c>
       <c r="O14" s="49"/>
       <c r="Q14" s="77">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R14" s="187">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="S14" s="77">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V14" s="49">
@@ -7847,59 +7888,59 @@
         <v>0</v>
       </c>
       <c r="Z14" s="51">
-        <f t="shared" ref="Z14:AK14" si="37">Y14</f>
+        <f t="shared" ref="Z14:AK14" si="36">Y14</f>
         <v>0</v>
       </c>
       <c r="AA14" s="51">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="51">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="51">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="51">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="51">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="51">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="51">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="51">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="51">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="51">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="51">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AL14" s="51">
+        <f t="shared" ref="AL14:AM14" si="37">AK14</f>
+        <v>0</v>
+      </c>
+      <c r="AM14" s="51">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="51">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="51">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="51">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="51">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="51">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="51">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AH14" s="51">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AI14" s="51">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="51">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AK14" s="51">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AL14" s="51">
-        <f t="shared" ref="AL14:AM14" si="38">AK14</f>
-        <v>0</v>
-      </c>
-      <c r="AM14" s="51">
-        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
@@ -7948,15 +7989,15 @@
       </c>
       <c r="O15" s="49"/>
       <c r="Q15" s="77">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>1.05</v>
       </c>
       <c r="R15" s="187">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="S15" s="77">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0.77</v>
       </c>
       <c r="V15" s="37">
@@ -7976,59 +8017,59 @@
         <v>34.734000000000002</v>
       </c>
       <c r="Z15" s="9">
-        <f t="shared" ref="Z15:AK15" si="39">Y15</f>
+        <f t="shared" ref="Z15:AK15" si="38">Y15</f>
         <v>34.734000000000002</v>
       </c>
       <c r="AA15" s="9">
+        <f t="shared" si="38"/>
+        <v>34.734000000000002</v>
+      </c>
+      <c r="AB15" s="9">
+        <f t="shared" si="38"/>
+        <v>34.734000000000002</v>
+      </c>
+      <c r="AC15" s="9">
+        <f t="shared" si="38"/>
+        <v>34.734000000000002</v>
+      </c>
+      <c r="AD15" s="9">
+        <f t="shared" si="38"/>
+        <v>34.734000000000002</v>
+      </c>
+      <c r="AE15" s="9">
+        <f t="shared" si="38"/>
+        <v>34.734000000000002</v>
+      </c>
+      <c r="AF15" s="9">
+        <f t="shared" si="38"/>
+        <v>34.734000000000002</v>
+      </c>
+      <c r="AG15" s="9">
+        <f t="shared" si="38"/>
+        <v>34.734000000000002</v>
+      </c>
+      <c r="AH15" s="9">
+        <f t="shared" si="38"/>
+        <v>34.734000000000002</v>
+      </c>
+      <c r="AI15" s="9">
+        <f t="shared" si="38"/>
+        <v>34.734000000000002</v>
+      </c>
+      <c r="AJ15" s="9">
+        <f t="shared" si="38"/>
+        <v>34.734000000000002</v>
+      </c>
+      <c r="AK15" s="9">
+        <f t="shared" si="38"/>
+        <v>34.734000000000002</v>
+      </c>
+      <c r="AL15" s="9">
+        <f t="shared" ref="AL15:AM15" si="39">AK15</f>
+        <v>34.734000000000002</v>
+      </c>
+      <c r="AM15" s="9">
         <f t="shared" si="39"/>
-        <v>34.734000000000002</v>
-      </c>
-      <c r="AB15" s="9">
-        <f t="shared" si="39"/>
-        <v>34.734000000000002</v>
-      </c>
-      <c r="AC15" s="9">
-        <f t="shared" si="39"/>
-        <v>34.734000000000002</v>
-      </c>
-      <c r="AD15" s="9">
-        <f t="shared" si="39"/>
-        <v>34.734000000000002</v>
-      </c>
-      <c r="AE15" s="9">
-        <f t="shared" si="39"/>
-        <v>34.734000000000002</v>
-      </c>
-      <c r="AF15" s="9">
-        <f t="shared" si="39"/>
-        <v>34.734000000000002</v>
-      </c>
-      <c r="AG15" s="9">
-        <f t="shared" si="39"/>
-        <v>34.734000000000002</v>
-      </c>
-      <c r="AH15" s="9">
-        <f t="shared" si="39"/>
-        <v>34.734000000000002</v>
-      </c>
-      <c r="AI15" s="9">
-        <f t="shared" si="39"/>
-        <v>34.734000000000002</v>
-      </c>
-      <c r="AJ15" s="9">
-        <f t="shared" si="39"/>
-        <v>34.734000000000002</v>
-      </c>
-      <c r="AK15" s="9">
-        <f t="shared" si="39"/>
-        <v>34.734000000000002</v>
-      </c>
-      <c r="AL15" s="9">
-        <f t="shared" ref="AL15:AM15" si="40">AK15</f>
-        <v>34.734000000000002</v>
-      </c>
-      <c r="AM15" s="9">
-        <f t="shared" si="40"/>
         <v>34.734000000000002</v>
       </c>
     </row>
@@ -8037,52 +8078,52 @@
         <v>26</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" ref="C16:N16" si="41">C12+C13+C14-C15</f>
+        <f t="shared" ref="C16:N16" si="40">C12+C13+C14-C15</f>
         <v>-74.876000000000005</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>-72.257999999999996</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>-49.995000000000005</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>-67.217999999999975</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>-136.10100000000006</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>-142.91999999999996</v>
       </c>
       <c r="I16" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>-78.18799999999996</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>-146.60100000000003</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" ref="K16" si="42">K12+K13+K14-K15</f>
+        <f t="shared" ref="K16" si="41">K12+K13+K14-K15</f>
         <v>-161.73000000000002</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>-179.01200000000003</v>
       </c>
       <c r="M16" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>-301.55000000000007</v>
       </c>
       <c r="N16" s="118">
-        <f t="shared" si="41"/>
-        <v>-280.66861099999994</v>
+        <f t="shared" si="40"/>
+        <v>-292.54224599999992</v>
       </c>
       <c r="O16" s="5"/>
       <c r="Q16" s="72">
@@ -8107,67 +8148,67 @@
       </c>
       <c r="X16" s="118">
         <f>X12+X13+X14-X15</f>
-        <v>-922.98861100000011</v>
+        <v>-893.23408000000029</v>
       </c>
       <c r="Y16" s="5">
         <f>Y12+Y13+Y14-Y15</f>
-        <v>-754.8514189250003</v>
+        <v>-782.41719895000017</v>
       </c>
       <c r="Z16" s="5">
-        <f t="shared" ref="Z16:AK16" si="43">Z12+Z13+Z14-Z15</f>
-        <v>-505.36694187800043</v>
+        <f t="shared" ref="Z16:AK16" si="42">Z12+Z13+Z14-Z15</f>
+        <v>-537.06758890675064</v>
       </c>
       <c r="AA16" s="5">
-        <f t="shared" si="43"/>
-        <v>-214.68978194986866</v>
+        <f t="shared" si="42"/>
+        <v>-251.14552603293131</v>
       </c>
       <c r="AB16" s="5">
-        <f t="shared" si="43"/>
-        <v>123.61817343767322</v>
+        <f t="shared" si="42"/>
+        <v>81.694067742151219</v>
       </c>
       <c r="AC16" s="5">
-        <f t="shared" si="43"/>
-        <v>516.96727484996256</v>
+        <f t="shared" si="42"/>
+        <v>468.75455330011221</v>
       </c>
       <c r="AD16" s="5">
-        <f t="shared" si="43"/>
-        <v>973.88655086042513</v>
+        <f t="shared" si="42"/>
+        <v>918.44192107809772</v>
       </c>
       <c r="AE16" s="5">
-        <f t="shared" si="43"/>
-        <v>1504.1921297208246</v>
+        <f t="shared" si="42"/>
+        <v>1440.4308054711473</v>
       </c>
       <c r="AF16" s="5">
-        <f t="shared" si="43"/>
-        <v>2119.1809414290574</v>
+        <f t="shared" si="42"/>
+        <v>2045.8554185419298</v>
       </c>
       <c r="AG16" s="5">
-        <f t="shared" si="43"/>
-        <v>2831.8534937940608</v>
+        <f t="shared" si="42"/>
+        <v>2747.5291424738639</v>
       </c>
       <c r="AH16" s="5">
-        <f t="shared" si="43"/>
-        <v>3657.1700851800088</v>
+        <f t="shared" si="42"/>
+        <v>3560.1970811617812</v>
       </c>
       <c r="AI16" s="5">
-        <f t="shared" si="43"/>
-        <v>4612.3454710608949</v>
+        <f t="shared" si="42"/>
+        <v>4500.8265164399327</v>
       </c>
       <c r="AJ16" s="5">
-        <f t="shared" si="43"/>
-        <v>5717.187754136794</v>
+        <f t="shared" si="42"/>
+        <v>5588.9409563226891</v>
       </c>
       <c r="AK16" s="5">
-        <f t="shared" si="43"/>
-        <v>6994.4881332803352</v>
+        <f t="shared" si="42"/>
+        <v>6847.0043157941118</v>
       </c>
       <c r="AL16" s="5">
-        <f t="shared" ref="AL16" si="44">AL12+AL13+AL14-AL15</f>
-        <v>8470.4691419310184</v>
+        <f t="shared" ref="AL16" si="43">AL12+AL13+AL14-AL15</f>
+        <v>8300.8627518218636</v>
       </c>
       <c r="AM16" s="5">
-        <f t="shared" ref="AM16" si="45">AM12+AM13+AM14-AM15</f>
-        <v>10175.300151210786</v>
+        <f t="shared" ref="AM16" si="44">AM12+AM13+AM14-AM15</f>
+        <v>9980.2528025852571</v>
       </c>
     </row>
     <row r="17" spans="2:78" ht="15" x14ac:dyDescent="0.25">
@@ -8241,59 +8282,59 @@
         <v>1.25976</v>
       </c>
       <c r="Z17" s="9">
-        <f t="shared" ref="Z17:AK17" si="46">Y17</f>
+        <f t="shared" ref="Z17:AK17" si="45">Y17</f>
         <v>1.25976</v>
       </c>
       <c r="AA17" s="9">
+        <f t="shared" si="45"/>
+        <v>1.25976</v>
+      </c>
+      <c r="AB17" s="9">
+        <f t="shared" si="45"/>
+        <v>1.25976</v>
+      </c>
+      <c r="AC17" s="9">
+        <f t="shared" si="45"/>
+        <v>1.25976</v>
+      </c>
+      <c r="AD17" s="9">
+        <f t="shared" si="45"/>
+        <v>1.25976</v>
+      </c>
+      <c r="AE17" s="9">
+        <f t="shared" si="45"/>
+        <v>1.25976</v>
+      </c>
+      <c r="AF17" s="9">
+        <f t="shared" si="45"/>
+        <v>1.25976</v>
+      </c>
+      <c r="AG17" s="9">
+        <f t="shared" si="45"/>
+        <v>1.25976</v>
+      </c>
+      <c r="AH17" s="9">
+        <f t="shared" si="45"/>
+        <v>1.25976</v>
+      </c>
+      <c r="AI17" s="9">
+        <f t="shared" si="45"/>
+        <v>1.25976</v>
+      </c>
+      <c r="AJ17" s="9">
+        <f t="shared" si="45"/>
+        <v>1.25976</v>
+      </c>
+      <c r="AK17" s="9">
+        <f t="shared" si="45"/>
+        <v>1.25976</v>
+      </c>
+      <c r="AL17" s="9">
+        <f t="shared" ref="AL17:AM17" si="46">AK17</f>
+        <v>1.25976</v>
+      </c>
+      <c r="AM17" s="9">
         <f t="shared" si="46"/>
-        <v>1.25976</v>
-      </c>
-      <c r="AB17" s="9">
-        <f t="shared" si="46"/>
-        <v>1.25976</v>
-      </c>
-      <c r="AC17" s="9">
-        <f t="shared" si="46"/>
-        <v>1.25976</v>
-      </c>
-      <c r="AD17" s="9">
-        <f t="shared" si="46"/>
-        <v>1.25976</v>
-      </c>
-      <c r="AE17" s="9">
-        <f t="shared" si="46"/>
-        <v>1.25976</v>
-      </c>
-      <c r="AF17" s="9">
-        <f t="shared" si="46"/>
-        <v>1.25976</v>
-      </c>
-      <c r="AG17" s="9">
-        <f t="shared" si="46"/>
-        <v>1.25976</v>
-      </c>
-      <c r="AH17" s="9">
-        <f t="shared" si="46"/>
-        <v>1.25976</v>
-      </c>
-      <c r="AI17" s="9">
-        <f t="shared" si="46"/>
-        <v>1.25976</v>
-      </c>
-      <c r="AJ17" s="9">
-        <f t="shared" si="46"/>
-        <v>1.25976</v>
-      </c>
-      <c r="AK17" s="9">
-        <f t="shared" si="46"/>
-        <v>1.25976</v>
-      </c>
-      <c r="AL17" s="9">
-        <f t="shared" ref="AL17:AM17" si="47">AK17</f>
-        <v>1.25976</v>
-      </c>
-      <c r="AM17" s="9">
-        <f t="shared" si="47"/>
         <v>1.25976</v>
       </c>
     </row>
@@ -8302,52 +8343,52 @@
         <v>27</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" ref="C18:N18" si="48">+C16-C17</f>
+        <f t="shared" ref="C18:N18" si="47">+C16-C17</f>
         <v>-74.87700000000001</v>
       </c>
       <c r="D18" s="4">
+        <f t="shared" si="47"/>
+        <v>-72.262999999999991</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="47"/>
+        <v>-50.014000000000003</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="47"/>
+        <v>-60.536999999999978</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="47"/>
+        <v>-136.10300000000007</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="47"/>
+        <v>-142.93999999999997</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="47"/>
+        <v>-77.189999999999955</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="47"/>
+        <v>-147.25700000000003</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" ref="K18:M18" si="48">+K16-K17</f>
+        <v>-162.00600000000003</v>
+      </c>
+      <c r="L18" s="4">
         <f t="shared" si="48"/>
-        <v>-72.262999999999991</v>
-      </c>
-      <c r="E18" s="4">
+        <v>-179.29000000000002</v>
+      </c>
+      <c r="M18" s="4">
         <f t="shared" si="48"/>
-        <v>-50.014000000000003</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" si="48"/>
-        <v>-60.536999999999978</v>
-      </c>
-      <c r="G18" s="4">
-        <f t="shared" si="48"/>
-        <v>-136.10300000000007</v>
-      </c>
-      <c r="H18" s="4">
-        <f t="shared" si="48"/>
-        <v>-142.93999999999997</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="48"/>
-        <v>-77.189999999999955</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="48"/>
-        <v>-147.25700000000003</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" ref="K18:M18" si="49">+K16-K17</f>
-        <v>-162.00600000000003</v>
-      </c>
-      <c r="L18" s="4">
-        <f t="shared" si="49"/>
-        <v>-179.29000000000002</v>
-      </c>
-      <c r="M18" s="4">
-        <f t="shared" si="49"/>
         <v>-301.90200000000004</v>
       </c>
       <c r="N18" s="117">
-        <f t="shared" si="48"/>
-        <v>-281.02237099999996</v>
+        <f t="shared" si="47"/>
+        <v>-292.89600599999994</v>
       </c>
       <c r="O18" s="4"/>
       <c r="Q18" s="71">
@@ -8372,223 +8413,223 @@
       </c>
       <c r="X18" s="124">
         <f>X16-X17</f>
-        <v>-924.24837100000013</v>
+        <v>-894.49384000000032</v>
       </c>
       <c r="Y18" s="3">
         <f>Y16-Y17</f>
-        <v>-756.11117892500033</v>
+        <v>-783.6769589500002</v>
       </c>
       <c r="Z18" s="3">
-        <f t="shared" ref="Z18:AK18" si="50">Z16-Z17</f>
-        <v>-506.6267018780004</v>
+        <f t="shared" ref="Z18:AK18" si="49">Z16-Z17</f>
+        <v>-538.32734890675067</v>
       </c>
       <c r="AA18" s="3">
-        <f t="shared" si="50"/>
-        <v>-215.94954194986866</v>
+        <f t="shared" si="49"/>
+        <v>-252.40528603293131</v>
       </c>
       <c r="AB18" s="3">
-        <f t="shared" si="50"/>
-        <v>122.35841343767322</v>
+        <f t="shared" si="49"/>
+        <v>80.434307742151219</v>
       </c>
       <c r="AC18" s="3">
-        <f t="shared" si="50"/>
-        <v>515.70751484996254</v>
+        <f t="shared" si="49"/>
+        <v>467.49479330011218</v>
       </c>
       <c r="AD18" s="3">
-        <f t="shared" si="50"/>
-        <v>972.6267908604251</v>
+        <f t="shared" si="49"/>
+        <v>917.18216107809769</v>
       </c>
       <c r="AE18" s="3">
-        <f t="shared" si="50"/>
-        <v>1502.9323697208247</v>
+        <f t="shared" si="49"/>
+        <v>1439.1710454711474</v>
       </c>
       <c r="AF18" s="3">
-        <f t="shared" si="50"/>
-        <v>2117.9211814290575</v>
+        <f t="shared" si="49"/>
+        <v>2044.5956585419299</v>
       </c>
       <c r="AG18" s="3">
-        <f t="shared" si="50"/>
-        <v>2830.5937337940609</v>
+        <f t="shared" si="49"/>
+        <v>2746.269382473864</v>
       </c>
       <c r="AH18" s="3">
-        <f t="shared" si="50"/>
-        <v>3655.9103251800088</v>
+        <f t="shared" si="49"/>
+        <v>3558.9373211617813</v>
       </c>
       <c r="AI18" s="3">
-        <f t="shared" si="50"/>
-        <v>4611.0857110608949</v>
+        <f t="shared" si="49"/>
+        <v>4499.5667564399328</v>
       </c>
       <c r="AJ18" s="3">
-        <f t="shared" si="50"/>
-        <v>5715.927994136794</v>
+        <f t="shared" si="49"/>
+        <v>5587.6811963226892</v>
       </c>
       <c r="AK18" s="3">
-        <f t="shared" si="50"/>
-        <v>6993.2283732803353</v>
+        <f t="shared" si="49"/>
+        <v>6845.7445557941119</v>
       </c>
       <c r="AL18" s="3">
-        <f t="shared" ref="AL18" si="51">AL16-AL17</f>
-        <v>8469.2093819310176</v>
+        <f t="shared" ref="AL18" si="50">AL16-AL17</f>
+        <v>8299.6029918218628</v>
       </c>
       <c r="AM18" s="3">
-        <f t="shared" ref="AM18" si="52">AM16-AM17</f>
-        <v>10174.040391210785</v>
+        <f t="shared" ref="AM18" si="51">AM16-AM17</f>
+        <v>9978.9930425852563</v>
       </c>
       <c r="AN18" s="3">
         <f>AM18*(1+$AP$21)</f>
-        <v>10072.299987298677</v>
+        <v>9879.2031121594027</v>
       </c>
       <c r="AO18" s="3">
-        <f t="shared" ref="AO18:BZ18" si="53">AN18*(1+$AP$21)</f>
-        <v>9971.5769874256894</v>
+        <f t="shared" ref="AO18:BZ18" si="52">AN18*(1+$AP$21)</f>
+        <v>9780.4110810378079</v>
       </c>
       <c r="AP18" s="3">
-        <f t="shared" si="53"/>
-        <v>9871.8612175514318</v>
+        <f t="shared" si="52"/>
+        <v>9682.606970227429</v>
       </c>
       <c r="AQ18" s="3">
-        <f t="shared" si="53"/>
-        <v>9773.1426053759169</v>
+        <f t="shared" si="52"/>
+        <v>9585.7809005251547</v>
       </c>
       <c r="AR18" s="3">
-        <f t="shared" si="53"/>
-        <v>9675.4111793221582</v>
+        <f t="shared" si="52"/>
+        <v>9489.9230915199023</v>
       </c>
       <c r="AS18" s="3">
-        <f t="shared" si="53"/>
-        <v>9578.6570675289368</v>
+        <f t="shared" si="52"/>
+        <v>9395.0238606047023</v>
       </c>
       <c r="AT18" s="3">
-        <f t="shared" si="53"/>
-        <v>9482.8704968536476</v>
+        <f t="shared" si="52"/>
+        <v>9301.0736219986557</v>
       </c>
       <c r="AU18" s="3">
-        <f t="shared" si="53"/>
-        <v>9388.0417918851108</v>
+        <f t="shared" si="52"/>
+        <v>9208.0628857786687</v>
       </c>
       <c r="AV18" s="3">
-        <f t="shared" si="53"/>
-        <v>9294.1613739662589</v>
+        <f t="shared" si="52"/>
+        <v>9115.9822569208827</v>
       </c>
       <c r="AW18" s="3">
-        <f t="shared" si="53"/>
-        <v>9201.2197602265969</v>
+        <f t="shared" si="52"/>
+        <v>9024.822434351674</v>
       </c>
       <c r="AX18" s="3">
-        <f t="shared" si="53"/>
-        <v>9109.2075626243313</v>
+        <f t="shared" si="52"/>
+        <v>8934.574210008157</v>
       </c>
       <c r="AY18" s="3">
-        <f t="shared" si="53"/>
-        <v>9018.1154869980874</v>
+        <f t="shared" si="52"/>
+        <v>8845.2284679080749</v>
       </c>
       <c r="AZ18" s="3">
-        <f t="shared" si="53"/>
-        <v>8927.9343321281067</v>
+        <f t="shared" si="52"/>
+        <v>8756.7761832289943</v>
       </c>
       <c r="BA18" s="3">
-        <f t="shared" si="53"/>
-        <v>8838.6549888068257</v>
+        <f t="shared" si="52"/>
+        <v>8669.2084213967046</v>
       </c>
       <c r="BB18" s="3">
-        <f t="shared" si="53"/>
-        <v>8750.268438918758</v>
+        <f t="shared" si="52"/>
+        <v>8582.5163371827366</v>
       </c>
       <c r="BC18" s="3">
-        <f t="shared" si="53"/>
-        <v>8662.7657545295697</v>
+        <f t="shared" si="52"/>
+        <v>8496.6911738109084</v>
       </c>
       <c r="BD18" s="3">
-        <f t="shared" si="53"/>
-        <v>8576.1380969842739</v>
+        <f t="shared" si="52"/>
+        <v>8411.7242620727993</v>
       </c>
       <c r="BE18" s="3">
-        <f t="shared" si="53"/>
-        <v>8490.3767160144307</v>
+        <f t="shared" si="52"/>
+        <v>8327.6070194520707</v>
       </c>
       <c r="BF18" s="3">
-        <f t="shared" si="53"/>
-        <v>8405.4729488542871</v>
+        <f t="shared" si="52"/>
+        <v>8244.3309492575499</v>
       </c>
       <c r="BG18" s="3">
-        <f t="shared" si="53"/>
-        <v>8321.4182193657434</v>
+        <f t="shared" si="52"/>
+        <v>8161.8876397649747</v>
       </c>
       <c r="BH18" s="3">
-        <f t="shared" si="53"/>
-        <v>8238.204037172085</v>
+        <f t="shared" si="52"/>
+        <v>8080.2687633673249</v>
       </c>
       <c r="BI18" s="3">
-        <f t="shared" si="53"/>
-        <v>8155.8219968003641</v>
+        <f t="shared" si="52"/>
+        <v>7999.4660757336515</v>
       </c>
       <c r="BJ18" s="3">
-        <f t="shared" si="53"/>
-        <v>8074.2637768323602</v>
+        <f t="shared" si="52"/>
+        <v>7919.4714149763149</v>
       </c>
       <c r="BK18" s="3">
-        <f t="shared" si="53"/>
-        <v>7993.521139064037</v>
+        <f t="shared" si="52"/>
+        <v>7840.2767008265519</v>
       </c>
       <c r="BL18" s="3">
-        <f t="shared" si="53"/>
-        <v>7913.5859276733963</v>
+        <f t="shared" si="52"/>
+        <v>7761.8739338182859</v>
       </c>
       <c r="BM18" s="3">
-        <f t="shared" si="53"/>
-        <v>7834.4500683966626</v>
+        <f t="shared" si="52"/>
+        <v>7684.2551944801025</v>
       </c>
       <c r="BN18" s="3">
-        <f t="shared" si="53"/>
-        <v>7756.105567712696</v>
+        <f t="shared" si="52"/>
+        <v>7607.4126425353015</v>
       </c>
       <c r="BO18" s="3">
-        <f t="shared" si="53"/>
-        <v>7678.5445120355689</v>
+        <f t="shared" si="52"/>
+        <v>7531.3385161099486</v>
       </c>
       <c r="BP18" s="3">
-        <f t="shared" si="53"/>
-        <v>7601.7590669152132</v>
+        <f t="shared" si="52"/>
+        <v>7456.0251309488494</v>
       </c>
       <c r="BQ18" s="3">
-        <f t="shared" si="53"/>
-        <v>7525.7414762460612</v>
+        <f t="shared" si="52"/>
+        <v>7381.4648796393612</v>
       </c>
       <c r="BR18" s="3">
-        <f t="shared" si="53"/>
-        <v>7450.4840614836003</v>
+        <f t="shared" si="52"/>
+        <v>7307.6502308429672</v>
       </c>
       <c r="BS18" s="3">
-        <f t="shared" si="53"/>
-        <v>7375.9792208687641</v>
+        <f t="shared" si="52"/>
+        <v>7234.5737285345376</v>
       </c>
       <c r="BT18" s="3">
-        <f t="shared" si="53"/>
-        <v>7302.2194286600761</v>
+        <f t="shared" si="52"/>
+        <v>7162.2279912491922</v>
       </c>
       <c r="BU18" s="3">
-        <f t="shared" si="53"/>
-        <v>7229.1972343734751</v>
+        <f t="shared" si="52"/>
+        <v>7090.6057113367006</v>
       </c>
       <c r="BV18" s="3">
-        <f t="shared" si="53"/>
-        <v>7156.9052620297407</v>
+        <f t="shared" si="52"/>
+        <v>7019.6996542233337</v>
       </c>
       <c r="BW18" s="3">
-        <f t="shared" si="53"/>
-        <v>7085.3362094094437</v>
+        <f t="shared" si="52"/>
+        <v>6949.5026576811006</v>
       </c>
       <c r="BX18" s="3">
-        <f t="shared" si="53"/>
-        <v>7014.4828473153493</v>
+        <f t="shared" si="52"/>
+        <v>6880.0076311042894</v>
       </c>
       <c r="BY18" s="3">
-        <f t="shared" si="53"/>
-        <v>6944.3380188421961</v>
+        <f t="shared" si="52"/>
+        <v>6811.2075547932463</v>
       </c>
       <c r="BZ18" s="3">
-        <f t="shared" si="53"/>
-        <v>6874.8946386537737</v>
+        <f t="shared" si="52"/>
+        <v>6743.095479245314</v>
       </c>
     </row>
     <row r="19" spans="2:78" ht="15" x14ac:dyDescent="0.25">
@@ -8596,52 +8637,52 @@
         <v>31</v>
       </c>
       <c r="C19" s="8">
-        <f t="shared" ref="C19:N19" si="54">C18/C20</f>
+        <f t="shared" ref="C19:N19" si="53">C18/C20</f>
         <v>-0.44164277878047925</v>
       </c>
       <c r="D19" s="8">
+        <f t="shared" si="53"/>
+        <v>-0.4007131132996184</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="53"/>
+        <v>-0.27262420007195265</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="53"/>
+        <v>-0.31020912226042652</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="53"/>
+        <v>-0.46758899798676645</v>
+      </c>
+      <c r="H19" s="8">
+        <f t="shared" si="53"/>
+        <v>-0.25020129529144053</v>
+      </c>
+      <c r="I19" s="8">
+        <f t="shared" si="53"/>
+        <v>-0.13402623920879539</v>
+      </c>
+      <c r="J19" s="8">
+        <f t="shared" ref="J19:K19" si="54">J18/J20</f>
+        <v>-0.25322121626385352</v>
+      </c>
+      <c r="K19" s="8">
         <f t="shared" si="54"/>
-        <v>-0.4007131132996184</v>
-      </c>
-      <c r="E19" s="8">
-        <f t="shared" si="54"/>
-        <v>-0.27262420007195265</v>
-      </c>
-      <c r="F19" s="8">
-        <f t="shared" si="54"/>
-        <v>-0.31020912226042652</v>
-      </c>
-      <c r="G19" s="8">
-        <f t="shared" si="54"/>
-        <v>-0.46758899798676645</v>
-      </c>
-      <c r="H19" s="8">
-        <f t="shared" si="54"/>
-        <v>-0.25020129529144053</v>
-      </c>
-      <c r="I19" s="8">
-        <f t="shared" si="54"/>
-        <v>-0.13402623920879539</v>
-      </c>
-      <c r="J19" s="8">
-        <f t="shared" ref="J19:K19" si="55">J18/J20</f>
-        <v>-0.25322121626385352</v>
-      </c>
-      <c r="K19" s="8">
-        <f t="shared" si="55"/>
         <v>-0.27527649820482197</v>
       </c>
       <c r="L19" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>-0.30187160733287538</v>
       </c>
       <c r="M19" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>-0.50503948783747843</v>
       </c>
       <c r="N19" s="120">
-        <f t="shared" si="54"/>
-        <v>-0.47011081185521736</v>
+        <f t="shared" si="53"/>
+        <v>-0.48997372942174272</v>
       </c>
       <c r="O19" s="8"/>
       <c r="Q19" s="78">
@@ -8666,67 +8707,67 @@
       </c>
       <c r="X19" s="120">
         <f>X18/X20</f>
-        <v>-1.5461372363365058</v>
+        <v>-1.4963621003748881</v>
       </c>
       <c r="Y19" s="35">
         <f>X19</f>
-        <v>-1.5461372363365058</v>
+        <v>-1.4963621003748881</v>
       </c>
       <c r="Z19" s="35">
-        <f t="shared" ref="Z19:AK19" si="56">Y19</f>
-        <v>-1.5461372363365058</v>
+        <f t="shared" ref="Z19:AK19" si="55">Y19</f>
+        <v>-1.4963621003748881</v>
       </c>
       <c r="AA19" s="35">
+        <f t="shared" si="55"/>
+        <v>-1.4963621003748881</v>
+      </c>
+      <c r="AB19" s="35">
+        <f t="shared" si="55"/>
+        <v>-1.4963621003748881</v>
+      </c>
+      <c r="AC19" s="35">
+        <f t="shared" si="55"/>
+        <v>-1.4963621003748881</v>
+      </c>
+      <c r="AD19" s="35">
+        <f t="shared" si="55"/>
+        <v>-1.4963621003748881</v>
+      </c>
+      <c r="AE19" s="35">
+        <f t="shared" si="55"/>
+        <v>-1.4963621003748881</v>
+      </c>
+      <c r="AF19" s="35">
+        <f t="shared" si="55"/>
+        <v>-1.4963621003748881</v>
+      </c>
+      <c r="AG19" s="35">
+        <f t="shared" si="55"/>
+        <v>-1.4963621003748881</v>
+      </c>
+      <c r="AH19" s="35">
+        <f t="shared" si="55"/>
+        <v>-1.4963621003748881</v>
+      </c>
+      <c r="AI19" s="35">
+        <f t="shared" si="55"/>
+        <v>-1.4963621003748881</v>
+      </c>
+      <c r="AJ19" s="35">
+        <f t="shared" si="55"/>
+        <v>-1.4963621003748881</v>
+      </c>
+      <c r="AK19" s="35">
+        <f t="shared" si="55"/>
+        <v>-1.4963621003748881</v>
+      </c>
+      <c r="AL19" s="35">
+        <f t="shared" ref="AL19:AM19" si="56">AK19</f>
+        <v>-1.4963621003748881</v>
+      </c>
+      <c r="AM19" s="35">
         <f t="shared" si="56"/>
-        <v>-1.5461372363365058</v>
-      </c>
-      <c r="AB19" s="35">
-        <f t="shared" si="56"/>
-        <v>-1.5461372363365058</v>
-      </c>
-      <c r="AC19" s="35">
-        <f t="shared" si="56"/>
-        <v>-1.5461372363365058</v>
-      </c>
-      <c r="AD19" s="35">
-        <f t="shared" si="56"/>
-        <v>-1.5461372363365058</v>
-      </c>
-      <c r="AE19" s="35">
-        <f t="shared" si="56"/>
-        <v>-1.5461372363365058</v>
-      </c>
-      <c r="AF19" s="35">
-        <f t="shared" si="56"/>
-        <v>-1.5461372363365058</v>
-      </c>
-      <c r="AG19" s="35">
-        <f t="shared" si="56"/>
-        <v>-1.5461372363365058</v>
-      </c>
-      <c r="AH19" s="35">
-        <f t="shared" si="56"/>
-        <v>-1.5461372363365058</v>
-      </c>
-      <c r="AI19" s="35">
-        <f t="shared" si="56"/>
-        <v>-1.5461372363365058</v>
-      </c>
-      <c r="AJ19" s="35">
-        <f t="shared" si="56"/>
-        <v>-1.5461372363365058</v>
-      </c>
-      <c r="AK19" s="35">
-        <f t="shared" si="56"/>
-        <v>-1.5461372363365058</v>
-      </c>
-      <c r="AL19" s="35">
-        <f t="shared" ref="AL19:AM19" si="57">AK19</f>
-        <v>-1.5461372363365058</v>
-      </c>
-      <c r="AM19" s="35">
-        <f t="shared" si="57"/>
-        <v>-1.5461372363365058</v>
+        <v>-1.4963621003748881</v>
       </c>
     </row>
     <row r="20" spans="2:78" ht="15" x14ac:dyDescent="0.25">
@@ -8798,59 +8839,59 @@
         <v>597.779</v>
       </c>
       <c r="Z20" s="35">
-        <f t="shared" ref="Z20:AK20" si="58">Y20</f>
+        <f t="shared" ref="Z20:AK20" si="57">Y20</f>
         <v>597.779</v>
       </c>
       <c r="AA20" s="35">
+        <f t="shared" si="57"/>
+        <v>597.779</v>
+      </c>
+      <c r="AB20" s="35">
+        <f t="shared" si="57"/>
+        <v>597.779</v>
+      </c>
+      <c r="AC20" s="35">
+        <f t="shared" si="57"/>
+        <v>597.779</v>
+      </c>
+      <c r="AD20" s="35">
+        <f t="shared" si="57"/>
+        <v>597.779</v>
+      </c>
+      <c r="AE20" s="35">
+        <f t="shared" si="57"/>
+        <v>597.779</v>
+      </c>
+      <c r="AF20" s="35">
+        <f t="shared" si="57"/>
+        <v>597.779</v>
+      </c>
+      <c r="AG20" s="35">
+        <f t="shared" si="57"/>
+        <v>597.779</v>
+      </c>
+      <c r="AH20" s="35">
+        <f t="shared" si="57"/>
+        <v>597.779</v>
+      </c>
+      <c r="AI20" s="35">
+        <f t="shared" si="57"/>
+        <v>597.779</v>
+      </c>
+      <c r="AJ20" s="35">
+        <f t="shared" si="57"/>
+        <v>597.779</v>
+      </c>
+      <c r="AK20" s="35">
+        <f t="shared" si="57"/>
+        <v>597.779</v>
+      </c>
+      <c r="AL20" s="35">
+        <f t="shared" ref="AL20:AM20" si="58">AK20</f>
+        <v>597.779</v>
+      </c>
+      <c r="AM20" s="35">
         <f t="shared" si="58"/>
-        <v>597.779</v>
-      </c>
-      <c r="AB20" s="35">
-        <f t="shared" si="58"/>
-        <v>597.779</v>
-      </c>
-      <c r="AC20" s="35">
-        <f t="shared" si="58"/>
-        <v>597.779</v>
-      </c>
-      <c r="AD20" s="35">
-        <f t="shared" si="58"/>
-        <v>597.779</v>
-      </c>
-      <c r="AE20" s="35">
-        <f t="shared" si="58"/>
-        <v>597.779</v>
-      </c>
-      <c r="AF20" s="35">
-        <f t="shared" si="58"/>
-        <v>597.779</v>
-      </c>
-      <c r="AG20" s="35">
-        <f t="shared" si="58"/>
-        <v>597.779</v>
-      </c>
-      <c r="AH20" s="35">
-        <f t="shared" si="58"/>
-        <v>597.779</v>
-      </c>
-      <c r="AI20" s="35">
-        <f t="shared" si="58"/>
-        <v>597.779</v>
-      </c>
-      <c r="AJ20" s="35">
-        <f t="shared" si="58"/>
-        <v>597.779</v>
-      </c>
-      <c r="AK20" s="35">
-        <f t="shared" si="58"/>
-        <v>597.779</v>
-      </c>
-      <c r="AL20" s="35">
-        <f t="shared" ref="AL20:AM20" si="59">AK20</f>
-        <v>597.779</v>
-      </c>
-      <c r="AM20" s="35">
-        <f t="shared" si="59"/>
         <v>597.779</v>
       </c>
     </row>
@@ -8876,52 +8917,52 @@
         <v>16</v>
       </c>
       <c r="C22" s="10">
-        <f t="shared" ref="C22:K22" si="60">C5/C3</f>
+        <f t="shared" ref="C22:K22" si="59">C5/C3</f>
         <v>0.74133193043262979</v>
       </c>
       <c r="D22" s="10">
+        <f t="shared" si="59"/>
+        <v>0.732179927342409</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="59"/>
+        <v>0.73872829616456415</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="59"/>
+        <v>0.74640091094129524</v>
+      </c>
+      <c r="G22" s="10">
+        <f t="shared" si="59"/>
+        <v>0.74691712147523359</v>
+      </c>
+      <c r="H22" s="10">
+        <f t="shared" si="59"/>
+        <v>0.74250165161858617</v>
+      </c>
+      <c r="I22" s="10">
+        <f t="shared" si="59"/>
+        <v>0.74473628410322468</v>
+      </c>
+      <c r="J22" s="10">
+        <f t="shared" si="59"/>
+        <v>0.73277727864915287</v>
+      </c>
+      <c r="K22" s="10">
+        <f t="shared" si="59"/>
+        <v>0.74748945328353822</v>
+      </c>
+      <c r="L22" s="10">
+        <f t="shared" ref="L22:M22" si="60">L5/L3</f>
+        <v>0.75785638532696664</v>
+      </c>
+      <c r="M22" s="10">
         <f t="shared" si="60"/>
-        <v>0.732179927342409</v>
-      </c>
-      <c r="E22" s="10">
-        <f t="shared" si="60"/>
-        <v>0.73872829616456415</v>
-      </c>
-      <c r="F22" s="10">
-        <f t="shared" si="60"/>
-        <v>0.74640091094129524</v>
-      </c>
-      <c r="G22" s="10">
-        <f t="shared" si="60"/>
-        <v>0.74691712147523359</v>
-      </c>
-      <c r="H22" s="10">
-        <f t="shared" si="60"/>
-        <v>0.74250165161858617</v>
-      </c>
-      <c r="I22" s="10">
-        <f t="shared" si="60"/>
-        <v>0.74473628410322468</v>
-      </c>
-      <c r="J22" s="10">
-        <f t="shared" si="60"/>
-        <v>0.73277727864915287</v>
-      </c>
-      <c r="K22" s="10">
-        <f t="shared" si="60"/>
-        <v>0.74748945328353822</v>
-      </c>
-      <c r="L22" s="10">
-        <f t="shared" ref="L22:M22" si="61">L5/L3</f>
-        <v>0.75785638532696664</v>
-      </c>
-      <c r="M22" s="10">
-        <f t="shared" si="61"/>
         <v>0.75577498469211346</v>
       </c>
       <c r="N22" s="121">
-        <f t="shared" ref="N22" si="62">N5/N3</f>
-        <v>0.74</v>
+        <f t="shared" ref="N22" si="61">N5/N3</f>
+        <v>0.76</v>
       </c>
       <c r="O22" s="10"/>
       <c r="Q22" s="79">
@@ -8933,7 +8974,7 @@
         <v>0.74</v>
       </c>
       <c r="S22" s="79">
-        <f t="shared" ref="S22" si="63">S5/S3</f>
+        <f t="shared" ref="S22" si="62">S5/S3</f>
         <v>0.74</v>
       </c>
       <c r="V22" s="10">
@@ -8945,67 +8986,67 @@
         <v>0.74110310596030293</v>
       </c>
       <c r="X22" s="121">
-        <f t="shared" ref="X22:AK22" si="64">X5/X3</f>
-        <v>0.74988920485379895</v>
+        <f t="shared" ref="X22:AK22" si="63">X5/X3</f>
+        <v>0.7738727719939924</v>
       </c>
       <c r="Y22" s="10">
+        <f t="shared" si="63"/>
+        <v>0.73</v>
+      </c>
+      <c r="Z22" s="10">
+        <f t="shared" si="63"/>
+        <v>0.72999999999999987</v>
+      </c>
+      <c r="AA22" s="10">
+        <f t="shared" si="63"/>
+        <v>0.73</v>
+      </c>
+      <c r="AB22" s="10">
+        <f t="shared" si="63"/>
+        <v>0.73</v>
+      </c>
+      <c r="AC22" s="10">
+        <f t="shared" si="63"/>
+        <v>0.73</v>
+      </c>
+      <c r="AD22" s="10">
+        <f t="shared" si="63"/>
+        <v>0.73</v>
+      </c>
+      <c r="AE22" s="10">
+        <f t="shared" si="63"/>
+        <v>0.73</v>
+      </c>
+      <c r="AF22" s="10">
+        <f t="shared" si="63"/>
+        <v>0.73000000000000009</v>
+      </c>
+      <c r="AG22" s="10">
+        <f t="shared" si="63"/>
+        <v>0.73</v>
+      </c>
+      <c r="AH22" s="10">
+        <f t="shared" si="63"/>
+        <v>0.73</v>
+      </c>
+      <c r="AI22" s="10">
+        <f t="shared" si="63"/>
+        <v>0.73</v>
+      </c>
+      <c r="AJ22" s="10">
+        <f t="shared" si="63"/>
+        <v>0.73</v>
+      </c>
+      <c r="AK22" s="10">
+        <f t="shared" si="63"/>
+        <v>0.72999999999999987</v>
+      </c>
+      <c r="AL22" s="10">
+        <f t="shared" ref="AL22:AM22" si="64">AL5/AL3</f>
+        <v>0.73</v>
+      </c>
+      <c r="AM22" s="10">
         <f t="shared" si="64"/>
-        <v>0.73</v>
-      </c>
-      <c r="Z22" s="10">
-        <f t="shared" si="64"/>
-        <v>0.73000000000000009</v>
-      </c>
-      <c r="AA22" s="10">
-        <f t="shared" si="64"/>
-        <v>0.73000000000000009</v>
-      </c>
-      <c r="AB22" s="10">
-        <f t="shared" si="64"/>
-        <v>0.73</v>
-      </c>
-      <c r="AC22" s="10">
-        <f t="shared" si="64"/>
-        <v>0.73</v>
-      </c>
-      <c r="AD22" s="10">
-        <f t="shared" si="64"/>
-        <v>0.73</v>
-      </c>
-      <c r="AE22" s="10">
-        <f t="shared" si="64"/>
-        <v>0.73</v>
-      </c>
-      <c r="AF22" s="10">
-        <f t="shared" si="64"/>
-        <v>0.73</v>
-      </c>
-      <c r="AG22" s="10">
-        <f t="shared" si="64"/>
-        <v>0.73</v>
-      </c>
-      <c r="AH22" s="10">
-        <f t="shared" si="64"/>
-        <v>0.73</v>
-      </c>
-      <c r="AI22" s="10">
-        <f t="shared" si="64"/>
-        <v>0.73</v>
-      </c>
-      <c r="AJ22" s="10">
-        <f t="shared" si="64"/>
-        <v>0.73</v>
-      </c>
-      <c r="AK22" s="10">
-        <f t="shared" si="64"/>
-        <v>0.73</v>
-      </c>
-      <c r="AL22" s="10">
-        <f t="shared" ref="AL22:AM22" si="65">AL5/AL3</f>
-        <v>0.73</v>
-      </c>
-      <c r="AM22" s="10">
-        <f t="shared" si="65"/>
         <v>0.73</v>
       </c>
       <c r="AO22" s="141" t="s">
@@ -9021,52 +9062,52 @@
         <v>24</v>
       </c>
       <c r="C23" s="10">
-        <f t="shared" ref="C23:J23" si="66">C12/C3</f>
+        <f t="shared" ref="C23:J23" si="65">C12/C3</f>
         <v>-0.45160611499659598</v>
       </c>
       <c r="D23" s="10">
+        <f t="shared" si="65"/>
+        <v>-0.36451554952293502</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" si="65"/>
+        <v>-0.20450629976896878</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" si="65"/>
+        <v>-0.22130647819901991</v>
+      </c>
+      <c r="G23" s="10">
+        <f t="shared" si="65"/>
+        <v>-0.3490035557760689</v>
+      </c>
+      <c r="H23" s="10">
+        <f t="shared" si="65"/>
+        <v>-0.31478969390002193</v>
+      </c>
+      <c r="I23" s="10">
+        <f t="shared" si="65"/>
+        <v>-0.15205286883314742</v>
+      </c>
+      <c r="J23" s="14">
+        <f t="shared" si="65"/>
+        <v>-0.24553025920892319</v>
+      </c>
+      <c r="K23" s="14">
+        <f t="shared" ref="K23:L23" si="66">K12/K3</f>
+        <v>-0.28225917555023522</v>
+      </c>
+      <c r="L23" s="14">
         <f t="shared" si="66"/>
-        <v>-0.36451554952293502</v>
-      </c>
-      <c r="E23" s="10">
-        <f t="shared" si="66"/>
-        <v>-0.20450629976896878</v>
-      </c>
-      <c r="F23" s="10">
-        <f t="shared" si="66"/>
-        <v>-0.22130647819901991</v>
-      </c>
-      <c r="G23" s="10">
-        <f t="shared" si="66"/>
-        <v>-0.3490035557760689</v>
-      </c>
-      <c r="H23" s="10">
-        <f t="shared" si="66"/>
-        <v>-0.31478969390002193</v>
-      </c>
-      <c r="I23" s="10">
-        <f t="shared" si="66"/>
-        <v>-0.15205286883314742</v>
-      </c>
-      <c r="J23" s="14">
-        <f t="shared" si="66"/>
-        <v>-0.24553025920892319</v>
-      </c>
-      <c r="K23" s="14">
-        <f t="shared" ref="K23:L23" si="67">K12/K3</f>
-        <v>-0.28225917555023522</v>
-      </c>
-      <c r="L23" s="14">
-        <f t="shared" si="67"/>
         <v>-0.2879989580637578</v>
       </c>
       <c r="M23" s="14">
-        <f t="shared" ref="M23" si="68">M12/M3</f>
+        <f t="shared" ref="M23" si="67">M12/M3</f>
         <v>-0.5794918747476856</v>
       </c>
       <c r="N23" s="122">
-        <f t="shared" ref="N23" si="69">N12/N3</f>
-        <v>-0.41847448421598832</v>
+        <f t="shared" ref="N23" si="68">N12/N3</f>
+        <v>-0.45970540286300937</v>
       </c>
       <c r="O23" s="14"/>
       <c r="Q23" s="80">
@@ -9078,7 +9119,7 @@
         <v>-0.31959466683854248</v>
       </c>
       <c r="S23" s="80">
-        <f t="shared" ref="S23" si="70">S12/S3</f>
+        <f t="shared" ref="S23" si="69">S12/S3</f>
         <v>-0.20020035171753023</v>
       </c>
       <c r="V23" s="14">
@@ -9090,75 +9131,75 @@
         <v>-0.25797358352338834</v>
       </c>
       <c r="X23" s="122">
-        <f t="shared" ref="X23:AK23" si="71">X12/X3</f>
-        <v>-0.3893700338591386</v>
+        <f t="shared" ref="X23:AK23" si="70">X12/X3</f>
+        <v>-0.38188570316611464</v>
       </c>
       <c r="Y23" s="14">
+        <f t="shared" si="70"/>
+        <v>-0.28959600746241793</v>
+      </c>
+      <c r="Z23" s="14">
+        <f t="shared" si="70"/>
+        <v>-0.17001824714292979</v>
+      </c>
+      <c r="AA23" s="14">
+        <f t="shared" si="70"/>
+        <v>-6.4941842159973007E-2</v>
+      </c>
+      <c r="AB23" s="14">
+        <f t="shared" si="70"/>
+        <v>2.7447148547194638E-2</v>
+      </c>
+      <c r="AC23" s="14">
+        <f t="shared" si="70"/>
+        <v>0.1087290808075289</v>
+      </c>
+      <c r="AD23" s="14">
+        <f t="shared" si="70"/>
+        <v>0.18028165404145161</v>
+      </c>
+      <c r="AE23" s="14">
+        <f t="shared" si="70"/>
+        <v>0.24330663113640785</v>
+      </c>
+      <c r="AF23" s="14">
+        <f t="shared" si="70"/>
+        <v>0.29885293801871821</v>
+      </c>
+      <c r="AG23" s="14">
+        <f t="shared" si="70"/>
+        <v>0.34783664696336214</v>
+      </c>
+      <c r="AH23" s="14">
+        <f t="shared" si="70"/>
+        <v>0.39105827557143741</v>
+      </c>
+      <c r="AI23" s="14">
+        <f t="shared" si="70"/>
+        <v>0.42921777183136961</v>
+      </c>
+      <c r="AJ23" s="14">
+        <f t="shared" si="70"/>
+        <v>0.46292750316590264</v>
+      </c>
+      <c r="AK23" s="14">
+        <f t="shared" si="70"/>
+        <v>0.49272352250092638</v>
+      </c>
+      <c r="AL23" s="14">
+        <f t="shared" ref="AL23:AM23" si="71">AL12/AL3</f>
+        <v>0.51907534603079397</v>
+      </c>
+      <c r="AM23" s="14">
         <f t="shared" si="71"/>
-        <v>-0.2750405826316531</v>
-      </c>
-      <c r="Z23" s="14">
-        <f t="shared" si="71"/>
-        <v>-0.15716987597756057</v>
-      </c>
-      <c r="AA23" s="14">
-        <f t="shared" si="71"/>
-        <v>-5.3593507972997695E-2</v>
-      </c>
-      <c r="AB23" s="14">
-        <f t="shared" si="71"/>
-        <v>3.7476567203326247E-2</v>
-      </c>
-      <c r="AC23" s="14">
-        <f t="shared" si="71"/>
-        <v>0.11759814472859333</v>
-      </c>
-      <c r="AD23" s="14">
-        <f t="shared" si="71"/>
-        <v>0.18812925642919137</v>
-      </c>
-      <c r="AE23" s="14">
-        <f t="shared" si="71"/>
-        <v>0.250254509211918</v>
-      </c>
-      <c r="AF23" s="14">
-        <f t="shared" si="71"/>
-        <v>0.30500785487376963</v>
-      </c>
-      <c r="AG23" s="14">
-        <f t="shared" si="71"/>
-        <v>0.35329228813642038</v>
-      </c>
-      <c r="AH23" s="14">
-        <f t="shared" si="71"/>
-        <v>0.39589689866903877</v>
-      </c>
-      <c r="AI23" s="14">
-        <f t="shared" si="71"/>
-        <v>0.43351164222758132</v>
-      </c>
-      <c r="AJ23" s="14">
-        <f t="shared" si="71"/>
-        <v>0.46674014427432381</v>
-      </c>
-      <c r="AK23" s="14">
-        <f t="shared" si="71"/>
-        <v>0.49611080521591272</v>
-      </c>
-      <c r="AL23" s="14">
-        <f t="shared" ref="AL23:AM23" si="72">AL12/AL3</f>
-        <v>0.52208643858444648</v>
-      </c>
-      <c r="AM23" s="14">
-        <f t="shared" si="72"/>
-        <v>0.54507264112962539</v>
+        <v>0.54239444452970154</v>
       </c>
       <c r="AO23" s="141" t="s">
         <v>115</v>
       </c>
       <c r="AP23" s="136">
         <f>NPV(AP22,X18:BZ18)</f>
-        <v>72964.349208334752</v>
+        <v>71290.030046149914</v>
       </c>
       <c r="AR23" s="68"/>
     </row>
@@ -9167,52 +9208,52 @@
         <v>29</v>
       </c>
       <c r="C24" s="10">
-        <f t="shared" ref="C24:J24" si="73">C18/C3</f>
+        <f t="shared" ref="C24:J24" si="72">C18/C3</f>
         <v>-0.4634338057807762</v>
       </c>
       <c r="D24" s="10">
+        <f t="shared" si="72"/>
+        <v>-0.36060820791249149</v>
+      </c>
+      <c r="E24" s="10">
+        <f t="shared" si="72"/>
+        <v>-0.1985360083202998</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" si="72"/>
+        <v>-0.19527497588779671</v>
+      </c>
+      <c r="G24" s="10">
+        <f t="shared" si="72"/>
+        <v>-0.35170914992144231</v>
+      </c>
+      <c r="H24" s="10">
+        <f t="shared" si="72"/>
+        <v>-0.3147764809513322</v>
+      </c>
+      <c r="I24" s="10">
+        <f t="shared" si="72"/>
+        <v>-0.15155025366359329</v>
+      </c>
+      <c r="J24" s="10">
+        <f t="shared" si="72"/>
+        <v>-0.2589047574674429</v>
+      </c>
+      <c r="K24" s="10">
+        <f t="shared" ref="K24:L24" si="73">K18/K3</f>
+        <v>-0.30161188828113661</v>
+      </c>
+      <c r="L24" s="10">
         <f t="shared" si="73"/>
-        <v>-0.36060820791249149</v>
-      </c>
-      <c r="E24" s="10">
-        <f t="shared" si="73"/>
-        <v>-0.1985360083202998</v>
-      </c>
-      <c r="F24" s="10">
-        <f t="shared" si="73"/>
-        <v>-0.19527497588779671</v>
-      </c>
-      <c r="G24" s="10">
-        <f t="shared" si="73"/>
-        <v>-0.35170914992144231</v>
-      </c>
-      <c r="H24" s="10">
-        <f t="shared" si="73"/>
-        <v>-0.3147764809513322</v>
-      </c>
-      <c r="I24" s="10">
-        <f t="shared" si="73"/>
-        <v>-0.15155025366359329</v>
-      </c>
-      <c r="J24" s="10">
-        <f t="shared" si="73"/>
-        <v>-0.2589047574674429</v>
-      </c>
-      <c r="K24" s="10">
-        <f t="shared" ref="K24:L24" si="74">K18/K3</f>
-        <v>-0.30161188828113661</v>
-      </c>
-      <c r="L24" s="10">
-        <f t="shared" si="74"/>
         <v>-0.30326095597650232</v>
       </c>
       <c r="M24" s="10">
-        <f t="shared" ref="M24" si="75">M18/M3</f>
+        <f t="shared" ref="M24" si="74">M18/M3</f>
         <v>-0.5831522463478378</v>
       </c>
       <c r="N24" s="121">
-        <f t="shared" ref="N24" si="76">N18/N3</f>
-        <v>-0.42964240162602879</v>
+        <f t="shared" ref="N24" si="75">N18/N3</f>
+        <v>-0.47146359813562494</v>
       </c>
       <c r="O24" s="10"/>
       <c r="Q24" s="79">
@@ -9224,7 +9265,7 @@
         <v>-0.32004473066532035</v>
       </c>
       <c r="S24" s="79">
-        <f t="shared" ref="S24" si="77">S18/S3</f>
+        <f t="shared" ref="S24" si="76">S18/S3</f>
         <v>-0.20180364211915114</v>
       </c>
       <c r="V24" s="10">
@@ -9236,68 +9277,68 @@
         <v>-0.26234628208595223</v>
       </c>
       <c r="X24" s="121">
-        <f t="shared" ref="X24:AK24" si="78">X18/X3</f>
-        <v>-0.40182399547573866</v>
+        <f t="shared" ref="X24:AK24" si="77">X18/X3</f>
+        <v>-0.39452002834741873</v>
       </c>
       <c r="Y24" s="10">
+        <f t="shared" si="77"/>
+        <v>-0.30055983204221265</v>
+      </c>
+      <c r="Z24" s="10">
+        <f t="shared" si="77"/>
+        <v>-0.1795322463390791</v>
+      </c>
+      <c r="AA24" s="10">
+        <f t="shared" si="77"/>
+        <v>-7.3197563723160053E-2</v>
+      </c>
+      <c r="AB24" s="10">
+        <f t="shared" si="77"/>
+        <v>2.0283442653816156E-2</v>
+      </c>
+      <c r="AC24" s="10">
+        <f t="shared" si="77"/>
+        <v>0.10251307905834396</v>
+      </c>
+      <c r="AD24" s="10">
+        <f t="shared" si="77"/>
+        <v>0.17488809963790353</v>
+      </c>
+      <c r="AE24" s="10">
+        <f t="shared" si="77"/>
+        <v>0.23862680802450256</v>
+      </c>
+      <c r="AF24" s="10">
+        <f t="shared" si="77"/>
+        <v>0.29479248834670668</v>
+      </c>
+      <c r="AG24" s="10">
+        <f t="shared" si="77"/>
+        <v>0.34431367631246718</v>
+      </c>
+      <c r="AH24" s="10">
+        <f t="shared" si="77"/>
+        <v>0.38800170804201667</v>
+      </c>
+      <c r="AI24" s="10">
+        <f t="shared" si="77"/>
+        <v>0.42656592205984878</v>
+      </c>
+      <c r="AJ24" s="10">
+        <f t="shared" si="77"/>
+        <v>0.46062683668367971</v>
+      </c>
+      <c r="AK24" s="10">
+        <f t="shared" si="77"/>
+        <v>0.49072757961165897</v>
+      </c>
+      <c r="AL24" s="10">
+        <f t="shared" ref="AL24:AM24" si="78">AL18/AL3</f>
+        <v>0.51734380765210541</v>
+      </c>
+      <c r="AM24" s="10">
         <f t="shared" si="78"/>
-        <v>-0.28584789117631143</v>
-      </c>
-      <c r="Z24" s="10">
-        <f t="shared" si="78"/>
-        <v>-0.16654805637967182</v>
-      </c>
-      <c r="AA24" s="10">
-        <f t="shared" si="78"/>
-        <v>-6.173137350913363E-2</v>
-      </c>
-      <c r="AB24" s="10">
-        <f t="shared" si="78"/>
-        <v>3.0415128072349359E-2</v>
-      </c>
-      <c r="AC24" s="10">
-        <f t="shared" si="78"/>
-        <v>0.11147088062210803</v>
-      </c>
-      <c r="AD24" s="10">
-        <f t="shared" si="78"/>
-        <v>0.18281269867443059</v>
-      </c>
-      <c r="AE24" s="10">
-        <f t="shared" si="78"/>
-        <v>0.24564149375032526</v>
-      </c>
-      <c r="AF24" s="10">
-        <f t="shared" si="78"/>
-        <v>0.30100537087595408</v>
-      </c>
-      <c r="AG24" s="10">
-        <f t="shared" si="78"/>
-        <v>0.34981961028200048</v>
-      </c>
-      <c r="AH24" s="10">
-        <f t="shared" si="78"/>
-        <v>0.39288396571506662</v>
-      </c>
-      <c r="AI24" s="10">
-        <f t="shared" si="78"/>
-        <v>0.43089764941090275</v>
-      </c>
-      <c r="AJ24" s="10">
-        <f t="shared" si="78"/>
-        <v>0.46447232136720074</v>
-      </c>
-      <c r="AK24" s="10">
-        <f t="shared" si="78"/>
-        <v>0.49414335576569235</v>
-      </c>
-      <c r="AL24" s="10">
-        <f t="shared" ref="AL24:AM24" si="79">AL18/AL3</f>
-        <v>0.52037961909101049</v>
-      </c>
-      <c r="AM24" s="10">
-        <f t="shared" si="79"/>
-        <v>0.5435919617130508</v>
+        <v>0.54089232128457032</v>
       </c>
       <c r="AO24" s="141" t="s">
         <v>7</v>
@@ -9312,52 +9353,52 @@
         <v>30</v>
       </c>
       <c r="C25" s="10">
-        <f t="shared" ref="C25:J25" si="80">C17/C16</f>
+        <f t="shared" ref="C25:J25" si="79">C17/C16</f>
         <v>-1.3355414284951119E-5</v>
       </c>
       <c r="D25" s="10">
+        <f t="shared" si="79"/>
+        <v>-6.9196490354009248E-5</v>
+      </c>
+      <c r="E25" s="10">
+        <f t="shared" si="79"/>
+        <v>-3.8003800380038001E-4</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="79"/>
+        <v>9.9393019726858919E-2</v>
+      </c>
+      <c r="G25" s="10">
+        <f t="shared" si="79"/>
+        <v>-1.4694969177302145E-5</v>
+      </c>
+      <c r="H25" s="10">
+        <f t="shared" si="79"/>
+        <v>-1.3993842709207952E-4</v>
+      </c>
+      <c r="I25" s="10">
+        <f t="shared" si="79"/>
+        <v>1.2764107024095776E-2</v>
+      </c>
+      <c r="J25" s="10">
+        <f t="shared" si="79"/>
+        <v>-4.4747307317139712E-3</v>
+      </c>
+      <c r="K25" s="10">
+        <f t="shared" ref="K25:L25" si="80">K17/K16</f>
+        <v>-1.7065479502875161E-3</v>
+      </c>
+      <c r="L25" s="10">
         <f t="shared" si="80"/>
-        <v>-6.9196490354009248E-5</v>
-      </c>
-      <c r="E25" s="10">
-        <f t="shared" si="80"/>
-        <v>-3.8003800380038001E-4</v>
-      </c>
-      <c r="F25" s="10">
-        <f t="shared" si="80"/>
-        <v>9.9393019726858919E-2</v>
-      </c>
-      <c r="G25" s="10">
-        <f t="shared" si="80"/>
-        <v>-1.4694969177302145E-5</v>
-      </c>
-      <c r="H25" s="10">
-        <f t="shared" si="80"/>
-        <v>-1.3993842709207952E-4</v>
-      </c>
-      <c r="I25" s="10">
-        <f t="shared" si="80"/>
-        <v>1.2764107024095776E-2</v>
-      </c>
-      <c r="J25" s="10">
-        <f t="shared" si="80"/>
-        <v>-4.4747307317139712E-3</v>
-      </c>
-      <c r="K25" s="10">
-        <f t="shared" ref="K25:L25" si="81">K17/K16</f>
-        <v>-1.7065479502875161E-3</v>
-      </c>
-      <c r="L25" s="10">
-        <f t="shared" si="81"/>
         <v>-1.5529685160771344E-3</v>
       </c>
       <c r="M25" s="10">
-        <f t="shared" ref="M25" si="82">M17/M16</f>
+        <f t="shared" ref="M25" si="81">M17/M16</f>
         <v>-1.1673022715967497E-3</v>
       </c>
       <c r="N25" s="121">
-        <f t="shared" ref="N25" si="83">N17/N16</f>
-        <v>-1.2604188218254303E-3</v>
+        <f t="shared" ref="N25" si="82">N17/N16</f>
+        <v>-1.209261242904384E-3</v>
       </c>
       <c r="O25" s="10"/>
       <c r="Q25" s="79">
@@ -9369,7 +9410,7 @@
         <v>-1.554111834331342E-3</v>
       </c>
       <c r="S25" s="79">
-        <f t="shared" ref="S25" si="84">S17/S16</f>
+        <f t="shared" ref="S25" si="83">S17/S16</f>
         <v>-2.1744084525061108E-3</v>
       </c>
       <c r="V25" s="10">
@@ -9381,75 +9422,75 @@
         <v>6.3516008018896014E-4</v>
       </c>
       <c r="X25" s="121">
-        <f t="shared" ref="X25:AK25" si="85">X17/X16</f>
-        <v>-1.3648705791018691E-3</v>
+        <f t="shared" ref="X25:AK25" si="84">X17/X16</f>
+        <v>-1.4103357990998279E-3</v>
       </c>
       <c r="Y25" s="10">
+        <f t="shared" si="84"/>
+        <v>-1.6100873059674448E-3</v>
+      </c>
+      <c r="Z25" s="10">
+        <f t="shared" si="84"/>
+        <v>-2.3456265580359351E-3</v>
+      </c>
+      <c r="AA25" s="10">
+        <f t="shared" si="84"/>
+        <v>-5.016055909492151E-3</v>
+      </c>
+      <c r="AB25" s="10">
+        <f t="shared" si="84"/>
+        <v>1.5420458728731032E-2</v>
+      </c>
+      <c r="AC25" s="10">
+        <f t="shared" si="84"/>
+        <v>2.6874618947828328E-3</v>
+      </c>
+      <c r="AD25" s="10">
+        <f t="shared" si="84"/>
+        <v>1.3716272864823633E-3</v>
+      </c>
+      <c r="AE25" s="10">
+        <f t="shared" si="84"/>
+        <v>8.7457168731402404E-4</v>
+      </c>
+      <c r="AF25" s="10">
+        <f t="shared" si="84"/>
+        <v>6.1576198815546028E-4</v>
+      </c>
+      <c r="AG25" s="10">
+        <f t="shared" si="84"/>
+        <v>4.5850651064094529E-4</v>
+      </c>
+      <c r="AH25" s="10">
+        <f t="shared" si="84"/>
+        <v>3.5384557969159078E-4</v>
+      </c>
+      <c r="AI25" s="10">
+        <f t="shared" si="84"/>
+        <v>2.7989525821502803E-4</v>
+      </c>
+      <c r="AJ25" s="10">
+        <f t="shared" si="84"/>
+        <v>2.2540227385563119E-4</v>
+      </c>
+      <c r="AK25" s="10">
+        <f t="shared" si="84"/>
+        <v>1.8398703168538805E-4</v>
+      </c>
+      <c r="AL25" s="10">
+        <f t="shared" ref="AL25:AM25" si="85">AL17/AL16</f>
+        <v>1.5176253814382239E-4</v>
+      </c>
+      <c r="AM25" s="10">
         <f t="shared" si="85"/>
-        <v>-1.66888472143836E-3</v>
-      </c>
-      <c r="Z25" s="10">
-        <f t="shared" si="85"/>
-        <v>-2.4927629720269988E-3</v>
-      </c>
-      <c r="AA25" s="10">
-        <f t="shared" si="85"/>
-        <v>-5.8678153592524561E-3</v>
-      </c>
-      <c r="AB25" s="10">
-        <f t="shared" si="85"/>
-        <v>1.0190734622326026E-2</v>
-      </c>
-      <c r="AC25" s="10">
-        <f t="shared" si="85"/>
-        <v>2.4368273608143093E-3</v>
-      </c>
-      <c r="AD25" s="10">
-        <f t="shared" si="85"/>
-        <v>1.293538758582308E-3</v>
-      </c>
-      <c r="AE25" s="10">
-        <f t="shared" si="85"/>
-        <v>8.3749939592743993E-4</v>
-      </c>
-      <c r="AF25" s="10">
-        <f t="shared" si="85"/>
-        <v>5.9445608224019235E-4</v>
-      </c>
-      <c r="AG25" s="10">
-        <f t="shared" si="85"/>
-        <v>4.4485352182262742E-4</v>
-      </c>
-      <c r="AH25" s="10">
-        <f t="shared" si="85"/>
-        <v>3.4446306041519356E-4</v>
-      </c>
-      <c r="AI25" s="10">
-        <f t="shared" si="85"/>
-        <v>2.7312784957329747E-4</v>
-      </c>
-      <c r="AJ25" s="10">
-        <f t="shared" si="85"/>
-        <v>2.2034609569861923E-4</v>
-      </c>
-      <c r="AK25" s="10">
-        <f t="shared" si="85"/>
-        <v>1.8010753267361495E-4</v>
-      </c>
-      <c r="AL25" s="10">
-        <f t="shared" ref="AL25:AM25" si="86">AL17/AL16</f>
-        <v>1.4872375766813924E-4</v>
-      </c>
-      <c r="AM25" s="10">
-        <f t="shared" si="86"/>
-        <v>1.2380568447900752E-4</v>
+        <v>1.2622525951183072E-4</v>
       </c>
       <c r="AO25" s="141" t="s">
         <v>116</v>
       </c>
       <c r="AP25" s="136">
         <f>AP23+AP24</f>
-        <v>74997.193208334749</v>
+        <v>73322.874046149911</v>
       </c>
     </row>
     <row r="26" spans="2:78" x14ac:dyDescent="0.25">
@@ -9466,7 +9507,7 @@
       </c>
       <c r="AP26" s="137">
         <f>AP25/Main!C7</f>
-        <v>125.45973212229728</v>
+        <v>122.65883218739687</v>
       </c>
       <c r="AQ26" s="67"/>
       <c r="AS26" s="9"/>
@@ -9479,48 +9520,48 @@
         <v>33</v>
       </c>
       <c r="D27" s="10">
-        <f t="shared" ref="D27:L27" si="87">D3/C3-1</f>
+        <f t="shared" ref="D27:L27" si="86">D3/C3-1</f>
         <v>0.24027975490499487</v>
       </c>
       <c r="E27" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>0.25710607209868663</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>0.23061441603086785</v>
       </c>
       <c r="G27" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>0.24827343722279016</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>0.17345778549574131</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>0.12163840563752482</v>
       </c>
       <c r="J27" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>0.11668721629729695</v>
       </c>
       <c r="K27" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>-5.5620119943245783E-2</v>
       </c>
       <c r="L27" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>0.10066947912438984</v>
       </c>
       <c r="M27" s="10">
-        <f t="shared" ref="M27" si="88">M3/L3-1</f>
+        <f t="shared" ref="M27" si="87">M3/L3-1</f>
         <v>-0.12432193800141067</v>
       </c>
       <c r="N27" s="121">
         <f>N3/S3-1</f>
-        <v>2.7352238993513023E-2</v>
+        <v>-2.4222281558735514E-2</v>
       </c>
       <c r="O27" s="10"/>
       <c r="Q27" s="79">
@@ -9567,36 +9608,36 @@
         <v>33</v>
       </c>
       <c r="G28" s="13">
-        <f t="shared" ref="G28:L28" si="89">G3/C3-1</f>
+        <f t="shared" ref="G28:L28" si="88">G3/C3-1</f>
         <v>1.3950980998947826</v>
       </c>
       <c r="H28" s="13">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>1.2660585252904308</v>
       </c>
       <c r="I28" s="13">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>1.0218646045872801</v>
       </c>
       <c r="J28" s="13">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>0.83468544461612404</v>
       </c>
       <c r="K28" s="13">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>0.38802923178698423</v>
       </c>
       <c r="L28" s="13">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>0.3019312926668134</v>
       </c>
       <c r="M28" s="13">
-        <f t="shared" ref="M28" si="90">M3/I3-1</f>
+        <f t="shared" ref="M28" si="89">M3/I3-1</f>
         <v>1.6435123376317362E-2</v>
       </c>
       <c r="N28" s="123">
         <f>N3/J3-1</f>
-        <v>0.14999999999999991</v>
+        <v>9.2268390154878199E-2</v>
       </c>
       <c r="O28" s="13"/>
       <c r="Q28" s="81">
@@ -9617,75 +9658,75 @@
         <v>1.0772942519902369</v>
       </c>
       <c r="X28" s="123">
-        <f t="shared" ref="X28:AK28" si="91">X3/W3-1</f>
-        <v>0.19849683276355901</v>
+        <f t="shared" ref="X28:AK28" si="90">X3/W3-1</f>
+        <v>0.1813874772624362</v>
       </c>
       <c r="Y28" s="13">
+        <f t="shared" si="90"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="Z28" s="13">
+        <f t="shared" si="90"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AA28" s="13">
+        <f t="shared" si="90"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AB28" s="13">
+        <f t="shared" si="90"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AC28" s="13">
+        <f t="shared" si="90"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AD28" s="13">
+        <f t="shared" si="90"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AE28" s="13">
+        <f t="shared" si="90"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AF28" s="13">
+        <f t="shared" si="90"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AG28" s="13">
+        <f t="shared" si="90"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AH28" s="13">
+        <f t="shared" si="90"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AI28" s="13">
+        <f t="shared" si="90"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AJ28" s="13">
+        <f t="shared" si="90"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AK28" s="13">
+        <f t="shared" si="90"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AL28" s="13">
+        <f t="shared" ref="AL28:AM28" si="91">AL3/AK3-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AM28" s="13">
         <f t="shared" si="91"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="Z28" s="13">
-        <f t="shared" si="91"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AA28" s="13">
-        <f t="shared" si="91"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AB28" s="13">
-        <f t="shared" si="91"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AC28" s="13">
-        <f t="shared" si="91"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AD28" s="13">
-        <f t="shared" si="91"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AE28" s="13">
-        <f t="shared" si="91"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AF28" s="13">
-        <f t="shared" si="91"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AG28" s="13">
-        <f t="shared" si="91"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AH28" s="13">
-        <f t="shared" si="91"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AI28" s="13">
-        <f t="shared" si="91"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AJ28" s="13">
-        <f t="shared" si="91"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AK28" s="13">
-        <f t="shared" si="91"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AL28" s="13">
-        <f t="shared" ref="AL28:AM28" si="92">AL3/AK3-1</f>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AM28" s="13">
-        <f t="shared" si="92"/>
-        <v>0.14999999999999991</v>
-      </c>
       <c r="AO28" s="143" t="s">
         <v>120</v>
       </c>
       <c r="AP28" s="139">
         <f>AP26/AP27-1</f>
-        <v>2.960218816991707</v>
+        <v>2.871806571571871</v>
       </c>
     </row>
     <row r="29" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -9732,35 +9773,35 @@
         <v>33</v>
       </c>
       <c r="D30" s="213">
-        <f t="shared" ref="D30:K30" si="93">D8/C8-1</f>
+        <f t="shared" ref="D30:K30" si="92">D8/C8-1</f>
         <v>-0.18539132546702008</v>
       </c>
       <c r="E30" s="213">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>0.28470272553355347</v>
       </c>
       <c r="F30" s="213">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>0.16165777055774733</v>
       </c>
       <c r="G30" s="213">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>0.60893668736577489</v>
       </c>
       <c r="H30" s="213">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>0.29079922188651119</v>
       </c>
       <c r="I30" s="213">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>0.10819411934459877</v>
       </c>
       <c r="J30" s="213">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>0.25552461210170341</v>
       </c>
       <c r="K30" s="213">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>2.4151639108140888E-2</v>
       </c>
       <c r="L30" s="213">
@@ -9768,10 +9809,10 @@
         <v>0.19123884744771091</v>
       </c>
       <c r="M30" s="213">
-        <f t="shared" ref="M30" si="94">M8/L8-1</f>
+        <f t="shared" ref="M30" si="93">M8/L8-1</f>
         <v>0.11236464438011495</v>
       </c>
-      <c r="N30" s="267">
+      <c r="N30" s="245">
         <f>N8/M8-1</f>
         <v>8.0000000000000071E-2</v>
       </c>
@@ -9818,23 +9859,23 @@
         <v>33</v>
       </c>
       <c r="G31" s="13">
-        <f t="shared" ref="G31:K31" si="95">G8/C8-1</f>
+        <f t="shared" ref="G31:K31" si="94">G8/C8-1</f>
         <v>0.95599991904308945</v>
       </c>
       <c r="H31" s="13">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>2.0994061964272404</v>
       </c>
       <c r="I31" s="13">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>1.6735708207627447</v>
       </c>
       <c r="J31" s="13">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>1.8896066059566814</v>
       </c>
       <c r="K31" s="13">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>0.83934853689830713</v>
       </c>
       <c r="L31" s="13">
@@ -9842,10 +9883,10 @@
         <v>0.69747811588161723</v>
       </c>
       <c r="M31" s="13">
-        <f t="shared" ref="M31" si="96">M8/I8-1</f>
+        <f t="shared" ref="M31" si="95">M8/I8-1</f>
         <v>0.70386632427935902</v>
       </c>
-      <c r="N31" s="268">
+      <c r="N31" s="246">
         <f>N8/J8-1</f>
         <v>0.46566272973440115</v>
       </c>
@@ -10043,43 +10084,43 @@
         <v>33</v>
       </c>
       <c r="D35" s="130">
-        <f t="shared" ref="D35:L35" si="97">D34/C34-1</f>
+        <f t="shared" ref="D35:L35" si="96">D34/C34-1</f>
         <v>0.98004215148892526</v>
       </c>
       <c r="E35" s="130">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>4.6825896299054204E-3</v>
       </c>
       <c r="F35" s="130">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>0.29371682931004939</v>
       </c>
       <c r="G35" s="130">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>1.5515848241739683E-2</v>
       </c>
       <c r="H35" s="130">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>2.0241400509292795E-2</v>
       </c>
       <c r="I35" s="130">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>-4.1544449119432669E-2</v>
       </c>
       <c r="J35" s="130">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>0.20739441201693865</v>
       </c>
       <c r="K35" s="130">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>-0.18037542396210438</v>
       </c>
       <c r="L35" s="130">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>1.3776801868169875E-2</v>
       </c>
       <c r="M35" s="130">
-        <f t="shared" ref="M35" si="98">M34/L34-1</f>
+        <f t="shared" ref="M35" si="97">M34/L34-1</f>
         <v>9.6574162918696915E-2</v>
       </c>
       <c r="N35" s="123">
@@ -10152,15 +10193,15 @@
         <v>0.19897681964033009</v>
       </c>
       <c r="K36" s="87">
-        <f t="shared" ref="K36:L36" si="99">K34/G34-1</f>
+        <f t="shared" ref="K36:L36" si="98">K34/G34-1</f>
         <v>-3.2303760518920699E-2</v>
       </c>
       <c r="L36" s="87">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>-3.8435415038769016E-2</v>
       </c>
       <c r="M36" s="87">
-        <f t="shared" ref="M36" si="100">M34/I34-1</f>
+        <f t="shared" ref="M36" si="99">M34/I34-1</f>
         <v>0.10013122557158383</v>
       </c>
       <c r="N36" s="161">
@@ -10567,35 +10608,35 @@
         <v>33</v>
       </c>
       <c r="F48" s="5">
-        <f t="shared" ref="F48:M48" si="101">SUM(F39:F47)</f>
+        <f t="shared" ref="F48:M48" si="100">SUM(F39:F47)</f>
         <v>1847.8</v>
       </c>
       <c r="G48" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>2816.0789999999997</v>
       </c>
       <c r="H48" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>3073.7910000000002</v>
       </c>
       <c r="I48" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>3272.2799999999997</v>
       </c>
       <c r="J48" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>4560.5960000000005</v>
       </c>
       <c r="K48" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>4715.831000000001</v>
       </c>
       <c r="L48" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>4919.420000000001</v>
       </c>
       <c r="M48" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>5038.3230000000012</v>
       </c>
     </row>
@@ -10930,35 +10971,35 @@
         <v>33</v>
       </c>
       <c r="F58" s="5">
-        <f t="shared" ref="F58:M58" si="102">SUM(F50:F57)</f>
+        <f t="shared" ref="F58:M58" si="101">SUM(F50:F57)</f>
         <v>1735.354</v>
       </c>
       <c r="G58" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>2224.4850000000001</v>
       </c>
       <c r="H58" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>2531.752</v>
       </c>
       <c r="I58" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>2666.4490000000001</v>
       </c>
       <c r="J58" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>3967.6709999999998</v>
       </c>
       <c r="K58" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>4148.37</v>
       </c>
       <c r="L58" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>4367.8141299999997</v>
       </c>
       <c r="M58" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>4613.7309999999998</v>
       </c>
     </row>
@@ -11030,31 +11071,31 @@
         <v>1847.8</v>
       </c>
       <c r="G61" s="5">
-        <f t="shared" ref="G61:M61" si="103">G60+G58</f>
+        <f t="shared" ref="G61:M61" si="102">G60+G58</f>
         <v>2816.0790000000002</v>
       </c>
       <c r="H61" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>3073.7910000000002</v>
       </c>
       <c r="I61" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>3272.2890000000002</v>
       </c>
       <c r="J61" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>4560.5940000000001</v>
       </c>
       <c r="K61" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>4715.8310000000001</v>
       </c>
       <c r="L61" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>4919.4071299999996</v>
       </c>
       <c r="M61" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>5038.3239999999996</v>
       </c>
     </row>
@@ -11066,27 +11107,27 @@
         <v>200</v>
       </c>
       <c r="F63" s="5">
-        <f t="shared" ref="F63:K63" si="104">F48-F58</f>
+        <f t="shared" ref="F63:K63" si="103">F48-F58</f>
         <v>112.44599999999991</v>
       </c>
       <c r="G63" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>591.5939999999996</v>
       </c>
       <c r="H63" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>542.03900000000021</v>
       </c>
       <c r="I63" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>605.83099999999968</v>
       </c>
       <c r="J63" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>592.92500000000064</v>
       </c>
       <c r="K63" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>567.46100000000115</v>
       </c>
       <c r="L63" s="5">
@@ -11094,7 +11135,7 @@
         <v>551.60587000000123</v>
       </c>
       <c r="M63" s="5">
-        <f t="shared" ref="M63" si="105">M48-M58</f>
+        <f t="shared" ref="M63" si="104">M48-M58</f>
         <v>424.59200000000146</v>
       </c>
     </row>
@@ -11112,27 +11153,27 @@
         <v>33</v>
       </c>
       <c r="F64" s="208">
-        <f t="shared" ref="F64:K64" si="106">F63/F20</f>
+        <f t="shared" ref="F64:K64" si="105">F63/F20</f>
         <v>0.576205873460791</v>
       </c>
       <c r="G64" s="208">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>2.0324522286428865</v>
       </c>
       <c r="H64" s="208">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>0.94878172588832532</v>
       </c>
       <c r="I64" s="208">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>1.0519141148607816</v>
       </c>
       <c r="J64" s="208">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>1.0195860954198812</v>
       </c>
       <c r="K64" s="208">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>0.96421538058964962</v>
       </c>
       <c r="L64" s="208">
@@ -11140,10 +11181,10 @@
         <v>0.92874198556054144</v>
       </c>
       <c r="M64" s="208">
-        <f t="shared" ref="M64" si="107">M63/M20</f>
+        <f t="shared" ref="M64" si="106">M63/M20</f>
         <v>0.71028256261929823</v>
       </c>
-      <c r="N64" s="269"/>
+      <c r="N64" s="247"/>
       <c r="Q64" s="208"/>
       <c r="R64" s="208"/>
       <c r="S64" s="208"/>
@@ -11160,7 +11201,7 @@
       <c r="K65" s="208"/>
       <c r="L65" s="208"/>
       <c r="M65" s="208"/>
-      <c r="N65" s="269"/>
+      <c r="N65" s="247"/>
       <c r="Q65" s="208"/>
       <c r="R65" s="208"/>
       <c r="S65" s="208"/>
@@ -11173,27 +11214,27 @@
       <c r="D66" s="210"/>
       <c r="E66" s="210"/>
       <c r="F66" s="211">
-        <f t="shared" ref="F66:K66" si="108">F39</f>
+        <f t="shared" ref="F66:K66" si="107">F39</f>
         <v>893.94299999999998</v>
       </c>
       <c r="G66" s="211">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>1600.53</v>
       </c>
       <c r="H66" s="211">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>1780.2619999999999</v>
       </c>
       <c r="I66" s="211">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>1925.559</v>
       </c>
       <c r="J66" s="211">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>3004.3</v>
       </c>
       <c r="K66" s="211">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>3132.9639999999999</v>
       </c>
       <c r="L66" s="211">
@@ -11201,10 +11242,10 @@
         <v>3075.4749999999999</v>
       </c>
       <c r="M66" s="211">
-        <f t="shared" ref="M66" si="109">M39</f>
+        <f t="shared" ref="M66" si="108">M39</f>
         <v>3021.5070000000001</v>
       </c>
-      <c r="N66" s="270"/>
+      <c r="N66" s="248"/>
       <c r="Q66" s="60"/>
       <c r="R66" s="60"/>
       <c r="S66" s="60"/>
@@ -11217,27 +11258,27 @@
       <c r="D67" s="210"/>
       <c r="E67" s="210"/>
       <c r="F67" s="211">
-        <f t="shared" ref="F67:K67" si="110">F56</f>
+        <f t="shared" ref="F67:K67" si="109">F56</f>
         <v>0</v>
       </c>
       <c r="G67" s="211">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="H67" s="211">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="I67" s="211">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="J67" s="211">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>987.72299999999996</v>
       </c>
       <c r="K67" s="211">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>988.03399999999999</v>
       </c>
       <c r="L67" s="211">
@@ -11245,10 +11286,10 @@
         <v>988.34500000000003</v>
       </c>
       <c r="M67" s="211">
-        <f t="shared" ref="M67" si="111">M56</f>
+        <f t="shared" ref="M67" si="110">M56</f>
         <v>988.66300000000001</v>
       </c>
-      <c r="N67" s="270"/>
+      <c r="N67" s="248"/>
       <c r="Q67" s="60"/>
       <c r="R67" s="60"/>
       <c r="S67" s="60"/>
@@ -11262,31 +11303,31 @@
         <v>893.94299999999998</v>
       </c>
       <c r="G68" s="5">
-        <f t="shared" ref="G68:L68" si="112">G66-G67</f>
+        <f t="shared" ref="G68:L68" si="111">G66-G67</f>
         <v>1600.53</v>
       </c>
       <c r="H68" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="111"/>
         <v>1780.2619999999999</v>
       </c>
       <c r="I68" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="111"/>
         <v>1925.559</v>
       </c>
       <c r="J68" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="111"/>
         <v>2016.5770000000002</v>
       </c>
       <c r="K68" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="111"/>
         <v>2144.9299999999998</v>
       </c>
       <c r="L68" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="111"/>
         <v>2087.13</v>
       </c>
       <c r="M68" s="5">
-        <f t="shared" ref="M68" si="113">M66-M67</f>
+        <f t="shared" ref="M68" si="112">M66-M67</f>
         <v>2032.8440000000001</v>
       </c>
     </row>
@@ -11318,7 +11359,7 @@
       <c r="M70" s="60">
         <v>35.840000000000003</v>
       </c>
-      <c r="N70" s="270"/>
+      <c r="N70" s="248"/>
       <c r="Q70" s="60"/>
       <c r="R70" s="60"/>
       <c r="S70" s="60"/>
@@ -11332,15 +11373,15 @@
       <c r="E71" s="210"/>
       <c r="F71" s="60"/>
       <c r="G71" s="211">
-        <f t="shared" ref="G71:I71" si="114">G70*G20</f>
+        <f t="shared" ref="G71:I71" si="113">G70*G20</f>
         <v>18870.327420000001</v>
       </c>
       <c r="H71" s="211">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>51405.574000000001</v>
       </c>
       <c r="I71" s="211">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>43511.662599999996</v>
       </c>
       <c r="J71" s="211">
@@ -11348,18 +11389,18 @@
         <v>59991.150599999994</v>
       </c>
       <c r="K71" s="211">
-        <f t="shared" ref="K71:L71" si="115">K70*K20</f>
+        <f t="shared" ref="K71:L71" si="114">K70*K20</f>
         <v>27213.211039999998</v>
       </c>
       <c r="L71" s="211">
-        <f t="shared" si="115"/>
+        <f t="shared" si="114"/>
         <v>19516.47408</v>
       </c>
       <c r="M71" s="211">
-        <f t="shared" ref="M71" si="116">M70*M20</f>
+        <f t="shared" ref="M71" si="115">M70*M20</f>
         <v>21424.399360000003</v>
       </c>
-      <c r="N71" s="270"/>
+      <c r="N71" s="248"/>
       <c r="Q71" s="60"/>
       <c r="R71" s="60"/>
       <c r="S71" s="60"/>
@@ -11369,27 +11410,27 @@
         <v>5</v>
       </c>
       <c r="F72" s="5">
-        <f t="shared" ref="F72:K72" si="117">F71-F68</f>
+        <f t="shared" ref="F72:K72" si="116">F71-F68</f>
         <v>-893.94299999999998</v>
       </c>
       <c r="G72" s="5">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>17269.797420000003</v>
       </c>
       <c r="H72" s="5">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>49625.311999999998</v>
       </c>
       <c r="I72" s="5">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>41586.103599999995</v>
       </c>
       <c r="J72" s="5">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>57974.573599999996</v>
       </c>
       <c r="K72" s="5">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>25068.281039999998</v>
       </c>
       <c r="L72" s="5">
@@ -11397,7 +11438,7 @@
         <v>17429.344079999999</v>
       </c>
       <c r="M72" s="5">
-        <f t="shared" ref="M72" si="118">M71-M68</f>
+        <f t="shared" ref="M72" si="117">M71-M68</f>
         <v>19391.555360000002</v>
       </c>
     </row>
@@ -11406,15 +11447,15 @@
         <v>205</v>
       </c>
       <c r="G74" s="217">
-        <f t="shared" ref="G74:I74" si="119">G70/G64</f>
+        <f t="shared" ref="G74:I74" si="118">G70/G64</f>
         <v>31.897428675747243</v>
       </c>
       <c r="H74" s="217">
-        <f t="shared" si="119"/>
+        <f t="shared" si="118"/>
         <v>94.837408378363875</v>
       </c>
       <c r="I74" s="217">
-        <f t="shared" si="119"/>
+        <f t="shared" si="118"/>
         <v>71.82145284741128</v>
       </c>
       <c r="J74" s="217">
@@ -11422,15 +11463,15 @@
         <v>101.1783119281527</v>
       </c>
       <c r="K74" s="217">
-        <f t="shared" ref="K74:L74" si="120">K70/K64</f>
+        <f t="shared" ref="K74:L74" si="119">K70/K64</f>
         <v>47.956090444982024</v>
       </c>
       <c r="L74" s="217">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>35.381193604774282</v>
       </c>
       <c r="M74" s="217">
-        <f t="shared" ref="M74" si="121">M70/M64</f>
+        <f t="shared" ref="M74" si="120">M70/M64</f>
         <v>50.45879187549442</v>
       </c>
     </row>
@@ -11439,23 +11480,23 @@
         <v>214</v>
       </c>
       <c r="G75" s="217">
-        <f t="shared" ref="G75" si="122">G71/SUM(D3:G3)</f>
+        <f t="shared" ref="G75" si="121">G71/SUM(D3:G3)</f>
         <v>16.419103099215079</v>
       </c>
       <c r="H75" s="217">
-        <f t="shared" ref="H75" si="123">H71/SUM(E3:H3)</f>
+        <f t="shared" ref="H75" si="122">H71/SUM(E3:H3)</f>
         <v>36.639779500911978</v>
       </c>
       <c r="I75" s="217">
-        <f t="shared" ref="I75" si="124">I71/SUM(F3:I3)</f>
+        <f t="shared" ref="I75" si="123">I71/SUM(F3:I3)</f>
         <v>26.205198922441955</v>
       </c>
       <c r="J75" s="217">
-        <f t="shared" ref="J75:K75" si="125">J71/SUM(G3:J3)</f>
+        <f t="shared" ref="J75:K75" si="124">J71/SUM(G3:J3)</f>
         <v>31.25872473727074</v>
       </c>
       <c r="K75" s="217">
-        <f t="shared" si="125"/>
+        <f t="shared" si="124"/>
         <v>13.150678086094159</v>
       </c>
       <c r="L75" s="217">
@@ -11463,7 +11504,7 @@
         <v>8.8452081220206615</v>
       </c>
       <c r="M75" s="217">
-        <f t="shared" ref="M75" si="126">M71/SUM(J3:M3)</f>
+        <f t="shared" ref="M75" si="125">M71/SUM(J3:M3)</f>
         <v>9.6732142474976506</v>
       </c>
     </row>
@@ -11472,23 +11513,23 @@
         <v>219</v>
       </c>
       <c r="G76" s="217">
-        <f t="shared" ref="G76" si="127">G72/SUM(D3:G3)</f>
+        <f t="shared" ref="G76" si="126">G72/SUM(D3:G3)</f>
         <v>15.026479298976499</v>
       </c>
       <c r="H76" s="217">
-        <f t="shared" ref="H76" si="128">H72/SUM(E3:H3)</f>
+        <f t="shared" ref="H76" si="127">H72/SUM(E3:H3)</f>
         <v>35.370881946458979</v>
       </c>
       <c r="I76" s="217">
-        <f t="shared" ref="I76" si="129">I72/SUM(F3:I3)</f>
+        <f t="shared" ref="I76" si="128">I72/SUM(F3:I3)</f>
         <v>25.045517733153215</v>
       </c>
       <c r="J76" s="217">
-        <f t="shared" ref="J76:K76" si="130">J72/SUM(G3:J3)</f>
+        <f t="shared" ref="J76:K76" si="129">J72/SUM(G3:J3)</f>
         <v>30.207976006431906</v>
       </c>
       <c r="K76" s="217">
-        <f t="shared" si="130"/>
+        <f t="shared" si="129"/>
         <v>12.114149030197565</v>
       </c>
       <c r="L76" s="217">
@@ -11496,7 +11537,7 @@
         <v>7.8992842244949566</v>
       </c>
       <c r="M76" s="217">
-        <f t="shared" ref="M76" si="131">M72/SUM(J3:M3)</f>
+        <f t="shared" ref="M76" si="130">M72/SUM(J3:M3)</f>
         <v>8.7553758888431883</v>
       </c>
     </row>
@@ -11505,27 +11546,27 @@
         <v>215</v>
       </c>
       <c r="G77" s="217">
-        <f t="shared" ref="G77:L77" si="132">G70/SUM(D19:G19)</f>
+        <f t="shared" ref="G77:L77" si="131">G70/SUM(D19:G19)</f>
         <v>-44.675361443232362</v>
       </c>
       <c r="H77" s="217">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>-69.182197616608946</v>
       </c>
       <c r="I77" s="217">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>-65.015776279415363</v>
       </c>
       <c r="J77" s="217">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>-93.354276916433804</v>
       </c>
       <c r="K77" s="217">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>-50.661466911577669</v>
       </c>
       <c r="L77" s="217">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>-34.073155589366579</v>
       </c>
       <c r="M77" s="217">
@@ -11585,10 +11626,10 @@
   <dimension ref="A1:AE24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
+      <selection pane="bottomRight" activeCell="Z31" sqref="Z31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12030,18 +12071,20 @@
       <c r="Q6" s="53">
         <v>24.2</v>
       </c>
-      <c r="R6" s="53"/>
+      <c r="R6" s="53">
+        <v>26.4</v>
+      </c>
       <c r="S6" s="225">
         <f>P6*(S7+1)</f>
         <v>26.685506297991481</v>
       </c>
       <c r="T6" s="225">
         <f>S6*(T7+1)</f>
-        <v>27.603926166979321</v>
+        <v>27.855182041814547</v>
       </c>
       <c r="U6" s="149">
         <f>T6*(U7+1)</f>
-        <v>28.333111356265665</v>
+        <v>28.934127039127436</v>
       </c>
       <c r="Y6" s="37">
         <f>AVERAGE(D6:G6)</f>
@@ -12057,7 +12100,7 @@
       </c>
       <c r="AB6" s="145">
         <f>AVERAGE(P6:U6)</f>
-        <v>26.464508764247295</v>
+        <v>26.595802563155576</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -12119,21 +12162,24 @@
         <v>8.0508474576271194E-2</v>
       </c>
       <c r="Q7" s="29">
-        <f t="shared" ref="Q7" si="6">Q6/P6-1</f>
+        <f t="shared" ref="Q7:R7" si="6">Q6/P6-1</f>
         <v>-5.0980392156862786E-2</v>
       </c>
-      <c r="R7" s="29"/>
+      <c r="R7" s="29">
+        <f t="shared" si="6"/>
+        <v>9.0909090909090828E-2</v>
+      </c>
       <c r="S7" s="222">
         <f>AVERAGE(M7:P7)</f>
         <v>4.6490443058489483E-2</v>
       </c>
       <c r="T7" s="222">
         <f>AVERAGE(N7:S7)</f>
-        <v>3.4416430354816473E-2</v>
+        <v>4.3831873780528864E-2</v>
       </c>
       <c r="U7" s="146">
         <f>AVERAGE(O7:T7)</f>
-        <v>2.6415995495547212E-2</v>
+        <v>3.8734085302089875E-2</v>
       </c>
       <c r="Y7" s="131" t="s">
         <v>33</v>
@@ -12204,21 +12250,24 @@
         <v>0.19718309859154926</v>
       </c>
       <c r="Q8" s="33">
-        <f t="shared" ref="Q8" si="8">Q6/M6-1</f>
+        <f t="shared" ref="Q8:R8" si="8">Q6/M6-1</f>
         <v>0.12558139534883717</v>
       </c>
-      <c r="R8" s="33"/>
+      <c r="R8" s="33">
+        <f t="shared" si="8"/>
+        <v>0.14285714285714279</v>
+      </c>
       <c r="S8" s="223">
         <f>S6/M6-1</f>
         <v>0.24118633944146417</v>
       </c>
       <c r="T8" s="223">
         <f>T6/N6-1</f>
-        <v>0.19497515874369342</v>
+        <v>0.20585203644218808</v>
       </c>
       <c r="U8" s="147">
         <f>U6/O6-1</f>
-        <v>0.20055556594346036</v>
+        <v>0.22602233216641676</v>
       </c>
       <c r="Y8" s="150" t="s">
         <v>33</v>
@@ -12233,7 +12282,7 @@
       </c>
       <c r="AB8" s="147">
         <f>AB6/AA6-1</f>
-        <v>0.18277134141887363</v>
+        <v>0.18863922069969052</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -12296,18 +12345,20 @@
       <c r="Q10" s="53">
         <v>27.7</v>
       </c>
-      <c r="R10" s="53"/>
+      <c r="R10" s="53">
+        <v>31.9</v>
+      </c>
       <c r="S10" s="225">
         <f>P10*(S11+1)</f>
         <v>32.102349662858444</v>
       </c>
       <c r="T10" s="225">
         <f>S10*(T11+1)</f>
-        <v>34.711665668471007</v>
+        <v>35.088030381037413</v>
       </c>
       <c r="U10" s="149">
         <f>T10*(U11+1)</f>
-        <v>37.31877131558975</v>
+        <v>38.239437474614512</v>
       </c>
       <c r="Y10" s="37">
         <f>AVERAGE(D10:G10)</f>
@@ -12323,7 +12374,7 @@
       </c>
       <c r="AB10" s="145">
         <f>AVERAGE(P10:U10)</f>
-        <v>32.026557329383834</v>
+        <v>32.221636253085059</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -12385,21 +12436,24 @@
         <v>0.10546875</v>
       </c>
       <c r="Q11" s="29">
-        <f t="shared" ref="Q11" si="10">Q10/P10-1</f>
+        <f t="shared" ref="Q11:R11" si="10">Q10/P10-1</f>
         <v>-2.1201413427561877E-2</v>
       </c>
-      <c r="R11" s="29"/>
+      <c r="R11" s="29">
+        <f t="shared" si="10"/>
+        <v>0.15162454873646203</v>
+      </c>
       <c r="S11" s="222">
         <f>AVERAGE(M11:P11)</f>
         <v>0.13435864533068714</v>
       </c>
       <c r="T11" s="222">
         <f>AVERAGE(N11:S11)</f>
-        <v>8.1281153342849188E-2</v>
+        <v>9.3005052575118E-2</v>
       </c>
       <c r="U11" s="146">
         <f>AVERAGE(O11:T11)</f>
-        <v>7.5107477469362943E-2</v>
+        <v>8.9814305885924262E-2</v>
       </c>
       <c r="Y11" s="131" t="s">
         <v>33</v>
@@ -12470,21 +12524,24 @@
         <v>0.64534883720930236</v>
       </c>
       <c r="Q12" s="33">
-        <f t="shared" ref="Q12" si="12">Q10/M10-1</f>
+        <f t="shared" ref="Q12:R12" si="12">Q10/M10-1</f>
         <v>0.29439252336448596</v>
       </c>
-      <c r="R12" s="33"/>
+      <c r="R12" s="33">
+        <f t="shared" si="12"/>
+        <v>0.34033613445378141</v>
+      </c>
       <c r="S12" s="223">
         <f>S10/M10-1</f>
         <v>0.50010979732983385</v>
       </c>
       <c r="T12" s="223">
         <f>T10/N10-1</f>
-        <v>0.45847334741474821</v>
+        <v>0.47428699079989123</v>
       </c>
       <c r="U12" s="147">
         <f>U10/O10-1</f>
-        <v>0.45776450451522455</v>
+        <v>0.49372802635212931</v>
       </c>
       <c r="Y12" s="150" t="s">
         <v>33</v>
@@ -12499,7 +12556,7 @@
       </c>
       <c r="AB12" s="147">
         <f>AB10/AA10-1</f>
-        <v>0.45575260588108346</v>
+        <v>0.46461982968568449</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">

--- a/$RBLX.xlsx
+++ b/$RBLX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F615CB2-6500-43F7-A913-B86459033241}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547339AC-A919-43D6-9452-130501473D87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18885" xr2:uid="{DB6ABC51-E0DE-6747-8CA5-53C172A4844D}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="18390" windowHeight="2400" activeTab="1" xr2:uid="{DB6ABC51-E0DE-6747-8CA5-53C172A4844D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="282">
   <si>
     <t>Price</t>
   </si>
@@ -786,13 +786,100 @@
   </si>
   <si>
     <t>experience, then buying from the brand in the real world</t>
+  </si>
+  <si>
+    <t>Cashflow Statement</t>
+  </si>
+  <si>
+    <t>ROCE</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>Stock Based Comp</t>
+  </si>
+  <si>
+    <t>Other Non Cash Charges (Credit)</t>
+  </si>
+  <si>
+    <t>Operating Lease Non-Cash</t>
+  </si>
+  <si>
+    <t>Amortisation of Debt Issuance</t>
+  </si>
+  <si>
+    <t>Changes in Operating Assets/Liabilities</t>
+  </si>
+  <si>
+    <t>CFOO</t>
+  </si>
+  <si>
+    <t>Acquisition of PP&amp;E</t>
+  </si>
+  <si>
+    <t>Net Payments re. business combination</t>
+  </si>
+  <si>
+    <t>Purchases of Intangibles</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>Proceeds from Common Stock Issuance</t>
+  </si>
+  <si>
+    <t>Payment of Term License Related</t>
+  </si>
+  <si>
+    <t>Payment of Withholding Taxes</t>
+  </si>
+  <si>
+    <t>Net Proceeds from Preferred Stock Issuance</t>
+  </si>
+  <si>
+    <t>Payment of Debt Issuance</t>
+  </si>
+  <si>
+    <t>Payments of Business Combination</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>Model NI</t>
+  </si>
+  <si>
+    <t>Reported NI</t>
+  </si>
+  <si>
+    <t>Prepaid Expenses &amp; OCA</t>
+  </si>
+  <si>
+    <t>Other Assets</t>
+  </si>
+  <si>
+    <t>Accrued Expenses &amp; OCL</t>
+  </si>
+  <si>
+    <t>Other LT Liability</t>
+  </si>
+  <si>
+    <t>Operating Lease Liabilities</t>
+  </si>
+  <si>
+    <t>Deferred Revenues</t>
+  </si>
+  <si>
+    <t>Deferred Cost of Revenues</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -803,10 +890,32 @@
     <numFmt numFmtId="170" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
     <numFmt numFmtId="171" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="172" formatCode="0.0\x"/>
+    <numFmt numFmtId="175" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1344,598 +1453,610 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="283">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="17" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="37" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="28" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="25" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="37" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="10" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="17" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="20" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="25" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="25" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="25" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="28" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="20" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="37" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="38" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="38" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="38" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="3" fontId="37" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="13" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="38" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="37" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="38" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="28" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="42" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="43" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="28" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="25" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="28" fillId="12" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="38" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="28" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="17" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="25" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="22" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="37" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="38" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="38" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="38" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="37" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="13" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="38" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="37" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="38" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="28" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="39" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="37" fillId="10" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="34" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="25" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="10" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="38" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="37" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="25" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="25" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="14" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="17" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="22" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="22" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="22" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="25" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="35" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="35" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="35" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="34" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="10" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="35" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="35" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="25" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="39" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="40" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="25" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="22" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="25" fillId="12" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="35" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="25" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="35" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="35" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="35" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="34" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="10" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="35" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="34" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="35" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="25" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="36" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="34" fillId="10" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="35" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="34" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="22" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="22" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent3" xfId="5" builtinId="38"/>
@@ -3450,8 +3571,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3466,8 +3587,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10877550" y="0"/>
-          <a:ext cx="0" cy="17211675"/>
+          <a:off x="10191750" y="0"/>
+          <a:ext cx="0" cy="22745700"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3500,7 +3621,7 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3516,8 +3637,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17145000" y="0"/>
-          <a:ext cx="0" cy="15782925"/>
+          <a:off x="17154525" y="0"/>
+          <a:ext cx="0" cy="23955375"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3983,8 +4104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE4A73D-2F46-7341-9C57-6E5B7A39A15C}">
   <dimension ref="B1:AL86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:AL1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4002,36 +4123,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="L1" s="269" t="s">
+      <c r="L1" s="262" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="270"/>
-      <c r="N1" s="270"/>
-      <c r="O1" s="270"/>
-      <c r="P1" s="270"/>
-      <c r="Q1" s="270"/>
-      <c r="R1" s="270"/>
-      <c r="S1" s="270"/>
-      <c r="T1" s="270"/>
-      <c r="U1" s="271"/>
-      <c r="W1" s="264" t="s">
+      <c r="M1" s="263"/>
+      <c r="N1" s="263"/>
+      <c r="O1" s="263"/>
+      <c r="P1" s="263"/>
+      <c r="Q1" s="263"/>
+      <c r="R1" s="263"/>
+      <c r="S1" s="263"/>
+      <c r="T1" s="263"/>
+      <c r="U1" s="264"/>
+      <c r="W1" s="265" t="s">
         <v>127</v>
       </c>
-      <c r="X1" s="265"/>
-      <c r="Y1" s="265"/>
-      <c r="Z1" s="265"/>
-      <c r="AA1" s="265"/>
-      <c r="AB1" s="265"/>
-      <c r="AC1" s="265"/>
-      <c r="AD1" s="265"/>
-      <c r="AE1" s="265"/>
-      <c r="AF1" s="265"/>
-      <c r="AG1" s="265"/>
-      <c r="AH1" s="265"/>
-      <c r="AI1" s="265"/>
-      <c r="AJ1" s="265"/>
-      <c r="AK1" s="265"/>
-      <c r="AL1" s="266"/>
+      <c r="X1" s="266"/>
+      <c r="Y1" s="266"/>
+      <c r="Z1" s="266"/>
+      <c r="AA1" s="266"/>
+      <c r="AB1" s="266"/>
+      <c r="AC1" s="266"/>
+      <c r="AD1" s="266"/>
+      <c r="AE1" s="266"/>
+      <c r="AF1" s="266"/>
+      <c r="AG1" s="266"/>
+      <c r="AH1" s="266"/>
+      <c r="AI1" s="266"/>
+      <c r="AJ1" s="266"/>
+      <c r="AK1" s="266"/>
+      <c r="AL1" s="267"/>
     </row>
     <row r="2" spans="2:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
@@ -4230,16 +4351,16 @@
       </c>
     </row>
     <row r="5" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B5" s="250" t="s">
+      <c r="B5" s="254" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="251"/>
-      <c r="D5" s="252"/>
-      <c r="F5" s="250" t="s">
+      <c r="C5" s="255"/>
+      <c r="D5" s="256"/>
+      <c r="F5" s="254" t="s">
         <v>193</v>
       </c>
-      <c r="G5" s="251"/>
-      <c r="H5" s="252"/>
+      <c r="G5" s="255"/>
+      <c r="H5" s="256"/>
       <c r="K5" s="28" t="s">
         <v>73</v>
       </c>
@@ -4347,10 +4468,10 @@
       <c r="F6" s="176" t="s">
         <v>194</v>
       </c>
-      <c r="G6" s="267" t="s">
+      <c r="G6" s="257" t="s">
         <v>198</v>
       </c>
-      <c r="H6" s="256"/>
+      <c r="H6" s="253"/>
       <c r="K6" s="28" t="s">
         <v>74</v>
       </c>
@@ -4455,10 +4576,10 @@
       <c r="F7" s="176" t="s">
         <v>195</v>
       </c>
-      <c r="G7" s="255">
+      <c r="G7" s="258">
         <v>2004</v>
       </c>
-      <c r="H7" s="256"/>
+      <c r="H7" s="253"/>
       <c r="K7" s="28"/>
       <c r="L7" s="60"/>
       <c r="M7" s="60"/>
@@ -4499,11 +4620,11 @@
       <c r="F8" s="176" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="255">
+      <c r="G8" s="258">
         <f>AL4</f>
         <v>58.8</v>
       </c>
-      <c r="H8" s="256"/>
+      <c r="H8" s="253"/>
       <c r="K8" s="28" t="s">
         <v>75</v>
       </c>
@@ -4598,8 +4719,8 @@
         <v>Q322</v>
       </c>
       <c r="F9" s="162"/>
-      <c r="G9" s="255"/>
-      <c r="H9" s="256"/>
+      <c r="G9" s="258"/>
+      <c r="H9" s="253"/>
       <c r="K9" s="28" t="s">
         <v>77</v>
       </c>
@@ -4708,8 +4829,8 @@
         <v>Q322</v>
       </c>
       <c r="F10" s="162"/>
-      <c r="G10" s="255"/>
-      <c r="H10" s="256"/>
+      <c r="G10" s="258"/>
+      <c r="H10" s="253"/>
       <c r="K10" s="28" t="s">
         <v>78</v>
       </c>
@@ -4817,10 +4938,10 @@
       <c r="F11" s="176" t="s">
         <v>199</v>
       </c>
-      <c r="G11" s="268" t="s">
+      <c r="G11" s="259" t="s">
         <v>109</v>
       </c>
-      <c r="H11" s="256"/>
+      <c r="H11" s="253"/>
       <c r="K11" s="28"/>
       <c r="L11" s="60"/>
       <c r="M11" s="60"/>
@@ -4850,10 +4971,10 @@
       <c r="F12" s="177" t="s">
         <v>196</v>
       </c>
-      <c r="G12" s="259" t="s">
+      <c r="G12" s="260" t="s">
         <v>197</v>
       </c>
-      <c r="H12" s="260"/>
+      <c r="H12" s="261"/>
       <c r="K12" s="28" t="s">
         <v>76</v>
       </c>
@@ -5125,16 +5246,16 @@
       </c>
     </row>
     <row r="15" spans="2:38" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="250" t="s">
+      <c r="B15" s="254" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="251"/>
-      <c r="D15" s="252"/>
-      <c r="F15" s="250" t="s">
+      <c r="C15" s="255"/>
+      <c r="D15" s="256"/>
+      <c r="F15" s="254" t="s">
         <v>204</v>
       </c>
-      <c r="G15" s="251"/>
-      <c r="H15" s="252"/>
+      <c r="G15" s="255"/>
+      <c r="H15" s="256"/>
       <c r="K15" s="28"/>
       <c r="L15" s="62"/>
       <c r="M15" s="62"/>
@@ -5151,18 +5272,18 @@
       <c r="B16" s="92" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="263" t="s">
+      <c r="C16" s="252" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="256"/>
+      <c r="D16" s="253"/>
       <c r="F16" s="176" t="s">
         <v>205</v>
       </c>
-      <c r="G16" s="257">
+      <c r="G16" s="270">
         <f>C6/'Financial Model'!M64</f>
         <v>44.601967818517387</v>
       </c>
-      <c r="H16" s="258"/>
+      <c r="H16" s="271"/>
       <c r="J16" s="31" t="s">
         <v>86</v>
       </c>
@@ -5240,7 +5361,7 @@
       <c r="AK16" s="32">
         <v>11300</v>
       </c>
-      <c r="AL16" s="272">
+      <c r="AL16" s="250">
         <v>13400</v>
       </c>
     </row>
@@ -5248,18 +5369,18 @@
       <c r="B17" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="253" t="s">
+      <c r="C17" s="268" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="254"/>
+      <c r="D17" s="269"/>
       <c r="F17" s="176" t="s">
         <v>214</v>
       </c>
-      <c r="G17" s="257">
+      <c r="G17" s="270">
         <f>C8/'Financial Model'!W3</f>
         <v>9.8675626321852903</v>
       </c>
-      <c r="H17" s="258"/>
+      <c r="H17" s="271"/>
       <c r="K17" s="28" t="s">
         <v>84</v>
       </c>
@@ -5356,18 +5477,18 @@
       <c r="B18" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="263" t="s">
+      <c r="C18" s="252" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="256"/>
+      <c r="D18" s="253"/>
       <c r="F18" s="176" t="s">
         <v>215</v>
       </c>
-      <c r="G18" s="257">
+      <c r="G18" s="270">
         <f>C6/SUM('Financial Model'!J19:M19)</f>
         <v>-23.723072493855522</v>
       </c>
-      <c r="H18" s="258"/>
+      <c r="H18" s="271"/>
       <c r="K18" s="28" t="s">
         <v>85</v>
       </c>
@@ -5459,22 +5580,22 @@
     </row>
     <row r="19" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B19" s="90"/>
-      <c r="C19" s="255"/>
-      <c r="D19" s="256"/>
+      <c r="C19" s="258"/>
+      <c r="D19" s="253"/>
       <c r="F19" s="176"/>
-      <c r="G19" s="255"/>
-      <c r="H19" s="256"/>
+      <c r="G19" s="258"/>
+      <c r="H19" s="253"/>
       <c r="K19" s="28"/>
       <c r="L19" s="62"/>
       <c r="M19" s="62"/>
     </row>
     <row r="20" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="91"/>
-      <c r="C20" s="261"/>
-      <c r="D20" s="262"/>
+      <c r="C20" s="272"/>
+      <c r="D20" s="273"/>
       <c r="F20" s="177"/>
-      <c r="G20" s="259"/>
-      <c r="H20" s="260"/>
+      <c r="G20" s="260"/>
+      <c r="H20" s="261"/>
       <c r="J20" s="31"/>
       <c r="K20" s="195" t="s">
         <v>213</v>
@@ -5505,14 +5626,14 @@
       </c>
     </row>
     <row r="23" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B23" s="250" t="s">
+      <c r="B23" s="254" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="251"/>
-      <c r="D23" s="251"/>
-      <c r="E23" s="251"/>
-      <c r="F23" s="251"/>
-      <c r="G23" s="252"/>
+      <c r="C23" s="255"/>
+      <c r="D23" s="255"/>
+      <c r="E23" s="255"/>
+      <c r="F23" s="255"/>
+      <c r="G23" s="256"/>
       <c r="K23" s="195" t="s">
         <v>210</v>
       </c>
@@ -5624,12 +5745,12 @@
       <c r="F31" s="101"/>
       <c r="G31" s="102"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="250" t="s">
+      <c r="K31" s="254" t="s">
         <v>181</v>
       </c>
-      <c r="L31" s="251"/>
-      <c r="M31" s="251"/>
-      <c r="N31" s="252"/>
+      <c r="L31" s="255"/>
+      <c r="M31" s="255"/>
+      <c r="N31" s="256"/>
     </row>
     <row r="32" spans="2:38" x14ac:dyDescent="0.25">
       <c r="J32" s="7"/>
@@ -5641,14 +5762,14 @@
       <c r="N32" s="96"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="250" t="s">
+      <c r="B33" s="254" t="s">
         <v>187</v>
       </c>
-      <c r="C33" s="251"/>
-      <c r="D33" s="251"/>
-      <c r="E33" s="251"/>
-      <c r="F33" s="251"/>
-      <c r="G33" s="252"/>
+      <c r="C33" s="255"/>
+      <c r="D33" s="255"/>
+      <c r="E33" s="255"/>
+      <c r="F33" s="255"/>
+      <c r="G33" s="256"/>
       <c r="J33" s="7"/>
       <c r="K33" s="168" t="s">
         <v>177</v>
@@ -6096,15 +6217,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
     <mergeCell ref="L1:U1"/>
     <mergeCell ref="W1:AL1"/>
     <mergeCell ref="B33:G33"/>
@@ -6121,9 +6233,18 @@
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="C16:D16"/>
   </mergeCells>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="27" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K58" r:id="rId1" xr:uid="{F79BC045-05D5-43FB-A051-BA2031CC85A7}"/>
     <hyperlink ref="K60" r:id="rId2" xr:uid="{58004FA9-9F7A-4B71-811E-FF4EE09F281F}"/>
@@ -6137,19 +6258,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0FDCAC-3416-844A-BCBB-390EC350CF59}">
-  <dimension ref="B1:BZ82"/>
+  <dimension ref="B1:BZ116"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J85" sqref="J85"/>
+      <selection pane="bottomRight" activeCell="M83" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="6" customWidth="1"/>
-    <col min="2" max="2" width="29.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.125" customWidth="1"/>
     <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
@@ -11573,39 +11694,1012 @@
         <f>M70/SUM(J19:M19)</f>
         <v>-26.838223427392109</v>
       </c>
+      <c r="P77" s="251"/>
+    </row>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B78" s="251" t="s">
+        <v>254</v>
+      </c>
+      <c r="G78" s="87">
+        <f t="shared" ref="G78:L78" si="132">SUM(D12:G12)/(G48-SUM(G50:G53))</f>
+        <v>-0.25137548210801064</v>
+      </c>
+      <c r="H78" s="87">
+        <f t="shared" si="132"/>
+        <v>-0.30583278280508219</v>
+      </c>
+      <c r="I78" s="87">
+        <f t="shared" si="132"/>
+        <v>-0.31302756573649004</v>
+      </c>
+      <c r="J78" s="87">
+        <f t="shared" si="132"/>
+        <v>-0.20685053640976875</v>
+      </c>
+      <c r="K78" s="87">
+        <f t="shared" si="132"/>
+        <v>-0.2013507520159552</v>
+      </c>
+      <c r="L78" s="87">
+        <f t="shared" si="132"/>
+        <v>-0.20293605022212965</v>
+      </c>
+      <c r="M78" s="87">
+        <f>SUM(J12:M12)/(M48-SUM(M50:M53))</f>
+        <v>-0.27196075945524634</v>
+      </c>
+      <c r="P78" s="251"/>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B79" s="251"/>
+      <c r="G79" s="87"/>
+      <c r="H79" s="87"/>
+      <c r="I79" s="87"/>
+      <c r="J79" s="87"/>
+      <c r="K79" s="87"/>
+      <c r="L79" s="87"/>
+      <c r="M79" s="87"/>
+      <c r="P79" s="251"/>
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="5"/>
-      <c r="M80" s="5"/>
-    </row>
-    <row r="81" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="B80" s="251"/>
+      <c r="G80" s="87"/>
+      <c r="H80" s="87"/>
+      <c r="I80" s="87"/>
+      <c r="J80" s="87"/>
+      <c r="K80" s="87"/>
+      <c r="L80" s="87"/>
+      <c r="M80" s="87"/>
+      <c r="P80" s="251"/>
+    </row>
+    <row r="81" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="275" t="s">
+        <v>273</v>
+      </c>
+      <c r="C81" s="276"/>
+      <c r="D81" s="276"/>
+      <c r="E81" s="276"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="5"/>
-      <c r="M81" s="5"/>
-    </row>
-    <row r="82" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="H81" s="5">
+        <f>H18</f>
+        <v>-142.93999999999997</v>
+      </c>
+      <c r="I81" s="5">
+        <f>I18</f>
+        <v>-77.189999999999955</v>
+      </c>
+      <c r="J81" s="5">
+        <f t="shared" ref="J81:L81" si="133">J18</f>
+        <v>-147.25700000000003</v>
+      </c>
+      <c r="K81" s="5">
+        <f t="shared" si="133"/>
+        <v>-162.00600000000003</v>
+      </c>
+      <c r="L81" s="5">
+        <f t="shared" si="133"/>
+        <v>-179.29000000000002</v>
+      </c>
+      <c r="M81" s="5">
+        <f>M18</f>
+        <v>-301.90200000000004</v>
+      </c>
+      <c r="N81" s="118"/>
+      <c r="P81" s="277"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="5"/>
+      <c r="S81" s="5"/>
+    </row>
+    <row r="82" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="275" t="s">
+        <v>274</v>
+      </c>
+      <c r="C82" s="276"/>
+      <c r="D82" s="276"/>
+      <c r="E82" s="276"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
+      <c r="H82" s="5">
+        <v>-142.93</v>
+      </c>
+      <c r="I82" s="5">
+        <v>-77.19</v>
+      </c>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="5"/>
+      <c r="L82" s="5">
+        <v>-178.73400000000001</v>
+      </c>
+      <c r="M82" s="5">
+        <v>-301.90199999999999</v>
+      </c>
+      <c r="N82" s="118"/>
+      <c r="P82" s="277"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="5"/>
+    </row>
+    <row r="83" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="278"/>
+      <c r="C83" s="276"/>
+      <c r="D83" s="276"/>
+      <c r="E83" s="276"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="118"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+    </row>
+    <row r="84" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="279" t="s">
+        <v>253</v>
+      </c>
+      <c r="C84" s="276"/>
+      <c r="D84" s="276"/>
+      <c r="E84" s="276"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="118"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5"/>
+      <c r="S84" s="5"/>
+    </row>
+    <row r="85" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="280" t="s">
+        <v>255</v>
+      </c>
+      <c r="C85" s="276"/>
+      <c r="D85" s="276"/>
+      <c r="E85" s="276"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5">
+        <v>17.79</v>
+      </c>
+      <c r="I85" s="5">
+        <v>19.029</v>
+      </c>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5">
+        <v>28.995999999999999</v>
+      </c>
+      <c r="M85" s="5">
+        <v>34.052</v>
+      </c>
+      <c r="N85" s="118"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="5"/>
+      <c r="S85" s="5"/>
+    </row>
+    <row r="86" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="280" t="s">
+        <v>256</v>
+      </c>
+      <c r="C86" s="276"/>
+      <c r="D86" s="276"/>
+      <c r="E86" s="276"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5">
+        <v>81.659000000000006</v>
+      </c>
+      <c r="I86" s="5">
+        <v>89.319000000000003</v>
+      </c>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5">
+        <v>146.38800000000001</v>
+      </c>
+      <c r="M86" s="5">
+        <v>161.35900000000001</v>
+      </c>
+      <c r="N86" s="118"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="5"/>
+    </row>
+    <row r="87" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="280" t="s">
+        <v>258</v>
+      </c>
+      <c r="C87" s="276"/>
+      <c r="D87" s="276"/>
+      <c r="E87" s="276"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5">
+        <v>10.5</v>
+      </c>
+      <c r="I87" s="5">
+        <v>11.391999999999999</v>
+      </c>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5">
+        <v>16.303000000000001</v>
+      </c>
+      <c r="M87" s="5">
+        <v>18.815000000000001</v>
+      </c>
+      <c r="N87" s="118"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="5"/>
+      <c r="S87" s="5"/>
+    </row>
+    <row r="88" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="280" t="s">
+        <v>257</v>
+      </c>
+      <c r="C88" s="276"/>
+      <c r="D88" s="276"/>
+      <c r="E88" s="276"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="I88" s="5">
+        <v>1.121</v>
+      </c>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5">
+        <v>2.048</v>
+      </c>
+      <c r="M88" s="5">
+        <v>-1.5149999999999999</v>
+      </c>
+      <c r="N88" s="118"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="5"/>
+    </row>
+    <row r="89" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="280" t="s">
+        <v>259</v>
+      </c>
+      <c r="C89" s="276"/>
+      <c r="D89" s="276"/>
+      <c r="E89" s="276"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5">
+        <v>0</v>
+      </c>
+      <c r="I89" s="5">
+        <v>0</v>
+      </c>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5">
+        <v>0.311</v>
+      </c>
+      <c r="M89" s="5">
+        <v>0.318</v>
+      </c>
+      <c r="N89" s="118"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="5"/>
+      <c r="S89" s="5"/>
+    </row>
+    <row r="90" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="280" t="s">
+        <v>260</v>
+      </c>
+      <c r="C90" s="276"/>
+      <c r="D90" s="276"/>
+      <c r="E90" s="276"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="9">
+        <f>SUM(H91:H100)</f>
+        <v>224.16400000000004</v>
+      </c>
+      <c r="I90" s="9">
+        <f>SUM(I91:I100)</f>
+        <v>137.49499999999998</v>
+      </c>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="9">
+        <f>SUM(L91:L100)</f>
+        <v>11.184999999999997</v>
+      </c>
+      <c r="M90" s="9">
+        <f>SUM(M91:M100)</f>
+        <v>156.023</v>
+      </c>
+      <c r="N90" s="118"/>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="5"/>
+      <c r="S90" s="5"/>
+    </row>
+    <row r="91" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="275" t="s">
+        <v>37</v>
+      </c>
+      <c r="C91" s="276"/>
+      <c r="D91" s="276"/>
+      <c r="E91" s="276"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5">
+        <v>16.704000000000001</v>
+      </c>
+      <c r="I91" s="5">
+        <v>47.125999999999998</v>
+      </c>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5">
+        <v>-9.8650000000000002</v>
+      </c>
+      <c r="M91" s="5">
+        <v>1.63</v>
+      </c>
+      <c r="N91" s="118"/>
+      <c r="Q91" s="5"/>
+      <c r="R91" s="5"/>
+      <c r="S91" s="5"/>
+    </row>
+    <row r="92" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="275" t="s">
+        <v>46</v>
+      </c>
+      <c r="C92" s="276"/>
+      <c r="D92" s="276"/>
+      <c r="E92" s="276"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5">
+        <v>3.0950000000000002</v>
+      </c>
+      <c r="I92" s="5">
+        <v>-2.5430000000000001</v>
+      </c>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5">
+        <v>-6.867</v>
+      </c>
+      <c r="M92" s="5">
+        <v>2.3039999999999998</v>
+      </c>
+      <c r="N92" s="118"/>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="5"/>
+    </row>
+    <row r="93" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="275" t="s">
+        <v>275</v>
+      </c>
+      <c r="C93" s="276"/>
+      <c r="D93" s="276"/>
+      <c r="E93" s="276"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5">
+        <v>-16.297000000000001</v>
+      </c>
+      <c r="I93" s="5">
+        <v>7.7629999999999999</v>
+      </c>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5">
+        <v>-15.983000000000001</v>
+      </c>
+      <c r="M93" s="5">
+        <v>-15.680999999999999</v>
+      </c>
+      <c r="N93" s="118"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5"/>
+      <c r="S93" s="5"/>
+    </row>
+    <row r="94" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="275" t="s">
+        <v>276</v>
+      </c>
+      <c r="C94" s="276"/>
+      <c r="D94" s="276"/>
+      <c r="E94" s="276"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5">
+        <v>-3.0750000000000002</v>
+      </c>
+      <c r="I94" s="5">
+        <v>2.2879999999999998</v>
+      </c>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5">
+        <v>1.1990000000000001</v>
+      </c>
+      <c r="M94" s="9">
+        <v>-0.26600000000000001</v>
+      </c>
+      <c r="N94" s="118"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5"/>
+      <c r="S94" s="5"/>
+    </row>
+    <row r="95" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="275" t="s">
+        <v>48</v>
+      </c>
+      <c r="C95" s="276"/>
+      <c r="D95" s="276"/>
+      <c r="E95" s="276"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5">
+        <v>6.2779999999999996</v>
+      </c>
+      <c r="I95" s="5">
+        <v>27.140999999999998</v>
+      </c>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5">
+        <v>-2.6240000000000001</v>
+      </c>
+      <c r="M95" s="5">
+        <v>21.175000000000001</v>
+      </c>
+      <c r="N95" s="118"/>
+      <c r="Q95" s="5"/>
+      <c r="R95" s="5"/>
+      <c r="S95" s="5"/>
+    </row>
+    <row r="96" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="275" t="s">
+        <v>277</v>
+      </c>
+      <c r="C96" s="276"/>
+      <c r="D96" s="276"/>
+      <c r="E96" s="276"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5">
+        <v>57.856000000000002</v>
+      </c>
+      <c r="I96" s="5">
+        <v>-36.030999999999999</v>
+      </c>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5">
+        <v>6.4059999999999997</v>
+      </c>
+      <c r="M96" s="5">
+        <v>2.6419999999999999</v>
+      </c>
+      <c r="N96" s="118"/>
+      <c r="Q96" s="5"/>
+      <c r="R96" s="5"/>
+      <c r="S96" s="5"/>
+    </row>
+    <row r="97" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="275" t="s">
+        <v>278</v>
+      </c>
+      <c r="C97" s="276"/>
+      <c r="D97" s="276"/>
+      <c r="E97" s="276"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I97" s="5">
+        <v>-1.6060000000000001</v>
+      </c>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5">
+        <v>-0.57899999999999996</v>
+      </c>
+      <c r="M97" s="9">
+        <v>0</v>
+      </c>
+      <c r="N97" s="118"/>
+      <c r="Q97" s="5"/>
+      <c r="R97" s="5"/>
+      <c r="S97" s="5"/>
+    </row>
+    <row r="98" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="275" t="s">
+        <v>279</v>
+      </c>
+      <c r="C98" s="276"/>
+      <c r="D98" s="276"/>
+      <c r="E98" s="276"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5">
+        <v>-10.573</v>
+      </c>
+      <c r="I98" s="5">
+        <v>-11.413</v>
+      </c>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5">
+        <v>-10.021000000000001</v>
+      </c>
+      <c r="M98" s="5">
+        <v>-11.259</v>
+      </c>
+      <c r="N98" s="118"/>
+      <c r="Q98" s="5"/>
+      <c r="R98" s="5"/>
+      <c r="S98" s="5"/>
+    </row>
+    <row r="99" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="275" t="s">
+        <v>280</v>
+      </c>
+      <c r="C99" s="276"/>
+      <c r="D99" s="276"/>
+      <c r="E99" s="276"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5">
+        <v>215.49700000000001</v>
+      </c>
+      <c r="I99" s="5">
+        <v>131.43899999999999</v>
+      </c>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5">
+        <v>52.14</v>
+      </c>
+      <c r="M99" s="5">
+        <v>187.99100000000001</v>
+      </c>
+      <c r="N99" s="118"/>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="5"/>
+    </row>
+    <row r="100" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="275" t="s">
+        <v>281</v>
+      </c>
+      <c r="C100" s="276"/>
+      <c r="D100" s="276"/>
+      <c r="E100" s="276"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5">
+        <v>-45.600999999999999</v>
+      </c>
+      <c r="I100" s="5">
+        <v>-26.669</v>
+      </c>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5">
+        <v>-2.621</v>
+      </c>
+      <c r="M100" s="5">
+        <v>-32.512999999999998</v>
+      </c>
+      <c r="N100" s="118"/>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="5"/>
+      <c r="S100" s="5"/>
+    </row>
+    <row r="101" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C101" s="281"/>
+      <c r="D101" s="281"/>
+      <c r="E101" s="281"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4">
+        <f>H82+SUM(H85:H90)</f>
+        <v>191.25100000000003</v>
+      </c>
+      <c r="I101" s="4">
+        <f>I82+SUM(I85:I90)</f>
+        <v>181.166</v>
+      </c>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4">
+        <f>L82+SUM(L85:L90)</f>
+        <v>26.497000000000014</v>
+      </c>
+      <c r="M101" s="4">
+        <f>M82+SUM(M85:M90)</f>
+        <v>67.150000000000034</v>
+      </c>
+      <c r="N101" s="117"/>
+      <c r="Q101" s="4"/>
+      <c r="R101" s="4"/>
+      <c r="S101" s="4"/>
+    </row>
+    <row r="102" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="278"/>
+      <c r="C102" s="276"/>
+      <c r="D102" s="276"/>
+      <c r="E102" s="276"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="5"/>
+      <c r="N102" s="118"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="5"/>
+    </row>
+    <row r="103" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="280" t="s">
+        <v>262</v>
+      </c>
+      <c r="C103" s="276"/>
+      <c r="D103" s="276"/>
+      <c r="E103" s="276"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5">
+        <v>-23.234999999999999</v>
+      </c>
+      <c r="I103" s="5">
+        <v>-2.9620000000000002</v>
+      </c>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5">
+        <v>-83.811999999999998</v>
+      </c>
+      <c r="M103" s="5">
+        <v>-133.35599999999999</v>
+      </c>
+      <c r="N103" s="118"/>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="5"/>
+      <c r="S103" s="5"/>
+    </row>
+    <row r="104" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="280" t="s">
+        <v>263</v>
+      </c>
+      <c r="C104" s="276"/>
+      <c r="D104" s="276"/>
+      <c r="E104" s="276"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5">
+        <v>0</v>
+      </c>
+      <c r="I104" s="5">
+        <v>-45.692</v>
+      </c>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5">
+        <v>-6.165</v>
+      </c>
+      <c r="M104" s="5">
+        <v>0</v>
+      </c>
+      <c r="N104" s="118"/>
+      <c r="Q104" s="5"/>
+      <c r="R104" s="5"/>
+      <c r="S104" s="5"/>
+    </row>
+    <row r="105" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="280" t="s">
+        <v>264</v>
+      </c>
+      <c r="C105" s="276"/>
+      <c r="D105" s="276"/>
+      <c r="E105" s="276"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5">
+        <v>0</v>
+      </c>
+      <c r="I105" s="5">
+        <v>-7.6</v>
+      </c>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5">
+        <v>0</v>
+      </c>
+      <c r="M105" s="5">
+        <v>-1.5</v>
+      </c>
+      <c r="N105" s="118"/>
+      <c r="Q105" s="5"/>
+      <c r="R105" s="5"/>
+      <c r="S105" s="5"/>
+    </row>
+    <row r="106" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C106" s="281"/>
+      <c r="D106" s="281"/>
+      <c r="E106" s="281"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4">
+        <f>SUM(H103:H105)</f>
+        <v>-23.234999999999999</v>
+      </c>
+      <c r="I106" s="4">
+        <f>SUM(I103:I105)</f>
+        <v>-56.254000000000005</v>
+      </c>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4">
+        <f>SUM(L103:L105)</f>
+        <v>-89.977000000000004</v>
+      </c>
+      <c r="M106" s="4">
+        <f>SUM(M103:M105)</f>
+        <v>-134.85599999999999</v>
+      </c>
+      <c r="N106" s="117"/>
+      <c r="Q106" s="4"/>
+      <c r="R106" s="4"/>
+      <c r="S106" s="4"/>
+    </row>
+    <row r="107" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="278"/>
+      <c r="C107" s="276"/>
+      <c r="D107" s="276"/>
+      <c r="E107" s="276"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+      <c r="M107" s="5"/>
+      <c r="N107" s="118"/>
+      <c r="Q107" s="5"/>
+      <c r="R107" s="5"/>
+      <c r="S107" s="5"/>
+    </row>
+    <row r="108" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="280" t="s">
+        <v>266</v>
+      </c>
+      <c r="C108" s="276"/>
+      <c r="D108" s="276"/>
+      <c r="E108" s="276"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5">
+        <v>11.667999999999999</v>
+      </c>
+      <c r="I108" s="5">
+        <v>20.388999999999999</v>
+      </c>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5">
+        <v>5.548</v>
+      </c>
+      <c r="M108" s="5">
+        <v>12.83</v>
+      </c>
+      <c r="N108" s="118"/>
+      <c r="Q108" s="5"/>
+      <c r="R108" s="5"/>
+      <c r="S108" s="5"/>
+    </row>
+    <row r="109" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="280" t="s">
+        <v>267</v>
+      </c>
+      <c r="C109" s="276"/>
+      <c r="D109" s="276"/>
+      <c r="E109" s="276"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5">
+        <v>0</v>
+      </c>
+      <c r="I109" s="5">
+        <v>0</v>
+      </c>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5">
+        <v>-0.42</v>
+      </c>
+      <c r="M109" s="5">
+        <v>0</v>
+      </c>
+      <c r="N109" s="118"/>
+      <c r="Q109" s="5"/>
+      <c r="R109" s="5"/>
+      <c r="S109" s="5"/>
+    </row>
+    <row r="110" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="280" t="s">
+        <v>268</v>
+      </c>
+      <c r="C110" s="276"/>
+      <c r="D110" s="276"/>
+      <c r="E110" s="276"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5">
+        <v>0</v>
+      </c>
+      <c r="I110" s="5">
+        <v>0</v>
+      </c>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5">
+        <v>0</v>
+      </c>
+      <c r="M110" s="5">
+        <v>0</v>
+      </c>
+      <c r="N110" s="118"/>
+      <c r="Q110" s="5"/>
+      <c r="R110" s="5"/>
+      <c r="S110" s="5"/>
+    </row>
+    <row r="111" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="280" t="s">
+        <v>269</v>
+      </c>
+      <c r="C111" s="276"/>
+      <c r="D111" s="276"/>
+      <c r="E111" s="276"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5">
+        <v>0</v>
+      </c>
+      <c r="I111" s="5">
+        <v>0</v>
+      </c>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5">
+        <v>0</v>
+      </c>
+      <c r="M111" s="5">
+        <v>0</v>
+      </c>
+      <c r="N111" s="118"/>
+      <c r="Q111" s="5"/>
+      <c r="R111" s="5"/>
+      <c r="S111" s="5"/>
+    </row>
+    <row r="112" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="280" t="s">
+        <v>270</v>
+      </c>
+      <c r="C112" s="276"/>
+      <c r="D112" s="276"/>
+      <c r="E112" s="276"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5">
+        <v>0</v>
+      </c>
+      <c r="I112" s="5">
+        <v>0</v>
+      </c>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="5">
+        <v>0</v>
+      </c>
+      <c r="M112" s="5">
+        <v>0</v>
+      </c>
+      <c r="N112" s="118"/>
+      <c r="Q112" s="5"/>
+      <c r="R112" s="5"/>
+      <c r="S112" s="5"/>
+    </row>
+    <row r="113" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="280" t="s">
+        <v>271</v>
+      </c>
+      <c r="C113" s="276"/>
+      <c r="D113" s="276"/>
+      <c r="E113" s="276"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5">
+        <v>0</v>
+      </c>
+      <c r="I113" s="5">
+        <v>0</v>
+      </c>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5">
+        <v>0</v>
+      </c>
+      <c r="M113" s="5">
+        <v>-0.15</v>
+      </c>
+      <c r="N113" s="118"/>
+      <c r="Q113" s="5"/>
+      <c r="R113" s="5"/>
+      <c r="S113" s="5"/>
+    </row>
+    <row r="114" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C114" s="281"/>
+      <c r="D114" s="281"/>
+      <c r="E114" s="281"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4">
+        <f>SUM(H108:H113)</f>
+        <v>11.667999999999999</v>
+      </c>
+      <c r="I114" s="4">
+        <f>SUM(I108:I113)</f>
+        <v>20.388999999999999</v>
+      </c>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4">
+        <f>SUM(L108:L113)</f>
+        <v>5.1280000000000001</v>
+      </c>
+      <c r="M114" s="4">
+        <f>SUM(M108:M113)</f>
+        <v>12.68</v>
+      </c>
+      <c r="N114" s="117"/>
+      <c r="Q114" s="4"/>
+      <c r="R114" s="4"/>
+      <c r="S114" s="4"/>
+    </row>
+    <row r="116" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B116" s="274"/>
+      <c r="M116" s="282"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="27" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="L1" r:id="rId1" xr:uid="{F0F1B078-C7E3-AA47-9924-08C1D4511F24}"/>
     <hyperlink ref="M1" r:id="rId2" xr:uid="{9D82E829-DF9B-4456-A9EF-305989A97DF8}"/>
@@ -11613,7 +12707,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="119" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId3"/>
   <ignoredErrors>
-    <ignoredError sqref="V3:V4 V6:V8 V9:V13 W3:W4 V17:V20 W17:W20 W6:W13 V15 W15 K75 K76 G75:J76 L75:M76" formulaRange="1"/>
+    <ignoredError sqref="V3:V4 V6:V8 V9:V13 W3:W4 V17:V20 W17:W20 W6:W13 V15 W15 K75 K76 G75:J76 L75:M76 G78:M78" formulaRange="1"/>
     <ignoredError sqref="V5 V16:W16 X5 V14 X16 X21 Y16:AK16 Y18 Z18:AK20 AL13:AM18 X18:X19 X14" formula="1"/>
     <ignoredError sqref="W5 W14" formula="1" formulaRange="1"/>
   </ignoredErrors>
@@ -13151,7 +14245,7 @@
       <c r="R24" s="109"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
   <ignoredErrors>

--- a/$RBLX.xlsx
+++ b/$RBLX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547339AC-A919-43D6-9452-130501473D87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558D09B3-F6A4-4B55-BBD2-D0B12E82E084}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="18390" windowHeight="2400" activeTab="1" xr2:uid="{DB6ABC51-E0DE-6747-8CA5-53C172A4844D}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{DB6ABC51-E0DE-6747-8CA5-53C172A4844D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="285">
   <si>
     <t>Price</t>
   </si>
@@ -623,9 +623,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>California, US</t>
-  </si>
-  <si>
     <t>Update</t>
   </si>
   <si>
@@ -873,13 +870,25 @@
   </si>
   <si>
     <t>Deferred Cost of Revenues</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>IPO</t>
+  </si>
+  <si>
+    <t>San Mateo, CA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
+  <numFmts count="10">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -890,11 +899,17 @@
     <numFmt numFmtId="170" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
     <numFmt numFmtId="171" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="172" formatCode="0.0\x"/>
-    <numFmt numFmtId="175" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1246,7 +1261,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1321,6 +1336,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF7C80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0E1FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1453,609 +1474,620 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="283">
+  <cellXfs count="288">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="17" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="38" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="29" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="26" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="26" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="26" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="38" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="10" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="26" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="18" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="21" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="26" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="26" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="26" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="26" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="26" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="29" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="39" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="39" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="39" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="14" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="39" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="39" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="29" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="43" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="44" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="17" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="37" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="28" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="25" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="25" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="25" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="37" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="10" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="17" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="20" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="25" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="25" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="25" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="28" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="20" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="37" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="38" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="38" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="38" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="37" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="13" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="38" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="37" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="38" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="28" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="42" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="43" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="26" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="29" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="28" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="26" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="25" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="26" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="25" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="26" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="25" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="26" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="25" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="26" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="26" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="29" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="28" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="29" fillId="12" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="28" fillId="12" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="26" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="39" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="39" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="38" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="29" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="28" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="39" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="39" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="39" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="38" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="14" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="39" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="38" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="39" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="29" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="40" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="38" fillId="10" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="29" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="26" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="26" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="37" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="38" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="38" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="38" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="37" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="13" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="38" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="37" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="38" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="28" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="39" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="37" fillId="10" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="28" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="25" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="39" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="38" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="37" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="26" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="25" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="25" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -4104,8 +4136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE4A73D-2F46-7341-9C57-6E5B7A39A15C}">
   <dimension ref="B1:AL86"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:H6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4123,36 +4155,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="L1" s="262" t="s">
+      <c r="L1" s="267" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="263"/>
-      <c r="N1" s="263"/>
-      <c r="O1" s="263"/>
-      <c r="P1" s="263"/>
-      <c r="Q1" s="263"/>
-      <c r="R1" s="263"/>
-      <c r="S1" s="263"/>
-      <c r="T1" s="263"/>
-      <c r="U1" s="264"/>
-      <c r="W1" s="265" t="s">
+      <c r="M1" s="268"/>
+      <c r="N1" s="268"/>
+      <c r="O1" s="268"/>
+      <c r="P1" s="268"/>
+      <c r="Q1" s="268"/>
+      <c r="R1" s="268"/>
+      <c r="S1" s="268"/>
+      <c r="T1" s="268"/>
+      <c r="U1" s="269"/>
+      <c r="W1" s="270" t="s">
         <v>127</v>
       </c>
-      <c r="X1" s="266"/>
-      <c r="Y1" s="266"/>
-      <c r="Z1" s="266"/>
-      <c r="AA1" s="266"/>
-      <c r="AB1" s="266"/>
-      <c r="AC1" s="266"/>
-      <c r="AD1" s="266"/>
-      <c r="AE1" s="266"/>
-      <c r="AF1" s="266"/>
-      <c r="AG1" s="266"/>
-      <c r="AH1" s="266"/>
-      <c r="AI1" s="266"/>
-      <c r="AJ1" s="266"/>
-      <c r="AK1" s="266"/>
-      <c r="AL1" s="267"/>
+      <c r="X1" s="271"/>
+      <c r="Y1" s="271"/>
+      <c r="Z1" s="271"/>
+      <c r="AA1" s="271"/>
+      <c r="AB1" s="271"/>
+      <c r="AC1" s="271"/>
+      <c r="AD1" s="271"/>
+      <c r="AE1" s="271"/>
+      <c r="AF1" s="271"/>
+      <c r="AG1" s="271"/>
+      <c r="AH1" s="271"/>
+      <c r="AI1" s="271"/>
+      <c r="AJ1" s="271"/>
+      <c r="AK1" s="271"/>
+      <c r="AL1" s="272"/>
     </row>
     <row r="2" spans="2:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
@@ -4351,16 +4383,16 @@
       </c>
     </row>
     <row r="5" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B5" s="254" t="s">
+      <c r="B5" s="273" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="255"/>
-      <c r="D5" s="256"/>
-      <c r="F5" s="254" t="s">
+      <c r="C5" s="274"/>
+      <c r="D5" s="275"/>
+      <c r="F5" s="273" t="s">
         <v>193</v>
       </c>
-      <c r="G5" s="255"/>
-      <c r="H5" s="256"/>
+      <c r="G5" s="274"/>
+      <c r="H5" s="275"/>
       <c r="K5" s="28" t="s">
         <v>73</v>
       </c>
@@ -4468,10 +4500,10 @@
       <c r="F6" s="176" t="s">
         <v>194</v>
       </c>
-      <c r="G6" s="257" t="s">
-        <v>198</v>
-      </c>
-      <c r="H6" s="253"/>
+      <c r="G6" s="287" t="s">
+        <v>284</v>
+      </c>
+      <c r="H6" s="279"/>
       <c r="K6" s="28" t="s">
         <v>74</v>
       </c>
@@ -4574,12 +4606,12 @@
         <v>Q322</v>
       </c>
       <c r="F7" s="176" t="s">
-        <v>195</v>
-      </c>
-      <c r="G7" s="258">
-        <v>2004</v>
-      </c>
-      <c r="H7" s="253"/>
+        <v>283</v>
+      </c>
+      <c r="G7" s="278">
+        <v>2021</v>
+      </c>
+      <c r="H7" s="279"/>
       <c r="K7" s="28"/>
       <c r="L7" s="60"/>
       <c r="M7" s="60"/>
@@ -4618,13 +4650,12 @@
       </c>
       <c r="D8" s="41"/>
       <c r="F8" s="176" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="258">
-        <f>AL4</f>
-        <v>58.8</v>
-      </c>
-      <c r="H8" s="253"/>
+        <v>195</v>
+      </c>
+      <c r="G8" s="278">
+        <v>2004</v>
+      </c>
+      <c r="H8" s="279"/>
       <c r="K8" s="28" t="s">
         <v>75</v>
       </c>
@@ -4718,9 +4749,14 @@
         <f t="shared" ref="D9:D11" si="6">$G$11</f>
         <v>Q322</v>
       </c>
-      <c r="F9" s="162"/>
-      <c r="G9" s="258"/>
-      <c r="H9" s="253"/>
+      <c r="F9" s="176" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="278">
+        <f>AL4</f>
+        <v>58.8</v>
+      </c>
+      <c r="H9" s="279"/>
       <c r="K9" s="28" t="s">
         <v>77</v>
       </c>
@@ -4828,9 +4864,9 @@
         <f t="shared" si="6"/>
         <v>Q322</v>
       </c>
-      <c r="F10" s="162"/>
-      <c r="G10" s="258"/>
-      <c r="H10" s="253"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="278"/>
+      <c r="H10" s="279"/>
       <c r="K10" s="28" t="s">
         <v>78</v>
       </c>
@@ -4936,12 +4972,12 @@
         <v>Q322</v>
       </c>
       <c r="F11" s="176" t="s">
-        <v>199</v>
-      </c>
-      <c r="G11" s="259" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="266" t="s">
         <v>109</v>
       </c>
-      <c r="H11" s="253"/>
+      <c r="H11" s="265"/>
       <c r="K11" s="28"/>
       <c r="L11" s="60"/>
       <c r="M11" s="60"/>
@@ -4971,10 +5007,10 @@
       <c r="F12" s="177" t="s">
         <v>196</v>
       </c>
-      <c r="G12" s="260" t="s">
+      <c r="G12" s="282" t="s">
         <v>197</v>
       </c>
-      <c r="H12" s="261"/>
+      <c r="H12" s="283"/>
       <c r="K12" s="28" t="s">
         <v>76</v>
       </c>
@@ -5246,16 +5282,16 @@
       </c>
     </row>
     <row r="15" spans="2:38" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="254" t="s">
+      <c r="B15" s="273" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="255"/>
-      <c r="D15" s="256"/>
-      <c r="F15" s="254" t="s">
-        <v>204</v>
-      </c>
-      <c r="G15" s="255"/>
-      <c r="H15" s="256"/>
+      <c r="C15" s="274"/>
+      <c r="D15" s="275"/>
+      <c r="F15" s="273" t="s">
+        <v>203</v>
+      </c>
+      <c r="G15" s="274"/>
+      <c r="H15" s="275"/>
       <c r="K15" s="28"/>
       <c r="L15" s="62"/>
       <c r="M15" s="62"/>
@@ -5272,18 +5308,18 @@
       <c r="B16" s="92" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="252" t="s">
+      <c r="C16" s="286" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="253"/>
+      <c r="D16" s="279"/>
       <c r="F16" s="176" t="s">
-        <v>205</v>
-      </c>
-      <c r="G16" s="270">
+        <v>204</v>
+      </c>
+      <c r="G16" s="280">
         <f>C6/'Financial Model'!M64</f>
         <v>44.601967818517387</v>
       </c>
-      <c r="H16" s="271"/>
+      <c r="H16" s="281"/>
       <c r="J16" s="31" t="s">
         <v>86</v>
       </c>
@@ -5369,18 +5405,18 @@
       <c r="B17" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="268" t="s">
+      <c r="C17" s="276" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="269"/>
+      <c r="D17" s="277"/>
       <c r="F17" s="176" t="s">
-        <v>214</v>
-      </c>
-      <c r="G17" s="270">
+        <v>213</v>
+      </c>
+      <c r="G17" s="280">
         <f>C8/'Financial Model'!W3</f>
         <v>9.8675626321852903</v>
       </c>
-      <c r="H17" s="271"/>
+      <c r="H17" s="281"/>
       <c r="K17" s="28" t="s">
         <v>84</v>
       </c>
@@ -5477,18 +5513,18 @@
       <c r="B18" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="252" t="s">
+      <c r="C18" s="286" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="253"/>
+      <c r="D18" s="279"/>
       <c r="F18" s="176" t="s">
-        <v>215</v>
-      </c>
-      <c r="G18" s="270">
+        <v>214</v>
+      </c>
+      <c r="G18" s="280">
         <f>C6/SUM('Financial Model'!J19:M19)</f>
         <v>-23.723072493855522</v>
       </c>
-      <c r="H18" s="271"/>
+      <c r="H18" s="281"/>
       <c r="K18" s="28" t="s">
         <v>85</v>
       </c>
@@ -5580,25 +5616,25 @@
     </row>
     <row r="19" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B19" s="90"/>
-      <c r="C19" s="258"/>
-      <c r="D19" s="253"/>
+      <c r="C19" s="278"/>
+      <c r="D19" s="279"/>
       <c r="F19" s="176"/>
-      <c r="G19" s="258"/>
-      <c r="H19" s="253"/>
+      <c r="G19" s="278"/>
+      <c r="H19" s="279"/>
       <c r="K19" s="28"/>
       <c r="L19" s="62"/>
       <c r="M19" s="62"/>
     </row>
     <row r="20" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="91"/>
-      <c r="C20" s="272"/>
-      <c r="D20" s="273"/>
+      <c r="C20" s="284"/>
+      <c r="D20" s="285"/>
       <c r="F20" s="177"/>
-      <c r="G20" s="260"/>
-      <c r="H20" s="261"/>
+      <c r="G20" s="282"/>
+      <c r="H20" s="283"/>
       <c r="J20" s="31"/>
       <c r="K20" s="195" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M20" s="59"/>
       <c r="W20" s="1"/>
@@ -5617,25 +5653,25 @@
     </row>
     <row r="21" spans="2:38" x14ac:dyDescent="0.25">
       <c r="K21" s="195" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="2:38" x14ac:dyDescent="0.25">
       <c r="K22" s="195" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B23" s="254" t="s">
+      <c r="B23" s="273" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="255"/>
-      <c r="D23" s="255"/>
-      <c r="E23" s="255"/>
-      <c r="F23" s="255"/>
-      <c r="G23" s="256"/>
+      <c r="C23" s="274"/>
+      <c r="D23" s="274"/>
+      <c r="E23" s="274"/>
+      <c r="F23" s="274"/>
+      <c r="G23" s="275"/>
       <c r="K23" s="195" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="2:38" x14ac:dyDescent="0.25">
@@ -5745,12 +5781,12 @@
       <c r="F31" s="101"/>
       <c r="G31" s="102"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="254" t="s">
+      <c r="K31" s="273" t="s">
         <v>181</v>
       </c>
-      <c r="L31" s="255"/>
-      <c r="M31" s="255"/>
-      <c r="N31" s="256"/>
+      <c r="L31" s="274"/>
+      <c r="M31" s="274"/>
+      <c r="N31" s="275"/>
     </row>
     <row r="32" spans="2:38" x14ac:dyDescent="0.25">
       <c r="J32" s="7"/>
@@ -5762,14 +5798,14 @@
       <c r="N32" s="96"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="254" t="s">
+      <c r="B33" s="273" t="s">
         <v>187</v>
       </c>
-      <c r="C33" s="255"/>
-      <c r="D33" s="255"/>
-      <c r="E33" s="255"/>
-      <c r="F33" s="255"/>
-      <c r="G33" s="256"/>
+      <c r="C33" s="274"/>
+      <c r="D33" s="274"/>
+      <c r="E33" s="274"/>
+      <c r="F33" s="274"/>
+      <c r="G33" s="275"/>
       <c r="J33" s="7"/>
       <c r="K33" s="168" t="s">
         <v>177</v>
@@ -5785,7 +5821,7 @@
         <v>44743</v>
       </c>
       <c r="C34" s="204" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D34" s="95"/>
       <c r="E34" s="95"/>
@@ -5804,14 +5840,14 @@
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="162"/>
       <c r="C35" s="205" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D35" s="95"/>
       <c r="E35" s="95"/>
       <c r="F35" s="95"/>
       <c r="G35" s="96"/>
       <c r="J35" s="206" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K35" s="168" t="s">
         <v>184</v>
@@ -5894,7 +5930,7 @@
       <c r="F40" s="95"/>
       <c r="G40" s="96"/>
       <c r="J40" s="206" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K40" s="168" t="s">
         <v>182</v>
@@ -5955,7 +5991,7 @@
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="209" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J45" s="7"/>
       <c r="K45" s="169" t="s">
@@ -5976,7 +6012,7 @@
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J47" s="7"/>
       <c r="K47" s="169" t="s">
@@ -5988,7 +6024,7 @@
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="237" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J48" s="7"/>
       <c r="K48" s="239" t="s">
@@ -6000,7 +6036,7 @@
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="237" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K49" s="170"/>
       <c r="L49" s="95"/>
@@ -6009,23 +6045,23 @@
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="238" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J50" s="240" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K50" s="239" t="s">
+        <v>236</v>
+      </c>
+      <c r="L50" s="166" t="s">
         <v>237</v>
-      </c>
-      <c r="L50" s="166" t="s">
-        <v>238</v>
       </c>
       <c r="M50" s="95"/>
       <c r="N50" s="96"/>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="238" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K51" s="171"/>
       <c r="L51" s="100"/>
@@ -6034,12 +6070,12 @@
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="238" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="238" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
@@ -6049,7 +6085,7 @@
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="237" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K55" s="21" t="s">
         <v>59</v>
@@ -6062,7 +6098,7 @@
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="237" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K57" s="21" t="s">
         <v>61</v>
@@ -6070,7 +6106,7 @@
     </row>
     <row r="58" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="237" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K58" s="22" t="s">
         <v>63</v>
@@ -6078,7 +6114,7 @@
     </row>
     <row r="59" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="238" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K59" s="22" t="s">
         <v>88</v>
@@ -6086,7 +6122,7 @@
     </row>
     <row r="60" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="238" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K60" s="22" t="s">
         <v>64</v>
@@ -6094,7 +6130,7 @@
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="238" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K61" s="89" t="s">
         <v>126</v>
@@ -6102,12 +6138,12 @@
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="238" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="237" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K64" s="105" t="s">
         <v>168</v>
@@ -6115,7 +6151,7 @@
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" s="237" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>135</v>
@@ -6128,7 +6164,7 @@
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" s="237" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K67" s="93" t="s">
         <v>144</v>
@@ -6141,7 +6177,7 @@
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" s="237" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K69" s="93" t="s">
         <v>146</v>
@@ -6154,7 +6190,7 @@
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="237" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K71" s="93" t="s">
         <v>147</v>
@@ -6162,61 +6198,70 @@
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" s="238" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" s="237" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="237" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" s="238" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="237" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" s="238" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="237" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="238" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="238" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="238" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="249" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="25">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="L1:U1"/>
     <mergeCell ref="W1:AL1"/>
     <mergeCell ref="B33:G33"/>
@@ -6233,18 +6278,8 @@
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K58" r:id="rId1" xr:uid="{F79BC045-05D5-43FB-A051-BA2031CC85A7}"/>
     <hyperlink ref="K60" r:id="rId2" xr:uid="{58004FA9-9F7A-4B71-811E-FF4EE09F281F}"/>
@@ -6258,13 +6293,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0FDCAC-3416-844A-BCBB-390EC350CF59}">
-  <dimension ref="B1:BZ116"/>
+  <dimension ref="B1:BZ120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M83" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="AP22" sqref="AP22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8548,7 +8583,7 @@
         <f t="shared" si="49"/>
         <v>-252.40528603293131</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AB18" s="264">
         <f t="shared" si="49"/>
         <v>80.434307742151219</v>
       </c>
@@ -9174,7 +9209,7 @@
         <v>114</v>
       </c>
       <c r="AP22" s="135">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="AR22" s="67"/>
     </row>
@@ -9320,7 +9355,7 @@
       </c>
       <c r="AP23" s="136">
         <f>NPV(AP22,X18:BZ18)</f>
-        <v>71290.030046149914</v>
+        <v>37523.031429501891</v>
       </c>
       <c r="AR23" s="68"/>
     </row>
@@ -9611,7 +9646,7 @@
       </c>
       <c r="AP25" s="136">
         <f>AP23+AP24</f>
-        <v>73322.874046149911</v>
+        <v>39555.875429501888</v>
       </c>
     </row>
     <row r="26" spans="2:78" x14ac:dyDescent="0.25">
@@ -9628,7 +9663,7 @@
       </c>
       <c r="AP26" s="137">
         <f>AP25/Main!C7</f>
-        <v>122.65883218739687</v>
+        <v>66.171403527895578</v>
       </c>
       <c r="AQ26" s="67"/>
       <c r="AS26" s="9"/>
@@ -9847,7 +9882,7 @@
       </c>
       <c r="AP28" s="139">
         <f>AP26/AP27-1</f>
-        <v>2.871806571571871</v>
+        <v>1.0887437982290269</v>
       </c>
     </row>
     <row r="29" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -9888,7 +9923,7 @@
     </row>
     <row r="30" spans="2:78" s="212" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="212" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>33</v>
@@ -9965,7 +10000,7 @@
     </row>
     <row r="31" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>33</v>
@@ -11225,7 +11260,7 @@
     </row>
     <row r="63" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B63" s="195" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F63" s="5">
         <f t="shared" ref="F63:K63" si="103">F48-F58</f>
@@ -11262,7 +11297,7 @@
     </row>
     <row r="64" spans="2:19" s="207" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B64" s="207" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>33</v>
@@ -11565,7 +11600,7 @@
     </row>
     <row r="74" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B74" s="209" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G74" s="217">
         <f t="shared" ref="G74:I74" si="118">G70/G64</f>
@@ -11598,7 +11633,7 @@
     </row>
     <row r="75" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B75" s="209" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G75" s="217">
         <f t="shared" ref="G75" si="121">G71/SUM(D3:G3)</f>
@@ -11631,7 +11666,7 @@
     </row>
     <row r="76" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B76" s="233" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G76" s="217">
         <f t="shared" ref="G76" si="126">G72/SUM(D3:G3)</f>
@@ -11664,7 +11699,7 @@
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B77" s="209" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G77" s="217">
         <f t="shared" ref="G77:L77" si="131">G70/SUM(D19:G19)</f>
@@ -11698,7 +11733,7 @@
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B78" s="251" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G78" s="87">
         <f t="shared" ref="G78:L78" si="132">SUM(D12:G12)/(G48-SUM(G50:G53))</f>
@@ -11753,12 +11788,12 @@
       <c r="P80" s="251"/>
     </row>
     <row r="81" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="275" t="s">
-        <v>273</v>
-      </c>
-      <c r="C81" s="276"/>
-      <c r="D81" s="276"/>
-      <c r="E81" s="276"/>
+      <c r="B81" s="253" t="s">
+        <v>272</v>
+      </c>
+      <c r="C81" s="254"/>
+      <c r="D81" s="254"/>
+      <c r="E81" s="254"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5">
@@ -11786,18 +11821,18 @@
         <v>-301.90200000000004</v>
       </c>
       <c r="N81" s="118"/>
-      <c r="P81" s="277"/>
+      <c r="P81" s="255"/>
       <c r="Q81" s="5"/>
       <c r="R81" s="5"/>
       <c r="S81" s="5"/>
     </row>
     <row r="82" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="275" t="s">
-        <v>274</v>
-      </c>
-      <c r="C82" s="276"/>
-      <c r="D82" s="276"/>
-      <c r="E82" s="276"/>
+      <c r="B82" s="253" t="s">
+        <v>273</v>
+      </c>
+      <c r="C82" s="254"/>
+      <c r="D82" s="254"/>
+      <c r="E82" s="254"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5">
@@ -11815,16 +11850,16 @@
         <v>-301.90199999999999</v>
       </c>
       <c r="N82" s="118"/>
-      <c r="P82" s="277"/>
+      <c r="P82" s="255"/>
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
       <c r="S82" s="5"/>
     </row>
     <row r="83" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="278"/>
-      <c r="C83" s="276"/>
-      <c r="D83" s="276"/>
-      <c r="E83" s="276"/>
+      <c r="B83" s="256"/>
+      <c r="C83" s="254"/>
+      <c r="D83" s="254"/>
+      <c r="E83" s="254"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
@@ -11839,12 +11874,12 @@
       <c r="S83" s="5"/>
     </row>
     <row r="84" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="279" t="s">
-        <v>253</v>
-      </c>
-      <c r="C84" s="276"/>
-      <c r="D84" s="276"/>
-      <c r="E84" s="276"/>
+      <c r="B84" s="257" t="s">
+        <v>252</v>
+      </c>
+      <c r="C84" s="254"/>
+      <c r="D84" s="254"/>
+      <c r="E84" s="254"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
@@ -11859,12 +11894,12 @@
       <c r="S84" s="5"/>
     </row>
     <row r="85" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="280" t="s">
-        <v>255</v>
-      </c>
-      <c r="C85" s="276"/>
-      <c r="D85" s="276"/>
-      <c r="E85" s="276"/>
+      <c r="B85" s="258" t="s">
+        <v>254</v>
+      </c>
+      <c r="C85" s="254"/>
+      <c r="D85" s="254"/>
+      <c r="E85" s="254"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5">
@@ -11887,12 +11922,12 @@
       <c r="S85" s="5"/>
     </row>
     <row r="86" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="280" t="s">
-        <v>256</v>
-      </c>
-      <c r="C86" s="276"/>
-      <c r="D86" s="276"/>
-      <c r="E86" s="276"/>
+      <c r="B86" s="258" t="s">
+        <v>255</v>
+      </c>
+      <c r="C86" s="254"/>
+      <c r="D86" s="254"/>
+      <c r="E86" s="254"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5">
@@ -11915,12 +11950,12 @@
       <c r="S86" s="5"/>
     </row>
     <row r="87" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="280" t="s">
-        <v>258</v>
-      </c>
-      <c r="C87" s="276"/>
-      <c r="D87" s="276"/>
-      <c r="E87" s="276"/>
+      <c r="B87" s="258" t="s">
+        <v>257</v>
+      </c>
+      <c r="C87" s="254"/>
+      <c r="D87" s="254"/>
+      <c r="E87" s="254"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
       <c r="H87" s="5">
@@ -11943,12 +11978,12 @@
       <c r="S87" s="5"/>
     </row>
     <row r="88" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="280" t="s">
-        <v>257</v>
-      </c>
-      <c r="C88" s="276"/>
-      <c r="D88" s="276"/>
-      <c r="E88" s="276"/>
+      <c r="B88" s="258" t="s">
+        <v>256</v>
+      </c>
+      <c r="C88" s="254"/>
+      <c r="D88" s="254"/>
+      <c r="E88" s="254"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5">
@@ -11971,12 +12006,12 @@
       <c r="S88" s="5"/>
     </row>
     <row r="89" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="280" t="s">
-        <v>259</v>
-      </c>
-      <c r="C89" s="276"/>
-      <c r="D89" s="276"/>
-      <c r="E89" s="276"/>
+      <c r="B89" s="258" t="s">
+        <v>258</v>
+      </c>
+      <c r="C89" s="254"/>
+      <c r="D89" s="254"/>
+      <c r="E89" s="254"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5">
@@ -11999,12 +12034,12 @@
       <c r="S89" s="5"/>
     </row>
     <row r="90" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="280" t="s">
-        <v>260</v>
-      </c>
-      <c r="C90" s="276"/>
-      <c r="D90" s="276"/>
-      <c r="E90" s="276"/>
+      <c r="B90" s="258" t="s">
+        <v>259</v>
+      </c>
+      <c r="C90" s="254"/>
+      <c r="D90" s="254"/>
+      <c r="E90" s="254"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="9">
@@ -12031,12 +12066,12 @@
       <c r="S90" s="5"/>
     </row>
     <row r="91" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="275" t="s">
+      <c r="B91" s="253" t="s">
         <v>37</v>
       </c>
-      <c r="C91" s="276"/>
-      <c r="D91" s="276"/>
-      <c r="E91" s="276"/>
+      <c r="C91" s="254"/>
+      <c r="D91" s="254"/>
+      <c r="E91" s="254"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5">
@@ -12059,12 +12094,12 @@
       <c r="S91" s="5"/>
     </row>
     <row r="92" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="275" t="s">
+      <c r="B92" s="253" t="s">
         <v>46</v>
       </c>
-      <c r="C92" s="276"/>
-      <c r="D92" s="276"/>
-      <c r="E92" s="276"/>
+      <c r="C92" s="254"/>
+      <c r="D92" s="254"/>
+      <c r="E92" s="254"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5">
@@ -12087,12 +12122,12 @@
       <c r="S92" s="5"/>
     </row>
     <row r="93" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="275" t="s">
-        <v>275</v>
-      </c>
-      <c r="C93" s="276"/>
-      <c r="D93" s="276"/>
-      <c r="E93" s="276"/>
+      <c r="B93" s="253" t="s">
+        <v>274</v>
+      </c>
+      <c r="C93" s="254"/>
+      <c r="D93" s="254"/>
+      <c r="E93" s="254"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5">
@@ -12115,12 +12150,12 @@
       <c r="S93" s="5"/>
     </row>
     <row r="94" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="275" t="s">
-        <v>276</v>
-      </c>
-      <c r="C94" s="276"/>
-      <c r="D94" s="276"/>
-      <c r="E94" s="276"/>
+      <c r="B94" s="253" t="s">
+        <v>275</v>
+      </c>
+      <c r="C94" s="254"/>
+      <c r="D94" s="254"/>
+      <c r="E94" s="254"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5">
@@ -12143,12 +12178,12 @@
       <c r="S94" s="5"/>
     </row>
     <row r="95" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="275" t="s">
+      <c r="B95" s="253" t="s">
         <v>48</v>
       </c>
-      <c r="C95" s="276"/>
-      <c r="D95" s="276"/>
-      <c r="E95" s="276"/>
+      <c r="C95" s="254"/>
+      <c r="D95" s="254"/>
+      <c r="E95" s="254"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5">
@@ -12171,12 +12206,12 @@
       <c r="S95" s="5"/>
     </row>
     <row r="96" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="275" t="s">
-        <v>277</v>
-      </c>
-      <c r="C96" s="276"/>
-      <c r="D96" s="276"/>
-      <c r="E96" s="276"/>
+      <c r="B96" s="253" t="s">
+        <v>276</v>
+      </c>
+      <c r="C96" s="254"/>
+      <c r="D96" s="254"/>
+      <c r="E96" s="254"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5">
@@ -12199,12 +12234,12 @@
       <c r="S96" s="5"/>
     </row>
     <row r="97" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="275" t="s">
-        <v>278</v>
-      </c>
-      <c r="C97" s="276"/>
-      <c r="D97" s="276"/>
-      <c r="E97" s="276"/>
+      <c r="B97" s="253" t="s">
+        <v>277</v>
+      </c>
+      <c r="C97" s="254"/>
+      <c r="D97" s="254"/>
+      <c r="E97" s="254"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5">
@@ -12227,12 +12262,12 @@
       <c r="S97" s="5"/>
     </row>
     <row r="98" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="275" t="s">
-        <v>279</v>
-      </c>
-      <c r="C98" s="276"/>
-      <c r="D98" s="276"/>
-      <c r="E98" s="276"/>
+      <c r="B98" s="253" t="s">
+        <v>278</v>
+      </c>
+      <c r="C98" s="254"/>
+      <c r="D98" s="254"/>
+      <c r="E98" s="254"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5">
@@ -12255,12 +12290,12 @@
       <c r="S98" s="5"/>
     </row>
     <row r="99" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="275" t="s">
-        <v>280</v>
-      </c>
-      <c r="C99" s="276"/>
-      <c r="D99" s="276"/>
-      <c r="E99" s="276"/>
+      <c r="B99" s="253" t="s">
+        <v>279</v>
+      </c>
+      <c r="C99" s="254"/>
+      <c r="D99" s="254"/>
+      <c r="E99" s="254"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5">
@@ -12283,12 +12318,12 @@
       <c r="S99" s="5"/>
     </row>
     <row r="100" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="275" t="s">
-        <v>281</v>
-      </c>
-      <c r="C100" s="276"/>
-      <c r="D100" s="276"/>
-      <c r="E100" s="276"/>
+      <c r="B100" s="253" t="s">
+        <v>280</v>
+      </c>
+      <c r="C100" s="254"/>
+      <c r="D100" s="254"/>
+      <c r="E100" s="254"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5">
@@ -12312,11 +12347,11 @@
     </row>
     <row r="101" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C101" s="281"/>
-      <c r="D101" s="281"/>
-      <c r="E101" s="281"/>
+        <v>260</v>
+      </c>
+      <c r="C101" s="259"/>
+      <c r="D101" s="259"/>
+      <c r="E101" s="259"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4">
@@ -12343,10 +12378,10 @@
       <c r="S101" s="4"/>
     </row>
     <row r="102" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="278"/>
-      <c r="C102" s="276"/>
-      <c r="D102" s="276"/>
-      <c r="E102" s="276"/>
+      <c r="B102" s="256"/>
+      <c r="C102" s="254"/>
+      <c r="D102" s="254"/>
+      <c r="E102" s="254"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
@@ -12361,12 +12396,12 @@
       <c r="S102" s="5"/>
     </row>
     <row r="103" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="280" t="s">
-        <v>262</v>
-      </c>
-      <c r="C103" s="276"/>
-      <c r="D103" s="276"/>
-      <c r="E103" s="276"/>
+      <c r="B103" s="258" t="s">
+        <v>261</v>
+      </c>
+      <c r="C103" s="254"/>
+      <c r="D103" s="254"/>
+      <c r="E103" s="254"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5">
@@ -12389,12 +12424,12 @@
       <c r="S103" s="5"/>
     </row>
     <row r="104" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="280" t="s">
-        <v>263</v>
-      </c>
-      <c r="C104" s="276"/>
-      <c r="D104" s="276"/>
-      <c r="E104" s="276"/>
+      <c r="B104" s="258" t="s">
+        <v>262</v>
+      </c>
+      <c r="C104" s="254"/>
+      <c r="D104" s="254"/>
+      <c r="E104" s="254"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5">
@@ -12417,12 +12452,12 @@
       <c r="S104" s="5"/>
     </row>
     <row r="105" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="280" t="s">
-        <v>264</v>
-      </c>
-      <c r="C105" s="276"/>
-      <c r="D105" s="276"/>
-      <c r="E105" s="276"/>
+      <c r="B105" s="258" t="s">
+        <v>263</v>
+      </c>
+      <c r="C105" s="254"/>
+      <c r="D105" s="254"/>
+      <c r="E105" s="254"/>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5">
@@ -12446,11 +12481,11 @@
     </row>
     <row r="106" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C106" s="281"/>
-      <c r="D106" s="281"/>
-      <c r="E106" s="281"/>
+        <v>264</v>
+      </c>
+      <c r="C106" s="259"/>
+      <c r="D106" s="259"/>
+      <c r="E106" s="259"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4">
@@ -12477,10 +12512,10 @@
       <c r="S106" s="4"/>
     </row>
     <row r="107" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="278"/>
-      <c r="C107" s="276"/>
-      <c r="D107" s="276"/>
-      <c r="E107" s="276"/>
+      <c r="B107" s="256"/>
+      <c r="C107" s="254"/>
+      <c r="D107" s="254"/>
+      <c r="E107" s="254"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
@@ -12495,12 +12530,12 @@
       <c r="S107" s="5"/>
     </row>
     <row r="108" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="280" t="s">
-        <v>266</v>
-      </c>
-      <c r="C108" s="276"/>
-      <c r="D108" s="276"/>
-      <c r="E108" s="276"/>
+      <c r="B108" s="258" t="s">
+        <v>265</v>
+      </c>
+      <c r="C108" s="254"/>
+      <c r="D108" s="254"/>
+      <c r="E108" s="254"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
       <c r="H108" s="5">
@@ -12523,12 +12558,12 @@
       <c r="S108" s="5"/>
     </row>
     <row r="109" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="280" t="s">
-        <v>267</v>
-      </c>
-      <c r="C109" s="276"/>
-      <c r="D109" s="276"/>
-      <c r="E109" s="276"/>
+      <c r="B109" s="258" t="s">
+        <v>266</v>
+      </c>
+      <c r="C109" s="254"/>
+      <c r="D109" s="254"/>
+      <c r="E109" s="254"/>
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5">
@@ -12551,12 +12586,12 @@
       <c r="S109" s="5"/>
     </row>
     <row r="110" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="280" t="s">
-        <v>268</v>
-      </c>
-      <c r="C110" s="276"/>
-      <c r="D110" s="276"/>
-      <c r="E110" s="276"/>
+      <c r="B110" s="258" t="s">
+        <v>267</v>
+      </c>
+      <c r="C110" s="254"/>
+      <c r="D110" s="254"/>
+      <c r="E110" s="254"/>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="H110" s="5">
@@ -12579,12 +12614,12 @@
       <c r="S110" s="5"/>
     </row>
     <row r="111" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="280" t="s">
-        <v>269</v>
-      </c>
-      <c r="C111" s="276"/>
-      <c r="D111" s="276"/>
-      <c r="E111" s="276"/>
+      <c r="B111" s="258" t="s">
+        <v>268</v>
+      </c>
+      <c r="C111" s="254"/>
+      <c r="D111" s="254"/>
+      <c r="E111" s="254"/>
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5">
@@ -12607,12 +12642,12 @@
       <c r="S111" s="5"/>
     </row>
     <row r="112" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="280" t="s">
-        <v>270</v>
-      </c>
-      <c r="C112" s="276"/>
-      <c r="D112" s="276"/>
-      <c r="E112" s="276"/>
+      <c r="B112" s="258" t="s">
+        <v>269</v>
+      </c>
+      <c r="C112" s="254"/>
+      <c r="D112" s="254"/>
+      <c r="E112" s="254"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
       <c r="H112" s="5">
@@ -12635,12 +12670,12 @@
       <c r="S112" s="5"/>
     </row>
     <row r="113" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="280" t="s">
-        <v>271</v>
-      </c>
-      <c r="C113" s="276"/>
-      <c r="D113" s="276"/>
-      <c r="E113" s="276"/>
+      <c r="B113" s="258" t="s">
+        <v>270</v>
+      </c>
+      <c r="C113" s="254"/>
+      <c r="D113" s="254"/>
+      <c r="E113" s="254"/>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="5">
@@ -12664,11 +12699,11 @@
     </row>
     <row r="114" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C114" s="281"/>
-      <c r="D114" s="281"/>
-      <c r="E114" s="281"/>
+        <v>271</v>
+      </c>
+      <c r="C114" s="259"/>
+      <c r="D114" s="259"/>
+      <c r="E114" s="259"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4">
@@ -12694,12 +12729,67 @@
       <c r="R114" s="4"/>
       <c r="S114" s="4"/>
     </row>
-    <row r="116" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B116" s="274"/>
-      <c r="M116" s="282"/>
+    <row r="116" spans="2:19" s="252" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="252" t="s">
+        <v>281</v>
+      </c>
+      <c r="C116" s="260"/>
+      <c r="D116" s="260"/>
+      <c r="E116" s="260"/>
+      <c r="F116" s="261"/>
+      <c r="G116" s="261"/>
+      <c r="H116" s="262">
+        <f>H103</f>
+        <v>-23.234999999999999</v>
+      </c>
+      <c r="I116" s="262">
+        <f>I103</f>
+        <v>-2.9620000000000002</v>
+      </c>
+      <c r="J116" s="261"/>
+      <c r="K116" s="261"/>
+      <c r="L116" s="262">
+        <f>L103</f>
+        <v>-83.811999999999998</v>
+      </c>
+      <c r="M116" s="262">
+        <f>M103</f>
+        <v>-133.35599999999999</v>
+      </c>
+      <c r="N116" s="263"/>
+      <c r="Q116" s="261"/>
+      <c r="R116" s="261"/>
+      <c r="S116" s="261"/>
+    </row>
+    <row r="117" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B117" s="252" t="s">
+        <v>282</v>
+      </c>
+      <c r="H117" s="5">
+        <f>+H101+H106</f>
+        <v>168.01600000000002</v>
+      </c>
+      <c r="I117" s="5">
+        <f>+I101+I106</f>
+        <v>124.91199999999999</v>
+      </c>
+      <c r="L117" s="5">
+        <f>+L101+L106</f>
+        <v>-63.47999999999999</v>
+      </c>
+      <c r="M117" s="5">
+        <f>+M101+M106</f>
+        <v>-67.70599999999996</v>
+      </c>
+    </row>
+    <row r="119" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B119" s="252"/>
+    </row>
+    <row r="120" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B120" s="252"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="L1" r:id="rId1" xr:uid="{F0F1B078-C7E3-AA47-9924-08C1D4511F24}"/>
     <hyperlink ref="M1" r:id="rId2" xr:uid="{9D82E829-DF9B-4456-A9EF-305989A97DF8}"/>
@@ -12720,10 +12810,10 @@
   <dimension ref="A1:AE24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z31" sqref="Z31"/>
+      <selection pane="bottomRight" activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14093,7 +14183,7 @@
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="31"/>
       <c r="B20" s="195" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>33</v>
@@ -14166,7 +14256,7 @@
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
       <c r="B21" s="195" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>33</v>
@@ -14245,7 +14335,7 @@
       <c r="R24" s="109"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
   <ignoredErrors>

--- a/$RBLX.xlsx
+++ b/$RBLX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558D09B3-F6A4-4B55-BBD2-D0B12E82E084}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EFB777-6765-437B-8AB3-7309E1ABC4AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{DB6ABC51-E0DE-6747-8CA5-53C172A4844D}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{DB6ABC51-E0DE-6747-8CA5-53C172A4844D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2026,6 +2026,33 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2044,49 +2071,22 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="172" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="172" fontId="26" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4136,8 +4136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE4A73D-2F46-7341-9C57-6E5B7A39A15C}">
   <dimension ref="B1:AL86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:H7"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4155,36 +4155,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="L1" s="267" t="s">
+      <c r="L1" s="276" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="268"/>
-      <c r="N1" s="268"/>
-      <c r="O1" s="268"/>
-      <c r="P1" s="268"/>
-      <c r="Q1" s="268"/>
-      <c r="R1" s="268"/>
-      <c r="S1" s="268"/>
-      <c r="T1" s="268"/>
-      <c r="U1" s="269"/>
-      <c r="W1" s="270" t="s">
+      <c r="M1" s="277"/>
+      <c r="N1" s="277"/>
+      <c r="O1" s="277"/>
+      <c r="P1" s="277"/>
+      <c r="Q1" s="277"/>
+      <c r="R1" s="277"/>
+      <c r="S1" s="277"/>
+      <c r="T1" s="277"/>
+      <c r="U1" s="278"/>
+      <c r="W1" s="279" t="s">
         <v>127</v>
       </c>
-      <c r="X1" s="271"/>
-      <c r="Y1" s="271"/>
-      <c r="Z1" s="271"/>
-      <c r="AA1" s="271"/>
-      <c r="AB1" s="271"/>
-      <c r="AC1" s="271"/>
-      <c r="AD1" s="271"/>
-      <c r="AE1" s="271"/>
-      <c r="AF1" s="271"/>
-      <c r="AG1" s="271"/>
-      <c r="AH1" s="271"/>
-      <c r="AI1" s="271"/>
-      <c r="AJ1" s="271"/>
-      <c r="AK1" s="271"/>
-      <c r="AL1" s="272"/>
+      <c r="X1" s="280"/>
+      <c r="Y1" s="280"/>
+      <c r="Z1" s="280"/>
+      <c r="AA1" s="280"/>
+      <c r="AB1" s="280"/>
+      <c r="AC1" s="280"/>
+      <c r="AD1" s="280"/>
+      <c r="AE1" s="280"/>
+      <c r="AF1" s="280"/>
+      <c r="AG1" s="280"/>
+      <c r="AH1" s="280"/>
+      <c r="AI1" s="280"/>
+      <c r="AJ1" s="280"/>
+      <c r="AK1" s="280"/>
+      <c r="AL1" s="281"/>
     </row>
     <row r="2" spans="2:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
@@ -4383,16 +4383,16 @@
       </c>
     </row>
     <row r="5" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B5" s="273" t="s">
+      <c r="B5" s="269" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="274"/>
-      <c r="D5" s="275"/>
-      <c r="F5" s="273" t="s">
+      <c r="C5" s="270"/>
+      <c r="D5" s="271"/>
+      <c r="F5" s="269" t="s">
         <v>193</v>
       </c>
-      <c r="G5" s="274"/>
-      <c r="H5" s="275"/>
+      <c r="G5" s="270"/>
+      <c r="H5" s="271"/>
       <c r="K5" s="28" t="s">
         <v>73</v>
       </c>
@@ -4494,16 +4494,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="9">
-        <v>31.68</v>
+        <v>26.16</v>
       </c>
       <c r="D6" s="44"/>
       <c r="F6" s="176" t="s">
         <v>194</v>
       </c>
-      <c r="G6" s="287" t="s">
+      <c r="G6" s="272" t="s">
         <v>284</v>
       </c>
-      <c r="H6" s="279"/>
+      <c r="H6" s="268"/>
       <c r="K6" s="28" t="s">
         <v>74</v>
       </c>
@@ -4608,10 +4608,10 @@
       <c r="F7" s="176" t="s">
         <v>283</v>
       </c>
-      <c r="G7" s="278">
+      <c r="G7" s="273">
         <v>2021</v>
       </c>
-      <c r="H7" s="279"/>
+      <c r="H7" s="268"/>
       <c r="K7" s="28"/>
       <c r="L7" s="60"/>
       <c r="M7" s="60"/>
@@ -4646,16 +4646,16 @@
       </c>
       <c r="C8" s="9">
         <f>C6*C7</f>
-        <v>18937.638719999999</v>
+        <v>15637.898639999999</v>
       </c>
       <c r="D8" s="41"/>
       <c r="F8" s="176" t="s">
         <v>195</v>
       </c>
-      <c r="G8" s="278">
+      <c r="G8" s="273">
         <v>2004</v>
       </c>
-      <c r="H8" s="279"/>
+      <c r="H8" s="268"/>
       <c r="K8" s="28" t="s">
         <v>75</v>
       </c>
@@ -4752,11 +4752,11 @@
       <c r="F9" s="176" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="278">
+      <c r="G9" s="273">
         <f>AL4</f>
         <v>58.8</v>
       </c>
-      <c r="H9" s="279"/>
+      <c r="H9" s="268"/>
       <c r="K9" s="28" t="s">
         <v>77</v>
       </c>
@@ -4865,8 +4865,8 @@
         <v>Q322</v>
       </c>
       <c r="F10" s="176"/>
-      <c r="G10" s="278"/>
-      <c r="H10" s="279"/>
+      <c r="G10" s="273"/>
+      <c r="H10" s="268"/>
       <c r="K10" s="28" t="s">
         <v>78</v>
       </c>
@@ -5001,16 +5001,16 @@
       </c>
       <c r="C12" s="45">
         <f>C8-C9+C10</f>
-        <v>16904.794719999998</v>
+        <v>13605.05464</v>
       </c>
       <c r="D12" s="43"/>
       <c r="F12" s="177" t="s">
         <v>196</v>
       </c>
-      <c r="G12" s="282" t="s">
+      <c r="G12" s="274" t="s">
         <v>197</v>
       </c>
-      <c r="H12" s="283"/>
+      <c r="H12" s="275"/>
       <c r="K12" s="28" t="s">
         <v>76</v>
       </c>
@@ -5282,16 +5282,16 @@
       </c>
     </row>
     <row r="15" spans="2:38" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="273" t="s">
+      <c r="B15" s="269" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="274"/>
-      <c r="D15" s="275"/>
-      <c r="F15" s="273" t="s">
+      <c r="C15" s="270"/>
+      <c r="D15" s="271"/>
+      <c r="F15" s="269" t="s">
         <v>203</v>
       </c>
-      <c r="G15" s="274"/>
-      <c r="H15" s="275"/>
+      <c r="G15" s="270"/>
+      <c r="H15" s="271"/>
       <c r="K15" s="28"/>
       <c r="L15" s="62"/>
       <c r="M15" s="62"/>
@@ -5308,18 +5308,18 @@
       <c r="B16" s="92" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="286" t="s">
+      <c r="C16" s="267" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="279"/>
+      <c r="D16" s="268"/>
       <c r="F16" s="176" t="s">
         <v>204</v>
       </c>
-      <c r="G16" s="280">
+      <c r="G16" s="284">
         <f>C6/'Financial Model'!M64</f>
-        <v>44.601967818517387</v>
-      </c>
-      <c r="H16" s="281"/>
+        <v>36.830412819836326</v>
+      </c>
+      <c r="H16" s="285"/>
       <c r="J16" s="31" t="s">
         <v>86</v>
       </c>
@@ -5405,18 +5405,18 @@
       <c r="B17" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="276" t="s">
+      <c r="C17" s="282" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="277"/>
+      <c r="D17" s="283"/>
       <c r="F17" s="176" t="s">
         <v>213</v>
       </c>
-      <c r="G17" s="280">
+      <c r="G17" s="284">
         <f>C8/'Financial Model'!W3</f>
-        <v>9.8675626321852903</v>
-      </c>
-      <c r="H17" s="281"/>
+        <v>8.1482145977893694</v>
+      </c>
+      <c r="H17" s="285"/>
       <c r="K17" s="28" t="s">
         <v>84</v>
       </c>
@@ -5513,18 +5513,18 @@
       <c r="B18" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="286" t="s">
+      <c r="C18" s="267" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="279"/>
+      <c r="D18" s="268"/>
       <c r="F18" s="176" t="s">
         <v>214</v>
       </c>
-      <c r="G18" s="280">
+      <c r="G18" s="284">
         <f>C6/SUM('Financial Model'!J19:M19)</f>
-        <v>-23.723072493855522</v>
-      </c>
-      <c r="H18" s="281"/>
+        <v>-19.589506832047363</v>
+      </c>
+      <c r="H18" s="285"/>
       <c r="K18" s="28" t="s">
         <v>85</v>
       </c>
@@ -5616,22 +5616,22 @@
     </row>
     <row r="19" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B19" s="90"/>
-      <c r="C19" s="278"/>
-      <c r="D19" s="279"/>
+      <c r="C19" s="273"/>
+      <c r="D19" s="268"/>
       <c r="F19" s="176"/>
-      <c r="G19" s="278"/>
-      <c r="H19" s="279"/>
+      <c r="G19" s="273"/>
+      <c r="H19" s="268"/>
       <c r="K19" s="28"/>
       <c r="L19" s="62"/>
       <c r="M19" s="62"/>
     </row>
     <row r="20" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="91"/>
-      <c r="C20" s="284"/>
-      <c r="D20" s="285"/>
+      <c r="C20" s="286"/>
+      <c r="D20" s="287"/>
       <c r="F20" s="177"/>
-      <c r="G20" s="282"/>
-      <c r="H20" s="283"/>
+      <c r="G20" s="274"/>
+      <c r="H20" s="275"/>
       <c r="J20" s="31"/>
       <c r="K20" s="195" t="s">
         <v>212</v>
@@ -5662,14 +5662,14 @@
       </c>
     </row>
     <row r="23" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B23" s="273" t="s">
+      <c r="B23" s="269" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="274"/>
-      <c r="D23" s="274"/>
-      <c r="E23" s="274"/>
-      <c r="F23" s="274"/>
-      <c r="G23" s="275"/>
+      <c r="C23" s="270"/>
+      <c r="D23" s="270"/>
+      <c r="E23" s="270"/>
+      <c r="F23" s="270"/>
+      <c r="G23" s="271"/>
       <c r="K23" s="195" t="s">
         <v>209</v>
       </c>
@@ -5781,12 +5781,12 @@
       <c r="F31" s="101"/>
       <c r="G31" s="102"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="273" t="s">
+      <c r="K31" s="269" t="s">
         <v>181</v>
       </c>
-      <c r="L31" s="274"/>
-      <c r="M31" s="274"/>
-      <c r="N31" s="275"/>
+      <c r="L31" s="270"/>
+      <c r="M31" s="270"/>
+      <c r="N31" s="271"/>
     </row>
     <row r="32" spans="2:38" x14ac:dyDescent="0.25">
       <c r="J32" s="7"/>
@@ -5798,14 +5798,14 @@
       <c r="N32" s="96"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="273" t="s">
+      <c r="B33" s="269" t="s">
         <v>187</v>
       </c>
-      <c r="C33" s="274"/>
-      <c r="D33" s="274"/>
-      <c r="E33" s="274"/>
-      <c r="F33" s="274"/>
-      <c r="G33" s="275"/>
+      <c r="C33" s="270"/>
+      <c r="D33" s="270"/>
+      <c r="E33" s="270"/>
+      <c r="F33" s="270"/>
+      <c r="G33" s="271"/>
       <c r="J33" s="7"/>
       <c r="K33" s="168" t="s">
         <v>177</v>
@@ -6253,15 +6253,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="G7:H7"/>
     <mergeCell ref="L1:U1"/>
     <mergeCell ref="W1:AL1"/>
     <mergeCell ref="B33:G33"/>
@@ -6278,6 +6269,15 @@
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <hyperlinks>
@@ -6295,11 +6295,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0FDCAC-3416-844A-BCBB-390EC350CF59}">
   <dimension ref="B1:BZ120"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AP22" sqref="AP22"/>
+      <selection pane="bottomRight" activeCell="AO13" sqref="AO13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6327,7 +6327,7 @@
     <col min="45" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="C1" s="2" t="s">
         <v>67</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="2:39" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:43" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C2" s="34">
         <v>43921</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="2:39" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:43" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>18449.130538377864</v>
       </c>
     </row>
-    <row r="4" spans="2:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>34</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>4981.2652453620231</v>
       </c>
     </row>
-    <row r="5" spans="2:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>13467.865293015841</v>
       </c>
     </row>
-    <row r="6" spans="2:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>781.91332536221125</v>
       </c>
     </row>
-    <row r="7" spans="2:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>1443.9393168278707</v>
       </c>
     </row>
-    <row r="8" spans="2:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>879.46507999999994</v>
       </c>
     </row>
-    <row r="9" spans="2:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>21</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>299.58965000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>56.252010406344425</v>
       </c>
     </row>
-    <row r="11" spans="2:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>3461.1593825964264</v>
       </c>
     </row>
-    <row r="12" spans="2:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>10006.705910419414</v>
       </c>
     </row>
-    <row r="13" spans="2:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
@@ -7972,8 +7972,9 @@
         <f t="shared" si="35"/>
         <v>8.2808921658428147</v>
       </c>
-    </row>
-    <row r="14" spans="2:39" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ13" s="35"/>
+    </row>
+    <row r="14" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
         <v>93</v>
       </c>
@@ -8100,7 +8101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="39" t="s">
         <v>92</v>
       </c>
@@ -8229,7 +8230,7 @@
         <v>34.734000000000002</v>
       </c>
     </row>
-    <row r="16" spans="2:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>26</v>
       </c>
@@ -8866,64 +8867,64 @@
         <v>-1.4963621003748881</v>
       </c>
       <c r="Y19" s="35">
-        <f>X19</f>
-        <v>-1.4963621003748881</v>
+        <f>Y18/Y20</f>
+        <v>-1.310981079880692</v>
       </c>
       <c r="Z19" s="35">
-        <f t="shared" ref="Z19:AK19" si="55">Y19</f>
-        <v>-1.4963621003748881</v>
+        <f t="shared" ref="Z19:AM19" si="55">Z18/Z20</f>
+        <v>-0.90054576843072554</v>
       </c>
       <c r="AA19" s="35">
         <f t="shared" si="55"/>
-        <v>-1.4963621003748881</v>
+        <v>-0.42223846276455229</v>
       </c>
       <c r="AB19" s="35">
         <f t="shared" si="55"/>
-        <v>-1.4963621003748881</v>
+        <v>0.1345552582846691</v>
       </c>
       <c r="AC19" s="35">
         <f t="shared" si="55"/>
-        <v>-1.4963621003748881</v>
+        <v>0.78205288794037964</v>
       </c>
       <c r="AD19" s="35">
         <f t="shared" si="55"/>
-        <v>-1.4963621003748881</v>
+        <v>1.5343164632382498</v>
       </c>
       <c r="AE19" s="35">
         <f t="shared" si="55"/>
-        <v>-1.4963621003748881</v>
+        <v>2.4075302837188115</v>
       </c>
       <c r="AF19" s="35">
         <f t="shared" si="55"/>
-        <v>-1.4963621003748881</v>
+        <v>3.420320316608529</v>
       </c>
       <c r="AG19" s="35">
         <f t="shared" si="55"/>
-        <v>-1.4963621003748881</v>
+        <v>4.5941215440386234</v>
       </c>
       <c r="AH19" s="35">
         <f t="shared" si="55"/>
-        <v>-1.4963621003748881</v>
+        <v>5.953600446254856</v>
       </c>
       <c r="AI19" s="35">
         <f t="shared" si="55"/>
-        <v>-1.4963621003748881</v>
+        <v>7.5271408939422981</v>
       </c>
       <c r="AJ19" s="35">
         <f t="shared" si="55"/>
-        <v>-1.4963621003748881</v>
+        <v>9.3474029638423044</v>
       </c>
       <c r="AK19" s="35">
         <f t="shared" si="55"/>
-        <v>-1.4963621003748881</v>
+        <v>11.451965619056729</v>
       </c>
       <c r="AL19" s="35">
-        <f t="shared" ref="AL19:AM19" si="56">AK19</f>
-        <v>-1.4963621003748881</v>
+        <f t="shared" si="55"/>
+        <v>13.884065836742112</v>
       </c>
       <c r="AM19" s="35">
-        <f t="shared" si="56"/>
-        <v>-1.4963621003748881</v>
+        <f t="shared" si="55"/>
+        <v>16.693448653407458</v>
       </c>
     </row>
     <row r="20" spans="2:78" ht="15" x14ac:dyDescent="0.25">
@@ -8995,59 +8996,59 @@
         <v>597.779</v>
       </c>
       <c r="Z20" s="35">
-        <f t="shared" ref="Z20:AK20" si="57">Y20</f>
+        <f t="shared" ref="Z20:AK20" si="56">Y20</f>
         <v>597.779</v>
       </c>
       <c r="AA20" s="35">
+        <f t="shared" si="56"/>
+        <v>597.779</v>
+      </c>
+      <c r="AB20" s="35">
+        <f t="shared" si="56"/>
+        <v>597.779</v>
+      </c>
+      <c r="AC20" s="35">
+        <f t="shared" si="56"/>
+        <v>597.779</v>
+      </c>
+      <c r="AD20" s="35">
+        <f t="shared" si="56"/>
+        <v>597.779</v>
+      </c>
+      <c r="AE20" s="35">
+        <f t="shared" si="56"/>
+        <v>597.779</v>
+      </c>
+      <c r="AF20" s="35">
+        <f t="shared" si="56"/>
+        <v>597.779</v>
+      </c>
+      <c r="AG20" s="35">
+        <f t="shared" si="56"/>
+        <v>597.779</v>
+      </c>
+      <c r="AH20" s="35">
+        <f t="shared" si="56"/>
+        <v>597.779</v>
+      </c>
+      <c r="AI20" s="35">
+        <f t="shared" si="56"/>
+        <v>597.779</v>
+      </c>
+      <c r="AJ20" s="35">
+        <f t="shared" si="56"/>
+        <v>597.779</v>
+      </c>
+      <c r="AK20" s="35">
+        <f t="shared" si="56"/>
+        <v>597.779</v>
+      </c>
+      <c r="AL20" s="35">
+        <f t="shared" ref="AL20:AM20" si="57">AK20</f>
+        <v>597.779</v>
+      </c>
+      <c r="AM20" s="35">
         <f t="shared" si="57"/>
-        <v>597.779</v>
-      </c>
-      <c r="AB20" s="35">
-        <f t="shared" si="57"/>
-        <v>597.779</v>
-      </c>
-      <c r="AC20" s="35">
-        <f t="shared" si="57"/>
-        <v>597.779</v>
-      </c>
-      <c r="AD20" s="35">
-        <f t="shared" si="57"/>
-        <v>597.779</v>
-      </c>
-      <c r="AE20" s="35">
-        <f t="shared" si="57"/>
-        <v>597.779</v>
-      </c>
-      <c r="AF20" s="35">
-        <f t="shared" si="57"/>
-        <v>597.779</v>
-      </c>
-      <c r="AG20" s="35">
-        <f t="shared" si="57"/>
-        <v>597.779</v>
-      </c>
-      <c r="AH20" s="35">
-        <f t="shared" si="57"/>
-        <v>597.779</v>
-      </c>
-      <c r="AI20" s="35">
-        <f t="shared" si="57"/>
-        <v>597.779</v>
-      </c>
-      <c r="AJ20" s="35">
-        <f t="shared" si="57"/>
-        <v>597.779</v>
-      </c>
-      <c r="AK20" s="35">
-        <f t="shared" si="57"/>
-        <v>597.779</v>
-      </c>
-      <c r="AL20" s="35">
-        <f t="shared" ref="AL20:AM20" si="58">AK20</f>
-        <v>597.779</v>
-      </c>
-      <c r="AM20" s="35">
-        <f t="shared" si="58"/>
         <v>597.779</v>
       </c>
     </row>
@@ -9073,51 +9074,51 @@
         <v>16</v>
       </c>
       <c r="C22" s="10">
-        <f t="shared" ref="C22:K22" si="59">C5/C3</f>
+        <f t="shared" ref="C22:K22" si="58">C5/C3</f>
         <v>0.74133193043262979</v>
       </c>
       <c r="D22" s="10">
+        <f t="shared" si="58"/>
+        <v>0.732179927342409</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="58"/>
+        <v>0.73872829616456415</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="58"/>
+        <v>0.74640091094129524</v>
+      </c>
+      <c r="G22" s="10">
+        <f t="shared" si="58"/>
+        <v>0.74691712147523359</v>
+      </c>
+      <c r="H22" s="10">
+        <f t="shared" si="58"/>
+        <v>0.74250165161858617</v>
+      </c>
+      <c r="I22" s="10">
+        <f t="shared" si="58"/>
+        <v>0.74473628410322468</v>
+      </c>
+      <c r="J22" s="10">
+        <f t="shared" si="58"/>
+        <v>0.73277727864915287</v>
+      </c>
+      <c r="K22" s="10">
+        <f t="shared" si="58"/>
+        <v>0.74748945328353822</v>
+      </c>
+      <c r="L22" s="10">
+        <f t="shared" ref="L22:M22" si="59">L5/L3</f>
+        <v>0.75785638532696664</v>
+      </c>
+      <c r="M22" s="10">
         <f t="shared" si="59"/>
-        <v>0.732179927342409</v>
-      </c>
-      <c r="E22" s="10">
-        <f t="shared" si="59"/>
-        <v>0.73872829616456415</v>
-      </c>
-      <c r="F22" s="10">
-        <f t="shared" si="59"/>
-        <v>0.74640091094129524</v>
-      </c>
-      <c r="G22" s="10">
-        <f t="shared" si="59"/>
-        <v>0.74691712147523359</v>
-      </c>
-      <c r="H22" s="10">
-        <f t="shared" si="59"/>
-        <v>0.74250165161858617</v>
-      </c>
-      <c r="I22" s="10">
-        <f t="shared" si="59"/>
-        <v>0.74473628410322468</v>
-      </c>
-      <c r="J22" s="10">
-        <f t="shared" si="59"/>
-        <v>0.73277727864915287</v>
-      </c>
-      <c r="K22" s="10">
-        <f t="shared" si="59"/>
-        <v>0.74748945328353822</v>
-      </c>
-      <c r="L22" s="10">
-        <f t="shared" ref="L22:M22" si="60">L5/L3</f>
-        <v>0.75785638532696664</v>
-      </c>
-      <c r="M22" s="10">
-        <f t="shared" si="60"/>
         <v>0.75577498469211346</v>
       </c>
       <c r="N22" s="121">
-        <f t="shared" ref="N22" si="61">N5/N3</f>
+        <f t="shared" ref="N22" si="60">N5/N3</f>
         <v>0.76</v>
       </c>
       <c r="O22" s="10"/>
@@ -9130,7 +9131,7 @@
         <v>0.74</v>
       </c>
       <c r="S22" s="79">
-        <f t="shared" ref="S22" si="62">S5/S3</f>
+        <f t="shared" ref="S22" si="61">S5/S3</f>
         <v>0.74</v>
       </c>
       <c r="V22" s="10">
@@ -9142,67 +9143,67 @@
         <v>0.74110310596030293</v>
       </c>
       <c r="X22" s="121">
-        <f t="shared" ref="X22:AK22" si="63">X5/X3</f>
+        <f t="shared" ref="X22:AK22" si="62">X5/X3</f>
         <v>0.7738727719939924</v>
       </c>
       <c r="Y22" s="10">
+        <f t="shared" si="62"/>
+        <v>0.73</v>
+      </c>
+      <c r="Z22" s="10">
+        <f t="shared" si="62"/>
+        <v>0.72999999999999987</v>
+      </c>
+      <c r="AA22" s="10">
+        <f t="shared" si="62"/>
+        <v>0.73</v>
+      </c>
+      <c r="AB22" s="10">
+        <f t="shared" si="62"/>
+        <v>0.73</v>
+      </c>
+      <c r="AC22" s="10">
+        <f t="shared" si="62"/>
+        <v>0.73</v>
+      </c>
+      <c r="AD22" s="10">
+        <f t="shared" si="62"/>
+        <v>0.73</v>
+      </c>
+      <c r="AE22" s="10">
+        <f t="shared" si="62"/>
+        <v>0.73</v>
+      </c>
+      <c r="AF22" s="10">
+        <f t="shared" si="62"/>
+        <v>0.73000000000000009</v>
+      </c>
+      <c r="AG22" s="10">
+        <f t="shared" si="62"/>
+        <v>0.73</v>
+      </c>
+      <c r="AH22" s="10">
+        <f t="shared" si="62"/>
+        <v>0.73</v>
+      </c>
+      <c r="AI22" s="10">
+        <f t="shared" si="62"/>
+        <v>0.73</v>
+      </c>
+      <c r="AJ22" s="10">
+        <f t="shared" si="62"/>
+        <v>0.73</v>
+      </c>
+      <c r="AK22" s="10">
+        <f t="shared" si="62"/>
+        <v>0.72999999999999987</v>
+      </c>
+      <c r="AL22" s="10">
+        <f t="shared" ref="AL22:AM22" si="63">AL5/AL3</f>
+        <v>0.73</v>
+      </c>
+      <c r="AM22" s="10">
         <f t="shared" si="63"/>
-        <v>0.73</v>
-      </c>
-      <c r="Z22" s="10">
-        <f t="shared" si="63"/>
-        <v>0.72999999999999987</v>
-      </c>
-      <c r="AA22" s="10">
-        <f t="shared" si="63"/>
-        <v>0.73</v>
-      </c>
-      <c r="AB22" s="10">
-        <f t="shared" si="63"/>
-        <v>0.73</v>
-      </c>
-      <c r="AC22" s="10">
-        <f t="shared" si="63"/>
-        <v>0.73</v>
-      </c>
-      <c r="AD22" s="10">
-        <f t="shared" si="63"/>
-        <v>0.73</v>
-      </c>
-      <c r="AE22" s="10">
-        <f t="shared" si="63"/>
-        <v>0.73</v>
-      </c>
-      <c r="AF22" s="10">
-        <f t="shared" si="63"/>
-        <v>0.73000000000000009</v>
-      </c>
-      <c r="AG22" s="10">
-        <f t="shared" si="63"/>
-        <v>0.73</v>
-      </c>
-      <c r="AH22" s="10">
-        <f t="shared" si="63"/>
-        <v>0.73</v>
-      </c>
-      <c r="AI22" s="10">
-        <f t="shared" si="63"/>
-        <v>0.73</v>
-      </c>
-      <c r="AJ22" s="10">
-        <f t="shared" si="63"/>
-        <v>0.73</v>
-      </c>
-      <c r="AK22" s="10">
-        <f t="shared" si="63"/>
-        <v>0.72999999999999987</v>
-      </c>
-      <c r="AL22" s="10">
-        <f t="shared" ref="AL22:AM22" si="64">AL5/AL3</f>
-        <v>0.73</v>
-      </c>
-      <c r="AM22" s="10">
-        <f t="shared" si="64"/>
         <v>0.73</v>
       </c>
       <c r="AO22" s="141" t="s">
@@ -9218,51 +9219,51 @@
         <v>24</v>
       </c>
       <c r="C23" s="10">
-        <f t="shared" ref="C23:J23" si="65">C12/C3</f>
+        <f t="shared" ref="C23:J23" si="64">C12/C3</f>
         <v>-0.45160611499659598</v>
       </c>
       <c r="D23" s="10">
+        <f t="shared" si="64"/>
+        <v>-0.36451554952293502</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" si="64"/>
+        <v>-0.20450629976896878</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" si="64"/>
+        <v>-0.22130647819901991</v>
+      </c>
+      <c r="G23" s="10">
+        <f t="shared" si="64"/>
+        <v>-0.3490035557760689</v>
+      </c>
+      <c r="H23" s="10">
+        <f t="shared" si="64"/>
+        <v>-0.31478969390002193</v>
+      </c>
+      <c r="I23" s="10">
+        <f t="shared" si="64"/>
+        <v>-0.15205286883314742</v>
+      </c>
+      <c r="J23" s="14">
+        <f t="shared" si="64"/>
+        <v>-0.24553025920892319</v>
+      </c>
+      <c r="K23" s="14">
+        <f t="shared" ref="K23:L23" si="65">K12/K3</f>
+        <v>-0.28225917555023522</v>
+      </c>
+      <c r="L23" s="14">
         <f t="shared" si="65"/>
-        <v>-0.36451554952293502</v>
-      </c>
-      <c r="E23" s="10">
-        <f t="shared" si="65"/>
-        <v>-0.20450629976896878</v>
-      </c>
-      <c r="F23" s="10">
-        <f t="shared" si="65"/>
-        <v>-0.22130647819901991</v>
-      </c>
-      <c r="G23" s="10">
-        <f t="shared" si="65"/>
-        <v>-0.3490035557760689</v>
-      </c>
-      <c r="H23" s="10">
-        <f t="shared" si="65"/>
-        <v>-0.31478969390002193</v>
-      </c>
-      <c r="I23" s="10">
-        <f t="shared" si="65"/>
-        <v>-0.15205286883314742</v>
-      </c>
-      <c r="J23" s="14">
-        <f t="shared" si="65"/>
-        <v>-0.24553025920892319</v>
-      </c>
-      <c r="K23" s="14">
-        <f t="shared" ref="K23:L23" si="66">K12/K3</f>
-        <v>-0.28225917555023522</v>
-      </c>
-      <c r="L23" s="14">
-        <f t="shared" si="66"/>
         <v>-0.2879989580637578</v>
       </c>
       <c r="M23" s="14">
-        <f t="shared" ref="M23" si="67">M12/M3</f>
+        <f t="shared" ref="M23" si="66">M12/M3</f>
         <v>-0.5794918747476856</v>
       </c>
       <c r="N23" s="122">
-        <f t="shared" ref="N23" si="68">N12/N3</f>
+        <f t="shared" ref="N23" si="67">N12/N3</f>
         <v>-0.45970540286300937</v>
       </c>
       <c r="O23" s="14"/>
@@ -9275,7 +9276,7 @@
         <v>-0.31959466683854248</v>
       </c>
       <c r="S23" s="80">
-        <f t="shared" ref="S23" si="69">S12/S3</f>
+        <f t="shared" ref="S23" si="68">S12/S3</f>
         <v>-0.20020035171753023</v>
       </c>
       <c r="V23" s="14">
@@ -9287,67 +9288,67 @@
         <v>-0.25797358352338834</v>
       </c>
       <c r="X23" s="122">
-        <f t="shared" ref="X23:AK23" si="70">X12/X3</f>
+        <f t="shared" ref="X23:AK23" si="69">X12/X3</f>
         <v>-0.38188570316611464</v>
       </c>
       <c r="Y23" s="14">
+        <f t="shared" si="69"/>
+        <v>-0.28959600746241793</v>
+      </c>
+      <c r="Z23" s="14">
+        <f t="shared" si="69"/>
+        <v>-0.17001824714292979</v>
+      </c>
+      <c r="AA23" s="14">
+        <f t="shared" si="69"/>
+        <v>-6.4941842159973007E-2</v>
+      </c>
+      <c r="AB23" s="14">
+        <f t="shared" si="69"/>
+        <v>2.7447148547194638E-2</v>
+      </c>
+      <c r="AC23" s="14">
+        <f t="shared" si="69"/>
+        <v>0.1087290808075289</v>
+      </c>
+      <c r="AD23" s="14">
+        <f t="shared" si="69"/>
+        <v>0.18028165404145161</v>
+      </c>
+      <c r="AE23" s="14">
+        <f t="shared" si="69"/>
+        <v>0.24330663113640785</v>
+      </c>
+      <c r="AF23" s="14">
+        <f t="shared" si="69"/>
+        <v>0.29885293801871821</v>
+      </c>
+      <c r="AG23" s="14">
+        <f t="shared" si="69"/>
+        <v>0.34783664696336214</v>
+      </c>
+      <c r="AH23" s="14">
+        <f t="shared" si="69"/>
+        <v>0.39105827557143741</v>
+      </c>
+      <c r="AI23" s="14">
+        <f t="shared" si="69"/>
+        <v>0.42921777183136961</v>
+      </c>
+      <c r="AJ23" s="14">
+        <f t="shared" si="69"/>
+        <v>0.46292750316590264</v>
+      </c>
+      <c r="AK23" s="14">
+        <f t="shared" si="69"/>
+        <v>0.49272352250092638</v>
+      </c>
+      <c r="AL23" s="14">
+        <f t="shared" ref="AL23:AM23" si="70">AL12/AL3</f>
+        <v>0.51907534603079397</v>
+      </c>
+      <c r="AM23" s="14">
         <f t="shared" si="70"/>
-        <v>-0.28959600746241793</v>
-      </c>
-      <c r="Z23" s="14">
-        <f t="shared" si="70"/>
-        <v>-0.17001824714292979</v>
-      </c>
-      <c r="AA23" s="14">
-        <f t="shared" si="70"/>
-        <v>-6.4941842159973007E-2</v>
-      </c>
-      <c r="AB23" s="14">
-        <f t="shared" si="70"/>
-        <v>2.7447148547194638E-2</v>
-      </c>
-      <c r="AC23" s="14">
-        <f t="shared" si="70"/>
-        <v>0.1087290808075289</v>
-      </c>
-      <c r="AD23" s="14">
-        <f t="shared" si="70"/>
-        <v>0.18028165404145161</v>
-      </c>
-      <c r="AE23" s="14">
-        <f t="shared" si="70"/>
-        <v>0.24330663113640785</v>
-      </c>
-      <c r="AF23" s="14">
-        <f t="shared" si="70"/>
-        <v>0.29885293801871821</v>
-      </c>
-      <c r="AG23" s="14">
-        <f t="shared" si="70"/>
-        <v>0.34783664696336214</v>
-      </c>
-      <c r="AH23" s="14">
-        <f t="shared" si="70"/>
-        <v>0.39105827557143741</v>
-      </c>
-      <c r="AI23" s="14">
-        <f t="shared" si="70"/>
-        <v>0.42921777183136961</v>
-      </c>
-      <c r="AJ23" s="14">
-        <f t="shared" si="70"/>
-        <v>0.46292750316590264</v>
-      </c>
-      <c r="AK23" s="14">
-        <f t="shared" si="70"/>
-        <v>0.49272352250092638</v>
-      </c>
-      <c r="AL23" s="14">
-        <f t="shared" ref="AL23:AM23" si="71">AL12/AL3</f>
-        <v>0.51907534603079397</v>
-      </c>
-      <c r="AM23" s="14">
-        <f t="shared" si="71"/>
         <v>0.54239444452970154</v>
       </c>
       <c r="AO23" s="141" t="s">
@@ -9364,51 +9365,51 @@
         <v>29</v>
       </c>
       <c r="C24" s="10">
-        <f t="shared" ref="C24:J24" si="72">C18/C3</f>
+        <f t="shared" ref="C24:J24" si="71">C18/C3</f>
         <v>-0.4634338057807762</v>
       </c>
       <c r="D24" s="10">
+        <f t="shared" si="71"/>
+        <v>-0.36060820791249149</v>
+      </c>
+      <c r="E24" s="10">
+        <f t="shared" si="71"/>
+        <v>-0.1985360083202998</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" si="71"/>
+        <v>-0.19527497588779671</v>
+      </c>
+      <c r="G24" s="10">
+        <f t="shared" si="71"/>
+        <v>-0.35170914992144231</v>
+      </c>
+      <c r="H24" s="10">
+        <f t="shared" si="71"/>
+        <v>-0.3147764809513322</v>
+      </c>
+      <c r="I24" s="10">
+        <f t="shared" si="71"/>
+        <v>-0.15155025366359329</v>
+      </c>
+      <c r="J24" s="10">
+        <f t="shared" si="71"/>
+        <v>-0.2589047574674429</v>
+      </c>
+      <c r="K24" s="10">
+        <f t="shared" ref="K24:L24" si="72">K18/K3</f>
+        <v>-0.30161188828113661</v>
+      </c>
+      <c r="L24" s="10">
         <f t="shared" si="72"/>
-        <v>-0.36060820791249149</v>
-      </c>
-      <c r="E24" s="10">
-        <f t="shared" si="72"/>
-        <v>-0.1985360083202998</v>
-      </c>
-      <c r="F24" s="10">
-        <f t="shared" si="72"/>
-        <v>-0.19527497588779671</v>
-      </c>
-      <c r="G24" s="10">
-        <f t="shared" si="72"/>
-        <v>-0.35170914992144231</v>
-      </c>
-      <c r="H24" s="10">
-        <f t="shared" si="72"/>
-        <v>-0.3147764809513322</v>
-      </c>
-      <c r="I24" s="10">
-        <f t="shared" si="72"/>
-        <v>-0.15155025366359329</v>
-      </c>
-      <c r="J24" s="10">
-        <f t="shared" si="72"/>
-        <v>-0.2589047574674429</v>
-      </c>
-      <c r="K24" s="10">
-        <f t="shared" ref="K24:L24" si="73">K18/K3</f>
-        <v>-0.30161188828113661</v>
-      </c>
-      <c r="L24" s="10">
-        <f t="shared" si="73"/>
         <v>-0.30326095597650232</v>
       </c>
       <c r="M24" s="10">
-        <f t="shared" ref="M24" si="74">M18/M3</f>
+        <f t="shared" ref="M24" si="73">M18/M3</f>
         <v>-0.5831522463478378</v>
       </c>
       <c r="N24" s="121">
-        <f t="shared" ref="N24" si="75">N18/N3</f>
+        <f t="shared" ref="N24" si="74">N18/N3</f>
         <v>-0.47146359813562494</v>
       </c>
       <c r="O24" s="10"/>
@@ -9421,7 +9422,7 @@
         <v>-0.32004473066532035</v>
       </c>
       <c r="S24" s="79">
-        <f t="shared" ref="S24" si="76">S18/S3</f>
+        <f t="shared" ref="S24" si="75">S18/S3</f>
         <v>-0.20180364211915114</v>
       </c>
       <c r="V24" s="10">
@@ -9433,67 +9434,67 @@
         <v>-0.26234628208595223</v>
       </c>
       <c r="X24" s="121">
-        <f t="shared" ref="X24:AK24" si="77">X18/X3</f>
+        <f t="shared" ref="X24:AK24" si="76">X18/X3</f>
         <v>-0.39452002834741873</v>
       </c>
       <c r="Y24" s="10">
+        <f t="shared" si="76"/>
+        <v>-0.30055983204221265</v>
+      </c>
+      <c r="Z24" s="10">
+        <f t="shared" si="76"/>
+        <v>-0.1795322463390791</v>
+      </c>
+      <c r="AA24" s="10">
+        <f t="shared" si="76"/>
+        <v>-7.3197563723160053E-2</v>
+      </c>
+      <c r="AB24" s="10">
+        <f t="shared" si="76"/>
+        <v>2.0283442653816156E-2</v>
+      </c>
+      <c r="AC24" s="10">
+        <f t="shared" si="76"/>
+        <v>0.10251307905834396</v>
+      </c>
+      <c r="AD24" s="10">
+        <f t="shared" si="76"/>
+        <v>0.17488809963790353</v>
+      </c>
+      <c r="AE24" s="10">
+        <f t="shared" si="76"/>
+        <v>0.23862680802450256</v>
+      </c>
+      <c r="AF24" s="10">
+        <f t="shared" si="76"/>
+        <v>0.29479248834670668</v>
+      </c>
+      <c r="AG24" s="10">
+        <f t="shared" si="76"/>
+        <v>0.34431367631246718</v>
+      </c>
+      <c r="AH24" s="10">
+        <f t="shared" si="76"/>
+        <v>0.38800170804201667</v>
+      </c>
+      <c r="AI24" s="10">
+        <f t="shared" si="76"/>
+        <v>0.42656592205984878</v>
+      </c>
+      <c r="AJ24" s="10">
+        <f t="shared" si="76"/>
+        <v>0.46062683668367971</v>
+      </c>
+      <c r="AK24" s="10">
+        <f t="shared" si="76"/>
+        <v>0.49072757961165897</v>
+      </c>
+      <c r="AL24" s="10">
+        <f t="shared" ref="AL24:AM24" si="77">AL18/AL3</f>
+        <v>0.51734380765210541</v>
+      </c>
+      <c r="AM24" s="10">
         <f t="shared" si="77"/>
-        <v>-0.30055983204221265</v>
-      </c>
-      <c r="Z24" s="10">
-        <f t="shared" si="77"/>
-        <v>-0.1795322463390791</v>
-      </c>
-      <c r="AA24" s="10">
-        <f t="shared" si="77"/>
-        <v>-7.3197563723160053E-2</v>
-      </c>
-      <c r="AB24" s="10">
-        <f t="shared" si="77"/>
-        <v>2.0283442653816156E-2</v>
-      </c>
-      <c r="AC24" s="10">
-        <f t="shared" si="77"/>
-        <v>0.10251307905834396</v>
-      </c>
-      <c r="AD24" s="10">
-        <f t="shared" si="77"/>
-        <v>0.17488809963790353</v>
-      </c>
-      <c r="AE24" s="10">
-        <f t="shared" si="77"/>
-        <v>0.23862680802450256</v>
-      </c>
-      <c r="AF24" s="10">
-        <f t="shared" si="77"/>
-        <v>0.29479248834670668</v>
-      </c>
-      <c r="AG24" s="10">
-        <f t="shared" si="77"/>
-        <v>0.34431367631246718</v>
-      </c>
-      <c r="AH24" s="10">
-        <f t="shared" si="77"/>
-        <v>0.38800170804201667</v>
-      </c>
-      <c r="AI24" s="10">
-        <f t="shared" si="77"/>
-        <v>0.42656592205984878</v>
-      </c>
-      <c r="AJ24" s="10">
-        <f t="shared" si="77"/>
-        <v>0.46062683668367971</v>
-      </c>
-      <c r="AK24" s="10">
-        <f t="shared" si="77"/>
-        <v>0.49072757961165897</v>
-      </c>
-      <c r="AL24" s="10">
-        <f t="shared" ref="AL24:AM24" si="78">AL18/AL3</f>
-        <v>0.51734380765210541</v>
-      </c>
-      <c r="AM24" s="10">
-        <f t="shared" si="78"/>
         <v>0.54089232128457032</v>
       </c>
       <c r="AO24" s="141" t="s">
@@ -9509,51 +9510,51 @@
         <v>30</v>
       </c>
       <c r="C25" s="10">
-        <f t="shared" ref="C25:J25" si="79">C17/C16</f>
+        <f t="shared" ref="C25:J25" si="78">C17/C16</f>
         <v>-1.3355414284951119E-5</v>
       </c>
       <c r="D25" s="10">
+        <f t="shared" si="78"/>
+        <v>-6.9196490354009248E-5</v>
+      </c>
+      <c r="E25" s="10">
+        <f t="shared" si="78"/>
+        <v>-3.8003800380038001E-4</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="78"/>
+        <v>9.9393019726858919E-2</v>
+      </c>
+      <c r="G25" s="10">
+        <f t="shared" si="78"/>
+        <v>-1.4694969177302145E-5</v>
+      </c>
+      <c r="H25" s="10">
+        <f t="shared" si="78"/>
+        <v>-1.3993842709207952E-4</v>
+      </c>
+      <c r="I25" s="10">
+        <f t="shared" si="78"/>
+        <v>1.2764107024095776E-2</v>
+      </c>
+      <c r="J25" s="10">
+        <f t="shared" si="78"/>
+        <v>-4.4747307317139712E-3</v>
+      </c>
+      <c r="K25" s="10">
+        <f t="shared" ref="K25:L25" si="79">K17/K16</f>
+        <v>-1.7065479502875161E-3</v>
+      </c>
+      <c r="L25" s="10">
         <f t="shared" si="79"/>
-        <v>-6.9196490354009248E-5</v>
-      </c>
-      <c r="E25" s="10">
-        <f t="shared" si="79"/>
-        <v>-3.8003800380038001E-4</v>
-      </c>
-      <c r="F25" s="10">
-        <f t="shared" si="79"/>
-        <v>9.9393019726858919E-2</v>
-      </c>
-      <c r="G25" s="10">
-        <f t="shared" si="79"/>
-        <v>-1.4694969177302145E-5</v>
-      </c>
-      <c r="H25" s="10">
-        <f t="shared" si="79"/>
-        <v>-1.3993842709207952E-4</v>
-      </c>
-      <c r="I25" s="10">
-        <f t="shared" si="79"/>
-        <v>1.2764107024095776E-2</v>
-      </c>
-      <c r="J25" s="10">
-        <f t="shared" si="79"/>
-        <v>-4.4747307317139712E-3</v>
-      </c>
-      <c r="K25" s="10">
-        <f t="shared" ref="K25:L25" si="80">K17/K16</f>
-        <v>-1.7065479502875161E-3</v>
-      </c>
-      <c r="L25" s="10">
-        <f t="shared" si="80"/>
         <v>-1.5529685160771344E-3</v>
       </c>
       <c r="M25" s="10">
-        <f t="shared" ref="M25" si="81">M17/M16</f>
+        <f t="shared" ref="M25" si="80">M17/M16</f>
         <v>-1.1673022715967497E-3</v>
       </c>
       <c r="N25" s="121">
-        <f t="shared" ref="N25" si="82">N17/N16</f>
+        <f t="shared" ref="N25" si="81">N17/N16</f>
         <v>-1.209261242904384E-3</v>
       </c>
       <c r="O25" s="10"/>
@@ -9566,7 +9567,7 @@
         <v>-1.554111834331342E-3</v>
       </c>
       <c r="S25" s="79">
-        <f t="shared" ref="S25" si="83">S17/S16</f>
+        <f t="shared" ref="S25" si="82">S17/S16</f>
         <v>-2.1744084525061108E-3</v>
       </c>
       <c r="V25" s="10">
@@ -9578,67 +9579,67 @@
         <v>6.3516008018896014E-4</v>
       </c>
       <c r="X25" s="121">
-        <f t="shared" ref="X25:AK25" si="84">X17/X16</f>
+        <f t="shared" ref="X25:AK25" si="83">X17/X16</f>
         <v>-1.4103357990998279E-3</v>
       </c>
       <c r="Y25" s="10">
+        <f t="shared" si="83"/>
+        <v>-1.6100873059674448E-3</v>
+      </c>
+      <c r="Z25" s="10">
+        <f t="shared" si="83"/>
+        <v>-2.3456265580359351E-3</v>
+      </c>
+      <c r="AA25" s="10">
+        <f t="shared" si="83"/>
+        <v>-5.016055909492151E-3</v>
+      </c>
+      <c r="AB25" s="10">
+        <f t="shared" si="83"/>
+        <v>1.5420458728731032E-2</v>
+      </c>
+      <c r="AC25" s="10">
+        <f t="shared" si="83"/>
+        <v>2.6874618947828328E-3</v>
+      </c>
+      <c r="AD25" s="10">
+        <f t="shared" si="83"/>
+        <v>1.3716272864823633E-3</v>
+      </c>
+      <c r="AE25" s="10">
+        <f t="shared" si="83"/>
+        <v>8.7457168731402404E-4</v>
+      </c>
+      <c r="AF25" s="10">
+        <f t="shared" si="83"/>
+        <v>6.1576198815546028E-4</v>
+      </c>
+      <c r="AG25" s="10">
+        <f t="shared" si="83"/>
+        <v>4.5850651064094529E-4</v>
+      </c>
+      <c r="AH25" s="10">
+        <f t="shared" si="83"/>
+        <v>3.5384557969159078E-4</v>
+      </c>
+      <c r="AI25" s="10">
+        <f t="shared" si="83"/>
+        <v>2.7989525821502803E-4</v>
+      </c>
+      <c r="AJ25" s="10">
+        <f t="shared" si="83"/>
+        <v>2.2540227385563119E-4</v>
+      </c>
+      <c r="AK25" s="10">
+        <f t="shared" si="83"/>
+        <v>1.8398703168538805E-4</v>
+      </c>
+      <c r="AL25" s="10">
+        <f t="shared" ref="AL25:AM25" si="84">AL17/AL16</f>
+        <v>1.5176253814382239E-4</v>
+      </c>
+      <c r="AM25" s="10">
         <f t="shared" si="84"/>
-        <v>-1.6100873059674448E-3</v>
-      </c>
-      <c r="Z25" s="10">
-        <f t="shared" si="84"/>
-        <v>-2.3456265580359351E-3</v>
-      </c>
-      <c r="AA25" s="10">
-        <f t="shared" si="84"/>
-        <v>-5.016055909492151E-3</v>
-      </c>
-      <c r="AB25" s="10">
-        <f t="shared" si="84"/>
-        <v>1.5420458728731032E-2</v>
-      </c>
-      <c r="AC25" s="10">
-        <f t="shared" si="84"/>
-        <v>2.6874618947828328E-3</v>
-      </c>
-      <c r="AD25" s="10">
-        <f t="shared" si="84"/>
-        <v>1.3716272864823633E-3</v>
-      </c>
-      <c r="AE25" s="10">
-        <f t="shared" si="84"/>
-        <v>8.7457168731402404E-4</v>
-      </c>
-      <c r="AF25" s="10">
-        <f t="shared" si="84"/>
-        <v>6.1576198815546028E-4</v>
-      </c>
-      <c r="AG25" s="10">
-        <f t="shared" si="84"/>
-        <v>4.5850651064094529E-4</v>
-      </c>
-      <c r="AH25" s="10">
-        <f t="shared" si="84"/>
-        <v>3.5384557969159078E-4</v>
-      </c>
-      <c r="AI25" s="10">
-        <f t="shared" si="84"/>
-        <v>2.7989525821502803E-4</v>
-      </c>
-      <c r="AJ25" s="10">
-        <f t="shared" si="84"/>
-        <v>2.2540227385563119E-4</v>
-      </c>
-      <c r="AK25" s="10">
-        <f t="shared" si="84"/>
-        <v>1.8398703168538805E-4</v>
-      </c>
-      <c r="AL25" s="10">
-        <f t="shared" ref="AL25:AM25" si="85">AL17/AL16</f>
-        <v>1.5176253814382239E-4</v>
-      </c>
-      <c r="AM25" s="10">
-        <f t="shared" si="85"/>
         <v>1.2622525951183072E-4</v>
       </c>
       <c r="AO25" s="141" t="s">
@@ -9676,43 +9677,43 @@
         <v>33</v>
       </c>
       <c r="D27" s="10">
-        <f t="shared" ref="D27:L27" si="86">D3/C3-1</f>
+        <f t="shared" ref="D27:L27" si="85">D3/C3-1</f>
         <v>0.24027975490499487</v>
       </c>
       <c r="E27" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>0.25710607209868663</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>0.23061441603086785</v>
       </c>
       <c r="G27" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>0.24827343722279016</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>0.17345778549574131</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>0.12163840563752482</v>
       </c>
       <c r="J27" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>0.11668721629729695</v>
       </c>
       <c r="K27" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>-5.5620119943245783E-2</v>
       </c>
       <c r="L27" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>0.10066947912438984</v>
       </c>
       <c r="M27" s="10">
-        <f t="shared" ref="M27" si="87">M3/L3-1</f>
+        <f t="shared" ref="M27" si="86">M3/L3-1</f>
         <v>-0.12432193800141067</v>
       </c>
       <c r="N27" s="121">
@@ -9744,7 +9745,7 @@
       </c>
       <c r="AP27" s="138">
         <f>Main!C6</f>
-        <v>31.68</v>
+        <v>26.16</v>
       </c>
     </row>
     <row r="28" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -9764,31 +9765,31 @@
         <v>33</v>
       </c>
       <c r="G28" s="13">
-        <f t="shared" ref="G28:L28" si="88">G3/C3-1</f>
+        <f t="shared" ref="G28:L28" si="87">G3/C3-1</f>
         <v>1.3950980998947826</v>
       </c>
       <c r="H28" s="13">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>1.2660585252904308</v>
       </c>
       <c r="I28" s="13">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>1.0218646045872801</v>
       </c>
       <c r="J28" s="13">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>0.83468544461612404</v>
       </c>
       <c r="K28" s="13">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>0.38802923178698423</v>
       </c>
       <c r="L28" s="13">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>0.3019312926668134</v>
       </c>
       <c r="M28" s="13">
-        <f t="shared" ref="M28" si="89">M3/I3-1</f>
+        <f t="shared" ref="M28" si="88">M3/I3-1</f>
         <v>1.6435123376317362E-2</v>
       </c>
       <c r="N28" s="123">
@@ -9814,75 +9815,75 @@
         <v>1.0772942519902369</v>
       </c>
       <c r="X28" s="123">
-        <f t="shared" ref="X28:AK28" si="90">X3/W3-1</f>
+        <f t="shared" ref="X28:AK28" si="89">X3/W3-1</f>
         <v>0.1813874772624362</v>
       </c>
       <c r="Y28" s="13">
+        <f t="shared" si="89"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="Z28" s="13">
+        <f t="shared" si="89"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AA28" s="13">
+        <f t="shared" si="89"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AB28" s="13">
+        <f t="shared" si="89"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AC28" s="13">
+        <f t="shared" si="89"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AD28" s="13">
+        <f t="shared" si="89"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AE28" s="13">
+        <f t="shared" si="89"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AF28" s="13">
+        <f t="shared" si="89"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AG28" s="13">
+        <f t="shared" si="89"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AH28" s="13">
+        <f t="shared" si="89"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AI28" s="13">
+        <f t="shared" si="89"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AJ28" s="13">
+        <f t="shared" si="89"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AK28" s="13">
+        <f t="shared" si="89"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AL28" s="13">
+        <f t="shared" ref="AL28:AM28" si="90">AL3/AK3-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AM28" s="13">
         <f t="shared" si="90"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="Z28" s="13">
-        <f t="shared" si="90"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AA28" s="13">
-        <f t="shared" si="90"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AB28" s="13">
-        <f t="shared" si="90"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AC28" s="13">
-        <f t="shared" si="90"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AD28" s="13">
-        <f t="shared" si="90"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AE28" s="13">
-        <f t="shared" si="90"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AF28" s="13">
-        <f t="shared" si="90"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AG28" s="13">
-        <f t="shared" si="90"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AH28" s="13">
-        <f t="shared" si="90"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AI28" s="13">
-        <f t="shared" si="90"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AJ28" s="13">
-        <f t="shared" si="90"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AK28" s="13">
-        <f t="shared" si="90"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AL28" s="13">
-        <f t="shared" ref="AL28:AM28" si="91">AL3/AK3-1</f>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AM28" s="13">
-        <f t="shared" si="91"/>
-        <v>0.14999999999999991</v>
-      </c>
       <c r="AO28" s="143" t="s">
         <v>120</v>
       </c>
       <c r="AP28" s="139">
         <f>AP26/AP27-1</f>
-        <v>1.0887437982290269</v>
+        <v>1.5294879024424914</v>
       </c>
     </row>
     <row r="29" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -9929,35 +9930,35 @@
         <v>33</v>
       </c>
       <c r="D30" s="213">
-        <f t="shared" ref="D30:K30" si="92">D8/C8-1</f>
+        <f t="shared" ref="D30:K30" si="91">D8/C8-1</f>
         <v>-0.18539132546702008</v>
       </c>
       <c r="E30" s="213">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>0.28470272553355347</v>
       </c>
       <c r="F30" s="213">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>0.16165777055774733</v>
       </c>
       <c r="G30" s="213">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>0.60893668736577489</v>
       </c>
       <c r="H30" s="213">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>0.29079922188651119</v>
       </c>
       <c r="I30" s="213">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>0.10819411934459877</v>
       </c>
       <c r="J30" s="213">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>0.25552461210170341</v>
       </c>
       <c r="K30" s="213">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>2.4151639108140888E-2</v>
       </c>
       <c r="L30" s="213">
@@ -9965,7 +9966,7 @@
         <v>0.19123884744771091</v>
       </c>
       <c r="M30" s="213">
-        <f t="shared" ref="M30" si="93">M8/L8-1</f>
+        <f t="shared" ref="M30" si="92">M8/L8-1</f>
         <v>0.11236464438011495</v>
       </c>
       <c r="N30" s="245">
@@ -10015,23 +10016,23 @@
         <v>33</v>
       </c>
       <c r="G31" s="13">
-        <f t="shared" ref="G31:K31" si="94">G8/C8-1</f>
+        <f t="shared" ref="G31:K31" si="93">G8/C8-1</f>
         <v>0.95599991904308945</v>
       </c>
       <c r="H31" s="13">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>2.0994061964272404</v>
       </c>
       <c r="I31" s="13">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>1.6735708207627447</v>
       </c>
       <c r="J31" s="13">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>1.8896066059566814</v>
       </c>
       <c r="K31" s="13">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>0.83934853689830713</v>
       </c>
       <c r="L31" s="13">
@@ -10039,7 +10040,7 @@
         <v>0.69747811588161723</v>
       </c>
       <c r="M31" s="13">
-        <f t="shared" ref="M31" si="95">M8/I8-1</f>
+        <f t="shared" ref="M31" si="94">M8/I8-1</f>
         <v>0.70386632427935902</v>
       </c>
       <c r="N31" s="246">
@@ -10240,43 +10241,43 @@
         <v>33</v>
       </c>
       <c r="D35" s="130">
-        <f t="shared" ref="D35:L35" si="96">D34/C34-1</f>
+        <f t="shared" ref="D35:L35" si="95">D34/C34-1</f>
         <v>0.98004215148892526</v>
       </c>
       <c r="E35" s="130">
-        <f t="shared" si="96"/>
+        <f t="shared" si="95"/>
         <v>4.6825896299054204E-3</v>
       </c>
       <c r="F35" s="130">
-        <f t="shared" si="96"/>
+        <f t="shared" si="95"/>
         <v>0.29371682931004939</v>
       </c>
       <c r="G35" s="130">
-        <f t="shared" si="96"/>
+        <f t="shared" si="95"/>
         <v>1.5515848241739683E-2</v>
       </c>
       <c r="H35" s="130">
-        <f t="shared" si="96"/>
+        <f t="shared" si="95"/>
         <v>2.0241400509292795E-2</v>
       </c>
       <c r="I35" s="130">
-        <f t="shared" si="96"/>
+        <f t="shared" si="95"/>
         <v>-4.1544449119432669E-2</v>
       </c>
       <c r="J35" s="130">
-        <f t="shared" si="96"/>
+        <f t="shared" si="95"/>
         <v>0.20739441201693865</v>
       </c>
       <c r="K35" s="130">
-        <f t="shared" si="96"/>
+        <f t="shared" si="95"/>
         <v>-0.18037542396210438</v>
       </c>
       <c r="L35" s="130">
-        <f t="shared" si="96"/>
+        <f t="shared" si="95"/>
         <v>1.3776801868169875E-2</v>
       </c>
       <c r="M35" s="130">
-        <f t="shared" ref="M35" si="97">M34/L34-1</f>
+        <f t="shared" ref="M35" si="96">M34/L34-1</f>
         <v>9.6574162918696915E-2</v>
       </c>
       <c r="N35" s="123">
@@ -10349,15 +10350,15 @@
         <v>0.19897681964033009</v>
       </c>
       <c r="K36" s="87">
-        <f t="shared" ref="K36:L36" si="98">K34/G34-1</f>
+        <f t="shared" ref="K36:L36" si="97">K34/G34-1</f>
         <v>-3.2303760518920699E-2</v>
       </c>
       <c r="L36" s="87">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>-3.8435415038769016E-2</v>
       </c>
       <c r="M36" s="87">
-        <f t="shared" ref="M36" si="99">M34/I34-1</f>
+        <f t="shared" ref="M36" si="98">M34/I34-1</f>
         <v>0.10013122557158383</v>
       </c>
       <c r="N36" s="161">
@@ -10764,35 +10765,35 @@
         <v>33</v>
       </c>
       <c r="F48" s="5">
-        <f t="shared" ref="F48:M48" si="100">SUM(F39:F47)</f>
+        <f t="shared" ref="F48:M48" si="99">SUM(F39:F47)</f>
         <v>1847.8</v>
       </c>
       <c r="G48" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>2816.0789999999997</v>
       </c>
       <c r="H48" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>3073.7910000000002</v>
       </c>
       <c r="I48" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>3272.2799999999997</v>
       </c>
       <c r="J48" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>4560.5960000000005</v>
       </c>
       <c r="K48" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>4715.831000000001</v>
       </c>
       <c r="L48" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>4919.420000000001</v>
       </c>
       <c r="M48" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>5038.3230000000012</v>
       </c>
     </row>
@@ -11127,35 +11128,35 @@
         <v>33</v>
       </c>
       <c r="F58" s="5">
-        <f t="shared" ref="F58:M58" si="101">SUM(F50:F57)</f>
+        <f t="shared" ref="F58:M58" si="100">SUM(F50:F57)</f>
         <v>1735.354</v>
       </c>
       <c r="G58" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>2224.4850000000001</v>
       </c>
       <c r="H58" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>2531.752</v>
       </c>
       <c r="I58" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>2666.4490000000001</v>
       </c>
       <c r="J58" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>3967.6709999999998</v>
       </c>
       <c r="K58" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>4148.37</v>
       </c>
       <c r="L58" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>4367.8141299999997</v>
       </c>
       <c r="M58" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>4613.7309999999998</v>
       </c>
     </row>
@@ -11227,31 +11228,31 @@
         <v>1847.8</v>
       </c>
       <c r="G61" s="5">
-        <f t="shared" ref="G61:M61" si="102">G60+G58</f>
+        <f t="shared" ref="G61:M61" si="101">G60+G58</f>
         <v>2816.0790000000002</v>
       </c>
       <c r="H61" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>3073.7910000000002</v>
       </c>
       <c r="I61" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>3272.2890000000002</v>
       </c>
       <c r="J61" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>4560.5940000000001</v>
       </c>
       <c r="K61" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>4715.8310000000001</v>
       </c>
       <c r="L61" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>4919.4071299999996</v>
       </c>
       <c r="M61" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>5038.3239999999996</v>
       </c>
     </row>
@@ -11263,27 +11264,27 @@
         <v>199</v>
       </c>
       <c r="F63" s="5">
-        <f t="shared" ref="F63:K63" si="103">F48-F58</f>
+        <f t="shared" ref="F63:K63" si="102">F48-F58</f>
         <v>112.44599999999991</v>
       </c>
       <c r="G63" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>591.5939999999996</v>
       </c>
       <c r="H63" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>542.03900000000021</v>
       </c>
       <c r="I63" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>605.83099999999968</v>
       </c>
       <c r="J63" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>592.92500000000064</v>
       </c>
       <c r="K63" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>567.46100000000115</v>
       </c>
       <c r="L63" s="5">
@@ -11291,7 +11292,7 @@
         <v>551.60587000000123</v>
       </c>
       <c r="M63" s="5">
-        <f t="shared" ref="M63" si="104">M48-M58</f>
+        <f t="shared" ref="M63" si="103">M48-M58</f>
         <v>424.59200000000146</v>
       </c>
     </row>
@@ -11309,27 +11310,27 @@
         <v>33</v>
       </c>
       <c r="F64" s="208">
-        <f t="shared" ref="F64:K64" si="105">F63/F20</f>
+        <f t="shared" ref="F64:K64" si="104">F63/F20</f>
         <v>0.576205873460791</v>
       </c>
       <c r="G64" s="208">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>2.0324522286428865</v>
       </c>
       <c r="H64" s="208">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>0.94878172588832532</v>
       </c>
       <c r="I64" s="208">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>1.0519141148607816</v>
       </c>
       <c r="J64" s="208">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>1.0195860954198812</v>
       </c>
       <c r="K64" s="208">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>0.96421538058964962</v>
       </c>
       <c r="L64" s="208">
@@ -11337,7 +11338,7 @@
         <v>0.92874198556054144</v>
       </c>
       <c r="M64" s="208">
-        <f t="shared" ref="M64" si="106">M63/M20</f>
+        <f t="shared" ref="M64" si="105">M63/M20</f>
         <v>0.71028256261929823</v>
       </c>
       <c r="N64" s="247"/>
@@ -11370,27 +11371,27 @@
       <c r="D66" s="210"/>
       <c r="E66" s="210"/>
       <c r="F66" s="211">
-        <f t="shared" ref="F66:K66" si="107">F39</f>
+        <f t="shared" ref="F66:K66" si="106">F39</f>
         <v>893.94299999999998</v>
       </c>
       <c r="G66" s="211">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>1600.53</v>
       </c>
       <c r="H66" s="211">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>1780.2619999999999</v>
       </c>
       <c r="I66" s="211">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>1925.559</v>
       </c>
       <c r="J66" s="211">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>3004.3</v>
       </c>
       <c r="K66" s="211">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>3132.9639999999999</v>
       </c>
       <c r="L66" s="211">
@@ -11398,7 +11399,7 @@
         <v>3075.4749999999999</v>
       </c>
       <c r="M66" s="211">
-        <f t="shared" ref="M66" si="108">M39</f>
+        <f t="shared" ref="M66" si="107">M39</f>
         <v>3021.5070000000001</v>
       </c>
       <c r="N66" s="248"/>
@@ -11414,27 +11415,27 @@
       <c r="D67" s="210"/>
       <c r="E67" s="210"/>
       <c r="F67" s="211">
-        <f t="shared" ref="F67:K67" si="109">F56</f>
+        <f t="shared" ref="F67:K67" si="108">F56</f>
         <v>0</v>
       </c>
       <c r="G67" s="211">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="H67" s="211">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="I67" s="211">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="J67" s="211">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>987.72299999999996</v>
       </c>
       <c r="K67" s="211">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>988.03399999999999</v>
       </c>
       <c r="L67" s="211">
@@ -11442,7 +11443,7 @@
         <v>988.34500000000003</v>
       </c>
       <c r="M67" s="211">
-        <f t="shared" ref="M67" si="110">M56</f>
+        <f t="shared" ref="M67" si="109">M56</f>
         <v>988.66300000000001</v>
       </c>
       <c r="N67" s="248"/>
@@ -11459,31 +11460,31 @@
         <v>893.94299999999998</v>
       </c>
       <c r="G68" s="5">
-        <f t="shared" ref="G68:L68" si="111">G66-G67</f>
+        <f t="shared" ref="G68:L68" si="110">G66-G67</f>
         <v>1600.53</v>
       </c>
       <c r="H68" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="110"/>
         <v>1780.2619999999999</v>
       </c>
       <c r="I68" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="110"/>
         <v>1925.559</v>
       </c>
       <c r="J68" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="110"/>
         <v>2016.5770000000002</v>
       </c>
       <c r="K68" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="110"/>
         <v>2144.9299999999998</v>
       </c>
       <c r="L68" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="110"/>
         <v>2087.13</v>
       </c>
       <c r="M68" s="5">
-        <f t="shared" ref="M68" si="112">M66-M67</f>
+        <f t="shared" ref="M68" si="111">M66-M67</f>
         <v>2032.8440000000001</v>
       </c>
     </row>
@@ -11529,15 +11530,15 @@
       <c r="E71" s="210"/>
       <c r="F71" s="60"/>
       <c r="G71" s="211">
-        <f t="shared" ref="G71:I71" si="113">G70*G20</f>
+        <f t="shared" ref="G71:I71" si="112">G70*G20</f>
         <v>18870.327420000001</v>
       </c>
       <c r="H71" s="211">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>51405.574000000001</v>
       </c>
       <c r="I71" s="211">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>43511.662599999996</v>
       </c>
       <c r="J71" s="211">
@@ -11545,15 +11546,15 @@
         <v>59991.150599999994</v>
       </c>
       <c r="K71" s="211">
-        <f t="shared" ref="K71:L71" si="114">K70*K20</f>
+        <f t="shared" ref="K71:L71" si="113">K70*K20</f>
         <v>27213.211039999998</v>
       </c>
       <c r="L71" s="211">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>19516.47408</v>
       </c>
       <c r="M71" s="211">
-        <f t="shared" ref="M71" si="115">M70*M20</f>
+        <f t="shared" ref="M71" si="114">M70*M20</f>
         <v>21424.399360000003</v>
       </c>
       <c r="N71" s="248"/>
@@ -11566,27 +11567,27 @@
         <v>5</v>
       </c>
       <c r="F72" s="5">
-        <f t="shared" ref="F72:K72" si="116">F71-F68</f>
+        <f t="shared" ref="F72:K72" si="115">F71-F68</f>
         <v>-893.94299999999998</v>
       </c>
       <c r="G72" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>17269.797420000003</v>
       </c>
       <c r="H72" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>49625.311999999998</v>
       </c>
       <c r="I72" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>41586.103599999995</v>
       </c>
       <c r="J72" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>57974.573599999996</v>
       </c>
       <c r="K72" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>25068.281039999998</v>
       </c>
       <c r="L72" s="5">
@@ -11594,7 +11595,7 @@
         <v>17429.344079999999</v>
       </c>
       <c r="M72" s="5">
-        <f t="shared" ref="M72" si="117">M71-M68</f>
+        <f t="shared" ref="M72" si="116">M71-M68</f>
         <v>19391.555360000002</v>
       </c>
     </row>
@@ -11603,15 +11604,15 @@
         <v>204</v>
       </c>
       <c r="G74" s="217">
-        <f t="shared" ref="G74:I74" si="118">G70/G64</f>
+        <f t="shared" ref="G74:I74" si="117">G70/G64</f>
         <v>31.897428675747243</v>
       </c>
       <c r="H74" s="217">
-        <f t="shared" si="118"/>
+        <f t="shared" si="117"/>
         <v>94.837408378363875</v>
       </c>
       <c r="I74" s="217">
-        <f t="shared" si="118"/>
+        <f t="shared" si="117"/>
         <v>71.82145284741128</v>
       </c>
       <c r="J74" s="217">
@@ -11619,15 +11620,15 @@
         <v>101.1783119281527</v>
       </c>
       <c r="K74" s="217">
-        <f t="shared" ref="K74:L74" si="119">K70/K64</f>
+        <f t="shared" ref="K74:L74" si="118">K70/K64</f>
         <v>47.956090444982024</v>
       </c>
       <c r="L74" s="217">
-        <f t="shared" si="119"/>
+        <f t="shared" si="118"/>
         <v>35.381193604774282</v>
       </c>
       <c r="M74" s="217">
-        <f t="shared" ref="M74" si="120">M70/M64</f>
+        <f t="shared" ref="M74" si="119">M70/M64</f>
         <v>50.45879187549442</v>
       </c>
     </row>
@@ -11636,23 +11637,23 @@
         <v>213</v>
       </c>
       <c r="G75" s="217">
-        <f t="shared" ref="G75" si="121">G71/SUM(D3:G3)</f>
+        <f t="shared" ref="G75" si="120">G71/SUM(D3:G3)</f>
         <v>16.419103099215079</v>
       </c>
       <c r="H75" s="217">
-        <f t="shared" ref="H75" si="122">H71/SUM(E3:H3)</f>
+        <f t="shared" ref="H75" si="121">H71/SUM(E3:H3)</f>
         <v>36.639779500911978</v>
       </c>
       <c r="I75" s="217">
-        <f t="shared" ref="I75" si="123">I71/SUM(F3:I3)</f>
+        <f t="shared" ref="I75" si="122">I71/SUM(F3:I3)</f>
         <v>26.205198922441955</v>
       </c>
       <c r="J75" s="217">
-        <f t="shared" ref="J75:K75" si="124">J71/SUM(G3:J3)</f>
+        <f t="shared" ref="J75:K75" si="123">J71/SUM(G3:J3)</f>
         <v>31.25872473727074</v>
       </c>
       <c r="K75" s="217">
-        <f t="shared" si="124"/>
+        <f t="shared" si="123"/>
         <v>13.150678086094159</v>
       </c>
       <c r="L75" s="217">
@@ -11660,7 +11661,7 @@
         <v>8.8452081220206615</v>
       </c>
       <c r="M75" s="217">
-        <f t="shared" ref="M75" si="125">M71/SUM(J3:M3)</f>
+        <f t="shared" ref="M75" si="124">M71/SUM(J3:M3)</f>
         <v>9.6732142474976506</v>
       </c>
     </row>
@@ -11669,23 +11670,23 @@
         <v>218</v>
       </c>
       <c r="G76" s="217">
-        <f t="shared" ref="G76" si="126">G72/SUM(D3:G3)</f>
+        <f t="shared" ref="G76" si="125">G72/SUM(D3:G3)</f>
         <v>15.026479298976499</v>
       </c>
       <c r="H76" s="217">
-        <f t="shared" ref="H76" si="127">H72/SUM(E3:H3)</f>
+        <f t="shared" ref="H76" si="126">H72/SUM(E3:H3)</f>
         <v>35.370881946458979</v>
       </c>
       <c r="I76" s="217">
-        <f t="shared" ref="I76" si="128">I72/SUM(F3:I3)</f>
+        <f t="shared" ref="I76" si="127">I72/SUM(F3:I3)</f>
         <v>25.045517733153215</v>
       </c>
       <c r="J76" s="217">
-        <f t="shared" ref="J76:K76" si="129">J72/SUM(G3:J3)</f>
+        <f t="shared" ref="J76:K76" si="128">J72/SUM(G3:J3)</f>
         <v>30.207976006431906</v>
       </c>
       <c r="K76" s="217">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>12.114149030197565</v>
       </c>
       <c r="L76" s="217">
@@ -11693,7 +11694,7 @@
         <v>7.8992842244949566</v>
       </c>
       <c r="M76" s="217">
-        <f t="shared" ref="M76" si="130">M72/SUM(J3:M3)</f>
+        <f t="shared" ref="M76" si="129">M72/SUM(J3:M3)</f>
         <v>8.7553758888431883</v>
       </c>
     </row>
@@ -11702,27 +11703,27 @@
         <v>214</v>
       </c>
       <c r="G77" s="217">
-        <f t="shared" ref="G77:L77" si="131">G70/SUM(D19:G19)</f>
+        <f t="shared" ref="G77:L77" si="130">G70/SUM(D19:G19)</f>
         <v>-44.675361443232362</v>
       </c>
       <c r="H77" s="217">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>-69.182197616608946</v>
       </c>
       <c r="I77" s="217">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>-65.015776279415363</v>
       </c>
       <c r="J77" s="217">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>-93.354276916433804</v>
       </c>
       <c r="K77" s="217">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>-50.661466911577669</v>
       </c>
       <c r="L77" s="217">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>-34.073155589366579</v>
       </c>
       <c r="M77" s="217">
@@ -11736,27 +11737,27 @@
         <v>253</v>
       </c>
       <c r="G78" s="87">
-        <f t="shared" ref="G78:L78" si="132">SUM(D12:G12)/(G48-SUM(G50:G53))</f>
+        <f t="shared" ref="G78:L78" si="131">SUM(D12:G12)/(G48-SUM(G50:G53))</f>
         <v>-0.25137548210801064</v>
       </c>
       <c r="H78" s="87">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>-0.30583278280508219</v>
       </c>
       <c r="I78" s="87">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>-0.31302756573649004</v>
       </c>
       <c r="J78" s="87">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>-0.20685053640976875</v>
       </c>
       <c r="K78" s="87">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>-0.2013507520159552</v>
       </c>
       <c r="L78" s="87">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>-0.20293605022212965</v>
       </c>
       <c r="M78" s="87">
@@ -11805,15 +11806,15 @@
         <v>-77.189999999999955</v>
       </c>
       <c r="J81" s="5">
-        <f t="shared" ref="J81:L81" si="133">J18</f>
+        <f t="shared" ref="J81:L81" si="132">J18</f>
         <v>-147.25700000000003</v>
       </c>
       <c r="K81" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="132"/>
         <v>-162.00600000000003</v>
       </c>
       <c r="L81" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="132"/>
         <v>-179.29000000000002</v>
       </c>
       <c r="M81" s="5">
@@ -12798,7 +12799,7 @@
   <pageSetup paperSize="119" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId3"/>
   <ignoredErrors>
     <ignoredError sqref="V3:V4 V6:V8 V9:V13 W3:W4 V17:V20 W17:W20 W6:W13 V15 W15 K75 K76 G75:J76 L75:M76 G78:M78" formulaRange="1"/>
-    <ignoredError sqref="V5 V16:W16 X5 V14 X16 X21 Y16:AK16 Y18 Z18:AK20 AL13:AM18 X18:X19 X14" formula="1"/>
+    <ignoredError sqref="V5 V16:W16 X5 V14 X16 X21 Y16:AK16 Y18 Z18:AK18 AL13:AM18 X18:X19 X14 Z20:AK20" formula="1"/>
     <ignoredError sqref="W5 W14" formula="1" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId4"/>
@@ -12810,10 +12811,10 @@
   <dimension ref="A1:AE24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q19" sqref="Q19"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18:R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/$RBLX.xlsx
+++ b/$RBLX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD983FA0-C9CE-BB40-8379-61F1802BC4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8678964B-17D9-45CE-9AFF-233B48A348B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{DB6ABC51-E0DE-6747-8CA5-53C172A4844D}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{DB6ABC51-E0DE-6747-8CA5-53C172A4844D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,16 +22,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -899,8 +889,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="#,##0.000"/>
@@ -1487,7 +1477,7 @@
     <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="281">
@@ -1608,8 +1598,8 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1689,7 +1679,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1804,7 +1794,7 @@
     <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="43" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="43" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="17" fontId="44" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2021,67 +2011,67 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="26" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="26" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2091,7 +2081,7 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2116,7 +2106,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4131,57 +4121,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE4A73D-2F46-7341-9C57-6E5B7A39A15C}">
   <dimension ref="B1:AL86"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:C40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="6" customWidth="1"/>
     <col min="3" max="8" width="9" style="6"/>
     <col min="9" max="9" width="9" style="6" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="9.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="22" width="9.1640625" style="6" customWidth="1"/>
-    <col min="23" max="23" width="9.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="22" width="9.125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="9.125" style="6" bestFit="1" customWidth="1"/>
     <col min="24" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="L1" s="269" t="s">
+    <row r="1" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="L1" s="260" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="270"/>
-      <c r="N1" s="270"/>
-      <c r="O1" s="270"/>
-      <c r="P1" s="270"/>
-      <c r="Q1" s="270"/>
-      <c r="R1" s="270"/>
-      <c r="S1" s="270"/>
-      <c r="T1" s="270"/>
-      <c r="U1" s="271"/>
-      <c r="W1" s="272" t="s">
+      <c r="M1" s="261"/>
+      <c r="N1" s="261"/>
+      <c r="O1" s="261"/>
+      <c r="P1" s="261"/>
+      <c r="Q1" s="261"/>
+      <c r="R1" s="261"/>
+      <c r="S1" s="261"/>
+      <c r="T1" s="261"/>
+      <c r="U1" s="262"/>
+      <c r="W1" s="263" t="s">
         <v>127</v>
       </c>
-      <c r="X1" s="273"/>
-      <c r="Y1" s="273"/>
-      <c r="Z1" s="273"/>
-      <c r="AA1" s="273"/>
-      <c r="AB1" s="273"/>
-      <c r="AC1" s="273"/>
-      <c r="AD1" s="273"/>
-      <c r="AE1" s="273"/>
-      <c r="AF1" s="273"/>
-      <c r="AG1" s="273"/>
-      <c r="AH1" s="273"/>
-      <c r="AI1" s="273"/>
-      <c r="AJ1" s="273"/>
-      <c r="AK1" s="273"/>
-      <c r="AL1" s="274"/>
-    </row>
-    <row r="2" spans="2:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="X1" s="264"/>
+      <c r="Y1" s="264"/>
+      <c r="Z1" s="264"/>
+      <c r="AA1" s="264"/>
+      <c r="AB1" s="264"/>
+      <c r="AC1" s="264"/>
+      <c r="AD1" s="264"/>
+      <c r="AE1" s="264"/>
+      <c r="AF1" s="264"/>
+      <c r="AG1" s="264"/>
+      <c r="AH1" s="264"/>
+      <c r="AI1" s="264"/>
+      <c r="AJ1" s="264"/>
+      <c r="AK1" s="264"/>
+      <c r="AL1" s="265"/>
+    </row>
+    <row r="2" spans="2:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
         <v>57</v>
       </c>
@@ -4209,7 +4199,7 @@
       <c r="T2" s="191"/>
       <c r="U2" s="229"/>
     </row>
-    <row r="3" spans="2:38" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="44" t="s">
         <v>111</v>
       </c>
@@ -4296,7 +4286,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:38" x14ac:dyDescent="0.25">
       <c r="J4" s="30" t="s">
         <v>87</v>
       </c>
@@ -4377,17 +4367,17 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="5" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B5" s="262" t="s">
+    <row r="5" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B5" s="266" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="263"/>
-      <c r="D5" s="264"/>
-      <c r="F5" s="262" t="s">
+      <c r="C5" s="267"/>
+      <c r="D5" s="268"/>
+      <c r="F5" s="266" t="s">
         <v>193</v>
       </c>
-      <c r="G5" s="263"/>
-      <c r="H5" s="264"/>
+      <c r="G5" s="267"/>
+      <c r="H5" s="268"/>
       <c r="K5" s="27" t="s">
         <v>73</v>
       </c>
@@ -4484,21 +4474,21 @@
         <v>0.12643678160919536</v>
       </c>
     </row>
-    <row r="6" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="9">
-        <v>26.16</v>
+        <v>35.53</v>
       </c>
       <c r="D6" s="42"/>
       <c r="F6" s="171" t="s">
         <v>194</v>
       </c>
-      <c r="G6" s="265" t="s">
+      <c r="G6" s="280" t="s">
         <v>284</v>
       </c>
-      <c r="H6" s="261"/>
+      <c r="H6" s="272"/>
       <c r="K6" s="27" t="s">
         <v>74</v>
       </c>
@@ -4588,7 +4578,7 @@
         <v>0.24312896405919671</v>
       </c>
     </row>
-    <row r="7" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B7" s="38" t="s">
         <v>1</v>
       </c>
@@ -4603,10 +4593,10 @@
       <c r="F7" s="171" t="s">
         <v>283</v>
       </c>
-      <c r="G7" s="266">
+      <c r="G7" s="271">
         <v>2021</v>
       </c>
-      <c r="H7" s="261"/>
+      <c r="H7" s="272"/>
       <c r="K7" s="27"/>
       <c r="L7" s="58"/>
       <c r="M7" s="58"/>
@@ -4635,22 +4625,22 @@
       <c r="AJ7" s="23"/>
       <c r="AK7" s="23"/>
     </row>
-    <row r="8" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B8" s="38" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="9">
         <f>C6*C7</f>
-        <v>15637.898639999999</v>
+        <v>21239.087869999999</v>
       </c>
       <c r="D8" s="39"/>
       <c r="F8" s="171" t="s">
         <v>195</v>
       </c>
-      <c r="G8" s="266">
+      <c r="G8" s="271">
         <v>2004</v>
       </c>
-      <c r="H8" s="261"/>
+      <c r="H8" s="272"/>
       <c r="K8" s="27" t="s">
         <v>75</v>
       </c>
@@ -4732,7 +4722,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="9" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B9" s="38" t="s">
         <v>3</v>
       </c>
@@ -4747,11 +4737,11 @@
       <c r="F9" s="171" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="266">
+      <c r="G9" s="271">
         <f>AL4</f>
         <v>58.8</v>
       </c>
-      <c r="H9" s="261"/>
+      <c r="H9" s="272"/>
       <c r="K9" s="27" t="s">
         <v>77</v>
       </c>
@@ -4847,7 +4837,7 @@
         <v>9.0909090909090828E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B10" s="38" t="s">
         <v>4</v>
       </c>
@@ -4860,8 +4850,8 @@
         <v>Q322</v>
       </c>
       <c r="F10" s="171"/>
-      <c r="G10" s="266"/>
-      <c r="H10" s="261"/>
+      <c r="G10" s="271"/>
+      <c r="H10" s="272"/>
       <c r="K10" s="27" t="s">
         <v>78</v>
       </c>
@@ -4954,7 +4944,7 @@
         <v>0.14285714285714279</v>
       </c>
     </row>
-    <row r="11" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B11" s="38" t="s">
         <v>7</v>
       </c>
@@ -4990,22 +4980,22 @@
       <c r="AJ11" s="151"/>
       <c r="AK11" s="151"/>
     </row>
-    <row r="12" spans="2:38" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="43">
         <f>C8-C9+C10</f>
-        <v>13605.05464</v>
+        <v>19206.243869999998</v>
       </c>
       <c r="D12" s="41"/>
       <c r="F12" s="172" t="s">
         <v>196</v>
       </c>
-      <c r="G12" s="267" t="s">
+      <c r="G12" s="275" t="s">
         <v>197</v>
       </c>
-      <c r="H12" s="268"/>
+      <c r="H12" s="276"/>
       <c r="K12" s="27" t="s">
         <v>76</v>
       </c>
@@ -5087,7 +5077,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="13" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:38" x14ac:dyDescent="0.25">
       <c r="K13" s="27" t="s">
         <v>79</v>
       </c>
@@ -5183,7 +5173,7 @@
         <v>0.17279411764705888</v>
       </c>
     </row>
-    <row r="14" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:38" x14ac:dyDescent="0.25">
       <c r="K14" s="27" t="s">
         <v>80</v>
       </c>
@@ -5276,17 +5266,17 @@
         <v>0.34033613445378141</v>
       </c>
     </row>
-    <row r="15" spans="2:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="262" t="s">
+    <row r="15" spans="2:38" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="266" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="263"/>
-      <c r="D15" s="264"/>
-      <c r="F15" s="262" t="s">
+      <c r="C15" s="267"/>
+      <c r="D15" s="268"/>
+      <c r="F15" s="266" t="s">
         <v>203</v>
       </c>
-      <c r="G15" s="263"/>
-      <c r="H15" s="264"/>
+      <c r="G15" s="267"/>
+      <c r="H15" s="268"/>
       <c r="K15" s="27"/>
       <c r="L15" s="60"/>
       <c r="M15" s="60"/>
@@ -5299,22 +5289,22 @@
       <c r="T15" s="60"/>
       <c r="U15" s="196"/>
     </row>
-    <row r="16" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="88" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="260" t="s">
+      <c r="C16" s="279" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="261"/>
+      <c r="D16" s="272"/>
       <c r="F16" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="G16" s="277">
+      <c r="G16" s="273">
         <f>C6/'Financial Model'!M64</f>
-        <v>36.830412819836326</v>
-      </c>
-      <c r="H16" s="278"/>
+        <v>50.022345852017764</v>
+      </c>
+      <c r="H16" s="274"/>
       <c r="J16" s="30" t="s">
         <v>86</v>
       </c>
@@ -5396,22 +5386,22 @@
         <v>13400</v>
       </c>
     </row>
-    <row r="17" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B17" s="100" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="275" t="s">
+      <c r="C17" s="269" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="276"/>
+      <c r="D17" s="270"/>
       <c r="F17" s="171" t="s">
         <v>213</v>
       </c>
-      <c r="G17" s="277">
+      <c r="G17" s="273">
         <f>C8/'Financial Model'!W3</f>
-        <v>8.1482145977893694</v>
-      </c>
-      <c r="H17" s="278"/>
+        <v>11.06674559095781</v>
+      </c>
+      <c r="H17" s="274"/>
       <c r="K17" s="27" t="s">
         <v>84</v>
       </c>
@@ -5504,22 +5494,22 @@
         <v>0.18584070796460184</v>
       </c>
     </row>
-    <row r="18" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B18" s="88" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="260" t="s">
+      <c r="C18" s="279" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="261"/>
+      <c r="D18" s="272"/>
       <c r="F18" s="171" t="s">
         <v>214</v>
       </c>
-      <c r="G18" s="277">
+      <c r="G18" s="273">
         <f>C6/SUM('Financial Model'!J19:M19)</f>
-        <v>-19.589506832047363</v>
-      </c>
-      <c r="H18" s="278"/>
+        <v>-26.606084776094907</v>
+      </c>
+      <c r="H18" s="274"/>
       <c r="K18" s="27" t="s">
         <v>85</v>
       </c>
@@ -5609,24 +5599,24 @@
         <v>0.198140200286123</v>
       </c>
     </row>
-    <row r="19" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B19" s="86"/>
-      <c r="C19" s="266"/>
-      <c r="D19" s="261"/>
+      <c r="C19" s="271"/>
+      <c r="D19" s="272"/>
       <c r="F19" s="171"/>
-      <c r="G19" s="266"/>
-      <c r="H19" s="261"/>
+      <c r="G19" s="271"/>
+      <c r="H19" s="272"/>
       <c r="K19" s="27"/>
       <c r="L19" s="60"/>
       <c r="M19" s="60"/>
     </row>
-    <row r="20" spans="2:38" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="87"/>
-      <c r="C20" s="279"/>
-      <c r="D20" s="280"/>
+      <c r="C20" s="277"/>
+      <c r="D20" s="278"/>
       <c r="F20" s="172"/>
-      <c r="G20" s="267"/>
-      <c r="H20" s="268"/>
+      <c r="G20" s="275"/>
+      <c r="H20" s="276"/>
       <c r="J20" s="30"/>
       <c r="K20" s="189" t="s">
         <v>212</v>
@@ -5646,30 +5636,30 @@
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
     </row>
-    <row r="21" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:38" x14ac:dyDescent="0.25">
       <c r="K21" s="189" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="22" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:38" x14ac:dyDescent="0.25">
       <c r="K22" s="189" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B23" s="262" t="s">
+    <row r="23" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B23" s="266" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="263"/>
-      <c r="D23" s="263"/>
-      <c r="E23" s="263"/>
-      <c r="F23" s="263"/>
-      <c r="G23" s="264"/>
+      <c r="C23" s="267"/>
+      <c r="D23" s="267"/>
+      <c r="E23" s="267"/>
+      <c r="F23" s="267"/>
+      <c r="G23" s="268"/>
       <c r="K23" s="189" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B24" s="103" t="s">
         <v>169</v>
       </c>
@@ -5682,7 +5672,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B25" s="103" t="s">
         <v>170</v>
       </c>
@@ -5698,7 +5688,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B26" s="93"/>
       <c r="C26" s="91"/>
       <c r="D26" s="91"/>
@@ -5712,7 +5702,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B27" s="93" t="s">
         <v>149</v>
       </c>
@@ -5728,7 +5718,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B28" s="90" t="s">
         <v>162</v>
       </c>
@@ -5738,7 +5728,7 @@
       <c r="F28" s="94"/>
       <c r="G28" s="92"/>
     </row>
-    <row r="29" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B29" s="99" t="s">
         <v>163</v>
       </c>
@@ -5754,7 +5744,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B30" s="90" t="s">
         <v>161</v>
       </c>
@@ -5766,7 +5756,7 @@
       <c r="J30" s="89"/>
       <c r="K30" s="89"/>
     </row>
-    <row r="31" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B31" s="95" t="s">
         <v>150</v>
       </c>
@@ -5776,14 +5766,14 @@
       <c r="F31" s="97"/>
       <c r="G31" s="98"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="262" t="s">
+      <c r="K31" s="266" t="s">
         <v>181</v>
       </c>
-      <c r="L31" s="263"/>
-      <c r="M31" s="263"/>
-      <c r="N31" s="264"/>
-    </row>
-    <row r="32" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="L31" s="267"/>
+      <c r="M31" s="267"/>
+      <c r="N31" s="268"/>
+    </row>
+    <row r="32" spans="2:38" x14ac:dyDescent="0.25">
       <c r="J32" s="7"/>
       <c r="K32" s="163" t="s">
         <v>176</v>
@@ -5792,15 +5782,15 @@
       <c r="M32" s="91"/>
       <c r="N32" s="92"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B33" s="262" t="s">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="266" t="s">
         <v>187</v>
       </c>
-      <c r="C33" s="263"/>
-      <c r="D33" s="263"/>
-      <c r="E33" s="263"/>
-      <c r="F33" s="263"/>
-      <c r="G33" s="264"/>
+      <c r="C33" s="267"/>
+      <c r="D33" s="267"/>
+      <c r="E33" s="267"/>
+      <c r="F33" s="267"/>
+      <c r="G33" s="268"/>
       <c r="J33" s="7"/>
       <c r="K33" s="163" t="s">
         <v>177</v>
@@ -5811,7 +5801,7 @@
       <c r="M33" s="160"/>
       <c r="N33" s="92"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="197">
         <v>44743</v>
       </c>
@@ -5832,7 +5822,7 @@
       <c r="M34" s="161"/>
       <c r="N34" s="92"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="157"/>
       <c r="C35" s="199" t="s">
         <v>206</v>
@@ -5853,7 +5843,7 @@
       <c r="M35" s="162"/>
       <c r="N35" s="92"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="157"/>
       <c r="C36" s="91"/>
       <c r="D36" s="91"/>
@@ -5868,7 +5858,7 @@
       <c r="M36" s="91"/>
       <c r="N36" s="92"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="157"/>
       <c r="C37" s="91"/>
       <c r="D37" s="91"/>
@@ -5883,7 +5873,7 @@
       <c r="M37" s="91"/>
       <c r="N37" s="92"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="157"/>
       <c r="C38" s="91"/>
       <c r="D38" s="91"/>
@@ -5898,7 +5888,7 @@
       <c r="M38" s="91"/>
       <c r="N38" s="92"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="157"/>
       <c r="C39" s="91"/>
       <c r="D39" s="91"/>
@@ -5913,7 +5903,7 @@
       <c r="M39" s="91"/>
       <c r="N39" s="92"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="168">
         <v>44682</v>
       </c>
@@ -5934,7 +5924,7 @@
       <c r="M40" s="91"/>
       <c r="N40" s="92"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="157"/>
       <c r="C41" s="167" t="s">
         <v>188</v>
@@ -5951,7 +5941,7 @@
       <c r="M41" s="91"/>
       <c r="N41" s="92"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="158"/>
       <c r="C42" s="96"/>
       <c r="D42" s="96"/>
@@ -5964,7 +5954,7 @@
       <c r="M42" s="91"/>
       <c r="N42" s="92"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J43" s="7"/>
       <c r="K43" s="170" t="s">
         <v>191</v>
@@ -5975,7 +5965,7 @@
       <c r="M43" s="91"/>
       <c r="N43" s="92"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J44" s="7"/>
       <c r="K44" s="164" t="s">
         <v>154</v>
@@ -5984,7 +5974,7 @@
       <c r="M44" s="91"/>
       <c r="N44" s="92"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="203" t="s">
         <v>215</v>
       </c>
@@ -5996,7 +5986,7 @@
       <c r="M45" s="91"/>
       <c r="N45" s="92"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J46" s="7"/>
       <c r="K46" s="164" t="s">
         <v>156</v>
@@ -6005,7 +5995,7 @@
       <c r="M46" s="91"/>
       <c r="N46" s="92"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>220</v>
       </c>
@@ -6017,7 +6007,7 @@
       <c r="M47" s="91"/>
       <c r="N47" s="92"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="231" t="s">
         <v>219</v>
       </c>
@@ -6029,7 +6019,7 @@
       <c r="M48" s="91"/>
       <c r="N48" s="92"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="231" t="s">
         <v>221</v>
       </c>
@@ -6038,7 +6028,7 @@
       <c r="M49" s="91"/>
       <c r="N49" s="92"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="232" t="s">
         <v>222</v>
       </c>
@@ -6054,7 +6044,7 @@
       <c r="M50" s="91"/>
       <c r="N50" s="92"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="232" t="s">
         <v>223</v>
       </c>
@@ -6063,22 +6053,22 @@
       <c r="M51" s="96"/>
       <c r="N51" s="98"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="232" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="232" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K54" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="231" t="s">
         <v>226</v>
       </c>
@@ -6086,12 +6076,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K56" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="231" t="s">
         <v>227</v>
       </c>
@@ -6099,7 +6089,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="2:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="231" t="s">
         <v>228</v>
       </c>
@@ -6107,7 +6097,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="2:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="232" t="s">
         <v>229</v>
       </c>
@@ -6115,7 +6105,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="2:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="232" t="s">
         <v>230</v>
       </c>
@@ -6123,7 +6113,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="232" t="s">
         <v>231</v>
       </c>
@@ -6131,12 +6121,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="232" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="231" t="s">
         <v>233</v>
       </c>
@@ -6144,7 +6134,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" s="231" t="s">
         <v>234</v>
       </c>
@@ -6152,12 +6142,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K66" s="82" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" s="231" t="s">
         <v>235</v>
       </c>
@@ -6165,12 +6155,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K68" s="89" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" s="231" t="s">
         <v>239</v>
       </c>
@@ -6178,12 +6168,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K70" s="89" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="231" t="s">
         <v>240</v>
       </c>
@@ -6191,63 +6181,72 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" s="232" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" s="231" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="231" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" s="232" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="231" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" s="232" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="231" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="232" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="232" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="232" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="243" t="s">
         <v>251</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="L1:U1"/>
     <mergeCell ref="W1:AL1"/>
     <mergeCell ref="B33:G33"/>
@@ -6264,15 +6263,6 @@
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <hyperlinks>
@@ -6290,39 +6280,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0FDCAC-3416-844A-BCBB-390EC350CF59}">
   <dimension ref="B1:BZ120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H117" sqref="H117"/>
+      <selection pane="bottomRight" activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="6" customWidth="1"/>
     <col min="2" max="2" width="35.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.1640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" customWidth="1"/>
+    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="9.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.125" style="7" customWidth="1"/>
     <col min="14" max="14" width="9" style="238"/>
     <col min="15" max="16" width="9" style="6"/>
     <col min="17" max="19" width="9" style="7"/>
     <col min="20" max="21" width="9" style="6"/>
     <col min="22" max="22" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.125" style="6" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9" style="6"/>
     <col min="25" max="25" width="9" style="6" bestFit="1" customWidth="1"/>
     <col min="26" max="40" width="9" style="6"/>
-    <col min="41" max="41" width="15.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.875" style="6" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="10" style="6" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="9" style="6"/>
-    <col min="44" max="44" width="10.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.125" style="6" bestFit="1" customWidth="1"/>
     <col min="45" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:43" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="C1" s="2" t="s">
         <v>67</v>
       </c>
@@ -6428,7 +6418,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="2:43" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:43" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C2" s="33">
         <v>43921</v>
       </c>
@@ -6529,7 +6519,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="2:43" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:43" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -6656,7 +6646,7 @@
         <v>18449.130538377864</v>
       </c>
     </row>
-    <row r="4" spans="2:43" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>34</v>
       </c>
@@ -6783,7 +6773,7 @@
         <v>4981.2652453620231</v>
       </c>
     </row>
-    <row r="5" spans="2:43" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -6924,7 +6914,7 @@
         <v>13467.865293015841</v>
       </c>
     </row>
-    <row r="6" spans="2:43" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
@@ -7053,7 +7043,7 @@
         <v>781.91332536221125</v>
       </c>
     </row>
-    <row r="7" spans="2:43" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
@@ -7181,7 +7171,7 @@
         <v>1443.9393168278707</v>
       </c>
     </row>
-    <row r="8" spans="2:43" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
@@ -7309,7 +7299,7 @@
         <v>879.46507999999994</v>
       </c>
     </row>
-    <row r="9" spans="2:43" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>21</v>
       </c>
@@ -7437,7 +7427,7 @@
         <v>299.58965000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:43" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
@@ -7564,7 +7554,7 @@
         <v>56.252010406344425</v>
       </c>
     </row>
-    <row r="11" spans="2:43" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
@@ -7702,7 +7692,7 @@
         <v>3461.1593825964264</v>
       </c>
     </row>
-    <row r="12" spans="2:43" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
@@ -7840,7 +7830,7 @@
         <v>10006.705910419414</v>
       </c>
     </row>
-    <row r="13" spans="2:43" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
@@ -7969,7 +7959,7 @@
       </c>
       <c r="AQ13" s="34"/>
     </row>
-    <row r="14" spans="2:43" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
         <v>93</v>
       </c>
@@ -8096,7 +8086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:43" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
         <v>92</v>
       </c>
@@ -8225,7 +8215,7 @@
         <v>34.734000000000002</v>
       </c>
     </row>
-    <row r="16" spans="2:43" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>26</v>
       </c>
@@ -8363,7 +8353,7 @@
         <v>9980.2528025852571</v>
       </c>
     </row>
-    <row r="17" spans="2:78" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:78" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
         <v>94</v>
       </c>
@@ -8490,7 +8480,7 @@
         <v>1.25976</v>
       </c>
     </row>
-    <row r="18" spans="2:78" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:78" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
@@ -8784,7 +8774,7 @@
         <v>6743.095479245314</v>
       </c>
     </row>
-    <row r="19" spans="2:78" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:78" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>31</v>
       </c>
@@ -8922,7 +8912,7 @@
         <v>16.693448653407458</v>
       </c>
     </row>
-    <row r="20" spans="2:78" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:78" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>1</v>
       </c>
@@ -9047,7 +9037,7 @@
         <v>597.779</v>
       </c>
     </row>
-    <row r="21" spans="2:78" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:78" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -9064,7 +9054,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="22" spans="2:78" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:78" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>16</v>
       </c>
@@ -9209,7 +9199,7 @@
       </c>
       <c r="AR22" s="65"/>
     </row>
-    <row r="23" spans="2:78" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:78" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>24</v>
       </c>
@@ -9355,7 +9345,7 @@
       </c>
       <c r="AR23" s="66"/>
     </row>
-    <row r="24" spans="2:78" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:78" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>29</v>
       </c>
@@ -9500,7 +9490,7 @@
         <v>2032.8440000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:78" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:78" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>30</v>
       </c>
@@ -9645,7 +9635,7 @@
         <v>39555.875429501888</v>
       </c>
     </row>
-    <row r="26" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="O26" s="7"/>
       <c r="Q26" s="74"/>
@@ -9664,7 +9654,7 @@
       <c r="AQ26" s="65"/>
       <c r="AS26" s="9"/>
     </row>
-    <row r="27" spans="2:78" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:78" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="15" t="s">
         <v>56</v>
       </c>
@@ -9740,10 +9730,10 @@
       </c>
       <c r="AP27" s="133">
         <f>Main!C6</f>
-        <v>26.16</v>
-      </c>
-    </row>
-    <row r="28" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>35.53</v>
+      </c>
+    </row>
+    <row r="28" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
@@ -9878,10 +9868,10 @@
       </c>
       <c r="AP28" s="134">
         <f>AP26/AP27-1</f>
-        <v>1.5294879024424914</v>
-      </c>
-    </row>
-    <row r="29" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>0.86240933092866801</v>
+      </c>
+    </row>
+    <row r="29" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -9917,7 +9907,7 @@
       <c r="AL29" s="13"/>
       <c r="AM29" s="13"/>
     </row>
-    <row r="30" spans="2:78" s="206" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:78" s="206" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="206" t="s">
         <v>216</v>
       </c>
@@ -9994,7 +9984,7 @@
       <c r="AL30" s="207"/>
       <c r="AM30" s="207"/>
     </row>
-    <row r="31" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>217</v>
       </c>
@@ -10071,7 +10061,7 @@
       <c r="AL31" s="13"/>
       <c r="AM31" s="13"/>
     </row>
-    <row r="32" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -10109,7 +10099,7 @@
       <c r="AO32" s="51"/>
       <c r="AP32" s="81"/>
     </row>
-    <row r="33" spans="2:42" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:42" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>171</v>
       </c>
@@ -10149,7 +10139,7 @@
       <c r="AM33" s="13"/>
       <c r="AO33" s="81"/>
     </row>
-    <row r="34" spans="2:42" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:42" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>122</v>
       </c>
@@ -10228,7 +10218,7 @@
       <c r="AM34" s="13"/>
       <c r="AO34" s="81"/>
     </row>
-    <row r="35" spans="2:42" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:42" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="82" t="s">
         <v>128</v>
       </c>
@@ -10312,7 +10302,7 @@
       <c r="AO35" s="51"/>
       <c r="AP35" s="81"/>
     </row>
-    <row r="36" spans="2:42" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="82" t="s">
         <v>129</v>
       </c>
@@ -10374,11 +10364,11 @@
       </c>
       <c r="AP36" s="54"/>
     </row>
-    <row r="37" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="AP37" s="54"/>
     </row>
-    <row r="38" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>36</v>
       </c>
@@ -10391,7 +10381,7 @@
       <c r="L38" s="102"/>
       <c r="M38" s="102"/>
     </row>
-    <row r="39" spans="2:42" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:42" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>3</v>
       </c>
@@ -10434,7 +10424,7 @@
       <c r="R39" s="13"/>
       <c r="S39" s="2"/>
     </row>
-    <row r="40" spans="2:42" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
         <v>37</v>
       </c>
@@ -10472,7 +10462,7 @@
         <v>185.83099999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:42" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
         <v>41</v>
       </c>
@@ -10510,7 +10500,7 @@
         <v>72.924999999999997</v>
       </c>
     </row>
-    <row r="42" spans="2:42" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
         <v>38</v>
       </c>
@@ -10548,7 +10538,7 @@
         <v>387.81700000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:42" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
         <v>42</v>
       </c>
@@ -10586,7 +10576,7 @@
         <v>525.928</v>
       </c>
     </row>
-    <row r="44" spans="2:42" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
         <v>39</v>
       </c>
@@ -10624,7 +10614,7 @@
         <v>452.85199999999998</v>
       </c>
     </row>
-    <row r="45" spans="2:42" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="11" t="s">
         <v>40</v>
       </c>
@@ -10662,7 +10652,7 @@
         <v>204.92099999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:42" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B46" s="11" t="s">
         <v>45</v>
       </c>
@@ -10708,7 +10698,7 @@
         <v>184.107</v>
       </c>
     </row>
-    <row r="47" spans="2:42" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B47" s="11" t="s">
         <v>44</v>
       </c>
@@ -10746,7 +10736,7 @@
         <v>2.4350000000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:42" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B48" s="11" t="s">
         <v>43</v>
       </c>
@@ -10792,14 +10782,14 @@
         <v>5038.3230000000012</v>
       </c>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C49" s="2"/>
       <c r="F49" s="5"/>
       <c r="K49" s="80"/>
       <c r="L49" s="80"/>
       <c r="M49" s="80"/>
     </row>
-    <row r="50" spans="2:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B50" s="11" t="s">
         <v>46</v>
       </c>
@@ -10837,7 +10827,7 @@
         <v>45.098999999999997</v>
       </c>
     </row>
-    <row r="51" spans="2:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B51" s="11" t="s">
         <v>47</v>
       </c>
@@ -10875,7 +10865,7 @@
         <v>273.83199999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B52" s="11" t="s">
         <v>48</v>
       </c>
@@ -10913,7 +10903,7 @@
         <v>168.36699999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B53" s="11" t="s">
         <v>49</v>
       </c>
@@ -10953,7 +10943,7 @@
       <c r="Q53" s="53"/>
       <c r="R53" s="53"/>
     </row>
-    <row r="54" spans="2:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
         <v>50</v>
       </c>
@@ -10991,7 +10981,7 @@
         <v>960.92399999999998</v>
       </c>
     </row>
-    <row r="55" spans="2:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B55" s="11" t="s">
         <v>51</v>
       </c>
@@ -11029,7 +11019,7 @@
         <v>425.97300000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:19" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:19" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>4</v>
       </c>
@@ -11071,7 +11061,7 @@
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
     </row>
-    <row r="57" spans="2:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B57" s="11" t="s">
         <v>52</v>
       </c>
@@ -11109,7 +11099,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="2:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B58" s="11" t="s">
         <v>53</v>
       </c>
@@ -11155,7 +11145,7 @@
         <v>4613.7309999999998</v>
       </c>
     </row>
-    <row r="59" spans="2:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -11168,7 +11158,7 @@
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
     </row>
-    <row r="60" spans="2:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B60" s="11" t="s">
         <v>54</v>
       </c>
@@ -11206,7 +11196,7 @@
         <v>424.59300000000002</v>
       </c>
     </row>
-    <row r="61" spans="2:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B61" s="11" t="s">
         <v>55</v>
       </c>
@@ -11251,10 +11241,10 @@
         <v>5038.3239999999996</v>
       </c>
     </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
       <c r="F62" s="5"/>
     </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B63" s="189" t="s">
         <v>199</v>
       </c>
@@ -11291,7 +11281,7 @@
         <v>424.59200000000146</v>
       </c>
     </row>
-    <row r="64" spans="2:19" s="201" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:19" s="201" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B64" s="201" t="s">
         <v>200</v>
       </c>
@@ -11341,7 +11331,7 @@
       <c r="R64" s="202"/>
       <c r="S64" s="202"/>
     </row>
-    <row r="65" spans="2:19" s="201" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:19" s="201" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -11358,7 +11348,7 @@
       <c r="R65" s="202"/>
       <c r="S65" s="202"/>
     </row>
-    <row r="66" spans="2:19" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:19" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="60" t="s">
         <v>3</v>
       </c>
@@ -11402,7 +11392,7 @@
       <c r="R66" s="58"/>
       <c r="S66" s="58"/>
     </row>
-    <row r="67" spans="2:19" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="60" t="s">
         <v>4</v>
       </c>
@@ -11446,7 +11436,7 @@
       <c r="R67" s="58"/>
       <c r="S67" s="58"/>
     </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B68" s="203" t="s">
         <v>7</v>
       </c>
@@ -11483,7 +11473,7 @@
         <v>2032.8440000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:19" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:19" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="60" t="s">
         <v>0</v>
       </c>
@@ -11516,7 +11506,7 @@
       <c r="R70" s="58"/>
       <c r="S70" s="58"/>
     </row>
-    <row r="71" spans="2:19" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:19" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="60" t="s">
         <v>2</v>
       </c>
@@ -11557,7 +11547,7 @@
       <c r="R71" s="58"/>
       <c r="S71" s="58"/>
     </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B72" s="203" t="s">
         <v>5</v>
       </c>
@@ -11594,7 +11584,7 @@
         <v>19391.555360000002</v>
       </c>
     </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B74" s="203" t="s">
         <v>204</v>
       </c>
@@ -11627,7 +11617,7 @@
         <v>50.45879187549442</v>
       </c>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B75" s="203" t="s">
         <v>213</v>
       </c>
@@ -11660,7 +11650,7 @@
         <v>9.6732142474976506</v>
       </c>
     </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B76" s="227" t="s">
         <v>218</v>
       </c>
@@ -11693,7 +11683,7 @@
         <v>8.7553758888431883</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B77" s="203" t="s">
         <v>214</v>
       </c>
@@ -11727,7 +11717,7 @@
       </c>
       <c r="P77" s="245"/>
     </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B78" s="245" t="s">
         <v>253</v>
       </c>
@@ -11761,7 +11751,7 @@
       </c>
       <c r="P78" s="245"/>
     </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B79" s="245"/>
       <c r="G79" s="83"/>
       <c r="H79" s="83"/>
@@ -11772,7 +11762,7 @@
       <c r="M79" s="83"/>
       <c r="P79" s="245"/>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B80" s="245"/>
       <c r="G80" s="83"/>
       <c r="H80" s="83"/>
@@ -11783,7 +11773,7 @@
       <c r="M80" s="83"/>
       <c r="P80" s="245"/>
     </row>
-    <row r="81" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="247" t="s">
         <v>272</v>
       </c>
@@ -11822,7 +11812,7 @@
       <c r="R81" s="5"/>
       <c r="S81" s="5"/>
     </row>
-    <row r="82" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="247" t="s">
         <v>273</v>
       </c>
@@ -11851,7 +11841,7 @@
       <c r="R82" s="5"/>
       <c r="S82" s="5"/>
     </row>
-    <row r="83" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="250"/>
       <c r="C83" s="248"/>
       <c r="D83" s="248"/>
@@ -11869,7 +11859,7 @@
       <c r="R83" s="5"/>
       <c r="S83" s="5"/>
     </row>
-    <row r="84" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="251" t="s">
         <v>252</v>
       </c>
@@ -11889,7 +11879,7 @@
       <c r="R84" s="5"/>
       <c r="S84" s="5"/>
     </row>
-    <row r="85" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="252" t="s">
         <v>254</v>
       </c>
@@ -11917,7 +11907,7 @@
       <c r="R85" s="5"/>
       <c r="S85" s="5"/>
     </row>
-    <row r="86" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="252" t="s">
         <v>255</v>
       </c>
@@ -11945,7 +11935,7 @@
       <c r="R86" s="5"/>
       <c r="S86" s="5"/>
     </row>
-    <row r="87" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="252" t="s">
         <v>257</v>
       </c>
@@ -11973,7 +11963,7 @@
       <c r="R87" s="5"/>
       <c r="S87" s="5"/>
     </row>
-    <row r="88" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="252" t="s">
         <v>256</v>
       </c>
@@ -12001,7 +11991,7 @@
       <c r="R88" s="5"/>
       <c r="S88" s="5"/>
     </row>
-    <row r="89" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="252" t="s">
         <v>258</v>
       </c>
@@ -12029,7 +12019,7 @@
       <c r="R89" s="5"/>
       <c r="S89" s="5"/>
     </row>
-    <row r="90" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="252" t="s">
         <v>259</v>
       </c>
@@ -12061,7 +12051,7 @@
       <c r="R90" s="5"/>
       <c r="S90" s="5"/>
     </row>
-    <row r="91" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="247" t="s">
         <v>37</v>
       </c>
@@ -12089,7 +12079,7 @@
       <c r="R91" s="5"/>
       <c r="S91" s="5"/>
     </row>
-    <row r="92" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="247" t="s">
         <v>46</v>
       </c>
@@ -12117,7 +12107,7 @@
       <c r="R92" s="5"/>
       <c r="S92" s="5"/>
     </row>
-    <row r="93" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="247" t="s">
         <v>274</v>
       </c>
@@ -12145,7 +12135,7 @@
       <c r="R93" s="5"/>
       <c r="S93" s="5"/>
     </row>
-    <row r="94" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="247" t="s">
         <v>275</v>
       </c>
@@ -12173,7 +12163,7 @@
       <c r="R94" s="5"/>
       <c r="S94" s="5"/>
     </row>
-    <row r="95" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="247" t="s">
         <v>48</v>
       </c>
@@ -12201,7 +12191,7 @@
       <c r="R95" s="5"/>
       <c r="S95" s="5"/>
     </row>
-    <row r="96" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="247" t="s">
         <v>276</v>
       </c>
@@ -12229,7 +12219,7 @@
       <c r="R96" s="5"/>
       <c r="S96" s="5"/>
     </row>
-    <row r="97" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="247" t="s">
         <v>277</v>
       </c>
@@ -12257,7 +12247,7 @@
       <c r="R97" s="5"/>
       <c r="S97" s="5"/>
     </row>
-    <row r="98" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="247" t="s">
         <v>278</v>
       </c>
@@ -12285,7 +12275,7 @@
       <c r="R98" s="5"/>
       <c r="S98" s="5"/>
     </row>
-    <row r="99" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="247" t="s">
         <v>279</v>
       </c>
@@ -12313,7 +12303,7 @@
       <c r="R99" s="5"/>
       <c r="S99" s="5"/>
     </row>
-    <row r="100" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="247" t="s">
         <v>280</v>
       </c>
@@ -12341,7 +12331,7 @@
       <c r="R100" s="5"/>
       <c r="S100" s="5"/>
     </row>
-    <row r="101" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="3" t="s">
         <v>260</v>
       </c>
@@ -12373,7 +12363,7 @@
       <c r="R101" s="4"/>
       <c r="S101" s="4"/>
     </row>
-    <row r="102" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="250"/>
       <c r="C102" s="248"/>
       <c r="D102" s="248"/>
@@ -12391,7 +12381,7 @@
       <c r="R102" s="5"/>
       <c r="S102" s="5"/>
     </row>
-    <row r="103" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="252" t="s">
         <v>261</v>
       </c>
@@ -12419,7 +12409,7 @@
       <c r="R103" s="5"/>
       <c r="S103" s="5"/>
     </row>
-    <row r="104" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="252" t="s">
         <v>262</v>
       </c>
@@ -12447,7 +12437,7 @@
       <c r="R104" s="5"/>
       <c r="S104" s="5"/>
     </row>
-    <row r="105" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B105" s="252" t="s">
         <v>263</v>
       </c>
@@ -12475,7 +12465,7 @@
       <c r="R105" s="5"/>
       <c r="S105" s="5"/>
     </row>
-    <row r="106" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="3" t="s">
         <v>264</v>
       </c>
@@ -12507,7 +12497,7 @@
       <c r="R106" s="4"/>
       <c r="S106" s="4"/>
     </row>
-    <row r="107" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B107" s="250"/>
       <c r="C107" s="248"/>
       <c r="D107" s="248"/>
@@ -12525,7 +12515,7 @@
       <c r="R107" s="5"/>
       <c r="S107" s="5"/>
     </row>
-    <row r="108" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B108" s="252" t="s">
         <v>265</v>
       </c>
@@ -12553,7 +12543,7 @@
       <c r="R108" s="5"/>
       <c r="S108" s="5"/>
     </row>
-    <row r="109" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B109" s="252" t="s">
         <v>266</v>
       </c>
@@ -12581,7 +12571,7 @@
       <c r="R109" s="5"/>
       <c r="S109" s="5"/>
     </row>
-    <row r="110" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B110" s="252" t="s">
         <v>267</v>
       </c>
@@ -12609,7 +12599,7 @@
       <c r="R110" s="5"/>
       <c r="S110" s="5"/>
     </row>
-    <row r="111" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B111" s="252" t="s">
         <v>268</v>
       </c>
@@ -12637,7 +12627,7 @@
       <c r="R111" s="5"/>
       <c r="S111" s="5"/>
     </row>
-    <row r="112" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B112" s="252" t="s">
         <v>269</v>
       </c>
@@ -12665,7 +12655,7 @@
       <c r="R112" s="5"/>
       <c r="S112" s="5"/>
     </row>
-    <row r="113" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B113" s="252" t="s">
         <v>270</v>
       </c>
@@ -12693,7 +12683,7 @@
       <c r="R113" s="5"/>
       <c r="S113" s="5"/>
     </row>
-    <row r="114" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
         <v>271</v>
       </c>
@@ -12725,7 +12715,7 @@
       <c r="R114" s="4"/>
       <c r="S114" s="4"/>
     </row>
-    <row r="116" spans="2:19" s="246" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:19" s="246" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B116" s="246" t="s">
         <v>281</v>
       </c>
@@ -12757,7 +12747,7 @@
       <c r="R116" s="254"/>
       <c r="S116" s="254"/>
     </row>
-    <row r="117" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B117" s="246" t="s">
         <v>282</v>
       </c>
@@ -12778,10 +12768,10 @@
         <v>-67.70599999999996</v>
       </c>
     </row>
-    <row r="119" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B119" s="246"/>
     </row>
-    <row r="120" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B120" s="246"/>
     </row>
   </sheetData>
@@ -12812,9 +12802,9 @@
       <selection pane="bottomRight" activeCell="C18" sqref="C18:R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="18" width="9" style="22"/>
     <col min="19" max="19" width="9" style="218" customWidth="1"/>
@@ -12825,7 +12815,7 @@
     <col min="29" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B1" s="29" t="s">
         <v>81</v>
       </c>
@@ -12911,7 +12901,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>87</v>
       </c>
@@ -12995,7 +12985,7 @@
         <v>58.194624113701785</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
         <v>73</v>
       </c>
@@ -13087,7 +13077,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="s">
         <v>74</v>
       </c>
@@ -13179,7 +13169,7 @@
         <v>0.27830036493578869</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B5" s="27"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -13202,7 +13192,7 @@
       <c r="AA5" s="36"/>
       <c r="AB5" s="144"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
         <v>75</v>
       </c>
@@ -13283,7 +13273,7 @@
         <v>26.595802563155576</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B7" s="27" t="s">
         <v>77</v>
       </c>
@@ -13374,7 +13364,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B8" s="27" t="s">
         <v>78</v>
       </c>
@@ -13465,7 +13455,7 @@
         <v>0.18863922069969052</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B9" s="27"/>
       <c r="C9" s="24"/>
       <c r="P9" s="51"/>
@@ -13476,7 +13466,7 @@
       <c r="AA9" s="36"/>
       <c r="AB9" s="144"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B10" s="27" t="s">
         <v>76</v>
       </c>
@@ -13557,7 +13547,7 @@
         <v>32.221636253085059</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B11" s="27" t="s">
         <v>79</v>
       </c>
@@ -13648,7 +13638,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B12" s="27" t="s">
         <v>80</v>
       </c>
@@ -13739,7 +13729,7 @@
         <v>0.46461982968568449</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B13" s="27"/>
       <c r="P13" s="51"/>
       <c r="Q13" s="51"/>
@@ -13748,7 +13738,7 @@
       <c r="Z13" s="36"/>
       <c r="AA13" s="36"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>86</v>
       </c>
@@ -13833,7 +13823,7 @@
         <v>13076.950542642711</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B15" s="27" t="s">
         <v>84</v>
       </c>
@@ -13925,7 +13915,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B16" s="27" t="s">
         <v>85</v>
       </c>
@@ -14017,12 +14007,12 @@
         <v>0.26304636525259206</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P17" s="51"/>
       <c r="Q17" s="51"/>
       <c r="R17" s="51"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>173</v>
       </c>
@@ -14091,7 +14081,7 @@
       </c>
       <c r="AA18" s="127"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>175</v>
       </c>
@@ -14176,7 +14166,7 @@
       </c>
       <c r="AA19" s="127"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="30"/>
       <c r="B20" s="189" t="s">
         <v>202</v>
@@ -14249,7 +14239,7 @@
       <c r="U20" s="154"/>
       <c r="AA20" s="127"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="30"/>
       <c r="B21" s="189" t="s">
         <v>201</v>
@@ -14319,12 +14309,12 @@
       <c r="U21" s="154"/>
       <c r="AA21" s="127"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P22" s="51"/>
       <c r="Q22" s="51"/>
       <c r="R22" s="51"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B24" s="104"/>
       <c r="P24" s="105"/>
       <c r="Q24" s="105"/>

--- a/$RBLX.xlsx
+++ b/$RBLX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8678964B-17D9-45CE-9AFF-233B48A348B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE54676-BAC5-41F1-B2DA-6A299B3DA031}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{DB6ABC51-E0DE-6747-8CA5-53C172A4844D}"/>
   </bookViews>
@@ -2011,6 +2011,33 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2029,49 +2056,22 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="172" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="172" fontId="26" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4140,36 +4140,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="L1" s="260" t="s">
+      <c r="L1" s="269" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="261"/>
-      <c r="N1" s="261"/>
-      <c r="O1" s="261"/>
-      <c r="P1" s="261"/>
-      <c r="Q1" s="261"/>
-      <c r="R1" s="261"/>
-      <c r="S1" s="261"/>
-      <c r="T1" s="261"/>
-      <c r="U1" s="262"/>
-      <c r="W1" s="263" t="s">
+      <c r="M1" s="270"/>
+      <c r="N1" s="270"/>
+      <c r="O1" s="270"/>
+      <c r="P1" s="270"/>
+      <c r="Q1" s="270"/>
+      <c r="R1" s="270"/>
+      <c r="S1" s="270"/>
+      <c r="T1" s="270"/>
+      <c r="U1" s="271"/>
+      <c r="W1" s="272" t="s">
         <v>127</v>
       </c>
-      <c r="X1" s="264"/>
-      <c r="Y1" s="264"/>
-      <c r="Z1" s="264"/>
-      <c r="AA1" s="264"/>
-      <c r="AB1" s="264"/>
-      <c r="AC1" s="264"/>
-      <c r="AD1" s="264"/>
-      <c r="AE1" s="264"/>
-      <c r="AF1" s="264"/>
-      <c r="AG1" s="264"/>
-      <c r="AH1" s="264"/>
-      <c r="AI1" s="264"/>
-      <c r="AJ1" s="264"/>
-      <c r="AK1" s="264"/>
-      <c r="AL1" s="265"/>
+      <c r="X1" s="273"/>
+      <c r="Y1" s="273"/>
+      <c r="Z1" s="273"/>
+      <c r="AA1" s="273"/>
+      <c r="AB1" s="273"/>
+      <c r="AC1" s="273"/>
+      <c r="AD1" s="273"/>
+      <c r="AE1" s="273"/>
+      <c r="AF1" s="273"/>
+      <c r="AG1" s="273"/>
+      <c r="AH1" s="273"/>
+      <c r="AI1" s="273"/>
+      <c r="AJ1" s="273"/>
+      <c r="AK1" s="273"/>
+      <c r="AL1" s="274"/>
     </row>
     <row r="2" spans="2:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
@@ -4368,16 +4368,16 @@
       </c>
     </row>
     <row r="5" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B5" s="266" t="s">
+      <c r="B5" s="262" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="267"/>
-      <c r="D5" s="268"/>
-      <c r="F5" s="266" t="s">
+      <c r="C5" s="263"/>
+      <c r="D5" s="264"/>
+      <c r="F5" s="262" t="s">
         <v>193</v>
       </c>
-      <c r="G5" s="267"/>
-      <c r="H5" s="268"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="264"/>
       <c r="K5" s="27" t="s">
         <v>73</v>
       </c>
@@ -4479,16 +4479,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="9">
-        <v>35.53</v>
+        <v>37.21</v>
       </c>
       <c r="D6" s="42"/>
       <c r="F6" s="171" t="s">
         <v>194</v>
       </c>
-      <c r="G6" s="280" t="s">
+      <c r="G6" s="265" t="s">
         <v>284</v>
       </c>
-      <c r="H6" s="272"/>
+      <c r="H6" s="261"/>
       <c r="K6" s="27" t="s">
         <v>74</v>
       </c>
@@ -4593,10 +4593,10 @@
       <c r="F7" s="171" t="s">
         <v>283</v>
       </c>
-      <c r="G7" s="271">
+      <c r="G7" s="266">
         <v>2021</v>
       </c>
-      <c r="H7" s="272"/>
+      <c r="H7" s="261"/>
       <c r="K7" s="27"/>
       <c r="L7" s="58"/>
       <c r="M7" s="58"/>
@@ -4631,16 +4631,16 @@
       </c>
       <c r="C8" s="9">
         <f>C6*C7</f>
-        <v>21239.087869999999</v>
+        <v>22243.356589999999</v>
       </c>
       <c r="D8" s="39"/>
       <c r="F8" s="171" t="s">
         <v>195</v>
       </c>
-      <c r="G8" s="271">
+      <c r="G8" s="266">
         <v>2004</v>
       </c>
-      <c r="H8" s="272"/>
+      <c r="H8" s="261"/>
       <c r="K8" s="27" t="s">
         <v>75</v>
       </c>
@@ -4737,11 +4737,11 @@
       <c r="F9" s="171" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="271">
+      <c r="G9" s="266">
         <f>AL4</f>
         <v>58.8</v>
       </c>
-      <c r="H9" s="272"/>
+      <c r="H9" s="261"/>
       <c r="K9" s="27" t="s">
         <v>77</v>
       </c>
@@ -4850,8 +4850,8 @@
         <v>Q322</v>
       </c>
       <c r="F10" s="171"/>
-      <c r="G10" s="271"/>
-      <c r="H10" s="272"/>
+      <c r="G10" s="266"/>
+      <c r="H10" s="261"/>
       <c r="K10" s="27" t="s">
         <v>78</v>
       </c>
@@ -4986,16 +4986,16 @@
       </c>
       <c r="C12" s="43">
         <f>C8-C9+C10</f>
-        <v>19206.243869999998</v>
+        <v>20210.512589999998</v>
       </c>
       <c r="D12" s="41"/>
       <c r="F12" s="172" t="s">
         <v>196</v>
       </c>
-      <c r="G12" s="275" t="s">
+      <c r="G12" s="267" t="s">
         <v>197</v>
       </c>
-      <c r="H12" s="276"/>
+      <c r="H12" s="268"/>
       <c r="K12" s="27" t="s">
         <v>76</v>
       </c>
@@ -5267,16 +5267,16 @@
       </c>
     </row>
     <row r="15" spans="2:38" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="266" t="s">
+      <c r="B15" s="262" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="267"/>
-      <c r="D15" s="268"/>
-      <c r="F15" s="266" t="s">
+      <c r="C15" s="263"/>
+      <c r="D15" s="264"/>
+      <c r="F15" s="262" t="s">
         <v>203</v>
       </c>
-      <c r="G15" s="267"/>
-      <c r="H15" s="268"/>
+      <c r="G15" s="263"/>
+      <c r="H15" s="264"/>
       <c r="K15" s="27"/>
       <c r="L15" s="60"/>
       <c r="M15" s="60"/>
@@ -5293,18 +5293,18 @@
       <c r="B16" s="88" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="279" t="s">
+      <c r="C16" s="260" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="272"/>
+      <c r="D16" s="261"/>
       <c r="F16" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="G16" s="273">
+      <c r="G16" s="277">
         <f>C6/'Financial Model'!M64</f>
-        <v>50.022345852017764</v>
-      </c>
-      <c r="H16" s="274"/>
+        <v>52.387601721181568</v>
+      </c>
+      <c r="H16" s="278"/>
       <c r="J16" s="30" t="s">
         <v>86</v>
       </c>
@@ -5390,18 +5390,18 @@
       <c r="B17" s="100" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="269" t="s">
+      <c r="C17" s="275" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="270"/>
+      <c r="D17" s="276"/>
       <c r="F17" s="171" t="s">
         <v>213</v>
       </c>
-      <c r="G17" s="273">
+      <c r="G17" s="277">
         <f>C8/'Financial Model'!W3</f>
-        <v>11.06674559095781</v>
-      </c>
-      <c r="H17" s="274"/>
+        <v>11.590025427513091</v>
+      </c>
+      <c r="H17" s="278"/>
       <c r="K17" s="27" t="s">
         <v>84</v>
       </c>
@@ -5498,18 +5498,18 @@
       <c r="B18" s="88" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="279" t="s">
+      <c r="C18" s="260" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="272"/>
+      <c r="D18" s="261"/>
       <c r="F18" s="171" t="s">
         <v>214</v>
       </c>
-      <c r="G18" s="273">
+      <c r="G18" s="277">
         <f>C6/SUM('Financial Model'!J19:M19)</f>
-        <v>-26.606084776094907</v>
-      </c>
-      <c r="H18" s="274"/>
+        <v>-27.864126499253913</v>
+      </c>
+      <c r="H18" s="278"/>
       <c r="K18" s="27" t="s">
         <v>85</v>
       </c>
@@ -5601,22 +5601,22 @@
     </row>
     <row r="19" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B19" s="86"/>
-      <c r="C19" s="271"/>
-      <c r="D19" s="272"/>
+      <c r="C19" s="266"/>
+      <c r="D19" s="261"/>
       <c r="F19" s="171"/>
-      <c r="G19" s="271"/>
-      <c r="H19" s="272"/>
+      <c r="G19" s="266"/>
+      <c r="H19" s="261"/>
       <c r="K19" s="27"/>
       <c r="L19" s="60"/>
       <c r="M19" s="60"/>
     </row>
     <row r="20" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="87"/>
-      <c r="C20" s="277"/>
-      <c r="D20" s="278"/>
+      <c r="C20" s="279"/>
+      <c r="D20" s="280"/>
       <c r="F20" s="172"/>
-      <c r="G20" s="275"/>
-      <c r="H20" s="276"/>
+      <c r="G20" s="267"/>
+      <c r="H20" s="268"/>
       <c r="J20" s="30"/>
       <c r="K20" s="189" t="s">
         <v>212</v>
@@ -5647,14 +5647,14 @@
       </c>
     </row>
     <row r="23" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B23" s="266" t="s">
+      <c r="B23" s="262" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="267"/>
-      <c r="D23" s="267"/>
-      <c r="E23" s="267"/>
-      <c r="F23" s="267"/>
-      <c r="G23" s="268"/>
+      <c r="C23" s="263"/>
+      <c r="D23" s="263"/>
+      <c r="E23" s="263"/>
+      <c r="F23" s="263"/>
+      <c r="G23" s="264"/>
       <c r="K23" s="189" t="s">
         <v>209</v>
       </c>
@@ -5766,12 +5766,12 @@
       <c r="F31" s="97"/>
       <c r="G31" s="98"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="266" t="s">
+      <c r="K31" s="262" t="s">
         <v>181</v>
       </c>
-      <c r="L31" s="267"/>
-      <c r="M31" s="267"/>
-      <c r="N31" s="268"/>
+      <c r="L31" s="263"/>
+      <c r="M31" s="263"/>
+      <c r="N31" s="264"/>
     </row>
     <row r="32" spans="2:38" x14ac:dyDescent="0.25">
       <c r="J32" s="7"/>
@@ -5783,14 +5783,14 @@
       <c r="N32" s="92"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="266" t="s">
+      <c r="B33" s="262" t="s">
         <v>187</v>
       </c>
-      <c r="C33" s="267"/>
-      <c r="D33" s="267"/>
-      <c r="E33" s="267"/>
-      <c r="F33" s="267"/>
-      <c r="G33" s="268"/>
+      <c r="C33" s="263"/>
+      <c r="D33" s="263"/>
+      <c r="E33" s="263"/>
+      <c r="F33" s="263"/>
+      <c r="G33" s="264"/>
       <c r="J33" s="7"/>
       <c r="K33" s="163" t="s">
         <v>177</v>
@@ -6238,15 +6238,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="G7:H7"/>
     <mergeCell ref="L1:U1"/>
     <mergeCell ref="W1:AL1"/>
     <mergeCell ref="B33:G33"/>
@@ -6263,6 +6254,15 @@
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <hyperlinks>
@@ -6281,7 +6281,7 @@
   <dimension ref="B1:BZ120"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B122" sqref="B122"/>
@@ -9730,7 +9730,7 @@
       </c>
       <c r="AP27" s="133">
         <f>Main!C6</f>
-        <v>35.53</v>
+        <v>37.21</v>
       </c>
     </row>
     <row r="28" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="AP28" s="134">
         <f>AP26/AP27-1</f>
-        <v>0.86240933092866801</v>
+        <v>0.77832312625357636</v>
       </c>
     </row>
     <row r="29" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">

--- a/$RBLX.xlsx
+++ b/$RBLX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DA88E1-AACE-441B-A419-C3141840BAB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BE0CF7-B892-4ECA-9019-08C5064A265C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{DB6ABC51-E0DE-6747-8CA5-53C172A4844D}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="2" xr2:uid="{DB6ABC51-E0DE-6747-8CA5-53C172A4844D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="289">
   <si>
     <t>Price</t>
   </si>
@@ -882,6 +882,18 @@
   </si>
   <si>
     <t>San Mateo, CA</t>
+  </si>
+  <si>
+    <t>Q422 Earnings Call (Feb 15 23)</t>
+  </si>
+  <si>
+    <t>MISS</t>
+  </si>
+  <si>
+    <t>BEAT</t>
+  </si>
+  <si>
+    <t>MIXED</t>
   </si>
 </sst>
 </file>
@@ -1342,13 +1354,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7C80"/>
+        <fgColor rgb="FFF0E1FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0E1FF"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1487,7 +1499,7 @@
     <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="308">
+  <cellXfs count="312">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1565,12 +1577,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="168" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1585,9 +1591,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="17" fontId="39" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1713,12 +1716,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="27" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="27" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="27" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1749,34 +1746,19 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="39" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="40" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="40" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="40" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="39" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="15" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="40" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="39" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="40" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="30" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1919,17 +1901,6 @@
     <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="39" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="40" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="40" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="40" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="39" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="15" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="40" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="39" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1960,22 +1931,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="30" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="27" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="27" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="9" fontId="40" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="39" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1997,7 +1959,7 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="30" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2138,6 +2100,86 @@
     <xf numFmtId="17" fontId="27" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="39" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="40" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="40" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="39" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="40" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="40" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="39" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="30" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="27" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="30" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="27" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="27" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="40" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="39" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="30" fillId="14" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent3" xfId="5" builtinId="38"/>
@@ -2285,9 +2327,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Metrics!$D$1:$R$1</c:f>
+              <c:f>Metrics!$D$1:$S$1</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Q119</c:v>
                 </c:pt>
@@ -2333,15 +2375,18 @@
                 <c:pt idx="14">
                   <c:v>Q322</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q422</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Metrics!$D$2:$R$2</c:f>
+              <c:f>Metrics!$D$2:$S$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>15.8</c:v>
                 </c:pt>
@@ -2385,6 +2430,9 @@
                   <c:v>52.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>58.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>58.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -2495,9 +2543,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Metrics!$D$1:$R$1</c:f>
+              <c:f>Metrics!$D$1:$S$1</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Q119</c:v>
                 </c:pt>
@@ -2542,6 +2590,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Q322</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q422</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2705,9 +2756,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Metrics!$D$1:$R$1</c:f>
+              <c:f>Metrics!$D$1:$S$1</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Q119</c:v>
                 </c:pt>
@@ -2752,6 +2803,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Q322</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q422</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3749,64 +3803,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>22225</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>22225</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Connector 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{639C3BA6-F984-5954-2453-A358A267817A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13309600" y="0"/>
-          <a:ext cx="0" cy="10029825"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -3823,7 +3827,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18773775" y="0"/>
+          <a:off x="18764250" y="0"/>
           <a:ext cx="0" cy="10163175"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4185,8 +4189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE4A73D-2F46-7341-9C57-6E5B7A39A15C}">
   <dimension ref="B1:AL86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:H18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4204,64 +4208,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="L1" s="261" t="s">
+      <c r="L1" s="235" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="262"/>
-      <c r="N1" s="262"/>
-      <c r="O1" s="262"/>
-      <c r="P1" s="262"/>
-      <c r="Q1" s="262"/>
-      <c r="R1" s="262"/>
-      <c r="S1" s="262"/>
-      <c r="T1" s="262"/>
-      <c r="U1" s="263"/>
-      <c r="W1" s="264" t="s">
+      <c r="M1" s="236"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="236"/>
+      <c r="P1" s="236"/>
+      <c r="Q1" s="236"/>
+      <c r="R1" s="236"/>
+      <c r="S1" s="236"/>
+      <c r="T1" s="236"/>
+      <c r="U1" s="237"/>
+      <c r="W1" s="238" t="s">
         <v>127</v>
       </c>
-      <c r="X1" s="265"/>
-      <c r="Y1" s="265"/>
-      <c r="Z1" s="265"/>
-      <c r="AA1" s="265"/>
-      <c r="AB1" s="265"/>
-      <c r="AC1" s="265"/>
-      <c r="AD1" s="265"/>
-      <c r="AE1" s="265"/>
-      <c r="AF1" s="265"/>
-      <c r="AG1" s="265"/>
-      <c r="AH1" s="265"/>
-      <c r="AI1" s="265"/>
-      <c r="AJ1" s="265"/>
-      <c r="AK1" s="265"/>
-      <c r="AL1" s="266"/>
+      <c r="X1" s="239"/>
+      <c r="Y1" s="239"/>
+      <c r="Z1" s="239"/>
+      <c r="AA1" s="239"/>
+      <c r="AB1" s="239"/>
+      <c r="AC1" s="239"/>
+      <c r="AD1" s="239"/>
+      <c r="AE1" s="239"/>
+      <c r="AF1" s="239"/>
+      <c r="AG1" s="239"/>
+      <c r="AH1" s="239"/>
+      <c r="AI1" s="239"/>
+      <c r="AJ1" s="239"/>
+      <c r="AK1" s="239"/>
+      <c r="AL1" s="240"/>
     </row>
     <row r="2" spans="2:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="63"/>
-      <c r="L2" s="62" t="s">
+      <c r="K2" s="60"/>
+      <c r="L2" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="M2" s="62" t="s">
+      <c r="M2" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="N2" s="106"/>
-      <c r="O2" s="62" t="s">
+      <c r="N2" s="103"/>
+      <c r="O2" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="P2" s="62" t="s">
+      <c r="P2" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="Q2" s="189"/>
-      <c r="R2" s="188">
+      <c r="Q2" s="175"/>
+      <c r="R2" s="174">
         <v>44757</v>
       </c>
-      <c r="S2" s="188">
+      <c r="S2" s="174">
         <v>44788</v>
       </c>
-      <c r="T2" s="188"/>
-      <c r="U2" s="226"/>
+      <c r="T2" s="174"/>
+      <c r="U2" s="203"/>
     </row>
     <row r="3" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="44" t="s">
@@ -4270,34 +4274,34 @@
       <c r="K3" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="L3" s="56">
+      <c r="L3" s="53">
         <v>44562</v>
       </c>
-      <c r="M3" s="56">
+      <c r="M3" s="53">
         <v>44593</v>
       </c>
-      <c r="N3" s="107">
+      <c r="N3" s="104">
         <v>44621</v>
       </c>
-      <c r="O3" s="56">
+      <c r="O3" s="53">
         <v>44652</v>
       </c>
-      <c r="P3" s="56">
+      <c r="P3" s="53">
         <v>44682</v>
       </c>
-      <c r="Q3" s="107">
+      <c r="Q3" s="104">
         <v>44713</v>
       </c>
-      <c r="R3" s="56">
+      <c r="R3" s="53">
         <v>44743</v>
       </c>
-      <c r="S3" s="56">
+      <c r="S3" s="53">
         <v>44774</v>
       </c>
-      <c r="T3" s="56">
+      <c r="T3" s="53">
         <v>44805</v>
       </c>
-      <c r="U3" s="107">
+      <c r="U3" s="104">
         <v>44835</v>
       </c>
       <c r="V3" s="25"/>
@@ -4357,30 +4361,30 @@
       <c r="K4" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="L4" s="57">
+      <c r="L4" s="54">
         <v>54.7</v>
       </c>
-      <c r="M4" s="57">
+      <c r="M4" s="54">
         <v>55.1</v>
       </c>
-      <c r="N4" s="108"/>
-      <c r="O4" s="57">
+      <c r="N4" s="105"/>
+      <c r="O4" s="54">
         <v>53.1</v>
       </c>
-      <c r="P4" s="57">
+      <c r="P4" s="54">
         <v>50.4</v>
       </c>
-      <c r="Q4" s="190"/>
-      <c r="R4" s="57">
+      <c r="Q4" s="176"/>
+      <c r="R4" s="54">
         <v>58.5</v>
       </c>
-      <c r="S4" s="57">
+      <c r="S4" s="54">
         <v>59.9</v>
       </c>
-      <c r="T4" s="57">
+      <c r="T4" s="54">
         <v>57.8</v>
       </c>
-      <c r="U4" s="190"/>
+      <c r="U4" s="176"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1">
         <v>13.7</v>
@@ -4432,45 +4436,45 @@
       </c>
     </row>
     <row r="5" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B5" s="254" t="s">
+      <c r="B5" s="228" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="255"/>
-      <c r="D5" s="256"/>
-      <c r="F5" s="254" t="s">
+      <c r="C5" s="229"/>
+      <c r="D5" s="230"/>
+      <c r="F5" s="228" t="s">
         <v>193</v>
       </c>
-      <c r="G5" s="255"/>
-      <c r="H5" s="256"/>
+      <c r="G5" s="229"/>
+      <c r="H5" s="230"/>
       <c r="K5" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="L5" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="109"/>
-      <c r="O5" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" s="191" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="T5" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="U5" s="191" t="s">
+      <c r="L5" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="106"/>
+      <c r="O5" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="177" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="177" t="s">
         <v>33</v>
       </c>
       <c r="V5" s="24"/>
@@ -4546,40 +4550,40 @@
         <v>41.46</v>
       </c>
       <c r="D6" s="42"/>
-      <c r="F6" s="169" t="s">
+      <c r="F6" s="155" t="s">
         <v>194</v>
       </c>
-      <c r="G6" s="257" t="s">
+      <c r="G6" s="231" t="s">
         <v>284</v>
       </c>
-      <c r="H6" s="253"/>
+      <c r="H6" s="227"/>
       <c r="K6" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="L6" s="59">
+      <c r="L6" s="56">
         <v>0.32</v>
       </c>
-      <c r="M6" s="59">
+      <c r="M6" s="56">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N6" s="109"/>
-      <c r="O6" s="59">
+      <c r="N6" s="106"/>
+      <c r="O6" s="56">
         <v>0.23</v>
       </c>
-      <c r="P6" s="59">
+      <c r="P6" s="56">
         <v>0.17</v>
       </c>
-      <c r="Q6" s="192"/>
-      <c r="R6" s="59">
+      <c r="Q6" s="178"/>
+      <c r="R6" s="56">
         <v>0.26</v>
       </c>
-      <c r="S6" s="59">
+      <c r="S6" s="56">
         <v>0.24</v>
       </c>
-      <c r="T6" s="59">
+      <c r="T6" s="56">
         <v>0.27</v>
       </c>
-      <c r="U6" s="192"/>
+      <c r="U6" s="178"/>
       <c r="V6" s="24"/>
       <c r="W6" s="24" t="s">
         <v>33</v>
@@ -4650,27 +4654,27 @@
         <f>'Financial Model'!N20</f>
         <v>601.85900000000004</v>
       </c>
-      <c r="D7" s="305" t="s">
+      <c r="D7" s="279" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="169" t="s">
+      <c r="F7" s="155" t="s">
         <v>283</v>
       </c>
-      <c r="G7" s="258">
+      <c r="G7" s="232">
         <v>2021</v>
       </c>
-      <c r="H7" s="253"/>
+      <c r="H7" s="227"/>
       <c r="K7" s="27"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="109"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="191"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="191"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="177"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="177"/>
       <c r="V7" s="24"/>
       <c r="W7" s="24"/>
       <c r="X7" s="24"/>
@@ -4697,42 +4701,42 @@
         <v>24953.074140000001</v>
       </c>
       <c r="D8" s="39"/>
-      <c r="F8" s="169" t="s">
+      <c r="F8" s="155" t="s">
         <v>195</v>
       </c>
-      <c r="G8" s="258">
+      <c r="G8" s="232">
         <v>2004</v>
       </c>
-      <c r="H8" s="253"/>
+      <c r="H8" s="227"/>
       <c r="K8" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="L8" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="109"/>
-      <c r="O8" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" s="191" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="S8" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="T8" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="U8" s="191" t="s">
+      <c r="L8" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="106"/>
+      <c r="O8" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="177" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="T8" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" s="177" t="s">
         <v>33</v>
       </c>
       <c r="V8" s="24"/>
@@ -4793,46 +4797,46 @@
         <f>'Financial Model'!N66</f>
         <v>2977.4740000000002</v>
       </c>
-      <c r="D9" s="305" t="s">
+      <c r="D9" s="279" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="169" t="s">
+      <c r="F9" s="155" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="258">
+      <c r="G9" s="232">
         <f>AL4</f>
         <v>58.8</v>
       </c>
-      <c r="H9" s="253"/>
+      <c r="H9" s="227"/>
       <c r="K9" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="L9" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" s="109"/>
-      <c r="O9" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" s="191" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="T9" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="U9" s="191" t="s">
+      <c r="L9" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="106"/>
+      <c r="O9" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="177" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" s="177" t="s">
         <v>33</v>
       </c>
       <c r="V9" s="24"/>
@@ -4907,41 +4911,41 @@
         <f>'Financial Model'!N67</f>
         <v>988.98400000000004</v>
       </c>
-      <c r="D10" s="305" t="s">
+      <c r="D10" s="279" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="169"/>
-      <c r="G10" s="258"/>
-      <c r="H10" s="253"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="232"/>
+      <c r="H10" s="227"/>
       <c r="K10" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="L10" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="109"/>
-      <c r="O10" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" s="191" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="S10" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="T10" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="U10" s="191" t="s">
+      <c r="L10" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="106"/>
+      <c r="O10" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="177" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="T10" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10" s="177" t="s">
         <v>33</v>
       </c>
       <c r="V10" s="24"/>
@@ -4992,15 +4996,15 @@
         <f t="shared" si="8"/>
         <v>0.2102564102564104</v>
       </c>
-      <c r="AJ10" s="148">
+      <c r="AJ10" s="137">
         <f t="shared" si="8"/>
         <v>0.19718309859154926</v>
       </c>
-      <c r="AK10" s="148">
+      <c r="AK10" s="137">
         <f t="shared" ref="AK10:AL10" si="9">AK8/AG8-1</f>
         <v>0.12558139534883717</v>
       </c>
-      <c r="AL10" s="148">
+      <c r="AL10" s="137">
         <f t="shared" si="9"/>
         <v>0.14285714285714279</v>
       </c>
@@ -5013,34 +5017,34 @@
         <f>C9-C10</f>
         <v>1988.4900000000002</v>
       </c>
-      <c r="D11" s="305" t="s">
+      <c r="D11" s="279" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="169" t="s">
+      <c r="F11" s="155" t="s">
         <v>198</v>
       </c>
-      <c r="G11" s="306" t="s">
+      <c r="G11" s="280" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="307">
+      <c r="H11" s="281">
         <v>42036</v>
       </c>
       <c r="K11" s="27"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="191"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="191"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="177"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="177"/>
       <c r="V11" s="24"/>
       <c r="W11" s="24"/>
       <c r="AC11" s="22"/>
-      <c r="AJ11" s="149"/>
-      <c r="AK11" s="149"/>
+      <c r="AJ11" s="138"/>
+      <c r="AK11" s="138"/>
     </row>
     <row r="12" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="40" t="s">
@@ -5051,42 +5055,42 @@
         <v>22964.584140000003</v>
       </c>
       <c r="D12" s="41"/>
-      <c r="F12" s="170" t="s">
+      <c r="F12" s="156" t="s">
         <v>196</v>
       </c>
-      <c r="G12" s="259" t="s">
+      <c r="G12" s="233" t="s">
         <v>197</v>
       </c>
-      <c r="H12" s="260"/>
+      <c r="H12" s="234"/>
       <c r="K12" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="L12" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="M12" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" s="109"/>
-      <c r="O12" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="P12" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q12" s="191" t="s">
-        <v>33</v>
-      </c>
-      <c r="R12" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="S12" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="T12" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="U12" s="191" t="s">
+      <c r="L12" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="106"/>
+      <c r="O12" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="177" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="S12" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="T12" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="U12" s="177" t="s">
         <v>33</v>
       </c>
       <c r="V12" s="24"/>
@@ -5143,32 +5147,32 @@
       <c r="K13" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="L13" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="109"/>
-      <c r="O13" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="P13" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q13" s="191" t="s">
-        <v>33</v>
-      </c>
-      <c r="R13" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="S13" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="T13" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="U13" s="191" t="s">
+      <c r="L13" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="106"/>
+      <c r="O13" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="177" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="S13" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13" s="177" t="s">
         <v>33</v>
       </c>
       <c r="V13" s="24"/>
@@ -5239,32 +5243,32 @@
       <c r="K14" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="L14" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" s="109"/>
-      <c r="O14" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="P14" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q14" s="191" t="s">
-        <v>33</v>
-      </c>
-      <c r="R14" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="S14" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="T14" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="U14" s="191" t="s">
+      <c r="L14" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="106"/>
+      <c r="O14" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="P14" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="177" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="S14" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" s="177" t="s">
         <v>33</v>
       </c>
       <c r="V14" s="24"/>
@@ -5329,74 +5333,74 @@
       </c>
     </row>
     <row r="15" spans="2:38" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="254" t="s">
+      <c r="B15" s="228" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="255"/>
-      <c r="D15" s="256"/>
-      <c r="F15" s="254" t="s">
+      <c r="C15" s="229"/>
+      <c r="D15" s="230"/>
+      <c r="F15" s="228" t="s">
         <v>203</v>
       </c>
-      <c r="G15" s="255"/>
-      <c r="H15" s="256"/>
+      <c r="G15" s="229"/>
+      <c r="H15" s="230"/>
       <c r="K15" s="27"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="193"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="193"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="179"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="179"/>
     </row>
     <row r="16" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="252" t="s">
+      <c r="C16" s="226" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="253"/>
-      <c r="F16" s="169" t="s">
+      <c r="D16" s="227"/>
+      <c r="F16" s="155" t="s">
         <v>204</v>
       </c>
-      <c r="G16" s="269">
+      <c r="G16" s="243">
         <f>C6/'Financial Model'!N64</f>
         <v>81.803970495189361</v>
       </c>
-      <c r="H16" s="270"/>
+      <c r="H16" s="244"/>
       <c r="J16" s="30" t="s">
         <v>86</v>
       </c>
       <c r="K16" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="L16" s="61">
+      <c r="L16" s="58">
         <v>4200</v>
       </c>
-      <c r="M16" s="61">
+      <c r="M16" s="58">
         <v>3800</v>
       </c>
-      <c r="N16" s="110"/>
-      <c r="O16" s="61">
+      <c r="N16" s="107"/>
+      <c r="O16" s="58">
         <v>3800</v>
       </c>
-      <c r="P16" s="61">
+      <c r="P16" s="58">
         <v>3600</v>
       </c>
-      <c r="Q16" s="193"/>
-      <c r="R16" s="61">
+      <c r="Q16" s="179"/>
+      <c r="R16" s="58">
         <v>4700</v>
       </c>
-      <c r="S16" s="61">
+      <c r="S16" s="58">
         <v>4700</v>
       </c>
-      <c r="T16" s="61">
+      <c r="T16" s="58">
         <v>4000</v>
       </c>
-      <c r="U16" s="227"/>
+      <c r="U16" s="204"/>
       <c r="V16" s="31"/>
       <c r="W16" s="31">
         <v>2530</v>
@@ -5444,53 +5448,53 @@
       <c r="AK16" s="31">
         <v>11300</v>
       </c>
-      <c r="AL16" s="239">
+      <c r="AL16" s="213">
         <v>13400</v>
       </c>
     </row>
     <row r="17" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="97" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="267" t="s">
+      <c r="C17" s="241" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="268"/>
-      <c r="F17" s="169" t="s">
+      <c r="D17" s="242"/>
+      <c r="F17" s="155" t="s">
         <v>213</v>
       </c>
-      <c r="G17" s="269">
+      <c r="G17" s="243">
         <f>C8/SUM('Financial Model'!$K$3:$N$3)</f>
         <v>11.214602687937182</v>
       </c>
-      <c r="H17" s="270"/>
+      <c r="H17" s="244"/>
       <c r="K17" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="L17" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="M17" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="N17" s="109"/>
-      <c r="O17" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="P17" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q17" s="191"/>
-      <c r="R17" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="S17" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="T17" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="U17" s="191"/>
+      <c r="L17" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="106"/>
+      <c r="O17" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="P17" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="177"/>
+      <c r="R17" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="T17" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="U17" s="177"/>
       <c r="V17" s="24"/>
       <c r="W17" s="24" t="s">
         <v>33</v>
@@ -5557,48 +5561,48 @@
       </c>
     </row>
     <row r="18" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="252" t="s">
+      <c r="C18" s="226" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="253"/>
-      <c r="F18" s="169" t="s">
+      <c r="D18" s="227"/>
+      <c r="F18" s="155" t="s">
         <v>214</v>
       </c>
-      <c r="G18" s="269">
+      <c r="G18" s="243">
         <f>C6/SUM('Financial Model'!K19:N19)</f>
         <v>-26.466723449006508</v>
       </c>
-      <c r="H18" s="270"/>
+      <c r="H18" s="244"/>
       <c r="K18" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="L18" s="59">
+      <c r="L18" s="56">
         <v>0.26</v>
       </c>
-      <c r="M18" s="59">
+      <c r="M18" s="56">
         <v>0.21</v>
       </c>
-      <c r="N18" s="109"/>
-      <c r="O18" s="59">
+      <c r="N18" s="106"/>
+      <c r="O18" s="56">
         <v>0.18</v>
       </c>
-      <c r="P18" s="59">
+      <c r="P18" s="56">
         <v>0.1</v>
       </c>
-      <c r="Q18" s="192"/>
-      <c r="R18" s="59">
+      <c r="Q18" s="178"/>
+      <c r="R18" s="56">
         <v>0.25</v>
       </c>
-      <c r="S18" s="59">
+      <c r="S18" s="56">
         <v>0.18</v>
       </c>
-      <c r="T18" s="59">
+      <c r="T18" s="56">
         <v>0.16</v>
       </c>
-      <c r="U18" s="192"/>
+      <c r="U18" s="178"/>
       <c r="V18" s="24"/>
       <c r="W18" s="24" t="s">
         <v>33</v>
@@ -5648,42 +5652,47 @@
         <f t="shared" si="16"/>
         <v>0.28327402135231328</v>
       </c>
-      <c r="AJ18" s="148">
+      <c r="AJ18" s="137">
         <f t="shared" si="16"/>
         <v>0.25244573082489175</v>
       </c>
-      <c r="AK18" s="148">
+      <c r="AK18" s="137">
         <f t="shared" ref="AK18:AL18" si="17">AK16/AG16-1</f>
         <v>0.16040254672417342</v>
       </c>
-      <c r="AL18" s="148">
+      <c r="AL18" s="137">
         <f t="shared" si="17"/>
         <v>0.198140200286123</v>
       </c>
     </row>
     <row r="19" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B19" s="86"/>
-      <c r="C19" s="258"/>
-      <c r="D19" s="253"/>
-      <c r="F19" s="169"/>
-      <c r="G19" s="258"/>
-      <c r="H19" s="253"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="232"/>
+      <c r="D19" s="227"/>
+      <c r="F19" s="155" t="s">
+        <v>218</v>
+      </c>
+      <c r="G19" s="243">
+        <f>C12/SUM('Financial Model'!K3:N3)</f>
+        <v>10.32092020321323</v>
+      </c>
+      <c r="H19" s="244"/>
       <c r="K19" s="27"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
     </row>
     <row r="20" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="87"/>
-      <c r="C20" s="271"/>
-      <c r="D20" s="272"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="259"/>
-      <c r="H20" s="260"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="245"/>
+      <c r="D20" s="246"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="233"/>
+      <c r="H20" s="234"/>
       <c r="J20" s="30"/>
-      <c r="K20" s="186" t="s">
+      <c r="K20" s="172" t="s">
         <v>212</v>
       </c>
-      <c r="M20" s="57"/>
+      <c r="M20" s="54"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
@@ -5699,429 +5708,432 @@
       <c r="AI20" s="1"/>
     </row>
     <row r="21" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="K21" s="186" t="s">
+      <c r="K21" s="172" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="22" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="K22" s="186" t="s">
+      <c r="K22" s="172" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="23" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B23" s="254" t="s">
+      <c r="B23" s="228" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="255"/>
-      <c r="D23" s="255"/>
-      <c r="E23" s="255"/>
-      <c r="F23" s="255"/>
-      <c r="G23" s="256"/>
-      <c r="K23" s="186" t="s">
+      <c r="C23" s="229"/>
+      <c r="D23" s="229"/>
+      <c r="E23" s="229"/>
+      <c r="F23" s="229"/>
+      <c r="G23" s="230"/>
+      <c r="K23" s="172" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="24" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="100" t="s">
         <v>169</v>
       </c>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="92"/>
-      <c r="K24" s="60" t="s">
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="89"/>
+      <c r="K24" s="57" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="25" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="100" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="92"/>
-      <c r="K25" s="89" t="s">
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="89"/>
+      <c r="K25" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="89" t="s">
+      <c r="L25" s="86" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B26" s="93"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="92"/>
-      <c r="K26" s="89" t="s">
+      <c r="B26" s="90"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="89"/>
+      <c r="K26" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="L26" s="89" t="s">
+      <c r="L26" s="86" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="27" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="92"/>
-      <c r="K27" s="89" t="s">
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="89"/>
+      <c r="K27" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="L27" s="89" t="s">
+      <c r="L27" s="86" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="28" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="87" t="s">
         <v>162</v>
       </c>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="92"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="89"/>
     </row>
     <row r="29" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B29" s="99" t="s">
+      <c r="B29" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="92"/>
-      <c r="K29" s="89" t="s">
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="89"/>
+      <c r="K29" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="L29" s="89" t="s">
+      <c r="L29" s="86" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="30" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B30" s="90" t="s">
+      <c r="B30" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="92"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="89"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="P30" s="1" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="31" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B31" s="95" t="s">
+      <c r="B31" s="92" t="s">
         <v>150</v>
       </c>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="98"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="95"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="254" t="s">
+      <c r="K31" s="228" t="s">
         <v>181</v>
       </c>
-      <c r="L31" s="255"/>
-      <c r="M31" s="255"/>
-      <c r="N31" s="256"/>
+      <c r="L31" s="229"/>
+      <c r="M31" s="229"/>
+      <c r="N31" s="230"/>
     </row>
     <row r="32" spans="2:38" x14ac:dyDescent="0.25">
       <c r="J32" s="7"/>
-      <c r="K32" s="161" t="s">
+      <c r="K32" s="147" t="s">
         <v>176</v>
       </c>
-      <c r="L32" s="91"/>
-      <c r="M32" s="91"/>
-      <c r="N32" s="92"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="89"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="254" t="s">
+      <c r="B33" s="228" t="s">
         <v>187</v>
       </c>
-      <c r="C33" s="255"/>
-      <c r="D33" s="255"/>
-      <c r="E33" s="255"/>
-      <c r="F33" s="255"/>
-      <c r="G33" s="256"/>
+      <c r="C33" s="229"/>
+      <c r="D33" s="229"/>
+      <c r="E33" s="229"/>
+      <c r="F33" s="229"/>
+      <c r="G33" s="230"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="161" t="s">
+      <c r="K33" s="147" t="s">
         <v>177</v>
       </c>
-      <c r="L33" s="158" t="s">
+      <c r="L33" s="144" t="s">
         <v>178</v>
       </c>
-      <c r="M33" s="158"/>
-      <c r="N33" s="92"/>
+      <c r="M33" s="144"/>
+      <c r="N33" s="89"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="194">
+      <c r="B34" s="180">
         <v>44743</v>
       </c>
-      <c r="C34" s="195" t="s">
+      <c r="C34" s="181" t="s">
         <v>205</v>
       </c>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="92"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="89"/>
       <c r="J34" s="7"/>
-      <c r="K34" s="161" t="s">
+      <c r="K34" s="147" t="s">
         <v>179</v>
       </c>
-      <c r="L34" s="159" t="s">
+      <c r="L34" s="145" t="s">
         <v>180</v>
       </c>
-      <c r="M34" s="159"/>
-      <c r="N34" s="92"/>
+      <c r="M34" s="145"/>
+      <c r="N34" s="89"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="155"/>
-      <c r="C35" s="196" t="s">
+      <c r="B35" s="141"/>
+      <c r="C35" s="182" t="s">
         <v>206</v>
       </c>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="92"/>
-      <c r="J35" s="197" t="s">
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="89"/>
+      <c r="J35" s="183" t="s">
         <v>207</v>
       </c>
-      <c r="K35" s="161" t="s">
+      <c r="K35" s="147" t="s">
         <v>184</v>
       </c>
-      <c r="L35" s="160" t="s">
+      <c r="L35" s="146" t="s">
         <v>185</v>
       </c>
-      <c r="M35" s="160"/>
-      <c r="N35" s="92"/>
+      <c r="M35" s="146"/>
+      <c r="N35" s="89"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="155"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="92"/>
+      <c r="B36" s="141"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="89"/>
       <c r="J36" s="7"/>
-      <c r="K36" s="162" t="s">
+      <c r="K36" s="148" t="s">
         <v>151</v>
       </c>
-      <c r="L36" s="91"/>
-      <c r="M36" s="91"/>
-      <c r="N36" s="92"/>
+      <c r="L36" s="88"/>
+      <c r="M36" s="88"/>
+      <c r="N36" s="89"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="155"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="92"/>
+      <c r="B37" s="141"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="89"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="162" t="s">
+      <c r="K37" s="148" t="s">
         <v>152</v>
       </c>
-      <c r="L37" s="91"/>
-      <c r="M37" s="91"/>
-      <c r="N37" s="92"/>
+      <c r="L37" s="88"/>
+      <c r="M37" s="88"/>
+      <c r="N37" s="89"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="155"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="92"/>
+      <c r="B38" s="141"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="89"/>
       <c r="J38" s="7"/>
-      <c r="K38" s="162" t="s">
+      <c r="K38" s="148" t="s">
         <v>153</v>
       </c>
-      <c r="L38" s="91"/>
-      <c r="M38" s="91"/>
-      <c r="N38" s="92"/>
+      <c r="L38" s="88"/>
+      <c r="M38" s="88"/>
+      <c r="N38" s="89"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="155"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="92"/>
+      <c r="B39" s="141"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="89"/>
       <c r="J39" s="7"/>
-      <c r="K39" s="162" t="s">
+      <c r="K39" s="148" t="s">
         <v>166</v>
       </c>
-      <c r="L39" s="91"/>
-      <c r="M39" s="91"/>
-      <c r="N39" s="92"/>
+      <c r="L39" s="88"/>
+      <c r="M39" s="88"/>
+      <c r="N39" s="89"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="166">
+      <c r="B40" s="152">
         <v>44682</v>
       </c>
-      <c r="C40" s="157" t="s">
+      <c r="C40" s="143" t="s">
         <v>189</v>
       </c>
-      <c r="D40" s="91"/>
-      <c r="E40" s="91"/>
-      <c r="F40" s="91"/>
-      <c r="G40" s="92"/>
-      <c r="J40" s="197" t="s">
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="89"/>
+      <c r="J40" s="183" t="s">
         <v>208</v>
       </c>
-      <c r="K40" s="161" t="s">
+      <c r="K40" s="147" t="s">
         <v>182</v>
       </c>
-      <c r="L40" s="91"/>
-      <c r="M40" s="91"/>
-      <c r="N40" s="92"/>
+      <c r="L40" s="88"/>
+      <c r="M40" s="88"/>
+      <c r="N40" s="89"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="155"/>
-      <c r="C41" s="165" t="s">
+      <c r="B41" s="141"/>
+      <c r="C41" s="151" t="s">
         <v>188</v>
       </c>
-      <c r="D41" s="91"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="92"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="89"/>
       <c r="J41" s="7"/>
-      <c r="K41" s="161" t="s">
+      <c r="K41" s="147" t="s">
         <v>183</v>
       </c>
-      <c r="L41" s="91"/>
-      <c r="M41" s="91"/>
-      <c r="N41" s="92"/>
+      <c r="L41" s="88"/>
+      <c r="M41" s="88"/>
+      <c r="N41" s="89"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="156"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="98"/>
+      <c r="B42" s="142"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="95"/>
       <c r="J42" s="7"/>
-      <c r="K42" s="163"/>
-      <c r="L42" s="91"/>
-      <c r="M42" s="91"/>
-      <c r="N42" s="92"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="88"/>
+      <c r="M42" s="88"/>
+      <c r="N42" s="89"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J43" s="7"/>
-      <c r="K43" s="168" t="s">
+      <c r="K43" s="154" t="s">
         <v>191</v>
       </c>
-      <c r="L43" s="159" t="s">
+      <c r="L43" s="145" t="s">
         <v>192</v>
       </c>
-      <c r="M43" s="91"/>
-      <c r="N43" s="92"/>
+      <c r="M43" s="88"/>
+      <c r="N43" s="89"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J44" s="7"/>
-      <c r="K44" s="162" t="s">
+      <c r="K44" s="148" t="s">
         <v>154</v>
       </c>
-      <c r="L44" s="91"/>
-      <c r="M44" s="91"/>
-      <c r="N44" s="92"/>
+      <c r="L44" s="88"/>
+      <c r="M44" s="88"/>
+      <c r="N44" s="89"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="200" t="s">
+      <c r="B45" s="186" t="s">
         <v>215</v>
       </c>
       <c r="J45" s="7"/>
-      <c r="K45" s="162" t="s">
+      <c r="K45" s="148" t="s">
         <v>155</v>
       </c>
-      <c r="L45" s="91"/>
-      <c r="M45" s="91"/>
-      <c r="N45" s="92"/>
+      <c r="L45" s="88"/>
+      <c r="M45" s="88"/>
+      <c r="N45" s="89"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J46" s="7"/>
-      <c r="K46" s="162" t="s">
+      <c r="K46" s="148" t="s">
         <v>156</v>
       </c>
-      <c r="L46" s="91"/>
-      <c r="M46" s="91"/>
-      <c r="N46" s="92"/>
+      <c r="L46" s="88"/>
+      <c r="M46" s="88"/>
+      <c r="N46" s="89"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>220</v>
       </c>
       <c r="J47" s="7"/>
-      <c r="K47" s="162" t="s">
+      <c r="K47" s="148" t="s">
         <v>157</v>
       </c>
-      <c r="L47" s="91"/>
-      <c r="M47" s="91"/>
-      <c r="N47" s="92"/>
+      <c r="L47" s="88"/>
+      <c r="M47" s="88"/>
+      <c r="N47" s="89"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="228" t="s">
+      <c r="B48" s="205" t="s">
         <v>219</v>
       </c>
       <c r="J48" s="7"/>
-      <c r="K48" s="230" t="s">
+      <c r="K48" s="207" t="s">
         <v>158</v>
       </c>
-      <c r="L48" s="91"/>
-      <c r="M48" s="91"/>
-      <c r="N48" s="92"/>
+      <c r="L48" s="88"/>
+      <c r="M48" s="88"/>
+      <c r="N48" s="89"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="228" t="s">
+      <c r="B49" s="205" t="s">
         <v>221</v>
       </c>
-      <c r="K49" s="163"/>
-      <c r="L49" s="91"/>
-      <c r="M49" s="91"/>
-      <c r="N49" s="92"/>
+      <c r="K49" s="149"/>
+      <c r="L49" s="88"/>
+      <c r="M49" s="88"/>
+      <c r="N49" s="89"/>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="229" t="s">
+      <c r="B50" s="206" t="s">
         <v>222</v>
       </c>
-      <c r="J50" s="231" t="s">
+      <c r="J50" s="208" t="s">
         <v>238</v>
       </c>
-      <c r="K50" s="230" t="s">
+      <c r="K50" s="207" t="s">
         <v>236</v>
       </c>
-      <c r="L50" s="159" t="s">
+      <c r="L50" s="145" t="s">
         <v>237</v>
       </c>
-      <c r="M50" s="91"/>
-      <c r="N50" s="92"/>
+      <c r="M50" s="88"/>
+      <c r="N50" s="89"/>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="229" t="s">
+      <c r="B51" s="206" t="s">
         <v>223</v>
       </c>
-      <c r="K51" s="164"/>
-      <c r="L51" s="96"/>
-      <c r="M51" s="96"/>
-      <c r="N51" s="98"/>
+      <c r="K51" s="150"/>
+      <c r="L51" s="93"/>
+      <c r="M51" s="93"/>
+      <c r="N51" s="95"/>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B52" s="229" t="s">
+      <c r="B52" s="206" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="229" t="s">
+      <c r="B53" s="206" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6131,7 +6143,7 @@
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="228" t="s">
+      <c r="B55" s="205" t="s">
         <v>226</v>
       </c>
       <c r="K55" s="20" t="s">
@@ -6144,7 +6156,7 @@
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="228" t="s">
+      <c r="B57" s="205" t="s">
         <v>227</v>
       </c>
       <c r="K57" s="20" t="s">
@@ -6152,7 +6164,7 @@
       </c>
     </row>
     <row r="58" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="228" t="s">
+      <c r="B58" s="205" t="s">
         <v>228</v>
       </c>
       <c r="K58" s="21" t="s">
@@ -6160,7 +6172,7 @@
       </c>
     </row>
     <row r="59" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="229" t="s">
+      <c r="B59" s="206" t="s">
         <v>229</v>
       </c>
       <c r="K59" s="21" t="s">
@@ -6168,7 +6180,7 @@
       </c>
     </row>
     <row r="60" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="229" t="s">
+      <c r="B60" s="206" t="s">
         <v>230</v>
       </c>
       <c r="K60" s="21" t="s">
@@ -6176,28 +6188,28 @@
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="229" t="s">
+      <c r="B61" s="206" t="s">
         <v>231</v>
       </c>
-      <c r="K61" s="85" t="s">
+      <c r="K61" s="82" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B62" s="229" t="s">
+      <c r="B62" s="206" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B64" s="228" t="s">
+      <c r="B64" s="205" t="s">
         <v>233</v>
       </c>
-      <c r="K64" s="101" t="s">
+      <c r="K64" s="98" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="228" t="s">
+      <c r="B65" s="205" t="s">
         <v>234</v>
       </c>
       <c r="K65" s="1" t="s">
@@ -6205,96 +6217,96 @@
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K66" s="82" t="s">
+      <c r="K66" s="79" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="228" t="s">
+      <c r="B67" s="205" t="s">
         <v>235</v>
       </c>
-      <c r="K67" s="89" t="s">
+      <c r="K67" s="86" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K68" s="89" t="s">
+      <c r="K68" s="86" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B69" s="228" t="s">
+      <c r="B69" s="205" t="s">
         <v>239</v>
       </c>
-      <c r="K69" s="89" t="s">
+      <c r="K69" s="86" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K70" s="89" t="s">
+      <c r="K70" s="86" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B71" s="228" t="s">
+      <c r="B71" s="205" t="s">
         <v>240</v>
       </c>
-      <c r="K71" s="89" t="s">
+      <c r="K71" s="86" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="229" t="s">
+      <c r="B72" s="206" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B74" s="228" t="s">
+      <c r="B74" s="205" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B76" s="228" t="s">
+      <c r="B76" s="205" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B77" s="229" t="s">
+      <c r="B77" s="206" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="228" t="s">
+      <c r="B79" s="205" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B80" s="229" t="s">
+      <c r="B80" s="206" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="228" t="s">
+      <c r="B82" s="205" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="229" t="s">
+      <c r="B83" s="206" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="229" t="s">
+      <c r="B84" s="206" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="229" t="s">
+      <c r="B85" s="206" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="238" t="s">
+      <c r="B86" s="212" t="s">
         <v>251</v>
       </c>
     </row>
@@ -6334,6 +6346,9 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="119" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId4"/>
+  <ignoredErrors>
+    <ignoredError sqref="G19" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId5"/>
 </worksheet>
 </file>
@@ -6346,7 +6361,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N117" sqref="N117"/>
+      <selection pane="bottomRight" activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6358,14 +6373,15 @@
     <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="9.125" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="9.125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="9.625" style="281" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9" style="6"/>
+    <col min="14" max="14" width="9.625" style="255" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="133"/>
+    <col min="16" max="16" width="9" style="6"/>
     <col min="17" max="19" width="9" style="7"/>
     <col min="20" max="21" width="9" style="6"/>
     <col min="22" max="22" width="10.5" style="6" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9" style="293"/>
-    <col min="25" max="25" width="9" style="122" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" style="267"/>
+    <col min="25" max="25" width="9" style="117" bestFit="1" customWidth="1"/>
     <col min="26" max="40" width="9" style="6"/>
     <col min="41" max="41" width="15.875" style="6" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="10" style="6" bestFit="1" customWidth="1"/>
@@ -6402,29 +6418,29 @@
       <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="171" t="s">
+      <c r="L1" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="209" t="s">
+      <c r="M1" s="195" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="303" t="s">
+      <c r="N1" s="277" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="282" t="s">
         <v>108</v>
       </c>
       <c r="P1" s="2"/>
-      <c r="Q1" s="67" t="s">
+      <c r="Q1" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="172" t="s">
+      <c r="R1" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="67" t="s">
+      <c r="S1" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="111" t="s">
+      <c r="T1" s="291" t="s">
         <v>15</v>
       </c>
       <c r="V1" s="2" t="s">
@@ -6433,10 +6449,10 @@
       <c r="W1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="X1" s="273" t="s">
+      <c r="X1" s="247" t="s">
         <v>91</v>
       </c>
-      <c r="Y1" s="111" t="s">
+      <c r="Y1" s="108" t="s">
         <v>95</v>
       </c>
       <c r="Z1" s="2" t="s">
@@ -6516,20 +6532,21 @@
       <c r="M2" s="33">
         <v>44834</v>
       </c>
-      <c r="N2" s="274">
+      <c r="N2" s="248">
         <v>44926</v>
       </c>
-      <c r="Q2" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="R2" s="173" t="s">
-        <v>119</v>
-      </c>
-      <c r="S2" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="T2" s="112" t="s">
-        <v>119</v>
+      <c r="O2" s="283"/>
+      <c r="Q2" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="R2" s="159" t="s">
+        <v>287</v>
+      </c>
+      <c r="S2" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="T2" s="292" t="s">
+        <v>288</v>
       </c>
       <c r="V2" s="33">
         <v>44196</v>
@@ -6537,52 +6554,52 @@
       <c r="W2" s="33">
         <v>44561</v>
       </c>
-      <c r="X2" s="288" t="s">
+      <c r="X2" s="262" t="s">
         <v>119</v>
       </c>
-      <c r="Y2" s="112" t="s">
+      <c r="Y2" s="109" t="s">
         <v>119</v>
       </c>
-      <c r="Z2" s="50" t="s">
+      <c r="Z2" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="AA2" s="50" t="s">
+      <c r="AA2" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="AB2" s="50" t="s">
+      <c r="AB2" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="AC2" s="50" t="s">
+      <c r="AC2" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="AD2" s="50" t="s">
+      <c r="AD2" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="AE2" s="50" t="s">
+      <c r="AE2" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="AF2" s="50" t="s">
+      <c r="AF2" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="AG2" s="50" t="s">
+      <c r="AG2" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="AH2" s="50" t="s">
+      <c r="AH2" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="AI2" s="50" t="s">
+      <c r="AI2" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="AJ2" s="50" t="s">
+      <c r="AJ2" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="AK2" s="50" t="s">
+      <c r="AK2" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="AL2" s="50" t="s">
+      <c r="AL2" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="AM2" s="50" t="s">
+      <c r="AM2" s="48" t="s">
         <v>119</v>
       </c>
     </row>
@@ -6623,23 +6640,26 @@
       <c r="M3" s="4">
         <v>517.70699999999999</v>
       </c>
-      <c r="N3" s="275">
+      <c r="N3" s="249">
         <v>579.00400000000002</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="Q3" s="69">
+      <c r="O3" s="290">
+        <f>N3*(1+O27)</f>
+        <v>607.95420000000001</v>
+      </c>
+      <c r="Q3" s="66">
         <f>G3*1.67</f>
         <v>646.24991999999997</v>
       </c>
-      <c r="R3" s="174">
+      <c r="R3" s="160">
         <f>H3*1.23</f>
         <v>558.54300000000001</v>
       </c>
-      <c r="S3" s="69">
+      <c r="S3" s="66">
         <f>I3*1.25</f>
         <v>636.67000000000007</v>
       </c>
-      <c r="T3" s="113">
+      <c r="T3" s="293">
         <v>621.24839999999995</v>
       </c>
       <c r="V3" s="3">
@@ -6650,11 +6670,11 @@
         <f>SUM(G3:J3)</f>
         <v>1919.181</v>
       </c>
-      <c r="X3" s="289">
+      <c r="X3" s="263">
         <f>SUM(K3:N3)</f>
         <v>2225.0519999999997</v>
       </c>
-      <c r="Y3" s="119">
+      <c r="Y3" s="114">
         <f>X3*1.15</f>
         <v>2558.8097999999995</v>
       </c>
@@ -6752,23 +6772,23 @@
       <c r="M4" s="5">
         <v>126.437</v>
       </c>
-      <c r="N4" s="276">
+      <c r="N4" s="250">
         <v>142.43199999999999</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="Q4" s="70">
+      <c r="O4" s="136"/>
+      <c r="Q4" s="67">
         <f>Q3-Q5</f>
         <v>174.48747839999999</v>
       </c>
-      <c r="R4" s="175">
+      <c r="R4" s="161">
         <f>R3-R5</f>
         <v>145.22118</v>
       </c>
-      <c r="S4" s="70">
+      <c r="S4" s="67">
         <f>S3-S5</f>
         <v>165.5342</v>
       </c>
-      <c r="T4" s="114">
+      <c r="T4" s="294">
         <v>107.47144999999999</v>
       </c>
       <c r="V4" s="36">
@@ -6779,11 +6799,11 @@
         <f>SUM(G4:J4)</f>
         <v>496.87</v>
       </c>
-      <c r="X4" s="290">
+      <c r="X4" s="264">
         <f>SUM(K4:N4)</f>
         <v>547.65800000000002</v>
       </c>
-      <c r="Y4" s="120">
+      <c r="Y4" s="115">
         <f>Y3-Y5</f>
         <v>690.87864599999989</v>
       </c>
@@ -6892,25 +6912,25 @@
         <f t="shared" si="6"/>
         <v>391.27</v>
       </c>
-      <c r="N5" s="275">
+      <c r="N5" s="249">
         <f t="shared" si="6"/>
         <v>436.572</v>
       </c>
-      <c r="O5" s="55"/>
+      <c r="O5" s="284"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="71">
+      <c r="Q5" s="68">
         <f>Q3*0.73</f>
         <v>471.76244159999999</v>
       </c>
-      <c r="R5" s="176">
+      <c r="R5" s="162">
         <f>R3*0.74</f>
         <v>413.32182</v>
       </c>
-      <c r="S5" s="71">
+      <c r="S5" s="68">
         <f>S3*0.74</f>
         <v>471.13580000000007</v>
       </c>
-      <c r="T5" s="232">
+      <c r="T5" s="295">
         <v>472.14878399999998</v>
       </c>
       <c r="U5" s="1"/>
@@ -6922,11 +6942,11 @@
         <f>W3-W4</f>
         <v>1422.3110000000001</v>
       </c>
-      <c r="X5" s="289">
+      <c r="X5" s="263">
         <f>X3-X4</f>
         <v>1677.3939999999998</v>
       </c>
-      <c r="Y5" s="119">
+      <c r="Y5" s="114">
         <f>Y3*0.73</f>
         <v>1867.9311539999997</v>
       </c>
@@ -7024,24 +7044,24 @@
       <c r="M6" s="5">
         <v>151.47</v>
       </c>
-      <c r="N6" s="277">
+      <c r="N6" s="251">
         <v>182.11500000000001</v>
       </c>
-      <c r="O6" s="46"/>
+      <c r="O6" s="285"/>
       <c r="P6" s="23"/>
-      <c r="Q6" s="72">
+      <c r="Q6" s="69">
         <f>G6*1.025</f>
         <v>121.91144999999999</v>
       </c>
-      <c r="R6" s="177">
+      <c r="R6" s="163">
         <f>H6*1.23</f>
         <v>159.54821999999999</v>
       </c>
-      <c r="S6" s="72">
+      <c r="S6" s="69">
         <f>I6*1.15</f>
         <v>149.44479999999999</v>
       </c>
-      <c r="T6" s="233">
+      <c r="T6" s="296">
         <v>183.67455000000001</v>
       </c>
       <c r="V6" s="36">
@@ -7052,67 +7072,67 @@
         <f>SUM(G6:J6)</f>
         <v>538.32100000000003</v>
       </c>
-      <c r="X6" s="291">
+      <c r="X6" s="265">
         <f>SUM(K6:N6)</f>
         <v>623.85500000000002</v>
       </c>
-      <c r="Y6" s="298">
+      <c r="Y6" s="272">
         <f>X6*1.015</f>
         <v>633.21282499999995</v>
       </c>
-      <c r="Z6" s="48">
+      <c r="Z6" s="46">
         <f t="shared" ref="Z6:AK6" si="9">Y6*1.015</f>
         <v>642.71101737499987</v>
       </c>
-      <c r="AA6" s="48">
+      <c r="AA6" s="46">
         <f t="shared" si="9"/>
         <v>652.3516826356248</v>
       </c>
-      <c r="AB6" s="48">
+      <c r="AB6" s="46">
         <f t="shared" si="9"/>
         <v>662.13695787515906</v>
       </c>
-      <c r="AC6" s="48">
+      <c r="AC6" s="46">
         <f t="shared" si="9"/>
         <v>672.06901224328635</v>
       </c>
-      <c r="AD6" s="48">
+      <c r="AD6" s="46">
         <f t="shared" si="9"/>
         <v>682.15004742693554</v>
       </c>
-      <c r="AE6" s="48">
+      <c r="AE6" s="46">
         <f t="shared" si="9"/>
         <v>692.38229813833948</v>
       </c>
-      <c r="AF6" s="48">
+      <c r="AF6" s="46">
         <f t="shared" si="9"/>
         <v>702.76803261041448</v>
       </c>
-      <c r="AG6" s="48">
+      <c r="AG6" s="46">
         <f t="shared" si="9"/>
         <v>713.30955309957062</v>
       </c>
-      <c r="AH6" s="48">
+      <c r="AH6" s="46">
         <f t="shared" si="9"/>
         <v>724.00919639606411</v>
       </c>
-      <c r="AI6" s="48">
+      <c r="AI6" s="46">
         <f t="shared" si="9"/>
         <v>734.869334342005</v>
       </c>
-      <c r="AJ6" s="48">
+      <c r="AJ6" s="46">
         <f t="shared" si="9"/>
         <v>745.89237435713505</v>
       </c>
-      <c r="AK6" s="48">
+      <c r="AK6" s="46">
         <f t="shared" si="9"/>
         <v>757.08075997249205</v>
       </c>
-      <c r="AL6" s="48">
+      <c r="AL6" s="46">
         <f t="shared" ref="AL6:AM6" si="10">AK6*1.015</f>
         <v>768.43697137207937</v>
       </c>
-      <c r="AM6" s="48">
+      <c r="AM6" s="46">
         <f t="shared" si="10"/>
         <v>779.96352594266045</v>
       </c>
@@ -7154,24 +7174,24 @@
       <c r="M7" s="5">
         <v>190.98599999999999</v>
       </c>
-      <c r="N7" s="277">
+      <c r="N7" s="251">
         <v>198.505</v>
       </c>
-      <c r="O7" s="46"/>
+      <c r="O7" s="285"/>
       <c r="P7" s="23"/>
-      <c r="Q7" s="72">
+      <c r="Q7" s="69">
         <f>J7*1.11</f>
         <v>150.94779000000003</v>
       </c>
-      <c r="R7" s="177">
+      <c r="R7" s="163">
         <f>H7*1.5</f>
         <v>163.47900000000001</v>
       </c>
-      <c r="S7" s="72">
+      <c r="S7" s="69">
         <f>I7*1.5</f>
         <v>176.0805</v>
       </c>
-      <c r="T7" s="233">
+      <c r="T7" s="296">
         <v>203.98349999999999</v>
       </c>
       <c r="V7" s="36">
@@ -7182,67 +7202,67 @@
         <f>SUM(G7:J7)</f>
         <v>456.49800000000005</v>
       </c>
-      <c r="X7" s="291">
+      <c r="X7" s="265">
         <f>SUM(K7:N7)</f>
         <v>689.08100000000002</v>
       </c>
-      <c r="Y7" s="298">
+      <c r="Y7" s="272">
         <f>X7*1.05</f>
         <v>723.53505000000007</v>
       </c>
-      <c r="Z7" s="48">
+      <c r="Z7" s="46">
         <f t="shared" ref="Z7:AK7" si="11">Y7*1.05</f>
         <v>759.71180250000009</v>
       </c>
-      <c r="AA7" s="48">
+      <c r="AA7" s="46">
         <f t="shared" si="11"/>
         <v>797.69739262500013</v>
       </c>
-      <c r="AB7" s="48">
+      <c r="AB7" s="46">
         <f t="shared" si="11"/>
         <v>837.58226225625015</v>
       </c>
-      <c r="AC7" s="48">
+      <c r="AC7" s="46">
         <f t="shared" si="11"/>
         <v>879.46137536906269</v>
       </c>
-      <c r="AD7" s="48">
+      <c r="AD7" s="46">
         <f t="shared" si="11"/>
         <v>923.43444413751581</v>
       </c>
-      <c r="AE7" s="48">
+      <c r="AE7" s="46">
         <f t="shared" si="11"/>
         <v>969.60616634439168</v>
       </c>
-      <c r="AF7" s="48">
+      <c r="AF7" s="46">
         <f t="shared" si="11"/>
         <v>1018.0864746616113</v>
       </c>
-      <c r="AG7" s="48">
+      <c r="AG7" s="46">
         <f t="shared" si="11"/>
         <v>1068.9907983946919</v>
       </c>
-      <c r="AH7" s="48">
+      <c r="AH7" s="46">
         <f t="shared" si="11"/>
         <v>1122.4403383144265</v>
       </c>
-      <c r="AI7" s="48">
+      <c r="AI7" s="46">
         <f t="shared" si="11"/>
         <v>1178.5623552301479</v>
       </c>
-      <c r="AJ7" s="48">
+      <c r="AJ7" s="46">
         <f t="shared" si="11"/>
         <v>1237.4904729916552</v>
       </c>
-      <c r="AK7" s="48">
+      <c r="AK7" s="46">
         <f t="shared" si="11"/>
         <v>1299.3649966412381</v>
       </c>
-      <c r="AL7" s="48">
+      <c r="AL7" s="46">
         <f t="shared" ref="AL7:AM7" si="12">AK7*1.05</f>
         <v>1364.3332464733001</v>
       </c>
-      <c r="AM7" s="48">
+      <c r="AM7" s="46">
         <f t="shared" si="12"/>
         <v>1432.5499087969652</v>
       </c>
@@ -7284,24 +7304,24 @@
       <c r="M8" s="5">
         <v>235.55099999999999</v>
       </c>
-      <c r="N8" s="278">
+      <c r="N8" s="252">
         <v>248.40700000000001</v>
       </c>
-      <c r="O8" s="45"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="73">
+      <c r="O8" s="286"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="70">
         <f>J8*1.1</f>
         <v>190.92700000000002</v>
       </c>
-      <c r="R8" s="178">
+      <c r="R8" s="164">
         <f>K8*1.012</f>
         <v>179.89514400000002</v>
       </c>
-      <c r="S8" s="73">
+      <c r="S8" s="70">
         <f>R8*1.012</f>
         <v>182.05388572800001</v>
       </c>
-      <c r="T8" s="234">
+      <c r="T8" s="297">
         <v>254.39508000000001</v>
       </c>
       <c r="V8" s="36">
@@ -7312,67 +7332,67 @@
         <f>SUM(G8:J8)</f>
         <v>533.20699999999999</v>
       </c>
-      <c r="X8" s="291">
+      <c r="X8" s="265">
         <f>SUM(K8:N8)</f>
         <v>873.47699999999998</v>
       </c>
-      <c r="Y8" s="298">
+      <c r="Y8" s="272">
         <f>X8*1</f>
         <v>873.47699999999998</v>
       </c>
-      <c r="Z8" s="48">
+      <c r="Z8" s="46">
         <f t="shared" ref="Z8:AK8" si="13">Y8*1</f>
         <v>873.47699999999998</v>
       </c>
-      <c r="AA8" s="48">
+      <c r="AA8" s="46">
         <f t="shared" si="13"/>
         <v>873.47699999999998</v>
       </c>
-      <c r="AB8" s="48">
+      <c r="AB8" s="46">
         <f t="shared" si="13"/>
         <v>873.47699999999998</v>
       </c>
-      <c r="AC8" s="48">
+      <c r="AC8" s="46">
         <f t="shared" si="13"/>
         <v>873.47699999999998</v>
       </c>
-      <c r="AD8" s="48">
+      <c r="AD8" s="46">
         <f t="shared" si="13"/>
         <v>873.47699999999998</v>
       </c>
-      <c r="AE8" s="48">
+      <c r="AE8" s="46">
         <f t="shared" si="13"/>
         <v>873.47699999999998</v>
       </c>
-      <c r="AF8" s="48">
+      <c r="AF8" s="46">
         <f t="shared" si="13"/>
         <v>873.47699999999998</v>
       </c>
-      <c r="AG8" s="48">
+      <c r="AG8" s="46">
         <f t="shared" si="13"/>
         <v>873.47699999999998</v>
       </c>
-      <c r="AH8" s="48">
+      <c r="AH8" s="46">
         <f t="shared" si="13"/>
         <v>873.47699999999998</v>
       </c>
-      <c r="AI8" s="48">
+      <c r="AI8" s="46">
         <f t="shared" si="13"/>
         <v>873.47699999999998</v>
       </c>
-      <c r="AJ8" s="48">
+      <c r="AJ8" s="46">
         <f t="shared" si="13"/>
         <v>873.47699999999998</v>
       </c>
-      <c r="AK8" s="48">
+      <c r="AK8" s="46">
         <f t="shared" si="13"/>
         <v>873.47699999999998</v>
       </c>
-      <c r="AL8" s="48">
+      <c r="AL8" s="46">
         <f t="shared" ref="AL8:AM8" si="14">AK8*1</f>
         <v>873.47699999999998</v>
       </c>
-      <c r="AM8" s="48">
+      <c r="AM8" s="46">
         <f t="shared" si="14"/>
         <v>873.47699999999998</v>
       </c>
@@ -7414,24 +7434,24 @@
       <c r="M9" s="5">
         <v>81.165000000000006</v>
       </c>
-      <c r="N9" s="276">
+      <c r="N9" s="250">
         <v>79.703999999999994</v>
       </c>
-      <c r="O9" s="5"/>
+      <c r="O9" s="136"/>
       <c r="P9" s="23"/>
-      <c r="Q9" s="70">
+      <c r="Q9" s="67">
         <f>G9*1.01</f>
         <v>95.318749999999994</v>
       </c>
-      <c r="R9" s="175">
+      <c r="R9" s="161">
         <f>K9*1.01</f>
         <v>58.349719999999998</v>
       </c>
-      <c r="S9" s="70">
+      <c r="S9" s="67">
         <f>R9*1.01</f>
         <v>58.933217200000001</v>
       </c>
-      <c r="T9" s="114">
+      <c r="T9" s="294">
         <v>81.976650000000006</v>
       </c>
       <c r="V9" s="36">
@@ -7442,67 +7462,67 @@
         <f>SUM(G9:J9)</f>
         <v>303.02</v>
       </c>
-      <c r="X9" s="291">
+      <c r="X9" s="265">
         <f>SUM(K9:N9)</f>
         <v>297.31700000000001</v>
       </c>
-      <c r="Y9" s="298">
+      <c r="Y9" s="272">
         <f>X9*1</f>
         <v>297.31700000000001</v>
       </c>
-      <c r="Z9" s="48">
+      <c r="Z9" s="46">
         <f t="shared" ref="Z9:AK9" si="15">Y9*1</f>
         <v>297.31700000000001</v>
       </c>
-      <c r="AA9" s="48">
+      <c r="AA9" s="46">
         <f t="shared" si="15"/>
         <v>297.31700000000001</v>
       </c>
-      <c r="AB9" s="48">
+      <c r="AB9" s="46">
         <f t="shared" si="15"/>
         <v>297.31700000000001</v>
       </c>
-      <c r="AC9" s="48">
+      <c r="AC9" s="46">
         <f t="shared" si="15"/>
         <v>297.31700000000001</v>
       </c>
-      <c r="AD9" s="48">
+      <c r="AD9" s="46">
         <f t="shared" si="15"/>
         <v>297.31700000000001</v>
       </c>
-      <c r="AE9" s="48">
+      <c r="AE9" s="46">
         <f t="shared" si="15"/>
         <v>297.31700000000001</v>
       </c>
-      <c r="AF9" s="48">
+      <c r="AF9" s="46">
         <f t="shared" si="15"/>
         <v>297.31700000000001</v>
       </c>
-      <c r="AG9" s="48">
+      <c r="AG9" s="46">
         <f t="shared" si="15"/>
         <v>297.31700000000001</v>
       </c>
-      <c r="AH9" s="48">
+      <c r="AH9" s="46">
         <f t="shared" si="15"/>
         <v>297.31700000000001</v>
       </c>
-      <c r="AI9" s="48">
+      <c r="AI9" s="46">
         <f t="shared" si="15"/>
         <v>297.31700000000001</v>
       </c>
-      <c r="AJ9" s="48">
+      <c r="AJ9" s="46">
         <f t="shared" si="15"/>
         <v>297.31700000000001</v>
       </c>
-      <c r="AK9" s="48">
+      <c r="AK9" s="46">
         <f t="shared" si="15"/>
         <v>297.31700000000001</v>
       </c>
-      <c r="AL9" s="48">
+      <c r="AL9" s="46">
         <f t="shared" ref="AL9:AM9" si="16">AK9*1</f>
         <v>297.31700000000001</v>
       </c>
-      <c r="AM9" s="48">
+      <c r="AM9" s="46">
         <f t="shared" si="16"/>
         <v>297.31700000000001</v>
       </c>
@@ -7544,23 +7564,23 @@
       <c r="M10" s="5">
         <v>32.104999999999997</v>
       </c>
-      <c r="N10" s="278">
+      <c r="N10" s="252">
         <v>29.74</v>
       </c>
-      <c r="O10" s="7"/>
+      <c r="O10" s="211"/>
       <c r="P10" s="23"/>
-      <c r="Q10" s="74">
+      <c r="Q10" s="71">
         <v>25</v>
       </c>
-      <c r="R10" s="178">
+      <c r="R10" s="164">
         <f>K10*1.05</f>
         <v>30.557100000000002</v>
       </c>
-      <c r="S10" s="73">
+      <c r="S10" s="70">
         <f>R10*1.05</f>
         <v>32.084955000000001</v>
       </c>
-      <c r="T10" s="234">
+      <c r="T10" s="297">
         <v>33.710249999999995</v>
       </c>
       <c r="V10" s="36">
@@ -7571,67 +7591,67 @@
         <f>SUM(G10:J10)</f>
         <v>86.363</v>
       </c>
-      <c r="X10" s="291">
+      <c r="X10" s="265">
         <f>SUM(K10:N10)</f>
         <v>117.44799999999999</v>
       </c>
-      <c r="Y10" s="298">
+      <c r="Y10" s="272">
         <f>X10*0.95</f>
         <v>111.57559999999999</v>
       </c>
-      <c r="Z10" s="48">
+      <c r="Z10" s="46">
         <f t="shared" ref="Z10:AK10" si="17">Y10*0.95</f>
         <v>105.99681999999999</v>
       </c>
-      <c r="AA10" s="48">
+      <c r="AA10" s="46">
         <f t="shared" si="17"/>
         <v>100.69697899999998</v>
       </c>
-      <c r="AB10" s="48">
+      <c r="AB10" s="46">
         <f t="shared" si="17"/>
         <v>95.662130049999988</v>
       </c>
-      <c r="AC10" s="48">
+      <c r="AC10" s="46">
         <f t="shared" si="17"/>
         <v>90.879023547499983</v>
       </c>
-      <c r="AD10" s="48">
+      <c r="AD10" s="46">
         <f t="shared" si="17"/>
         <v>86.335072370124976</v>
       </c>
-      <c r="AE10" s="48">
+      <c r="AE10" s="46">
         <f t="shared" si="17"/>
         <v>82.018318751618722</v>
       </c>
-      <c r="AF10" s="48">
+      <c r="AF10" s="46">
         <f t="shared" si="17"/>
         <v>77.917402814037786</v>
       </c>
-      <c r="AG10" s="48">
+      <c r="AG10" s="46">
         <f t="shared" si="17"/>
         <v>74.021532673335898</v>
       </c>
-      <c r="AH10" s="48">
+      <c r="AH10" s="46">
         <f t="shared" si="17"/>
         <v>70.320456039669097</v>
       </c>
-      <c r="AI10" s="48">
+      <c r="AI10" s="46">
         <f t="shared" si="17"/>
         <v>66.804433237685643</v>
       </c>
-      <c r="AJ10" s="48">
+      <c r="AJ10" s="46">
         <f t="shared" si="17"/>
         <v>63.464211575801357</v>
       </c>
-      <c r="AK10" s="48">
+      <c r="AK10" s="46">
         <f t="shared" si="17"/>
         <v>60.291000997011288</v>
       </c>
-      <c r="AL10" s="48">
+      <c r="AL10" s="46">
         <f t="shared" ref="AL10:AM10" si="18">AK10*0.95</f>
         <v>57.276450947160718</v>
       </c>
-      <c r="AM10" s="48">
+      <c r="AM10" s="46">
         <f t="shared" si="18"/>
         <v>54.412628399802678</v>
       </c>
@@ -7684,24 +7704,24 @@
         <f t="shared" ref="M11" si="22">M10+M9+M8+M7+M6</f>
         <v>691.27700000000004</v>
       </c>
-      <c r="N11" s="276">
+      <c r="N11" s="250">
         <f t="shared" si="21"/>
         <v>738.471</v>
       </c>
-      <c r="O11" s="5"/>
-      <c r="Q11" s="70">
+      <c r="O11" s="136"/>
+      <c r="Q11" s="67">
         <f>Q10+Q9+Q8+Q7+Q6</f>
         <v>584.10499000000004</v>
       </c>
-      <c r="R11" s="175">
+      <c r="R11" s="161">
         <f>R10+R9+R8+R7+R6</f>
         <v>591.82918400000005</v>
       </c>
-      <c r="S11" s="70">
+      <c r="S11" s="67">
         <f>S10+S9+S8+S7+S6</f>
         <v>598.59735792800006</v>
       </c>
-      <c r="T11" s="114">
+      <c r="T11" s="294">
         <v>757.74002999999993</v>
       </c>
       <c r="V11" s="9">
@@ -7712,11 +7732,11 @@
         <f>SUM(W6:W10)</f>
         <v>1917.4090000000001</v>
       </c>
-      <c r="X11" s="292">
+      <c r="X11" s="266">
         <f>SUM(X6:X10)</f>
         <v>2601.1779999999999</v>
       </c>
-      <c r="Y11" s="120">
+      <c r="Y11" s="115">
         <f t="shared" ref="Y11:AK11" si="23">SUM(Y6:Y10)</f>
         <v>2639.117475</v>
       </c>
@@ -7825,24 +7845,24 @@
         <f t="shared" ref="M12:N12" si="29">M5-M11</f>
         <v>-300.00700000000006</v>
       </c>
-      <c r="N12" s="275">
+      <c r="N12" s="249">
         <f t="shared" si="29"/>
         <v>-301.899</v>
       </c>
-      <c r="O12" s="4"/>
-      <c r="Q12" s="69">
+      <c r="O12" s="287"/>
+      <c r="Q12" s="66">
         <f>Q5-Q11</f>
         <v>-112.34254840000006</v>
       </c>
-      <c r="R12" s="174">
+      <c r="R12" s="160">
         <f>R5-R11</f>
         <v>-178.50736400000005</v>
       </c>
-      <c r="S12" s="69">
+      <c r="S12" s="66">
         <f>S5-S11</f>
         <v>-127.46155792799999</v>
       </c>
-      <c r="T12" s="113">
+      <c r="T12" s="293">
         <v>-285.59124599999996</v>
       </c>
       <c r="V12" s="4">
@@ -7853,11 +7873,11 @@
         <f>W5-W11</f>
         <v>-495.09799999999996</v>
       </c>
-      <c r="X12" s="275">
+      <c r="X12" s="249">
         <f>X5-X11</f>
         <v>-923.78400000000011</v>
       </c>
-      <c r="Y12" s="113">
+      <c r="Y12" s="110">
         <f t="shared" ref="Y12:AK12" si="30">Y5-Y11</f>
         <v>-771.18632100000036</v>
       </c>
@@ -7956,24 +7976,24 @@
       <c r="M13" s="5">
         <v>12.763999999999999</v>
       </c>
-      <c r="N13" s="276">
+      <c r="N13" s="250">
         <f>21.636-10.008</f>
         <v>11.628</v>
       </c>
-      <c r="O13" s="5"/>
-      <c r="Q13" s="70">
+      <c r="O13" s="136"/>
+      <c r="Q13" s="67">
         <f t="shared" ref="Q13:S15" si="33">G13</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="R13" s="175">
+      <c r="R13" s="161">
         <f t="shared" si="33"/>
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="S13" s="70">
+      <c r="S13" s="67">
         <f t="shared" si="33"/>
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="T13" s="114">
+      <c r="T13" s="294">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="V13" s="36">
@@ -7984,67 +8004,67 @@
         <f>SUM(G13:J13)</f>
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="X13" s="291">
+      <c r="X13" s="265">
         <f>SUM(K13:N13)</f>
         <v>18.942999999999998</v>
       </c>
-      <c r="Y13" s="298">
+      <c r="Y13" s="272">
         <f>X13*1.008</f>
         <v>19.094543999999999</v>
       </c>
-      <c r="Z13" s="48">
+      <c r="Z13" s="46">
         <f t="shared" ref="Z13:AK13" si="34">Y13*1.008</f>
         <v>19.247300352</v>
       </c>
-      <c r="AA13" s="48">
+      <c r="AA13" s="46">
         <f t="shared" si="34"/>
         <v>19.401278754816001</v>
       </c>
-      <c r="AB13" s="48">
+      <c r="AB13" s="46">
         <f t="shared" si="34"/>
         <v>19.556488984854528</v>
       </c>
-      <c r="AC13" s="48">
+      <c r="AC13" s="46">
         <f t="shared" si="34"/>
         <v>19.712940896733365</v>
       </c>
-      <c r="AD13" s="48">
+      <c r="AD13" s="46">
         <f t="shared" si="34"/>
         <v>19.870644423907233</v>
       </c>
-      <c r="AE13" s="48">
+      <c r="AE13" s="46">
         <f t="shared" si="34"/>
         <v>20.029609579298491</v>
       </c>
-      <c r="AF13" s="48">
+      <c r="AF13" s="46">
         <f t="shared" si="34"/>
         <v>20.18984645593288</v>
       </c>
-      <c r="AG13" s="48">
+      <c r="AG13" s="46">
         <f t="shared" si="34"/>
         <v>20.351365227580342</v>
       </c>
-      <c r="AH13" s="48">
+      <c r="AH13" s="46">
         <f t="shared" si="34"/>
         <v>20.514176149400985</v>
       </c>
-      <c r="AI13" s="48">
+      <c r="AI13" s="46">
         <f t="shared" si="34"/>
         <v>20.678289558596195</v>
       </c>
-      <c r="AJ13" s="48">
+      <c r="AJ13" s="46">
         <f t="shared" si="34"/>
         <v>20.843715875064966</v>
       </c>
-      <c r="AK13" s="48">
+      <c r="AK13" s="46">
         <f t="shared" si="34"/>
         <v>21.010465602065487</v>
       </c>
-      <c r="AL13" s="48">
+      <c r="AL13" s="46">
         <f t="shared" ref="AL13:AM13" si="35">AK13*1.008</f>
         <v>21.17854932688201</v>
       </c>
-      <c r="AM13" s="48">
+      <c r="AM13" s="46">
         <f t="shared" si="35"/>
         <v>21.347977721497067</v>
       </c>
@@ -8087,94 +8107,94 @@
       <c r="M14" s="37">
         <v>0</v>
       </c>
-      <c r="N14" s="279">
+      <c r="N14" s="253">
         <v>1.988</v>
       </c>
-      <c r="O14" s="47"/>
-      <c r="Q14" s="75">
+      <c r="O14" s="288"/>
+      <c r="Q14" s="72">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="R14" s="179">
+      <c r="R14" s="165">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="S14" s="75">
+      <c r="S14" s="72">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="T14" s="115">
+      <c r="T14" s="298">
         <v>1.4E-2</v>
       </c>
-      <c r="V14" s="47">
+      <c r="V14" s="45">
         <f>R14</f>
         <v>0</v>
       </c>
-      <c r="W14" s="47">
+      <c r="W14" s="45">
         <f>SUM(G14:J14)</f>
         <v>1.4E-2</v>
       </c>
-      <c r="X14" s="291">
+      <c r="X14" s="265">
         <f t="shared" ref="X14:X20" si="36">SUM(K14:N14)</f>
         <v>2.0019999999999998</v>
       </c>
-      <c r="Y14" s="299">
+      <c r="Y14" s="273">
         <f>X14</f>
         <v>2.0019999999999998</v>
       </c>
-      <c r="Z14" s="49">
+      <c r="Z14" s="47">
         <f t="shared" ref="Z14:AK14" si="37">Y14</f>
         <v>2.0019999999999998</v>
       </c>
-      <c r="AA14" s="49">
+      <c r="AA14" s="47">
         <f t="shared" si="37"/>
         <v>2.0019999999999998</v>
       </c>
-      <c r="AB14" s="49">
+      <c r="AB14" s="47">
         <f t="shared" si="37"/>
         <v>2.0019999999999998</v>
       </c>
-      <c r="AC14" s="49">
+      <c r="AC14" s="47">
         <f t="shared" si="37"/>
         <v>2.0019999999999998</v>
       </c>
-      <c r="AD14" s="49">
+      <c r="AD14" s="47">
         <f t="shared" si="37"/>
         <v>2.0019999999999998</v>
       </c>
-      <c r="AE14" s="49">
+      <c r="AE14" s="47">
         <f t="shared" si="37"/>
         <v>2.0019999999999998</v>
       </c>
-      <c r="AF14" s="49">
+      <c r="AF14" s="47">
         <f t="shared" si="37"/>
         <v>2.0019999999999998</v>
       </c>
-      <c r="AG14" s="49">
+      <c r="AG14" s="47">
         <f t="shared" si="37"/>
         <v>2.0019999999999998</v>
       </c>
-      <c r="AH14" s="49">
+      <c r="AH14" s="47">
         <f t="shared" si="37"/>
         <v>2.0019999999999998</v>
       </c>
-      <c r="AI14" s="49">
+      <c r="AI14" s="47">
         <f t="shared" si="37"/>
         <v>2.0019999999999998</v>
       </c>
-      <c r="AJ14" s="49">
+      <c r="AJ14" s="47">
         <f t="shared" si="37"/>
         <v>2.0019999999999998</v>
       </c>
-      <c r="AK14" s="49">
+      <c r="AK14" s="47">
         <f t="shared" si="37"/>
         <v>2.0019999999999998</v>
       </c>
-      <c r="AL14" s="49">
+      <c r="AL14" s="47">
         <f t="shared" ref="AL14:AM14" si="38">AK14</f>
         <v>2.0019999999999998</v>
       </c>
-      <c r="AM14" s="49">
+      <c r="AM14" s="47">
         <f t="shared" si="38"/>
         <v>2.0019999999999998</v>
       </c>
@@ -8211,30 +8231,30 @@
         <f>9.999+0.379</f>
         <v>10.378</v>
       </c>
-      <c r="L15" s="47">
+      <c r="L15" s="45">
         <v>3.0510000000000002</v>
       </c>
-      <c r="M15" s="210">
+      <c r="M15" s="196">
         <f>4.302+10.005</f>
         <v>14.307</v>
       </c>
-      <c r="N15" s="279">
+      <c r="N15" s="253">
         <v>0</v>
       </c>
-      <c r="O15" s="47"/>
-      <c r="Q15" s="75">
+      <c r="O15" s="288"/>
+      <c r="Q15" s="72">
         <f t="shared" si="33"/>
         <v>1.05</v>
       </c>
-      <c r="R15" s="179">
+      <c r="R15" s="165">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="S15" s="75">
+      <c r="S15" s="72">
         <f t="shared" si="33"/>
         <v>0.77</v>
       </c>
-      <c r="T15" s="115">
+      <c r="T15" s="298">
         <v>6.9980000000000002</v>
       </c>
       <c r="V15" s="36">
@@ -8245,11 +8265,11 @@
         <f>SUM(G15:J15)</f>
         <v>8.8179999999999996</v>
       </c>
-      <c r="X15" s="291">
+      <c r="X15" s="265">
         <f t="shared" si="36"/>
         <v>27.736000000000001</v>
       </c>
-      <c r="Y15" s="120">
+      <c r="Y15" s="115">
         <f>X15</f>
         <v>27.736000000000001</v>
       </c>
@@ -8358,24 +8378,24 @@
         <f t="shared" si="41"/>
         <v>-301.55000000000007</v>
       </c>
-      <c r="N16" s="276">
+      <c r="N16" s="250">
         <f t="shared" si="41"/>
         <v>-288.28300000000002</v>
       </c>
-      <c r="O16" s="5"/>
-      <c r="Q16" s="70">
+      <c r="O16" s="136"/>
+      <c r="Q16" s="67">
         <f>Q12+Q13+Q14-Q15</f>
         <v>-113.38754840000006</v>
       </c>
-      <c r="R16" s="175">
+      <c r="R16" s="161">
         <f>R12+R13+R14-R15</f>
         <v>-178.48136400000004</v>
       </c>
-      <c r="S16" s="70">
+      <c r="S16" s="67">
         <f>S12+S13+S14-S15</f>
         <v>-128.20355792799998</v>
       </c>
-      <c r="T16" s="114">
+      <c r="T16" s="294">
         <v>-292.54224599999992</v>
       </c>
       <c r="V16" s="5">
@@ -8386,11 +8406,11 @@
         <f>W12+W13+W14-W15</f>
         <v>-503.80999999999995</v>
       </c>
-      <c r="X16" s="291">
+      <c r="X16" s="265">
         <f t="shared" si="36"/>
         <v>-930.57500000000016</v>
       </c>
-      <c r="Y16" s="114">
+      <c r="Y16" s="111">
         <f>Y12+Y13+Y14-Y15</f>
         <v>-777.82577700000036</v>
       </c>
@@ -8488,23 +8508,23 @@
       <c r="M17" s="5">
         <v>0.35199999999999998</v>
       </c>
-      <c r="N17" s="276">
+      <c r="N17" s="250">
         <v>3.202</v>
       </c>
-      <c r="O17" s="5"/>
-      <c r="Q17" s="70">
+      <c r="O17" s="136"/>
+      <c r="Q17" s="67">
         <f>J17*1.005</f>
         <v>0.65927999999999998</v>
       </c>
-      <c r="R17" s="175">
+      <c r="R17" s="161">
         <f>K17*1.005</f>
         <v>0.27738000000000002</v>
       </c>
-      <c r="S17" s="70">
+      <c r="S17" s="67">
         <f>R17*1.005</f>
         <v>0.27876689999999998</v>
       </c>
-      <c r="T17" s="114">
+      <c r="T17" s="294">
         <v>0.35375999999999996</v>
       </c>
       <c r="V17" s="36">
@@ -8515,11 +8535,11 @@
         <f>SUM(G17:J17)</f>
         <v>-0.31999999999999995</v>
       </c>
-      <c r="X17" s="291">
+      <c r="X17" s="265">
         <f t="shared" si="36"/>
         <v>4.1079999999999997</v>
       </c>
-      <c r="Y17" s="120">
+      <c r="Y17" s="115">
         <f>X17</f>
         <v>4.1079999999999997</v>
       </c>
@@ -8628,24 +8648,24 @@
         <f t="shared" si="49"/>
         <v>-301.90200000000004</v>
       </c>
-      <c r="N18" s="275">
+      <c r="N18" s="249">
         <f t="shared" si="49"/>
         <v>-291.48500000000001</v>
       </c>
-      <c r="O18" s="4"/>
-      <c r="Q18" s="69">
+      <c r="O18" s="287"/>
+      <c r="Q18" s="66">
         <f>+Q16-Q17</f>
         <v>-114.04682840000005</v>
       </c>
-      <c r="R18" s="174">
+      <c r="R18" s="160">
         <f>+R16-R17</f>
         <v>-178.75874400000004</v>
       </c>
-      <c r="S18" s="69">
+      <c r="S18" s="66">
         <f>+S16-S17</f>
         <v>-128.48232482799997</v>
       </c>
-      <c r="T18" s="113">
+      <c r="T18" s="293">
         <v>-292.89600599999994</v>
       </c>
       <c r="V18" s="3">
@@ -8656,11 +8676,11 @@
         <f>W16-W17</f>
         <v>-503.48999999999995</v>
       </c>
-      <c r="X18" s="291">
+      <c r="X18" s="265">
         <f t="shared" si="36"/>
         <v>-934.68300000000011</v>
       </c>
-      <c r="Y18" s="119">
+      <c r="Y18" s="114">
         <f>Y16-Y17</f>
         <v>-781.9337770000003</v>
       </c>
@@ -8672,7 +8692,7 @@
         <f t="shared" si="50"/>
         <v>-261.64182434080953</v>
       </c>
-      <c r="AB18" s="251">
+      <c r="AB18" s="225">
         <f t="shared" si="50"/>
         <v>64.428932643194372</v>
       </c>
@@ -8925,24 +8945,24 @@
         <f t="shared" si="54"/>
         <v>-0.50503948783747843</v>
       </c>
-      <c r="N19" s="280">
+      <c r="N19" s="254">
         <f t="shared" si="54"/>
         <v>-0.4843077863752141</v>
       </c>
-      <c r="O19" s="8"/>
-      <c r="Q19" s="76">
+      <c r="O19" s="289"/>
+      <c r="Q19" s="73">
         <f>Q18/Q20</f>
         <v>-0.1961134384000964</v>
       </c>
-      <c r="R19" s="180">
+      <c r="R19" s="166">
         <f>R18/R20</f>
         <v>-0.30739120431272415</v>
       </c>
-      <c r="S19" s="76">
+      <c r="S19" s="73">
         <f>S18/S20</f>
         <v>-0.21632643153378855</v>
       </c>
-      <c r="T19" s="116">
+      <c r="T19" s="299">
         <v>-0.48997372942174272</v>
       </c>
       <c r="V19" s="8">
@@ -8953,11 +8973,11 @@
         <f>W18/W20</f>
         <v>-0.99708838467978411</v>
       </c>
-      <c r="X19" s="280">
+      <c r="X19" s="254">
         <f>X18/X20</f>
         <v>-1.5529933090640833</v>
       </c>
-      <c r="Y19" s="121">
+      <c r="Y19" s="116">
         <f>Y18/Y20</f>
         <v>-1.299197614391411</v>
       </c>
@@ -9055,21 +9075,21 @@
       <c r="M20" s="5">
         <v>597.779</v>
       </c>
-      <c r="N20" s="276">
+      <c r="N20" s="250">
         <v>601.85900000000004</v>
       </c>
-      <c r="O20" s="5"/>
-      <c r="Q20" s="70">
+      <c r="O20" s="136"/>
+      <c r="Q20" s="67">
         <v>581.53499999999997</v>
       </c>
-      <c r="R20" s="175">
+      <c r="R20" s="161">
         <v>581.53499999999997</v>
       </c>
-      <c r="S20" s="70">
+      <c r="S20" s="67">
         <f>L20</f>
         <v>593.928</v>
       </c>
-      <c r="T20" s="114">
+      <c r="T20" s="294">
         <v>597.779</v>
       </c>
       <c r="V20" s="9">
@@ -9080,11 +9100,11 @@
         <f>AVERAGE(G20:J20)</f>
         <v>504.96024999999997</v>
       </c>
-      <c r="X20" s="291">
+      <c r="X20" s="265">
         <f>N20</f>
         <v>601.85900000000004</v>
       </c>
-      <c r="Y20" s="121">
+      <c r="Y20" s="116">
         <f>X20</f>
         <v>601.85900000000004</v>
       </c>
@@ -9150,15 +9170,15 @@
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="181"/>
-      <c r="S21" s="74"/>
-      <c r="T21" s="235"/>
-      <c r="AO21" s="133" t="s">
+      <c r="O21" s="211"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="167"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="300"/>
+      <c r="AO21" s="128" t="s">
         <v>118</v>
       </c>
-      <c r="AP21" s="127">
+      <c r="AP21" s="122">
         <v>-0.01</v>
       </c>
     </row>
@@ -9210,24 +9230,24 @@
         <f t="shared" si="60"/>
         <v>0.75577498469211346</v>
       </c>
-      <c r="N22" s="282">
+      <c r="N22" s="256">
         <f t="shared" ref="N22" si="61">N5/N3</f>
         <v>0.75400515367769483</v>
       </c>
-      <c r="O22" s="10"/>
-      <c r="Q22" s="77">
+      <c r="O22" s="209"/>
+      <c r="Q22" s="74">
         <f>Q5/Q3</f>
         <v>0.73</v>
       </c>
-      <c r="R22" s="182">
+      <c r="R22" s="168">
         <f>R5/R3</f>
         <v>0.74</v>
       </c>
-      <c r="S22" s="77">
+      <c r="S22" s="74">
         <f t="shared" ref="S22:T22" si="62">S5/S3</f>
         <v>0.74</v>
       </c>
-      <c r="T22" s="117">
+      <c r="T22" s="301">
         <v>0.76</v>
       </c>
       <c r="V22" s="10">
@@ -9238,11 +9258,11 @@
         <f>W5/W3</f>
         <v>0.74110310596030293</v>
       </c>
-      <c r="X22" s="282">
+      <c r="X22" s="256">
         <f t="shared" ref="X22:AK22" si="63">X5/X3</f>
         <v>0.75386732534790202</v>
       </c>
-      <c r="Y22" s="117">
+      <c r="Y22" s="112">
         <f t="shared" si="63"/>
         <v>0.73</v>
       </c>
@@ -9302,13 +9322,13 @@
         <f t="shared" si="64"/>
         <v>0.73</v>
       </c>
-      <c r="AO22" s="134" t="s">
+      <c r="AO22" s="129" t="s">
         <v>114</v>
       </c>
-      <c r="AP22" s="128">
+      <c r="AP22" s="123">
         <v>0.09</v>
       </c>
-      <c r="AR22" s="65"/>
+      <c r="AR22" s="62"/>
     </row>
     <row r="23" spans="2:78" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
@@ -9358,24 +9378,24 @@
         <f t="shared" ref="M23:N23" si="67">M12/M3</f>
         <v>-0.5794918747476856</v>
       </c>
-      <c r="N23" s="282">
+      <c r="N23" s="256">
         <f t="shared" si="67"/>
         <v>-0.52141090562414072</v>
       </c>
-      <c r="O23" s="10"/>
-      <c r="Q23" s="77">
+      <c r="O23" s="209"/>
+      <c r="Q23" s="74">
         <f>Q12/Q3</f>
         <v>-0.17383762059111754</v>
       </c>
-      <c r="R23" s="182">
+      <c r="R23" s="168">
         <f>R12/R3</f>
         <v>-0.31959466683854248</v>
       </c>
-      <c r="S23" s="77">
+      <c r="S23" s="74">
         <f t="shared" ref="S23:T23" si="68">S12/S3</f>
         <v>-0.20020035171753023</v>
       </c>
-      <c r="T23" s="117">
+      <c r="T23" s="301">
         <v>-0.45970540286300937</v>
       </c>
       <c r="V23" s="10">
@@ -9386,11 +9406,11 @@
         <f>W12/W3</f>
         <v>-0.25797358352338834</v>
       </c>
-      <c r="X23" s="282">
+      <c r="X23" s="256">
         <f t="shared" ref="X23:AK23" si="69">X12/X3</f>
         <v>-0.41517411727905695</v>
       </c>
-      <c r="Y23" s="117">
+      <c r="Y23" s="112">
         <f t="shared" si="69"/>
         <v>-0.30138477701625205</v>
       </c>
@@ -9450,14 +9470,14 @@
         <f t="shared" si="70"/>
         <v>0.54012720716658447</v>
       </c>
-      <c r="AO23" s="134" t="s">
+      <c r="AO23" s="129" t="s">
         <v>115</v>
       </c>
-      <c r="AP23" s="129">
+      <c r="AP23" s="124">
         <f>NPV(AP22,X18:BZ18)</f>
         <v>36597.694883600954</v>
       </c>
-      <c r="AR23" s="66"/>
+      <c r="AR23" s="63"/>
     </row>
     <row r="24" spans="2:78" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
@@ -9507,24 +9527,24 @@
         <f t="shared" ref="M24:N24" si="73">M18/M3</f>
         <v>-0.5831522463478378</v>
       </c>
-      <c r="N24" s="282">
+      <c r="N24" s="256">
         <f t="shared" si="73"/>
         <v>-0.50342484680589428</v>
       </c>
-      <c r="O24" s="10"/>
-      <c r="Q24" s="77">
+      <c r="O24" s="209"/>
+      <c r="Q24" s="74">
         <f>Q18/Q3</f>
         <v>-0.17647480466999524</v>
       </c>
-      <c r="R24" s="182">
+      <c r="R24" s="168">
         <f>R18/R3</f>
         <v>-0.32004473066532035</v>
       </c>
-      <c r="S24" s="77">
+      <c r="S24" s="74">
         <f t="shared" ref="S24:T24" si="74">S18/S3</f>
         <v>-0.20180364211915114</v>
       </c>
-      <c r="T24" s="117">
+      <c r="T24" s="301">
         <v>-0.47146359813562494</v>
       </c>
       <c r="V24" s="10">
@@ -9535,11 +9555,11 @@
         <f>W18/W3</f>
         <v>-0.26234628208595223</v>
       </c>
-      <c r="X24" s="282">
+      <c r="X24" s="256">
         <f t="shared" ref="X24:AK24" si="75">X18/X3</f>
         <v>-0.42007242976793363</v>
       </c>
-      <c r="Y24" s="117">
+      <c r="Y24" s="112">
         <f t="shared" si="75"/>
         <v>-0.30558495477076897</v>
       </c>
@@ -9599,10 +9619,10 @@
         <f t="shared" si="76"/>
         <v>0.53965806375095227</v>
       </c>
-      <c r="AO24" s="134" t="s">
+      <c r="AO24" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="AP24" s="129">
+      <c r="AP24" s="124">
         <f>Main!C11</f>
         <v>1988.4900000000002</v>
       </c>
@@ -9655,24 +9675,24 @@
         <f t="shared" ref="M25:N25" si="79">M17/M16</f>
         <v>-1.1673022715967497E-3</v>
       </c>
-      <c r="N25" s="282">
+      <c r="N25" s="256">
         <f t="shared" si="79"/>
         <v>-1.1107141246622243E-2</v>
       </c>
-      <c r="O25" s="10"/>
-      <c r="Q25" s="77">
+      <c r="O25" s="209"/>
+      <c r="Q25" s="74">
         <f>Q17/Q16</f>
         <v>-5.8143950486894873E-3</v>
       </c>
-      <c r="R25" s="182">
+      <c r="R25" s="168">
         <f>R17/R16</f>
         <v>-1.554111834331342E-3</v>
       </c>
-      <c r="S25" s="77">
+      <c r="S25" s="74">
         <f t="shared" ref="S25:T25" si="80">S17/S16</f>
         <v>-2.1744084525061108E-3</v>
       </c>
-      <c r="T25" s="117">
+      <c r="T25" s="301">
         <v>-1.209261242904384E-3</v>
       </c>
       <c r="V25" s="10">
@@ -9683,11 +9703,11 @@
         <f>W17/W16</f>
         <v>6.3516008018896014E-4</v>
       </c>
-      <c r="X25" s="282">
+      <c r="X25" s="256">
         <f t="shared" ref="X25:AK25" si="81">X17/X16</f>
         <v>-4.4144749214195516E-3</v>
       </c>
-      <c r="Y25" s="117">
+      <c r="Y25" s="112">
         <f t="shared" si="81"/>
         <v>-5.2813883538858318E-3</v>
       </c>
@@ -9747,31 +9767,31 @@
         <f t="shared" si="82"/>
         <v>4.2026327198137485E-4</v>
       </c>
-      <c r="AO25" s="134" t="s">
+      <c r="AO25" s="129" t="s">
         <v>116</v>
       </c>
-      <c r="AP25" s="129">
+      <c r="AP25" s="124">
         <f>AP23+AP24</f>
         <v>38586.184883600952</v>
       </c>
     </row>
     <row r="26" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="O26" s="7"/>
-      <c r="Q26" s="74"/>
-      <c r="R26" s="181"/>
-      <c r="S26" s="74"/>
-      <c r="T26" s="235"/>
+      <c r="O26" s="211"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="167"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="300"/>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
       <c r="AO26" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="AP26" s="130">
+      <c r="AP26" s="125">
         <f>AP25/Main!C7</f>
         <v>64.111668818778071</v>
       </c>
-      <c r="AQ26" s="65"/>
+      <c r="AQ26" s="62"/>
       <c r="AS26" s="9"/>
     </row>
     <row r="27" spans="2:78" ht="15" x14ac:dyDescent="0.25">
@@ -9825,32 +9845,34 @@
         <f t="shared" ref="N27" si="85">N3/M3-1</f>
         <v>0.11840094879922436</v>
       </c>
-      <c r="O27" s="10"/>
-      <c r="Q27" s="77">
+      <c r="O27" s="209">
+        <v>0.05</v>
+      </c>
+      <c r="Q27" s="74">
         <f>Q3/J3-1</f>
         <v>0.13622563817648281</v>
       </c>
-      <c r="R27" s="182">
+      <c r="R27" s="168">
         <f>R3/K3-1</f>
         <v>3.9857838081372554E-2</v>
       </c>
-      <c r="S27" s="77">
+      <c r="S27" s="74">
         <f>S3/L3-1</f>
         <v>7.6898615882423638E-2</v>
       </c>
-      <c r="T27" s="117">
+      <c r="T27" s="301">
         <v>-2.4222281558735514E-2</v>
       </c>
-      <c r="V27" s="225" t="s">
-        <v>33</v>
-      </c>
-      <c r="W27" s="225" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO27" s="135" t="s">
+      <c r="V27" s="202" t="s">
+        <v>33</v>
+      </c>
+      <c r="W27" s="202" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO27" s="130" t="s">
         <v>121</v>
       </c>
-      <c r="AP27" s="131">
+      <c r="AP27" s="126">
         <f>Main!C6</f>
         <v>41.46</v>
       </c>
@@ -9900,23 +9922,26 @@
         <v>1.6435123376317362E-2</v>
       </c>
       <c r="N28" s="13">
-        <f t="shared" ref="N28" si="88">N3/J3-1</f>
+        <f t="shared" ref="N28:O28" si="88">N3/J3-1</f>
         <v>1.7995003243847618E-2</v>
       </c>
-      <c r="O28" s="13"/>
-      <c r="Q28" s="78">
+      <c r="O28" s="210">
+        <f t="shared" si="88"/>
+        <v>0.13184829111543861</v>
+      </c>
+      <c r="Q28" s="75">
         <f>Q3/G3-1</f>
         <v>0.66999999999999993</v>
       </c>
-      <c r="R28" s="183">
+      <c r="R28" s="169">
         <f>R3/H3-1</f>
         <v>0.22999999999999998</v>
       </c>
-      <c r="S28" s="78">
+      <c r="S28" s="75">
         <f>S3/I3-1</f>
         <v>0.25000000000000022</v>
       </c>
-      <c r="T28" s="118">
+      <c r="T28" s="302">
         <v>9.2268390154878199E-2</v>
       </c>
       <c r="V28" s="13"/>
@@ -9924,11 +9949,11 @@
         <f>W3/V3-1</f>
         <v>1.0772942519902369</v>
       </c>
-      <c r="X28" s="283">
+      <c r="X28" s="257">
         <f t="shared" ref="X28:AK28" si="89">X3/W3-1</f>
         <v>0.15937579623808262</v>
       </c>
-      <c r="Y28" s="118">
+      <c r="Y28" s="113">
         <f t="shared" si="89"/>
         <v>0.14999999999999991</v>
       </c>
@@ -9988,10 +10013,10 @@
         <f t="shared" si="90"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AO28" s="136" t="s">
+      <c r="AO28" s="131" t="s">
         <v>120</v>
       </c>
-      <c r="AP28" s="132">
+      <c r="AP28" s="127">
         <f>AP26/AP27-1</f>
         <v>0.54634994738972664</v>
       </c>
@@ -10009,15 +10034,15 @@
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="Q29" s="78"/>
-      <c r="R29" s="183"/>
-      <c r="S29" s="220"/>
-      <c r="T29" s="118"/>
+      <c r="O29" s="210"/>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="169"/>
+      <c r="S29" s="197"/>
+      <c r="T29" s="302"/>
       <c r="V29" s="13"/>
       <c r="W29" s="13"/>
-      <c r="X29" s="283"/>
-      <c r="Y29" s="118"/>
+      <c r="X29" s="257"/>
+      <c r="Y29" s="113"/>
       <c r="Z29" s="13"/>
       <c r="AA29" s="13"/>
       <c r="AB29" s="13"/>
@@ -10033,85 +10058,85 @@
       <c r="AL29" s="13"/>
       <c r="AM29" s="13"/>
     </row>
-    <row r="30" spans="2:78" s="203" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="203" t="s">
+    <row r="30" spans="2:78" s="189" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30" s="189" t="s">
         <v>216</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="204">
+      <c r="D30" s="190">
         <f t="shared" ref="D30:K30" si="91">D8/C8-1</f>
         <v>-0.18539132546702008</v>
       </c>
-      <c r="E30" s="204">
+      <c r="E30" s="190">
         <f t="shared" si="91"/>
         <v>0.28470272553355347</v>
       </c>
-      <c r="F30" s="204">
+      <c r="F30" s="190">
         <f t="shared" si="91"/>
         <v>0.16165777055774733</v>
       </c>
-      <c r="G30" s="204">
+      <c r="G30" s="190">
         <f t="shared" si="91"/>
         <v>0.60893668736577489</v>
       </c>
-      <c r="H30" s="204">
+      <c r="H30" s="190">
         <f t="shared" si="91"/>
         <v>0.29079922188651119</v>
       </c>
-      <c r="I30" s="204">
+      <c r="I30" s="190">
         <f t="shared" si="91"/>
         <v>0.10819411934459877</v>
       </c>
-      <c r="J30" s="204">
+      <c r="J30" s="190">
         <f t="shared" si="91"/>
         <v>0.25552461210170341</v>
       </c>
-      <c r="K30" s="204">
+      <c r="K30" s="190">
         <f t="shared" si="91"/>
         <v>2.4151639108140888E-2</v>
       </c>
-      <c r="L30" s="204">
+      <c r="L30" s="190">
         <f>L8/K8-1</f>
         <v>0.19123884744771091</v>
       </c>
-      <c r="M30" s="204">
+      <c r="M30" s="190">
         <f t="shared" ref="M30" si="92">M8/L8-1</f>
         <v>0.11236464438011495</v>
       </c>
-      <c r="N30" s="204">
+      <c r="N30" s="190">
         <f t="shared" ref="N30" si="93">N8/M8-1</f>
         <v>5.4578414016497545E-2</v>
       </c>
-      <c r="O30" s="204"/>
-      <c r="Q30" s="206"/>
-      <c r="R30" s="207"/>
-      <c r="S30" s="221">
+      <c r="O30" s="209"/>
+      <c r="Q30" s="192"/>
+      <c r="R30" s="193"/>
+      <c r="S30" s="198">
         <f>S8/L8-1</f>
         <v>-0.14026981054699483</v>
       </c>
-      <c r="T30" s="236">
+      <c r="T30" s="303">
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="V30" s="204"/>
-      <c r="W30" s="204"/>
-      <c r="X30" s="284"/>
-      <c r="Y30" s="205"/>
-      <c r="Z30" s="204"/>
-      <c r="AA30" s="204"/>
-      <c r="AB30" s="204"/>
-      <c r="AC30" s="204"/>
-      <c r="AD30" s="204"/>
-      <c r="AE30" s="204"/>
-      <c r="AF30" s="204"/>
-      <c r="AG30" s="204"/>
-      <c r="AH30" s="204"/>
-      <c r="AI30" s="204"/>
-      <c r="AJ30" s="204"/>
-      <c r="AK30" s="204"/>
-      <c r="AL30" s="204"/>
-      <c r="AM30" s="204"/>
+      <c r="V30" s="190"/>
+      <c r="W30" s="190"/>
+      <c r="X30" s="258"/>
+      <c r="Y30" s="191"/>
+      <c r="Z30" s="190"/>
+      <c r="AA30" s="190"/>
+      <c r="AB30" s="190"/>
+      <c r="AC30" s="190"/>
+      <c r="AD30" s="190"/>
+      <c r="AE30" s="190"/>
+      <c r="AF30" s="190"/>
+      <c r="AG30" s="190"/>
+      <c r="AH30" s="190"/>
+      <c r="AI30" s="190"/>
+      <c r="AJ30" s="190"/>
+      <c r="AK30" s="190"/>
+      <c r="AL30" s="190"/>
+      <c r="AM30" s="190"/>
     </row>
     <row r="31" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
@@ -10161,14 +10186,14 @@
         <f t="shared" ref="N31" si="96">N8/J8-1</f>
         <v>0.43116321945036606</v>
       </c>
-      <c r="O31" s="13"/>
-      <c r="Q31" s="78"/>
-      <c r="R31" s="183"/>
-      <c r="S31" s="220">
+      <c r="O31" s="210"/>
+      <c r="Q31" s="75"/>
+      <c r="R31" s="169"/>
+      <c r="S31" s="197">
         <f>S8/I8-1</f>
         <v>0.31689309362363915</v>
       </c>
-      <c r="T31" s="237">
+      <c r="T31" s="304">
         <v>0.46566272973440115</v>
       </c>
       <c r="V31" s="13"/>
@@ -10176,8 +10201,8 @@
         <f>W8/V8-1</f>
         <v>1.6470687523891319</v>
       </c>
-      <c r="X31" s="283"/>
-      <c r="Y31" s="118"/>
+      <c r="X31" s="257"/>
+      <c r="Y31" s="113"/>
       <c r="Z31" s="13"/>
       <c r="AA31" s="13"/>
       <c r="AB31" s="13"/>
@@ -10205,16 +10230,16 @@
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
-      <c r="N32" s="283"/>
-      <c r="O32" s="13"/>
+      <c r="N32" s="257"/>
+      <c r="O32" s="210"/>
       <c r="Q32" s="13"/>
-      <c r="R32" s="183"/>
-      <c r="S32" s="78"/>
-      <c r="T32" s="118"/>
+      <c r="R32" s="169"/>
+      <c r="S32" s="75"/>
+      <c r="T32" s="302"/>
       <c r="V32" s="13"/>
       <c r="W32" s="13"/>
-      <c r="X32" s="283"/>
-      <c r="Y32" s="118"/>
+      <c r="X32" s="257"/>
+      <c r="Y32" s="113"/>
       <c r="Z32" s="13"/>
       <c r="AA32" s="13"/>
       <c r="AB32" s="13"/>
@@ -10229,8 +10254,8 @@
       <c r="AK32" s="13"/>
       <c r="AL32" s="13"/>
       <c r="AM32" s="13"/>
-      <c r="AO32" s="51"/>
-      <c r="AP32" s="81"/>
+      <c r="AO32" s="49"/>
+      <c r="AP32" s="78"/>
     </row>
     <row r="33" spans="2:42" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
@@ -10247,16 +10272,16 @@
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
-      <c r="N33" s="283"/>
-      <c r="O33" s="13"/>
+      <c r="N33" s="257"/>
+      <c r="O33" s="210"/>
       <c r="Q33" s="13"/>
-      <c r="R33" s="183"/>
-      <c r="S33" s="78"/>
-      <c r="T33" s="118"/>
+      <c r="R33" s="169"/>
+      <c r="S33" s="75"/>
+      <c r="T33" s="302"/>
       <c r="V33" s="13"/>
       <c r="W33" s="13"/>
-      <c r="X33" s="283"/>
-      <c r="Y33" s="118"/>
+      <c r="X33" s="257"/>
+      <c r="Y33" s="113"/>
       <c r="Z33" s="13"/>
       <c r="AA33" s="13"/>
       <c r="AB33" s="13"/>
@@ -10271,7 +10296,7 @@
       <c r="AK33" s="13"/>
       <c r="AL33" s="13"/>
       <c r="AM33" s="13"/>
-      <c r="AO33" s="81"/>
+      <c r="AO33" s="78"/>
     </row>
     <row r="34" spans="2:42" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
@@ -10299,7 +10324,7 @@
       <c r="I34" s="4">
         <v>637.83299999999997</v>
       </c>
-      <c r="J34" s="84">
+      <c r="J34" s="81">
         <f>2725.706-I34-H34-G34</f>
         <v>770.11599999999999</v>
       </c>
@@ -10312,20 +10337,20 @@
       <c r="M34" s="4">
         <v>701.7</v>
       </c>
-      <c r="N34" s="285">
+      <c r="N34" s="259">
         <v>899.4</v>
       </c>
-      <c r="O34" s="13"/>
+      <c r="O34" s="210"/>
       <c r="Q34" s="13"/>
-      <c r="R34" s="184">
+      <c r="R34" s="170">
         <f>K34*(1+R35)</f>
         <v>634.36203</v>
       </c>
-      <c r="S34" s="222">
+      <c r="S34" s="199">
         <f>R34*(1+S35)</f>
         <v>637.53384014999995</v>
       </c>
-      <c r="T34" s="153">
+      <c r="T34" s="305">
         <v>757.83600000000013</v>
       </c>
       <c r="V34" s="3">
@@ -10340,7 +10365,7 @@
         <f>SUM(K34:N34)</f>
         <v>2872.2080000000001</v>
       </c>
-      <c r="Y34" s="118"/>
+      <c r="Y34" s="113"/>
       <c r="Z34" s="13"/>
       <c r="AA34" s="13"/>
       <c r="AB34" s="13"/>
@@ -10355,80 +10380,80 @@
       <c r="AK34" s="13"/>
       <c r="AL34" s="13"/>
       <c r="AM34" s="13"/>
-      <c r="AO34" s="81"/>
+      <c r="AO34" s="78"/>
     </row>
     <row r="35" spans="2:42" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="82" t="s">
+      <c r="B35" s="79" t="s">
         <v>128</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="123">
+      <c r="D35" s="118">
         <f t="shared" ref="D35:L35" si="97">D34/C34-1</f>
         <v>0.98004215148892526</v>
       </c>
-      <c r="E35" s="123">
+      <c r="E35" s="118">
         <f t="shared" si="97"/>
         <v>4.6825896299054204E-3</v>
       </c>
-      <c r="F35" s="123">
+      <c r="F35" s="118">
         <f t="shared" si="97"/>
         <v>0.29371682931004939</v>
       </c>
-      <c r="G35" s="123">
+      <c r="G35" s="118">
         <f t="shared" si="97"/>
         <v>1.5515848241739683E-2</v>
       </c>
-      <c r="H35" s="123">
+      <c r="H35" s="118">
         <f t="shared" si="97"/>
         <v>2.0241400509292795E-2</v>
       </c>
-      <c r="I35" s="123">
+      <c r="I35" s="118">
         <f t="shared" si="97"/>
         <v>-4.1544449119432669E-2</v>
       </c>
-      <c r="J35" s="123">
+      <c r="J35" s="118">
         <f t="shared" si="97"/>
         <v>0.20739441201693865</v>
       </c>
-      <c r="K35" s="123">
+      <c r="K35" s="118">
         <f t="shared" si="97"/>
         <v>-0.18037542396210438</v>
       </c>
-      <c r="L35" s="123">
+      <c r="L35" s="118">
         <f t="shared" si="97"/>
         <v>1.3776801868169875E-2</v>
       </c>
-      <c r="M35" s="123">
+      <c r="M35" s="118">
         <f t="shared" ref="M35" si="98">M34/L34-1</f>
         <v>9.6574162918696915E-2</v>
       </c>
-      <c r="N35" s="283">
+      <c r="N35" s="257">
         <f>N34/M34-1</f>
         <v>0.28174433518597675</v>
       </c>
-      <c r="O35" s="13"/>
+      <c r="O35" s="210"/>
       <c r="Q35" s="13"/>
-      <c r="R35" s="183">
+      <c r="R35" s="169">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="S35" s="78">
+      <c r="S35" s="75">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="T35" s="118">
+      <c r="T35" s="302">
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="V35" s="210" t="s">
-        <v>33</v>
-      </c>
-      <c r="W35" s="210" t="s">
-        <v>33</v>
-      </c>
-      <c r="X35" s="210" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y35" s="118"/>
+      <c r="V35" s="196" t="s">
+        <v>33</v>
+      </c>
+      <c r="W35" s="196" t="s">
+        <v>33</v>
+      </c>
+      <c r="X35" s="196" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y35" s="113"/>
       <c r="Z35" s="13"/>
       <c r="AA35" s="13"/>
       <c r="AB35" s="13"/>
@@ -10443,11 +10468,11 @@
       <c r="AK35" s="13"/>
       <c r="AL35" s="13"/>
       <c r="AM35" s="13"/>
-      <c r="AO35" s="51"/>
-      <c r="AP35" s="81"/>
+      <c r="AO35" s="49"/>
+      <c r="AP35" s="78"/>
     </row>
     <row r="36" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="82" t="s">
+      <c r="B36" s="79" t="s">
         <v>129</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -10462,75 +10487,75 @@
       <c r="F36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="83">
+      <c r="G36" s="80">
         <f>G34/C34-1</f>
         <v>1.6135405647978973</v>
       </c>
-      <c r="H36" s="83">
+      <c r="H36" s="80">
         <f>H34/D34-1</f>
         <v>0.3466593547577661</v>
       </c>
-      <c r="I36" s="83">
+      <c r="I36" s="80">
         <f>I34/E34-1</f>
         <v>0.28469742288286648</v>
       </c>
-      <c r="J36" s="83">
+      <c r="J36" s="80">
         <f>J34/F34-1</f>
         <v>0.19897681964033009</v>
       </c>
-      <c r="K36" s="83">
+      <c r="K36" s="80">
         <f t="shared" ref="K36:L36" si="99">K34/G34-1</f>
         <v>-3.2303760518920699E-2</v>
       </c>
-      <c r="L36" s="83">
+      <c r="L36" s="80">
         <f t="shared" si="99"/>
         <v>-3.8435415038769016E-2</v>
       </c>
-      <c r="M36" s="83">
+      <c r="M36" s="80">
         <f t="shared" ref="M36" si="100">M34/I34-1</f>
         <v>0.10013122557158383</v>
       </c>
-      <c r="N36" s="286">
+      <c r="N36" s="260">
         <f>N34/J34-1</f>
         <v>0.16787600828966021</v>
       </c>
-      <c r="R36" s="185">
+      <c r="R36" s="171">
         <f>R34/H34-1</f>
         <v>-4.6760188134880143E-2</v>
       </c>
-      <c r="S36" s="223">
+      <c r="S36" s="200">
         <f>S34/I34-1</f>
         <v>-4.6902535616688557E-4</v>
       </c>
-      <c r="T36" s="154">
+      <c r="T36" s="306">
         <v>-1.5945649746271773E-2</v>
       </c>
-      <c r="W36" s="83">
+      <c r="W36" s="80">
         <f>W34/V34-1</f>
         <v>0.21391330769071404</v>
       </c>
-      <c r="X36" s="83">
+      <c r="X36" s="80">
         <f>X34/W34-1</f>
         <v>0.25684959680454278</v>
       </c>
-      <c r="AP36" s="54"/>
+      <c r="AP36" s="52"/>
     </row>
     <row r="37" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
-      <c r="AP37" s="54"/>
+      <c r="AP37" s="52"/>
     </row>
     <row r="38" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="102"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="102"/>
-      <c r="I38" s="102"/>
-      <c r="J38" s="102"/>
-      <c r="K38" s="102"/>
-      <c r="L38" s="102"/>
-      <c r="M38" s="102"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="99"/>
+      <c r="M38" s="99"/>
     </row>
     <row r="39" spans="2:42" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
@@ -10561,23 +10586,24 @@
         <f>3004.3</f>
         <v>3004.3</v>
       </c>
-      <c r="K39" s="167">
+      <c r="K39" s="153">
         <v>3132.9639999999999</v>
       </c>
-      <c r="L39" s="167">
+      <c r="L39" s="153">
         <v>3075.4749999999999</v>
       </c>
-      <c r="M39" s="167">
+      <c r="M39" s="153">
         <v>3021.5070000000001</v>
       </c>
-      <c r="N39" s="275">
+      <c r="N39" s="249">
         <v>2977.4740000000002</v>
       </c>
+      <c r="O39" s="283"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="13"/>
       <c r="S39" s="2"/>
-      <c r="X39" s="294"/>
-      <c r="Y39" s="300"/>
+      <c r="X39" s="268"/>
+      <c r="Y39" s="274"/>
     </row>
     <row r="40" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
@@ -10607,16 +10633,16 @@
       <c r="J40" s="5">
         <v>307.34899999999999</v>
       </c>
-      <c r="K40" s="79">
+      <c r="K40" s="76">
         <v>179.732</v>
       </c>
-      <c r="L40" s="79">
+      <c r="L40" s="76">
         <v>186.82499999999999</v>
       </c>
-      <c r="M40" s="79">
+      <c r="M40" s="76">
         <v>185.83099999999999</v>
       </c>
-      <c r="N40" s="276">
+      <c r="N40" s="250">
         <v>379.35300000000001</v>
       </c>
     </row>
@@ -10648,16 +10674,16 @@
       <c r="J41" s="5">
         <v>32.091000000000001</v>
       </c>
-      <c r="K41" s="79">
+      <c r="K41" s="76">
         <v>43.122999999999998</v>
       </c>
-      <c r="L41" s="79">
+      <c r="L41" s="76">
         <v>57.594999999999999</v>
       </c>
-      <c r="M41" s="79">
+      <c r="M41" s="76">
         <v>72.924999999999997</v>
       </c>
-      <c r="N41" s="276">
+      <c r="N41" s="250">
         <v>61.640999999999998</v>
       </c>
     </row>
@@ -10689,16 +10715,16 @@
       <c r="J42" s="5">
         <v>406.02499999999998</v>
       </c>
-      <c r="K42" s="79">
+      <c r="K42" s="76">
         <v>398.19400000000002</v>
       </c>
-      <c r="L42" s="79">
+      <c r="L42" s="76">
         <v>405.89100000000002</v>
       </c>
-      <c r="M42" s="79">
+      <c r="M42" s="76">
         <v>387.81700000000001</v>
       </c>
-      <c r="N42" s="276">
+      <c r="N42" s="250">
         <v>420.13600000000002</v>
       </c>
     </row>
@@ -10730,16 +10756,16 @@
       <c r="J43" s="5">
         <v>271.35199999999998</v>
       </c>
-      <c r="K43" s="79">
+      <c r="K43" s="76">
         <v>338.87900000000002</v>
       </c>
-      <c r="L43" s="79">
+      <c r="L43" s="76">
         <v>425.95</v>
       </c>
-      <c r="M43" s="79">
+      <c r="M43" s="76">
         <v>525.928</v>
       </c>
-      <c r="N43" s="276">
+      <c r="N43" s="250">
         <v>592.346</v>
       </c>
     </row>
@@ -10771,16 +10797,16 @@
       <c r="J44" s="5">
         <v>221.285</v>
       </c>
-      <c r="K44" s="79">
+      <c r="K44" s="76">
         <v>286.24200000000002</v>
       </c>
-      <c r="L44" s="79">
+      <c r="L44" s="76">
         <v>424.416</v>
       </c>
-      <c r="M44" s="79">
+      <c r="M44" s="76">
         <v>452.85199999999998</v>
       </c>
-      <c r="N44" s="276">
+      <c r="N44" s="250">
         <v>526.03</v>
       </c>
     </row>
@@ -10812,16 +10838,16 @@
       <c r="J45" s="5">
         <v>137.524</v>
       </c>
-      <c r="K45" s="79">
+      <c r="K45" s="76">
         <v>159.404</v>
       </c>
-      <c r="L45" s="79">
+      <c r="L45" s="76">
         <v>154.328</v>
       </c>
-      <c r="M45" s="79">
+      <c r="M45" s="76">
         <v>204.92099999999999</v>
       </c>
-      <c r="N45" s="276">
+      <c r="N45" s="250">
         <v>225.13200000000001</v>
       </c>
     </row>
@@ -10858,19 +10884,19 @@
         <f>59.666+118.071</f>
         <v>177.73699999999999</v>
       </c>
-      <c r="K46" s="79">
+      <c r="K46" s="76">
         <f>118.071+55.854</f>
         <v>173.92500000000001</v>
       </c>
-      <c r="L46" s="79">
+      <c r="L46" s="76">
         <f>56.317+130.453</f>
         <v>186.77</v>
       </c>
-      <c r="M46" s="79">
+      <c r="M46" s="76">
         <f>53.655+130.452</f>
         <v>184.107</v>
       </c>
-      <c r="N46" s="276">
+      <c r="N46" s="250">
         <f>134.335+54.717</f>
         <v>189.05200000000002</v>
       </c>
@@ -10903,16 +10929,16 @@
       <c r="J47" s="5">
         <v>2.9329999999999998</v>
       </c>
-      <c r="K47" s="79">
+      <c r="K47" s="76">
         <v>3.3679999999999999</v>
       </c>
-      <c r="L47" s="79">
+      <c r="L47" s="76">
         <v>2.17</v>
       </c>
-      <c r="M47" s="79">
+      <c r="M47" s="76">
         <v>2.4350000000000001</v>
       </c>
-      <c r="N47" s="276">
+      <c r="N47" s="250">
         <v>4.3230000000000004</v>
       </c>
     </row>
@@ -10969,9 +10995,9 @@
     <row r="49" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C49" s="2"/>
       <c r="F49" s="5"/>
-      <c r="K49" s="80"/>
-      <c r="L49" s="80"/>
-      <c r="M49" s="80"/>
+      <c r="K49" s="77"/>
+      <c r="L49" s="77"/>
+      <c r="M49" s="77"/>
     </row>
     <row r="50" spans="2:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B50" s="11" t="s">
@@ -11001,16 +11027,16 @@
       <c r="J50" s="5">
         <v>64.394999999999996</v>
       </c>
-      <c r="K50" s="79">
+      <c r="K50" s="76">
         <v>54.295000000000002</v>
       </c>
-      <c r="L50" s="79">
+      <c r="L50" s="76">
         <v>77.509</v>
       </c>
-      <c r="M50" s="79">
+      <c r="M50" s="76">
         <v>45.098999999999997</v>
       </c>
-      <c r="N50" s="276">
+      <c r="N50" s="250">
         <v>71.182000000000002</v>
       </c>
     </row>
@@ -11042,16 +11068,16 @@
       <c r="J51" s="5">
         <v>180.76900000000001</v>
       </c>
-      <c r="K51" s="79">
+      <c r="K51" s="76">
         <v>223.32300000000001</v>
       </c>
-      <c r="L51" s="79">
+      <c r="L51" s="76">
         <v>231.19900000000001</v>
       </c>
-      <c r="M51" s="79">
+      <c r="M51" s="76">
         <v>273.83199999999999</v>
       </c>
-      <c r="N51" s="276">
+      <c r="N51" s="250">
         <v>236.006</v>
       </c>
     </row>
@@ -11083,16 +11109,16 @@
       <c r="J52" s="5">
         <v>163.90600000000001</v>
       </c>
-      <c r="K52" s="79">
+      <c r="K52" s="76">
         <v>149.816</v>
       </c>
-      <c r="L52" s="79">
+      <c r="L52" s="76">
         <v>147.19200000000001</v>
       </c>
-      <c r="M52" s="79">
+      <c r="M52" s="76">
         <v>168.36699999999999</v>
       </c>
-      <c r="N52" s="276">
+      <c r="N52" s="250">
         <v>231.70400000000001</v>
       </c>
     </row>
@@ -11124,20 +11150,20 @@
       <c r="J53" s="5">
         <v>1758.02</v>
       </c>
-      <c r="K53" s="79">
+      <c r="K53" s="76">
         <v>1747.2940000000001</v>
       </c>
-      <c r="L53" s="79">
+      <c r="L53" s="76">
         <v>1807.6389999999999</v>
       </c>
-      <c r="M53" s="79">
+      <c r="M53" s="76">
         <v>1750.86</v>
       </c>
-      <c r="N53" s="276">
+      <c r="N53" s="250">
         <v>1941.943</v>
       </c>
-      <c r="Q53" s="53"/>
-      <c r="R53" s="53"/>
+      <c r="Q53" s="51"/>
+      <c r="R53" s="51"/>
     </row>
     <row r="54" spans="2:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
@@ -11167,16 +11193,16 @@
       <c r="J54" s="5">
         <v>616.83399999999995</v>
       </c>
-      <c r="K54" s="79">
+      <c r="K54" s="76">
         <v>724.35900000000004</v>
       </c>
-      <c r="L54" s="79">
+      <c r="L54" s="76">
         <v>716.154</v>
       </c>
-      <c r="M54" s="79">
+      <c r="M54" s="76">
         <v>960.92399999999998</v>
       </c>
-      <c r="N54" s="276">
+      <c r="N54" s="250">
         <v>1095.2909999999999</v>
       </c>
     </row>
@@ -11208,16 +11234,16 @@
       <c r="J55" s="5">
         <v>194.61600000000001</v>
       </c>
-      <c r="K55" s="79">
+      <c r="K55" s="76">
         <v>259.84100000000001</v>
       </c>
-      <c r="L55" s="79">
+      <c r="L55" s="76">
         <v>399.77600000000001</v>
       </c>
-      <c r="M55" s="79">
+      <c r="M55" s="76">
         <v>425.97300000000001</v>
       </c>
-      <c r="N55" s="276">
+      <c r="N55" s="250">
         <v>494.59</v>
       </c>
     </row>
@@ -11249,23 +11275,24 @@
       <c r="J56" s="4">
         <v>987.72299999999996</v>
       </c>
-      <c r="K56" s="167">
+      <c r="K56" s="153">
         <v>988.03399999999999</v>
       </c>
-      <c r="L56" s="167">
+      <c r="L56" s="153">
         <v>988.34500000000003</v>
       </c>
-      <c r="M56" s="167">
+      <c r="M56" s="153">
         <v>988.66300000000001</v>
       </c>
-      <c r="N56" s="275">
+      <c r="N56" s="249">
         <v>988.98400000000004</v>
       </c>
+      <c r="O56" s="283"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
-      <c r="X56" s="294"/>
-      <c r="Y56" s="300"/>
+      <c r="X56" s="268"/>
+      <c r="Y56" s="274"/>
     </row>
     <row r="57" spans="2:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B57" s="11" t="s">
@@ -11295,16 +11322,16 @@
       <c r="J57" s="5">
         <v>1.4079999999999999</v>
       </c>
-      <c r="K57" s="79">
+      <c r="K57" s="76">
         <v>1.4079999999999999</v>
       </c>
-      <c r="L57" s="79">
+      <c r="L57" s="76">
         <v>1.2999999999999999E-4</v>
       </c>
-      <c r="M57" s="79">
+      <c r="M57" s="76">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="N57" s="276">
+      <c r="N57" s="250">
         <v>10.752000000000001</v>
       </c>
     </row>
@@ -11399,16 +11426,16 @@
       <c r="J60" s="5">
         <v>592.923</v>
       </c>
-      <c r="K60" s="79">
+      <c r="K60" s="76">
         <v>567.46100000000001</v>
       </c>
-      <c r="L60" s="79">
+      <c r="L60" s="76">
         <v>551.59299999999996</v>
       </c>
-      <c r="M60" s="79">
+      <c r="M60" s="76">
         <v>424.59300000000002</v>
       </c>
-      <c r="N60" s="276">
+      <c r="N60" s="250">
         <v>305.03500000000003</v>
       </c>
     </row>
@@ -11465,7 +11492,7 @@
       <c r="F62" s="5"/>
     </row>
     <row r="63" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B63" s="186" t="s">
+      <c r="B63" s="172" t="s">
         <v>199</v>
       </c>
       <c r="F63" s="5">
@@ -11505,8 +11532,8 @@
         <v>305.03499999999894</v>
       </c>
     </row>
-    <row r="64" spans="2:25" s="198" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B64" s="198" t="s">
+    <row r="64" spans="2:25" s="184" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B64" s="184" t="s">
         <v>200</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -11518,167 +11545,171 @@
       <c r="E64" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F64" s="199">
+      <c r="F64" s="185">
         <f t="shared" ref="F64:K64" si="106">F63/F20</f>
         <v>0.576205873460791</v>
       </c>
-      <c r="G64" s="199">
+      <c r="G64" s="185">
         <f t="shared" si="106"/>
         <v>2.0324522286428865</v>
       </c>
-      <c r="H64" s="199">
+      <c r="H64" s="185">
         <f t="shared" si="106"/>
         <v>0.94878172588832532</v>
       </c>
-      <c r="I64" s="199">
+      <c r="I64" s="185">
         <f t="shared" si="106"/>
         <v>1.0519141148607816</v>
       </c>
-      <c r="J64" s="199">
+      <c r="J64" s="185">
         <f t="shared" si="106"/>
         <v>1.0195860954198812</v>
       </c>
-      <c r="K64" s="199">
+      <c r="K64" s="185">
         <f t="shared" si="106"/>
         <v>0.96421538058964962</v>
       </c>
-      <c r="L64" s="199">
+      <c r="L64" s="185">
         <f>L63/L20</f>
         <v>0.92874198556054144</v>
       </c>
-      <c r="M64" s="199">
+      <c r="M64" s="185">
         <f t="shared" ref="M64:N64" si="107">M63/M20</f>
         <v>0.71028256261929823</v>
       </c>
-      <c r="N64" s="199">
+      <c r="N64" s="185">
         <f t="shared" si="107"/>
         <v>0.50682136513701537</v>
       </c>
-      <c r="Q64" s="199"/>
-      <c r="R64" s="199"/>
-      <c r="S64" s="199"/>
-      <c r="X64" s="295"/>
-      <c r="Y64" s="301"/>
-    </row>
-    <row r="65" spans="2:25" s="198" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="O64" s="133"/>
+      <c r="Q64" s="185"/>
+      <c r="R64" s="185"/>
+      <c r="S64" s="185"/>
+      <c r="X64" s="269"/>
+      <c r="Y64" s="275"/>
+    </row>
+    <row r="65" spans="2:25" s="184" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
-      <c r="F65" s="199"/>
-      <c r="G65" s="199"/>
-      <c r="H65" s="199"/>
-      <c r="I65" s="199"/>
-      <c r="J65" s="199"/>
-      <c r="K65" s="199"/>
-      <c r="L65" s="199"/>
-      <c r="M65" s="199"/>
-      <c r="N65" s="199"/>
-      <c r="Q65" s="199"/>
-      <c r="R65" s="199"/>
-      <c r="S65" s="199"/>
-      <c r="X65" s="295"/>
-      <c r="Y65" s="301"/>
-    </row>
-    <row r="66" spans="2:25" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="60" t="s">
+      <c r="F65" s="185"/>
+      <c r="G65" s="185"/>
+      <c r="H65" s="185"/>
+      <c r="I65" s="185"/>
+      <c r="J65" s="185"/>
+      <c r="K65" s="185"/>
+      <c r="L65" s="185"/>
+      <c r="M65" s="185"/>
+      <c r="N65" s="185"/>
+      <c r="O65" s="133"/>
+      <c r="Q65" s="185"/>
+      <c r="R65" s="185"/>
+      <c r="S65" s="185"/>
+      <c r="X65" s="269"/>
+      <c r="Y65" s="275"/>
+    </row>
+    <row r="66" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="201"/>
-      <c r="D66" s="201"/>
-      <c r="E66" s="201"/>
-      <c r="F66" s="202">
+      <c r="C66" s="187"/>
+      <c r="D66" s="187"/>
+      <c r="E66" s="187"/>
+      <c r="F66" s="188">
         <f t="shared" ref="F66:K66" si="108">F39</f>
         <v>893.94299999999998</v>
       </c>
-      <c r="G66" s="202">
+      <c r="G66" s="188">
         <f t="shared" si="108"/>
         <v>1600.53</v>
       </c>
-      <c r="H66" s="202">
+      <c r="H66" s="188">
         <f t="shared" si="108"/>
         <v>1780.2619999999999</v>
       </c>
-      <c r="I66" s="202">
+      <c r="I66" s="188">
         <f t="shared" si="108"/>
         <v>1925.559</v>
       </c>
-      <c r="J66" s="202">
+      <c r="J66" s="188">
         <f t="shared" si="108"/>
         <v>3004.3</v>
       </c>
-      <c r="K66" s="202">
+      <c r="K66" s="188">
         <f t="shared" si="108"/>
         <v>3132.9639999999999</v>
       </c>
-      <c r="L66" s="202">
+      <c r="L66" s="188">
         <f>L39</f>
         <v>3075.4749999999999</v>
       </c>
-      <c r="M66" s="202">
+      <c r="M66" s="188">
         <f t="shared" ref="M66:N66" si="109">M39</f>
         <v>3021.5070000000001</v>
       </c>
-      <c r="N66" s="202">
+      <c r="N66" s="188">
         <f t="shared" si="109"/>
         <v>2977.4740000000002</v>
       </c>
-      <c r="Q66" s="58"/>
-      <c r="R66" s="58"/>
-      <c r="S66" s="58"/>
-      <c r="X66" s="296"/>
-      <c r="Y66" s="141"/>
-    </row>
-    <row r="67" spans="2:25" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="60" t="s">
+      <c r="O66" s="133"/>
+      <c r="Q66" s="55"/>
+      <c r="R66" s="55"/>
+      <c r="S66" s="55"/>
+      <c r="X66" s="270"/>
+      <c r="Y66" s="133"/>
+    </row>
+    <row r="67" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C67" s="201"/>
-      <c r="D67" s="201"/>
-      <c r="E67" s="201"/>
-      <c r="F67" s="202">
+      <c r="C67" s="187"/>
+      <c r="D67" s="187"/>
+      <c r="E67" s="187"/>
+      <c r="F67" s="188">
         <f t="shared" ref="F67:K67" si="110">F56</f>
         <v>0</v>
       </c>
-      <c r="G67" s="202">
+      <c r="G67" s="188">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="H67" s="202">
+      <c r="H67" s="188">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="I67" s="202">
+      <c r="I67" s="188">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="J67" s="202">
+      <c r="J67" s="188">
         <f t="shared" si="110"/>
         <v>987.72299999999996</v>
       </c>
-      <c r="K67" s="202">
+      <c r="K67" s="188">
         <f t="shared" si="110"/>
         <v>988.03399999999999</v>
       </c>
-      <c r="L67" s="202">
+      <c r="L67" s="188">
         <f>L56</f>
         <v>988.34500000000003</v>
       </c>
-      <c r="M67" s="202">
+      <c r="M67" s="188">
         <f t="shared" ref="M67:N67" si="111">M56</f>
         <v>988.66300000000001</v>
       </c>
-      <c r="N67" s="202">
+      <c r="N67" s="188">
         <f t="shared" si="111"/>
         <v>988.98400000000004</v>
       </c>
-      <c r="Q67" s="58"/>
-      <c r="R67" s="58"/>
-      <c r="S67" s="58"/>
-      <c r="X67" s="296"/>
-      <c r="Y67" s="141"/>
+      <c r="O67" s="133"/>
+      <c r="Q67" s="55"/>
+      <c r="R67" s="55"/>
+      <c r="S67" s="55"/>
+      <c r="X67" s="270"/>
+      <c r="Y67" s="133"/>
     </row>
     <row r="68" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B68" s="200" t="s">
+      <c r="B68" s="186" t="s">
         <v>7</v>
       </c>
       <c r="F68" s="5">
@@ -11718,91 +11749,93 @@
         <v>1988.4900000000002</v>
       </c>
     </row>
-    <row r="70" spans="2:25" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="60" t="s">
+    <row r="70" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C70" s="201"/>
-      <c r="D70" s="201"/>
-      <c r="E70" s="201"/>
-      <c r="G70" s="58">
+      <c r="C70" s="187"/>
+      <c r="D70" s="187"/>
+      <c r="E70" s="187"/>
+      <c r="G70" s="55">
         <v>64.83</v>
       </c>
-      <c r="H70" s="58">
+      <c r="H70" s="55">
         <v>89.98</v>
       </c>
-      <c r="I70" s="58">
+      <c r="I70" s="55">
         <v>75.55</v>
       </c>
-      <c r="J70" s="58">
+      <c r="J70" s="55">
         <v>103.16</v>
       </c>
-      <c r="K70" s="58">
+      <c r="K70" s="55">
         <v>46.24</v>
       </c>
-      <c r="L70" s="58">
+      <c r="L70" s="55">
         <v>32.86</v>
       </c>
-      <c r="M70" s="58">
+      <c r="M70" s="55">
         <v>35.840000000000003</v>
       </c>
-      <c r="N70" s="287">
+      <c r="N70" s="261">
         <v>28.37</v>
       </c>
-      <c r="Q70" s="58"/>
-      <c r="R70" s="58"/>
-      <c r="S70" s="58"/>
-      <c r="X70" s="296"/>
-      <c r="Y70" s="141"/>
-    </row>
-    <row r="71" spans="2:25" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="60" t="s">
+      <c r="O70" s="133"/>
+      <c r="Q70" s="55"/>
+      <c r="R70" s="55"/>
+      <c r="S70" s="55"/>
+      <c r="X70" s="270"/>
+      <c r="Y70" s="133"/>
+    </row>
+    <row r="71" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="201"/>
-      <c r="D71" s="201"/>
-      <c r="E71" s="201"/>
-      <c r="F71" s="58"/>
-      <c r="G71" s="202">
+      <c r="C71" s="187"/>
+      <c r="D71" s="187"/>
+      <c r="E71" s="187"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="188">
         <f t="shared" ref="G71:I71" si="114">G70*G20</f>
         <v>18870.327420000001</v>
       </c>
-      <c r="H71" s="202">
+      <c r="H71" s="188">
         <f t="shared" si="114"/>
         <v>51405.574000000001</v>
       </c>
-      <c r="I71" s="202">
+      <c r="I71" s="188">
         <f t="shared" si="114"/>
         <v>43511.662599999996</v>
       </c>
-      <c r="J71" s="202">
+      <c r="J71" s="188">
         <f>J70*J20</f>
         <v>59991.150599999994</v>
       </c>
-      <c r="K71" s="202">
+      <c r="K71" s="188">
         <f t="shared" ref="K71:L71" si="115">K70*K20</f>
         <v>27213.211039999998</v>
       </c>
-      <c r="L71" s="202">
+      <c r="L71" s="188">
         <f t="shared" si="115"/>
         <v>19516.47408</v>
       </c>
-      <c r="M71" s="202">
+      <c r="M71" s="188">
         <f t="shared" ref="M71:N71" si="116">M70*M20</f>
         <v>21424.399360000003</v>
       </c>
-      <c r="N71" s="202">
+      <c r="N71" s="188">
         <f t="shared" si="116"/>
         <v>17074.739830000002</v>
       </c>
-      <c r="Q71" s="58"/>
-      <c r="R71" s="58"/>
-      <c r="S71" s="58"/>
-      <c r="X71" s="296"/>
-      <c r="Y71" s="141"/>
+      <c r="O71" s="133"/>
+      <c r="Q71" s="55"/>
+      <c r="R71" s="55"/>
+      <c r="S71" s="55"/>
+      <c r="X71" s="270"/>
+      <c r="Y71" s="133"/>
     </row>
     <row r="72" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B72" s="200" t="s">
+      <c r="B72" s="186" t="s">
         <v>5</v>
       </c>
       <c r="F72" s="5">
@@ -11843,221 +11876,221 @@
       </c>
     </row>
     <row r="74" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B74" s="200" t="s">
+      <c r="B74" s="186" t="s">
         <v>204</v>
       </c>
-      <c r="G74" s="208">
+      <c r="G74" s="194">
         <f t="shared" ref="G74:I74" si="119">G70/G64</f>
         <v>31.897428675747243</v>
       </c>
-      <c r="H74" s="208">
+      <c r="H74" s="194">
         <f t="shared" si="119"/>
         <v>94.837408378363875</v>
       </c>
-      <c r="I74" s="208">
+      <c r="I74" s="194">
         <f t="shared" si="119"/>
         <v>71.82145284741128</v>
       </c>
-      <c r="J74" s="208">
+      <c r="J74" s="194">
         <f>J70/J64</f>
         <v>101.1783119281527</v>
       </c>
-      <c r="K74" s="208">
+      <c r="K74" s="194">
         <f t="shared" ref="K74:L74" si="120">K70/K64</f>
         <v>47.956090444982024</v>
       </c>
-      <c r="L74" s="208">
+      <c r="L74" s="194">
         <f t="shared" si="120"/>
         <v>35.381193604774282</v>
       </c>
-      <c r="M74" s="208">
+      <c r="M74" s="194">
         <f t="shared" ref="M74:N74" si="121">M70/M64</f>
         <v>50.45879187549442</v>
       </c>
-      <c r="N74" s="208">
+      <c r="N74" s="194">
         <f t="shared" si="121"/>
         <v>55.976330027701934</v>
       </c>
     </row>
     <row r="75" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B75" s="200" t="s">
+      <c r="B75" s="186" t="s">
         <v>213</v>
       </c>
-      <c r="G75" s="208">
+      <c r="G75" s="194">
         <f t="shared" ref="G75" si="122">G71/SUM(D3:G3)</f>
         <v>16.419103099215079</v>
       </c>
-      <c r="H75" s="208">
+      <c r="H75" s="194">
         <f t="shared" ref="H75" si="123">H71/SUM(E3:H3)</f>
         <v>36.639779500911978</v>
       </c>
-      <c r="I75" s="208">
+      <c r="I75" s="194">
         <f t="shared" ref="I75" si="124">I71/SUM(F3:I3)</f>
         <v>26.205198922441955</v>
       </c>
-      <c r="J75" s="208">
+      <c r="J75" s="194">
         <f t="shared" ref="J75:K75" si="125">J71/SUM(G3:J3)</f>
         <v>31.25872473727074</v>
       </c>
-      <c r="K75" s="208">
+      <c r="K75" s="194">
         <f t="shared" si="125"/>
         <v>13.150678086094159</v>
       </c>
-      <c r="L75" s="208">
+      <c r="L75" s="194">
         <f>L71/SUM(I3:L3)</f>
         <v>8.8452081220206615</v>
       </c>
-      <c r="M75" s="208">
+      <c r="M75" s="194">
         <f t="shared" ref="M75" si="126">M71/SUM(J3:M3)</f>
         <v>9.6732142474976506</v>
       </c>
-      <c r="N75" s="208">
+      <c r="N75" s="194">
         <f>N71/SUM($K$3:$N$3)</f>
         <v>7.6738610288658444</v>
       </c>
     </row>
     <row r="76" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B76" s="224" t="s">
+      <c r="B76" s="201" t="s">
         <v>218</v>
       </c>
-      <c r="G76" s="208">
+      <c r="G76" s="194">
         <f t="shared" ref="G76" si="127">G72/SUM(D3:G3)</f>
         <v>15.026479298976499</v>
       </c>
-      <c r="H76" s="208">
+      <c r="H76" s="194">
         <f t="shared" ref="H76" si="128">H72/SUM(E3:H3)</f>
         <v>35.370881946458979</v>
       </c>
-      <c r="I76" s="208">
+      <c r="I76" s="194">
         <f t="shared" ref="I76" si="129">I72/SUM(F3:I3)</f>
         <v>25.045517733153215</v>
       </c>
-      <c r="J76" s="208">
+      <c r="J76" s="194">
         <f t="shared" ref="J76:K76" si="130">J72/SUM(G3:J3)</f>
         <v>30.207976006431906</v>
       </c>
-      <c r="K76" s="208">
+      <c r="K76" s="194">
         <f t="shared" si="130"/>
         <v>12.114149030197565</v>
       </c>
-      <c r="L76" s="208">
+      <c r="L76" s="194">
         <f>L72/SUM(I3:L3)</f>
         <v>7.8992842244949566</v>
       </c>
-      <c r="M76" s="208">
+      <c r="M76" s="194">
         <f t="shared" ref="M76" si="131">M72/SUM(J3:M3)</f>
         <v>8.7553758888431883</v>
       </c>
-      <c r="N76" s="208">
+      <c r="N76" s="194">
         <f t="shared" ref="N76:N77" si="132">N72/SUM($K$3:$N$3)</f>
         <v>6.7801785441418918</v>
       </c>
     </row>
     <row r="77" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B77" s="200" t="s">
+      <c r="B77" s="186" t="s">
         <v>214</v>
       </c>
-      <c r="G77" s="208">
+      <c r="G77" s="194">
         <f t="shared" ref="G77:L77" si="133">G70/SUM(D19:G19)</f>
         <v>-44.675361443232362</v>
       </c>
-      <c r="H77" s="208">
+      <c r="H77" s="194">
         <f t="shared" si="133"/>
         <v>-69.182197616608946</v>
       </c>
-      <c r="I77" s="208">
+      <c r="I77" s="194">
         <f t="shared" si="133"/>
         <v>-65.015776279415363</v>
       </c>
-      <c r="J77" s="208">
+      <c r="J77" s="194">
         <f t="shared" si="133"/>
         <v>-93.354276916433804</v>
       </c>
-      <c r="K77" s="208">
+      <c r="K77" s="194">
         <f t="shared" si="133"/>
         <v>-50.661466911577669</v>
       </c>
-      <c r="L77" s="208">
+      <c r="L77" s="194">
         <f t="shared" si="133"/>
         <v>-34.073155589366579</v>
       </c>
-      <c r="M77" s="208">
+      <c r="M77" s="194">
         <f>M70/SUM(J19:M19)</f>
         <v>-26.838223427392109</v>
       </c>
-      <c r="N77" s="208">
+      <c r="N77" s="194">
         <f>N70/SUM($K$19:$N$19)</f>
         <v>-18.110490695810771</v>
       </c>
-      <c r="P77" s="240"/>
+      <c r="P77" s="214"/>
     </row>
     <row r="78" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B78" s="240" t="s">
+      <c r="B78" s="214" t="s">
         <v>253</v>
       </c>
-      <c r="G78" s="83">
+      <c r="G78" s="80">
         <f t="shared" ref="G78:L78" si="134">SUM(D12:G12)/(G48-SUM(G50:G53))</f>
         <v>-0.25137548210801064</v>
       </c>
-      <c r="H78" s="83">
+      <c r="H78" s="80">
         <f t="shared" si="134"/>
         <v>-0.30583278280508219</v>
       </c>
-      <c r="I78" s="83">
+      <c r="I78" s="80">
         <f t="shared" si="134"/>
         <v>-0.31302756573649004</v>
       </c>
-      <c r="J78" s="83">
+      <c r="J78" s="80">
         <f t="shared" si="134"/>
         <v>-0.20685053640976875</v>
       </c>
-      <c r="K78" s="83">
+      <c r="K78" s="80">
         <f t="shared" si="134"/>
         <v>-0.2013507520159552</v>
       </c>
-      <c r="L78" s="83">
+      <c r="L78" s="80">
         <f t="shared" si="134"/>
         <v>-0.20293605022212965</v>
       </c>
-      <c r="M78" s="83">
+      <c r="M78" s="80">
         <f>SUM(J12:M12)/(M48-SUM(M50:M53))</f>
         <v>-0.27196075945524634</v>
       </c>
-      <c r="N78" s="83">
+      <c r="N78" s="80">
         <f>SUM(K12:N12)/(N48-SUM(N50:N53))</f>
         <v>-0.31913473536715303</v>
       </c>
-      <c r="P78" s="240"/>
+      <c r="P78" s="214"/>
     </row>
     <row r="79" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B79" s="240"/>
-      <c r="G79" s="83"/>
-      <c r="H79" s="83"/>
-      <c r="I79" s="83"/>
-      <c r="J79" s="83"/>
-      <c r="K79" s="83"/>
-      <c r="L79" s="83"/>
-      <c r="M79" s="83"/>
-      <c r="P79" s="240"/>
+      <c r="B79" s="214"/>
+      <c r="G79" s="80"/>
+      <c r="H79" s="80"/>
+      <c r="I79" s="80"/>
+      <c r="J79" s="80"/>
+      <c r="K79" s="80"/>
+      <c r="L79" s="80"/>
+      <c r="M79" s="80"/>
+      <c r="P79" s="214"/>
     </row>
     <row r="80" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B80" s="240"/>
-      <c r="G80" s="83"/>
-      <c r="H80" s="83"/>
-      <c r="I80" s="83"/>
-      <c r="J80" s="83"/>
-      <c r="K80" s="83"/>
-      <c r="L80" s="83"/>
-      <c r="M80" s="83"/>
-      <c r="P80" s="240"/>
+      <c r="B80" s="214"/>
+      <c r="G80" s="80"/>
+      <c r="H80" s="80"/>
+      <c r="I80" s="80"/>
+      <c r="J80" s="80"/>
+      <c r="K80" s="80"/>
+      <c r="L80" s="80"/>
+      <c r="M80" s="80"/>
+      <c r="P80" s="214"/>
     </row>
     <row r="81" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="242" t="s">
+      <c r="B81" s="216" t="s">
         <v>272</v>
       </c>
-      <c r="C81" s="243"/>
-      <c r="D81" s="243"/>
-      <c r="E81" s="243"/>
+      <c r="C81" s="217"/>
+      <c r="D81" s="217"/>
+      <c r="E81" s="217"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5">
@@ -12084,21 +12117,22 @@
         <f>M18</f>
         <v>-301.90200000000004</v>
       </c>
-      <c r="N81" s="276"/>
-      <c r="P81" s="244"/>
+      <c r="N81" s="250"/>
+      <c r="O81" s="134"/>
+      <c r="P81" s="218"/>
       <c r="Q81" s="5"/>
       <c r="R81" s="5"/>
       <c r="S81" s="5"/>
-      <c r="X81" s="292"/>
-      <c r="Y81" s="120"/>
+      <c r="X81" s="266"/>
+      <c r="Y81" s="115"/>
     </row>
     <row r="82" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="242" t="s">
+      <c r="B82" s="216" t="s">
         <v>273</v>
       </c>
-      <c r="C82" s="243"/>
-      <c r="D82" s="243"/>
-      <c r="E82" s="243"/>
+      <c r="C82" s="217"/>
+      <c r="D82" s="217"/>
+      <c r="E82" s="217"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5">
@@ -12115,19 +12149,20 @@
       <c r="M82" s="5">
         <v>-301.90199999999999</v>
       </c>
-      <c r="N82" s="276"/>
-      <c r="P82" s="244"/>
+      <c r="N82" s="250"/>
+      <c r="O82" s="134"/>
+      <c r="P82" s="218"/>
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
       <c r="S82" s="5"/>
-      <c r="X82" s="292"/>
-      <c r="Y82" s="120"/>
+      <c r="X82" s="266"/>
+      <c r="Y82" s="115"/>
     </row>
     <row r="83" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="245"/>
-      <c r="C83" s="243"/>
-      <c r="D83" s="243"/>
-      <c r="E83" s="243"/>
+      <c r="B83" s="219"/>
+      <c r="C83" s="217"/>
+      <c r="D83" s="217"/>
+      <c r="E83" s="217"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
@@ -12136,20 +12171,21 @@
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
-      <c r="N83" s="276"/>
+      <c r="N83" s="250"/>
+      <c r="O83" s="134"/>
       <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
       <c r="S83" s="5"/>
-      <c r="X83" s="292"/>
-      <c r="Y83" s="120"/>
+      <c r="X83" s="266"/>
+      <c r="Y83" s="115"/>
     </row>
     <row r="84" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="246" t="s">
+      <c r="B84" s="220" t="s">
         <v>252</v>
       </c>
-      <c r="C84" s="243"/>
-      <c r="D84" s="243"/>
-      <c r="E84" s="243"/>
+      <c r="C84" s="217"/>
+      <c r="D84" s="217"/>
+      <c r="E84" s="217"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
@@ -12158,20 +12194,21 @@
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
-      <c r="N84" s="276"/>
+      <c r="N84" s="250"/>
+      <c r="O84" s="134"/>
       <c r="Q84" s="5"/>
       <c r="R84" s="5"/>
       <c r="S84" s="5"/>
-      <c r="X84" s="292"/>
-      <c r="Y84" s="120"/>
+      <c r="X84" s="266"/>
+      <c r="Y84" s="115"/>
     </row>
     <row r="85" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="247" t="s">
+      <c r="B85" s="221" t="s">
         <v>254</v>
       </c>
-      <c r="C85" s="243"/>
-      <c r="D85" s="243"/>
-      <c r="E85" s="243"/>
+      <c r="C85" s="217"/>
+      <c r="D85" s="217"/>
+      <c r="E85" s="217"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5">
@@ -12188,22 +12225,23 @@
       <c r="M85" s="5">
         <v>34.052</v>
       </c>
-      <c r="N85" s="276">
+      <c r="N85" s="250">
         <v>42.537999999999997</v>
       </c>
+      <c r="O85" s="134"/>
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
       <c r="S85" s="5"/>
-      <c r="X85" s="292"/>
-      <c r="Y85" s="120"/>
+      <c r="X85" s="266"/>
+      <c r="Y85" s="115"/>
     </row>
     <row r="86" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="247" t="s">
+      <c r="B86" s="221" t="s">
         <v>255</v>
       </c>
-      <c r="C86" s="243"/>
-      <c r="D86" s="243"/>
-      <c r="E86" s="243"/>
+      <c r="C86" s="217"/>
+      <c r="D86" s="217"/>
+      <c r="E86" s="217"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5">
@@ -12220,22 +12258,23 @@
       <c r="M86" s="5">
         <v>161.35900000000001</v>
       </c>
-      <c r="N86" s="276">
+      <c r="N86" s="250">
         <v>169.45599999999999</v>
       </c>
+      <c r="O86" s="134"/>
       <c r="Q86" s="5"/>
       <c r="R86" s="5"/>
       <c r="S86" s="5"/>
-      <c r="X86" s="292"/>
-      <c r="Y86" s="120"/>
+      <c r="X86" s="266"/>
+      <c r="Y86" s="115"/>
     </row>
     <row r="87" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="247" t="s">
+      <c r="B87" s="221" t="s">
         <v>257</v>
       </c>
-      <c r="C87" s="243"/>
-      <c r="D87" s="243"/>
-      <c r="E87" s="243"/>
+      <c r="C87" s="217"/>
+      <c r="D87" s="217"/>
+      <c r="E87" s="217"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
       <c r="H87" s="5">
@@ -12252,22 +12291,23 @@
       <c r="M87" s="5">
         <v>18.815000000000001</v>
       </c>
-      <c r="N87" s="276">
+      <c r="N87" s="250">
         <v>19.984999999999999</v>
       </c>
+      <c r="O87" s="134"/>
       <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
       <c r="S87" s="5"/>
-      <c r="X87" s="292"/>
-      <c r="Y87" s="120"/>
+      <c r="X87" s="266"/>
+      <c r="Y87" s="115"/>
     </row>
     <row r="88" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="247" t="s">
+      <c r="B88" s="221" t="s">
         <v>256</v>
       </c>
-      <c r="C88" s="243"/>
-      <c r="D88" s="243"/>
-      <c r="E88" s="243"/>
+      <c r="C88" s="217"/>
+      <c r="D88" s="217"/>
+      <c r="E88" s="217"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5">
@@ -12284,22 +12324,23 @@
       <c r="M88" s="5">
         <v>-1.5149999999999999</v>
       </c>
-      <c r="N88" s="276">
+      <c r="N88" s="250">
         <v>0.39500000000000002</v>
       </c>
+      <c r="O88" s="134"/>
       <c r="Q88" s="5"/>
       <c r="R88" s="5"/>
       <c r="S88" s="5"/>
-      <c r="X88" s="292"/>
-      <c r="Y88" s="120"/>
+      <c r="X88" s="266"/>
+      <c r="Y88" s="115"/>
     </row>
     <row r="89" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="247" t="s">
+      <c r="B89" s="221" t="s">
         <v>258</v>
       </c>
-      <c r="C89" s="243"/>
-      <c r="D89" s="243"/>
-      <c r="E89" s="243"/>
+      <c r="C89" s="217"/>
+      <c r="D89" s="217"/>
+      <c r="E89" s="217"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5">
@@ -12316,22 +12357,23 @@
       <c r="M89" s="5">
         <v>0.318</v>
       </c>
-      <c r="N89" s="276">
+      <c r="N89" s="250">
         <v>0.32100000000000001</v>
       </c>
+      <c r="O89" s="134"/>
       <c r="Q89" s="5"/>
       <c r="R89" s="5"/>
       <c r="S89" s="5"/>
-      <c r="X89" s="292"/>
-      <c r="Y89" s="120"/>
+      <c r="X89" s="266"/>
+      <c r="Y89" s="115"/>
     </row>
     <row r="90" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="247" t="s">
+      <c r="B90" s="221" t="s">
         <v>259</v>
       </c>
-      <c r="C90" s="243"/>
-      <c r="D90" s="243"/>
-      <c r="E90" s="243"/>
+      <c r="C90" s="217"/>
+      <c r="D90" s="217"/>
+      <c r="E90" s="217"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="9">
@@ -12356,19 +12398,20 @@
         <f>SUM(N91:N100)</f>
         <v>207.78100000000003</v>
       </c>
+      <c r="O90" s="134"/>
       <c r="Q90" s="5"/>
       <c r="R90" s="5"/>
       <c r="S90" s="5"/>
-      <c r="X90" s="292"/>
-      <c r="Y90" s="120"/>
+      <c r="X90" s="266"/>
+      <c r="Y90" s="115"/>
     </row>
     <row r="91" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="242" t="s">
+      <c r="B91" s="216" t="s">
         <v>37</v>
       </c>
-      <c r="C91" s="243"/>
-      <c r="D91" s="243"/>
-      <c r="E91" s="243"/>
+      <c r="C91" s="217"/>
+      <c r="D91" s="217"/>
+      <c r="E91" s="217"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5">
@@ -12385,22 +12428,23 @@
       <c r="M91" s="5">
         <v>1.63</v>
       </c>
-      <c r="N91" s="304">
+      <c r="N91" s="278">
         <v>-192.42699999999999</v>
       </c>
+      <c r="O91" s="134"/>
       <c r="Q91" s="5"/>
       <c r="R91" s="5"/>
       <c r="S91" s="5"/>
-      <c r="X91" s="292"/>
-      <c r="Y91" s="120"/>
+      <c r="X91" s="266"/>
+      <c r="Y91" s="115"/>
     </row>
     <row r="92" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="242" t="s">
+      <c r="B92" s="216" t="s">
         <v>46</v>
       </c>
-      <c r="C92" s="243"/>
-      <c r="D92" s="243"/>
-      <c r="E92" s="243"/>
+      <c r="C92" s="217"/>
+      <c r="D92" s="217"/>
+      <c r="E92" s="217"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5">
@@ -12417,22 +12461,23 @@
       <c r="M92" s="5">
         <v>2.3039999999999998</v>
       </c>
-      <c r="N92" s="276">
+      <c r="N92" s="250">
         <v>18.632999999999999</v>
       </c>
+      <c r="O92" s="134"/>
       <c r="Q92" s="5"/>
       <c r="R92" s="5"/>
       <c r="S92" s="5"/>
-      <c r="X92" s="292"/>
-      <c r="Y92" s="120"/>
+      <c r="X92" s="266"/>
+      <c r="Y92" s="115"/>
     </row>
     <row r="93" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="242" t="s">
+      <c r="B93" s="216" t="s">
         <v>274</v>
       </c>
-      <c r="C93" s="243"/>
-      <c r="D93" s="243"/>
-      <c r="E93" s="243"/>
+      <c r="C93" s="217"/>
+      <c r="D93" s="217"/>
+      <c r="E93" s="217"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5">
@@ -12449,22 +12494,23 @@
       <c r="M93" s="5">
         <v>-15.680999999999999</v>
       </c>
-      <c r="N93" s="276">
+      <c r="N93" s="250">
         <v>8.8350000000000009</v>
       </c>
+      <c r="O93" s="134"/>
       <c r="Q93" s="5"/>
       <c r="R93" s="5"/>
       <c r="S93" s="5"/>
-      <c r="X93" s="292"/>
-      <c r="Y93" s="120"/>
+      <c r="X93" s="266"/>
+      <c r="Y93" s="115"/>
     </row>
     <row r="94" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="242" t="s">
+      <c r="B94" s="216" t="s">
         <v>275</v>
       </c>
-      <c r="C94" s="243"/>
-      <c r="D94" s="243"/>
-      <c r="E94" s="243"/>
+      <c r="C94" s="217"/>
+      <c r="D94" s="217"/>
+      <c r="E94" s="217"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5">
@@ -12481,22 +12527,23 @@
       <c r="M94" s="9">
         <v>-0.26600000000000001</v>
       </c>
-      <c r="N94" s="276">
+      <c r="N94" s="250">
         <v>-1.7190000000000001</v>
       </c>
+      <c r="O94" s="134"/>
       <c r="Q94" s="5"/>
       <c r="R94" s="5"/>
       <c r="S94" s="5"/>
-      <c r="X94" s="292"/>
-      <c r="Y94" s="120"/>
+      <c r="X94" s="266"/>
+      <c r="Y94" s="115"/>
     </row>
     <row r="95" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="242" t="s">
+      <c r="B95" s="216" t="s">
         <v>48</v>
       </c>
-      <c r="C95" s="243"/>
-      <c r="D95" s="243"/>
-      <c r="E95" s="243"/>
+      <c r="C95" s="217"/>
+      <c r="D95" s="217"/>
+      <c r="E95" s="217"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5">
@@ -12513,22 +12560,23 @@
       <c r="M95" s="5">
         <v>21.175000000000001</v>
       </c>
-      <c r="N95" s="276">
+      <c r="N95" s="250">
         <v>63.337000000000003</v>
       </c>
+      <c r="O95" s="134"/>
       <c r="Q95" s="5"/>
       <c r="R95" s="5"/>
       <c r="S95" s="5"/>
-      <c r="X95" s="292"/>
-      <c r="Y95" s="120"/>
+      <c r="X95" s="266"/>
+      <c r="Y95" s="115"/>
     </row>
     <row r="96" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="242" t="s">
+      <c r="B96" s="216" t="s">
         <v>276</v>
       </c>
-      <c r="C96" s="243"/>
-      <c r="D96" s="243"/>
-      <c r="E96" s="243"/>
+      <c r="C96" s="217"/>
+      <c r="D96" s="217"/>
+      <c r="E96" s="217"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5">
@@ -12545,22 +12593,23 @@
       <c r="M96" s="5">
         <v>2.6419999999999999</v>
       </c>
-      <c r="N96" s="276">
+      <c r="N96" s="250">
         <v>12.577999999999999</v>
       </c>
+      <c r="O96" s="134"/>
       <c r="Q96" s="5"/>
       <c r="R96" s="5"/>
       <c r="S96" s="5"/>
-      <c r="X96" s="292"/>
-      <c r="Y96" s="120"/>
+      <c r="X96" s="266"/>
+      <c r="Y96" s="115"/>
     </row>
     <row r="97" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="242" t="s">
+      <c r="B97" s="216" t="s">
         <v>277</v>
       </c>
-      <c r="C97" s="243"/>
-      <c r="D97" s="243"/>
-      <c r="E97" s="243"/>
+      <c r="C97" s="217"/>
+      <c r="D97" s="217"/>
+      <c r="E97" s="217"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5">
@@ -12577,22 +12626,23 @@
       <c r="M97" s="9">
         <v>0</v>
       </c>
-      <c r="N97" s="276">
+      <c r="N97" s="250">
         <v>10.738</v>
       </c>
+      <c r="O97" s="134"/>
       <c r="Q97" s="5"/>
       <c r="R97" s="5"/>
       <c r="S97" s="5"/>
-      <c r="X97" s="292"/>
-      <c r="Y97" s="120"/>
+      <c r="X97" s="266"/>
+      <c r="Y97" s="115"/>
     </row>
     <row r="98" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="242" t="s">
+      <c r="B98" s="216" t="s">
         <v>278</v>
       </c>
-      <c r="C98" s="243"/>
-      <c r="D98" s="243"/>
-      <c r="E98" s="243"/>
+      <c r="C98" s="217"/>
+      <c r="D98" s="217"/>
+      <c r="E98" s="217"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5">
@@ -12609,22 +12659,23 @@
       <c r="M98" s="5">
         <v>-11.259</v>
       </c>
-      <c r="N98" s="276">
+      <c r="N98" s="250">
         <v>14.885999999999999</v>
       </c>
+      <c r="O98" s="134"/>
       <c r="Q98" s="5"/>
       <c r="R98" s="5"/>
       <c r="S98" s="5"/>
-      <c r="X98" s="292"/>
-      <c r="Y98" s="120"/>
+      <c r="X98" s="266"/>
+      <c r="Y98" s="115"/>
     </row>
     <row r="99" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="242" t="s">
+      <c r="B99" s="216" t="s">
         <v>279</v>
       </c>
-      <c r="C99" s="243"/>
-      <c r="D99" s="243"/>
-      <c r="E99" s="243"/>
+      <c r="C99" s="217"/>
+      <c r="D99" s="217"/>
+      <c r="E99" s="217"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5">
@@ -12641,22 +12692,23 @@
       <c r="M99" s="5">
         <v>187.99100000000001</v>
       </c>
-      <c r="N99" s="276">
+      <c r="N99" s="250">
         <v>325.45</v>
       </c>
+      <c r="O99" s="134"/>
       <c r="Q99" s="5"/>
       <c r="R99" s="5"/>
       <c r="S99" s="5"/>
-      <c r="X99" s="292"/>
-      <c r="Y99" s="120"/>
+      <c r="X99" s="266"/>
+      <c r="Y99" s="115"/>
     </row>
     <row r="100" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="242" t="s">
+      <c r="B100" s="216" t="s">
         <v>280</v>
       </c>
-      <c r="C100" s="243"/>
-      <c r="D100" s="243"/>
-      <c r="E100" s="243"/>
+      <c r="C100" s="217"/>
+      <c r="D100" s="217"/>
+      <c r="E100" s="217"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5">
@@ -12673,22 +12725,23 @@
       <c r="M100" s="5">
         <v>-32.512999999999998</v>
       </c>
-      <c r="N100" s="276">
+      <c r="N100" s="250">
         <v>-52.53</v>
       </c>
+      <c r="O100" s="134"/>
       <c r="Q100" s="5"/>
       <c r="R100" s="5"/>
       <c r="S100" s="5"/>
-      <c r="X100" s="292"/>
-      <c r="Y100" s="120"/>
+      <c r="X100" s="266"/>
+      <c r="Y100" s="115"/>
     </row>
     <row r="101" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C101" s="248"/>
-      <c r="D101" s="248"/>
-      <c r="E101" s="248"/>
+      <c r="C101" s="222"/>
+      <c r="D101" s="222"/>
+      <c r="E101" s="222"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4">
@@ -12713,17 +12766,18 @@
         <f>N82+SUM(N85:N90)</f>
         <v>440.476</v>
       </c>
+      <c r="O101" s="132"/>
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
       <c r="S101" s="4"/>
-      <c r="X101" s="289"/>
-      <c r="Y101" s="119"/>
+      <c r="X101" s="263"/>
+      <c r="Y101" s="114"/>
     </row>
     <row r="102" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="245"/>
-      <c r="C102" s="243"/>
-      <c r="D102" s="243"/>
-      <c r="E102" s="243"/>
+      <c r="B102" s="219"/>
+      <c r="C102" s="217"/>
+      <c r="D102" s="217"/>
+      <c r="E102" s="217"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
@@ -12732,20 +12786,21 @@
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
-      <c r="N102" s="276"/>
+      <c r="N102" s="250"/>
+      <c r="O102" s="134"/>
       <c r="Q102" s="5"/>
       <c r="R102" s="5"/>
       <c r="S102" s="5"/>
-      <c r="X102" s="292"/>
-      <c r="Y102" s="120"/>
+      <c r="X102" s="266"/>
+      <c r="Y102" s="115"/>
     </row>
     <row r="103" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="247" t="s">
+      <c r="B103" s="221" t="s">
         <v>261</v>
       </c>
-      <c r="C103" s="243"/>
-      <c r="D103" s="243"/>
-      <c r="E103" s="243"/>
+      <c r="C103" s="217"/>
+      <c r="D103" s="217"/>
+      <c r="E103" s="217"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5">
@@ -12762,22 +12817,23 @@
       <c r="M103" s="5">
         <v>-133.35599999999999</v>
       </c>
-      <c r="N103" s="276">
+      <c r="N103" s="250">
         <v>-157.20500000000001</v>
       </c>
+      <c r="O103" s="134"/>
       <c r="Q103" s="5"/>
       <c r="R103" s="5"/>
       <c r="S103" s="5"/>
-      <c r="X103" s="292"/>
-      <c r="Y103" s="120"/>
+      <c r="X103" s="266"/>
+      <c r="Y103" s="115"/>
     </row>
     <row r="104" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="247" t="s">
+      <c r="B104" s="221" t="s">
         <v>262</v>
       </c>
-      <c r="C104" s="243"/>
-      <c r="D104" s="243"/>
-      <c r="E104" s="243"/>
+      <c r="C104" s="217"/>
+      <c r="D104" s="217"/>
+      <c r="E104" s="217"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5">
@@ -12794,22 +12850,23 @@
       <c r="M104" s="5">
         <v>0</v>
       </c>
-      <c r="N104" s="276">
+      <c r="N104" s="250">
         <v>-7.2229999999999999</v>
       </c>
+      <c r="O104" s="134"/>
       <c r="Q104" s="5"/>
       <c r="R104" s="5"/>
       <c r="S104" s="5"/>
-      <c r="X104" s="292"/>
-      <c r="Y104" s="120"/>
+      <c r="X104" s="266"/>
+      <c r="Y104" s="115"/>
     </row>
     <row r="105" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="247" t="s">
+      <c r="B105" s="221" t="s">
         <v>263</v>
       </c>
-      <c r="C105" s="243"/>
-      <c r="D105" s="243"/>
-      <c r="E105" s="243"/>
+      <c r="C105" s="217"/>
+      <c r="D105" s="217"/>
+      <c r="E105" s="217"/>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5">
@@ -12826,22 +12883,23 @@
       <c r="M105" s="5">
         <v>-1.5</v>
       </c>
-      <c r="N105" s="276">
+      <c r="N105" s="250">
         <v>0</v>
       </c>
+      <c r="O105" s="134"/>
       <c r="Q105" s="5"/>
       <c r="R105" s="5"/>
       <c r="S105" s="5"/>
-      <c r="X105" s="292"/>
-      <c r="Y105" s="120"/>
+      <c r="X105" s="266"/>
+      <c r="Y105" s="115"/>
     </row>
     <row r="106" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C106" s="248"/>
-      <c r="D106" s="248"/>
-      <c r="E106" s="248"/>
+      <c r="C106" s="222"/>
+      <c r="D106" s="222"/>
+      <c r="E106" s="222"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4">
@@ -12866,17 +12924,18 @@
         <f>SUM(N103:N105)</f>
         <v>-164.42800000000003</v>
       </c>
+      <c r="O106" s="132"/>
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
       <c r="S106" s="4"/>
-      <c r="X106" s="289"/>
-      <c r="Y106" s="119"/>
+      <c r="X106" s="263"/>
+      <c r="Y106" s="114"/>
     </row>
     <row r="107" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="245"/>
-      <c r="C107" s="243"/>
-      <c r="D107" s="243"/>
-      <c r="E107" s="243"/>
+      <c r="B107" s="219"/>
+      <c r="C107" s="217"/>
+      <c r="D107" s="217"/>
+      <c r="E107" s="217"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
@@ -12885,20 +12944,21 @@
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
-      <c r="N107" s="276"/>
+      <c r="N107" s="250"/>
+      <c r="O107" s="134"/>
       <c r="Q107" s="5"/>
       <c r="R107" s="5"/>
       <c r="S107" s="5"/>
-      <c r="X107" s="292"/>
-      <c r="Y107" s="120"/>
+      <c r="X107" s="266"/>
+      <c r="Y107" s="115"/>
     </row>
     <row r="108" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="247" t="s">
+      <c r="B108" s="221" t="s">
         <v>265</v>
       </c>
-      <c r="C108" s="243"/>
-      <c r="D108" s="243"/>
-      <c r="E108" s="243"/>
+      <c r="C108" s="217"/>
+      <c r="D108" s="217"/>
+      <c r="E108" s="217"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
       <c r="H108" s="5">
@@ -12915,22 +12975,23 @@
       <c r="M108" s="5">
         <v>12.83</v>
       </c>
-      <c r="N108" s="276">
+      <c r="N108" s="250">
         <v>3.0459999999999998</v>
       </c>
+      <c r="O108" s="134"/>
       <c r="Q108" s="5"/>
       <c r="R108" s="5"/>
       <c r="S108" s="5"/>
-      <c r="X108" s="292"/>
-      <c r="Y108" s="120"/>
+      <c r="X108" s="266"/>
+      <c r="Y108" s="115"/>
     </row>
     <row r="109" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="247" t="s">
+      <c r="B109" s="221" t="s">
         <v>266</v>
       </c>
-      <c r="C109" s="243"/>
-      <c r="D109" s="243"/>
-      <c r="E109" s="243"/>
+      <c r="C109" s="217"/>
+      <c r="D109" s="217"/>
+      <c r="E109" s="217"/>
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5">
@@ -12947,22 +13008,23 @@
       <c r="M109" s="5">
         <v>0</v>
       </c>
-      <c r="N109" s="276">
+      <c r="N109" s="250">
         <v>-1.236</v>
       </c>
+      <c r="O109" s="134"/>
       <c r="Q109" s="5"/>
       <c r="R109" s="5"/>
       <c r="S109" s="5"/>
-      <c r="X109" s="292"/>
-      <c r="Y109" s="120"/>
+      <c r="X109" s="266"/>
+      <c r="Y109" s="115"/>
     </row>
     <row r="110" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="247" t="s">
+      <c r="B110" s="221" t="s">
         <v>267</v>
       </c>
-      <c r="C110" s="243"/>
-      <c r="D110" s="243"/>
-      <c r="E110" s="243"/>
+      <c r="C110" s="217"/>
+      <c r="D110" s="217"/>
+      <c r="E110" s="217"/>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="H110" s="5">
@@ -12979,22 +13041,23 @@
       <c r="M110" s="5">
         <v>0</v>
       </c>
-      <c r="N110" s="276">
+      <c r="N110" s="250">
         <v>0</v>
       </c>
+      <c r="O110" s="134"/>
       <c r="Q110" s="5"/>
       <c r="R110" s="5"/>
       <c r="S110" s="5"/>
-      <c r="X110" s="292"/>
-      <c r="Y110" s="120"/>
+      <c r="X110" s="266"/>
+      <c r="Y110" s="115"/>
     </row>
     <row r="111" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="247" t="s">
+      <c r="B111" s="221" t="s">
         <v>268</v>
       </c>
-      <c r="C111" s="243"/>
-      <c r="D111" s="243"/>
-      <c r="E111" s="243"/>
+      <c r="C111" s="217"/>
+      <c r="D111" s="217"/>
+      <c r="E111" s="217"/>
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5">
@@ -13011,22 +13074,23 @@
       <c r="M111" s="5">
         <v>0</v>
       </c>
-      <c r="N111" s="276">
+      <c r="N111" s="250">
         <v>0</v>
       </c>
+      <c r="O111" s="134"/>
       <c r="Q111" s="5"/>
       <c r="R111" s="5"/>
       <c r="S111" s="5"/>
-      <c r="X111" s="292"/>
-      <c r="Y111" s="120"/>
+      <c r="X111" s="266"/>
+      <c r="Y111" s="115"/>
     </row>
     <row r="112" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="247" t="s">
+      <c r="B112" s="221" t="s">
         <v>269</v>
       </c>
-      <c r="C112" s="243"/>
-      <c r="D112" s="243"/>
-      <c r="E112" s="243"/>
+      <c r="C112" s="217"/>
+      <c r="D112" s="217"/>
+      <c r="E112" s="217"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
       <c r="H112" s="5">
@@ -13043,22 +13107,23 @@
       <c r="M112" s="5">
         <v>0</v>
       </c>
-      <c r="N112" s="276">
+      <c r="N112" s="250">
         <v>0</v>
       </c>
+      <c r="O112" s="134"/>
       <c r="Q112" s="5"/>
       <c r="R112" s="5"/>
       <c r="S112" s="5"/>
-      <c r="X112" s="292"/>
-      <c r="Y112" s="120"/>
+      <c r="X112" s="266"/>
+      <c r="Y112" s="115"/>
     </row>
     <row r="113" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="247" t="s">
+      <c r="B113" s="221" t="s">
         <v>270</v>
       </c>
-      <c r="C113" s="243"/>
-      <c r="D113" s="243"/>
-      <c r="E113" s="243"/>
+      <c r="C113" s="217"/>
+      <c r="D113" s="217"/>
+      <c r="E113" s="217"/>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="5">
@@ -13075,22 +13140,23 @@
       <c r="M113" s="5">
         <v>-0.15</v>
       </c>
-      <c r="N113" s="276">
+      <c r="N113" s="250">
         <v>0</v>
       </c>
+      <c r="O113" s="134"/>
       <c r="Q113" s="5"/>
       <c r="R113" s="5"/>
       <c r="S113" s="5"/>
-      <c r="X113" s="292"/>
-      <c r="Y113" s="120"/>
+      <c r="X113" s="266"/>
+      <c r="Y113" s="115"/>
     </row>
     <row r="114" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C114" s="248"/>
-      <c r="D114" s="248"/>
-      <c r="E114" s="248"/>
+      <c r="C114" s="222"/>
+      <c r="D114" s="222"/>
+      <c r="E114" s="222"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4">
@@ -13115,51 +13181,53 @@
         <f>SUM(N108:N113)</f>
         <v>1.8099999999999998</v>
       </c>
+      <c r="O114" s="132"/>
       <c r="Q114" s="4"/>
       <c r="R114" s="4"/>
       <c r="S114" s="4"/>
-      <c r="X114" s="289"/>
-      <c r="Y114" s="119"/>
-    </row>
-    <row r="116" spans="2:25" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="241" t="s">
+      <c r="X114" s="263"/>
+      <c r="Y114" s="114"/>
+    </row>
+    <row r="116" spans="2:25" s="215" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="215" t="s">
         <v>281</v>
       </c>
       <c r="C116"/>
       <c r="D116"/>
       <c r="E116"/>
-      <c r="F116" s="249"/>
-      <c r="G116" s="249"/>
-      <c r="H116" s="250">
+      <c r="F116" s="223"/>
+      <c r="G116" s="223"/>
+      <c r="H116" s="224">
         <f>H103+H105</f>
         <v>-23.234999999999999</v>
       </c>
-      <c r="I116" s="250">
+      <c r="I116" s="224">
         <f>I103+I105</f>
         <v>-10.561999999999999</v>
       </c>
-      <c r="J116" s="249"/>
-      <c r="K116" s="249"/>
-      <c r="L116" s="250">
+      <c r="J116" s="223"/>
+      <c r="K116" s="223"/>
+      <c r="L116" s="224">
         <f>L103+L105</f>
         <v>-83.811999999999998</v>
       </c>
-      <c r="M116" s="250">
+      <c r="M116" s="224">
         <f>M103+M105</f>
         <v>-134.85599999999999</v>
       </c>
-      <c r="N116" s="250">
+      <c r="N116" s="224">
         <f t="shared" ref="N116" si="136">N103+N105</f>
         <v>-157.20500000000001</v>
       </c>
-      <c r="Q116" s="249"/>
-      <c r="R116" s="249"/>
-      <c r="S116" s="249"/>
-      <c r="X116" s="297"/>
-      <c r="Y116" s="302"/>
+      <c r="O116" s="133"/>
+      <c r="Q116" s="223"/>
+      <c r="R116" s="223"/>
+      <c r="S116" s="223"/>
+      <c r="X116" s="271"/>
+      <c r="Y116" s="276"/>
     </row>
     <row r="117" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B117" s="241" t="s">
+      <c r="B117" s="215" t="s">
         <v>282</v>
       </c>
       <c r="H117" s="5">
@@ -13184,10 +13252,10 @@
       </c>
     </row>
     <row r="119" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B119" s="241"/>
+      <c r="B119" s="215"/>
     </row>
     <row r="120" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B120" s="241"/>
+      <c r="B120" s="215"/>
     </row>
   </sheetData>
   <phoneticPr fontId="29" type="noConversion"/>
@@ -13209,29 +13277,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DC1264-D281-9E4E-B0F5-F497A82B7907}">
-  <dimension ref="A1:AE24"/>
+  <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18:R18"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.875" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="9" style="22"/>
-    <col min="19" max="19" width="9" style="215" customWidth="1"/>
-    <col min="20" max="20" width="9" style="215"/>
-    <col min="21" max="21" width="9" style="141"/>
-    <col min="22" max="27" width="9" style="22"/>
-    <col min="28" max="28" width="9" style="141"/>
-    <col min="29" max="16384" width="9" style="22"/>
+    <col min="3" max="25" width="9" style="22"/>
+    <col min="26" max="26" width="9" style="310"/>
+    <col min="27" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B1" s="29" t="s">
         <v>81</v>
       </c>
@@ -13283,41 +13347,35 @@
       <c r="R1" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="S1" s="211" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="211" t="s">
-        <v>109</v>
-      </c>
-      <c r="U1" s="137" t="s">
+      <c r="S1" s="25" t="s">
         <v>15</v>
       </c>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
       <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
+      <c r="W1" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="X1" s="25" t="s">
+        <v>89</v>
+      </c>
       <c r="Y1" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z1" s="25" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="Z1" s="307" t="s">
+        <v>91</v>
       </c>
       <c r="AA1" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB1" s="137" t="s">
-        <v>91</v>
+        <v>95</v>
+      </c>
+      <c r="AB1" s="25" t="s">
+        <v>96</v>
       </c>
       <c r="AC1" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD1" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE1" s="25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>87</v>
       </c>
@@ -13372,36 +13430,27 @@
       <c r="R2" s="1">
         <v>58.8</v>
       </c>
-      <c r="S2" s="212">
-        <f>P2*(S3+1)</f>
-        <v>57.622945937595496</v>
-      </c>
-      <c r="T2" s="212">
-        <f>S2*(T3+1)</f>
-        <v>61.375967883490013</v>
-      </c>
-      <c r="U2" s="138">
-        <f t="shared" ref="U2" si="0">T2*(U3+1)</f>
-        <v>65.06883086112515</v>
-      </c>
-      <c r="Y2" s="3">
+      <c r="S2" s="1">
+        <v>58.8</v>
+      </c>
+      <c r="W2" s="3">
         <f>AVERAGE(D2:G2)</f>
         <v>17.600000000000001</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="X2" s="3">
         <f>AVERAGE(H2:K2)</f>
         <v>32.575000000000003</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="Y2" s="3">
         <f>AVERAGE(L2:O2)</f>
         <v>45.525000000000006</v>
       </c>
-      <c r="AB2" s="138">
-        <f>AVERAGE(P2:U2)</f>
-        <v>58.194624113701785</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Z2" s="263">
+        <f>AVERAGE(P2:S2)</f>
+        <v>55.975000000000009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
         <v>73</v>
       </c>
@@ -13409,91 +13458,83 @@
         <v>33</v>
       </c>
       <c r="D3" s="28">
-        <f t="shared" ref="D3:Q3" si="1">D2/C2-1</f>
+        <f t="shared" ref="D3:Q3" si="0">D2/C2-1</f>
         <v>0.15328467153284686</v>
       </c>
       <c r="E3" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.2278481012658222E-2</v>
       </c>
       <c r="F3" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.6023391812865215E-2</v>
       </c>
       <c r="G3" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.8043478260869623E-2</v>
       </c>
       <c r="H3" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.23560209424083767</v>
       </c>
       <c r="I3" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.41525423728813537</v>
       </c>
       <c r="J3" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.3832335329341534E-2</v>
       </c>
       <c r="K3" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.4861878453038555E-2</v>
       </c>
       <c r="L3" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.13477088948787053</v>
       </c>
       <c r="M3" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.6128266033254244E-2</v>
       </c>
       <c r="N3" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.4907407407407218E-2</v>
       </c>
       <c r="O3" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.6511627906976827E-2</v>
       </c>
-      <c r="P3" s="52">
-        <f t="shared" si="1"/>
+      <c r="P3" s="50">
+        <f t="shared" si="0"/>
         <v>9.2929292929292862E-2</v>
       </c>
-      <c r="Q3" s="52">
-        <f t="shared" si="1"/>
+      <c r="Q3" s="50">
+        <f t="shared" si="0"/>
         <v>-3.512014787430684E-2</v>
       </c>
-      <c r="R3" s="52">
-        <f t="shared" ref="R3" si="2">R2/Q2-1</f>
+      <c r="R3" s="50">
+        <f t="shared" ref="R3" si="1">R2/Q2-1</f>
         <v>0.12643678160919536</v>
       </c>
-      <c r="S3" s="213">
-        <f>AVERAGE(M3:P3)</f>
-        <v>6.5119148569232788E-2</v>
-      </c>
-      <c r="T3" s="213">
-        <f>AVERAGE(N3:S3)</f>
-        <v>6.5130685091299698E-2</v>
-      </c>
-      <c r="U3" s="139">
-        <f>AVERAGE(O3:T3)</f>
-        <v>6.0167898038615115E-2</v>
-      </c>
-      <c r="Y3" s="124" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z3" s="124" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA3" s="124" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB3" s="146" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="S3" s="50">
+        <f t="shared" ref="S3" si="2">S2/R2-1</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="119" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="119" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y3" s="119" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z3" s="278" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="s">
         <v>74</v>
       </c>
@@ -13545,47 +13586,39 @@
         <f t="shared" si="3"/>
         <v>0.33423180592991919</v>
       </c>
-      <c r="P4" s="52">
+      <c r="P4" s="50">
         <f t="shared" si="3"/>
         <v>0.28503562945368177</v>
       </c>
-      <c r="Q4" s="52">
+      <c r="Q4" s="50">
         <f t="shared" si="3"/>
         <v>0.20833333333333326</v>
       </c>
-      <c r="R4" s="52">
+      <c r="R4" s="50">
         <f t="shared" ref="R4" si="4">R2/N2-1</f>
         <v>0.24312896405919671</v>
       </c>
-      <c r="S4" s="214">
-        <f>S2/M2-1</f>
-        <v>0.33386448929619195</v>
-      </c>
-      <c r="T4" s="214">
-        <f>T2/N2-1</f>
-        <v>0.29758917301247401</v>
-      </c>
-      <c r="U4" s="140">
-        <f>U2/O2-1</f>
-        <v>0.31452183557828595</v>
-      </c>
-      <c r="Y4" s="143" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z4" s="28">
+      <c r="S4" s="50">
+        <f t="shared" ref="S4" si="5">S2/O2-1</f>
+        <v>0.18787878787878776</v>
+      </c>
+      <c r="W4" s="135" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" s="28">
+        <f>X2/W2-1</f>
+        <v>0.85085227272727271</v>
+      </c>
+      <c r="Y4" s="28">
+        <f>Y2/X2-1</f>
+        <v>0.3975441289332311</v>
+      </c>
+      <c r="Z4" s="308">
         <f>Z2/Y2-1</f>
-        <v>0.85085227272727271</v>
-      </c>
-      <c r="AA4" s="28">
-        <f>AA2/Z2-1</f>
-        <v>0.3975441289332311</v>
-      </c>
-      <c r="AB4" s="140">
-        <f>AB2/AA2-1</f>
-        <v>0.27830036493578869</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0.22954420647995599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B5" s="27"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -13600,15 +13633,16 @@
       <c r="M5" s="28"/>
       <c r="N5" s="28"/>
       <c r="O5" s="28"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
       <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="142"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Z5" s="309"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
         <v>75</v>
       </c>
@@ -13651,45 +13685,34 @@
       <c r="O6" s="22">
         <v>23.6</v>
       </c>
-      <c r="P6" s="51">
+      <c r="P6" s="49">
         <v>25.5</v>
       </c>
-      <c r="Q6" s="51">
+      <c r="Q6" s="49">
         <v>24.2</v>
       </c>
-      <c r="R6" s="51">
+      <c r="R6" s="49">
         <v>26.4</v>
       </c>
-      <c r="S6" s="216">
-        <f>P6*(S7+1)</f>
-        <v>26.685506297991481</v>
-      </c>
-      <c r="T6" s="216">
-        <f>S6*(T7+1)</f>
-        <v>27.855182041814547</v>
-      </c>
-      <c r="U6" s="142">
-        <f>T6*(U7+1)</f>
-        <v>28.934127039127436</v>
-      </c>
-      <c r="Y6" s="36">
+      <c r="S6" s="49"/>
+      <c r="W6" s="36">
         <f>AVERAGE(D6:G6)</f>
         <v>10.175000000000001</v>
       </c>
-      <c r="Z6" s="36">
+      <c r="X6" s="36">
         <f>AVERAGE(H6:K6)</f>
         <v>17.5</v>
       </c>
-      <c r="AA6" s="36">
+      <c r="Y6" s="36">
         <f>AVERAGE(L6:O6)</f>
         <v>22.375</v>
       </c>
-      <c r="AB6" s="138">
-        <f>AVERAGE(P6:U6)</f>
-        <v>26.595802563155576</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Z6" s="263">
+        <f>AVERAGE(P6:S6)</f>
+        <v>25.366666666666664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B7" s="27" t="s">
         <v>77</v>
       </c>
@@ -13700,87 +13723,76 @@
         <v>33</v>
       </c>
       <c r="E7" s="28">
-        <f t="shared" ref="E7:P7" si="5">E6/D6-1</f>
+        <f t="shared" ref="E7:P7" si="6">E6/D6-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="F7" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.090909090909105E-2</v>
       </c>
       <c r="G7" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8518518518518379E-2</v>
       </c>
       <c r="H7" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.20909090909090922</v>
       </c>
       <c r="I7" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.34586466165413521</v>
       </c>
       <c r="J7" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.8212290502793325E-2</v>
       </c>
       <c r="K7" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0362694300518172E-2</v>
       </c>
       <c r="L7" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.2307692307692424E-2</v>
       </c>
       <c r="M7" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.3896713615022609E-3</v>
       </c>
       <c r="N7" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.441860465116279E-2</v>
       </c>
       <c r="O7" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1645021645021689E-2</v>
       </c>
       <c r="P7" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.0508474576271194E-2</v>
       </c>
       <c r="Q7" s="28">
-        <f t="shared" ref="Q7:R7" si="6">Q6/P6-1</f>
+        <f t="shared" ref="Q7:R7" si="7">Q6/P6-1</f>
         <v>-5.0980392156862786E-2</v>
       </c>
       <c r="R7" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.0909090909090828E-2</v>
       </c>
-      <c r="S7" s="213">
-        <f>AVERAGE(M7:P7)</f>
-        <v>4.6490443058489483E-2</v>
-      </c>
-      <c r="T7" s="213">
-        <f>AVERAGE(N7:S7)</f>
-        <v>4.3831873780528864E-2</v>
-      </c>
-      <c r="U7" s="139">
-        <f>AVERAGE(O7:T7)</f>
-        <v>3.8734085302089875E-2</v>
-      </c>
-      <c r="Y7" s="124" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z7" s="124" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA7" s="124" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB7" s="146" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="S7" s="28"/>
+      <c r="W7" s="119" t="s">
+        <v>33</v>
+      </c>
+      <c r="X7" s="119" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y7" s="119" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z7" s="278" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B8" s="27" t="s">
         <v>78</v>
       </c>
@@ -13800,89 +13812,79 @@
         <v>33</v>
       </c>
       <c r="H8" s="28">
-        <f t="shared" ref="H8:P8" si="7">H6/D6-1</f>
+        <f t="shared" ref="H8:P8" si="8">H6/D6-1</f>
         <v>0.47777777777777786</v>
       </c>
       <c r="I8" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.80808080808080796</v>
       </c>
       <c r="J8" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.78703703703703698</v>
       </c>
       <c r="K8" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.77272727272727271</v>
       </c>
       <c r="L8" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.60150375939849621</v>
       </c>
       <c r="M8" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.2011173184357542</v>
       </c>
       <c r="N8" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.19689119170984459</v>
       </c>
       <c r="O8" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.2102564102564104</v>
       </c>
       <c r="P8" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.19718309859154926</v>
       </c>
       <c r="Q8" s="32">
-        <f t="shared" ref="Q8:R8" si="8">Q6/M6-1</f>
+        <f t="shared" ref="Q8:R8" si="9">Q6/M6-1</f>
         <v>0.12558139534883717</v>
       </c>
       <c r="R8" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.14285714285714279</v>
       </c>
-      <c r="S8" s="214">
-        <f>S6/M6-1</f>
-        <v>0.24118633944146417</v>
-      </c>
-      <c r="T8" s="214">
-        <f>T6/N6-1</f>
-        <v>0.20585203644218808</v>
-      </c>
-      <c r="U8" s="140">
-        <f>U6/O6-1</f>
-        <v>0.22602233216641676</v>
-      </c>
-      <c r="Y8" s="143" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z8" s="28">
+      <c r="S8" s="32"/>
+      <c r="W8" s="135" t="s">
+        <v>33</v>
+      </c>
+      <c r="X8" s="28">
+        <f>X6/W6-1</f>
+        <v>0.71990171990171969</v>
+      </c>
+      <c r="Y8" s="28">
+        <f>Y6/X6-1</f>
+        <v>0.27857142857142847</v>
+      </c>
+      <c r="Z8" s="308">
         <f>Z6/Y6-1</f>
-        <v>0.71990171990171969</v>
-      </c>
-      <c r="AA8" s="28">
-        <f>AA6/Z6-1</f>
-        <v>0.27857142857142847</v>
-      </c>
-      <c r="AB8" s="140">
-        <f>AB6/AA6-1</f>
-        <v>0.18863922069969052</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0.13370577281191798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B9" s="27"/>
       <c r="C9" s="24"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
       <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="142"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Z9" s="309"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B10" s="27" t="s">
         <v>76</v>
       </c>
@@ -13925,45 +13927,34 @@
       <c r="O10" s="22">
         <v>25.6</v>
       </c>
-      <c r="P10" s="51">
+      <c r="P10" s="49">
         <v>28.3</v>
       </c>
-      <c r="Q10" s="51">
+      <c r="Q10" s="49">
         <v>27.7</v>
       </c>
-      <c r="R10" s="51">
+      <c r="R10" s="49">
         <v>31.9</v>
       </c>
-      <c r="S10" s="216">
-        <f>P10*(S11+1)</f>
-        <v>32.102349662858444</v>
-      </c>
-      <c r="T10" s="216">
-        <f>S10*(T11+1)</f>
-        <v>35.088030381037413</v>
-      </c>
-      <c r="U10" s="142">
-        <f>T10*(U11+1)</f>
-        <v>38.239437474614512</v>
-      </c>
-      <c r="Y10" s="36">
+      <c r="S10" s="49"/>
+      <c r="W10" s="36">
         <f>AVERAGE(D10:G10)</f>
         <v>6.9750000000000005</v>
       </c>
-      <c r="Z10" s="36">
+      <c r="X10" s="36">
         <f>AVERAGE(H10:K10)</f>
         <v>10.8</v>
       </c>
-      <c r="AA10" s="36">
+      <c r="Y10" s="36">
         <f>AVERAGE(L10:O10)</f>
         <v>22</v>
       </c>
-      <c r="AB10" s="138">
-        <f>AVERAGE(P10:U10)</f>
-        <v>32.221636253085059</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Z10" s="263">
+        <f>AVERAGE(P10:S10)</f>
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B11" s="27" t="s">
         <v>79</v>
       </c>
@@ -13974,87 +13965,76 @@
         <v>33</v>
       </c>
       <c r="E11" s="28">
-        <f t="shared" ref="E11:P11" si="9">E10/D10-1</f>
+        <f t="shared" ref="E11:P11" si="10">E10/D10-1</f>
         <v>4.6875E-2</v>
       </c>
       <c r="F11" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.9701492537313383E-2</v>
       </c>
       <c r="G11" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.4507042253521236E-2</v>
       </c>
       <c r="H11" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.2597402597402596</v>
       </c>
       <c r="I11" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.20618556701030921</v>
       </c>
       <c r="J11" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.2597402597402596</v>
       </c>
       <c r="K11" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.65979381443299001</v>
       </c>
       <c r="L11" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.8322981366459423E-2</v>
       </c>
       <c r="M11" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.2441860465116279</v>
       </c>
       <c r="N11" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.11214953271028039</v>
       </c>
       <c r="O11" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.5630252100840289E-2</v>
       </c>
       <c r="P11" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.10546875</v>
       </c>
       <c r="Q11" s="28">
-        <f t="shared" ref="Q11:R11" si="10">Q10/P10-1</f>
+        <f t="shared" ref="Q11:R11" si="11">Q10/P10-1</f>
         <v>-2.1201413427561877E-2</v>
       </c>
       <c r="R11" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.15162454873646203</v>
       </c>
-      <c r="S11" s="213">
-        <f>AVERAGE(M11:P11)</f>
-        <v>0.13435864533068714</v>
-      </c>
-      <c r="T11" s="213">
-        <f>AVERAGE(N11:S11)</f>
-        <v>9.3005052575118E-2</v>
-      </c>
-      <c r="U11" s="139">
-        <f>AVERAGE(O11:T11)</f>
-        <v>8.9814305885924262E-2</v>
-      </c>
-      <c r="Y11" s="124" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z11" s="124" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA11" s="124" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB11" s="146" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="S11" s="28"/>
+      <c r="W11" s="119" t="s">
+        <v>33</v>
+      </c>
+      <c r="X11" s="119" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y11" s="119" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z11" s="278" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B12" s="27" t="s">
         <v>80</v>
       </c>
@@ -14074,87 +14054,77 @@
         <v>33</v>
       </c>
       <c r="H12" s="28">
-        <f t="shared" ref="H12:P12" si="11">H10/D10-1</f>
+        <f t="shared" ref="H12:P12" si="12">H10/D10-1</f>
         <v>0.51562499999999978</v>
       </c>
       <c r="I12" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.14925373134328357</v>
       </c>
       <c r="J12" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.36619718309859151</v>
       </c>
       <c r="K12" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0909090909090908</v>
       </c>
       <c r="L12" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.77319587628865993</v>
       </c>
       <c r="M12" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.779220779220779</v>
       </c>
       <c r="N12" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.4536082474226806</v>
       </c>
       <c r="O12" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.59006211180124213</v>
       </c>
       <c r="P12" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.64534883720930236</v>
       </c>
       <c r="Q12" s="32">
-        <f t="shared" ref="Q12:R12" si="12">Q10/M10-1</f>
+        <f t="shared" ref="Q12:R12" si="13">Q10/M10-1</f>
         <v>0.29439252336448596</v>
       </c>
       <c r="R12" s="32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.34033613445378141</v>
       </c>
-      <c r="S12" s="214">
-        <f>S10/M10-1</f>
-        <v>0.50010979732983385</v>
-      </c>
-      <c r="T12" s="214">
-        <f>T10/N10-1</f>
-        <v>0.47428699079989123</v>
-      </c>
-      <c r="U12" s="140">
-        <f>U10/O10-1</f>
-        <v>0.49372802635212931</v>
-      </c>
-      <c r="Y12" s="143" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z12" s="28">
+      <c r="S12" s="32"/>
+      <c r="W12" s="135" t="s">
+        <v>33</v>
+      </c>
+      <c r="X12" s="28">
+        <f>X10/W10-1</f>
+        <v>0.54838709677419351</v>
+      </c>
+      <c r="Y12" s="28">
+        <f>Y10/X10-1</f>
+        <v>1.0370370370370368</v>
+      </c>
+      <c r="Z12" s="308">
         <f>Z10/Y10-1</f>
-        <v>0.54838709677419351</v>
-      </c>
-      <c r="AA12" s="28">
-        <f>AA10/Z10-1</f>
-        <v>1.0370370370370368</v>
-      </c>
-      <c r="AB12" s="140">
-        <f>AB10/AA10-1</f>
-        <v>0.46461982968568449</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0.33181818181818179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B13" s="27"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
       <c r="Y13" s="36"/>
-      <c r="Z13" s="36"/>
-      <c r="AA13" s="36"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>86</v>
       </c>
@@ -14210,36 +14180,27 @@
       <c r="R14" s="31">
         <v>13400</v>
       </c>
-      <c r="S14" s="217">
-        <f>P14*(S15+1)</f>
-        <v>12850.341134695112</v>
-      </c>
-      <c r="T14" s="217">
-        <f>S14*(T15+1)</f>
-        <v>13716.206720264463</v>
-      </c>
-      <c r="U14" s="144">
-        <f>T14*(U15+1)</f>
-        <v>14454.995400896689</v>
-      </c>
-      <c r="Y14" s="125">
+      <c r="S14" s="31">
+        <v>12800</v>
+      </c>
+      <c r="W14" s="120">
         <f>AVERAGE(D14:G14)</f>
         <v>3413.25</v>
       </c>
-      <c r="Z14" s="125">
+      <c r="X14" s="120">
         <f>AVERAGE(K14:N14)</f>
         <v>9756.5</v>
       </c>
-      <c r="AA14" s="125">
+      <c r="Y14" s="120">
         <f>AVERAGE(L14:O14)</f>
         <v>10353.5</v>
       </c>
-      <c r="AB14" s="147">
-        <f>AVERAGE(P14:U14)</f>
-        <v>13076.950542642711</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Z14" s="311">
+        <f>AVERAGE(P14:S14)</f>
+        <v>12560.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B15" s="27" t="s">
         <v>84</v>
       </c>
@@ -14247,91 +14208,80 @@
         <v>33</v>
       </c>
       <c r="D15" s="28">
-        <f t="shared" ref="D15:P15" si="13">D14/C14-1</f>
+        <f t="shared" ref="D15:P15" si="14">D14/C14-1</f>
         <v>0.17549407114624516</v>
       </c>
       <c r="E15" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.2131809011432475E-2</v>
       </c>
       <c r="F15" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.14839901477832518</v>
       </c>
       <c r="G15" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-7.7747989276139018E-3</v>
       </c>
       <c r="H15" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.31721156444204279</v>
       </c>
       <c r="I15" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.76123076923076916</v>
       </c>
       <c r="J15" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.455858374097363E-2</v>
       </c>
       <c r="K15" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-3.2258064516129004E-2</v>
       </c>
       <c r="L15" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.14756820877817312</v>
       </c>
       <c r="M15" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.6156708703741796E-3</v>
       </c>
       <c r="N15" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.14849044978435</v>
       </c>
       <c r="O15" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-3.272532188841204E-2</v>
       </c>
       <c r="P15" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="Q15" s="28">
-        <f t="shared" ref="Q15" si="14">Q14/P14-1</f>
+        <f t="shared" ref="Q15" si="15">Q14/P14-1</f>
         <v>-1.5859810368961891E-2</v>
       </c>
       <c r="R15" s="28">
-        <f t="shared" ref="R15" si="15">R14/Q14-1</f>
+        <f t="shared" ref="R15" si="16">R14/Q14-1</f>
         <v>0.12378396511237844</v>
       </c>
-      <c r="S15" s="213">
-        <f>AVERAGE(M15:P15)</f>
-        <v>6.0595199691578061E-2</v>
-      </c>
-      <c r="T15" s="213">
-        <f>AVERAGE(N15:S15)</f>
-        <v>6.738074705515544E-2</v>
-      </c>
-      <c r="U15" s="139">
-        <f>AVERAGE(O15:T15)</f>
-        <v>5.3862463266956352E-2</v>
-      </c>
-      <c r="Y15" s="124" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z15" s="124" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA15" s="124" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB15" s="146" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="S15" s="28"/>
+      <c r="W15" s="119" t="s">
+        <v>33</v>
+      </c>
+      <c r="X15" s="119" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y15" s="119" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z15" s="278" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B16" s="27" t="s">
         <v>85</v>
       </c>
@@ -14348,87 +14298,77 @@
         <v>33</v>
       </c>
       <c r="G16" s="32">
-        <f t="shared" ref="G16:P16" si="16">G14/C14-1</f>
+        <f t="shared" ref="G16:P16" si="17">G14/C14-1</f>
         <v>0.46284584980237153</v>
       </c>
       <c r="H16" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.63920645595158043</v>
       </c>
       <c r="I16" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.6434729064039408</v>
       </c>
       <c r="J16" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.3353887399463806</v>
       </c>
       <c r="K16" s="32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.2777627668197784</v>
       </c>
       <c r="L16" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.98441025641025637</v>
       </c>
       <c r="M16" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.13417190775681331</v>
       </c>
       <c r="N16" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.28389392721845952</v>
       </c>
       <c r="O16" s="32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.28327402135231328</v>
       </c>
-      <c r="P16" s="126">
-        <f t="shared" si="16"/>
+      <c r="P16" s="121">
+        <f t="shared" si="17"/>
         <v>0.25244573082489175</v>
       </c>
-      <c r="Q16" s="126">
-        <f t="shared" ref="Q16" si="17">Q14/M14-1</f>
+      <c r="Q16" s="121">
+        <f t="shared" ref="Q16" si="18">Q14/M14-1</f>
         <v>0.22448141302115432</v>
       </c>
-      <c r="R16" s="126">
-        <f t="shared" ref="R16" si="18">R14/N14-1</f>
+      <c r="R16" s="121">
+        <f t="shared" ref="R16" si="19">R14/N14-1</f>
         <v>0.198140200286123</v>
       </c>
-      <c r="S16" s="218">
-        <f>S14/M14-1</f>
-        <v>0.3196078388473107</v>
-      </c>
-      <c r="T16" s="218">
-        <f>T14/N14-1</f>
-        <v>0.22641333335697977</v>
-      </c>
-      <c r="U16" s="145">
-        <f>U14/O14-1</f>
-        <v>0.33619850257872885</v>
-      </c>
-      <c r="Y16" s="143" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z16" s="28">
+      <c r="S16" s="121"/>
+      <c r="W16" s="135" t="s">
+        <v>33</v>
+      </c>
+      <c r="X16" s="28">
+        <f>X14/W14-1</f>
+        <v>1.8584193950047609</v>
+      </c>
+      <c r="Y16" s="28">
+        <f>Y14/X14-1</f>
+        <v>6.1189975913493511E-2</v>
+      </c>
+      <c r="Z16" s="308">
         <f>Z14/Y14-1</f>
-        <v>1.8584193950047609</v>
-      </c>
-      <c r="AA16" s="28">
-        <f>AA14/Z14-1</f>
-        <v>6.1189975913493511E-2</v>
-      </c>
-      <c r="AB16" s="140">
-        <f>AB14/AA14-1</f>
-        <v>0.26304636525259206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+        <v>0.21312020089824713</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>173</v>
       </c>
@@ -14474,190 +14414,174 @@
       <c r="O18" s="22">
         <v>15.56</v>
       </c>
-      <c r="P18" s="51">
+      <c r="P18" s="49">
         <v>11.67</v>
       </c>
-      <c r="Q18" s="51">
+      <c r="Q18" s="49">
         <v>12.25</v>
       </c>
-      <c r="R18" s="51">
+      <c r="R18" s="49">
         <v>11.94</v>
       </c>
-      <c r="S18" s="219">
-        <f>AVERAGE(M18:P18)</f>
-        <v>14.032500000000001</v>
-      </c>
-      <c r="T18" s="219">
-        <f>AVERAGE(N18:S18)</f>
-        <v>13.157083333333333</v>
-      </c>
-      <c r="U18" s="152">
-        <f>AVERAGE(O18:T18)</f>
-        <v>13.101597222222223</v>
-      </c>
-      <c r="AA18" s="125"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="S18" s="49">
+        <v>15.29</v>
+      </c>
+      <c r="Y18" s="120"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="B19" s="150" t="s">
+      <c r="B19" s="139" t="s">
         <v>174</v>
       </c>
-      <c r="C19" s="151">
-        <f t="shared" ref="C19:O19" si="19">C2*C18</f>
+      <c r="C19" s="140">
+        <f t="shared" ref="C19:O19" si="20">C2*C18</f>
         <v>143.02799999999999</v>
       </c>
-      <c r="D19" s="151">
-        <f t="shared" si="19"/>
+      <c r="D19" s="140">
+        <f t="shared" si="20"/>
         <v>141.88400000000001</v>
       </c>
-      <c r="E19" s="151">
-        <f t="shared" si="19"/>
+      <c r="E19" s="140">
+        <f t="shared" si="20"/>
         <v>150.13800000000001</v>
       </c>
-      <c r="F19" s="151">
-        <f t="shared" si="19"/>
+      <c r="F19" s="140">
+        <f t="shared" si="20"/>
         <v>165.6</v>
       </c>
-      <c r="G19" s="151">
-        <f t="shared" si="19"/>
+      <c r="G19" s="140">
+        <f t="shared" si="20"/>
         <v>236.267</v>
       </c>
-      <c r="H19" s="151">
-        <f t="shared" si="19"/>
+      <c r="H19" s="140">
+        <f t="shared" si="20"/>
         <v>249.68800000000002</v>
       </c>
-      <c r="I19" s="151">
-        <f t="shared" si="19"/>
+      <c r="I19" s="140">
+        <f t="shared" si="20"/>
         <v>494.654</v>
       </c>
-      <c r="J19" s="151">
-        <f t="shared" si="19"/>
+      <c r="J19" s="140">
+        <f t="shared" si="20"/>
         <v>497.02600000000007</v>
       </c>
-      <c r="K19" s="151">
-        <f t="shared" si="19"/>
+      <c r="K19" s="140">
+        <f t="shared" si="20"/>
         <v>641.83000000000004</v>
       </c>
-      <c r="L19" s="151">
-        <f t="shared" si="19"/>
+      <c r="L19" s="140">
+        <f t="shared" si="20"/>
         <v>651.70800000000008</v>
       </c>
-      <c r="M19" s="151">
-        <f t="shared" si="19"/>
+      <c r="M19" s="140">
+        <f t="shared" si="20"/>
         <v>665.7120000000001</v>
       </c>
-      <c r="N19" s="151">
-        <f t="shared" si="19"/>
+      <c r="N19" s="140">
+        <f t="shared" si="20"/>
         <v>638.077</v>
       </c>
-      <c r="O19" s="151">
-        <f t="shared" si="19"/>
+      <c r="O19" s="140">
+        <f t="shared" si="20"/>
         <v>770.22</v>
       </c>
-      <c r="P19" s="151">
+      <c r="P19" s="140">
         <f>P2*P18</f>
         <v>631.34699999999998</v>
       </c>
-      <c r="Q19" s="151">
+      <c r="Q19" s="140">
         <f>Q2*Q18</f>
         <v>639.45000000000005</v>
       </c>
-      <c r="R19" s="151">
-        <f t="shared" ref="R19" si="20">R2*R18</f>
+      <c r="R19" s="140">
+        <f t="shared" ref="R19:S19" si="21">R2*R18</f>
         <v>702.07199999999989</v>
       </c>
-      <c r="S19" s="219">
-        <f>S2*S18</f>
-        <v>808.59398886930887</v>
-      </c>
-      <c r="T19" s="219">
-        <f>T2*T18</f>
-        <v>807.52872410706834</v>
-      </c>
-      <c r="U19" s="152">
-        <f>U2*U18</f>
-        <v>852.5056136633649</v>
-      </c>
-      <c r="AA19" s="125"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="S19" s="140">
+        <f t="shared" si="21"/>
+        <v>899.05199999999991</v>
+      </c>
+      <c r="Y19" s="120"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="30"/>
-      <c r="B20" s="186" t="s">
+      <c r="B20" s="172" t="s">
         <v>202</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="187">
-        <f t="shared" ref="D20:P20" si="21">D18/C18-1</f>
+      <c r="D20" s="173">
+        <f t="shared" ref="D20:P20" si="22">D18/C18-1</f>
         <v>-0.13984674329501912</v>
       </c>
-      <c r="E20" s="187">
-        <f t="shared" si="21"/>
+      <c r="E20" s="173">
+        <f t="shared" si="22"/>
         <v>-2.2271714922049157E-2</v>
       </c>
-      <c r="F20" s="187">
-        <f t="shared" si="21"/>
+      <c r="F20" s="173">
+        <f t="shared" si="22"/>
         <v>2.5056947608200542E-2</v>
       </c>
-      <c r="G20" s="187">
-        <f t="shared" si="21"/>
+      <c r="G20" s="173">
+        <f t="shared" si="22"/>
         <v>0.37444444444444436</v>
       </c>
-      <c r="H20" s="187">
-        <f t="shared" si="21"/>
+      <c r="H20" s="173">
+        <f t="shared" si="22"/>
         <v>-0.14470493128536777</v>
       </c>
-      <c r="I20" s="187">
-        <f t="shared" si="21"/>
+      <c r="I20" s="173">
+        <f t="shared" si="22"/>
         <v>0.39981096408317573</v>
       </c>
-      <c r="J20" s="187">
-        <f t="shared" si="21"/>
+      <c r="J20" s="173">
+        <f t="shared" si="22"/>
         <v>-7.2923700202565889E-2</v>
       </c>
-      <c r="K20" s="187">
-        <f t="shared" si="21"/>
+      <c r="K20" s="173">
+        <f t="shared" si="22"/>
         <v>0.26001456664238898</v>
       </c>
-      <c r="L20" s="187">
-        <f t="shared" si="21"/>
+      <c r="L20" s="173">
+        <f t="shared" si="22"/>
         <v>-0.10520231213872833</v>
       </c>
-      <c r="M20" s="187">
-        <f t="shared" si="21"/>
+      <c r="M20" s="173">
+        <f t="shared" si="22"/>
         <v>-4.5219638242893767E-3</v>
       </c>
-      <c r="N20" s="187">
-        <f t="shared" si="21"/>
+      <c r="N20" s="173">
+        <f t="shared" si="22"/>
         <v>-0.12459441920830627</v>
       </c>
-      <c r="O20" s="187">
-        <f t="shared" si="21"/>
+      <c r="O20" s="173">
+        <f t="shared" si="22"/>
         <v>0.15344699777613058</v>
       </c>
-      <c r="P20" s="187">
-        <f t="shared" si="21"/>
+      <c r="P20" s="173">
+        <f t="shared" si="22"/>
         <v>-0.25</v>
       </c>
-      <c r="Q20" s="187">
+      <c r="Q20" s="173">
         <f>Q18/P18-1</f>
         <v>4.9700085689802886E-2</v>
       </c>
-      <c r="R20" s="187">
-        <f t="shared" ref="R20" si="22">R18/Q18-1</f>
+      <c r="R20" s="173">
+        <f t="shared" ref="R20" si="23">R18/Q18-1</f>
         <v>-2.5306122448979673E-2</v>
       </c>
-      <c r="S20" s="219"/>
-      <c r="T20" s="219"/>
-      <c r="U20" s="152"/>
-      <c r="AA20" s="125"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="S20" s="173">
+        <f t="shared" ref="S20" si="24">S18/R18-1</f>
+        <v>0.28056951423785592</v>
+      </c>
+      <c r="Y20" s="120"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="30"/>
-      <c r="B21" s="186" t="s">
+      <c r="B21" s="172" t="s">
         <v>201</v>
       </c>
       <c r="C21" s="24" t="s">
@@ -14672,76 +14596,79 @@
       <c r="F21" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="187">
-        <f t="shared" ref="G21:P21" si="23">G18/C18-1</f>
+      <c r="G21" s="173">
+        <f t="shared" ref="G21:P21" si="25">G18/C18-1</f>
         <v>0.18486590038314166</v>
       </c>
-      <c r="H21" s="187">
-        <f t="shared" si="23"/>
+      <c r="H21" s="173">
+        <f t="shared" si="25"/>
         <v>0.17817371937639193</v>
       </c>
-      <c r="I21" s="187">
-        <f t="shared" si="23"/>
+      <c r="I21" s="173">
+        <f t="shared" si="25"/>
         <v>0.68678815489749456</v>
       </c>
-      <c r="J21" s="187">
-        <f t="shared" si="23"/>
+      <c r="J21" s="173">
+        <f t="shared" si="25"/>
         <v>0.52555555555555555</v>
       </c>
-      <c r="K21" s="187">
-        <f t="shared" si="23"/>
+      <c r="K21" s="173">
+        <f t="shared" si="25"/>
         <v>0.39854486661277289</v>
       </c>
-      <c r="L21" s="187">
-        <f t="shared" si="23"/>
+      <c r="L21" s="173">
+        <f t="shared" si="25"/>
         <v>0.46313799621928164</v>
       </c>
-      <c r="M21" s="187">
-        <f t="shared" si="23"/>
+      <c r="M21" s="173">
+        <f t="shared" si="25"/>
         <v>4.0513166779203136E-2</v>
       </c>
-      <c r="N21" s="187">
-        <f t="shared" si="23"/>
+      <c r="N21" s="173">
+        <f t="shared" si="25"/>
         <v>-1.7479970866715266E-2</v>
       </c>
-      <c r="O21" s="187">
-        <f t="shared" si="23"/>
+      <c r="O21" s="173">
+        <f t="shared" si="25"/>
         <v>-0.10057803468208093</v>
       </c>
-      <c r="P21" s="187">
-        <f t="shared" si="23"/>
+      <c r="P21" s="173">
+        <f t="shared" si="25"/>
         <v>-0.24612403100775193</v>
       </c>
-      <c r="Q21" s="187">
+      <c r="Q21" s="173">
         <f>Q18/M18-1</f>
         <v>-0.20506164828033746</v>
       </c>
-      <c r="R21" s="187">
-        <f t="shared" ref="R21" si="24">R18/N18-1</f>
+      <c r="R21" s="173">
+        <f t="shared" ref="R21" si="26">R18/N18-1</f>
         <v>-0.11489992587101561</v>
       </c>
-      <c r="S21" s="219"/>
-      <c r="T21" s="219"/>
-      <c r="U21" s="152"/>
-      <c r="AA21" s="125"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B24" s="104"/>
-      <c r="P24" s="105"/>
-      <c r="Q24" s="105"/>
-      <c r="R24" s="105"/>
+      <c r="S21" s="173">
+        <f t="shared" ref="S21" si="27">S18/O18-1</f>
+        <v>-1.7352185089974381E-2</v>
+      </c>
+      <c r="Y21" s="120"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B24" s="101"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="102"/>
+      <c r="R24" s="102"/>
+      <c r="S24" s="102"/>
     </row>
   </sheetData>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="Y2:AA16 S18" formulaRange="1"/>
+    <ignoredError sqref="W2:Y16 Z2:Z19" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/$RBLX.xlsx
+++ b/$RBLX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BE0CF7-B892-4ECA-9019-08C5064A265C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C39A49F-33F9-452E-BEE3-F4DD3AF314B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="2" xr2:uid="{DB6ABC51-E0DE-6747-8CA5-53C172A4844D}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{DB6ABC51-E0DE-6747-8CA5-53C172A4844D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="318">
   <si>
     <t>Price</t>
   </si>
@@ -894,6 +894,93 @@
   </si>
   <si>
     <t>MIXED</t>
+  </si>
+  <si>
+    <t>17-24 grew at 34% in January for bookings</t>
+  </si>
+  <si>
+    <t>January had highest ever DAU</t>
+  </si>
+  <si>
+    <t>1million experiences using new voice chat feature</t>
+  </si>
+  <si>
+    <t>Dynamic head &amp; facial animations still in middle of rollout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layered clothing adopted by 115m users </t>
+  </si>
+  <si>
+    <t>Experience guidelines rolled out in Q4 for trust &amp; safety purposes</t>
+  </si>
+  <si>
+    <t>^33% y/y active developers</t>
+  </si>
+  <si>
+    <t>NFL, Fifa, Netflix</t>
+  </si>
+  <si>
+    <t>Company was ran almost cashflow-neutral for 2022</t>
+  </si>
+  <si>
+    <t>"More users are becoming payers than ever before"</t>
+  </si>
+  <si>
+    <t>ChatGPT/AI Questions asked</t>
+  </si>
+  <si>
+    <t>Blog post coming soon discussing ML use in Rolbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code acceleration, specifically for Lua scripting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roblox working toward a UGC economy </t>
+  </si>
+  <si>
+    <t>Continuing to hire (but slower) despite 2022 economic &amp; industry turmoil</t>
+  </si>
+  <si>
+    <t>Starting to see user growth that is beyond the COVID driven peaks</t>
+  </si>
+  <si>
+    <t>APAC &amp; Western Europe growth highlighted as most prevelant</t>
+  </si>
+  <si>
+    <t>US also continues to show growth, particularly through 9-12 age group</t>
+  </si>
+  <si>
+    <t>Horror genre has perked up which attracts older users (Doors etc.)</t>
+  </si>
+  <si>
+    <t>Less mature growth curve compared to US, Germany &amp; France had high growth</t>
+  </si>
+  <si>
+    <t>Auto-translation helping to drive significant growth. Japan cited as an example</t>
+  </si>
+  <si>
+    <t>3d Model acceleration &amp; own personal avatars</t>
+  </si>
+  <si>
+    <t>ML use in trust &amp; safety should help drive down costs over time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DevEx was hit ATH in Dec 22, noted as seasonality </t>
+  </si>
+  <si>
+    <t>Advertising &amp; Brand Experiences</t>
+  </si>
+  <si>
+    <t>"Very early innings on advertising right now"</t>
+  </si>
+  <si>
+    <t>Aim for a self-service system for on-platform advertising</t>
+  </si>
+  <si>
+    <t>Conservative on forecast for FY23 contributions from advertising</t>
+  </si>
+  <si>
+    <t>Currently working with select number of brands for ads</t>
   </si>
 </sst>
 </file>
@@ -912,7 +999,7 @@
     <numFmt numFmtId="171" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="172" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1279,6 +1366,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1499,7 +1593,7 @@
     <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="312">
+  <cellXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1778,9 +1872,6 @@
     <xf numFmtId="0" fontId="27" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="44" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -2026,9 +2117,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2066,9 +2154,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2100,6 +2185,7 @@
     <xf numFmtId="17" fontId="27" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2180,6 +2266,15 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent3" xfId="5" builtinId="38"/>
@@ -3649,16 +3744,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>683190</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>540315</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>656520</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>523170</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>130175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3681,8 +3776,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14348390" y="4305300"/>
-          <a:ext cx="10285730" cy="4889500"/>
+          <a:off x="16961415" y="4279900"/>
+          <a:ext cx="10279380" cy="4889500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4189,14 +4284,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE4A73D-2F46-7341-9C57-6E5B7A39A15C}">
   <dimension ref="B1:AL86"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="12.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="6" customWidth="1"/>
     <col min="3" max="8" width="9" style="6"/>
     <col min="9" max="9" width="9" style="6" customWidth="1"/>
     <col min="10" max="10" width="12.625" style="6" bestFit="1" customWidth="1"/>
@@ -4208,36 +4303,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="L1" s="235" t="s">
+      <c r="L1" s="234" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="236"/>
-      <c r="N1" s="236"/>
-      <c r="O1" s="236"/>
-      <c r="P1" s="236"/>
-      <c r="Q1" s="236"/>
-      <c r="R1" s="236"/>
-      <c r="S1" s="236"/>
-      <c r="T1" s="236"/>
-      <c r="U1" s="237"/>
-      <c r="W1" s="238" t="s">
+      <c r="M1" s="235"/>
+      <c r="N1" s="235"/>
+      <c r="O1" s="235"/>
+      <c r="P1" s="235"/>
+      <c r="Q1" s="235"/>
+      <c r="R1" s="235"/>
+      <c r="S1" s="235"/>
+      <c r="T1" s="235"/>
+      <c r="U1" s="236"/>
+      <c r="W1" s="237" t="s">
         <v>127</v>
       </c>
-      <c r="X1" s="239"/>
-      <c r="Y1" s="239"/>
-      <c r="Z1" s="239"/>
-      <c r="AA1" s="239"/>
-      <c r="AB1" s="239"/>
-      <c r="AC1" s="239"/>
-      <c r="AD1" s="239"/>
-      <c r="AE1" s="239"/>
-      <c r="AF1" s="239"/>
-      <c r="AG1" s="239"/>
-      <c r="AH1" s="239"/>
-      <c r="AI1" s="239"/>
-      <c r="AJ1" s="239"/>
-      <c r="AK1" s="239"/>
-      <c r="AL1" s="240"/>
+      <c r="X1" s="238"/>
+      <c r="Y1" s="238"/>
+      <c r="Z1" s="238"/>
+      <c r="AA1" s="238"/>
+      <c r="AB1" s="238"/>
+      <c r="AC1" s="238"/>
+      <c r="AD1" s="238"/>
+      <c r="AE1" s="238"/>
+      <c r="AF1" s="238"/>
+      <c r="AG1" s="238"/>
+      <c r="AH1" s="238"/>
+      <c r="AI1" s="238"/>
+      <c r="AJ1" s="238"/>
+      <c r="AK1" s="238"/>
+      <c r="AL1" s="239"/>
     </row>
     <row r="2" spans="2:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
@@ -4257,15 +4352,15 @@
       <c r="P2" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="174">
+      <c r="Q2" s="174"/>
+      <c r="R2" s="173">
         <v>44757</v>
       </c>
-      <c r="S2" s="174">
+      <c r="S2" s="173">
         <v>44788</v>
       </c>
-      <c r="T2" s="174"/>
-      <c r="U2" s="203"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="202"/>
     </row>
     <row r="3" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="44" t="s">
@@ -4374,7 +4469,7 @@
       <c r="P4" s="54">
         <v>50.4</v>
       </c>
-      <c r="Q4" s="176"/>
+      <c r="Q4" s="175"/>
       <c r="R4" s="54">
         <v>58.5</v>
       </c>
@@ -4384,7 +4479,7 @@
       <c r="T4" s="54">
         <v>57.8</v>
       </c>
-      <c r="U4" s="176"/>
+      <c r="U4" s="175"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1">
         <v>13.7</v>
@@ -4436,16 +4531,16 @@
       </c>
     </row>
     <row r="5" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B5" s="228" t="s">
+      <c r="B5" s="227" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="229"/>
-      <c r="D5" s="230"/>
-      <c r="F5" s="228" t="s">
+      <c r="C5" s="228"/>
+      <c r="D5" s="229"/>
+      <c r="F5" s="227" t="s">
         <v>193</v>
       </c>
-      <c r="G5" s="229"/>
-      <c r="H5" s="230"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="229"/>
       <c r="K5" s="27" t="s">
         <v>73</v>
       </c>
@@ -4462,7 +4557,7 @@
       <c r="P5" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="Q5" s="177" t="s">
+      <c r="Q5" s="176" t="s">
         <v>33</v>
       </c>
       <c r="R5" s="55" t="s">
@@ -4474,7 +4569,7 @@
       <c r="T5" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="177" t="s">
+      <c r="U5" s="176" t="s">
         <v>33</v>
       </c>
       <c r="V5" s="24"/>
@@ -4550,13 +4645,13 @@
         <v>41.46</v>
       </c>
       <c r="D6" s="42"/>
-      <c r="F6" s="155" t="s">
+      <c r="F6" s="154" t="s">
         <v>194</v>
       </c>
-      <c r="G6" s="231" t="s">
+      <c r="G6" s="230" t="s">
         <v>284</v>
       </c>
-      <c r="H6" s="227"/>
+      <c r="H6" s="226"/>
       <c r="K6" s="27" t="s">
         <v>74</v>
       </c>
@@ -4573,7 +4668,7 @@
       <c r="P6" s="56">
         <v>0.17</v>
       </c>
-      <c r="Q6" s="178"/>
+      <c r="Q6" s="177"/>
       <c r="R6" s="56">
         <v>0.26</v>
       </c>
@@ -4583,7 +4678,7 @@
       <c r="T6" s="56">
         <v>0.27</v>
       </c>
-      <c r="U6" s="178"/>
+      <c r="U6" s="177"/>
       <c r="V6" s="24"/>
       <c r="W6" s="24" t="s">
         <v>33</v>
@@ -4654,27 +4749,27 @@
         <f>'Financial Model'!N20</f>
         <v>601.85900000000004</v>
       </c>
-      <c r="D7" s="279" t="s">
+      <c r="D7" s="276" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="155" t="s">
+      <c r="F7" s="154" t="s">
         <v>283</v>
       </c>
-      <c r="G7" s="232">
+      <c r="G7" s="231">
         <v>2021</v>
       </c>
-      <c r="H7" s="227"/>
+      <c r="H7" s="226"/>
       <c r="K7" s="27"/>
       <c r="L7" s="55"/>
       <c r="M7" s="55"/>
       <c r="N7" s="106"/>
       <c r="O7" s="55"/>
       <c r="P7" s="55"/>
-      <c r="Q7" s="177"/>
+      <c r="Q7" s="176"/>
       <c r="R7" s="55"/>
       <c r="S7" s="55"/>
       <c r="T7" s="55"/>
-      <c r="U7" s="177"/>
+      <c r="U7" s="176"/>
       <c r="V7" s="24"/>
       <c r="W7" s="24"/>
       <c r="X7" s="24"/>
@@ -4701,13 +4796,13 @@
         <v>24953.074140000001</v>
       </c>
       <c r="D8" s="39"/>
-      <c r="F8" s="155" t="s">
+      <c r="F8" s="154" t="s">
         <v>195</v>
       </c>
-      <c r="G8" s="232">
+      <c r="G8" s="231">
         <v>2004</v>
       </c>
-      <c r="H8" s="227"/>
+      <c r="H8" s="226"/>
       <c r="K8" s="27" t="s">
         <v>75</v>
       </c>
@@ -4724,7 +4819,7 @@
       <c r="P8" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="177" t="s">
+      <c r="Q8" s="176" t="s">
         <v>33</v>
       </c>
       <c r="R8" s="55" t="s">
@@ -4736,7 +4831,7 @@
       <c r="T8" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="U8" s="177" t="s">
+      <c r="U8" s="176" t="s">
         <v>33</v>
       </c>
       <c r="V8" s="24"/>
@@ -4797,17 +4892,17 @@
         <f>'Financial Model'!N66</f>
         <v>2977.4740000000002</v>
       </c>
-      <c r="D9" s="279" t="s">
+      <c r="D9" s="276" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="155" t="s">
+      <c r="F9" s="154" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="232">
+      <c r="G9" s="231">
         <f>AL4</f>
         <v>58.8</v>
       </c>
-      <c r="H9" s="227"/>
+      <c r="H9" s="226"/>
       <c r="K9" s="27" t="s">
         <v>77</v>
       </c>
@@ -4824,7 +4919,7 @@
       <c r="P9" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="177" t="s">
+      <c r="Q9" s="176" t="s">
         <v>33</v>
       </c>
       <c r="R9" s="55" t="s">
@@ -4836,7 +4931,7 @@
       <c r="T9" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="U9" s="177" t="s">
+      <c r="U9" s="176" t="s">
         <v>33</v>
       </c>
       <c r="V9" s="24"/>
@@ -4911,12 +5006,12 @@
         <f>'Financial Model'!N67</f>
         <v>988.98400000000004</v>
       </c>
-      <c r="D10" s="279" t="s">
+      <c r="D10" s="276" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="155"/>
-      <c r="G10" s="232"/>
-      <c r="H10" s="227"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="231"/>
+      <c r="H10" s="226"/>
       <c r="K10" s="27" t="s">
         <v>78</v>
       </c>
@@ -4933,7 +5028,7 @@
       <c r="P10" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" s="177" t="s">
+      <c r="Q10" s="176" t="s">
         <v>33</v>
       </c>
       <c r="R10" s="55" t="s">
@@ -4945,7 +5040,7 @@
       <c r="T10" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="U10" s="177" t="s">
+      <c r="U10" s="176" t="s">
         <v>33</v>
       </c>
       <c r="V10" s="24"/>
@@ -5017,16 +5112,16 @@
         <f>C9-C10</f>
         <v>1988.4900000000002</v>
       </c>
-      <c r="D11" s="279" t="s">
+      <c r="D11" s="276" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="155" t="s">
+      <c r="F11" s="154" t="s">
         <v>198</v>
       </c>
-      <c r="G11" s="280" t="s">
+      <c r="G11" s="277" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="281">
+      <c r="H11" s="278">
         <v>42036</v>
       </c>
       <c r="K11" s="27"/>
@@ -5035,11 +5130,11 @@
       <c r="N11" s="106"/>
       <c r="O11" s="55"/>
       <c r="P11" s="55"/>
-      <c r="Q11" s="177"/>
+      <c r="Q11" s="176"/>
       <c r="R11" s="55"/>
       <c r="S11" s="55"/>
       <c r="T11" s="55"/>
-      <c r="U11" s="177"/>
+      <c r="U11" s="176"/>
       <c r="V11" s="24"/>
       <c r="W11" s="24"/>
       <c r="AC11" s="22"/>
@@ -5055,13 +5150,13 @@
         <v>22964.584140000003</v>
       </c>
       <c r="D12" s="41"/>
-      <c r="F12" s="156" t="s">
+      <c r="F12" s="155" t="s">
         <v>196</v>
       </c>
-      <c r="G12" s="233" t="s">
+      <c r="G12" s="232" t="s">
         <v>197</v>
       </c>
-      <c r="H12" s="234"/>
+      <c r="H12" s="233"/>
       <c r="K12" s="27" t="s">
         <v>76</v>
       </c>
@@ -5078,7 +5173,7 @@
       <c r="P12" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="177" t="s">
+      <c r="Q12" s="176" t="s">
         <v>33</v>
       </c>
       <c r="R12" s="55" t="s">
@@ -5090,7 +5185,7 @@
       <c r="T12" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="U12" s="177" t="s">
+      <c r="U12" s="176" t="s">
         <v>33</v>
       </c>
       <c r="V12" s="24"/>
@@ -5160,7 +5255,7 @@
       <c r="P13" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="Q13" s="177" t="s">
+      <c r="Q13" s="176" t="s">
         <v>33</v>
       </c>
       <c r="R13" s="55" t="s">
@@ -5172,7 +5267,7 @@
       <c r="T13" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="U13" s="177" t="s">
+      <c r="U13" s="176" t="s">
         <v>33</v>
       </c>
       <c r="V13" s="24"/>
@@ -5256,7 +5351,7 @@
       <c r="P14" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="Q14" s="177" t="s">
+      <c r="Q14" s="176" t="s">
         <v>33</v>
       </c>
       <c r="R14" s="55" t="s">
@@ -5268,7 +5363,7 @@
       <c r="T14" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="U14" s="177" t="s">
+      <c r="U14" s="176" t="s">
         <v>33</v>
       </c>
       <c r="V14" s="24"/>
@@ -5333,44 +5428,44 @@
       </c>
     </row>
     <row r="15" spans="2:38" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="228" t="s">
+      <c r="B15" s="227" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="229"/>
-      <c r="D15" s="230"/>
-      <c r="F15" s="228" t="s">
+      <c r="C15" s="228"/>
+      <c r="D15" s="229"/>
+      <c r="F15" s="227" t="s">
         <v>203</v>
       </c>
-      <c r="G15" s="229"/>
-      <c r="H15" s="230"/>
+      <c r="G15" s="228"/>
+      <c r="H15" s="229"/>
       <c r="K15" s="27"/>
       <c r="L15" s="57"/>
       <c r="M15" s="57"/>
       <c r="N15" s="103"/>
       <c r="O15" s="57"/>
       <c r="P15" s="57"/>
-      <c r="Q15" s="179"/>
+      <c r="Q15" s="178"/>
       <c r="R15" s="57"/>
       <c r="S15" s="57"/>
       <c r="T15" s="57"/>
-      <c r="U15" s="179"/>
+      <c r="U15" s="178"/>
     </row>
     <row r="16" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="226" t="s">
+      <c r="C16" s="225" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="227"/>
-      <c r="F16" s="155" t="s">
+      <c r="D16" s="226"/>
+      <c r="F16" s="154" t="s">
         <v>204</v>
       </c>
-      <c r="G16" s="243">
+      <c r="G16" s="242">
         <f>C6/'Financial Model'!N64</f>
         <v>81.803970495189361</v>
       </c>
-      <c r="H16" s="244"/>
+      <c r="H16" s="243"/>
       <c r="J16" s="30" t="s">
         <v>86</v>
       </c>
@@ -5390,7 +5485,7 @@
       <c r="P16" s="58">
         <v>3600</v>
       </c>
-      <c r="Q16" s="179"/>
+      <c r="Q16" s="178"/>
       <c r="R16" s="58">
         <v>4700</v>
       </c>
@@ -5400,7 +5495,7 @@
       <c r="T16" s="58">
         <v>4000</v>
       </c>
-      <c r="U16" s="204"/>
+      <c r="U16" s="203"/>
       <c r="V16" s="31"/>
       <c r="W16" s="31">
         <v>2530</v>
@@ -5448,7 +5543,7 @@
       <c r="AK16" s="31">
         <v>11300</v>
       </c>
-      <c r="AL16" s="213">
+      <c r="AL16" s="212">
         <v>13400</v>
       </c>
     </row>
@@ -5456,18 +5551,18 @@
       <c r="B17" s="97" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="241" t="s">
+      <c r="C17" s="240" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="242"/>
-      <c r="F17" s="155" t="s">
+      <c r="D17" s="241"/>
+      <c r="F17" s="154" t="s">
         <v>213</v>
       </c>
-      <c r="G17" s="243">
+      <c r="G17" s="242">
         <f>C8/SUM('Financial Model'!$K$3:$N$3)</f>
         <v>11.214602687937182</v>
       </c>
-      <c r="H17" s="244"/>
+      <c r="H17" s="243"/>
       <c r="K17" s="27" t="s">
         <v>84</v>
       </c>
@@ -5484,7 +5579,7 @@
       <c r="P17" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" s="177"/>
+      <c r="Q17" s="176"/>
       <c r="R17" s="55" t="s">
         <v>33</v>
       </c>
@@ -5494,7 +5589,7 @@
       <c r="T17" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="U17" s="177"/>
+      <c r="U17" s="176"/>
       <c r="V17" s="24"/>
       <c r="W17" s="24" t="s">
         <v>33</v>
@@ -5564,18 +5659,18 @@
       <c r="B18" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="226" t="s">
+      <c r="C18" s="225" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="227"/>
-      <c r="F18" s="155" t="s">
+      <c r="D18" s="226"/>
+      <c r="F18" s="154" t="s">
         <v>214</v>
       </c>
-      <c r="G18" s="243">
+      <c r="G18" s="242">
         <f>C6/SUM('Financial Model'!K19:N19)</f>
         <v>-26.466723449006508</v>
       </c>
-      <c r="H18" s="244"/>
+      <c r="H18" s="243"/>
       <c r="K18" s="27" t="s">
         <v>85</v>
       </c>
@@ -5592,7 +5687,7 @@
       <c r="P18" s="56">
         <v>0.1</v>
       </c>
-      <c r="Q18" s="178"/>
+      <c r="Q18" s="177"/>
       <c r="R18" s="56">
         <v>0.25</v>
       </c>
@@ -5602,7 +5697,7 @@
       <c r="T18" s="56">
         <v>0.16</v>
       </c>
-      <c r="U18" s="178"/>
+      <c r="U18" s="177"/>
       <c r="V18" s="24"/>
       <c r="W18" s="24" t="s">
         <v>33</v>
@@ -5667,29 +5762,29 @@
     </row>
     <row r="19" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B19" s="83"/>
-      <c r="C19" s="232"/>
-      <c r="D19" s="227"/>
-      <c r="F19" s="155" t="s">
+      <c r="C19" s="231"/>
+      <c r="D19" s="226"/>
+      <c r="F19" s="154" t="s">
         <v>218</v>
       </c>
-      <c r="G19" s="243">
+      <c r="G19" s="242">
         <f>C12/SUM('Financial Model'!K3:N3)</f>
         <v>10.32092020321323</v>
       </c>
-      <c r="H19" s="244"/>
+      <c r="H19" s="243"/>
       <c r="K19" s="27"/>
       <c r="L19" s="57"/>
       <c r="M19" s="57"/>
     </row>
     <row r="20" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="84"/>
-      <c r="C20" s="245"/>
-      <c r="D20" s="246"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="233"/>
-      <c r="H20" s="234"/>
+      <c r="C20" s="244"/>
+      <c r="D20" s="245"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="232"/>
+      <c r="H20" s="233"/>
       <c r="J20" s="30"/>
-      <c r="K20" s="172" t="s">
+      <c r="K20" s="171" t="s">
         <v>212</v>
       </c>
       <c r="M20" s="54"/>
@@ -5708,25 +5803,25 @@
       <c r="AI20" s="1"/>
     </row>
     <row r="21" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="K21" s="172" t="s">
+      <c r="K21" s="171" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="22" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="K22" s="172" t="s">
+      <c r="K22" s="171" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="23" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B23" s="228" t="s">
+      <c r="B23" s="227" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="229"/>
-      <c r="D23" s="229"/>
-      <c r="E23" s="229"/>
-      <c r="F23" s="229"/>
-      <c r="G23" s="230"/>
-      <c r="K23" s="172" t="s">
+      <c r="C23" s="228"/>
+      <c r="D23" s="228"/>
+      <c r="E23" s="228"/>
+      <c r="F23" s="228"/>
+      <c r="G23" s="229"/>
+      <c r="K23" s="171" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5798,6 +5893,9 @@
       <c r="E28" s="88"/>
       <c r="F28" s="91"/>
       <c r="G28" s="89"/>
+      <c r="P28" s="1" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="29" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B29" s="96" t="s">
@@ -5814,6 +5912,9 @@
       <c r="L29" s="86" t="s">
         <v>142</v>
       </c>
+      <c r="P29" s="279" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="30" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B30" s="87" t="s">
@@ -5826,8 +5927,8 @@
       <c r="G30" s="89"/>
       <c r="J30" s="86"/>
       <c r="K30" s="86"/>
-      <c r="P30" s="1" t="s">
-        <v>285</v>
+      <c r="P30" s="279" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="2:38" x14ac:dyDescent="0.25">
@@ -5840,12 +5941,15 @@
       <c r="F31" s="94"/>
       <c r="G31" s="95"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="228" t="s">
+      <c r="K31" s="227" t="s">
         <v>181</v>
       </c>
-      <c r="L31" s="229"/>
-      <c r="M31" s="229"/>
-      <c r="N31" s="230"/>
+      <c r="L31" s="228"/>
+      <c r="M31" s="228"/>
+      <c r="N31" s="229"/>
+      <c r="P31" s="279" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="32" spans="2:38" x14ac:dyDescent="0.25">
       <c r="J32" s="7"/>
@@ -5856,15 +5960,15 @@
       <c r="M32" s="88"/>
       <c r="N32" s="89"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="228" t="s">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="227" t="s">
         <v>187</v>
       </c>
-      <c r="C33" s="229"/>
-      <c r="D33" s="229"/>
-      <c r="E33" s="229"/>
-      <c r="F33" s="229"/>
-      <c r="G33" s="230"/>
+      <c r="C33" s="228"/>
+      <c r="D33" s="228"/>
+      <c r="E33" s="228"/>
+      <c r="F33" s="228"/>
+      <c r="G33" s="229"/>
       <c r="J33" s="7"/>
       <c r="K33" s="147" t="s">
         <v>177</v>
@@ -5874,12 +5978,15 @@
       </c>
       <c r="M33" s="144"/>
       <c r="N33" s="89"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="180">
+      <c r="P33" s="279" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="179">
         <v>44743</v>
       </c>
-      <c r="C34" s="181" t="s">
+      <c r="C34" s="180" t="s">
         <v>205</v>
       </c>
       <c r="D34" s="88"/>
@@ -5895,17 +6002,20 @@
       </c>
       <c r="M34" s="145"/>
       <c r="N34" s="89"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P34" s="279" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="141"/>
-      <c r="C35" s="182" t="s">
+      <c r="C35" s="181" t="s">
         <v>206</v>
       </c>
       <c r="D35" s="88"/>
       <c r="E35" s="88"/>
       <c r="F35" s="88"/>
       <c r="G35" s="89"/>
-      <c r="J35" s="183" t="s">
+      <c r="J35" s="182" t="s">
         <v>207</v>
       </c>
       <c r="K35" s="147" t="s">
@@ -5916,8 +6026,11 @@
       </c>
       <c r="M35" s="146"/>
       <c r="N35" s="89"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P35" s="279" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="141"/>
       <c r="C36" s="88"/>
       <c r="D36" s="88"/>
@@ -5931,8 +6044,11 @@
       <c r="L36" s="88"/>
       <c r="M36" s="88"/>
       <c r="N36" s="89"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P36" s="279" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="141"/>
       <c r="C37" s="88"/>
       <c r="D37" s="88"/>
@@ -5946,8 +6062,11 @@
       <c r="L37" s="88"/>
       <c r="M37" s="88"/>
       <c r="N37" s="89"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P37" s="279" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="141"/>
       <c r="C38" s="88"/>
       <c r="D38" s="88"/>
@@ -5962,7 +6081,7 @@
       <c r="M38" s="88"/>
       <c r="N38" s="89"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="141"/>
       <c r="C39" s="88"/>
       <c r="D39" s="88"/>
@@ -5976,9 +6095,12 @@
       <c r="L39" s="88"/>
       <c r="M39" s="88"/>
       <c r="N39" s="89"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="152">
+      <c r="P39" s="279" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="151">
         <v>44682</v>
       </c>
       <c r="C40" s="143" t="s">
@@ -5988,7 +6110,7 @@
       <c r="E40" s="88"/>
       <c r="F40" s="88"/>
       <c r="G40" s="89"/>
-      <c r="J40" s="183" t="s">
+      <c r="J40" s="182" t="s">
         <v>208</v>
       </c>
       <c r="K40" s="147" t="s">
@@ -5997,10 +6119,13 @@
       <c r="L40" s="88"/>
       <c r="M40" s="88"/>
       <c r="N40" s="89"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P40" s="279" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="141"/>
-      <c r="C41" s="151" t="s">
+      <c r="C41" s="150" t="s">
         <v>188</v>
       </c>
       <c r="D41" s="88"/>
@@ -6015,7 +6140,7 @@
       <c r="M41" s="88"/>
       <c r="N41" s="89"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="142"/>
       <c r="C42" s="93"/>
       <c r="D42" s="93"/>
@@ -6027,10 +6152,13 @@
       <c r="L42" s="88"/>
       <c r="M42" s="88"/>
       <c r="N42" s="89"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P42" s="279" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J43" s="7"/>
-      <c r="K43" s="154" t="s">
+      <c r="K43" s="153" t="s">
         <v>191</v>
       </c>
       <c r="L43" s="145" t="s">
@@ -6038,8 +6166,11 @@
       </c>
       <c r="M43" s="88"/>
       <c r="N43" s="89"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P43" s="312" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J44" s="7"/>
       <c r="K44" s="148" t="s">
         <v>154</v>
@@ -6047,9 +6178,12 @@
       <c r="L44" s="88"/>
       <c r="M44" s="88"/>
       <c r="N44" s="89"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="186" t="s">
+      <c r="P44" s="312" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" s="185" t="s">
         <v>215</v>
       </c>
       <c r="J45" s="7"/>
@@ -6059,8 +6193,11 @@
       <c r="L45" s="88"/>
       <c r="M45" s="88"/>
       <c r="N45" s="89"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P45" s="312" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J46" s="7"/>
       <c r="K46" s="148" t="s">
         <v>156</v>
@@ -6068,8 +6205,11 @@
       <c r="L46" s="88"/>
       <c r="M46" s="88"/>
       <c r="N46" s="89"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P46" s="312" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>220</v>
       </c>
@@ -6081,35 +6221,41 @@
       <c r="M47" s="88"/>
       <c r="N47" s="89"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="205" t="s">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B48" s="204" t="s">
         <v>219</v>
       </c>
       <c r="J48" s="7"/>
-      <c r="K48" s="207" t="s">
+      <c r="K48" s="206" t="s">
         <v>158</v>
       </c>
       <c r="L48" s="88"/>
       <c r="M48" s="88"/>
       <c r="N48" s="89"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="205" t="s">
+      <c r="P48" s="279" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B49" s="204" t="s">
         <v>221</v>
       </c>
       <c r="K49" s="149"/>
       <c r="L49" s="88"/>
       <c r="M49" s="88"/>
       <c r="N49" s="89"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="206" t="s">
+      <c r="P49" s="279" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B50" s="205" t="s">
         <v>222</v>
       </c>
-      <c r="J50" s="208" t="s">
+      <c r="J50" s="207" t="s">
         <v>238</v>
       </c>
-      <c r="K50" s="207" t="s">
+      <c r="K50" s="206" t="s">
         <v>236</v>
       </c>
       <c r="L50" s="145" t="s">
@@ -6117,196 +6263,237 @@
       </c>
       <c r="M50" s="88"/>
       <c r="N50" s="89"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="206" t="s">
+      <c r="P50" s="279" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B51" s="205" t="s">
         <v>223</v>
       </c>
-      <c r="K51" s="150"/>
+      <c r="K51" s="311" t="s">
+        <v>296</v>
+      </c>
       <c r="L51" s="93"/>
       <c r="M51" s="93"/>
       <c r="N51" s="95"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B52" s="206" t="s">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B52" s="205" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="206" t="s">
+      <c r="P52" s="279" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B53" s="205" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K54" s="19" t="s">
+      <c r="P53" s="312" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P54" s="279" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B55" s="204" t="s">
+        <v>226</v>
+      </c>
+      <c r="P55" s="279" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B57" s="204" t="s">
+        <v>227</v>
+      </c>
+      <c r="P57" s="279" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B58" s="204" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B59" s="205" t="s">
+        <v>229</v>
+      </c>
+      <c r="P59" s="279" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B60" s="205" t="s">
+        <v>230</v>
+      </c>
+      <c r="P60" s="312" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B61" s="205" t="s">
+        <v>231</v>
+      </c>
+      <c r="P61" s="312" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B62" s="205" t="s">
+        <v>232</v>
+      </c>
+      <c r="P62" s="312" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I63" s="19" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="205" t="s">
-        <v>226</v>
-      </c>
-      <c r="K55" s="20" t="s">
+      <c r="P63" s="312" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B64" s="204" t="s">
+        <v>233</v>
+      </c>
+      <c r="I64" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K56" s="20" t="s">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="204" t="s">
+        <v>234</v>
+      </c>
+      <c r="I65" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="205" t="s">
-        <v>227</v>
-      </c>
-      <c r="K57" s="20" t="s">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I66" s="20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="205" t="s">
-        <v>228</v>
-      </c>
-      <c r="K58" s="21" t="s">
+    <row r="67" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="204" t="s">
+        <v>235</v>
+      </c>
+      <c r="I67" s="21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="206" t="s">
-        <v>229</v>
-      </c>
-      <c r="K59" s="21" t="s">
+    <row r="68" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I68" s="21" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="206" t="s">
-        <v>230</v>
-      </c>
-      <c r="K60" s="21" t="s">
+    <row r="69" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B69" s="204" t="s">
+        <v>239</v>
+      </c>
+      <c r="I69" s="21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="206" t="s">
-        <v>231</v>
-      </c>
-      <c r="K61" s="82" t="s">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I70" s="82" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B62" s="206" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B64" s="205" t="s">
-        <v>233</v>
-      </c>
-      <c r="K64" s="98" t="s">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="204" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="205" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I73" s="98" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="205" t="s">
-        <v>234</v>
-      </c>
-      <c r="K65" s="1" t="s">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="204" t="s">
+        <v>242</v>
+      </c>
+      <c r="I74" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K66" s="79" t="s">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I75" s="79" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="205" t="s">
-        <v>235</v>
-      </c>
-      <c r="K67" s="86" t="s">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="204" t="s">
+        <v>244</v>
+      </c>
+      <c r="I76" s="86" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K68" s="86" t="s">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="205" t="s">
+        <v>243</v>
+      </c>
+      <c r="I77" s="86" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B69" s="205" t="s">
-        <v>239</v>
-      </c>
-      <c r="K69" s="86" t="s">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I78" s="86" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K70" s="86" t="s">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="204" t="s">
+        <v>245</v>
+      </c>
+      <c r="I79" s="86" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B71" s="205" t="s">
-        <v>240</v>
-      </c>
-      <c r="K71" s="86" t="s">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="205" t="s">
+        <v>246</v>
+      </c>
+      <c r="I80" s="86" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="206" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B74" s="205" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B76" s="205" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B77" s="206" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="205" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B80" s="206" t="s">
-        <v>246</v>
-      </c>
-    </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="205" t="s">
+      <c r="B82" s="204" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="206" t="s">
+      <c r="B83" s="205" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="206" t="s">
+      <c r="B84" s="205" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="206" t="s">
+      <c r="B85" s="205" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="212" t="s">
+      <c r="B86" s="211" t="s">
         <v>251</v>
       </c>
     </row>
@@ -6340,8 +6527,8 @@
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K58" r:id="rId1" xr:uid="{F79BC045-05D5-43FB-A051-BA2031CC85A7}"/>
-    <hyperlink ref="K60" r:id="rId2" xr:uid="{58004FA9-9F7A-4B71-811E-FF4EE09F281F}"/>
+    <hyperlink ref="I67" r:id="rId1" xr:uid="{F79BC045-05D5-43FB-A051-BA2031CC85A7}"/>
+    <hyperlink ref="I69" r:id="rId2" xr:uid="{58004FA9-9F7A-4B71-811E-FF4EE09F281F}"/>
     <hyperlink ref="G12:H12" r:id="rId3" display="Link" xr:uid="{D1B93EC0-D493-46C2-A484-2A4BB7A54A35}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6358,10 +6545,10 @@
   <dimension ref="B1:BZ120"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T24" sqref="T24"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6373,14 +6560,14 @@
     <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="9.125" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="9.125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="9.625" style="255" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.125" style="253" customWidth="1"/>
     <col min="15" max="15" width="9" style="133"/>
     <col min="16" max="16" width="9" style="6"/>
     <col min="17" max="19" width="9" style="7"/>
     <col min="20" max="21" width="9" style="6"/>
     <col min="22" max="22" width="10.5" style="6" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9" style="267"/>
+    <col min="24" max="24" width="9" style="264"/>
     <col min="25" max="25" width="9" style="117" bestFit="1" customWidth="1"/>
     <col min="26" max="40" width="9" style="6"/>
     <col min="41" max="41" width="15.875" style="6" bestFit="1" customWidth="1"/>
@@ -6418,29 +6605,29 @@
       <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="157" t="s">
+      <c r="L1" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="195" t="s">
+      <c r="M1" s="194" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="277" t="s">
+      <c r="N1" s="274" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="282" t="s">
+      <c r="O1" s="280" t="s">
         <v>108</v>
       </c>
       <c r="P1" s="2"/>
       <c r="Q1" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="158" t="s">
+      <c r="R1" s="157" t="s">
         <v>13</v>
       </c>
       <c r="S1" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="291" t="s">
+      <c r="T1" s="289" t="s">
         <v>15</v>
       </c>
       <c r="V1" s="2" t="s">
@@ -6449,7 +6636,7 @@
       <c r="W1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="X1" s="247" t="s">
+      <c r="X1" s="246" t="s">
         <v>91</v>
       </c>
       <c r="Y1" s="108" t="s">
@@ -6532,20 +6719,20 @@
       <c r="M2" s="33">
         <v>44834</v>
       </c>
-      <c r="N2" s="248">
+      <c r="N2" s="310">
         <v>44926</v>
       </c>
-      <c r="O2" s="283"/>
+      <c r="O2" s="281"/>
       <c r="Q2" s="65" t="s">
         <v>286</v>
       </c>
-      <c r="R2" s="159" t="s">
+      <c r="R2" s="158" t="s">
         <v>287</v>
       </c>
       <c r="S2" s="65" t="s">
         <v>286</v>
       </c>
-      <c r="T2" s="292" t="s">
+      <c r="T2" s="290" t="s">
         <v>288</v>
       </c>
       <c r="V2" s="33">
@@ -6554,8 +6741,8 @@
       <c r="W2" s="33">
         <v>44561</v>
       </c>
-      <c r="X2" s="262" t="s">
-        <v>119</v>
+      <c r="X2" s="310">
+        <v>44926</v>
       </c>
       <c r="Y2" s="109" t="s">
         <v>119</v>
@@ -6640,10 +6827,10 @@
       <c r="M3" s="4">
         <v>517.70699999999999</v>
       </c>
-      <c r="N3" s="249">
+      <c r="N3" s="247">
         <v>579.00400000000002</v>
       </c>
-      <c r="O3" s="290">
+      <c r="O3" s="288">
         <f>N3*(1+O27)</f>
         <v>607.95420000000001</v>
       </c>
@@ -6651,7 +6838,7 @@
         <f>G3*1.67</f>
         <v>646.24991999999997</v>
       </c>
-      <c r="R3" s="160">
+      <c r="R3" s="159">
         <f>H3*1.23</f>
         <v>558.54300000000001</v>
       </c>
@@ -6659,7 +6846,7 @@
         <f>I3*1.25</f>
         <v>636.67000000000007</v>
       </c>
-      <c r="T3" s="293">
+      <c r="T3" s="291">
         <v>621.24839999999995</v>
       </c>
       <c r="V3" s="3">
@@ -6670,7 +6857,7 @@
         <f>SUM(G3:J3)</f>
         <v>1919.181</v>
       </c>
-      <c r="X3" s="263">
+      <c r="X3" s="260">
         <f>SUM(K3:N3)</f>
         <v>2225.0519999999997</v>
       </c>
@@ -6772,15 +6959,18 @@
       <c r="M4" s="5">
         <v>126.437</v>
       </c>
-      <c r="N4" s="250">
+      <c r="N4" s="248">
         <v>142.43199999999999</v>
       </c>
-      <c r="O4" s="136"/>
+      <c r="O4" s="136">
+        <f>O3*(1-O22)</f>
+        <v>151.98855</v>
+      </c>
       <c r="Q4" s="67">
         <f>Q3-Q5</f>
         <v>174.48747839999999</v>
       </c>
-      <c r="R4" s="161">
+      <c r="R4" s="160">
         <f>R3-R5</f>
         <v>145.22118</v>
       </c>
@@ -6788,7 +6978,7 @@
         <f>S3-S5</f>
         <v>165.5342</v>
       </c>
-      <c r="T4" s="294">
+      <c r="T4" s="292">
         <v>107.47144999999999</v>
       </c>
       <c r="V4" s="36">
@@ -6799,7 +6989,7 @@
         <f>SUM(G4:J4)</f>
         <v>496.87</v>
       </c>
-      <c r="X4" s="264">
+      <c r="X4" s="261">
         <f>SUM(K4:N4)</f>
         <v>547.65800000000002</v>
       </c>
@@ -6912,17 +7102,20 @@
         <f t="shared" si="6"/>
         <v>391.27</v>
       </c>
-      <c r="N5" s="249">
+      <c r="N5" s="247">
         <f t="shared" si="6"/>
         <v>436.572</v>
       </c>
-      <c r="O5" s="284"/>
+      <c r="O5" s="282">
+        <f>O3-O4</f>
+        <v>455.96564999999998</v>
+      </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="68">
         <f>Q3*0.73</f>
         <v>471.76244159999999</v>
       </c>
-      <c r="R5" s="162">
+      <c r="R5" s="161">
         <f>R3*0.74</f>
         <v>413.32182</v>
       </c>
@@ -6930,7 +7123,7 @@
         <f>S3*0.74</f>
         <v>471.13580000000007</v>
       </c>
-      <c r="T5" s="295">
+      <c r="T5" s="293">
         <v>472.14878399999998</v>
       </c>
       <c r="U5" s="1"/>
@@ -6942,7 +7135,7 @@
         <f>W3-W4</f>
         <v>1422.3110000000001</v>
       </c>
-      <c r="X5" s="263">
+      <c r="X5" s="260">
         <f>X3-X4</f>
         <v>1677.3939999999998</v>
       </c>
@@ -7044,16 +7237,16 @@
       <c r="M6" s="5">
         <v>151.47</v>
       </c>
-      <c r="N6" s="251">
+      <c r="N6" s="249">
         <v>182.11500000000001</v>
       </c>
-      <c r="O6" s="285"/>
+      <c r="O6" s="283"/>
       <c r="P6" s="23"/>
       <c r="Q6" s="69">
         <f>G6*1.025</f>
         <v>121.91144999999999</v>
       </c>
-      <c r="R6" s="163">
+      <c r="R6" s="162">
         <f>H6*1.23</f>
         <v>159.54821999999999</v>
       </c>
@@ -7061,7 +7254,7 @@
         <f>I6*1.15</f>
         <v>149.44479999999999</v>
       </c>
-      <c r="T6" s="296">
+      <c r="T6" s="294">
         <v>183.67455000000001</v>
       </c>
       <c r="V6" s="36">
@@ -7072,11 +7265,11 @@
         <f>SUM(G6:J6)</f>
         <v>538.32100000000003</v>
       </c>
-      <c r="X6" s="265">
+      <c r="X6" s="262">
         <f>SUM(K6:N6)</f>
         <v>623.85500000000002</v>
       </c>
-      <c r="Y6" s="272">
+      <c r="Y6" s="269">
         <f>X6*1.015</f>
         <v>633.21282499999995</v>
       </c>
@@ -7174,16 +7367,16 @@
       <c r="M7" s="5">
         <v>190.98599999999999</v>
       </c>
-      <c r="N7" s="251">
+      <c r="N7" s="249">
         <v>198.505</v>
       </c>
-      <c r="O7" s="285"/>
+      <c r="O7" s="283"/>
       <c r="P7" s="23"/>
       <c r="Q7" s="69">
         <f>J7*1.11</f>
         <v>150.94779000000003</v>
       </c>
-      <c r="R7" s="163">
+      <c r="R7" s="162">
         <f>H7*1.5</f>
         <v>163.47900000000001</v>
       </c>
@@ -7191,7 +7384,7 @@
         <f>I7*1.5</f>
         <v>176.0805</v>
       </c>
-      <c r="T7" s="296">
+      <c r="T7" s="294">
         <v>203.98349999999999</v>
       </c>
       <c r="V7" s="36">
@@ -7202,11 +7395,11 @@
         <f>SUM(G7:J7)</f>
         <v>456.49800000000005</v>
       </c>
-      <c r="X7" s="265">
+      <c r="X7" s="262">
         <f>SUM(K7:N7)</f>
         <v>689.08100000000002</v>
       </c>
-      <c r="Y7" s="272">
+      <c r="Y7" s="269">
         <f>X7*1.05</f>
         <v>723.53505000000007</v>
       </c>
@@ -7304,16 +7497,19 @@
       <c r="M8" s="5">
         <v>235.55099999999999</v>
       </c>
-      <c r="N8" s="252">
+      <c r="N8" s="250">
         <v>248.40700000000001</v>
       </c>
-      <c r="O8" s="286"/>
+      <c r="O8" s="284">
+        <f>N8*(1+O30)</f>
+        <v>255.85921000000002</v>
+      </c>
       <c r="P8" s="61"/>
       <c r="Q8" s="70">
         <f>J8*1.1</f>
         <v>190.92700000000002</v>
       </c>
-      <c r="R8" s="164">
+      <c r="R8" s="163">
         <f>K8*1.012</f>
         <v>179.89514400000002</v>
       </c>
@@ -7321,7 +7517,7 @@
         <f>R8*1.012</f>
         <v>182.05388572800001</v>
       </c>
-      <c r="T8" s="297">
+      <c r="T8" s="295">
         <v>254.39508000000001</v>
       </c>
       <c r="V8" s="36">
@@ -7332,11 +7528,11 @@
         <f>SUM(G8:J8)</f>
         <v>533.20699999999999</v>
       </c>
-      <c r="X8" s="265">
+      <c r="X8" s="262">
         <f>SUM(K8:N8)</f>
         <v>873.47699999999998</v>
       </c>
-      <c r="Y8" s="272">
+      <c r="Y8" s="269">
         <f>X8*1</f>
         <v>873.47699999999998</v>
       </c>
@@ -7434,7 +7630,7 @@
       <c r="M9" s="5">
         <v>81.165000000000006</v>
       </c>
-      <c r="N9" s="250">
+      <c r="N9" s="248">
         <v>79.703999999999994</v>
       </c>
       <c r="O9" s="136"/>
@@ -7443,7 +7639,7 @@
         <f>G9*1.01</f>
         <v>95.318749999999994</v>
       </c>
-      <c r="R9" s="161">
+      <c r="R9" s="160">
         <f>K9*1.01</f>
         <v>58.349719999999998</v>
       </c>
@@ -7451,7 +7647,7 @@
         <f>R9*1.01</f>
         <v>58.933217200000001</v>
       </c>
-      <c r="T9" s="294">
+      <c r="T9" s="292">
         <v>81.976650000000006</v>
       </c>
       <c r="V9" s="36">
@@ -7462,11 +7658,11 @@
         <f>SUM(G9:J9)</f>
         <v>303.02</v>
       </c>
-      <c r="X9" s="265">
+      <c r="X9" s="262">
         <f>SUM(K9:N9)</f>
         <v>297.31700000000001</v>
       </c>
-      <c r="Y9" s="272">
+      <c r="Y9" s="269">
         <f>X9*1</f>
         <v>297.31700000000001</v>
       </c>
@@ -7564,15 +7760,15 @@
       <c r="M10" s="5">
         <v>32.104999999999997</v>
       </c>
-      <c r="N10" s="252">
+      <c r="N10" s="250">
         <v>29.74</v>
       </c>
-      <c r="O10" s="211"/>
+      <c r="O10" s="210"/>
       <c r="P10" s="23"/>
       <c r="Q10" s="71">
         <v>25</v>
       </c>
-      <c r="R10" s="164">
+      <c r="R10" s="163">
         <f>K10*1.05</f>
         <v>30.557100000000002</v>
       </c>
@@ -7580,7 +7776,7 @@
         <f>R10*1.05</f>
         <v>32.084955000000001</v>
       </c>
-      <c r="T10" s="297">
+      <c r="T10" s="295">
         <v>33.710249999999995</v>
       </c>
       <c r="V10" s="36">
@@ -7591,11 +7787,11 @@
         <f>SUM(G10:J10)</f>
         <v>86.363</v>
       </c>
-      <c r="X10" s="265">
+      <c r="X10" s="262">
         <f>SUM(K10:N10)</f>
         <v>117.44799999999999</v>
       </c>
-      <c r="Y10" s="272">
+      <c r="Y10" s="269">
         <f>X10*0.95</f>
         <v>111.57559999999999</v>
       </c>
@@ -7704,7 +7900,7 @@
         <f t="shared" ref="M11" si="22">M10+M9+M8+M7+M6</f>
         <v>691.27700000000004</v>
       </c>
-      <c r="N11" s="250">
+      <c r="N11" s="248">
         <f t="shared" si="21"/>
         <v>738.471</v>
       </c>
@@ -7713,7 +7909,7 @@
         <f>Q10+Q9+Q8+Q7+Q6</f>
         <v>584.10499000000004</v>
       </c>
-      <c r="R11" s="161">
+      <c r="R11" s="160">
         <f>R10+R9+R8+R7+R6</f>
         <v>591.82918400000005</v>
       </c>
@@ -7721,7 +7917,7 @@
         <f>S10+S9+S8+S7+S6</f>
         <v>598.59735792800006</v>
       </c>
-      <c r="T11" s="294">
+      <c r="T11" s="292">
         <v>757.74002999999993</v>
       </c>
       <c r="V11" s="9">
@@ -7732,7 +7928,7 @@
         <f>SUM(W6:W10)</f>
         <v>1917.4090000000001</v>
       </c>
-      <c r="X11" s="266">
+      <c r="X11" s="263">
         <f>SUM(X6:X10)</f>
         <v>2601.1779999999999</v>
       </c>
@@ -7845,16 +8041,16 @@
         <f t="shared" ref="M12:N12" si="29">M5-M11</f>
         <v>-300.00700000000006</v>
       </c>
-      <c r="N12" s="249">
+      <c r="N12" s="247">
         <f t="shared" si="29"/>
         <v>-301.899</v>
       </c>
-      <c r="O12" s="287"/>
+      <c r="O12" s="285"/>
       <c r="Q12" s="66">
         <f>Q5-Q11</f>
         <v>-112.34254840000006</v>
       </c>
-      <c r="R12" s="160">
+      <c r="R12" s="159">
         <f>R5-R11</f>
         <v>-178.50736400000005</v>
       </c>
@@ -7862,7 +8058,7 @@
         <f>S5-S11</f>
         <v>-127.46155792799999</v>
       </c>
-      <c r="T12" s="293">
+      <c r="T12" s="291">
         <v>-285.59124599999996</v>
       </c>
       <c r="V12" s="4">
@@ -7873,7 +8069,7 @@
         <f>W5-W11</f>
         <v>-495.09799999999996</v>
       </c>
-      <c r="X12" s="249">
+      <c r="X12" s="247">
         <f>X5-X11</f>
         <v>-923.78400000000011</v>
       </c>
@@ -7976,7 +8172,7 @@
       <c r="M13" s="5">
         <v>12.763999999999999</v>
       </c>
-      <c r="N13" s="250">
+      <c r="N13" s="248">
         <f>21.636-10.008</f>
         <v>11.628</v>
       </c>
@@ -7985,7 +8181,7 @@
         <f t="shared" ref="Q13:S15" si="33">G13</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="R13" s="161">
+      <c r="R13" s="160">
         <f t="shared" si="33"/>
         <v>2.5999999999999999E-2</v>
       </c>
@@ -7993,7 +8189,7 @@
         <f t="shared" si="33"/>
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="T13" s="294">
+      <c r="T13" s="292">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="V13" s="36">
@@ -8004,11 +8200,11 @@
         <f>SUM(G13:J13)</f>
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="X13" s="265">
+      <c r="X13" s="262">
         <f>SUM(K13:N13)</f>
         <v>18.942999999999998</v>
       </c>
-      <c r="Y13" s="272">
+      <c r="Y13" s="269">
         <f>X13*1.008</f>
         <v>19.094543999999999</v>
       </c>
@@ -8107,15 +8303,15 @@
       <c r="M14" s="37">
         <v>0</v>
       </c>
-      <c r="N14" s="253">
+      <c r="N14" s="251">
         <v>1.988</v>
       </c>
-      <c r="O14" s="288"/>
+      <c r="O14" s="286"/>
       <c r="Q14" s="72">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="R14" s="165">
+      <c r="R14" s="164">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8123,7 +8319,7 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="T14" s="298">
+      <c r="T14" s="296">
         <v>1.4E-2</v>
       </c>
       <c r="V14" s="45">
@@ -8134,11 +8330,11 @@
         <f>SUM(G14:J14)</f>
         <v>1.4E-2</v>
       </c>
-      <c r="X14" s="265">
+      <c r="X14" s="262">
         <f t="shared" ref="X14:X20" si="36">SUM(K14:N14)</f>
         <v>2.0019999999999998</v>
       </c>
-      <c r="Y14" s="273">
+      <c r="Y14" s="270">
         <f>X14</f>
         <v>2.0019999999999998</v>
       </c>
@@ -8234,19 +8430,19 @@
       <c r="L15" s="45">
         <v>3.0510000000000002</v>
       </c>
-      <c r="M15" s="196">
+      <c r="M15" s="195">
         <f>4.302+10.005</f>
         <v>14.307</v>
       </c>
-      <c r="N15" s="253">
+      <c r="N15" s="251">
         <v>0</v>
       </c>
-      <c r="O15" s="288"/>
+      <c r="O15" s="286"/>
       <c r="Q15" s="72">
         <f t="shared" si="33"/>
         <v>1.05</v>
       </c>
-      <c r="R15" s="165">
+      <c r="R15" s="164">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -8254,7 +8450,7 @@
         <f t="shared" si="33"/>
         <v>0.77</v>
       </c>
-      <c r="T15" s="298">
+      <c r="T15" s="296">
         <v>6.9980000000000002</v>
       </c>
       <c r="V15" s="36">
@@ -8265,7 +8461,7 @@
         <f>SUM(G15:J15)</f>
         <v>8.8179999999999996</v>
       </c>
-      <c r="X15" s="265">
+      <c r="X15" s="262">
         <f t="shared" si="36"/>
         <v>27.736000000000001</v>
       </c>
@@ -8378,7 +8574,7 @@
         <f t="shared" si="41"/>
         <v>-301.55000000000007</v>
       </c>
-      <c r="N16" s="250">
+      <c r="N16" s="248">
         <f t="shared" si="41"/>
         <v>-288.28300000000002</v>
       </c>
@@ -8387,7 +8583,7 @@
         <f>Q12+Q13+Q14-Q15</f>
         <v>-113.38754840000006</v>
       </c>
-      <c r="R16" s="161">
+      <c r="R16" s="160">
         <f>R12+R13+R14-R15</f>
         <v>-178.48136400000004</v>
       </c>
@@ -8395,7 +8591,7 @@
         <f>S12+S13+S14-S15</f>
         <v>-128.20355792799998</v>
       </c>
-      <c r="T16" s="294">
+      <c r="T16" s="292">
         <v>-292.54224599999992</v>
       </c>
       <c r="V16" s="5">
@@ -8406,7 +8602,7 @@
         <f>W12+W13+W14-W15</f>
         <v>-503.80999999999995</v>
       </c>
-      <c r="X16" s="265">
+      <c r="X16" s="262">
         <f t="shared" si="36"/>
         <v>-930.57500000000016</v>
       </c>
@@ -8508,7 +8704,7 @@
       <c r="M17" s="5">
         <v>0.35199999999999998</v>
       </c>
-      <c r="N17" s="250">
+      <c r="N17" s="248">
         <v>3.202</v>
       </c>
       <c r="O17" s="136"/>
@@ -8516,7 +8712,7 @@
         <f>J17*1.005</f>
         <v>0.65927999999999998</v>
       </c>
-      <c r="R17" s="161">
+      <c r="R17" s="160">
         <f>K17*1.005</f>
         <v>0.27738000000000002</v>
       </c>
@@ -8524,7 +8720,7 @@
         <f>R17*1.005</f>
         <v>0.27876689999999998</v>
       </c>
-      <c r="T17" s="294">
+      <c r="T17" s="292">
         <v>0.35375999999999996</v>
       </c>
       <c r="V17" s="36">
@@ -8535,7 +8731,7 @@
         <f>SUM(G17:J17)</f>
         <v>-0.31999999999999995</v>
       </c>
-      <c r="X17" s="265">
+      <c r="X17" s="262">
         <f t="shared" si="36"/>
         <v>4.1079999999999997</v>
       </c>
@@ -8648,16 +8844,16 @@
         <f t="shared" si="49"/>
         <v>-301.90200000000004</v>
       </c>
-      <c r="N18" s="249">
+      <c r="N18" s="247">
         <f t="shared" si="49"/>
         <v>-291.48500000000001</v>
       </c>
-      <c r="O18" s="287"/>
+      <c r="O18" s="285"/>
       <c r="Q18" s="66">
         <f>+Q16-Q17</f>
         <v>-114.04682840000005</v>
       </c>
-      <c r="R18" s="160">
+      <c r="R18" s="159">
         <f>+R16-R17</f>
         <v>-178.75874400000004</v>
       </c>
@@ -8665,7 +8861,7 @@
         <f>+S16-S17</f>
         <v>-128.48232482799997</v>
       </c>
-      <c r="T18" s="293">
+      <c r="T18" s="291">
         <v>-292.89600599999994</v>
       </c>
       <c r="V18" s="3">
@@ -8676,7 +8872,7 @@
         <f>W16-W17</f>
         <v>-503.48999999999995</v>
       </c>
-      <c r="X18" s="265">
+      <c r="X18" s="262">
         <f t="shared" si="36"/>
         <v>-934.68300000000011</v>
       </c>
@@ -8692,7 +8888,7 @@
         <f t="shared" si="50"/>
         <v>-261.64182434080953</v>
       </c>
-      <c r="AB18" s="225">
+      <c r="AB18" s="224">
         <f t="shared" si="50"/>
         <v>64.428932643194372</v>
       </c>
@@ -8945,16 +9141,16 @@
         <f t="shared" si="54"/>
         <v>-0.50503948783747843</v>
       </c>
-      <c r="N19" s="254">
+      <c r="N19" s="252">
         <f t="shared" si="54"/>
         <v>-0.4843077863752141</v>
       </c>
-      <c r="O19" s="289"/>
+      <c r="O19" s="287"/>
       <c r="Q19" s="73">
         <f>Q18/Q20</f>
         <v>-0.1961134384000964</v>
       </c>
-      <c r="R19" s="166">
+      <c r="R19" s="165">
         <f>R18/R20</f>
         <v>-0.30739120431272415</v>
       </c>
@@ -8962,7 +9158,7 @@
         <f>S18/S20</f>
         <v>-0.21632643153378855</v>
       </c>
-      <c r="T19" s="299">
+      <c r="T19" s="297">
         <v>-0.48997372942174272</v>
       </c>
       <c r="V19" s="8">
@@ -8973,7 +9169,7 @@
         <f>W18/W20</f>
         <v>-0.99708838467978411</v>
       </c>
-      <c r="X19" s="254">
+      <c r="X19" s="252">
         <f>X18/X20</f>
         <v>-1.5529933090640833</v>
       </c>
@@ -9075,21 +9271,21 @@
       <c r="M20" s="5">
         <v>597.779</v>
       </c>
-      <c r="N20" s="250">
+      <c r="N20" s="248">
         <v>601.85900000000004</v>
       </c>
       <c r="O20" s="136"/>
       <c r="Q20" s="67">
         <v>581.53499999999997</v>
       </c>
-      <c r="R20" s="161">
+      <c r="R20" s="160">
         <v>581.53499999999997</v>
       </c>
       <c r="S20" s="67">
         <f>L20</f>
         <v>593.928</v>
       </c>
-      <c r="T20" s="294">
+      <c r="T20" s="292">
         <v>597.779</v>
       </c>
       <c r="V20" s="9">
@@ -9100,7 +9296,7 @@
         <f>AVERAGE(G20:J20)</f>
         <v>504.96024999999997</v>
       </c>
-      <c r="X20" s="265">
+      <c r="X20" s="262">
         <f>N20</f>
         <v>601.85900000000004</v>
       </c>
@@ -9170,11 +9366,11 @@
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="O21" s="211"/>
+      <c r="O21" s="210"/>
       <c r="Q21" s="71"/>
-      <c r="R21" s="167"/>
+      <c r="R21" s="166"/>
       <c r="S21" s="71"/>
-      <c r="T21" s="300"/>
+      <c r="T21" s="298"/>
       <c r="AO21" s="128" t="s">
         <v>118</v>
       </c>
@@ -9230,16 +9426,18 @@
         <f t="shared" si="60"/>
         <v>0.75577498469211346</v>
       </c>
-      <c r="N22" s="256">
+      <c r="N22" s="254">
         <f t="shared" ref="N22" si="61">N5/N3</f>
         <v>0.75400515367769483</v>
       </c>
-      <c r="O22" s="209"/>
+      <c r="O22" s="208">
+        <v>0.75</v>
+      </c>
       <c r="Q22" s="74">
         <f>Q5/Q3</f>
         <v>0.73</v>
       </c>
-      <c r="R22" s="168">
+      <c r="R22" s="167">
         <f>R5/R3</f>
         <v>0.74</v>
       </c>
@@ -9247,7 +9445,7 @@
         <f t="shared" ref="S22:T22" si="62">S5/S3</f>
         <v>0.74</v>
       </c>
-      <c r="T22" s="301">
+      <c r="T22" s="299">
         <v>0.76</v>
       </c>
       <c r="V22" s="10">
@@ -9258,7 +9456,7 @@
         <f>W5/W3</f>
         <v>0.74110310596030293</v>
       </c>
-      <c r="X22" s="256">
+      <c r="X22" s="254">
         <f t="shared" ref="X22:AK22" si="63">X5/X3</f>
         <v>0.75386732534790202</v>
       </c>
@@ -9378,16 +9576,16 @@
         <f t="shared" ref="M23:N23" si="67">M12/M3</f>
         <v>-0.5794918747476856</v>
       </c>
-      <c r="N23" s="256">
+      <c r="N23" s="254">
         <f t="shared" si="67"/>
         <v>-0.52141090562414072</v>
       </c>
-      <c r="O23" s="209"/>
+      <c r="O23" s="208"/>
       <c r="Q23" s="74">
         <f>Q12/Q3</f>
         <v>-0.17383762059111754</v>
       </c>
-      <c r="R23" s="168">
+      <c r="R23" s="167">
         <f>R12/R3</f>
         <v>-0.31959466683854248</v>
       </c>
@@ -9395,7 +9593,7 @@
         <f t="shared" ref="S23:T23" si="68">S12/S3</f>
         <v>-0.20020035171753023</v>
       </c>
-      <c r="T23" s="301">
+      <c r="T23" s="299">
         <v>-0.45970540286300937</v>
       </c>
       <c r="V23" s="10">
@@ -9406,7 +9604,7 @@
         <f>W12/W3</f>
         <v>-0.25797358352338834</v>
       </c>
-      <c r="X23" s="256">
+      <c r="X23" s="254">
         <f t="shared" ref="X23:AK23" si="69">X12/X3</f>
         <v>-0.41517411727905695</v>
       </c>
@@ -9527,16 +9725,16 @@
         <f t="shared" ref="M24:N24" si="73">M18/M3</f>
         <v>-0.5831522463478378</v>
       </c>
-      <c r="N24" s="256">
+      <c r="N24" s="254">
         <f t="shared" si="73"/>
         <v>-0.50342484680589428</v>
       </c>
-      <c r="O24" s="209"/>
+      <c r="O24" s="208"/>
       <c r="Q24" s="74">
         <f>Q18/Q3</f>
         <v>-0.17647480466999524</v>
       </c>
-      <c r="R24" s="168">
+      <c r="R24" s="167">
         <f>R18/R3</f>
         <v>-0.32004473066532035</v>
       </c>
@@ -9544,7 +9742,7 @@
         <f t="shared" ref="S24:T24" si="74">S18/S3</f>
         <v>-0.20180364211915114</v>
       </c>
-      <c r="T24" s="301">
+      <c r="T24" s="299">
         <v>-0.47146359813562494</v>
       </c>
       <c r="V24" s="10">
@@ -9555,7 +9753,7 @@
         <f>W18/W3</f>
         <v>-0.26234628208595223</v>
       </c>
-      <c r="X24" s="256">
+      <c r="X24" s="254">
         <f t="shared" ref="X24:AK24" si="75">X18/X3</f>
         <v>-0.42007242976793363</v>
       </c>
@@ -9675,16 +9873,16 @@
         <f t="shared" ref="M25:N25" si="79">M17/M16</f>
         <v>-1.1673022715967497E-3</v>
       </c>
-      <c r="N25" s="256">
+      <c r="N25" s="254">
         <f t="shared" si="79"/>
         <v>-1.1107141246622243E-2</v>
       </c>
-      <c r="O25" s="209"/>
+      <c r="O25" s="208"/>
       <c r="Q25" s="74">
         <f>Q17/Q16</f>
         <v>-5.8143950486894873E-3</v>
       </c>
-      <c r="R25" s="168">
+      <c r="R25" s="167">
         <f>R17/R16</f>
         <v>-1.554111834331342E-3</v>
       </c>
@@ -9692,7 +9890,7 @@
         <f t="shared" ref="S25:T25" si="80">S17/S16</f>
         <v>-2.1744084525061108E-3</v>
       </c>
-      <c r="T25" s="301">
+      <c r="T25" s="299">
         <v>-1.209261242904384E-3</v>
       </c>
       <c r="V25" s="10">
@@ -9703,7 +9901,7 @@
         <f>W17/W16</f>
         <v>6.3516008018896014E-4</v>
       </c>
-      <c r="X25" s="256">
+      <c r="X25" s="254">
         <f t="shared" ref="X25:AK25" si="81">X17/X16</f>
         <v>-4.4144749214195516E-3</v>
       </c>
@@ -9777,11 +9975,11 @@
     </row>
     <row r="26" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="O26" s="211"/>
+      <c r="O26" s="210"/>
       <c r="Q26" s="71"/>
-      <c r="R26" s="167"/>
+      <c r="R26" s="166"/>
       <c r="S26" s="71"/>
-      <c r="T26" s="300"/>
+      <c r="T26" s="298"/>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
       <c r="AO26" s="38" t="s">
@@ -9845,14 +10043,14 @@
         <f t="shared" ref="N27" si="85">N3/M3-1</f>
         <v>0.11840094879922436</v>
       </c>
-      <c r="O27" s="209">
+      <c r="O27" s="208">
         <v>0.05</v>
       </c>
       <c r="Q27" s="74">
         <f>Q3/J3-1</f>
         <v>0.13622563817648281</v>
       </c>
-      <c r="R27" s="168">
+      <c r="R27" s="167">
         <f>R3/K3-1</f>
         <v>3.9857838081372554E-2</v>
       </c>
@@ -9860,13 +10058,13 @@
         <f>S3/L3-1</f>
         <v>7.6898615882423638E-2</v>
       </c>
-      <c r="T27" s="301">
+      <c r="T27" s="299">
         <v>-2.4222281558735514E-2</v>
       </c>
-      <c r="V27" s="202" t="s">
-        <v>33</v>
-      </c>
-      <c r="W27" s="202" t="s">
+      <c r="V27" s="201" t="s">
+        <v>33</v>
+      </c>
+      <c r="W27" s="201" t="s">
         <v>33</v>
       </c>
       <c r="AO27" s="130" t="s">
@@ -9925,7 +10123,7 @@
         <f t="shared" ref="N28:O28" si="88">N3/J3-1</f>
         <v>1.7995003243847618E-2</v>
       </c>
-      <c r="O28" s="210">
+      <c r="O28" s="209">
         <f t="shared" si="88"/>
         <v>0.13184829111543861</v>
       </c>
@@ -9933,7 +10131,7 @@
         <f>Q3/G3-1</f>
         <v>0.66999999999999993</v>
       </c>
-      <c r="R28" s="169">
+      <c r="R28" s="168">
         <f>R3/H3-1</f>
         <v>0.22999999999999998</v>
       </c>
@@ -9941,7 +10139,7 @@
         <f>S3/I3-1</f>
         <v>0.25000000000000022</v>
       </c>
-      <c r="T28" s="302">
+      <c r="T28" s="300">
         <v>9.2268390154878199E-2</v>
       </c>
       <c r="V28" s="13"/>
@@ -9949,7 +10147,7 @@
         <f>W3/V3-1</f>
         <v>1.0772942519902369</v>
       </c>
-      <c r="X28" s="257">
+      <c r="X28" s="255">
         <f t="shared" ref="X28:AK28" si="89">X3/W3-1</f>
         <v>0.15937579623808262</v>
       </c>
@@ -10034,14 +10232,14 @@
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
-      <c r="O29" s="210"/>
+      <c r="O29" s="209"/>
       <c r="Q29" s="75"/>
-      <c r="R29" s="169"/>
-      <c r="S29" s="197"/>
-      <c r="T29" s="302"/>
+      <c r="R29" s="168"/>
+      <c r="S29" s="196"/>
+      <c r="T29" s="300"/>
       <c r="V29" s="13"/>
       <c r="W29" s="13"/>
-      <c r="X29" s="257"/>
+      <c r="X29" s="255"/>
       <c r="Y29" s="113"/>
       <c r="Z29" s="13"/>
       <c r="AA29" s="13"/>
@@ -10058,85 +10256,87 @@
       <c r="AL29" s="13"/>
       <c r="AM29" s="13"/>
     </row>
-    <row r="30" spans="2:78" s="189" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="189" t="s">
+    <row r="30" spans="2:78" s="188" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30" s="188" t="s">
         <v>216</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="190">
+      <c r="D30" s="189">
         <f t="shared" ref="D30:K30" si="91">D8/C8-1</f>
         <v>-0.18539132546702008</v>
       </c>
-      <c r="E30" s="190">
+      <c r="E30" s="189">
         <f t="shared" si="91"/>
         <v>0.28470272553355347</v>
       </c>
-      <c r="F30" s="190">
+      <c r="F30" s="189">
         <f t="shared" si="91"/>
         <v>0.16165777055774733</v>
       </c>
-      <c r="G30" s="190">
+      <c r="G30" s="189">
         <f t="shared" si="91"/>
         <v>0.60893668736577489</v>
       </c>
-      <c r="H30" s="190">
+      <c r="H30" s="189">
         <f t="shared" si="91"/>
         <v>0.29079922188651119</v>
       </c>
-      <c r="I30" s="190">
+      <c r="I30" s="189">
         <f t="shared" si="91"/>
         <v>0.10819411934459877</v>
       </c>
-      <c r="J30" s="190">
+      <c r="J30" s="189">
         <f t="shared" si="91"/>
         <v>0.25552461210170341</v>
       </c>
-      <c r="K30" s="190">
+      <c r="K30" s="189">
         <f t="shared" si="91"/>
         <v>2.4151639108140888E-2</v>
       </c>
-      <c r="L30" s="190">
+      <c r="L30" s="189">
         <f>L8/K8-1</f>
         <v>0.19123884744771091</v>
       </c>
-      <c r="M30" s="190">
+      <c r="M30" s="189">
         <f t="shared" ref="M30" si="92">M8/L8-1</f>
         <v>0.11236464438011495</v>
       </c>
-      <c r="N30" s="190">
+      <c r="N30" s="189">
         <f t="shared" ref="N30" si="93">N8/M8-1</f>
         <v>5.4578414016497545E-2</v>
       </c>
-      <c r="O30" s="209"/>
-      <c r="Q30" s="192"/>
-      <c r="R30" s="193"/>
-      <c r="S30" s="198">
+      <c r="O30" s="208">
+        <v>0.03</v>
+      </c>
+      <c r="Q30" s="191"/>
+      <c r="R30" s="192"/>
+      <c r="S30" s="197">
         <f>S8/L8-1</f>
         <v>-0.14026981054699483</v>
       </c>
-      <c r="T30" s="303">
+      <c r="T30" s="301">
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="V30" s="190"/>
-      <c r="W30" s="190"/>
-      <c r="X30" s="258"/>
-      <c r="Y30" s="191"/>
-      <c r="Z30" s="190"/>
-      <c r="AA30" s="190"/>
-      <c r="AB30" s="190"/>
-      <c r="AC30" s="190"/>
-      <c r="AD30" s="190"/>
-      <c r="AE30" s="190"/>
-      <c r="AF30" s="190"/>
-      <c r="AG30" s="190"/>
-      <c r="AH30" s="190"/>
-      <c r="AI30" s="190"/>
-      <c r="AJ30" s="190"/>
-      <c r="AK30" s="190"/>
-      <c r="AL30" s="190"/>
-      <c r="AM30" s="190"/>
+      <c r="V30" s="189"/>
+      <c r="W30" s="189"/>
+      <c r="X30" s="256"/>
+      <c r="Y30" s="190"/>
+      <c r="Z30" s="189"/>
+      <c r="AA30" s="189"/>
+      <c r="AB30" s="189"/>
+      <c r="AC30" s="189"/>
+      <c r="AD30" s="189"/>
+      <c r="AE30" s="189"/>
+      <c r="AF30" s="189"/>
+      <c r="AG30" s="189"/>
+      <c r="AH30" s="189"/>
+      <c r="AI30" s="189"/>
+      <c r="AJ30" s="189"/>
+      <c r="AK30" s="189"/>
+      <c r="AL30" s="189"/>
+      <c r="AM30" s="189"/>
     </row>
     <row r="31" spans="2:78" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
@@ -10186,14 +10386,14 @@
         <f t="shared" ref="N31" si="96">N8/J8-1</f>
         <v>0.43116321945036606</v>
       </c>
-      <c r="O31" s="210"/>
+      <c r="O31" s="209"/>
       <c r="Q31" s="75"/>
-      <c r="R31" s="169"/>
-      <c r="S31" s="197">
+      <c r="R31" s="168"/>
+      <c r="S31" s="196">
         <f>S8/I8-1</f>
         <v>0.31689309362363915</v>
       </c>
-      <c r="T31" s="304">
+      <c r="T31" s="302">
         <v>0.46566272973440115</v>
       </c>
       <c r="V31" s="13"/>
@@ -10201,7 +10401,7 @@
         <f>W8/V8-1</f>
         <v>1.6470687523891319</v>
       </c>
-      <c r="X31" s="257"/>
+      <c r="X31" s="255"/>
       <c r="Y31" s="113"/>
       <c r="Z31" s="13"/>
       <c r="AA31" s="13"/>
@@ -10230,15 +10430,15 @@
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
-      <c r="N32" s="257"/>
-      <c r="O32" s="210"/>
+      <c r="N32" s="255"/>
+      <c r="O32" s="209"/>
       <c r="Q32" s="13"/>
-      <c r="R32" s="169"/>
+      <c r="R32" s="168"/>
       <c r="S32" s="75"/>
-      <c r="T32" s="302"/>
+      <c r="T32" s="300"/>
       <c r="V32" s="13"/>
       <c r="W32" s="13"/>
-      <c r="X32" s="257"/>
+      <c r="X32" s="255"/>
       <c r="Y32" s="113"/>
       <c r="Z32" s="13"/>
       <c r="AA32" s="13"/>
@@ -10272,15 +10472,15 @@
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
-      <c r="N33" s="257"/>
-      <c r="O33" s="210"/>
+      <c r="N33" s="255"/>
+      <c r="O33" s="209"/>
       <c r="Q33" s="13"/>
-      <c r="R33" s="169"/>
+      <c r="R33" s="168"/>
       <c r="S33" s="75"/>
-      <c r="T33" s="302"/>
+      <c r="T33" s="300"/>
       <c r="V33" s="13"/>
       <c r="W33" s="13"/>
-      <c r="X33" s="257"/>
+      <c r="X33" s="255"/>
       <c r="Y33" s="113"/>
       <c r="Z33" s="13"/>
       <c r="AA33" s="13"/>
@@ -10337,20 +10537,20 @@
       <c r="M34" s="4">
         <v>701.7</v>
       </c>
-      <c r="N34" s="259">
+      <c r="N34" s="257">
         <v>899.4</v>
       </c>
-      <c r="O34" s="210"/>
+      <c r="O34" s="209"/>
       <c r="Q34" s="13"/>
-      <c r="R34" s="170">
+      <c r="R34" s="169">
         <f>K34*(1+R35)</f>
         <v>634.36203</v>
       </c>
-      <c r="S34" s="199">
+      <c r="S34" s="198">
         <f>R34*(1+S35)</f>
         <v>637.53384014999995</v>
       </c>
-      <c r="T34" s="305">
+      <c r="T34" s="303">
         <v>757.83600000000013</v>
       </c>
       <c r="V34" s="3">
@@ -10429,28 +10629,28 @@
         <f t="shared" ref="M35" si="98">M34/L34-1</f>
         <v>9.6574162918696915E-2</v>
       </c>
-      <c r="N35" s="257">
+      <c r="N35" s="255">
         <f>N34/M34-1</f>
         <v>0.28174433518597675</v>
       </c>
-      <c r="O35" s="210"/>
+      <c r="O35" s="209"/>
       <c r="Q35" s="13"/>
-      <c r="R35" s="169">
+      <c r="R35" s="168">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="S35" s="75">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="T35" s="302">
+      <c r="T35" s="300">
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="V35" s="196" t="s">
-        <v>33</v>
-      </c>
-      <c r="W35" s="196" t="s">
-        <v>33</v>
-      </c>
-      <c r="X35" s="196" t="s">
+      <c r="V35" s="195" t="s">
+        <v>33</v>
+      </c>
+      <c r="W35" s="195" t="s">
+        <v>33</v>
+      </c>
+      <c r="X35" s="195" t="s">
         <v>33</v>
       </c>
       <c r="Y35" s="113"/>
@@ -10515,19 +10715,19 @@
         <f t="shared" ref="M36" si="100">M34/I34-1</f>
         <v>0.10013122557158383</v>
       </c>
-      <c r="N36" s="260">
+      <c r="N36" s="258">
         <f>N34/J34-1</f>
         <v>0.16787600828966021</v>
       </c>
-      <c r="R36" s="171">
+      <c r="R36" s="170">
         <f>R34/H34-1</f>
         <v>-4.6760188134880143E-2</v>
       </c>
-      <c r="S36" s="200">
+      <c r="S36" s="199">
         <f>S34/I34-1</f>
         <v>-4.6902535616688557E-4</v>
       </c>
-      <c r="T36" s="306">
+      <c r="T36" s="304">
         <v>-1.5945649746271773E-2</v>
       </c>
       <c r="W36" s="80">
@@ -10586,24 +10786,24 @@
         <f>3004.3</f>
         <v>3004.3</v>
       </c>
-      <c r="K39" s="153">
+      <c r="K39" s="152">
         <v>3132.9639999999999</v>
       </c>
-      <c r="L39" s="153">
+      <c r="L39" s="152">
         <v>3075.4749999999999</v>
       </c>
-      <c r="M39" s="153">
+      <c r="M39" s="152">
         <v>3021.5070000000001</v>
       </c>
-      <c r="N39" s="249">
+      <c r="N39" s="247">
         <v>2977.4740000000002</v>
       </c>
-      <c r="O39" s="283"/>
+      <c r="O39" s="281"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="13"/>
       <c r="S39" s="2"/>
-      <c r="X39" s="268"/>
-      <c r="Y39" s="274"/>
+      <c r="X39" s="265"/>
+      <c r="Y39" s="271"/>
     </row>
     <row r="40" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
@@ -10642,7 +10842,7 @@
       <c r="M40" s="76">
         <v>185.83099999999999</v>
       </c>
-      <c r="N40" s="250">
+      <c r="N40" s="248">
         <v>379.35300000000001</v>
       </c>
     </row>
@@ -10683,7 +10883,7 @@
       <c r="M41" s="76">
         <v>72.924999999999997</v>
       </c>
-      <c r="N41" s="250">
+      <c r="N41" s="248">
         <v>61.640999999999998</v>
       </c>
     </row>
@@ -10724,7 +10924,7 @@
       <c r="M42" s="76">
         <v>387.81700000000001</v>
       </c>
-      <c r="N42" s="250">
+      <c r="N42" s="248">
         <v>420.13600000000002</v>
       </c>
     </row>
@@ -10765,7 +10965,7 @@
       <c r="M43" s="76">
         <v>525.928</v>
       </c>
-      <c r="N43" s="250">
+      <c r="N43" s="248">
         <v>592.346</v>
       </c>
     </row>
@@ -10806,7 +11006,7 @@
       <c r="M44" s="76">
         <v>452.85199999999998</v>
       </c>
-      <c r="N44" s="250">
+      <c r="N44" s="248">
         <v>526.03</v>
       </c>
     </row>
@@ -10847,7 +11047,7 @@
       <c r="M45" s="76">
         <v>204.92099999999999</v>
       </c>
-      <c r="N45" s="250">
+      <c r="N45" s="248">
         <v>225.13200000000001</v>
       </c>
     </row>
@@ -10896,7 +11096,7 @@
         <f>53.655+130.452</f>
         <v>184.107</v>
       </c>
-      <c r="N46" s="250">
+      <c r="N46" s="248">
         <f>134.335+54.717</f>
         <v>189.05200000000002</v>
       </c>
@@ -10938,7 +11138,7 @@
       <c r="M47" s="76">
         <v>2.4350000000000001</v>
       </c>
-      <c r="N47" s="250">
+      <c r="N47" s="248">
         <v>4.3230000000000004</v>
       </c>
     </row>
@@ -11036,7 +11236,7 @@
       <c r="M50" s="76">
         <v>45.098999999999997</v>
       </c>
-      <c r="N50" s="250">
+      <c r="N50" s="248">
         <v>71.182000000000002</v>
       </c>
     </row>
@@ -11077,7 +11277,7 @@
       <c r="M51" s="76">
         <v>273.83199999999999</v>
       </c>
-      <c r="N51" s="250">
+      <c r="N51" s="248">
         <v>236.006</v>
       </c>
     </row>
@@ -11118,7 +11318,7 @@
       <c r="M52" s="76">
         <v>168.36699999999999</v>
       </c>
-      <c r="N52" s="250">
+      <c r="N52" s="248">
         <v>231.70400000000001</v>
       </c>
     </row>
@@ -11159,7 +11359,7 @@
       <c r="M53" s="76">
         <v>1750.86</v>
       </c>
-      <c r="N53" s="250">
+      <c r="N53" s="248">
         <v>1941.943</v>
       </c>
       <c r="Q53" s="51"/>
@@ -11202,7 +11402,7 @@
       <c r="M54" s="76">
         <v>960.92399999999998</v>
       </c>
-      <c r="N54" s="250">
+      <c r="N54" s="248">
         <v>1095.2909999999999</v>
       </c>
     </row>
@@ -11243,7 +11443,7 @@
       <c r="M55" s="76">
         <v>425.97300000000001</v>
       </c>
-      <c r="N55" s="250">
+      <c r="N55" s="248">
         <v>494.59</v>
       </c>
     </row>
@@ -11275,24 +11475,24 @@
       <c r="J56" s="4">
         <v>987.72299999999996</v>
       </c>
-      <c r="K56" s="153">
+      <c r="K56" s="152">
         <v>988.03399999999999</v>
       </c>
-      <c r="L56" s="153">
+      <c r="L56" s="152">
         <v>988.34500000000003</v>
       </c>
-      <c r="M56" s="153">
+      <c r="M56" s="152">
         <v>988.66300000000001</v>
       </c>
-      <c r="N56" s="249">
+      <c r="N56" s="247">
         <v>988.98400000000004</v>
       </c>
-      <c r="O56" s="283"/>
+      <c r="O56" s="281"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
-      <c r="X56" s="268"/>
-      <c r="Y56" s="274"/>
+      <c r="X56" s="265"/>
+      <c r="Y56" s="271"/>
     </row>
     <row r="57" spans="2:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B57" s="11" t="s">
@@ -11331,7 +11531,7 @@
       <c r="M57" s="76">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="N57" s="250">
+      <c r="N57" s="248">
         <v>10.752000000000001</v>
       </c>
     </row>
@@ -11435,7 +11635,7 @@
       <c r="M60" s="76">
         <v>424.59300000000002</v>
       </c>
-      <c r="N60" s="250">
+      <c r="N60" s="248">
         <v>305.03500000000003</v>
       </c>
     </row>
@@ -11492,7 +11692,7 @@
       <c r="F62" s="5"/>
     </row>
     <row r="63" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B63" s="172" t="s">
+      <c r="B63" s="171" t="s">
         <v>199</v>
       </c>
       <c r="F63" s="5">
@@ -11532,8 +11732,8 @@
         <v>305.03499999999894</v>
       </c>
     </row>
-    <row r="64" spans="2:25" s="184" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B64" s="184" t="s">
+    <row r="64" spans="2:25" s="183" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B64" s="183" t="s">
         <v>200</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -11545,109 +11745,109 @@
       <c r="E64" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F64" s="185">
+      <c r="F64" s="184">
         <f t="shared" ref="F64:K64" si="106">F63/F20</f>
         <v>0.576205873460791</v>
       </c>
-      <c r="G64" s="185">
+      <c r="G64" s="184">
         <f t="shared" si="106"/>
         <v>2.0324522286428865</v>
       </c>
-      <c r="H64" s="185">
+      <c r="H64" s="184">
         <f t="shared" si="106"/>
         <v>0.94878172588832532</v>
       </c>
-      <c r="I64" s="185">
+      <c r="I64" s="184">
         <f t="shared" si="106"/>
         <v>1.0519141148607816</v>
       </c>
-      <c r="J64" s="185">
+      <c r="J64" s="184">
         <f t="shared" si="106"/>
         <v>1.0195860954198812</v>
       </c>
-      <c r="K64" s="185">
+      <c r="K64" s="184">
         <f t="shared" si="106"/>
         <v>0.96421538058964962</v>
       </c>
-      <c r="L64" s="185">
+      <c r="L64" s="184">
         <f>L63/L20</f>
         <v>0.92874198556054144</v>
       </c>
-      <c r="M64" s="185">
+      <c r="M64" s="184">
         <f t="shared" ref="M64:N64" si="107">M63/M20</f>
         <v>0.71028256261929823</v>
       </c>
-      <c r="N64" s="185">
+      <c r="N64" s="184">
         <f t="shared" si="107"/>
         <v>0.50682136513701537</v>
       </c>
       <c r="O64" s="133"/>
-      <c r="Q64" s="185"/>
-      <c r="R64" s="185"/>
-      <c r="S64" s="185"/>
-      <c r="X64" s="269"/>
-      <c r="Y64" s="275"/>
-    </row>
-    <row r="65" spans="2:25" s="184" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q64" s="184"/>
+      <c r="R64" s="184"/>
+      <c r="S64" s="184"/>
+      <c r="X64" s="266"/>
+      <c r="Y64" s="272"/>
+    </row>
+    <row r="65" spans="2:25" s="183" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
-      <c r="F65" s="185"/>
-      <c r="G65" s="185"/>
-      <c r="H65" s="185"/>
-      <c r="I65" s="185"/>
-      <c r="J65" s="185"/>
-      <c r="K65" s="185"/>
-      <c r="L65" s="185"/>
-      <c r="M65" s="185"/>
-      <c r="N65" s="185"/>
+      <c r="F65" s="184"/>
+      <c r="G65" s="184"/>
+      <c r="H65" s="184"/>
+      <c r="I65" s="184"/>
+      <c r="J65" s="184"/>
+      <c r="K65" s="184"/>
+      <c r="L65" s="184"/>
+      <c r="M65" s="184"/>
+      <c r="N65" s="184"/>
       <c r="O65" s="133"/>
-      <c r="Q65" s="185"/>
-      <c r="R65" s="185"/>
-      <c r="S65" s="185"/>
-      <c r="X65" s="269"/>
-      <c r="Y65" s="275"/>
+      <c r="Q65" s="184"/>
+      <c r="R65" s="184"/>
+      <c r="S65" s="184"/>
+      <c r="X65" s="266"/>
+      <c r="Y65" s="272"/>
     </row>
     <row r="66" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="187"/>
-      <c r="D66" s="187"/>
-      <c r="E66" s="187"/>
-      <c r="F66" s="188">
+      <c r="C66" s="186"/>
+      <c r="D66" s="186"/>
+      <c r="E66" s="186"/>
+      <c r="F66" s="187">
         <f t="shared" ref="F66:K66" si="108">F39</f>
         <v>893.94299999999998</v>
       </c>
-      <c r="G66" s="188">
+      <c r="G66" s="187">
         <f t="shared" si="108"/>
         <v>1600.53</v>
       </c>
-      <c r="H66" s="188">
+      <c r="H66" s="187">
         <f t="shared" si="108"/>
         <v>1780.2619999999999</v>
       </c>
-      <c r="I66" s="188">
+      <c r="I66" s="187">
         <f t="shared" si="108"/>
         <v>1925.559</v>
       </c>
-      <c r="J66" s="188">
+      <c r="J66" s="187">
         <f t="shared" si="108"/>
         <v>3004.3</v>
       </c>
-      <c r="K66" s="188">
+      <c r="K66" s="187">
         <f t="shared" si="108"/>
         <v>3132.9639999999999</v>
       </c>
-      <c r="L66" s="188">
+      <c r="L66" s="187">
         <f>L39</f>
         <v>3075.4749999999999</v>
       </c>
-      <c r="M66" s="188">
+      <c r="M66" s="187">
         <f t="shared" ref="M66:N66" si="109">M39</f>
         <v>3021.5070000000001</v>
       </c>
-      <c r="N66" s="188">
+      <c r="N66" s="187">
         <f t="shared" si="109"/>
         <v>2977.4740000000002</v>
       </c>
@@ -11655,49 +11855,49 @@
       <c r="Q66" s="55"/>
       <c r="R66" s="55"/>
       <c r="S66" s="55"/>
-      <c r="X66" s="270"/>
+      <c r="X66" s="267"/>
       <c r="Y66" s="133"/>
     </row>
     <row r="67" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C67" s="187"/>
-      <c r="D67" s="187"/>
-      <c r="E67" s="187"/>
-      <c r="F67" s="188">
+      <c r="C67" s="186"/>
+      <c r="D67" s="186"/>
+      <c r="E67" s="186"/>
+      <c r="F67" s="187">
         <f t="shared" ref="F67:K67" si="110">F56</f>
         <v>0</v>
       </c>
-      <c r="G67" s="188">
+      <c r="G67" s="187">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="H67" s="188">
+      <c r="H67" s="187">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="I67" s="188">
+      <c r="I67" s="187">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="J67" s="188">
+      <c r="J67" s="187">
         <f t="shared" si="110"/>
         <v>987.72299999999996</v>
       </c>
-      <c r="K67" s="188">
+      <c r="K67" s="187">
         <f t="shared" si="110"/>
         <v>988.03399999999999</v>
       </c>
-      <c r="L67" s="188">
+      <c r="L67" s="187">
         <f>L56</f>
         <v>988.34500000000003</v>
       </c>
-      <c r="M67" s="188">
+      <c r="M67" s="187">
         <f t="shared" ref="M67:N67" si="111">M56</f>
         <v>988.66300000000001</v>
       </c>
-      <c r="N67" s="188">
+      <c r="N67" s="187">
         <f t="shared" si="111"/>
         <v>988.98400000000004</v>
       </c>
@@ -11705,11 +11905,11 @@
       <c r="Q67" s="55"/>
       <c r="R67" s="55"/>
       <c r="S67" s="55"/>
-      <c r="X67" s="270"/>
+      <c r="X67" s="267"/>
       <c r="Y67" s="133"/>
     </row>
     <row r="68" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B68" s="186" t="s">
+      <c r="B68" s="185" t="s">
         <v>7</v>
       </c>
       <c r="F68" s="5">
@@ -11753,9 +11953,9 @@
       <c r="B70" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C70" s="187"/>
-      <c r="D70" s="187"/>
-      <c r="E70" s="187"/>
+      <c r="C70" s="186"/>
+      <c r="D70" s="186"/>
+      <c r="E70" s="186"/>
       <c r="G70" s="55">
         <v>64.83</v>
       </c>
@@ -11777,53 +11977,53 @@
       <c r="M70" s="55">
         <v>35.840000000000003</v>
       </c>
-      <c r="N70" s="261">
+      <c r="N70" s="259">
         <v>28.37</v>
       </c>
       <c r="O70" s="133"/>
       <c r="Q70" s="55"/>
       <c r="R70" s="55"/>
       <c r="S70" s="55"/>
-      <c r="X70" s="270"/>
+      <c r="X70" s="267"/>
       <c r="Y70" s="133"/>
     </row>
     <row r="71" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="187"/>
-      <c r="D71" s="187"/>
-      <c r="E71" s="187"/>
+      <c r="C71" s="186"/>
+      <c r="D71" s="186"/>
+      <c r="E71" s="186"/>
       <c r="F71" s="55"/>
-      <c r="G71" s="188">
+      <c r="G71" s="187">
         <f t="shared" ref="G71:I71" si="114">G70*G20</f>
         <v>18870.327420000001</v>
       </c>
-      <c r="H71" s="188">
+      <c r="H71" s="187">
         <f t="shared" si="114"/>
         <v>51405.574000000001</v>
       </c>
-      <c r="I71" s="188">
+      <c r="I71" s="187">
         <f t="shared" si="114"/>
         <v>43511.662599999996</v>
       </c>
-      <c r="J71" s="188">
+      <c r="J71" s="187">
         <f>J70*J20</f>
         <v>59991.150599999994</v>
       </c>
-      <c r="K71" s="188">
+      <c r="K71" s="187">
         <f t="shared" ref="K71:L71" si="115">K70*K20</f>
         <v>27213.211039999998</v>
       </c>
-      <c r="L71" s="188">
+      <c r="L71" s="187">
         <f t="shared" si="115"/>
         <v>19516.47408</v>
       </c>
-      <c r="M71" s="188">
+      <c r="M71" s="187">
         <f t="shared" ref="M71:N71" si="116">M70*M20</f>
         <v>21424.399360000003</v>
       </c>
-      <c r="N71" s="188">
+      <c r="N71" s="187">
         <f t="shared" si="116"/>
         <v>17074.739830000002</v>
       </c>
@@ -11831,11 +12031,11 @@
       <c r="Q71" s="55"/>
       <c r="R71" s="55"/>
       <c r="S71" s="55"/>
-      <c r="X71" s="270"/>
+      <c r="X71" s="267"/>
       <c r="Y71" s="133"/>
     </row>
     <row r="72" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B72" s="186" t="s">
+      <c r="B72" s="185" t="s">
         <v>5</v>
       </c>
       <c r="F72" s="5">
@@ -11876,156 +12076,156 @@
       </c>
     </row>
     <row r="74" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B74" s="186" t="s">
+      <c r="B74" s="185" t="s">
         <v>204</v>
       </c>
-      <c r="G74" s="194">
+      <c r="G74" s="193">
         <f t="shared" ref="G74:I74" si="119">G70/G64</f>
         <v>31.897428675747243</v>
       </c>
-      <c r="H74" s="194">
+      <c r="H74" s="193">
         <f t="shared" si="119"/>
         <v>94.837408378363875</v>
       </c>
-      <c r="I74" s="194">
+      <c r="I74" s="193">
         <f t="shared" si="119"/>
         <v>71.82145284741128</v>
       </c>
-      <c r="J74" s="194">
+      <c r="J74" s="193">
         <f>J70/J64</f>
         <v>101.1783119281527</v>
       </c>
-      <c r="K74" s="194">
+      <c r="K74" s="193">
         <f t="shared" ref="K74:L74" si="120">K70/K64</f>
         <v>47.956090444982024</v>
       </c>
-      <c r="L74" s="194">
+      <c r="L74" s="193">
         <f t="shared" si="120"/>
         <v>35.381193604774282</v>
       </c>
-      <c r="M74" s="194">
+      <c r="M74" s="193">
         <f t="shared" ref="M74:N74" si="121">M70/M64</f>
         <v>50.45879187549442</v>
       </c>
-      <c r="N74" s="194">
+      <c r="N74" s="193">
         <f t="shared" si="121"/>
         <v>55.976330027701934</v>
       </c>
     </row>
     <row r="75" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B75" s="186" t="s">
+      <c r="B75" s="185" t="s">
         <v>213</v>
       </c>
-      <c r="G75" s="194">
+      <c r="G75" s="193">
         <f t="shared" ref="G75" si="122">G71/SUM(D3:G3)</f>
         <v>16.419103099215079</v>
       </c>
-      <c r="H75" s="194">
+      <c r="H75" s="193">
         <f t="shared" ref="H75" si="123">H71/SUM(E3:H3)</f>
         <v>36.639779500911978</v>
       </c>
-      <c r="I75" s="194">
+      <c r="I75" s="193">
         <f t="shared" ref="I75" si="124">I71/SUM(F3:I3)</f>
         <v>26.205198922441955</v>
       </c>
-      <c r="J75" s="194">
+      <c r="J75" s="193">
         <f t="shared" ref="J75:K75" si="125">J71/SUM(G3:J3)</f>
         <v>31.25872473727074</v>
       </c>
-      <c r="K75" s="194">
+      <c r="K75" s="193">
         <f t="shared" si="125"/>
         <v>13.150678086094159</v>
       </c>
-      <c r="L75" s="194">
+      <c r="L75" s="193">
         <f>L71/SUM(I3:L3)</f>
         <v>8.8452081220206615</v>
       </c>
-      <c r="M75" s="194">
+      <c r="M75" s="193">
         <f t="shared" ref="M75" si="126">M71/SUM(J3:M3)</f>
         <v>9.6732142474976506</v>
       </c>
-      <c r="N75" s="194">
+      <c r="N75" s="193">
         <f>N71/SUM($K$3:$N$3)</f>
         <v>7.6738610288658444</v>
       </c>
     </row>
     <row r="76" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B76" s="201" t="s">
+      <c r="B76" s="200" t="s">
         <v>218</v>
       </c>
-      <c r="G76" s="194">
+      <c r="G76" s="193">
         <f t="shared" ref="G76" si="127">G72/SUM(D3:G3)</f>
         <v>15.026479298976499</v>
       </c>
-      <c r="H76" s="194">
+      <c r="H76" s="193">
         <f t="shared" ref="H76" si="128">H72/SUM(E3:H3)</f>
         <v>35.370881946458979</v>
       </c>
-      <c r="I76" s="194">
+      <c r="I76" s="193">
         <f t="shared" ref="I76" si="129">I72/SUM(F3:I3)</f>
         <v>25.045517733153215</v>
       </c>
-      <c r="J76" s="194">
+      <c r="J76" s="193">
         <f t="shared" ref="J76:K76" si="130">J72/SUM(G3:J3)</f>
         <v>30.207976006431906</v>
       </c>
-      <c r="K76" s="194">
+      <c r="K76" s="193">
         <f t="shared" si="130"/>
         <v>12.114149030197565</v>
       </c>
-      <c r="L76" s="194">
+      <c r="L76" s="193">
         <f>L72/SUM(I3:L3)</f>
         <v>7.8992842244949566</v>
       </c>
-      <c r="M76" s="194">
+      <c r="M76" s="193">
         <f t="shared" ref="M76" si="131">M72/SUM(J3:M3)</f>
         <v>8.7553758888431883</v>
       </c>
-      <c r="N76" s="194">
+      <c r="N76" s="193">
         <f t="shared" ref="N76:N77" si="132">N72/SUM($K$3:$N$3)</f>
         <v>6.7801785441418918</v>
       </c>
     </row>
     <row r="77" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B77" s="186" t="s">
+      <c r="B77" s="185" t="s">
         <v>214</v>
       </c>
-      <c r="G77" s="194">
+      <c r="G77" s="193">
         <f t="shared" ref="G77:L77" si="133">G70/SUM(D19:G19)</f>
         <v>-44.675361443232362</v>
       </c>
-      <c r="H77" s="194">
+      <c r="H77" s="193">
         <f t="shared" si="133"/>
         <v>-69.182197616608946</v>
       </c>
-      <c r="I77" s="194">
+      <c r="I77" s="193">
         <f t="shared" si="133"/>
         <v>-65.015776279415363</v>
       </c>
-      <c r="J77" s="194">
+      <c r="J77" s="193">
         <f t="shared" si="133"/>
         <v>-93.354276916433804</v>
       </c>
-      <c r="K77" s="194">
+      <c r="K77" s="193">
         <f t="shared" si="133"/>
         <v>-50.661466911577669</v>
       </c>
-      <c r="L77" s="194">
+      <c r="L77" s="193">
         <f t="shared" si="133"/>
         <v>-34.073155589366579</v>
       </c>
-      <c r="M77" s="194">
+      <c r="M77" s="193">
         <f>M70/SUM(J19:M19)</f>
         <v>-26.838223427392109</v>
       </c>
-      <c r="N77" s="194">
+      <c r="N77" s="193">
         <f>N70/SUM($K$19:$N$19)</f>
         <v>-18.110490695810771</v>
       </c>
-      <c r="P77" s="214"/>
+      <c r="P77" s="213"/>
     </row>
     <row r="78" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B78" s="214" t="s">
+      <c r="B78" s="213" t="s">
         <v>253</v>
       </c>
       <c r="G78" s="80">
@@ -12060,10 +12260,10 @@
         <f>SUM(K12:N12)/(N48-SUM(N50:N53))</f>
         <v>-0.31913473536715303</v>
       </c>
-      <c r="P78" s="214"/>
+      <c r="P78" s="213"/>
     </row>
     <row r="79" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B79" s="214"/>
+      <c r="B79" s="213"/>
       <c r="G79" s="80"/>
       <c r="H79" s="80"/>
       <c r="I79" s="80"/>
@@ -12071,10 +12271,10 @@
       <c r="K79" s="80"/>
       <c r="L79" s="80"/>
       <c r="M79" s="80"/>
-      <c r="P79" s="214"/>
+      <c r="P79" s="213"/>
     </row>
     <row r="80" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B80" s="214"/>
+      <c r="B80" s="213"/>
       <c r="G80" s="80"/>
       <c r="H80" s="80"/>
       <c r="I80" s="80"/>
@@ -12082,15 +12282,15 @@
       <c r="K80" s="80"/>
       <c r="L80" s="80"/>
       <c r="M80" s="80"/>
-      <c r="P80" s="214"/>
+      <c r="P80" s="213"/>
     </row>
     <row r="81" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="216" t="s">
+      <c r="B81" s="215" t="s">
         <v>272</v>
       </c>
-      <c r="C81" s="217"/>
-      <c r="D81" s="217"/>
-      <c r="E81" s="217"/>
+      <c r="C81" s="216"/>
+      <c r="D81" s="216"/>
+      <c r="E81" s="216"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5">
@@ -12117,22 +12317,25 @@
         <f>M18</f>
         <v>-301.90200000000004</v>
       </c>
-      <c r="N81" s="250"/>
+      <c r="N81" s="5">
+        <f>N18</f>
+        <v>-291.48500000000001</v>
+      </c>
       <c r="O81" s="134"/>
-      <c r="P81" s="218"/>
+      <c r="P81" s="217"/>
       <c r="Q81" s="5"/>
       <c r="R81" s="5"/>
       <c r="S81" s="5"/>
-      <c r="X81" s="266"/>
+      <c r="X81" s="263"/>
       <c r="Y81" s="115"/>
     </row>
     <row r="82" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="216" t="s">
+      <c r="B82" s="215" t="s">
         <v>273</v>
       </c>
-      <c r="C82" s="217"/>
-      <c r="D82" s="217"/>
-      <c r="E82" s="217"/>
+      <c r="C82" s="216"/>
+      <c r="D82" s="216"/>
+      <c r="E82" s="216"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5">
@@ -12149,20 +12352,22 @@
       <c r="M82" s="5">
         <v>-301.90199999999999</v>
       </c>
-      <c r="N82" s="250"/>
+      <c r="N82" s="248">
+        <v>-291.48649999999998</v>
+      </c>
       <c r="O82" s="134"/>
-      <c r="P82" s="218"/>
+      <c r="P82" s="217"/>
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
       <c r="S82" s="5"/>
-      <c r="X82" s="266"/>
+      <c r="X82" s="263"/>
       <c r="Y82" s="115"/>
     </row>
     <row r="83" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="219"/>
-      <c r="C83" s="217"/>
-      <c r="D83" s="217"/>
-      <c r="E83" s="217"/>
+      <c r="B83" s="218"/>
+      <c r="C83" s="216"/>
+      <c r="D83" s="216"/>
+      <c r="E83" s="216"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
@@ -12171,21 +12376,21 @@
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
-      <c r="N83" s="250"/>
+      <c r="N83" s="248"/>
       <c r="O83" s="134"/>
       <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
       <c r="S83" s="5"/>
-      <c r="X83" s="266"/>
+      <c r="X83" s="263"/>
       <c r="Y83" s="115"/>
     </row>
     <row r="84" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="220" t="s">
+      <c r="B84" s="219" t="s">
         <v>252</v>
       </c>
-      <c r="C84" s="217"/>
-      <c r="D84" s="217"/>
-      <c r="E84" s="217"/>
+      <c r="C84" s="216"/>
+      <c r="D84" s="216"/>
+      <c r="E84" s="216"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
@@ -12194,21 +12399,21 @@
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
-      <c r="N84" s="250"/>
+      <c r="N84" s="248"/>
       <c r="O84" s="134"/>
       <c r="Q84" s="5"/>
       <c r="R84" s="5"/>
       <c r="S84" s="5"/>
-      <c r="X84" s="266"/>
+      <c r="X84" s="263"/>
       <c r="Y84" s="115"/>
     </row>
     <row r="85" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="221" t="s">
+      <c r="B85" s="220" t="s">
         <v>254</v>
       </c>
-      <c r="C85" s="217"/>
-      <c r="D85" s="217"/>
-      <c r="E85" s="217"/>
+      <c r="C85" s="216"/>
+      <c r="D85" s="216"/>
+      <c r="E85" s="216"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5">
@@ -12225,23 +12430,23 @@
       <c r="M85" s="5">
         <v>34.052</v>
       </c>
-      <c r="N85" s="250">
+      <c r="N85" s="248">
         <v>42.537999999999997</v>
       </c>
       <c r="O85" s="134"/>
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
       <c r="S85" s="5"/>
-      <c r="X85" s="266"/>
+      <c r="X85" s="263"/>
       <c r="Y85" s="115"/>
     </row>
     <row r="86" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="221" t="s">
+      <c r="B86" s="220" t="s">
         <v>255</v>
       </c>
-      <c r="C86" s="217"/>
-      <c r="D86" s="217"/>
-      <c r="E86" s="217"/>
+      <c r="C86" s="216"/>
+      <c r="D86" s="216"/>
+      <c r="E86" s="216"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5">
@@ -12258,23 +12463,23 @@
       <c r="M86" s="5">
         <v>161.35900000000001</v>
       </c>
-      <c r="N86" s="250">
+      <c r="N86" s="248">
         <v>169.45599999999999</v>
       </c>
       <c r="O86" s="134"/>
       <c r="Q86" s="5"/>
       <c r="R86" s="5"/>
       <c r="S86" s="5"/>
-      <c r="X86" s="266"/>
+      <c r="X86" s="263"/>
       <c r="Y86" s="115"/>
     </row>
     <row r="87" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="221" t="s">
+      <c r="B87" s="220" t="s">
         <v>257</v>
       </c>
-      <c r="C87" s="217"/>
-      <c r="D87" s="217"/>
-      <c r="E87" s="217"/>
+      <c r="C87" s="216"/>
+      <c r="D87" s="216"/>
+      <c r="E87" s="216"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
       <c r="H87" s="5">
@@ -12291,23 +12496,23 @@
       <c r="M87" s="5">
         <v>18.815000000000001</v>
       </c>
-      <c r="N87" s="250">
+      <c r="N87" s="248">
         <v>19.984999999999999</v>
       </c>
       <c r="O87" s="134"/>
       <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
       <c r="S87" s="5"/>
-      <c r="X87" s="266"/>
+      <c r="X87" s="263"/>
       <c r="Y87" s="115"/>
     </row>
     <row r="88" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="221" t="s">
+      <c r="B88" s="220" t="s">
         <v>256</v>
       </c>
-      <c r="C88" s="217"/>
-      <c r="D88" s="217"/>
-      <c r="E88" s="217"/>
+      <c r="C88" s="216"/>
+      <c r="D88" s="216"/>
+      <c r="E88" s="216"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5">
@@ -12324,23 +12529,23 @@
       <c r="M88" s="5">
         <v>-1.5149999999999999</v>
       </c>
-      <c r="N88" s="250">
+      <c r="N88" s="248">
         <v>0.39500000000000002</v>
       </c>
       <c r="O88" s="134"/>
       <c r="Q88" s="5"/>
       <c r="R88" s="5"/>
       <c r="S88" s="5"/>
-      <c r="X88" s="266"/>
+      <c r="X88" s="263"/>
       <c r="Y88" s="115"/>
     </row>
     <row r="89" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="221" t="s">
+      <c r="B89" s="220" t="s">
         <v>258</v>
       </c>
-      <c r="C89" s="217"/>
-      <c r="D89" s="217"/>
-      <c r="E89" s="217"/>
+      <c r="C89" s="216"/>
+      <c r="D89" s="216"/>
+      <c r="E89" s="216"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5">
@@ -12357,23 +12562,23 @@
       <c r="M89" s="5">
         <v>0.318</v>
       </c>
-      <c r="N89" s="250">
+      <c r="N89" s="248">
         <v>0.32100000000000001</v>
       </c>
       <c r="O89" s="134"/>
       <c r="Q89" s="5"/>
       <c r="R89" s="5"/>
       <c r="S89" s="5"/>
-      <c r="X89" s="266"/>
+      <c r="X89" s="263"/>
       <c r="Y89" s="115"/>
     </row>
     <row r="90" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="221" t="s">
+      <c r="B90" s="220" t="s">
         <v>259</v>
       </c>
-      <c r="C90" s="217"/>
-      <c r="D90" s="217"/>
-      <c r="E90" s="217"/>
+      <c r="C90" s="216"/>
+      <c r="D90" s="216"/>
+      <c r="E90" s="216"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="9">
@@ -12402,16 +12607,16 @@
       <c r="Q90" s="5"/>
       <c r="R90" s="5"/>
       <c r="S90" s="5"/>
-      <c r="X90" s="266"/>
+      <c r="X90" s="263"/>
       <c r="Y90" s="115"/>
     </row>
     <row r="91" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="216" t="s">
+      <c r="B91" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="C91" s="217"/>
-      <c r="D91" s="217"/>
-      <c r="E91" s="217"/>
+      <c r="C91" s="216"/>
+      <c r="D91" s="216"/>
+      <c r="E91" s="216"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5">
@@ -12428,23 +12633,23 @@
       <c r="M91" s="5">
         <v>1.63</v>
       </c>
-      <c r="N91" s="278">
+      <c r="N91" s="275">
         <v>-192.42699999999999</v>
       </c>
       <c r="O91" s="134"/>
       <c r="Q91" s="5"/>
       <c r="R91" s="5"/>
       <c r="S91" s="5"/>
-      <c r="X91" s="266"/>
+      <c r="X91" s="263"/>
       <c r="Y91" s="115"/>
     </row>
     <row r="92" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="216" t="s">
+      <c r="B92" s="215" t="s">
         <v>46</v>
       </c>
-      <c r="C92" s="217"/>
-      <c r="D92" s="217"/>
-      <c r="E92" s="217"/>
+      <c r="C92" s="216"/>
+      <c r="D92" s="216"/>
+      <c r="E92" s="216"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5">
@@ -12461,23 +12666,23 @@
       <c r="M92" s="5">
         <v>2.3039999999999998</v>
       </c>
-      <c r="N92" s="250">
+      <c r="N92" s="248">
         <v>18.632999999999999</v>
       </c>
       <c r="O92" s="134"/>
       <c r="Q92" s="5"/>
       <c r="R92" s="5"/>
       <c r="S92" s="5"/>
-      <c r="X92" s="266"/>
+      <c r="X92" s="263"/>
       <c r="Y92" s="115"/>
     </row>
     <row r="93" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="216" t="s">
+      <c r="B93" s="215" t="s">
         <v>274</v>
       </c>
-      <c r="C93" s="217"/>
-      <c r="D93" s="217"/>
-      <c r="E93" s="217"/>
+      <c r="C93" s="216"/>
+      <c r="D93" s="216"/>
+      <c r="E93" s="216"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5">
@@ -12494,23 +12699,23 @@
       <c r="M93" s="5">
         <v>-15.680999999999999</v>
       </c>
-      <c r="N93" s="250">
+      <c r="N93" s="248">
         <v>8.8350000000000009</v>
       </c>
       <c r="O93" s="134"/>
       <c r="Q93" s="5"/>
       <c r="R93" s="5"/>
       <c r="S93" s="5"/>
-      <c r="X93" s="266"/>
+      <c r="X93" s="263"/>
       <c r="Y93" s="115"/>
     </row>
     <row r="94" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="216" t="s">
+      <c r="B94" s="215" t="s">
         <v>275</v>
       </c>
-      <c r="C94" s="217"/>
-      <c r="D94" s="217"/>
-      <c r="E94" s="217"/>
+      <c r="C94" s="216"/>
+      <c r="D94" s="216"/>
+      <c r="E94" s="216"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5">
@@ -12527,23 +12732,23 @@
       <c r="M94" s="9">
         <v>-0.26600000000000001</v>
       </c>
-      <c r="N94" s="250">
+      <c r="N94" s="248">
         <v>-1.7190000000000001</v>
       </c>
       <c r="O94" s="134"/>
       <c r="Q94" s="5"/>
       <c r="R94" s="5"/>
       <c r="S94" s="5"/>
-      <c r="X94" s="266"/>
+      <c r="X94" s="263"/>
       <c r="Y94" s="115"/>
     </row>
     <row r="95" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="216" t="s">
+      <c r="B95" s="215" t="s">
         <v>48</v>
       </c>
-      <c r="C95" s="217"/>
-      <c r="D95" s="217"/>
-      <c r="E95" s="217"/>
+      <c r="C95" s="216"/>
+      <c r="D95" s="216"/>
+      <c r="E95" s="216"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5">
@@ -12560,23 +12765,23 @@
       <c r="M95" s="5">
         <v>21.175000000000001</v>
       </c>
-      <c r="N95" s="250">
+      <c r="N95" s="248">
         <v>63.337000000000003</v>
       </c>
       <c r="O95" s="134"/>
       <c r="Q95" s="5"/>
       <c r="R95" s="5"/>
       <c r="S95" s="5"/>
-      <c r="X95" s="266"/>
+      <c r="X95" s="263"/>
       <c r="Y95" s="115"/>
     </row>
     <row r="96" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="216" t="s">
+      <c r="B96" s="215" t="s">
         <v>276</v>
       </c>
-      <c r="C96" s="217"/>
-      <c r="D96" s="217"/>
-      <c r="E96" s="217"/>
+      <c r="C96" s="216"/>
+      <c r="D96" s="216"/>
+      <c r="E96" s="216"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5">
@@ -12593,23 +12798,23 @@
       <c r="M96" s="5">
         <v>2.6419999999999999</v>
       </c>
-      <c r="N96" s="250">
+      <c r="N96" s="248">
         <v>12.577999999999999</v>
       </c>
       <c r="O96" s="134"/>
       <c r="Q96" s="5"/>
       <c r="R96" s="5"/>
       <c r="S96" s="5"/>
-      <c r="X96" s="266"/>
+      <c r="X96" s="263"/>
       <c r="Y96" s="115"/>
     </row>
     <row r="97" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="216" t="s">
+      <c r="B97" s="215" t="s">
         <v>277</v>
       </c>
-      <c r="C97" s="217"/>
-      <c r="D97" s="217"/>
-      <c r="E97" s="217"/>
+      <c r="C97" s="216"/>
+      <c r="D97" s="216"/>
+      <c r="E97" s="216"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5">
@@ -12626,23 +12831,23 @@
       <c r="M97" s="9">
         <v>0</v>
       </c>
-      <c r="N97" s="250">
+      <c r="N97" s="248">
         <v>10.738</v>
       </c>
       <c r="O97" s="134"/>
       <c r="Q97" s="5"/>
       <c r="R97" s="5"/>
       <c r="S97" s="5"/>
-      <c r="X97" s="266"/>
+      <c r="X97" s="263"/>
       <c r="Y97" s="115"/>
     </row>
     <row r="98" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="216" t="s">
+      <c r="B98" s="215" t="s">
         <v>278</v>
       </c>
-      <c r="C98" s="217"/>
-      <c r="D98" s="217"/>
-      <c r="E98" s="217"/>
+      <c r="C98" s="216"/>
+      <c r="D98" s="216"/>
+      <c r="E98" s="216"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5">
@@ -12659,23 +12864,23 @@
       <c r="M98" s="5">
         <v>-11.259</v>
       </c>
-      <c r="N98" s="250">
+      <c r="N98" s="248">
         <v>14.885999999999999</v>
       </c>
       <c r="O98" s="134"/>
       <c r="Q98" s="5"/>
       <c r="R98" s="5"/>
       <c r="S98" s="5"/>
-      <c r="X98" s="266"/>
+      <c r="X98" s="263"/>
       <c r="Y98" s="115"/>
     </row>
     <row r="99" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="216" t="s">
+      <c r="B99" s="215" t="s">
         <v>279</v>
       </c>
-      <c r="C99" s="217"/>
-      <c r="D99" s="217"/>
-      <c r="E99" s="217"/>
+      <c r="C99" s="216"/>
+      <c r="D99" s="216"/>
+      <c r="E99" s="216"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5">
@@ -12692,23 +12897,23 @@
       <c r="M99" s="5">
         <v>187.99100000000001</v>
       </c>
-      <c r="N99" s="250">
+      <c r="N99" s="248">
         <v>325.45</v>
       </c>
       <c r="O99" s="134"/>
       <c r="Q99" s="5"/>
       <c r="R99" s="5"/>
       <c r="S99" s="5"/>
-      <c r="X99" s="266"/>
+      <c r="X99" s="263"/>
       <c r="Y99" s="115"/>
     </row>
     <row r="100" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="216" t="s">
+      <c r="B100" s="215" t="s">
         <v>280</v>
       </c>
-      <c r="C100" s="217"/>
-      <c r="D100" s="217"/>
-      <c r="E100" s="217"/>
+      <c r="C100" s="216"/>
+      <c r="D100" s="216"/>
+      <c r="E100" s="216"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5">
@@ -12725,23 +12930,23 @@
       <c r="M100" s="5">
         <v>-32.512999999999998</v>
       </c>
-      <c r="N100" s="250">
+      <c r="N100" s="248">
         <v>-52.53</v>
       </c>
       <c r="O100" s="134"/>
       <c r="Q100" s="5"/>
       <c r="R100" s="5"/>
       <c r="S100" s="5"/>
-      <c r="X100" s="266"/>
+      <c r="X100" s="263"/>
       <c r="Y100" s="115"/>
     </row>
     <row r="101" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C101" s="222"/>
-      <c r="D101" s="222"/>
-      <c r="E101" s="222"/>
+      <c r="C101" s="221"/>
+      <c r="D101" s="221"/>
+      <c r="E101" s="221"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4">
@@ -12764,20 +12969,20 @@
       </c>
       <c r="N101" s="4">
         <f>N82+SUM(N85:N90)</f>
-        <v>440.476</v>
+        <v>148.98950000000002</v>
       </c>
       <c r="O101" s="132"/>
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
       <c r="S101" s="4"/>
-      <c r="X101" s="263"/>
+      <c r="X101" s="260"/>
       <c r="Y101" s="114"/>
     </row>
     <row r="102" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="219"/>
-      <c r="C102" s="217"/>
-      <c r="D102" s="217"/>
-      <c r="E102" s="217"/>
+      <c r="B102" s="218"/>
+      <c r="C102" s="216"/>
+      <c r="D102" s="216"/>
+      <c r="E102" s="216"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
@@ -12786,21 +12991,21 @@
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
-      <c r="N102" s="250"/>
+      <c r="N102" s="248"/>
       <c r="O102" s="134"/>
       <c r="Q102" s="5"/>
       <c r="R102" s="5"/>
       <c r="S102" s="5"/>
-      <c r="X102" s="266"/>
+      <c r="X102" s="263"/>
       <c r="Y102" s="115"/>
     </row>
     <row r="103" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="221" t="s">
+      <c r="B103" s="220" t="s">
         <v>261</v>
       </c>
-      <c r="C103" s="217"/>
-      <c r="D103" s="217"/>
-      <c r="E103" s="217"/>
+      <c r="C103" s="216"/>
+      <c r="D103" s="216"/>
+      <c r="E103" s="216"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5">
@@ -12817,23 +13022,23 @@
       <c r="M103" s="5">
         <v>-133.35599999999999</v>
       </c>
-      <c r="N103" s="250">
+      <c r="N103" s="248">
         <v>-157.20500000000001</v>
       </c>
       <c r="O103" s="134"/>
       <c r="Q103" s="5"/>
       <c r="R103" s="5"/>
       <c r="S103" s="5"/>
-      <c r="X103" s="266"/>
+      <c r="X103" s="263"/>
       <c r="Y103" s="115"/>
     </row>
     <row r="104" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="221" t="s">
+      <c r="B104" s="220" t="s">
         <v>262</v>
       </c>
-      <c r="C104" s="217"/>
-      <c r="D104" s="217"/>
-      <c r="E104" s="217"/>
+      <c r="C104" s="216"/>
+      <c r="D104" s="216"/>
+      <c r="E104" s="216"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5">
@@ -12850,23 +13055,23 @@
       <c r="M104" s="5">
         <v>0</v>
       </c>
-      <c r="N104" s="250">
+      <c r="N104" s="248">
         <v>-7.2229999999999999</v>
       </c>
       <c r="O104" s="134"/>
       <c r="Q104" s="5"/>
       <c r="R104" s="5"/>
       <c r="S104" s="5"/>
-      <c r="X104" s="266"/>
+      <c r="X104" s="263"/>
       <c r="Y104" s="115"/>
     </row>
     <row r="105" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="221" t="s">
+      <c r="B105" s="220" t="s">
         <v>263</v>
       </c>
-      <c r="C105" s="217"/>
-      <c r="D105" s="217"/>
-      <c r="E105" s="217"/>
+      <c r="C105" s="216"/>
+      <c r="D105" s="216"/>
+      <c r="E105" s="216"/>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5">
@@ -12883,23 +13088,23 @@
       <c r="M105" s="5">
         <v>-1.5</v>
       </c>
-      <c r="N105" s="250">
+      <c r="N105" s="248">
         <v>0</v>
       </c>
       <c r="O105" s="134"/>
       <c r="Q105" s="5"/>
       <c r="R105" s="5"/>
       <c r="S105" s="5"/>
-      <c r="X105" s="266"/>
+      <c r="X105" s="263"/>
       <c r="Y105" s="115"/>
     </row>
     <row r="106" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C106" s="222"/>
-      <c r="D106" s="222"/>
-      <c r="E106" s="222"/>
+      <c r="C106" s="221"/>
+      <c r="D106" s="221"/>
+      <c r="E106" s="221"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4">
@@ -12928,14 +13133,14 @@
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
       <c r="S106" s="4"/>
-      <c r="X106" s="263"/>
+      <c r="X106" s="260"/>
       <c r="Y106" s="114"/>
     </row>
     <row r="107" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="219"/>
-      <c r="C107" s="217"/>
-      <c r="D107" s="217"/>
-      <c r="E107" s="217"/>
+      <c r="B107" s="218"/>
+      <c r="C107" s="216"/>
+      <c r="D107" s="216"/>
+      <c r="E107" s="216"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
@@ -12944,21 +13149,21 @@
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
-      <c r="N107" s="250"/>
+      <c r="N107" s="248"/>
       <c r="O107" s="134"/>
       <c r="Q107" s="5"/>
       <c r="R107" s="5"/>
       <c r="S107" s="5"/>
-      <c r="X107" s="266"/>
+      <c r="X107" s="263"/>
       <c r="Y107" s="115"/>
     </row>
     <row r="108" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="221" t="s">
+      <c r="B108" s="220" t="s">
         <v>265</v>
       </c>
-      <c r="C108" s="217"/>
-      <c r="D108" s="217"/>
-      <c r="E108" s="217"/>
+      <c r="C108" s="216"/>
+      <c r="D108" s="216"/>
+      <c r="E108" s="216"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
       <c r="H108" s="5">
@@ -12975,23 +13180,23 @@
       <c r="M108" s="5">
         <v>12.83</v>
       </c>
-      <c r="N108" s="250">
+      <c r="N108" s="248">
         <v>3.0459999999999998</v>
       </c>
       <c r="O108" s="134"/>
       <c r="Q108" s="5"/>
       <c r="R108" s="5"/>
       <c r="S108" s="5"/>
-      <c r="X108" s="266"/>
+      <c r="X108" s="263"/>
       <c r="Y108" s="115"/>
     </row>
     <row r="109" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="221" t="s">
+      <c r="B109" s="220" t="s">
         <v>266</v>
       </c>
-      <c r="C109" s="217"/>
-      <c r="D109" s="217"/>
-      <c r="E109" s="217"/>
+      <c r="C109" s="216"/>
+      <c r="D109" s="216"/>
+      <c r="E109" s="216"/>
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5">
@@ -13008,23 +13213,23 @@
       <c r="M109" s="5">
         <v>0</v>
       </c>
-      <c r="N109" s="250">
+      <c r="N109" s="248">
         <v>-1.236</v>
       </c>
       <c r="O109" s="134"/>
       <c r="Q109" s="5"/>
       <c r="R109" s="5"/>
       <c r="S109" s="5"/>
-      <c r="X109" s="266"/>
+      <c r="X109" s="263"/>
       <c r="Y109" s="115"/>
     </row>
     <row r="110" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="221" t="s">
+      <c r="B110" s="220" t="s">
         <v>267</v>
       </c>
-      <c r="C110" s="217"/>
-      <c r="D110" s="217"/>
-      <c r="E110" s="217"/>
+      <c r="C110" s="216"/>
+      <c r="D110" s="216"/>
+      <c r="E110" s="216"/>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="H110" s="5">
@@ -13041,23 +13246,23 @@
       <c r="M110" s="5">
         <v>0</v>
       </c>
-      <c r="N110" s="250">
+      <c r="N110" s="248">
         <v>0</v>
       </c>
       <c r="O110" s="134"/>
       <c r="Q110" s="5"/>
       <c r="R110" s="5"/>
       <c r="S110" s="5"/>
-      <c r="X110" s="266"/>
+      <c r="X110" s="263"/>
       <c r="Y110" s="115"/>
     </row>
     <row r="111" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="221" t="s">
+      <c r="B111" s="220" t="s">
         <v>268</v>
       </c>
-      <c r="C111" s="217"/>
-      <c r="D111" s="217"/>
-      <c r="E111" s="217"/>
+      <c r="C111" s="216"/>
+      <c r="D111" s="216"/>
+      <c r="E111" s="216"/>
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5">
@@ -13074,23 +13279,23 @@
       <c r="M111" s="5">
         <v>0</v>
       </c>
-      <c r="N111" s="250">
+      <c r="N111" s="248">
         <v>0</v>
       </c>
       <c r="O111" s="134"/>
       <c r="Q111" s="5"/>
       <c r="R111" s="5"/>
       <c r="S111" s="5"/>
-      <c r="X111" s="266"/>
+      <c r="X111" s="263"/>
       <c r="Y111" s="115"/>
     </row>
     <row r="112" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="221" t="s">
+      <c r="B112" s="220" t="s">
         <v>269</v>
       </c>
-      <c r="C112" s="217"/>
-      <c r="D112" s="217"/>
-      <c r="E112" s="217"/>
+      <c r="C112" s="216"/>
+      <c r="D112" s="216"/>
+      <c r="E112" s="216"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
       <c r="H112" s="5">
@@ -13107,23 +13312,23 @@
       <c r="M112" s="5">
         <v>0</v>
       </c>
-      <c r="N112" s="250">
+      <c r="N112" s="248">
         <v>0</v>
       </c>
       <c r="O112" s="134"/>
       <c r="Q112" s="5"/>
       <c r="R112" s="5"/>
       <c r="S112" s="5"/>
-      <c r="X112" s="266"/>
+      <c r="X112" s="263"/>
       <c r="Y112" s="115"/>
     </row>
     <row r="113" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="221" t="s">
+      <c r="B113" s="220" t="s">
         <v>270</v>
       </c>
-      <c r="C113" s="217"/>
-      <c r="D113" s="217"/>
-      <c r="E113" s="217"/>
+      <c r="C113" s="216"/>
+      <c r="D113" s="216"/>
+      <c r="E113" s="216"/>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="5">
@@ -13140,23 +13345,23 @@
       <c r="M113" s="5">
         <v>-0.15</v>
       </c>
-      <c r="N113" s="250">
+      <c r="N113" s="248">
         <v>0</v>
       </c>
       <c r="O113" s="134"/>
       <c r="Q113" s="5"/>
       <c r="R113" s="5"/>
       <c r="S113" s="5"/>
-      <c r="X113" s="266"/>
+      <c r="X113" s="263"/>
       <c r="Y113" s="115"/>
     </row>
     <row r="114" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C114" s="222"/>
-      <c r="D114" s="222"/>
-      <c r="E114" s="222"/>
+      <c r="C114" s="221"/>
+      <c r="D114" s="221"/>
+      <c r="E114" s="221"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4">
@@ -13185,49 +13390,49 @@
       <c r="Q114" s="4"/>
       <c r="R114" s="4"/>
       <c r="S114" s="4"/>
-      <c r="X114" s="263"/>
+      <c r="X114" s="260"/>
       <c r="Y114" s="114"/>
     </row>
-    <row r="116" spans="2:25" s="215" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="215" t="s">
+    <row r="116" spans="2:25" s="214" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="214" t="s">
         <v>281</v>
       </c>
       <c r="C116"/>
       <c r="D116"/>
       <c r="E116"/>
-      <c r="F116" s="223"/>
-      <c r="G116" s="223"/>
-      <c r="H116" s="224">
+      <c r="F116" s="222"/>
+      <c r="G116" s="222"/>
+      <c r="H116" s="223">
         <f>H103+H105</f>
         <v>-23.234999999999999</v>
       </c>
-      <c r="I116" s="224">
+      <c r="I116" s="223">
         <f>I103+I105</f>
         <v>-10.561999999999999</v>
       </c>
-      <c r="J116" s="223"/>
-      <c r="K116" s="223"/>
-      <c r="L116" s="224">
+      <c r="J116" s="222"/>
+      <c r="K116" s="222"/>
+      <c r="L116" s="223">
         <f>L103+L105</f>
         <v>-83.811999999999998</v>
       </c>
-      <c r="M116" s="224">
+      <c r="M116" s="223">
         <f>M103+M105</f>
         <v>-134.85599999999999</v>
       </c>
-      <c r="N116" s="224">
+      <c r="N116" s="223">
         <f t="shared" ref="N116" si="136">N103+N105</f>
         <v>-157.20500000000001</v>
       </c>
       <c r="O116" s="133"/>
-      <c r="Q116" s="223"/>
-      <c r="R116" s="223"/>
-      <c r="S116" s="223"/>
-      <c r="X116" s="271"/>
-      <c r="Y116" s="276"/>
+      <c r="Q116" s="222"/>
+      <c r="R116" s="222"/>
+      <c r="S116" s="222"/>
+      <c r="X116" s="268"/>
+      <c r="Y116" s="273"/>
     </row>
     <row r="117" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B117" s="215" t="s">
+      <c r="B117" s="214" t="s">
         <v>282</v>
       </c>
       <c r="H117" s="5">
@@ -13248,14 +13453,14 @@
       </c>
       <c r="N117" s="5">
         <f t="shared" ref="N117" si="137">+N101+N106</f>
-        <v>276.048</v>
+        <v>-15.438500000000005</v>
       </c>
     </row>
     <row r="119" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B119" s="215"/>
+      <c r="B119" s="214"/>
     </row>
     <row r="120" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B120" s="215"/>
+      <c r="B120" s="214"/>
     </row>
   </sheetData>
   <phoneticPr fontId="29" type="noConversion"/>
@@ -13279,11 +13484,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DC1264-D281-9E4E-B0F5-F497A82B7907}">
   <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13291,7 +13496,7 @@
     <col min="1" max="1" width="12.875" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="25" width="9" style="22"/>
-    <col min="26" max="26" width="9" style="310"/>
+    <col min="26" max="26" width="9" style="308"/>
     <col min="27" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
@@ -13362,7 +13567,7 @@
       <c r="Y1" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="Z1" s="307" t="s">
+      <c r="Z1" s="305" t="s">
         <v>91</v>
       </c>
       <c r="AA1" s="25" t="s">
@@ -13445,7 +13650,7 @@
         <f>AVERAGE(L2:O2)</f>
         <v>45.525000000000006</v>
       </c>
-      <c r="Z2" s="263">
+      <c r="Z2" s="260">
         <f>AVERAGE(P2:S2)</f>
         <v>55.975000000000009</v>
       </c>
@@ -13530,7 +13735,7 @@
       <c r="Y3" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="Z3" s="278" t="s">
+      <c r="Z3" s="275" t="s">
         <v>33</v>
       </c>
     </row>
@@ -13613,7 +13818,7 @@
         <f>Y2/X2-1</f>
         <v>0.3975441289332311</v>
       </c>
-      <c r="Z4" s="308">
+      <c r="Z4" s="306">
         <f>Z2/Y2-1</f>
         <v>0.22954420647995599</v>
       </c>
@@ -13640,7 +13845,7 @@
       <c r="W5" s="36"/>
       <c r="X5" s="36"/>
       <c r="Y5" s="36"/>
-      <c r="Z5" s="309"/>
+      <c r="Z5" s="307"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
@@ -13707,7 +13912,7 @@
         <f>AVERAGE(L6:O6)</f>
         <v>22.375</v>
       </c>
-      <c r="Z6" s="263">
+      <c r="Z6" s="260">
         <f>AVERAGE(P6:S6)</f>
         <v>25.366666666666664</v>
       </c>
@@ -13788,7 +13993,7 @@
       <c r="Y7" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="278" t="s">
+      <c r="Z7" s="275" t="s">
         <v>33</v>
       </c>
     </row>
@@ -13867,7 +14072,7 @@
         <f>Y6/X6-1</f>
         <v>0.27857142857142847</v>
       </c>
-      <c r="Z8" s="308">
+      <c r="Z8" s="306">
         <f>Z6/Y6-1</f>
         <v>0.13370577281191798</v>
       </c>
@@ -13882,7 +14087,7 @@
       <c r="W9" s="36"/>
       <c r="X9" s="36"/>
       <c r="Y9" s="36"/>
-      <c r="Z9" s="309"/>
+      <c r="Z9" s="307"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B10" s="27" t="s">
@@ -13949,7 +14154,7 @@
         <f>AVERAGE(L10:O10)</f>
         <v>22</v>
       </c>
-      <c r="Z10" s="263">
+      <c r="Z10" s="260">
         <f>AVERAGE(P10:S10)</f>
         <v>29.3</v>
       </c>
@@ -14030,7 +14235,7 @@
       <c r="Y11" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="278" t="s">
+      <c r="Z11" s="275" t="s">
         <v>33</v>
       </c>
     </row>
@@ -14109,7 +14314,7 @@
         <f>Y10/X10-1</f>
         <v>1.0370370370370368</v>
       </c>
-      <c r="Z12" s="308">
+      <c r="Z12" s="306">
         <f>Z10/Y10-1</f>
         <v>0.33181818181818179</v>
       </c>
@@ -14195,7 +14400,7 @@
         <f>AVERAGE(L14:O14)</f>
         <v>10353.5</v>
       </c>
-      <c r="Z14" s="311">
+      <c r="Z14" s="309">
         <f>AVERAGE(P14:S14)</f>
         <v>12560.04</v>
       </c>
@@ -14277,7 +14482,7 @@
       <c r="Y15" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="Z15" s="278" t="s">
+      <c r="Z15" s="275" t="s">
         <v>33</v>
       </c>
     </row>
@@ -14357,7 +14562,7 @@
         <f>Y14/X14-1</f>
         <v>6.1189975913493511E-2</v>
       </c>
-      <c r="Z16" s="308">
+      <c r="Z16" s="306">
         <f>Z14/Y14-1</f>
         <v>0.21312020089824713</v>
       </c>
@@ -14507,73 +14712,73 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="30"/>
-      <c r="B20" s="172" t="s">
+      <c r="B20" s="171" t="s">
         <v>202</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="173">
+      <c r="D20" s="172">
         <f t="shared" ref="D20:P20" si="22">D18/C18-1</f>
         <v>-0.13984674329501912</v>
       </c>
-      <c r="E20" s="173">
+      <c r="E20" s="172">
         <f t="shared" si="22"/>
         <v>-2.2271714922049157E-2</v>
       </c>
-      <c r="F20" s="173">
+      <c r="F20" s="172">
         <f t="shared" si="22"/>
         <v>2.5056947608200542E-2</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <f t="shared" si="22"/>
         <v>0.37444444444444436</v>
       </c>
-      <c r="H20" s="173">
+      <c r="H20" s="172">
         <f t="shared" si="22"/>
         <v>-0.14470493128536777</v>
       </c>
-      <c r="I20" s="173">
+      <c r="I20" s="172">
         <f t="shared" si="22"/>
         <v>0.39981096408317573</v>
       </c>
-      <c r="J20" s="173">
+      <c r="J20" s="172">
         <f t="shared" si="22"/>
         <v>-7.2923700202565889E-2</v>
       </c>
-      <c r="K20" s="173">
+      <c r="K20" s="172">
         <f t="shared" si="22"/>
         <v>0.26001456664238898</v>
       </c>
-      <c r="L20" s="173">
+      <c r="L20" s="172">
         <f t="shared" si="22"/>
         <v>-0.10520231213872833</v>
       </c>
-      <c r="M20" s="173">
+      <c r="M20" s="172">
         <f t="shared" si="22"/>
         <v>-4.5219638242893767E-3</v>
       </c>
-      <c r="N20" s="173">
+      <c r="N20" s="172">
         <f t="shared" si="22"/>
         <v>-0.12459441920830627</v>
       </c>
-      <c r="O20" s="173">
+      <c r="O20" s="172">
         <f t="shared" si="22"/>
         <v>0.15344699777613058</v>
       </c>
-      <c r="P20" s="173">
+      <c r="P20" s="172">
         <f t="shared" si="22"/>
         <v>-0.25</v>
       </c>
-      <c r="Q20" s="173">
+      <c r="Q20" s="172">
         <f>Q18/P18-1</f>
         <v>4.9700085689802886E-2</v>
       </c>
-      <c r="R20" s="173">
+      <c r="R20" s="172">
         <f t="shared" ref="R20" si="23">R18/Q18-1</f>
         <v>-2.5306122448979673E-2</v>
       </c>
-      <c r="S20" s="173">
+      <c r="S20" s="172">
         <f t="shared" ref="S20" si="24">S18/R18-1</f>
         <v>0.28056951423785592</v>
       </c>
@@ -14581,7 +14786,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="30"/>
-      <c r="B21" s="172" t="s">
+      <c r="B21" s="171" t="s">
         <v>201</v>
       </c>
       <c r="C21" s="24" t="s">
@@ -14596,55 +14801,55 @@
       <c r="F21" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="173">
+      <c r="G21" s="172">
         <f t="shared" ref="G21:P21" si="25">G18/C18-1</f>
         <v>0.18486590038314166</v>
       </c>
-      <c r="H21" s="173">
+      <c r="H21" s="172">
         <f t="shared" si="25"/>
         <v>0.17817371937639193</v>
       </c>
-      <c r="I21" s="173">
+      <c r="I21" s="172">
         <f t="shared" si="25"/>
         <v>0.68678815489749456</v>
       </c>
-      <c r="J21" s="173">
+      <c r="J21" s="172">
         <f t="shared" si="25"/>
         <v>0.52555555555555555</v>
       </c>
-      <c r="K21" s="173">
+      <c r="K21" s="172">
         <f t="shared" si="25"/>
         <v>0.39854486661277289</v>
       </c>
-      <c r="L21" s="173">
+      <c r="L21" s="172">
         <f t="shared" si="25"/>
         <v>0.46313799621928164</v>
       </c>
-      <c r="M21" s="173">
+      <c r="M21" s="172">
         <f t="shared" si="25"/>
         <v>4.0513166779203136E-2</v>
       </c>
-      <c r="N21" s="173">
+      <c r="N21" s="172">
         <f t="shared" si="25"/>
         <v>-1.7479970866715266E-2</v>
       </c>
-      <c r="O21" s="173">
+      <c r="O21" s="172">
         <f t="shared" si="25"/>
         <v>-0.10057803468208093</v>
       </c>
-      <c r="P21" s="173">
+      <c r="P21" s="172">
         <f t="shared" si="25"/>
         <v>-0.24612403100775193</v>
       </c>
-      <c r="Q21" s="173">
+      <c r="Q21" s="172">
         <f>Q18/M18-1</f>
         <v>-0.20506164828033746</v>
       </c>
-      <c r="R21" s="173">
+      <c r="R21" s="172">
         <f t="shared" ref="R21" si="26">R18/N18-1</f>
         <v>-0.11489992587101561</v>
       </c>
-      <c r="S21" s="173">
+      <c r="S21" s="172">
         <f t="shared" ref="S21" si="27">S18/O18-1</f>
         <v>-1.7352185089974381E-2</v>
       </c>

--- a/$RBLX.xlsx
+++ b/$RBLX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C39A49F-33F9-452E-BEE3-F4DD3AF314B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE25A89-482C-4B98-B131-9B7CF0DA9428}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{DB6ABC51-E0DE-6747-8CA5-53C172A4844D}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{DB6ABC51-E0DE-6747-8CA5-53C172A4844D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="319">
   <si>
     <t>Price</t>
   </si>
@@ -981,6 +981,9 @@
   </si>
   <si>
     <t>Currently working with select number of brands for ads</t>
+  </si>
+  <si>
+    <t>Employees</t>
   </si>
 </sst>
 </file>
@@ -999,9 +1002,16 @@
     <numFmt numFmtId="171" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="172" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1587,694 +1597,722 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="313">
+  <cellXfs count="325">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="31" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="28" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="28" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="28" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="31" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="40" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="10" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="31" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="28" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="28" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="28" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="28" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="28" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="31" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="40" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="41" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="41" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="45" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="46" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="17" fontId="39" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="39" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="30" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="27" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="27" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="27" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="39" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="10" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="27" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="27" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="27" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="27" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="27" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="30" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="22" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="39" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="40" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="40" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="44" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="45" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="31" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="28" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="31" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="30" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="27" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="27" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="27" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="28" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="27" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="28" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="27" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="31" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="30" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="31" fillId="12" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="30" fillId="12" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="28" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="27" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="41" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="41" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="40" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="31" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="30" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="40" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="41" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="31" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="42" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="40" fillId="10" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="39" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="40" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="30" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="41" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="39" fillId="10" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="41" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="40" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="39" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="31" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="28" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="28" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="28" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="40" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="41" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="41" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="40" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="41" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="41" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="40" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="31" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="28" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="28" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="28" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="31" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="41" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="40" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="31" fillId="14" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="28" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="28" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="28" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="28" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="27" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="27" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="41" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="28" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="28" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="28" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="30" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="27" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="27" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="27" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="39" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="40" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="40" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="39" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="40" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="40" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="39" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="30" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="27" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="27" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="27" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="40" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="39" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="30" fillId="14" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
+    <xf numFmtId="3" fontId="28" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent3" xfId="5" builtinId="38"/>
@@ -3801,7 +3839,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3851,7 +3889,7 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4284,8 +4322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE4A73D-2F46-7341-9C57-6E5B7A39A15C}">
   <dimension ref="B1:AL86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4303,36 +4341,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="L1" s="234" t="s">
+      <c r="L1" s="292" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="235"/>
-      <c r="N1" s="235"/>
-      <c r="O1" s="235"/>
-      <c r="P1" s="235"/>
-      <c r="Q1" s="235"/>
-      <c r="R1" s="235"/>
-      <c r="S1" s="235"/>
-      <c r="T1" s="235"/>
-      <c r="U1" s="236"/>
-      <c r="W1" s="237" t="s">
+      <c r="M1" s="293"/>
+      <c r="N1" s="293"/>
+      <c r="O1" s="293"/>
+      <c r="P1" s="293"/>
+      <c r="Q1" s="293"/>
+      <c r="R1" s="293"/>
+      <c r="S1" s="293"/>
+      <c r="T1" s="293"/>
+      <c r="U1" s="294"/>
+      <c r="W1" s="295" t="s">
         <v>127</v>
       </c>
-      <c r="X1" s="238"/>
-      <c r="Y1" s="238"/>
-      <c r="Z1" s="238"/>
-      <c r="AA1" s="238"/>
-      <c r="AB1" s="238"/>
-      <c r="AC1" s="238"/>
-      <c r="AD1" s="238"/>
-      <c r="AE1" s="238"/>
-      <c r="AF1" s="238"/>
-      <c r="AG1" s="238"/>
-      <c r="AH1" s="238"/>
-      <c r="AI1" s="238"/>
-      <c r="AJ1" s="238"/>
-      <c r="AK1" s="238"/>
-      <c r="AL1" s="239"/>
+      <c r="X1" s="296"/>
+      <c r="Y1" s="296"/>
+      <c r="Z1" s="296"/>
+      <c r="AA1" s="296"/>
+      <c r="AB1" s="296"/>
+      <c r="AC1" s="296"/>
+      <c r="AD1" s="296"/>
+      <c r="AE1" s="296"/>
+      <c r="AF1" s="296"/>
+      <c r="AG1" s="296"/>
+      <c r="AH1" s="296"/>
+      <c r="AI1" s="296"/>
+      <c r="AJ1" s="296"/>
+      <c r="AK1" s="296"/>
+      <c r="AL1" s="297"/>
     </row>
     <row r="2" spans="2:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
@@ -4531,16 +4569,16 @@
       </c>
     </row>
     <row r="5" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B5" s="227" t="s">
+      <c r="B5" s="298" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="228"/>
-      <c r="D5" s="229"/>
-      <c r="F5" s="227" t="s">
+      <c r="C5" s="299"/>
+      <c r="D5" s="300"/>
+      <c r="F5" s="298" t="s">
         <v>193</v>
       </c>
-      <c r="G5" s="228"/>
-      <c r="H5" s="229"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="300"/>
       <c r="K5" s="27" t="s">
         <v>73</v>
       </c>
@@ -4648,10 +4686,10 @@
       <c r="F6" s="154" t="s">
         <v>194</v>
       </c>
-      <c r="G6" s="230" t="s">
+      <c r="G6" s="312" t="s">
         <v>284</v>
       </c>
-      <c r="H6" s="226"/>
+      <c r="H6" s="304"/>
       <c r="K6" s="27" t="s">
         <v>74</v>
       </c>
@@ -4749,16 +4787,16 @@
         <f>'Financial Model'!N20</f>
         <v>601.85900000000004</v>
       </c>
-      <c r="D7" s="276" t="s">
+      <c r="D7" s="255" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="154" t="s">
         <v>283</v>
       </c>
-      <c r="G7" s="231">
+      <c r="G7" s="303">
         <v>2021</v>
       </c>
-      <c r="H7" s="226"/>
+      <c r="H7" s="304"/>
       <c r="K7" s="27"/>
       <c r="L7" s="55"/>
       <c r="M7" s="55"/>
@@ -4799,10 +4837,10 @@
       <c r="F8" s="154" t="s">
         <v>195</v>
       </c>
-      <c r="G8" s="231">
+      <c r="G8" s="303">
         <v>2004</v>
       </c>
-      <c r="H8" s="226"/>
+      <c r="H8" s="304"/>
       <c r="K8" s="27" t="s">
         <v>75</v>
       </c>
@@ -4889,20 +4927,20 @@
         <v>3</v>
       </c>
       <c r="C9" s="9">
-        <f>'Financial Model'!N66</f>
+        <f>'Financial Model'!N67</f>
         <v>2977.4740000000002</v>
       </c>
-      <c r="D9" s="276" t="s">
+      <c r="D9" s="255" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="154" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="231">
+      <c r="G9" s="303">
         <f>AL4</f>
         <v>58.8</v>
       </c>
-      <c r="H9" s="226"/>
+      <c r="H9" s="304"/>
       <c r="K9" s="27" t="s">
         <v>77</v>
       </c>
@@ -5003,15 +5041,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="9">
-        <f>'Financial Model'!N67</f>
+        <f>'Financial Model'!N68</f>
         <v>988.98400000000004</v>
       </c>
-      <c r="D10" s="276" t="s">
+      <c r="D10" s="255" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="154"/>
-      <c r="G10" s="231"/>
-      <c r="H10" s="226"/>
+      <c r="F10" s="154" t="s">
+        <v>318</v>
+      </c>
+      <c r="G10" s="313">
+        <v>2128</v>
+      </c>
+      <c r="H10" s="314"/>
       <c r="K10" s="27" t="s">
         <v>78</v>
       </c>
@@ -5112,16 +5154,16 @@
         <f>C9-C10</f>
         <v>1988.4900000000002</v>
       </c>
-      <c r="D11" s="276" t="s">
+      <c r="D11" s="255" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="154" t="s">
         <v>198</v>
       </c>
-      <c r="G11" s="277" t="s">
+      <c r="G11" s="256" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="278">
+      <c r="H11" s="257">
         <v>42036</v>
       </c>
       <c r="K11" s="27"/>
@@ -5153,10 +5195,10 @@
       <c r="F12" s="155" t="s">
         <v>196</v>
       </c>
-      <c r="G12" s="232" t="s">
+      <c r="G12" s="307" t="s">
         <v>197</v>
       </c>
-      <c r="H12" s="233"/>
+      <c r="H12" s="308"/>
       <c r="K12" s="27" t="s">
         <v>76</v>
       </c>
@@ -5428,16 +5470,16 @@
       </c>
     </row>
     <row r="15" spans="2:38" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="227" t="s">
+      <c r="B15" s="298" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="228"/>
-      <c r="D15" s="229"/>
-      <c r="F15" s="227" t="s">
+      <c r="C15" s="299"/>
+      <c r="D15" s="300"/>
+      <c r="F15" s="298" t="s">
         <v>203</v>
       </c>
-      <c r="G15" s="228"/>
-      <c r="H15" s="229"/>
+      <c r="G15" s="299"/>
+      <c r="H15" s="300"/>
       <c r="K15" s="27"/>
       <c r="L15" s="57"/>
       <c r="M15" s="57"/>
@@ -5454,18 +5496,18 @@
       <c r="B16" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="225" t="s">
+      <c r="C16" s="311" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="226"/>
+      <c r="D16" s="304"/>
       <c r="F16" s="154" t="s">
         <v>204</v>
       </c>
-      <c r="G16" s="242">
-        <f>C6/'Financial Model'!N64</f>
+      <c r="G16" s="305">
+        <f>C6/'Financial Model'!N65</f>
         <v>81.803970495189361</v>
       </c>
-      <c r="H16" s="243"/>
+      <c r="H16" s="306"/>
       <c r="J16" s="30" t="s">
         <v>86</v>
       </c>
@@ -5551,18 +5593,18 @@
       <c r="B17" s="97" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="240" t="s">
+      <c r="C17" s="301" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="241"/>
+      <c r="D17" s="302"/>
       <c r="F17" s="154" t="s">
         <v>213</v>
       </c>
-      <c r="G17" s="242">
+      <c r="G17" s="305">
         <f>C8/SUM('Financial Model'!$K$3:$N$3)</f>
         <v>11.214602687937182</v>
       </c>
-      <c r="H17" s="243"/>
+      <c r="H17" s="306"/>
       <c r="K17" s="27" t="s">
         <v>84</v>
       </c>
@@ -5659,18 +5701,18 @@
       <c r="B18" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="225" t="s">
+      <c r="C18" s="311" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="226"/>
+      <c r="D18" s="304"/>
       <c r="F18" s="154" t="s">
         <v>214</v>
       </c>
-      <c r="G18" s="242">
+      <c r="G18" s="305">
         <f>C6/SUM('Financial Model'!K19:N19)</f>
         <v>-26.466723449006508</v>
       </c>
-      <c r="H18" s="243"/>
+      <c r="H18" s="306"/>
       <c r="K18" s="27" t="s">
         <v>85</v>
       </c>
@@ -5762,27 +5804,27 @@
     </row>
     <row r="19" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B19" s="83"/>
-      <c r="C19" s="231"/>
-      <c r="D19" s="226"/>
+      <c r="C19" s="303"/>
+      <c r="D19" s="304"/>
       <c r="F19" s="154" t="s">
         <v>218</v>
       </c>
-      <c r="G19" s="242">
+      <c r="G19" s="305">
         <f>C12/SUM('Financial Model'!K3:N3)</f>
         <v>10.32092020321323</v>
       </c>
-      <c r="H19" s="243"/>
+      <c r="H19" s="306"/>
       <c r="K19" s="27"/>
       <c r="L19" s="57"/>
       <c r="M19" s="57"/>
     </row>
     <row r="20" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="84"/>
-      <c r="C20" s="244"/>
-      <c r="D20" s="245"/>
+      <c r="C20" s="309"/>
+      <c r="D20" s="310"/>
       <c r="F20" s="155"/>
-      <c r="G20" s="232"/>
-      <c r="H20" s="233"/>
+      <c r="G20" s="307"/>
+      <c r="H20" s="308"/>
       <c r="J20" s="30"/>
       <c r="K20" s="171" t="s">
         <v>212</v>
@@ -5813,14 +5855,14 @@
       </c>
     </row>
     <row r="23" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B23" s="227" t="s">
+      <c r="B23" s="298" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="228"/>
-      <c r="D23" s="228"/>
-      <c r="E23" s="228"/>
-      <c r="F23" s="228"/>
-      <c r="G23" s="229"/>
+      <c r="C23" s="299"/>
+      <c r="D23" s="299"/>
+      <c r="E23" s="299"/>
+      <c r="F23" s="299"/>
+      <c r="G23" s="300"/>
       <c r="K23" s="171" t="s">
         <v>209</v>
       </c>
@@ -5912,7 +5954,7 @@
       <c r="L29" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="P29" s="279" t="s">
+      <c r="P29" s="258" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5927,7 +5969,7 @@
       <c r="G30" s="89"/>
       <c r="J30" s="86"/>
       <c r="K30" s="86"/>
-      <c r="P30" s="279" t="s">
+      <c r="P30" s="258" t="s">
         <v>289</v>
       </c>
     </row>
@@ -5941,13 +5983,13 @@
       <c r="F31" s="94"/>
       <c r="G31" s="95"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="227" t="s">
+      <c r="K31" s="298" t="s">
         <v>181</v>
       </c>
-      <c r="L31" s="228"/>
-      <c r="M31" s="228"/>
-      <c r="N31" s="229"/>
-      <c r="P31" s="279" t="s">
+      <c r="L31" s="299"/>
+      <c r="M31" s="299"/>
+      <c r="N31" s="300"/>
+      <c r="P31" s="258" t="s">
         <v>290</v>
       </c>
     </row>
@@ -5961,14 +6003,14 @@
       <c r="N32" s="89"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="227" t="s">
+      <c r="B33" s="298" t="s">
         <v>187</v>
       </c>
-      <c r="C33" s="228"/>
-      <c r="D33" s="228"/>
-      <c r="E33" s="228"/>
-      <c r="F33" s="228"/>
-      <c r="G33" s="229"/>
+      <c r="C33" s="299"/>
+      <c r="D33" s="299"/>
+      <c r="E33" s="299"/>
+      <c r="F33" s="299"/>
+      <c r="G33" s="300"/>
       <c r="J33" s="7"/>
       <c r="K33" s="147" t="s">
         <v>177</v>
@@ -5978,7 +6020,7 @@
       </c>
       <c r="M33" s="144"/>
       <c r="N33" s="89"/>
-      <c r="P33" s="279" t="s">
+      <c r="P33" s="258" t="s">
         <v>291</v>
       </c>
     </row>
@@ -6002,7 +6044,7 @@
       </c>
       <c r="M34" s="145"/>
       <c r="N34" s="89"/>
-      <c r="P34" s="279" t="s">
+      <c r="P34" s="258" t="s">
         <v>292</v>
       </c>
     </row>
@@ -6026,7 +6068,7 @@
       </c>
       <c r="M35" s="146"/>
       <c r="N35" s="89"/>
-      <c r="P35" s="279" t="s">
+      <c r="P35" s="258" t="s">
         <v>293</v>
       </c>
     </row>
@@ -6044,7 +6086,7 @@
       <c r="L36" s="88"/>
       <c r="M36" s="88"/>
       <c r="N36" s="89"/>
-      <c r="P36" s="279" t="s">
+      <c r="P36" s="258" t="s">
         <v>294</v>
       </c>
     </row>
@@ -6062,7 +6104,7 @@
       <c r="L37" s="88"/>
       <c r="M37" s="88"/>
       <c r="N37" s="89"/>
-      <c r="P37" s="279" t="s">
+      <c r="P37" s="258" t="s">
         <v>295</v>
       </c>
     </row>
@@ -6095,7 +6137,7 @@
       <c r="L39" s="88"/>
       <c r="M39" s="88"/>
       <c r="N39" s="89"/>
-      <c r="P39" s="279" t="s">
+      <c r="P39" s="258" t="s">
         <v>297</v>
       </c>
     </row>
@@ -6119,7 +6161,7 @@
       <c r="L40" s="88"/>
       <c r="M40" s="88"/>
       <c r="N40" s="89"/>
-      <c r="P40" s="279" t="s">
+      <c r="P40" s="258" t="s">
         <v>298</v>
       </c>
     </row>
@@ -6152,7 +6194,7 @@
       <c r="L42" s="88"/>
       <c r="M42" s="88"/>
       <c r="N42" s="89"/>
-      <c r="P42" s="279" t="s">
+      <c r="P42" s="258" t="s">
         <v>299</v>
       </c>
     </row>
@@ -6166,7 +6208,7 @@
       </c>
       <c r="M43" s="88"/>
       <c r="N43" s="89"/>
-      <c r="P43" s="312" t="s">
+      <c r="P43" s="291" t="s">
         <v>300</v>
       </c>
     </row>
@@ -6178,7 +6220,7 @@
       <c r="L44" s="88"/>
       <c r="M44" s="88"/>
       <c r="N44" s="89"/>
-      <c r="P44" s="312" t="s">
+      <c r="P44" s="291" t="s">
         <v>301</v>
       </c>
     </row>
@@ -6193,7 +6235,7 @@
       <c r="L45" s="88"/>
       <c r="M45" s="88"/>
       <c r="N45" s="89"/>
-      <c r="P45" s="312" t="s">
+      <c r="P45" s="291" t="s">
         <v>310</v>
       </c>
     </row>
@@ -6205,7 +6247,7 @@
       <c r="L46" s="88"/>
       <c r="M46" s="88"/>
       <c r="N46" s="89"/>
-      <c r="P46" s="312" t="s">
+      <c r="P46" s="291" t="s">
         <v>311</v>
       </c>
     </row>
@@ -6232,7 +6274,7 @@
       <c r="L48" s="88"/>
       <c r="M48" s="88"/>
       <c r="N48" s="89"/>
-      <c r="P48" s="279" t="s">
+      <c r="P48" s="258" t="s">
         <v>302</v>
       </c>
     </row>
@@ -6244,7 +6286,7 @@
       <c r="L49" s="88"/>
       <c r="M49" s="88"/>
       <c r="N49" s="89"/>
-      <c r="P49" s="279" t="s">
+      <c r="P49" s="258" t="s">
         <v>307</v>
       </c>
     </row>
@@ -6263,7 +6305,7 @@
       </c>
       <c r="M50" s="88"/>
       <c r="N50" s="89"/>
-      <c r="P50" s="279" t="s">
+      <c r="P50" s="258" t="s">
         <v>304</v>
       </c>
     </row>
@@ -6271,7 +6313,7 @@
       <c r="B51" s="205" t="s">
         <v>223</v>
       </c>
-      <c r="K51" s="311" t="s">
+      <c r="K51" s="290" t="s">
         <v>296</v>
       </c>
       <c r="L51" s="93"/>
@@ -6282,7 +6324,7 @@
       <c r="B52" s="205" t="s">
         <v>224</v>
       </c>
-      <c r="P52" s="279" t="s">
+      <c r="P52" s="258" t="s">
         <v>305</v>
       </c>
     </row>
@@ -6290,12 +6332,12 @@
       <c r="B53" s="205" t="s">
         <v>225</v>
       </c>
-      <c r="P53" s="312" t="s">
+      <c r="P53" s="291" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="P54" s="279" t="s">
+      <c r="P54" s="258" t="s">
         <v>306</v>
       </c>
     </row>
@@ -6303,7 +6345,7 @@
       <c r="B55" s="204" t="s">
         <v>226</v>
       </c>
-      <c r="P55" s="279" t="s">
+      <c r="P55" s="258" t="s">
         <v>309</v>
       </c>
     </row>
@@ -6311,7 +6353,7 @@
       <c r="B57" s="204" t="s">
         <v>227</v>
       </c>
-      <c r="P57" s="279" t="s">
+      <c r="P57" s="258" t="s">
         <v>312</v>
       </c>
     </row>
@@ -6324,7 +6366,7 @@
       <c r="B59" s="205" t="s">
         <v>229</v>
       </c>
-      <c r="P59" s="279" t="s">
+      <c r="P59" s="258" t="s">
         <v>313</v>
       </c>
     </row>
@@ -6332,7 +6374,7 @@
       <c r="B60" s="205" t="s">
         <v>230</v>
       </c>
-      <c r="P60" s="312" t="s">
+      <c r="P60" s="291" t="s">
         <v>314</v>
       </c>
     </row>
@@ -6340,7 +6382,7 @@
       <c r="B61" s="205" t="s">
         <v>231</v>
       </c>
-      <c r="P61" s="312" t="s">
+      <c r="P61" s="291" t="s">
         <v>315</v>
       </c>
     </row>
@@ -6348,7 +6390,7 @@
       <c r="B62" s="205" t="s">
         <v>232</v>
       </c>
-      <c r="P62" s="312" t="s">
+      <c r="P62" s="291" t="s">
         <v>316</v>
       </c>
     </row>
@@ -6356,7 +6398,7 @@
       <c r="I63" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="P63" s="312" t="s">
+      <c r="P63" s="291" t="s">
         <v>317</v>
       </c>
     </row>
@@ -6499,6 +6541,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="L1:U1"/>
     <mergeCell ref="W1:AL1"/>
     <mergeCell ref="B33:G33"/>
@@ -6515,17 +6566,8 @@
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="G7:H7"/>
   </mergeCells>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="30" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I67" r:id="rId1" xr:uid="{F79BC045-05D5-43FB-A051-BA2031CC85A7}"/>
     <hyperlink ref="I69" r:id="rId2" xr:uid="{58004FA9-9F7A-4B71-811E-FF4EE09F281F}"/>
@@ -6542,13 +6584,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0FDCAC-3416-844A-BCBB-390EC350CF59}">
-  <dimension ref="B1:BZ120"/>
+  <dimension ref="B1:BZ121"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="K12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7:N7"/>
+      <selection pane="bottomRight" activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6560,14 +6602,14 @@
     <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="9.125" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="9.125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="9.125" style="253" customWidth="1"/>
+    <col min="14" max="14" width="9.125" style="232" customWidth="1"/>
     <col min="15" max="15" width="9" style="133"/>
     <col min="16" max="16" width="9" style="6"/>
     <col min="17" max="19" width="9" style="7"/>
     <col min="20" max="21" width="9" style="6"/>
     <col min="22" max="22" width="10.5" style="6" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9" style="264"/>
+    <col min="24" max="24" width="9" style="243"/>
     <col min="25" max="25" width="9" style="117" bestFit="1" customWidth="1"/>
     <col min="26" max="40" width="9" style="6"/>
     <col min="41" max="41" width="15.875" style="6" bestFit="1" customWidth="1"/>
@@ -6611,10 +6653,10 @@
       <c r="M1" s="194" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="274" t="s">
+      <c r="N1" s="253" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="280" t="s">
+      <c r="O1" s="259" t="s">
         <v>108</v>
       </c>
       <c r="P1" s="2"/>
@@ -6627,7 +6669,7 @@
       <c r="S1" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="289" t="s">
+      <c r="T1" s="268" t="s">
         <v>15</v>
       </c>
       <c r="V1" s="2" t="s">
@@ -6636,7 +6678,7 @@
       <c r="W1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="X1" s="246" t="s">
+      <c r="X1" s="225" t="s">
         <v>91</v>
       </c>
       <c r="Y1" s="108" t="s">
@@ -6719,10 +6761,10 @@
       <c r="M2" s="33">
         <v>44834</v>
       </c>
-      <c r="N2" s="310">
+      <c r="N2" s="289">
         <v>44926</v>
       </c>
-      <c r="O2" s="281"/>
+      <c r="O2" s="260"/>
       <c r="Q2" s="65" t="s">
         <v>286</v>
       </c>
@@ -6732,7 +6774,7 @@
       <c r="S2" s="65" t="s">
         <v>286</v>
       </c>
-      <c r="T2" s="290" t="s">
+      <c r="T2" s="269" t="s">
         <v>288</v>
       </c>
       <c r="V2" s="33">
@@ -6741,7 +6783,7 @@
       <c r="W2" s="33">
         <v>44561</v>
       </c>
-      <c r="X2" s="310">
+      <c r="X2" s="289">
         <v>44926</v>
       </c>
       <c r="Y2" s="109" t="s">
@@ -6827,10 +6869,10 @@
       <c r="M3" s="4">
         <v>517.70699999999999</v>
       </c>
-      <c r="N3" s="247">
+      <c r="N3" s="226">
         <v>579.00400000000002</v>
       </c>
-      <c r="O3" s="288">
+      <c r="O3" s="267">
         <f>N3*(1+O27)</f>
         <v>607.95420000000001</v>
       </c>
@@ -6846,7 +6888,7 @@
         <f>I3*1.25</f>
         <v>636.67000000000007</v>
       </c>
-      <c r="T3" s="291">
+      <c r="T3" s="270">
         <v>621.24839999999995</v>
       </c>
       <c r="V3" s="3">
@@ -6857,7 +6899,7 @@
         <f>SUM(G3:J3)</f>
         <v>1919.181</v>
       </c>
-      <c r="X3" s="260">
+      <c r="X3" s="239">
         <f>SUM(K3:N3)</f>
         <v>2225.0519999999997</v>
       </c>
@@ -6959,7 +7001,7 @@
       <c r="M4" s="5">
         <v>126.437</v>
       </c>
-      <c r="N4" s="248">
+      <c r="N4" s="227">
         <v>142.43199999999999</v>
       </c>
       <c r="O4" s="136">
@@ -6978,7 +7020,7 @@
         <f>S3-S5</f>
         <v>165.5342</v>
       </c>
-      <c r="T4" s="292">
+      <c r="T4" s="271">
         <v>107.47144999999999</v>
       </c>
       <c r="V4" s="36">
@@ -6989,7 +7031,7 @@
         <f>SUM(G4:J4)</f>
         <v>496.87</v>
       </c>
-      <c r="X4" s="261">
+      <c r="X4" s="240">
         <f>SUM(K4:N4)</f>
         <v>547.65800000000002</v>
       </c>
@@ -7102,11 +7144,11 @@
         <f t="shared" si="6"/>
         <v>391.27</v>
       </c>
-      <c r="N5" s="247">
+      <c r="N5" s="226">
         <f t="shared" si="6"/>
         <v>436.572</v>
       </c>
-      <c r="O5" s="282">
+      <c r="O5" s="261">
         <f>O3-O4</f>
         <v>455.96564999999998</v>
       </c>
@@ -7123,7 +7165,7 @@
         <f>S3*0.74</f>
         <v>471.13580000000007</v>
       </c>
-      <c r="T5" s="293">
+      <c r="T5" s="272">
         <v>472.14878399999998</v>
       </c>
       <c r="U5" s="1"/>
@@ -7135,7 +7177,7 @@
         <f>W3-W4</f>
         <v>1422.3110000000001</v>
       </c>
-      <c r="X5" s="260">
+      <c r="X5" s="239">
         <f>X3-X4</f>
         <v>1677.3939999999998</v>
       </c>
@@ -7237,10 +7279,10 @@
       <c r="M6" s="5">
         <v>151.47</v>
       </c>
-      <c r="N6" s="249">
+      <c r="N6" s="228">
         <v>182.11500000000001</v>
       </c>
-      <c r="O6" s="283"/>
+      <c r="O6" s="262"/>
       <c r="P6" s="23"/>
       <c r="Q6" s="69">
         <f>G6*1.025</f>
@@ -7254,7 +7296,7 @@
         <f>I6*1.15</f>
         <v>149.44479999999999</v>
       </c>
-      <c r="T6" s="294">
+      <c r="T6" s="273">
         <v>183.67455000000001</v>
       </c>
       <c r="V6" s="36">
@@ -7265,11 +7307,11 @@
         <f>SUM(G6:J6)</f>
         <v>538.32100000000003</v>
       </c>
-      <c r="X6" s="262">
+      <c r="X6" s="241">
         <f>SUM(K6:N6)</f>
         <v>623.85500000000002</v>
       </c>
-      <c r="Y6" s="269">
+      <c r="Y6" s="248">
         <f>X6*1.015</f>
         <v>633.21282499999995</v>
       </c>
@@ -7367,10 +7409,10 @@
       <c r="M7" s="5">
         <v>190.98599999999999</v>
       </c>
-      <c r="N7" s="249">
+      <c r="N7" s="228">
         <v>198.505</v>
       </c>
-      <c r="O7" s="283"/>
+      <c r="O7" s="262"/>
       <c r="P7" s="23"/>
       <c r="Q7" s="69">
         <f>J7*1.11</f>
@@ -7384,7 +7426,7 @@
         <f>I7*1.5</f>
         <v>176.0805</v>
       </c>
-      <c r="T7" s="294">
+      <c r="T7" s="273">
         <v>203.98349999999999</v>
       </c>
       <c r="V7" s="36">
@@ -7395,11 +7437,11 @@
         <f>SUM(G7:J7)</f>
         <v>456.49800000000005</v>
       </c>
-      <c r="X7" s="262">
+      <c r="X7" s="241">
         <f>SUM(K7:N7)</f>
         <v>689.08100000000002</v>
       </c>
-      <c r="Y7" s="269">
+      <c r="Y7" s="248">
         <f>X7*1.05</f>
         <v>723.53505000000007</v>
       </c>
@@ -7497,10 +7539,10 @@
       <c r="M8" s="5">
         <v>235.55099999999999</v>
       </c>
-      <c r="N8" s="250">
+      <c r="N8" s="229">
         <v>248.40700000000001</v>
       </c>
-      <c r="O8" s="284">
+      <c r="O8" s="263">
         <f>N8*(1+O30)</f>
         <v>255.85921000000002</v>
       </c>
@@ -7517,7 +7559,7 @@
         <f>R8*1.012</f>
         <v>182.05388572800001</v>
       </c>
-      <c r="T8" s="295">
+      <c r="T8" s="274">
         <v>254.39508000000001</v>
       </c>
       <c r="V8" s="36">
@@ -7528,11 +7570,11 @@
         <f>SUM(G8:J8)</f>
         <v>533.20699999999999</v>
       </c>
-      <c r="X8" s="262">
+      <c r="X8" s="241">
         <f>SUM(K8:N8)</f>
         <v>873.47699999999998</v>
       </c>
-      <c r="Y8" s="269">
+      <c r="Y8" s="248">
         <f>X8*1</f>
         <v>873.47699999999998</v>
       </c>
@@ -7630,7 +7672,7 @@
       <c r="M9" s="5">
         <v>81.165000000000006</v>
       </c>
-      <c r="N9" s="248">
+      <c r="N9" s="227">
         <v>79.703999999999994</v>
       </c>
       <c r="O9" s="136"/>
@@ -7647,7 +7689,7 @@
         <f>R9*1.01</f>
         <v>58.933217200000001</v>
       </c>
-      <c r="T9" s="292">
+      <c r="T9" s="271">
         <v>81.976650000000006</v>
       </c>
       <c r="V9" s="36">
@@ -7658,11 +7700,11 @@
         <f>SUM(G9:J9)</f>
         <v>303.02</v>
       </c>
-      <c r="X9" s="262">
+      <c r="X9" s="241">
         <f>SUM(K9:N9)</f>
         <v>297.31700000000001</v>
       </c>
-      <c r="Y9" s="269">
+      <c r="Y9" s="248">
         <f>X9*1</f>
         <v>297.31700000000001</v>
       </c>
@@ -7760,7 +7802,7 @@
       <c r="M10" s="5">
         <v>32.104999999999997</v>
       </c>
-      <c r="N10" s="250">
+      <c r="N10" s="229">
         <v>29.74</v>
       </c>
       <c r="O10" s="210"/>
@@ -7776,7 +7818,7 @@
         <f>R10*1.05</f>
         <v>32.084955000000001</v>
       </c>
-      <c r="T10" s="295">
+      <c r="T10" s="274">
         <v>33.710249999999995</v>
       </c>
       <c r="V10" s="36">
@@ -7787,11 +7829,11 @@
         <f>SUM(G10:J10)</f>
         <v>86.363</v>
       </c>
-      <c r="X10" s="262">
+      <c r="X10" s="241">
         <f>SUM(K10:N10)</f>
         <v>117.44799999999999</v>
       </c>
-      <c r="Y10" s="269">
+      <c r="Y10" s="248">
         <f>X10*0.95</f>
         <v>111.57559999999999</v>
       </c>
@@ -7900,7 +7942,7 @@
         <f t="shared" ref="M11" si="22">M10+M9+M8+M7+M6</f>
         <v>691.27700000000004</v>
       </c>
-      <c r="N11" s="248">
+      <c r="N11" s="227">
         <f t="shared" si="21"/>
         <v>738.471</v>
       </c>
@@ -7917,7 +7959,7 @@
         <f>S10+S9+S8+S7+S6</f>
         <v>598.59735792800006</v>
       </c>
-      <c r="T11" s="292">
+      <c r="T11" s="271">
         <v>757.74002999999993</v>
       </c>
       <c r="V11" s="9">
@@ -7928,7 +7970,7 @@
         <f>SUM(W6:W10)</f>
         <v>1917.4090000000001</v>
       </c>
-      <c r="X11" s="263">
+      <c r="X11" s="242">
         <f>SUM(X6:X10)</f>
         <v>2601.1779999999999</v>
       </c>
@@ -8034,18 +8076,18 @@
         <v>-151.61100000000005</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" ref="L12:N12" si="28">L5-L11</f>
+        <f t="shared" ref="L12" si="28">L5-L11</f>
         <v>-170.26700000000005</v>
       </c>
       <c r="M12" s="4">
         <f t="shared" ref="M12:N12" si="29">M5-M11</f>
         <v>-300.00700000000006</v>
       </c>
-      <c r="N12" s="247">
+      <c r="N12" s="226">
         <f t="shared" si="29"/>
         <v>-301.899</v>
       </c>
-      <c r="O12" s="285"/>
+      <c r="O12" s="264"/>
       <c r="Q12" s="66">
         <f>Q5-Q11</f>
         <v>-112.34254840000006</v>
@@ -8058,7 +8100,7 @@
         <f>S5-S11</f>
         <v>-127.46155792799999</v>
       </c>
-      <c r="T12" s="291">
+      <c r="T12" s="270">
         <v>-285.59124599999996</v>
       </c>
       <c r="V12" s="4">
@@ -8069,7 +8111,7 @@
         <f>W5-W11</f>
         <v>-495.09799999999996</v>
       </c>
-      <c r="X12" s="247">
+      <c r="X12" s="226">
         <f>X5-X11</f>
         <v>-923.78400000000011</v>
       </c>
@@ -8172,7 +8214,7 @@
       <c r="M13" s="5">
         <v>12.763999999999999</v>
       </c>
-      <c r="N13" s="248">
+      <c r="N13" s="227">
         <f>21.636-10.008</f>
         <v>11.628</v>
       </c>
@@ -8189,7 +8231,7 @@
         <f t="shared" si="33"/>
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="T13" s="292">
+      <c r="T13" s="271">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="V13" s="36">
@@ -8200,11 +8242,11 @@
         <f>SUM(G13:J13)</f>
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="X13" s="262">
+      <c r="X13" s="241">
         <f>SUM(K13:N13)</f>
         <v>18.942999999999998</v>
       </c>
-      <c r="Y13" s="269">
+      <c r="Y13" s="248">
         <f>X13*1.008</f>
         <v>19.094543999999999</v>
       </c>
@@ -8303,10 +8345,10 @@
       <c r="M14" s="37">
         <v>0</v>
       </c>
-      <c r="N14" s="251">
+      <c r="N14" s="230">
         <v>1.988</v>
       </c>
-      <c r="O14" s="286"/>
+      <c r="O14" s="265"/>
       <c r="Q14" s="72">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -8319,7 +8361,7 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="T14" s="296">
+      <c r="T14" s="275">
         <v>1.4E-2</v>
       </c>
       <c r="V14" s="45">
@@ -8330,11 +8372,11 @@
         <f>SUM(G14:J14)</f>
         <v>1.4E-2</v>
       </c>
-      <c r="X14" s="262">
-        <f t="shared" ref="X14:X20" si="36">SUM(K14:N14)</f>
+      <c r="X14" s="241">
+        <f t="shared" ref="X14:X18" si="36">SUM(K14:N14)</f>
         <v>2.0019999999999998</v>
       </c>
-      <c r="Y14" s="270">
+      <c r="Y14" s="249">
         <f>X14</f>
         <v>2.0019999999999998</v>
       </c>
@@ -8434,10 +8476,10 @@
         <f>4.302+10.005</f>
         <v>14.307</v>
       </c>
-      <c r="N15" s="251">
+      <c r="N15" s="230">
         <v>0</v>
       </c>
-      <c r="O15" s="286"/>
+      <c r="O15" s="265"/>
       <c r="Q15" s="72">
         <f t="shared" si="33"/>
         <v>1.05</v>
@@ -8450,7 +8492,7 @@
         <f t="shared" si="33"/>
         <v>0.77</v>
       </c>
-      <c r="T15" s="296">
+      <c r="T15" s="275">
         <v>6.9980000000000002</v>
       </c>
       <c r="V15" s="36">
@@ -8461,7 +8503,7 @@
         <f>SUM(G15:J15)</f>
         <v>8.8179999999999996</v>
       </c>
-      <c r="X15" s="262">
+      <c r="X15" s="241">
         <f t="shared" si="36"/>
         <v>27.736000000000001</v>
       </c>
@@ -8574,7 +8616,7 @@
         <f t="shared" si="41"/>
         <v>-301.55000000000007</v>
       </c>
-      <c r="N16" s="248">
+      <c r="N16" s="227">
         <f t="shared" si="41"/>
         <v>-288.28300000000002</v>
       </c>
@@ -8591,7 +8633,7 @@
         <f>S12+S13+S14-S15</f>
         <v>-128.20355792799998</v>
       </c>
-      <c r="T16" s="292">
+      <c r="T16" s="271">
         <v>-292.54224599999992</v>
       </c>
       <c r="V16" s="5">
@@ -8602,7 +8644,7 @@
         <f>W12+W13+W14-W15</f>
         <v>-503.80999999999995</v>
       </c>
-      <c r="X16" s="262">
+      <c r="X16" s="241">
         <f t="shared" si="36"/>
         <v>-930.57500000000016</v>
       </c>
@@ -8704,7 +8746,7 @@
       <c r="M17" s="5">
         <v>0.35199999999999998</v>
       </c>
-      <c r="N17" s="248">
+      <c r="N17" s="227">
         <v>3.202</v>
       </c>
       <c r="O17" s="136"/>
@@ -8720,7 +8762,7 @@
         <f>R17*1.005</f>
         <v>0.27876689999999998</v>
       </c>
-      <c r="T17" s="292">
+      <c r="T17" s="271">
         <v>0.35375999999999996</v>
       </c>
       <c r="V17" s="36">
@@ -8731,7 +8773,7 @@
         <f>SUM(G17:J17)</f>
         <v>-0.31999999999999995</v>
       </c>
-      <c r="X17" s="262">
+      <c r="X17" s="241">
         <f t="shared" si="36"/>
         <v>4.1079999999999997</v>
       </c>
@@ -8801,7 +8843,7 @@
         <v>27</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" ref="C18:N18" si="48">+C16-C17</f>
+        <f t="shared" ref="C18:J18" si="48">+C16-C17</f>
         <v>-74.87700000000001</v>
       </c>
       <c r="D18" s="4">
@@ -8844,11 +8886,11 @@
         <f t="shared" si="49"/>
         <v>-301.90200000000004</v>
       </c>
-      <c r="N18" s="247">
+      <c r="N18" s="226">
         <f t="shared" si="49"/>
         <v>-291.48500000000001</v>
       </c>
-      <c r="O18" s="285"/>
+      <c r="O18" s="264"/>
       <c r="Q18" s="66">
         <f>+Q16-Q17</f>
         <v>-114.04682840000005</v>
@@ -8861,7 +8903,7 @@
         <f>+S16-S17</f>
         <v>-128.48232482799997</v>
       </c>
-      <c r="T18" s="291">
+      <c r="T18" s="270">
         <v>-292.89600599999994</v>
       </c>
       <c r="V18" s="3">
@@ -8872,7 +8914,7 @@
         <f>W16-W17</f>
         <v>-503.48999999999995</v>
       </c>
-      <c r="X18" s="262">
+      <c r="X18" s="241">
         <f t="shared" si="36"/>
         <v>-934.68300000000011</v>
       </c>
@@ -9141,11 +9183,11 @@
         <f t="shared" si="54"/>
         <v>-0.50503948783747843</v>
       </c>
-      <c r="N19" s="252">
+      <c r="N19" s="231">
         <f t="shared" si="54"/>
         <v>-0.4843077863752141</v>
       </c>
-      <c r="O19" s="287"/>
+      <c r="O19" s="266"/>
       <c r="Q19" s="73">
         <f>Q18/Q20</f>
         <v>-0.1961134384000964</v>
@@ -9158,7 +9200,7 @@
         <f>S18/S20</f>
         <v>-0.21632643153378855</v>
       </c>
-      <c r="T19" s="297">
+      <c r="T19" s="276">
         <v>-0.48997372942174272</v>
       </c>
       <c r="V19" s="8">
@@ -9169,7 +9211,7 @@
         <f>W18/W20</f>
         <v>-0.99708838467978411</v>
       </c>
-      <c r="X19" s="252">
+      <c r="X19" s="231">
         <f>X18/X20</f>
         <v>-1.5529933090640833</v>
       </c>
@@ -9271,7 +9313,7 @@
       <c r="M20" s="5">
         <v>597.779</v>
       </c>
-      <c r="N20" s="248">
+      <c r="N20" s="227">
         <v>601.85900000000004</v>
       </c>
       <c r="O20" s="136"/>
@@ -9285,7 +9327,7 @@
         <f>L20</f>
         <v>593.928</v>
       </c>
-      <c r="T20" s="292">
+      <c r="T20" s="271">
         <v>597.779</v>
       </c>
       <c r="V20" s="9">
@@ -9296,7 +9338,7 @@
         <f>AVERAGE(G20:J20)</f>
         <v>504.96024999999997</v>
       </c>
-      <c r="X20" s="262">
+      <c r="X20" s="241">
         <f>N20</f>
         <v>601.85900000000004</v>
       </c>
@@ -9370,7 +9412,7 @@
       <c r="Q21" s="71"/>
       <c r="R21" s="166"/>
       <c r="S21" s="71"/>
-      <c r="T21" s="298"/>
+      <c r="T21" s="277"/>
       <c r="AO21" s="128" t="s">
         <v>118</v>
       </c>
@@ -9426,7 +9468,7 @@
         <f t="shared" si="60"/>
         <v>0.75577498469211346</v>
       </c>
-      <c r="N22" s="254">
+      <c r="N22" s="233">
         <f t="shared" ref="N22" si="61">N5/N3</f>
         <v>0.75400515367769483</v>
       </c>
@@ -9442,10 +9484,10 @@
         <v>0.74</v>
       </c>
       <c r="S22" s="74">
-        <f t="shared" ref="S22:T22" si="62">S5/S3</f>
+        <f t="shared" ref="S22" si="62">S5/S3</f>
         <v>0.74</v>
       </c>
-      <c r="T22" s="299">
+      <c r="T22" s="278">
         <v>0.76</v>
       </c>
       <c r="V22" s="10">
@@ -9456,7 +9498,7 @@
         <f>W5/W3</f>
         <v>0.74110310596030293</v>
       </c>
-      <c r="X22" s="254">
+      <c r="X22" s="233">
         <f t="shared" ref="X22:AK22" si="63">X5/X3</f>
         <v>0.75386732534790202</v>
       </c>
@@ -9576,7 +9618,7 @@
         <f t="shared" ref="M23:N23" si="67">M12/M3</f>
         <v>-0.5794918747476856</v>
       </c>
-      <c r="N23" s="254">
+      <c r="N23" s="233">
         <f t="shared" si="67"/>
         <v>-0.52141090562414072</v>
       </c>
@@ -9590,10 +9632,10 @@
         <v>-0.31959466683854248</v>
       </c>
       <c r="S23" s="74">
-        <f t="shared" ref="S23:T23" si="68">S12/S3</f>
+        <f t="shared" ref="S23" si="68">S12/S3</f>
         <v>-0.20020035171753023</v>
       </c>
-      <c r="T23" s="299">
+      <c r="T23" s="278">
         <v>-0.45970540286300937</v>
       </c>
       <c r="V23" s="10">
@@ -9604,7 +9646,7 @@
         <f>W12/W3</f>
         <v>-0.25797358352338834</v>
       </c>
-      <c r="X23" s="254">
+      <c r="X23" s="233">
         <f t="shared" ref="X23:AK23" si="69">X12/X3</f>
         <v>-0.41517411727905695</v>
       </c>
@@ -9725,7 +9767,7 @@
         <f t="shared" ref="M24:N24" si="73">M18/M3</f>
         <v>-0.5831522463478378</v>
       </c>
-      <c r="N24" s="254">
+      <c r="N24" s="233">
         <f t="shared" si="73"/>
         <v>-0.50342484680589428</v>
       </c>
@@ -9739,10 +9781,10 @@
         <v>-0.32004473066532035</v>
       </c>
       <c r="S24" s="74">
-        <f t="shared" ref="S24:T24" si="74">S18/S3</f>
+        <f t="shared" ref="S24" si="74">S18/S3</f>
         <v>-0.20180364211915114</v>
       </c>
-      <c r="T24" s="299">
+      <c r="T24" s="278">
         <v>-0.47146359813562494</v>
       </c>
       <c r="V24" s="10">
@@ -9753,7 +9795,7 @@
         <f>W18/W3</f>
         <v>-0.26234628208595223</v>
       </c>
-      <c r="X24" s="254">
+      <c r="X24" s="233">
         <f t="shared" ref="X24:AK24" si="75">X18/X3</f>
         <v>-0.42007242976793363</v>
       </c>
@@ -9873,7 +9915,7 @@
         <f t="shared" ref="M25:N25" si="79">M17/M16</f>
         <v>-1.1673022715967497E-3</v>
       </c>
-      <c r="N25" s="254">
+      <c r="N25" s="233">
         <f t="shared" si="79"/>
         <v>-1.1107141246622243E-2</v>
       </c>
@@ -9887,10 +9929,10 @@
         <v>-1.554111834331342E-3</v>
       </c>
       <c r="S25" s="74">
-        <f t="shared" ref="S25:T25" si="80">S17/S16</f>
+        <f t="shared" ref="S25" si="80">S17/S16</f>
         <v>-2.1744084525061108E-3</v>
       </c>
-      <c r="T25" s="299">
+      <c r="T25" s="278">
         <v>-1.209261242904384E-3</v>
       </c>
       <c r="V25" s="10">
@@ -9901,7 +9943,7 @@
         <f>W17/W16</f>
         <v>6.3516008018896014E-4</v>
       </c>
-      <c r="X25" s="254">
+      <c r="X25" s="233">
         <f t="shared" ref="X25:AK25" si="81">X17/X16</f>
         <v>-4.4144749214195516E-3</v>
       </c>
@@ -9979,7 +10021,7 @@
       <c r="Q26" s="71"/>
       <c r="R26" s="166"/>
       <c r="S26" s="71"/>
-      <c r="T26" s="298"/>
+      <c r="T26" s="277"/>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
       <c r="AO26" s="38" t="s">
@@ -10058,7 +10100,7 @@
         <f>S3/L3-1</f>
         <v>7.6898615882423638E-2</v>
       </c>
-      <c r="T27" s="299">
+      <c r="T27" s="278">
         <v>-2.4222281558735514E-2</v>
       </c>
       <c r="V27" s="201" t="s">
@@ -10139,7 +10181,7 @@
         <f>S3/I3-1</f>
         <v>0.25000000000000022</v>
       </c>
-      <c r="T28" s="300">
+      <c r="T28" s="279">
         <v>9.2268390154878199E-2</v>
       </c>
       <c r="V28" s="13"/>
@@ -10147,7 +10189,7 @@
         <f>W3/V3-1</f>
         <v>1.0772942519902369</v>
       </c>
-      <c r="X28" s="255">
+      <c r="X28" s="234">
         <f t="shared" ref="X28:AK28" si="89">X3/W3-1</f>
         <v>0.15937579623808262</v>
       </c>
@@ -10236,10 +10278,10 @@
       <c r="Q29" s="75"/>
       <c r="R29" s="168"/>
       <c r="S29" s="196"/>
-      <c r="T29" s="300"/>
+      <c r="T29" s="279"/>
       <c r="V29" s="13"/>
       <c r="W29" s="13"/>
-      <c r="X29" s="255"/>
+      <c r="X29" s="234"/>
       <c r="Y29" s="113"/>
       <c r="Z29" s="13"/>
       <c r="AA29" s="13"/>
@@ -10316,12 +10358,12 @@
         <f>S8/L8-1</f>
         <v>-0.14026981054699483</v>
       </c>
-      <c r="T30" s="301">
+      <c r="T30" s="280">
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="V30" s="189"/>
       <c r="W30" s="189"/>
-      <c r="X30" s="256"/>
+      <c r="X30" s="235"/>
       <c r="Y30" s="190"/>
       <c r="Z30" s="189"/>
       <c r="AA30" s="189"/>
@@ -10393,7 +10435,7 @@
         <f>S8/I8-1</f>
         <v>0.31689309362363915</v>
       </c>
-      <c r="T31" s="302">
+      <c r="T31" s="281">
         <v>0.46566272973440115</v>
       </c>
       <c r="V31" s="13"/>
@@ -10401,7 +10443,7 @@
         <f>W8/V8-1</f>
         <v>1.6470687523891319</v>
       </c>
-      <c r="X31" s="255"/>
+      <c r="X31" s="234"/>
       <c r="Y31" s="113"/>
       <c r="Z31" s="13"/>
       <c r="AA31" s="13"/>
@@ -10430,15 +10472,15 @@
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
-      <c r="N32" s="255"/>
+      <c r="N32" s="234"/>
       <c r="O32" s="209"/>
       <c r="Q32" s="13"/>
       <c r="R32" s="168"/>
       <c r="S32" s="75"/>
-      <c r="T32" s="300"/>
+      <c r="T32" s="279"/>
       <c r="V32" s="13"/>
       <c r="W32" s="13"/>
-      <c r="X32" s="255"/>
+      <c r="X32" s="234"/>
       <c r="Y32" s="113"/>
       <c r="Z32" s="13"/>
       <c r="AA32" s="13"/>
@@ -10472,15 +10514,15 @@
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
-      <c r="N33" s="255"/>
+      <c r="N33" s="234"/>
       <c r="O33" s="209"/>
       <c r="Q33" s="13"/>
       <c r="R33" s="168"/>
       <c r="S33" s="75"/>
-      <c r="T33" s="300"/>
+      <c r="T33" s="279"/>
       <c r="V33" s="13"/>
       <c r="W33" s="13"/>
-      <c r="X33" s="255"/>
+      <c r="X33" s="234"/>
       <c r="Y33" s="113"/>
       <c r="Z33" s="13"/>
       <c r="AA33" s="13"/>
@@ -10537,7 +10579,7 @@
       <c r="M34" s="4">
         <v>701.7</v>
       </c>
-      <c r="N34" s="257">
+      <c r="N34" s="236">
         <v>899.4</v>
       </c>
       <c r="O34" s="209"/>
@@ -10550,7 +10592,7 @@
         <f>R34*(1+S35)</f>
         <v>637.53384014999995</v>
       </c>
-      <c r="T34" s="303">
+      <c r="T34" s="282">
         <v>757.83600000000013</v>
       </c>
       <c r="V34" s="3">
@@ -10629,7 +10671,7 @@
         <f t="shared" ref="M35" si="98">M34/L34-1</f>
         <v>9.6574162918696915E-2</v>
       </c>
-      <c r="N35" s="255">
+      <c r="N35" s="234">
         <f>N34/M34-1</f>
         <v>0.28174433518597675</v>
       </c>
@@ -10641,7 +10683,7 @@
       <c r="S35" s="75">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="T35" s="300">
+      <c r="T35" s="279">
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="V35" s="195" t="s">
@@ -10715,7 +10757,7 @@
         <f t="shared" ref="M36" si="100">M34/I34-1</f>
         <v>0.10013122557158383</v>
       </c>
-      <c r="N36" s="258">
+      <c r="N36" s="237">
         <f>N34/J34-1</f>
         <v>0.16787600828966021</v>
       </c>
@@ -10727,7 +10769,7 @@
         <f>S34/I34-1</f>
         <v>-4.6902535616688557E-4</v>
       </c>
-      <c r="T36" s="304">
+      <c r="T36" s="283">
         <v>-1.5945649746271773E-2</v>
       </c>
       <c r="W36" s="80">
@@ -10740,115 +10782,103 @@
       </c>
       <c r="AP36" s="52"/>
     </row>
-    <row r="37" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-      <c r="AP37" s="52"/>
+    <row r="37" spans="2:42" s="320" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B37" s="315" t="s">
+        <v>318</v>
+      </c>
+      <c r="C37" s="316"/>
+      <c r="D37" s="316"/>
+      <c r="E37" s="316"/>
+      <c r="F37" s="316"/>
+      <c r="G37" s="317"/>
+      <c r="H37" s="317"/>
+      <c r="I37" s="317"/>
+      <c r="J37" s="317"/>
+      <c r="K37" s="317"/>
+      <c r="L37" s="317"/>
+      <c r="M37" s="317"/>
+      <c r="N37" s="318">
+        <v>2128</v>
+      </c>
+      <c r="O37" s="319"/>
+      <c r="Q37" s="317"/>
+      <c r="R37" s="321"/>
+      <c r="S37" s="322"/>
+      <c r="T37" s="323"/>
+      <c r="W37" s="317"/>
+      <c r="X37" s="317">
+        <v>2128</v>
+      </c>
+      <c r="Y37" s="324"/>
     </row>
     <row r="38" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="1"/>
+      <c r="AP38" s="52"/>
+    </row>
+    <row r="39" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B39" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="99"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="99"/>
-      <c r="K38" s="99"/>
-      <c r="L38" s="99"/>
-      <c r="M38" s="99"/>
-    </row>
-    <row r="39" spans="2:42" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="99"/>
+      <c r="K39" s="99"/>
+      <c r="L39" s="99"/>
+      <c r="M39" s="99"/>
+    </row>
+    <row r="40" spans="2:42" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F39" s="4">
+      <c r="C40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="4">
         <v>893.94299999999998</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G40" s="4">
         <v>1600.53</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H40" s="4">
         <v>1780.2619999999999</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I40" s="4">
         <v>1925.559</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J40" s="4">
         <f>3004.3</f>
         <v>3004.3</v>
       </c>
-      <c r="K39" s="152">
+      <c r="K40" s="152">
         <v>3132.9639999999999</v>
       </c>
-      <c r="L39" s="152">
+      <c r="L40" s="152">
         <v>3075.4749999999999</v>
       </c>
-      <c r="M39" s="152">
+      <c r="M40" s="152">
         <v>3021.5070000000001</v>
       </c>
-      <c r="N39" s="247">
+      <c r="N40" s="226">
         <v>2977.4740000000002</v>
       </c>
-      <c r="O39" s="281"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="2"/>
-      <c r="X39" s="265"/>
-      <c r="Y39" s="271"/>
-    </row>
-    <row r="40" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="B40" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F40" s="5">
-        <v>246.98599999999999</v>
-      </c>
-      <c r="G40" s="5">
-        <v>233.78100000000001</v>
-      </c>
-      <c r="H40" s="5">
-        <v>217.01</v>
-      </c>
-      <c r="I40" s="5">
-        <v>168.762</v>
-      </c>
-      <c r="J40" s="5">
-        <v>307.34899999999999</v>
-      </c>
-      <c r="K40" s="76">
-        <v>179.732</v>
-      </c>
-      <c r="L40" s="76">
-        <v>186.82499999999999</v>
-      </c>
-      <c r="M40" s="76">
-        <v>185.83099999999999</v>
-      </c>
-      <c r="N40" s="248">
-        <v>379.35300000000001</v>
-      </c>
+      <c r="O40" s="260"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="2"/>
+      <c r="X40" s="244"/>
+      <c r="Y40" s="250"/>
     </row>
     <row r="41" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>33</v>
@@ -10860,36 +10890,36 @@
         <v>33</v>
       </c>
       <c r="F41" s="5">
-        <v>26.274000000000001</v>
+        <v>246.98599999999999</v>
       </c>
       <c r="G41" s="5">
-        <v>29.135000000000002</v>
+        <v>233.78100000000001</v>
       </c>
       <c r="H41" s="5">
-        <v>45.432000000000002</v>
+        <v>217.01</v>
       </c>
       <c r="I41" s="5">
-        <v>37.667000000000002</v>
+        <v>168.762</v>
       </c>
       <c r="J41" s="5">
-        <v>32.091000000000001</v>
+        <v>307.34899999999999</v>
       </c>
       <c r="K41" s="76">
-        <v>43.122999999999998</v>
+        <v>179.732</v>
       </c>
       <c r="L41" s="76">
-        <v>57.594999999999999</v>
+        <v>186.82499999999999</v>
       </c>
       <c r="M41" s="76">
-        <v>72.924999999999997</v>
-      </c>
-      <c r="N41" s="248">
-        <v>61.640999999999998</v>
+        <v>185.83099999999999</v>
+      </c>
+      <c r="N41" s="227">
+        <v>379.35300000000001</v>
       </c>
     </row>
     <row r="42" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>33</v>
@@ -10901,36 +10931,36 @@
         <v>33</v>
       </c>
       <c r="F42" s="5">
-        <v>256.928</v>
+        <v>26.274000000000001</v>
       </c>
       <c r="G42" s="5">
-        <v>309.38799999999998</v>
+        <v>29.135000000000002</v>
       </c>
       <c r="H42" s="5">
-        <v>351.57299999999998</v>
+        <v>45.432000000000002</v>
       </c>
       <c r="I42" s="5">
-        <v>379.61099999999999</v>
+        <v>37.667000000000002</v>
       </c>
       <c r="J42" s="5">
-        <v>406.02499999999998</v>
+        <v>32.091000000000001</v>
       </c>
       <c r="K42" s="76">
-        <v>398.19400000000002</v>
+        <v>43.122999999999998</v>
       </c>
       <c r="L42" s="76">
-        <v>405.89100000000002</v>
+        <v>57.594999999999999</v>
       </c>
       <c r="M42" s="76">
-        <v>387.81700000000001</v>
-      </c>
-      <c r="N42" s="248">
-        <v>420.13600000000002</v>
+        <v>72.924999999999997</v>
+      </c>
+      <c r="N42" s="227">
+        <v>61.640999999999998</v>
       </c>
     </row>
     <row r="43" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>33</v>
@@ -10942,36 +10972,36 @@
         <v>33</v>
       </c>
       <c r="F43" s="5">
-        <v>206.41499999999999</v>
+        <v>256.928</v>
       </c>
       <c r="G43" s="5">
-        <v>209.79400000000001</v>
+        <v>309.38799999999998</v>
       </c>
       <c r="H43" s="5">
-        <v>218.58099999999999</v>
+        <v>351.57299999999998</v>
       </c>
       <c r="I43" s="5">
-        <v>227.33</v>
+        <v>379.61099999999999</v>
       </c>
       <c r="J43" s="5">
-        <v>271.35199999999998</v>
+        <v>406.02499999999998</v>
       </c>
       <c r="K43" s="76">
-        <v>338.87900000000002</v>
+        <v>398.19400000000002</v>
       </c>
       <c r="L43" s="76">
-        <v>425.95</v>
+        <v>405.89100000000002</v>
       </c>
       <c r="M43" s="76">
-        <v>525.928</v>
-      </c>
-      <c r="N43" s="248">
-        <v>592.346</v>
+        <v>387.81700000000001</v>
+      </c>
+      <c r="N43" s="227">
+        <v>420.13600000000002</v>
       </c>
     </row>
     <row r="44" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>33</v>
@@ -10982,37 +11012,37 @@
       <c r="E44" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F44" s="14" t="s">
-        <v>33</v>
+      <c r="F44" s="5">
+        <v>206.41499999999999</v>
       </c>
       <c r="G44" s="5">
-        <v>205.11699999999999</v>
+        <v>209.79400000000001</v>
       </c>
       <c r="H44" s="5">
-        <v>228.232</v>
+        <v>218.58099999999999</v>
       </c>
       <c r="I44" s="5">
-        <v>220.404</v>
+        <v>227.33</v>
       </c>
       <c r="J44" s="5">
-        <v>221.285</v>
+        <v>271.35199999999998</v>
       </c>
       <c r="K44" s="76">
-        <v>286.24200000000002</v>
+        <v>338.87900000000002</v>
       </c>
       <c r="L44" s="76">
-        <v>424.416</v>
+        <v>425.95</v>
       </c>
       <c r="M44" s="76">
-        <v>452.85199999999998</v>
-      </c>
-      <c r="N44" s="248">
-        <v>526.03</v>
+        <v>525.928</v>
+      </c>
+      <c r="N44" s="227">
+        <v>592.346</v>
       </c>
     </row>
     <row r="45" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>33</v>
@@ -11023,226 +11053,226 @@
       <c r="E45" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F45" s="5">
-        <v>113.79300000000001</v>
+      <c r="F45" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="G45" s="5">
-        <v>123.595</v>
+        <v>205.11699999999999</v>
       </c>
       <c r="H45" s="5">
-        <v>127.011</v>
+        <v>228.232</v>
       </c>
       <c r="I45" s="5">
-        <v>125.643</v>
+        <v>220.404</v>
       </c>
       <c r="J45" s="5">
-        <v>137.524</v>
+        <v>221.285</v>
       </c>
       <c r="K45" s="76">
-        <v>159.404</v>
+        <v>286.24200000000002</v>
       </c>
       <c r="L45" s="76">
-        <v>154.328</v>
+        <v>424.416</v>
       </c>
       <c r="M45" s="76">
-        <v>204.92099999999999</v>
-      </c>
-      <c r="N45" s="248">
-        <v>225.13200000000001</v>
+        <v>452.85199999999998</v>
+      </c>
+      <c r="N45" s="227">
+        <v>526.03</v>
       </c>
     </row>
     <row r="46" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B46" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" s="5">
+        <v>113.79300000000001</v>
+      </c>
+      <c r="G46" s="5">
+        <v>123.595</v>
+      </c>
+      <c r="H46" s="5">
+        <v>127.011</v>
+      </c>
+      <c r="I46" s="5">
+        <v>125.643</v>
+      </c>
+      <c r="J46" s="5">
+        <v>137.524</v>
+      </c>
+      <c r="K46" s="76">
+        <v>159.404</v>
+      </c>
+      <c r="L46" s="76">
+        <v>154.328</v>
+      </c>
+      <c r="M46" s="76">
+        <v>204.92099999999999</v>
+      </c>
+      <c r="N46" s="227">
+        <v>225.13200000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="B47" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F46" s="5">
+      <c r="C47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="5">
         <f>42.326+59.568</f>
         <v>101.89400000000001</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G47" s="5">
         <f>40.202+59.568</f>
         <v>99.77</v>
       </c>
-      <c r="H46" s="18">
+      <c r="H47" s="18">
         <f>38.079+59.568</f>
         <v>97.646999999999991</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I47" s="5">
         <f>118.071+63.478</f>
         <v>181.54900000000001</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J47" s="5">
         <f>59.666+118.071</f>
         <v>177.73699999999999</v>
       </c>
-      <c r="K46" s="76">
+      <c r="K47" s="76">
         <f>118.071+55.854</f>
         <v>173.92500000000001</v>
       </c>
-      <c r="L46" s="76">
+      <c r="L47" s="76">
         <f>56.317+130.453</f>
         <v>186.77</v>
       </c>
-      <c r="M46" s="76">
+      <c r="M47" s="76">
         <f>53.655+130.452</f>
         <v>184.107</v>
       </c>
-      <c r="N46" s="248">
+      <c r="N47" s="227">
         <f>134.335+54.717</f>
         <v>189.05200000000002</v>
       </c>
     </row>
-    <row r="47" spans="2:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="B47" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F47" s="5">
-        <v>1.5669999999999999</v>
-      </c>
-      <c r="G47" s="5">
-        <v>4.9690000000000003</v>
-      </c>
-      <c r="H47" s="5">
-        <v>8.0429999999999993</v>
-      </c>
-      <c r="I47" s="5">
-        <v>5.7549999999999999</v>
-      </c>
-      <c r="J47" s="5">
-        <v>2.9329999999999998</v>
-      </c>
-      <c r="K47" s="76">
-        <v>3.3679999999999999</v>
-      </c>
-      <c r="L47" s="76">
-        <v>2.17</v>
-      </c>
-      <c r="M47" s="76">
-        <v>2.4350000000000001</v>
-      </c>
-      <c r="N47" s="248">
-        <v>4.3230000000000004</v>
-      </c>
-    </row>
     <row r="48" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B48" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" s="5">
+        <v>1.5669999999999999</v>
+      </c>
+      <c r="G48" s="5">
+        <v>4.9690000000000003</v>
+      </c>
+      <c r="H48" s="5">
+        <v>8.0429999999999993</v>
+      </c>
+      <c r="I48" s="5">
+        <v>5.7549999999999999</v>
+      </c>
+      <c r="J48" s="5">
+        <v>2.9329999999999998</v>
+      </c>
+      <c r="K48" s="76">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="L48" s="76">
+        <v>2.17</v>
+      </c>
+      <c r="M48" s="76">
+        <v>2.4350000000000001</v>
+      </c>
+      <c r="N48" s="227">
+        <v>4.3230000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B49" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F48" s="5">
-        <f t="shared" ref="F48:N48" si="101">SUM(F39:F47)</f>
+      <c r="C49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="5">
+        <f t="shared" ref="F49:N49" si="101">SUM(F40:F48)</f>
         <v>1847.8</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G49" s="5">
         <f t="shared" si="101"/>
         <v>2816.0789999999997</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H49" s="5">
         <f t="shared" si="101"/>
         <v>3073.7910000000002</v>
       </c>
-      <c r="I48" s="5">
+      <c r="I49" s="5">
         <f t="shared" si="101"/>
         <v>3272.2799999999997</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J49" s="5">
         <f t="shared" si="101"/>
         <v>4560.5960000000005</v>
       </c>
-      <c r="K48" s="5">
+      <c r="K49" s="5">
         <f t="shared" si="101"/>
         <v>4715.831000000001</v>
       </c>
-      <c r="L48" s="5">
+      <c r="L49" s="5">
         <f t="shared" si="101"/>
         <v>4919.420000000001</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M49" s="5">
         <f t="shared" si="101"/>
         <v>5038.3230000000012</v>
       </c>
-      <c r="N48" s="5">
+      <c r="N49" s="5">
         <f t="shared" si="101"/>
         <v>5375.4870000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C49" s="2"/>
-      <c r="F49" s="5"/>
-      <c r="K49" s="77"/>
-      <c r="L49" s="77"/>
-      <c r="M49" s="77"/>
-    </row>
-    <row r="50" spans="2:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="B50" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F50" s="5">
-        <v>12.012</v>
-      </c>
-      <c r="G50" s="5">
-        <v>8.2690000000000001</v>
-      </c>
-      <c r="H50" s="5">
-        <v>11.112</v>
-      </c>
-      <c r="I50" s="5">
-        <v>20.733000000000001</v>
-      </c>
-      <c r="J50" s="5">
-        <v>64.394999999999996</v>
-      </c>
-      <c r="K50" s="76">
-        <v>54.295000000000002</v>
-      </c>
-      <c r="L50" s="76">
-        <v>77.509</v>
-      </c>
-      <c r="M50" s="76">
-        <v>45.098999999999997</v>
-      </c>
-      <c r="N50" s="248">
-        <v>71.182000000000002</v>
-      </c>
+    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C50" s="2"/>
+      <c r="F50" s="5"/>
+      <c r="K50" s="77"/>
+      <c r="L50" s="77"/>
+      <c r="M50" s="77"/>
     </row>
     <row r="51" spans="2:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B51" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>33</v>
@@ -11254,36 +11284,36 @@
         <v>33</v>
       </c>
       <c r="F51" s="5">
-        <v>65.391999999999996</v>
+        <v>12.012</v>
       </c>
       <c r="G51" s="5">
-        <v>122.285</v>
+        <v>8.2690000000000001</v>
       </c>
       <c r="H51" s="5">
-        <v>182.084</v>
+        <v>11.112</v>
       </c>
       <c r="I51" s="5">
-        <v>157.916</v>
+        <v>20.733000000000001</v>
       </c>
       <c r="J51" s="5">
-        <v>180.76900000000001</v>
+        <v>64.394999999999996</v>
       </c>
       <c r="K51" s="76">
-        <v>223.32300000000001</v>
+        <v>54.295000000000002</v>
       </c>
       <c r="L51" s="76">
-        <v>231.19900000000001</v>
+        <v>77.509</v>
       </c>
       <c r="M51" s="76">
-        <v>273.83199999999999</v>
-      </c>
-      <c r="N51" s="248">
-        <v>236.006</v>
+        <v>45.098999999999997</v>
+      </c>
+      <c r="N51" s="227">
+        <v>71.182000000000002</v>
       </c>
     </row>
     <row r="52" spans="2:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B52" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>33</v>
@@ -11295,36 +11325,36 @@
         <v>33</v>
       </c>
       <c r="F52" s="5">
-        <v>80.912000000000006</v>
+        <v>65.391999999999996</v>
       </c>
       <c r="G52" s="5">
-        <v>84.337000000000003</v>
+        <v>122.285</v>
       </c>
       <c r="H52" s="5">
-        <v>90.614999999999995</v>
+        <v>182.084</v>
       </c>
       <c r="I52" s="5">
-        <v>117.756</v>
+        <v>157.916</v>
       </c>
       <c r="J52" s="5">
-        <v>163.90600000000001</v>
+        <v>180.76900000000001</v>
       </c>
       <c r="K52" s="76">
-        <v>149.816</v>
+        <v>223.32300000000001</v>
       </c>
       <c r="L52" s="76">
-        <v>147.19200000000001</v>
+        <v>231.19900000000001</v>
       </c>
       <c r="M52" s="76">
-        <v>168.36699999999999</v>
-      </c>
-      <c r="N52" s="248">
-        <v>231.70400000000001</v>
+        <v>273.83199999999999</v>
+      </c>
+      <c r="N52" s="227">
+        <v>236.006</v>
       </c>
     </row>
     <row r="53" spans="2:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B53" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>33</v>
@@ -11336,38 +11366,36 @@
         <v>33</v>
       </c>
       <c r="F53" s="5">
-        <v>1070.23</v>
+        <v>80.912000000000006</v>
       </c>
       <c r="G53" s="5">
-        <v>1295.4639999999999</v>
+        <v>84.337000000000003</v>
       </c>
       <c r="H53" s="5">
-        <v>1488.2</v>
+        <v>90.614999999999995</v>
       </c>
       <c r="I53" s="5">
-        <v>1621.1859999999999</v>
+        <v>117.756</v>
       </c>
       <c r="J53" s="5">
-        <v>1758.02</v>
+        <v>163.90600000000001</v>
       </c>
       <c r="K53" s="76">
-        <v>1747.2940000000001</v>
+        <v>149.816</v>
       </c>
       <c r="L53" s="76">
-        <v>1807.6389999999999</v>
+        <v>147.19200000000001</v>
       </c>
       <c r="M53" s="76">
-        <v>1750.86</v>
-      </c>
-      <c r="N53" s="248">
-        <v>1941.943</v>
-      </c>
-      <c r="Q53" s="51"/>
-      <c r="R53" s="51"/>
+        <v>168.36699999999999</v>
+      </c>
+      <c r="N53" s="227">
+        <v>231.70400000000001</v>
+      </c>
     </row>
     <row r="54" spans="2:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>33</v>
@@ -11379,898 +11407,930 @@
         <v>33</v>
       </c>
       <c r="F54" s="5">
-        <v>484.69900000000001</v>
+        <v>1070.23</v>
       </c>
       <c r="G54" s="5">
-        <v>528.904</v>
+        <v>1295.4639999999999</v>
       </c>
       <c r="H54" s="5">
-        <v>551.66499999999996</v>
+        <v>1488.2</v>
       </c>
       <c r="I54" s="5">
-        <v>550.11800000000005</v>
+        <v>1621.1859999999999</v>
       </c>
       <c r="J54" s="5">
-        <v>616.83399999999995</v>
+        <v>1758.02</v>
       </c>
       <c r="K54" s="76">
-        <v>724.35900000000004</v>
+        <v>1747.2940000000001</v>
       </c>
       <c r="L54" s="76">
-        <v>716.154</v>
+        <v>1807.6389999999999</v>
       </c>
       <c r="M54" s="76">
-        <v>960.92399999999998</v>
-      </c>
-      <c r="N54" s="248">
-        <v>1095.2909999999999</v>
-      </c>
+        <v>1750.86</v>
+      </c>
+      <c r="N54" s="227">
+        <v>1941.943</v>
+      </c>
+      <c r="Q54" s="51"/>
+      <c r="R54" s="51"/>
     </row>
     <row r="55" spans="2:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B55" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" s="5">
+        <v>484.69900000000001</v>
+      </c>
+      <c r="G55" s="5">
+        <v>528.904</v>
+      </c>
+      <c r="H55" s="5">
+        <v>551.66499999999996</v>
+      </c>
+      <c r="I55" s="5">
+        <v>550.11800000000005</v>
+      </c>
+      <c r="J55" s="5">
+        <v>616.83399999999995</v>
+      </c>
+      <c r="K55" s="76">
+        <v>724.35900000000004</v>
+      </c>
+      <c r="L55" s="76">
+        <v>716.154</v>
+      </c>
+      <c r="M55" s="76">
+        <v>960.92399999999998</v>
+      </c>
+      <c r="N55" s="227">
+        <v>1095.2909999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B56" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G55" s="5">
+      <c r="C56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56" s="5">
         <v>184.721</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H56" s="5">
         <v>206.376</v>
       </c>
-      <c r="I55" s="5">
+      <c r="I56" s="5">
         <v>196.447</v>
       </c>
-      <c r="J55" s="5">
+      <c r="J56" s="5">
         <v>194.61600000000001</v>
       </c>
-      <c r="K55" s="76">
+      <c r="K56" s="76">
         <v>259.84100000000001</v>
       </c>
-      <c r="L55" s="76">
+      <c r="L56" s="76">
         <v>399.77600000000001</v>
       </c>
-      <c r="M55" s="76">
+      <c r="M56" s="76">
         <v>425.97300000000001</v>
       </c>
-      <c r="N55" s="248">
+      <c r="N56" s="227">
         <v>494.59</v>
       </c>
     </row>
-    <row r="56" spans="2:25" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
+    <row r="57" spans="2:25" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F56" s="4">
+      <c r="C57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="4">
         <v>0</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G57" s="4">
         <v>0</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H57" s="4">
         <v>0</v>
       </c>
-      <c r="I56" s="4">
+      <c r="I57" s="4">
         <v>0</v>
       </c>
-      <c r="J56" s="4">
+      <c r="J57" s="4">
         <v>987.72299999999996</v>
       </c>
-      <c r="K56" s="152">
+      <c r="K57" s="152">
         <v>988.03399999999999</v>
       </c>
-      <c r="L56" s="152">
+      <c r="L57" s="152">
         <v>988.34500000000003</v>
       </c>
-      <c r="M56" s="152">
+      <c r="M57" s="152">
         <v>988.66300000000001</v>
       </c>
-      <c r="N56" s="247">
+      <c r="N57" s="226">
         <v>988.98400000000004</v>
       </c>
-      <c r="O56" s="281"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
-      <c r="X56" s="265"/>
-      <c r="Y56" s="271"/>
-    </row>
-    <row r="57" spans="2:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="B57" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F57" s="5">
-        <v>22.109000000000002</v>
-      </c>
-      <c r="G57" s="5">
-        <v>0.505</v>
-      </c>
-      <c r="H57" s="5">
-        <v>1.7</v>
-      </c>
-      <c r="I57" s="5">
-        <v>2.2930000000000001</v>
-      </c>
-      <c r="J57" s="5">
-        <v>1.4079999999999999</v>
-      </c>
-      <c r="K57" s="76">
-        <v>1.4079999999999999</v>
-      </c>
-      <c r="L57" s="76">
-        <v>1.2999999999999999E-4</v>
-      </c>
-      <c r="M57" s="76">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="N57" s="248">
-        <v>10.752000000000001</v>
-      </c>
+      <c r="O57" s="260"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="X57" s="244"/>
+      <c r="Y57" s="250"/>
     </row>
     <row r="58" spans="2:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B58" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" s="5">
+        <v>22.109000000000002</v>
+      </c>
+      <c r="G58" s="5">
+        <v>0.505</v>
+      </c>
+      <c r="H58" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="I58" s="5">
+        <v>2.2930000000000001</v>
+      </c>
+      <c r="J58" s="5">
+        <v>1.4079999999999999</v>
+      </c>
+      <c r="K58" s="76">
+        <v>1.4079999999999999</v>
+      </c>
+      <c r="L58" s="76">
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="M58" s="76">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="N58" s="227">
+        <v>10.752000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B59" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F58" s="5">
-        <f t="shared" ref="F58:N58" si="102">SUM(F50:F57)</f>
+      <c r="C59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" s="5">
+        <f t="shared" ref="F59:N59" si="102">SUM(F51:F58)</f>
         <v>1735.354</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G59" s="5">
         <f t="shared" si="102"/>
         <v>2224.4850000000001</v>
       </c>
-      <c r="H58" s="5">
+      <c r="H59" s="5">
         <f t="shared" si="102"/>
         <v>2531.752</v>
       </c>
-      <c r="I58" s="5">
+      <c r="I59" s="5">
         <f t="shared" si="102"/>
         <v>2666.4490000000001</v>
       </c>
-      <c r="J58" s="5">
+      <c r="J59" s="5">
         <f t="shared" si="102"/>
         <v>3967.6709999999998</v>
       </c>
-      <c r="K58" s="5">
+      <c r="K59" s="5">
         <f t="shared" si="102"/>
         <v>4148.37</v>
       </c>
-      <c r="L58" s="5">
+      <c r="L59" s="5">
         <f t="shared" si="102"/>
         <v>4367.8141299999997</v>
       </c>
-      <c r="M58" s="5">
+      <c r="M59" s="5">
         <f t="shared" si="102"/>
         <v>4613.7309999999998</v>
       </c>
-      <c r="N58" s="5">
+      <c r="N59" s="5">
         <f t="shared" si="102"/>
         <v>5070.4520000000011</v>
       </c>
     </row>
-    <row r="59" spans="2:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-    </row>
     <row r="60" spans="2:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="B60" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F60" s="5">
-        <v>-232.381</v>
-      </c>
-      <c r="G60" s="5">
-        <v>591.59400000000005</v>
-      </c>
-      <c r="H60" s="5">
-        <v>542.03899999999999</v>
-      </c>
-      <c r="I60" s="5">
-        <v>605.84</v>
-      </c>
-      <c r="J60" s="5">
-        <v>592.923</v>
-      </c>
-      <c r="K60" s="76">
-        <v>567.46100000000001</v>
-      </c>
-      <c r="L60" s="76">
-        <v>551.59299999999996</v>
-      </c>
-      <c r="M60" s="76">
-        <v>424.59300000000002</v>
-      </c>
-      <c r="N60" s="248">
-        <v>305.03500000000003</v>
-      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
     </row>
     <row r="61" spans="2:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B61" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" s="5">
+        <v>-232.381</v>
+      </c>
+      <c r="G61" s="5">
+        <v>591.59400000000005</v>
+      </c>
+      <c r="H61" s="5">
+        <v>542.03899999999999</v>
+      </c>
+      <c r="I61" s="5">
+        <v>605.84</v>
+      </c>
+      <c r="J61" s="5">
+        <v>592.923</v>
+      </c>
+      <c r="K61" s="76">
+        <v>567.46100000000001</v>
+      </c>
+      <c r="L61" s="76">
+        <v>551.59299999999996</v>
+      </c>
+      <c r="M61" s="76">
+        <v>424.59300000000002</v>
+      </c>
+      <c r="N61" s="227">
+        <v>305.03500000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B62" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F61" s="5">
+      <c r="C62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" s="5">
         <v>1847.8</v>
       </c>
-      <c r="G61" s="5">
-        <f t="shared" ref="G61:N61" si="103">G60+G58</f>
+      <c r="G62" s="5">
+        <f t="shared" ref="G62:N62" si="103">G61+G59</f>
         <v>2816.0790000000002</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H62" s="5">
         <f t="shared" si="103"/>
         <v>3073.7910000000002</v>
       </c>
-      <c r="I61" s="5">
+      <c r="I62" s="5">
         <f t="shared" si="103"/>
         <v>3272.2890000000002</v>
       </c>
-      <c r="J61" s="5">
+      <c r="J62" s="5">
         <f t="shared" si="103"/>
         <v>4560.5940000000001</v>
       </c>
-      <c r="K61" s="5">
+      <c r="K62" s="5">
         <f t="shared" si="103"/>
         <v>4715.8310000000001</v>
       </c>
-      <c r="L61" s="5">
+      <c r="L62" s="5">
         <f t="shared" si="103"/>
         <v>4919.4071299999996</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M62" s="5">
         <f t="shared" si="103"/>
         <v>5038.3239999999996</v>
       </c>
-      <c r="N61" s="5">
+      <c r="N62" s="5">
         <f t="shared" si="103"/>
         <v>5375.487000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="F62" s="5"/>
-    </row>
     <row r="63" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B63" s="171" t="s">
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B64" s="171" t="s">
         <v>199</v>
       </c>
-      <c r="F63" s="5">
-        <f t="shared" ref="F63:K63" si="104">F48-F58</f>
+      <c r="F64" s="5">
+        <f t="shared" ref="F64:K64" si="104">F49-F59</f>
         <v>112.44599999999991</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G64" s="5">
         <f t="shared" si="104"/>
         <v>591.5939999999996</v>
       </c>
-      <c r="H63" s="5">
+      <c r="H64" s="5">
         <f t="shared" si="104"/>
         <v>542.03900000000021</v>
       </c>
-      <c r="I63" s="5">
+      <c r="I64" s="5">
         <f t="shared" si="104"/>
         <v>605.83099999999968</v>
       </c>
-      <c r="J63" s="5">
+      <c r="J64" s="5">
         <f t="shared" si="104"/>
         <v>592.92500000000064</v>
       </c>
-      <c r="K63" s="5">
+      <c r="K64" s="5">
         <f t="shared" si="104"/>
         <v>567.46100000000115</v>
       </c>
-      <c r="L63" s="5">
-        <f>L48-L58</f>
+      <c r="L64" s="5">
+        <f>L49-L59</f>
         <v>551.60587000000123</v>
       </c>
-      <c r="M63" s="5">
-        <f t="shared" ref="M63:N63" si="105">M48-M58</f>
+      <c r="M64" s="5">
+        <f t="shared" ref="M64:N64" si="105">M49-M59</f>
         <v>424.59200000000146</v>
       </c>
-      <c r="N63" s="5">
+      <c r="N64" s="5">
         <f t="shared" si="105"/>
         <v>305.03499999999894</v>
       </c>
     </row>
-    <row r="64" spans="2:25" s="183" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B64" s="183" t="s">
+    <row r="65" spans="2:25" s="183" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B65" s="183" t="s">
         <v>200</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F64" s="184">
-        <f t="shared" ref="F64:K64" si="106">F63/F20</f>
+      <c r="C65" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F65" s="184">
+        <f t="shared" ref="F65:K65" si="106">F64/F20</f>
         <v>0.576205873460791</v>
       </c>
-      <c r="G64" s="184">
+      <c r="G65" s="184">
         <f t="shared" si="106"/>
         <v>2.0324522286428865</v>
       </c>
-      <c r="H64" s="184">
+      <c r="H65" s="184">
         <f t="shared" si="106"/>
         <v>0.94878172588832532</v>
       </c>
-      <c r="I64" s="184">
+      <c r="I65" s="184">
         <f t="shared" si="106"/>
         <v>1.0519141148607816</v>
       </c>
-      <c r="J64" s="184">
+      <c r="J65" s="184">
         <f t="shared" si="106"/>
         <v>1.0195860954198812</v>
       </c>
-      <c r="K64" s="184">
+      <c r="K65" s="184">
         <f t="shared" si="106"/>
         <v>0.96421538058964962</v>
       </c>
-      <c r="L64" s="184">
-        <f>L63/L20</f>
+      <c r="L65" s="184">
+        <f>L64/L20</f>
         <v>0.92874198556054144</v>
       </c>
-      <c r="M64" s="184">
-        <f t="shared" ref="M64:N64" si="107">M63/M20</f>
+      <c r="M65" s="184">
+        <f t="shared" ref="M65:N65" si="107">M64/M20</f>
         <v>0.71028256261929823</v>
       </c>
-      <c r="N64" s="184">
+      <c r="N65" s="184">
         <f t="shared" si="107"/>
         <v>0.50682136513701537</v>
       </c>
-      <c r="O64" s="133"/>
-      <c r="Q64" s="184"/>
-      <c r="R64" s="184"/>
-      <c r="S64" s="184"/>
-      <c r="X64" s="266"/>
-      <c r="Y64" s="272"/>
-    </row>
-    <row r="65" spans="2:25" s="183" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="184"/>
-      <c r="G65" s="184"/>
-      <c r="H65" s="184"/>
-      <c r="I65" s="184"/>
-      <c r="J65" s="184"/>
-      <c r="K65" s="184"/>
-      <c r="L65" s="184"/>
-      <c r="M65" s="184"/>
-      <c r="N65" s="184"/>
       <c r="O65" s="133"/>
       <c r="Q65" s="184"/>
       <c r="R65" s="184"/>
       <c r="S65" s="184"/>
-      <c r="X65" s="266"/>
-      <c r="Y65" s="272"/>
-    </row>
-    <row r="66" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="186"/>
-      <c r="D66" s="186"/>
-      <c r="E66" s="186"/>
-      <c r="F66" s="187">
-        <f t="shared" ref="F66:K66" si="108">F39</f>
-        <v>893.94299999999998</v>
-      </c>
-      <c r="G66" s="187">
-        <f t="shared" si="108"/>
-        <v>1600.53</v>
-      </c>
-      <c r="H66" s="187">
-        <f t="shared" si="108"/>
-        <v>1780.2619999999999</v>
-      </c>
-      <c r="I66" s="187">
-        <f t="shared" si="108"/>
-        <v>1925.559</v>
-      </c>
-      <c r="J66" s="187">
-        <f t="shared" si="108"/>
-        <v>3004.3</v>
-      </c>
-      <c r="K66" s="187">
-        <f t="shared" si="108"/>
-        <v>3132.9639999999999</v>
-      </c>
-      <c r="L66" s="187">
-        <f>L39</f>
-        <v>3075.4749999999999</v>
-      </c>
-      <c r="M66" s="187">
-        <f t="shared" ref="M66:N66" si="109">M39</f>
-        <v>3021.5070000000001</v>
-      </c>
-      <c r="N66" s="187">
-        <f t="shared" si="109"/>
-        <v>2977.4740000000002</v>
-      </c>
+      <c r="X65" s="245"/>
+      <c r="Y65" s="251"/>
+    </row>
+    <row r="66" spans="2:25" s="183" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="184"/>
+      <c r="G66" s="184"/>
+      <c r="H66" s="184"/>
+      <c r="I66" s="184"/>
+      <c r="J66" s="184"/>
+      <c r="K66" s="184"/>
+      <c r="L66" s="184"/>
+      <c r="M66" s="184"/>
+      <c r="N66" s="184"/>
       <c r="O66" s="133"/>
-      <c r="Q66" s="55"/>
-      <c r="R66" s="55"/>
-      <c r="S66" s="55"/>
-      <c r="X66" s="267"/>
-      <c r="Y66" s="133"/>
+      <c r="Q66" s="184"/>
+      <c r="R66" s="184"/>
+      <c r="S66" s="184"/>
+      <c r="X66" s="245"/>
+      <c r="Y66" s="251"/>
     </row>
     <row r="67" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C67" s="186"/>
       <c r="D67" s="186"/>
       <c r="E67" s="186"/>
       <c r="F67" s="187">
-        <f t="shared" ref="F67:K67" si="110">F56</f>
-        <v>0</v>
+        <f t="shared" ref="F67:K67" si="108">F40</f>
+        <v>893.94299999999998</v>
       </c>
       <c r="G67" s="187">
-        <f t="shared" si="110"/>
-        <v>0</v>
+        <f t="shared" si="108"/>
+        <v>1600.53</v>
       </c>
       <c r="H67" s="187">
-        <f t="shared" si="110"/>
-        <v>0</v>
+        <f t="shared" si="108"/>
+        <v>1780.2619999999999</v>
       </c>
       <c r="I67" s="187">
-        <f t="shared" si="110"/>
-        <v>0</v>
+        <f t="shared" si="108"/>
+        <v>1925.559</v>
       </c>
       <c r="J67" s="187">
-        <f t="shared" si="110"/>
-        <v>987.72299999999996</v>
+        <f t="shared" si="108"/>
+        <v>3004.3</v>
       </c>
       <c r="K67" s="187">
-        <f t="shared" si="110"/>
-        <v>988.03399999999999</v>
+        <f t="shared" si="108"/>
+        <v>3132.9639999999999</v>
       </c>
       <c r="L67" s="187">
-        <f>L56</f>
-        <v>988.34500000000003</v>
+        <f>L40</f>
+        <v>3075.4749999999999</v>
       </c>
       <c r="M67" s="187">
-        <f t="shared" ref="M67:N67" si="111">M56</f>
-        <v>988.66300000000001</v>
+        <f t="shared" ref="M67:N67" si="109">M40</f>
+        <v>3021.5070000000001</v>
       </c>
       <c r="N67" s="187">
-        <f t="shared" si="111"/>
-        <v>988.98400000000004</v>
+        <f t="shared" si="109"/>
+        <v>2977.4740000000002</v>
       </c>
       <c r="O67" s="133"/>
       <c r="Q67" s="55"/>
       <c r="R67" s="55"/>
       <c r="S67" s="55"/>
-      <c r="X67" s="267"/>
+      <c r="X67" s="246"/>
       <c r="Y67" s="133"/>
     </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B68" s="185" t="s">
+    <row r="68" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="186"/>
+      <c r="D68" s="186"/>
+      <c r="E68" s="186"/>
+      <c r="F68" s="187">
+        <f t="shared" ref="F68:K68" si="110">F57</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="187">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="H68" s="187">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="187">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="187">
+        <f t="shared" si="110"/>
+        <v>987.72299999999996</v>
+      </c>
+      <c r="K68" s="187">
+        <f t="shared" si="110"/>
+        <v>988.03399999999999</v>
+      </c>
+      <c r="L68" s="187">
+        <f>L57</f>
+        <v>988.34500000000003</v>
+      </c>
+      <c r="M68" s="187">
+        <f t="shared" ref="M68:N68" si="111">M57</f>
+        <v>988.66300000000001</v>
+      </c>
+      <c r="N68" s="187">
+        <f t="shared" si="111"/>
+        <v>988.98400000000004</v>
+      </c>
+      <c r="O68" s="133"/>
+      <c r="Q68" s="55"/>
+      <c r="R68" s="55"/>
+      <c r="S68" s="55"/>
+      <c r="X68" s="246"/>
+      <c r="Y68" s="133"/>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B69" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="F68" s="5">
-        <f>F66-F67</f>
+      <c r="F69" s="5">
+        <f>F67-F68</f>
         <v>893.94299999999998</v>
       </c>
-      <c r="G68" s="5">
-        <f t="shared" ref="G68:L68" si="112">G66-G67</f>
+      <c r="G69" s="5">
+        <f t="shared" ref="G69:L69" si="112">G67-G68</f>
         <v>1600.53</v>
       </c>
-      <c r="H68" s="5">
+      <c r="H69" s="5">
         <f t="shared" si="112"/>
         <v>1780.2619999999999</v>
       </c>
-      <c r="I68" s="5">
+      <c r="I69" s="5">
         <f t="shared" si="112"/>
         <v>1925.559</v>
       </c>
-      <c r="J68" s="5">
+      <c r="J69" s="5">
         <f t="shared" si="112"/>
         <v>2016.5770000000002</v>
       </c>
-      <c r="K68" s="5">
+      <c r="K69" s="5">
         <f t="shared" si="112"/>
         <v>2144.9299999999998</v>
       </c>
-      <c r="L68" s="5">
+      <c r="L69" s="5">
         <f t="shared" si="112"/>
         <v>2087.13</v>
       </c>
-      <c r="M68" s="5">
-        <f t="shared" ref="M68:N68" si="113">M66-M67</f>
+      <c r="M69" s="5">
+        <f t="shared" ref="M69:N69" si="113">M67-M68</f>
         <v>2032.8440000000001</v>
       </c>
-      <c r="N68" s="5">
+      <c r="N69" s="5">
         <f t="shared" si="113"/>
         <v>1988.4900000000002</v>
       </c>
     </row>
-    <row r="70" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="C70" s="186"/>
-      <c r="D70" s="186"/>
-      <c r="E70" s="186"/>
-      <c r="G70" s="55">
-        <v>64.83</v>
-      </c>
-      <c r="H70" s="55">
-        <v>89.98</v>
-      </c>
-      <c r="I70" s="55">
-        <v>75.55</v>
-      </c>
-      <c r="J70" s="55">
-        <v>103.16</v>
-      </c>
-      <c r="K70" s="55">
-        <v>46.24</v>
-      </c>
-      <c r="L70" s="55">
-        <v>32.86</v>
-      </c>
-      <c r="M70" s="55">
-        <v>35.840000000000003</v>
-      </c>
-      <c r="N70" s="259">
-        <v>28.37</v>
-      </c>
-      <c r="O70" s="133"/>
-      <c r="Q70" s="55"/>
-      <c r="R70" s="55"/>
-      <c r="S70" s="55"/>
-      <c r="X70" s="267"/>
-      <c r="Y70" s="133"/>
-    </row>
     <row r="71" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="57" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C71" s="186"/>
       <c r="D71" s="186"/>
       <c r="E71" s="186"/>
-      <c r="F71" s="55"/>
-      <c r="G71" s="187">
-        <f t="shared" ref="G71:I71" si="114">G70*G20</f>
-        <v>18870.327420000001</v>
-      </c>
-      <c r="H71" s="187">
-        <f t="shared" si="114"/>
-        <v>51405.574000000001</v>
-      </c>
-      <c r="I71" s="187">
-        <f t="shared" si="114"/>
-        <v>43511.662599999996</v>
-      </c>
-      <c r="J71" s="187">
-        <f>J70*J20</f>
-        <v>59991.150599999994</v>
-      </c>
-      <c r="K71" s="187">
-        <f t="shared" ref="K71:L71" si="115">K70*K20</f>
-        <v>27213.211039999998</v>
-      </c>
-      <c r="L71" s="187">
-        <f t="shared" si="115"/>
-        <v>19516.47408</v>
-      </c>
-      <c r="M71" s="187">
-        <f t="shared" ref="M71:N71" si="116">M70*M20</f>
-        <v>21424.399360000003</v>
-      </c>
-      <c r="N71" s="187">
-        <f t="shared" si="116"/>
-        <v>17074.739830000002</v>
+      <c r="G71" s="55">
+        <v>64.83</v>
+      </c>
+      <c r="H71" s="55">
+        <v>89.98</v>
+      </c>
+      <c r="I71" s="55">
+        <v>75.55</v>
+      </c>
+      <c r="J71" s="55">
+        <v>103.16</v>
+      </c>
+      <c r="K71" s="55">
+        <v>46.24</v>
+      </c>
+      <c r="L71" s="55">
+        <v>32.86</v>
+      </c>
+      <c r="M71" s="55">
+        <v>35.840000000000003</v>
+      </c>
+      <c r="N71" s="238">
+        <v>28.37</v>
       </c>
       <c r="O71" s="133"/>
       <c r="Q71" s="55"/>
       <c r="R71" s="55"/>
       <c r="S71" s="55"/>
-      <c r="X71" s="267"/>
+      <c r="X71" s="246"/>
       <c r="Y71" s="133"/>
     </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B72" s="185" t="s">
+    <row r="72" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="186"/>
+      <c r="D72" s="186"/>
+      <c r="E72" s="186"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="187">
+        <f t="shared" ref="G72:I72" si="114">G71*G20</f>
+        <v>18870.327420000001</v>
+      </c>
+      <c r="H72" s="187">
+        <f t="shared" si="114"/>
+        <v>51405.574000000001</v>
+      </c>
+      <c r="I72" s="187">
+        <f t="shared" si="114"/>
+        <v>43511.662599999996</v>
+      </c>
+      <c r="J72" s="187">
+        <f>J71*J20</f>
+        <v>59991.150599999994</v>
+      </c>
+      <c r="K72" s="187">
+        <f t="shared" ref="K72:L72" si="115">K71*K20</f>
+        <v>27213.211039999998</v>
+      </c>
+      <c r="L72" s="187">
+        <f t="shared" si="115"/>
+        <v>19516.47408</v>
+      </c>
+      <c r="M72" s="187">
+        <f t="shared" ref="M72:N72" si="116">M71*M20</f>
+        <v>21424.399360000003</v>
+      </c>
+      <c r="N72" s="187">
+        <f t="shared" si="116"/>
+        <v>17074.739830000002</v>
+      </c>
+      <c r="O72" s="133"/>
+      <c r="Q72" s="55"/>
+      <c r="R72" s="55"/>
+      <c r="S72" s="55"/>
+      <c r="X72" s="246"/>
+      <c r="Y72" s="133"/>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B73" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="5">
-        <f t="shared" ref="F72:K72" si="117">F71-F68</f>
+      <c r="F73" s="5">
+        <f t="shared" ref="F73:K73" si="117">F72-F69</f>
         <v>-893.94299999999998</v>
       </c>
-      <c r="G72" s="5">
+      <c r="G73" s="5">
         <f t="shared" si="117"/>
         <v>17269.797420000003</v>
       </c>
-      <c r="H72" s="5">
+      <c r="H73" s="5">
         <f t="shared" si="117"/>
         <v>49625.311999999998</v>
       </c>
-      <c r="I72" s="5">
+      <c r="I73" s="5">
         <f t="shared" si="117"/>
         <v>41586.103599999995</v>
       </c>
-      <c r="J72" s="5">
+      <c r="J73" s="5">
         <f t="shared" si="117"/>
         <v>57974.573599999996</v>
       </c>
-      <c r="K72" s="5">
+      <c r="K73" s="5">
         <f t="shared" si="117"/>
         <v>25068.281039999998</v>
       </c>
-      <c r="L72" s="5">
-        <f>L71-L68</f>
+      <c r="L73" s="5">
+        <f>L72-L69</f>
         <v>17429.344079999999</v>
       </c>
-      <c r="M72" s="5">
-        <f t="shared" ref="M72:N72" si="118">M71-M68</f>
+      <c r="M73" s="5">
+        <f t="shared" ref="M73:N73" si="118">M72-M69</f>
         <v>19391.555360000002</v>
       </c>
-      <c r="N72" s="5">
+      <c r="N73" s="5">
         <f t="shared" si="118"/>
         <v>15086.249830000002</v>
       </c>
     </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B74" s="185" t="s">
+    <row r="75" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B75" s="185" t="s">
         <v>204</v>
       </c>
-      <c r="G74" s="193">
-        <f t="shared" ref="G74:I74" si="119">G70/G64</f>
+      <c r="G75" s="193">
+        <f t="shared" ref="G75:I75" si="119">G71/G65</f>
         <v>31.897428675747243</v>
       </c>
-      <c r="H74" s="193">
+      <c r="H75" s="193">
         <f t="shared" si="119"/>
         <v>94.837408378363875</v>
       </c>
-      <c r="I74" s="193">
+      <c r="I75" s="193">
         <f t="shared" si="119"/>
         <v>71.82145284741128</v>
       </c>
-      <c r="J74" s="193">
-        <f>J70/J64</f>
+      <c r="J75" s="193">
+        <f>J71/J65</f>
         <v>101.1783119281527</v>
       </c>
-      <c r="K74" s="193">
-        <f t="shared" ref="K74:L74" si="120">K70/K64</f>
+      <c r="K75" s="193">
+        <f t="shared" ref="K75:L75" si="120">K71/K65</f>
         <v>47.956090444982024</v>
       </c>
-      <c r="L74" s="193">
+      <c r="L75" s="193">
         <f t="shared" si="120"/>
         <v>35.381193604774282</v>
       </c>
-      <c r="M74" s="193">
-        <f t="shared" ref="M74:N74" si="121">M70/M64</f>
+      <c r="M75" s="193">
+        <f t="shared" ref="M75:N75" si="121">M71/M65</f>
         <v>50.45879187549442</v>
       </c>
-      <c r="N74" s="193">
+      <c r="N75" s="193">
         <f t="shared" si="121"/>
         <v>55.976330027701934</v>
       </c>
     </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B75" s="185" t="s">
+    <row r="76" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B76" s="185" t="s">
         <v>213</v>
       </c>
-      <c r="G75" s="193">
-        <f t="shared" ref="G75" si="122">G71/SUM(D3:G3)</f>
+      <c r="G76" s="193">
+        <f t="shared" ref="G76" si="122">G72/SUM(D3:G3)</f>
         <v>16.419103099215079</v>
       </c>
-      <c r="H75" s="193">
-        <f t="shared" ref="H75" si="123">H71/SUM(E3:H3)</f>
+      <c r="H76" s="193">
+        <f t="shared" ref="H76" si="123">H72/SUM(E3:H3)</f>
         <v>36.639779500911978</v>
       </c>
-      <c r="I75" s="193">
-        <f t="shared" ref="I75" si="124">I71/SUM(F3:I3)</f>
+      <c r="I76" s="193">
+        <f t="shared" ref="I76" si="124">I72/SUM(F3:I3)</f>
         <v>26.205198922441955</v>
       </c>
-      <c r="J75" s="193">
-        <f t="shared" ref="J75:K75" si="125">J71/SUM(G3:J3)</f>
+      <c r="J76" s="193">
+        <f t="shared" ref="J76:K76" si="125">J72/SUM(G3:J3)</f>
         <v>31.25872473727074</v>
       </c>
-      <c r="K75" s="193">
+      <c r="K76" s="193">
         <f t="shared" si="125"/>
         <v>13.150678086094159</v>
       </c>
-      <c r="L75" s="193">
-        <f>L71/SUM(I3:L3)</f>
+      <c r="L76" s="193">
+        <f>L72/SUM(I3:L3)</f>
         <v>8.8452081220206615</v>
       </c>
-      <c r="M75" s="193">
-        <f t="shared" ref="M75" si="126">M71/SUM(J3:M3)</f>
+      <c r="M76" s="193">
+        <f t="shared" ref="M76" si="126">M72/SUM(J3:M3)</f>
         <v>9.6732142474976506</v>
       </c>
-      <c r="N75" s="193">
-        <f>N71/SUM($K$3:$N$3)</f>
+      <c r="N76" s="193">
+        <f>N72/SUM($K$3:$N$3)</f>
         <v>7.6738610288658444</v>
       </c>
     </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B76" s="200" t="s">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B77" s="200" t="s">
         <v>218</v>
       </c>
-      <c r="G76" s="193">
-        <f t="shared" ref="G76" si="127">G72/SUM(D3:G3)</f>
+      <c r="G77" s="193">
+        <f t="shared" ref="G77" si="127">G73/SUM(D3:G3)</f>
         <v>15.026479298976499</v>
       </c>
-      <c r="H76" s="193">
-        <f t="shared" ref="H76" si="128">H72/SUM(E3:H3)</f>
+      <c r="H77" s="193">
+        <f t="shared" ref="H77" si="128">H73/SUM(E3:H3)</f>
         <v>35.370881946458979</v>
       </c>
-      <c r="I76" s="193">
-        <f t="shared" ref="I76" si="129">I72/SUM(F3:I3)</f>
+      <c r="I77" s="193">
+        <f t="shared" ref="I77" si="129">I73/SUM(F3:I3)</f>
         <v>25.045517733153215</v>
       </c>
-      <c r="J76" s="193">
-        <f t="shared" ref="J76:K76" si="130">J72/SUM(G3:J3)</f>
+      <c r="J77" s="193">
+        <f t="shared" ref="J77:K77" si="130">J73/SUM(G3:J3)</f>
         <v>30.207976006431906</v>
       </c>
-      <c r="K76" s="193">
+      <c r="K77" s="193">
         <f t="shared" si="130"/>
         <v>12.114149030197565</v>
       </c>
-      <c r="L76" s="193">
-        <f>L72/SUM(I3:L3)</f>
+      <c r="L77" s="193">
+        <f>L73/SUM(I3:L3)</f>
         <v>7.8992842244949566</v>
       </c>
-      <c r="M76" s="193">
-        <f t="shared" ref="M76" si="131">M72/SUM(J3:M3)</f>
+      <c r="M77" s="193">
+        <f t="shared" ref="M77" si="131">M73/SUM(J3:M3)</f>
         <v>8.7553758888431883</v>
       </c>
-      <c r="N76" s="193">
-        <f t="shared" ref="N76:N77" si="132">N72/SUM($K$3:$N$3)</f>
+      <c r="N77" s="193">
+        <f t="shared" ref="N77" si="132">N73/SUM($K$3:$N$3)</f>
         <v>6.7801785441418918</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B77" s="185" t="s">
+    <row r="78" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B78" s="185" t="s">
         <v>214</v>
       </c>
-      <c r="G77" s="193">
-        <f t="shared" ref="G77:L77" si="133">G70/SUM(D19:G19)</f>
+      <c r="G78" s="193">
+        <f t="shared" ref="G78:L78" si="133">G71/SUM(D19:G19)</f>
         <v>-44.675361443232362</v>
       </c>
-      <c r="H77" s="193">
+      <c r="H78" s="193">
         <f t="shared" si="133"/>
         <v>-69.182197616608946</v>
       </c>
-      <c r="I77" s="193">
+      <c r="I78" s="193">
         <f t="shared" si="133"/>
         <v>-65.015776279415363</v>
       </c>
-      <c r="J77" s="193">
+      <c r="J78" s="193">
         <f t="shared" si="133"/>
         <v>-93.354276916433804</v>
       </c>
-      <c r="K77" s="193">
+      <c r="K78" s="193">
         <f t="shared" si="133"/>
         <v>-50.661466911577669</v>
       </c>
-      <c r="L77" s="193">
+      <c r="L78" s="193">
         <f t="shared" si="133"/>
         <v>-34.073155589366579</v>
       </c>
-      <c r="M77" s="193">
-        <f>M70/SUM(J19:M19)</f>
+      <c r="M78" s="193">
+        <f>M71/SUM(J19:M19)</f>
         <v>-26.838223427392109</v>
       </c>
-      <c r="N77" s="193">
-        <f>N70/SUM($K$19:$N$19)</f>
+      <c r="N78" s="193">
+        <f>N71/SUM($K$19:$N$19)</f>
         <v>-18.110490695810771</v>
       </c>
-      <c r="P77" s="213"/>
-    </row>
-    <row r="78" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B78" s="213" t="s">
+      <c r="P78" s="213"/>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B79" s="213" t="s">
         <v>253</v>
       </c>
-      <c r="G78" s="80">
-        <f t="shared" ref="G78:L78" si="134">SUM(D12:G12)/(G48-SUM(G50:G53))</f>
+      <c r="G79" s="80">
+        <f t="shared" ref="G79:L79" si="134">SUM(D12:G12)/(G49-SUM(G51:G54))</f>
         <v>-0.25137548210801064</v>
       </c>
-      <c r="H78" s="80">
+      <c r="H79" s="80">
         <f t="shared" si="134"/>
         <v>-0.30583278280508219</v>
       </c>
-      <c r="I78" s="80">
+      <c r="I79" s="80">
         <f t="shared" si="134"/>
         <v>-0.31302756573649004</v>
       </c>
-      <c r="J78" s="80">
+      <c r="J79" s="80">
         <f t="shared" si="134"/>
         <v>-0.20685053640976875</v>
       </c>
-      <c r="K78" s="80">
+      <c r="K79" s="80">
         <f t="shared" si="134"/>
         <v>-0.2013507520159552</v>
       </c>
-      <c r="L78" s="80">
+      <c r="L79" s="80">
         <f t="shared" si="134"/>
         <v>-0.20293605022212965</v>
       </c>
-      <c r="M78" s="80">
-        <f>SUM(J12:M12)/(M48-SUM(M50:M53))</f>
+      <c r="M79" s="80">
+        <f>SUM(J12:M12)/(M49-SUM(M51:M54))</f>
         <v>-0.27196075945524634</v>
       </c>
-      <c r="N78" s="80">
-        <f>SUM(K12:N12)/(N48-SUM(N50:N53))</f>
+      <c r="N79" s="80">
+        <f>SUM(K12:N12)/(N49-SUM(N51:N54))</f>
         <v>-0.31913473536715303</v>
       </c>
-      <c r="P78" s="213"/>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B79" s="213"/>
-      <c r="G79" s="80"/>
-      <c r="H79" s="80"/>
-      <c r="I79" s="80"/>
-      <c r="J79" s="80"/>
-      <c r="K79" s="80"/>
-      <c r="L79" s="80"/>
-      <c r="M79" s="80"/>
       <c r="P79" s="213"/>
     </row>
     <row r="80" spans="2:25" x14ac:dyDescent="0.25">
@@ -12284,54 +12344,20 @@
       <c r="M80" s="80"/>
       <c r="P80" s="213"/>
     </row>
-    <row r="81" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="215" t="s">
-        <v>272</v>
-      </c>
-      <c r="C81" s="216"/>
-      <c r="D81" s="216"/>
-      <c r="E81" s="216"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5">
-        <f>H18</f>
-        <v>-142.93999999999997</v>
-      </c>
-      <c r="I81" s="5">
-        <f>I18</f>
-        <v>-77.189999999999955</v>
-      </c>
-      <c r="J81" s="5">
-        <f t="shared" ref="J81:L81" si="135">J18</f>
-        <v>-147.25700000000003</v>
-      </c>
-      <c r="K81" s="5">
-        <f t="shared" si="135"/>
-        <v>-162.00600000000003</v>
-      </c>
-      <c r="L81" s="5">
-        <f t="shared" si="135"/>
-        <v>-179.29000000000002</v>
-      </c>
-      <c r="M81" s="5">
-        <f>M18</f>
-        <v>-301.90200000000004</v>
-      </c>
-      <c r="N81" s="5">
-        <f>N18</f>
-        <v>-291.48500000000001</v>
-      </c>
-      <c r="O81" s="134"/>
-      <c r="P81" s="217"/>
-      <c r="Q81" s="5"/>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
-      <c r="X81" s="263"/>
-      <c r="Y81" s="115"/>
+    <row r="81" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B81" s="213"/>
+      <c r="G81" s="80"/>
+      <c r="H81" s="80"/>
+      <c r="I81" s="80"/>
+      <c r="J81" s="80"/>
+      <c r="K81" s="80"/>
+      <c r="L81" s="80"/>
+      <c r="M81" s="80"/>
+      <c r="P81" s="213"/>
     </row>
     <row r="82" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="215" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C82" s="216"/>
       <c r="D82" s="216"/>
@@ -12339,55 +12365,77 @@
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5">
-        <v>-142.93</v>
+        <f>H18</f>
+        <v>-142.93999999999997</v>
       </c>
       <c r="I82" s="5">
-        <v>-77.19</v>
-      </c>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
+        <f>I18</f>
+        <v>-77.189999999999955</v>
+      </c>
+      <c r="J82" s="5">
+        <f t="shared" ref="J82:L82" si="135">J18</f>
+        <v>-147.25700000000003</v>
+      </c>
+      <c r="K82" s="5">
+        <f t="shared" si="135"/>
+        <v>-162.00600000000003</v>
+      </c>
       <c r="L82" s="5">
-        <v>-178.73400000000001</v>
+        <f t="shared" si="135"/>
+        <v>-179.29000000000002</v>
       </c>
       <c r="M82" s="5">
-        <v>-301.90199999999999</v>
-      </c>
-      <c r="N82" s="248">
-        <v>-291.48649999999998</v>
+        <f>M18</f>
+        <v>-301.90200000000004</v>
+      </c>
+      <c r="N82" s="5">
+        <f>N18</f>
+        <v>-291.48500000000001</v>
       </c>
       <c r="O82" s="134"/>
       <c r="P82" s="217"/>
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
       <c r="S82" s="5"/>
-      <c r="X82" s="263"/>
+      <c r="X82" s="242"/>
       <c r="Y82" s="115"/>
     </row>
     <row r="83" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="218"/>
+      <c r="B83" s="215" t="s">
+        <v>273</v>
+      </c>
       <c r="C83" s="216"/>
       <c r="D83" s="216"/>
       <c r="E83" s="216"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
+      <c r="H83" s="5">
+        <v>-142.93</v>
+      </c>
+      <c r="I83" s="5">
+        <v>-77.19</v>
+      </c>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="248"/>
+      <c r="L83" s="5">
+        <v>-178.73400000000001</v>
+      </c>
+      <c r="M83" s="5">
+        <v>-301.90199999999999</v>
+      </c>
+      <c r="N83" s="227">
+        <v>-291.48649999999998</v>
+      </c>
       <c r="O83" s="134"/>
+      <c r="P83" s="217"/>
       <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
       <c r="S83" s="5"/>
-      <c r="X83" s="263"/>
+      <c r="X83" s="242"/>
       <c r="Y83" s="115"/>
     </row>
     <row r="84" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="219" t="s">
-        <v>252</v>
-      </c>
+      <c r="B84" s="218"/>
       <c r="C84" s="216"/>
       <c r="D84" s="216"/>
       <c r="E84" s="216"/>
@@ -12399,50 +12447,40 @@
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
-      <c r="N84" s="248"/>
+      <c r="N84" s="227"/>
       <c r="O84" s="134"/>
       <c r="Q84" s="5"/>
       <c r="R84" s="5"/>
       <c r="S84" s="5"/>
-      <c r="X84" s="263"/>
+      <c r="X84" s="242"/>
       <c r="Y84" s="115"/>
     </row>
     <row r="85" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="220" t="s">
-        <v>254</v>
+      <c r="B85" s="219" t="s">
+        <v>252</v>
       </c>
       <c r="C85" s="216"/>
       <c r="D85" s="216"/>
       <c r="E85" s="216"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
-      <c r="H85" s="5">
-        <v>17.79</v>
-      </c>
-      <c r="I85" s="5">
-        <v>19.029</v>
-      </c>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="5">
-        <v>28.995999999999999</v>
-      </c>
-      <c r="M85" s="5">
-        <v>34.052</v>
-      </c>
-      <c r="N85" s="248">
-        <v>42.537999999999997</v>
-      </c>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="227"/>
       <c r="O85" s="134"/>
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
       <c r="S85" s="5"/>
-      <c r="X85" s="263"/>
+      <c r="X85" s="242"/>
       <c r="Y85" s="115"/>
     </row>
     <row r="86" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="220" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C86" s="216"/>
       <c r="D86" s="216"/>
@@ -12450,32 +12488,32 @@
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5">
-        <v>81.659000000000006</v>
+        <v>17.79</v>
       </c>
       <c r="I86" s="5">
-        <v>89.319000000000003</v>
+        <v>19.029</v>
       </c>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5">
-        <v>146.38800000000001</v>
+        <v>28.995999999999999</v>
       </c>
       <c r="M86" s="5">
-        <v>161.35900000000001</v>
-      </c>
-      <c r="N86" s="248">
-        <v>169.45599999999999</v>
+        <v>34.052</v>
+      </c>
+      <c r="N86" s="227">
+        <v>42.537999999999997</v>
       </c>
       <c r="O86" s="134"/>
       <c r="Q86" s="5"/>
       <c r="R86" s="5"/>
       <c r="S86" s="5"/>
-      <c r="X86" s="263"/>
+      <c r="X86" s="242"/>
       <c r="Y86" s="115"/>
     </row>
     <row r="87" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="220" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C87" s="216"/>
       <c r="D87" s="216"/>
@@ -12483,32 +12521,32 @@
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
       <c r="H87" s="5">
-        <v>10.5</v>
+        <v>81.659000000000006</v>
       </c>
       <c r="I87" s="5">
-        <v>11.391999999999999</v>
+        <v>89.319000000000003</v>
       </c>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
       <c r="L87" s="5">
-        <v>16.303000000000001</v>
+        <v>146.38800000000001</v>
       </c>
       <c r="M87" s="5">
-        <v>18.815000000000001</v>
-      </c>
-      <c r="N87" s="248">
-        <v>19.984999999999999</v>
+        <v>161.35900000000001</v>
+      </c>
+      <c r="N87" s="227">
+        <v>169.45599999999999</v>
       </c>
       <c r="O87" s="134"/>
       <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
       <c r="S87" s="5"/>
-      <c r="X87" s="263"/>
+      <c r="X87" s="242"/>
       <c r="Y87" s="115"/>
     </row>
     <row r="88" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="220" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C88" s="216"/>
       <c r="D88" s="216"/>
@@ -12516,32 +12554,32 @@
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5">
-        <v>6.8000000000000005E-2</v>
+        <v>10.5</v>
       </c>
       <c r="I88" s="5">
-        <v>1.121</v>
+        <v>11.391999999999999</v>
       </c>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
       <c r="L88" s="5">
-        <v>2.048</v>
+        <v>16.303000000000001</v>
       </c>
       <c r="M88" s="5">
-        <v>-1.5149999999999999</v>
-      </c>
-      <c r="N88" s="248">
-        <v>0.39500000000000002</v>
+        <v>18.815000000000001</v>
+      </c>
+      <c r="N88" s="227">
+        <v>19.984999999999999</v>
       </c>
       <c r="O88" s="134"/>
       <c r="Q88" s="5"/>
       <c r="R88" s="5"/>
       <c r="S88" s="5"/>
-      <c r="X88" s="263"/>
+      <c r="X88" s="242"/>
       <c r="Y88" s="115"/>
     </row>
     <row r="89" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="220" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C89" s="216"/>
       <c r="D89" s="216"/>
@@ -12549,103 +12587,103 @@
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5">
-        <v>0</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="I89" s="5">
-        <v>0</v>
+        <v>1.121</v>
       </c>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
       <c r="L89" s="5">
-        <v>0.311</v>
+        <v>2.048</v>
       </c>
       <c r="M89" s="5">
-        <v>0.318</v>
-      </c>
-      <c r="N89" s="248">
-        <v>0.32100000000000001</v>
+        <v>-1.5149999999999999</v>
+      </c>
+      <c r="N89" s="227">
+        <v>0.39500000000000002</v>
       </c>
       <c r="O89" s="134"/>
       <c r="Q89" s="5"/>
       <c r="R89" s="5"/>
       <c r="S89" s="5"/>
-      <c r="X89" s="263"/>
+      <c r="X89" s="242"/>
       <c r="Y89" s="115"/>
     </row>
     <row r="90" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="220" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C90" s="216"/>
       <c r="D90" s="216"/>
       <c r="E90" s="216"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
-      <c r="H90" s="9">
-        <f>SUM(H91:H100)</f>
-        <v>224.16400000000004</v>
-      </c>
-      <c r="I90" s="9">
-        <f>SUM(I91:I100)</f>
-        <v>137.49499999999998</v>
+      <c r="H90" s="5">
+        <v>0</v>
+      </c>
+      <c r="I90" s="5">
+        <v>0</v>
       </c>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="9">
-        <f>SUM(L91:L100)</f>
-        <v>11.184999999999997</v>
-      </c>
-      <c r="M90" s="9">
-        <f>SUM(M91:M100)</f>
-        <v>156.023</v>
-      </c>
-      <c r="N90" s="9">
-        <f>SUM(N91:N100)</f>
-        <v>207.78100000000003</v>
+      <c r="L90" s="5">
+        <v>0.311</v>
+      </c>
+      <c r="M90" s="5">
+        <v>0.318</v>
+      </c>
+      <c r="N90" s="227">
+        <v>0.32100000000000001</v>
       </c>
       <c r="O90" s="134"/>
       <c r="Q90" s="5"/>
       <c r="R90" s="5"/>
       <c r="S90" s="5"/>
-      <c r="X90" s="263"/>
+      <c r="X90" s="242"/>
       <c r="Y90" s="115"/>
     </row>
     <row r="91" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="215" t="s">
-        <v>37</v>
+      <c r="B91" s="220" t="s">
+        <v>259</v>
       </c>
       <c r="C91" s="216"/>
       <c r="D91" s="216"/>
       <c r="E91" s="216"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
-      <c r="H91" s="5">
-        <v>16.704000000000001</v>
-      </c>
-      <c r="I91" s="5">
-        <v>47.125999999999998</v>
+      <c r="H91" s="9">
+        <f>SUM(H92:H101)</f>
+        <v>224.16400000000004</v>
+      </c>
+      <c r="I91" s="9">
+        <f>SUM(I92:I101)</f>
+        <v>137.49499999999998</v>
       </c>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="5">
-        <v>-9.8650000000000002</v>
-      </c>
-      <c r="M91" s="5">
-        <v>1.63</v>
-      </c>
-      <c r="N91" s="275">
-        <v>-192.42699999999999</v>
+      <c r="L91" s="9">
+        <f>SUM(L92:L101)</f>
+        <v>11.184999999999997</v>
+      </c>
+      <c r="M91" s="9">
+        <f>SUM(M92:M101)</f>
+        <v>156.023</v>
+      </c>
+      <c r="N91" s="9">
+        <f>SUM(N92:N101)</f>
+        <v>207.78100000000003</v>
       </c>
       <c r="O91" s="134"/>
       <c r="Q91" s="5"/>
       <c r="R91" s="5"/>
       <c r="S91" s="5"/>
-      <c r="X91" s="263"/>
+      <c r="X91" s="242"/>
       <c r="Y91" s="115"/>
     </row>
     <row r="92" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="215" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C92" s="216"/>
       <c r="D92" s="216"/>
@@ -12653,32 +12691,32 @@
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5">
-        <v>3.0950000000000002</v>
+        <v>16.704000000000001</v>
       </c>
       <c r="I92" s="5">
-        <v>-2.5430000000000001</v>
+        <v>47.125999999999998</v>
       </c>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
       <c r="L92" s="5">
-        <v>-6.867</v>
+        <v>-9.8650000000000002</v>
       </c>
       <c r="M92" s="5">
-        <v>2.3039999999999998</v>
-      </c>
-      <c r="N92" s="248">
-        <v>18.632999999999999</v>
+        <v>1.63</v>
+      </c>
+      <c r="N92" s="254">
+        <v>-192.42699999999999</v>
       </c>
       <c r="O92" s="134"/>
       <c r="Q92" s="5"/>
       <c r="R92" s="5"/>
       <c r="S92" s="5"/>
-      <c r="X92" s="263"/>
+      <c r="X92" s="242"/>
       <c r="Y92" s="115"/>
     </row>
     <row r="93" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="215" t="s">
-        <v>274</v>
+        <v>46</v>
       </c>
       <c r="C93" s="216"/>
       <c r="D93" s="216"/>
@@ -12686,32 +12724,32 @@
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5">
-        <v>-16.297000000000001</v>
+        <v>3.0950000000000002</v>
       </c>
       <c r="I93" s="5">
-        <v>7.7629999999999999</v>
+        <v>-2.5430000000000001</v>
       </c>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
       <c r="L93" s="5">
-        <v>-15.983000000000001</v>
+        <v>-6.867</v>
       </c>
       <c r="M93" s="5">
-        <v>-15.680999999999999</v>
-      </c>
-      <c r="N93" s="248">
-        <v>8.8350000000000009</v>
+        <v>2.3039999999999998</v>
+      </c>
+      <c r="N93" s="227">
+        <v>18.632999999999999</v>
       </c>
       <c r="O93" s="134"/>
       <c r="Q93" s="5"/>
       <c r="R93" s="5"/>
       <c r="S93" s="5"/>
-      <c r="X93" s="263"/>
+      <c r="X93" s="242"/>
       <c r="Y93" s="115"/>
     </row>
     <row r="94" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="215" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C94" s="216"/>
       <c r="D94" s="216"/>
@@ -12719,32 +12757,32 @@
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5">
-        <v>-3.0750000000000002</v>
+        <v>-16.297000000000001</v>
       </c>
       <c r="I94" s="5">
-        <v>2.2879999999999998</v>
+        <v>7.7629999999999999</v>
       </c>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
       <c r="L94" s="5">
-        <v>1.1990000000000001</v>
-      </c>
-      <c r="M94" s="9">
-        <v>-0.26600000000000001</v>
-      </c>
-      <c r="N94" s="248">
-        <v>-1.7190000000000001</v>
+        <v>-15.983000000000001</v>
+      </c>
+      <c r="M94" s="5">
+        <v>-15.680999999999999</v>
+      </c>
+      <c r="N94" s="227">
+        <v>8.8350000000000009</v>
       </c>
       <c r="O94" s="134"/>
       <c r="Q94" s="5"/>
       <c r="R94" s="5"/>
       <c r="S94" s="5"/>
-      <c r="X94" s="263"/>
+      <c r="X94" s="242"/>
       <c r="Y94" s="115"/>
     </row>
     <row r="95" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="215" t="s">
-        <v>48</v>
+        <v>275</v>
       </c>
       <c r="C95" s="216"/>
       <c r="D95" s="216"/>
@@ -12752,32 +12790,32 @@
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5">
-        <v>6.2779999999999996</v>
+        <v>-3.0750000000000002</v>
       </c>
       <c r="I95" s="5">
-        <v>27.140999999999998</v>
+        <v>2.2879999999999998</v>
       </c>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5">
-        <v>-2.6240000000000001</v>
-      </c>
-      <c r="M95" s="5">
-        <v>21.175000000000001</v>
-      </c>
-      <c r="N95" s="248">
-        <v>63.337000000000003</v>
+        <v>1.1990000000000001</v>
+      </c>
+      <c r="M95" s="9">
+        <v>-0.26600000000000001</v>
+      </c>
+      <c r="N95" s="227">
+        <v>-1.7190000000000001</v>
       </c>
       <c r="O95" s="134"/>
       <c r="Q95" s="5"/>
       <c r="R95" s="5"/>
       <c r="S95" s="5"/>
-      <c r="X95" s="263"/>
+      <c r="X95" s="242"/>
       <c r="Y95" s="115"/>
     </row>
     <row r="96" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="215" t="s">
-        <v>276</v>
+        <v>48</v>
       </c>
       <c r="C96" s="216"/>
       <c r="D96" s="216"/>
@@ -12785,32 +12823,32 @@
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5">
-        <v>57.856000000000002</v>
+        <v>6.2779999999999996</v>
       </c>
       <c r="I96" s="5">
-        <v>-36.030999999999999</v>
+        <v>27.140999999999998</v>
       </c>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
       <c r="L96" s="5">
-        <v>6.4059999999999997</v>
+        <v>-2.6240000000000001</v>
       </c>
       <c r="M96" s="5">
-        <v>2.6419999999999999</v>
-      </c>
-      <c r="N96" s="248">
-        <v>12.577999999999999</v>
+        <v>21.175000000000001</v>
+      </c>
+      <c r="N96" s="227">
+        <v>63.337000000000003</v>
       </c>
       <c r="O96" s="134"/>
       <c r="Q96" s="5"/>
       <c r="R96" s="5"/>
       <c r="S96" s="5"/>
-      <c r="X96" s="263"/>
+      <c r="X96" s="242"/>
       <c r="Y96" s="115"/>
     </row>
     <row r="97" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="215" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C97" s="216"/>
       <c r="D97" s="216"/>
@@ -12818,32 +12856,32 @@
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5">
-        <v>0.28000000000000003</v>
+        <v>57.856000000000002</v>
       </c>
       <c r="I97" s="5">
-        <v>-1.6060000000000001</v>
+        <v>-36.030999999999999</v>
       </c>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
       <c r="L97" s="5">
-        <v>-0.57899999999999996</v>
-      </c>
-      <c r="M97" s="9">
-        <v>0</v>
-      </c>
-      <c r="N97" s="248">
-        <v>10.738</v>
+        <v>6.4059999999999997</v>
+      </c>
+      <c r="M97" s="5">
+        <v>2.6419999999999999</v>
+      </c>
+      <c r="N97" s="227">
+        <v>12.577999999999999</v>
       </c>
       <c r="O97" s="134"/>
       <c r="Q97" s="5"/>
       <c r="R97" s="5"/>
       <c r="S97" s="5"/>
-      <c r="X97" s="263"/>
+      <c r="X97" s="242"/>
       <c r="Y97" s="115"/>
     </row>
     <row r="98" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="215" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C98" s="216"/>
       <c r="D98" s="216"/>
@@ -12851,32 +12889,32 @@
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5">
-        <v>-10.573</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I98" s="5">
-        <v>-11.413</v>
+        <v>-1.6060000000000001</v>
       </c>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
       <c r="L98" s="5">
-        <v>-10.021000000000001</v>
-      </c>
-      <c r="M98" s="5">
-        <v>-11.259</v>
-      </c>
-      <c r="N98" s="248">
-        <v>14.885999999999999</v>
+        <v>-0.57899999999999996</v>
+      </c>
+      <c r="M98" s="9">
+        <v>0</v>
+      </c>
+      <c r="N98" s="227">
+        <v>10.738</v>
       </c>
       <c r="O98" s="134"/>
       <c r="Q98" s="5"/>
       <c r="R98" s="5"/>
       <c r="S98" s="5"/>
-      <c r="X98" s="263"/>
+      <c r="X98" s="242"/>
       <c r="Y98" s="115"/>
     </row>
     <row r="99" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="215" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C99" s="216"/>
       <c r="D99" s="216"/>
@@ -12884,32 +12922,32 @@
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5">
-        <v>215.49700000000001</v>
+        <v>-10.573</v>
       </c>
       <c r="I99" s="5">
-        <v>131.43899999999999</v>
+        <v>-11.413</v>
       </c>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
       <c r="L99" s="5">
-        <v>52.14</v>
+        <v>-10.021000000000001</v>
       </c>
       <c r="M99" s="5">
-        <v>187.99100000000001</v>
-      </c>
-      <c r="N99" s="248">
-        <v>325.45</v>
+        <v>-11.259</v>
+      </c>
+      <c r="N99" s="227">
+        <v>14.885999999999999</v>
       </c>
       <c r="O99" s="134"/>
       <c r="Q99" s="5"/>
       <c r="R99" s="5"/>
       <c r="S99" s="5"/>
-      <c r="X99" s="263"/>
+      <c r="X99" s="242"/>
       <c r="Y99" s="115"/>
     </row>
     <row r="100" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="215" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C100" s="216"/>
       <c r="D100" s="216"/>
@@ -12917,124 +12955,124 @@
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5">
-        <v>-45.600999999999999</v>
+        <v>215.49700000000001</v>
       </c>
       <c r="I100" s="5">
-        <v>-26.669</v>
+        <v>131.43899999999999</v>
       </c>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
       <c r="L100" s="5">
-        <v>-2.621</v>
+        <v>52.14</v>
       </c>
       <c r="M100" s="5">
-        <v>-32.512999999999998</v>
-      </c>
-      <c r="N100" s="248">
-        <v>-52.53</v>
+        <v>187.99100000000001</v>
+      </c>
+      <c r="N100" s="227">
+        <v>325.45</v>
       </c>
       <c r="O100" s="134"/>
       <c r="Q100" s="5"/>
       <c r="R100" s="5"/>
       <c r="S100" s="5"/>
-      <c r="X100" s="263"/>
+      <c r="X100" s="242"/>
       <c r="Y100" s="115"/>
     </row>
-    <row r="101" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="3" t="s">
+    <row r="101" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="215" t="s">
+        <v>280</v>
+      </c>
+      <c r="C101" s="216"/>
+      <c r="D101" s="216"/>
+      <c r="E101" s="216"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5">
+        <v>-45.600999999999999</v>
+      </c>
+      <c r="I101" s="5">
+        <v>-26.669</v>
+      </c>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5">
+        <v>-2.621</v>
+      </c>
+      <c r="M101" s="5">
+        <v>-32.512999999999998</v>
+      </c>
+      <c r="N101" s="227">
+        <v>-52.53</v>
+      </c>
+      <c r="O101" s="134"/>
+      <c r="Q101" s="5"/>
+      <c r="R101" s="5"/>
+      <c r="S101" s="5"/>
+      <c r="X101" s="242"/>
+      <c r="Y101" s="115"/>
+    </row>
+    <row r="102" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C101" s="221"/>
-      <c r="D101" s="221"/>
-      <c r="E101" s="221"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4">
-        <f>H82+SUM(H85:H90)</f>
+      <c r="C102" s="221"/>
+      <c r="D102" s="221"/>
+      <c r="E102" s="221"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4">
+        <f>H83+SUM(H86:H91)</f>
         <v>191.25100000000003</v>
       </c>
-      <c r="I101" s="4">
-        <f>I82+SUM(I85:I90)</f>
+      <c r="I102" s="4">
+        <f>I83+SUM(I86:I91)</f>
         <v>181.166</v>
       </c>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4">
-        <f>L82+SUM(L85:L90)</f>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4">
+        <f>L83+SUM(L86:L91)</f>
         <v>26.497000000000014</v>
       </c>
-      <c r="M101" s="4">
-        <f>M82+SUM(M85:M90)</f>
+      <c r="M102" s="4">
+        <f>M83+SUM(M86:M91)</f>
         <v>67.150000000000034</v>
       </c>
-      <c r="N101" s="4">
-        <f>N82+SUM(N85:N90)</f>
+      <c r="N102" s="4">
+        <f>N83+SUM(N86:N91)</f>
         <v>148.98950000000002</v>
       </c>
-      <c r="O101" s="132"/>
-      <c r="Q101" s="4"/>
-      <c r="R101" s="4"/>
-      <c r="S101" s="4"/>
-      <c r="X101" s="260"/>
-      <c r="Y101" s="114"/>
-    </row>
-    <row r="102" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="218"/>
-      <c r="C102" s="216"/>
-      <c r="D102" s="216"/>
-      <c r="E102" s="216"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
-      <c r="L102" s="5"/>
-      <c r="M102" s="5"/>
-      <c r="N102" s="248"/>
-      <c r="O102" s="134"/>
-      <c r="Q102" s="5"/>
-      <c r="R102" s="5"/>
-      <c r="S102" s="5"/>
-      <c r="X102" s="263"/>
-      <c r="Y102" s="115"/>
+      <c r="O102" s="132"/>
+      <c r="Q102" s="4"/>
+      <c r="R102" s="4"/>
+      <c r="S102" s="4"/>
+      <c r="X102" s="239"/>
+      <c r="Y102" s="114"/>
     </row>
     <row r="103" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="220" t="s">
-        <v>261</v>
-      </c>
+      <c r="B103" s="218"/>
       <c r="C103" s="216"/>
       <c r="D103" s="216"/>
       <c r="E103" s="216"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
-      <c r="H103" s="5">
-        <v>-23.234999999999999</v>
-      </c>
-      <c r="I103" s="5">
-        <v>-2.9620000000000002</v>
-      </c>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
-      <c r="L103" s="5">
-        <v>-83.811999999999998</v>
-      </c>
-      <c r="M103" s="5">
-        <v>-133.35599999999999</v>
-      </c>
-      <c r="N103" s="248">
-        <v>-157.20500000000001</v>
-      </c>
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
+      <c r="N103" s="227"/>
       <c r="O103" s="134"/>
       <c r="Q103" s="5"/>
       <c r="R103" s="5"/>
       <c r="S103" s="5"/>
-      <c r="X103" s="263"/>
+      <c r="X103" s="242"/>
       <c r="Y103" s="115"/>
     </row>
     <row r="104" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="220" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C104" s="216"/>
       <c r="D104" s="216"/>
@@ -13042,32 +13080,32 @@
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5">
-        <v>0</v>
+        <v>-23.234999999999999</v>
       </c>
       <c r="I104" s="5">
-        <v>-45.692</v>
+        <v>-2.9620000000000002</v>
       </c>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
       <c r="L104" s="5">
-        <v>-6.165</v>
+        <v>-83.811999999999998</v>
       </c>
       <c r="M104" s="5">
-        <v>0</v>
-      </c>
-      <c r="N104" s="248">
-        <v>-7.2229999999999999</v>
+        <v>-133.35599999999999</v>
+      </c>
+      <c r="N104" s="227">
+        <v>-157.20500000000001</v>
       </c>
       <c r="O104" s="134"/>
       <c r="Q104" s="5"/>
       <c r="R104" s="5"/>
       <c r="S104" s="5"/>
-      <c r="X104" s="263"/>
+      <c r="X104" s="242"/>
       <c r="Y104" s="115"/>
     </row>
     <row r="105" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B105" s="220" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C105" s="216"/>
       <c r="D105" s="216"/>
@@ -13078,121 +13116,121 @@
         <v>0</v>
       </c>
       <c r="I105" s="5">
-        <v>-7.6</v>
+        <v>-45.692</v>
       </c>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
       <c r="L105" s="5">
+        <v>-6.165</v>
+      </c>
+      <c r="M105" s="5">
         <v>0</v>
       </c>
-      <c r="M105" s="5">
-        <v>-1.5</v>
-      </c>
-      <c r="N105" s="248">
-        <v>0</v>
+      <c r="N105" s="227">
+        <v>-7.2229999999999999</v>
       </c>
       <c r="O105" s="134"/>
       <c r="Q105" s="5"/>
       <c r="R105" s="5"/>
       <c r="S105" s="5"/>
-      <c r="X105" s="263"/>
+      <c r="X105" s="242"/>
       <c r="Y105" s="115"/>
     </row>
-    <row r="106" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="3" t="s">
+    <row r="106" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="220" t="s">
+        <v>263</v>
+      </c>
+      <c r="C106" s="216"/>
+      <c r="D106" s="216"/>
+      <c r="E106" s="216"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5">
+        <v>0</v>
+      </c>
+      <c r="I106" s="5">
+        <v>-7.6</v>
+      </c>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5">
+        <v>0</v>
+      </c>
+      <c r="M106" s="5">
+        <v>-1.5</v>
+      </c>
+      <c r="N106" s="227">
+        <v>0</v>
+      </c>
+      <c r="O106" s="134"/>
+      <c r="Q106" s="5"/>
+      <c r="R106" s="5"/>
+      <c r="S106" s="5"/>
+      <c r="X106" s="242"/>
+      <c r="Y106" s="115"/>
+    </row>
+    <row r="107" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C106" s="221"/>
-      <c r="D106" s="221"/>
-      <c r="E106" s="221"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4">
-        <f>SUM(H103:H105)</f>
+      <c r="C107" s="221"/>
+      <c r="D107" s="221"/>
+      <c r="E107" s="221"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4">
+        <f>SUM(H104:H106)</f>
         <v>-23.234999999999999</v>
       </c>
-      <c r="I106" s="4">
-        <f>SUM(I103:I105)</f>
+      <c r="I107" s="4">
+        <f>SUM(I104:I106)</f>
         <v>-56.254000000000005</v>
       </c>
-      <c r="J106" s="4"/>
-      <c r="K106" s="4"/>
-      <c r="L106" s="4">
-        <f>SUM(L103:L105)</f>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4">
+        <f>SUM(L104:L106)</f>
         <v>-89.977000000000004</v>
       </c>
-      <c r="M106" s="4">
-        <f>SUM(M103:M105)</f>
+      <c r="M107" s="4">
+        <f>SUM(M104:M106)</f>
         <v>-134.85599999999999</v>
       </c>
-      <c r="N106" s="4">
-        <f>SUM(N103:N105)</f>
+      <c r="N107" s="4">
+        <f>SUM(N104:N106)</f>
         <v>-164.42800000000003</v>
       </c>
-      <c r="O106" s="132"/>
-      <c r="Q106" s="4"/>
-      <c r="R106" s="4"/>
-      <c r="S106" s="4"/>
-      <c r="X106" s="260"/>
-      <c r="Y106" s="114"/>
-    </row>
-    <row r="107" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="218"/>
-      <c r="C107" s="216"/>
-      <c r="D107" s="216"/>
-      <c r="E107" s="216"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
-      <c r="L107" s="5"/>
-      <c r="M107" s="5"/>
-      <c r="N107" s="248"/>
-      <c r="O107" s="134"/>
-      <c r="Q107" s="5"/>
-      <c r="R107" s="5"/>
-      <c r="S107" s="5"/>
-      <c r="X107" s="263"/>
-      <c r="Y107" s="115"/>
+      <c r="O107" s="132"/>
+      <c r="Q107" s="4"/>
+      <c r="R107" s="4"/>
+      <c r="S107" s="4"/>
+      <c r="X107" s="239"/>
+      <c r="Y107" s="114"/>
     </row>
     <row r="108" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="220" t="s">
-        <v>265</v>
-      </c>
+      <c r="B108" s="218"/>
       <c r="C108" s="216"/>
       <c r="D108" s="216"/>
       <c r="E108" s="216"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
-      <c r="H108" s="5">
-        <v>11.667999999999999</v>
-      </c>
-      <c r="I108" s="5">
-        <v>20.388999999999999</v>
-      </c>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
-      <c r="L108" s="5">
-        <v>5.548</v>
-      </c>
-      <c r="M108" s="5">
-        <v>12.83</v>
-      </c>
-      <c r="N108" s="248">
-        <v>3.0459999999999998</v>
-      </c>
+      <c r="L108" s="5"/>
+      <c r="M108" s="5"/>
+      <c r="N108" s="227"/>
       <c r="O108" s="134"/>
       <c r="Q108" s="5"/>
       <c r="R108" s="5"/>
       <c r="S108" s="5"/>
-      <c r="X108" s="263"/>
+      <c r="X108" s="242"/>
       <c r="Y108" s="115"/>
     </row>
     <row r="109" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B109" s="220" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C109" s="216"/>
       <c r="D109" s="216"/>
@@ -13200,32 +13238,32 @@
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5">
-        <v>0</v>
+        <v>11.667999999999999</v>
       </c>
       <c r="I109" s="5">
-        <v>0</v>
+        <v>20.388999999999999</v>
       </c>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
       <c r="L109" s="5">
-        <v>-0.42</v>
+        <v>5.548</v>
       </c>
       <c r="M109" s="5">
-        <v>0</v>
-      </c>
-      <c r="N109" s="248">
-        <v>-1.236</v>
+        <v>12.83</v>
+      </c>
+      <c r="N109" s="227">
+        <v>3.0459999999999998</v>
       </c>
       <c r="O109" s="134"/>
       <c r="Q109" s="5"/>
       <c r="R109" s="5"/>
       <c r="S109" s="5"/>
-      <c r="X109" s="263"/>
+      <c r="X109" s="242"/>
       <c r="Y109" s="115"/>
     </row>
     <row r="110" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B110" s="220" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C110" s="216"/>
       <c r="D110" s="216"/>
@@ -13241,24 +13279,24 @@
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
       <c r="L110" s="5">
-        <v>0</v>
+        <v>-0.42</v>
       </c>
       <c r="M110" s="5">
         <v>0</v>
       </c>
-      <c r="N110" s="248">
-        <v>0</v>
+      <c r="N110" s="227">
+        <v>-1.236</v>
       </c>
       <c r="O110" s="134"/>
       <c r="Q110" s="5"/>
       <c r="R110" s="5"/>
       <c r="S110" s="5"/>
-      <c r="X110" s="263"/>
+      <c r="X110" s="242"/>
       <c r="Y110" s="115"/>
     </row>
     <row r="111" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B111" s="220" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C111" s="216"/>
       <c r="D111" s="216"/>
@@ -13279,19 +13317,19 @@
       <c r="M111" s="5">
         <v>0</v>
       </c>
-      <c r="N111" s="248">
+      <c r="N111" s="227">
         <v>0</v>
       </c>
       <c r="O111" s="134"/>
       <c r="Q111" s="5"/>
       <c r="R111" s="5"/>
       <c r="S111" s="5"/>
-      <c r="X111" s="263"/>
+      <c r="X111" s="242"/>
       <c r="Y111" s="115"/>
     </row>
     <row r="112" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B112" s="220" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C112" s="216"/>
       <c r="D112" s="216"/>
@@ -13312,19 +13350,19 @@
       <c r="M112" s="5">
         <v>0</v>
       </c>
-      <c r="N112" s="248">
+      <c r="N112" s="227">
         <v>0</v>
       </c>
       <c r="O112" s="134"/>
       <c r="Q112" s="5"/>
       <c r="R112" s="5"/>
       <c r="S112" s="5"/>
-      <c r="X112" s="263"/>
+      <c r="X112" s="242"/>
       <c r="Y112" s="115"/>
     </row>
     <row r="113" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B113" s="220" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C113" s="216"/>
       <c r="D113" s="216"/>
@@ -13343,127 +13381,160 @@
         <v>0</v>
       </c>
       <c r="M113" s="5">
-        <v>-0.15</v>
-      </c>
-      <c r="N113" s="248">
+        <v>0</v>
+      </c>
+      <c r="N113" s="227">
         <v>0</v>
       </c>
       <c r="O113" s="134"/>
       <c r="Q113" s="5"/>
       <c r="R113" s="5"/>
       <c r="S113" s="5"/>
-      <c r="X113" s="263"/>
+      <c r="X113" s="242"/>
       <c r="Y113" s="115"/>
     </row>
-    <row r="114" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="3" t="s">
+    <row r="114" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="220" t="s">
+        <v>270</v>
+      </c>
+      <c r="C114" s="216"/>
+      <c r="D114" s="216"/>
+      <c r="E114" s="216"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5">
+        <v>0</v>
+      </c>
+      <c r="I114" s="5">
+        <v>0</v>
+      </c>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5">
+        <v>0</v>
+      </c>
+      <c r="M114" s="5">
+        <v>-0.15</v>
+      </c>
+      <c r="N114" s="227">
+        <v>0</v>
+      </c>
+      <c r="O114" s="134"/>
+      <c r="Q114" s="5"/>
+      <c r="R114" s="5"/>
+      <c r="S114" s="5"/>
+      <c r="X114" s="242"/>
+      <c r="Y114" s="115"/>
+    </row>
+    <row r="115" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C114" s="221"/>
-      <c r="D114" s="221"/>
-      <c r="E114" s="221"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="4">
-        <f>SUM(H108:H113)</f>
+      <c r="C115" s="221"/>
+      <c r="D115" s="221"/>
+      <c r="E115" s="221"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4">
+        <f>SUM(H109:H114)</f>
         <v>11.667999999999999</v>
       </c>
-      <c r="I114" s="4">
-        <f>SUM(I108:I113)</f>
+      <c r="I115" s="4">
+        <f>SUM(I109:I114)</f>
         <v>20.388999999999999</v>
       </c>
-      <c r="J114" s="4"/>
-      <c r="K114" s="4"/>
-      <c r="L114" s="4">
-        <f>SUM(L108:L113)</f>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4">
+        <f>SUM(L109:L114)</f>
         <v>5.1280000000000001</v>
       </c>
-      <c r="M114" s="4">
-        <f>SUM(M108:M113)</f>
+      <c r="M115" s="4">
+        <f>SUM(M109:M114)</f>
         <v>12.68</v>
       </c>
-      <c r="N114" s="4">
-        <f>SUM(N108:N113)</f>
+      <c r="N115" s="4">
+        <f>SUM(N109:N114)</f>
         <v>1.8099999999999998</v>
       </c>
-      <c r="O114" s="132"/>
-      <c r="Q114" s="4"/>
-      <c r="R114" s="4"/>
-      <c r="S114" s="4"/>
-      <c r="X114" s="260"/>
-      <c r="Y114" s="114"/>
-    </row>
-    <row r="116" spans="2:25" s="214" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="214" t="s">
+      <c r="O115" s="132"/>
+      <c r="Q115" s="4"/>
+      <c r="R115" s="4"/>
+      <c r="S115" s="4"/>
+      <c r="X115" s="239"/>
+      <c r="Y115" s="114"/>
+    </row>
+    <row r="117" spans="2:25" s="214" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="214" t="s">
         <v>281</v>
       </c>
-      <c r="C116"/>
-      <c r="D116"/>
-      <c r="E116"/>
-      <c r="F116" s="222"/>
-      <c r="G116" s="222"/>
-      <c r="H116" s="223">
-        <f>H103+H105</f>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117" s="222"/>
+      <c r="G117" s="222"/>
+      <c r="H117" s="223">
+        <f>H104+H106</f>
         <v>-23.234999999999999</v>
       </c>
-      <c r="I116" s="223">
-        <f>I103+I105</f>
+      <c r="I117" s="223">
+        <f>I104+I106</f>
         <v>-10.561999999999999</v>
       </c>
-      <c r="J116" s="222"/>
-      <c r="K116" s="222"/>
-      <c r="L116" s="223">
-        <f>L103+L105</f>
+      <c r="J117" s="222"/>
+      <c r="K117" s="222"/>
+      <c r="L117" s="223">
+        <f>L104+L106</f>
         <v>-83.811999999999998</v>
       </c>
-      <c r="M116" s="223">
-        <f>M103+M105</f>
+      <c r="M117" s="223">
+        <f>M104+M106</f>
         <v>-134.85599999999999</v>
       </c>
-      <c r="N116" s="223">
-        <f t="shared" ref="N116" si="136">N103+N105</f>
+      <c r="N117" s="223">
+        <f t="shared" ref="N117" si="136">N104+N106</f>
         <v>-157.20500000000001</v>
       </c>
-      <c r="O116" s="133"/>
-      <c r="Q116" s="222"/>
-      <c r="R116" s="222"/>
-      <c r="S116" s="222"/>
-      <c r="X116" s="268"/>
-      <c r="Y116" s="273"/>
-    </row>
-    <row r="117" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B117" s="214" t="s">
+      <c r="O117" s="133"/>
+      <c r="Q117" s="222"/>
+      <c r="R117" s="222"/>
+      <c r="S117" s="222"/>
+      <c r="X117" s="247"/>
+      <c r="Y117" s="252"/>
+    </row>
+    <row r="118" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B118" s="214" t="s">
         <v>282</v>
       </c>
-      <c r="H117" s="5">
-        <f>+H101+H106</f>
+      <c r="H118" s="5">
+        <f>+H102+H107</f>
         <v>168.01600000000002</v>
       </c>
-      <c r="I117" s="5">
-        <f>+I101+I106</f>
+      <c r="I118" s="5">
+        <f>+I102+I107</f>
         <v>124.91199999999999</v>
       </c>
-      <c r="L117" s="5">
-        <f>+L101+L106</f>
+      <c r="L118" s="5">
+        <f>+L102+L107</f>
         <v>-63.47999999999999</v>
       </c>
-      <c r="M117" s="5">
-        <f>+M101+M106</f>
+      <c r="M118" s="5">
+        <f>+M102+M107</f>
         <v>-67.70599999999996</v>
       </c>
-      <c r="N117" s="5">
-        <f t="shared" ref="N117" si="137">+N101+N106</f>
+      <c r="N118" s="5">
+        <f t="shared" ref="N118" si="137">+N102+N107</f>
         <v>-15.438500000000005</v>
       </c>
-    </row>
-    <row r="119" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B119" s="214"/>
     </row>
     <row r="120" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B120" s="214"/>
     </row>
+    <row r="121" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B121" s="214"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="30" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="L1" r:id="rId1" xr:uid="{F0F1B078-C7E3-AA47-9924-08C1D4511F24}"/>
     <hyperlink ref="M1" r:id="rId2" xr:uid="{9D82E829-DF9B-4456-A9EF-305989A97DF8}"/>
@@ -13472,7 +13543,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="119" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId4"/>
   <ignoredErrors>
-    <ignoredError sqref="V3:V4 V6:V8 V9:V13 W3:W4 V17:V20 W17:W20 W6:W13 V15 W15 K75 K76 G75:J76 L75:L76 G78:L78 X3:X4 X6:X15 M75:M78 N78" formulaRange="1"/>
+    <ignoredError sqref="V3:V4 V6:V8 V9:V13 W3:W4 V17:V20 W17:W20 W6:W13 V15 W15 K76 K77 G76:J77 L76:L77 G79:L79 X3:X4 X6:X15 M76:M79 N79" formulaRange="1"/>
     <ignoredError sqref="V5 V16:W16 V14 X21 Y16:AK16 Y18 Z18:AK18 AL13:AM18 Z20:AK20 X18" formula="1"/>
     <ignoredError sqref="W5 W14 X16:X17 X5" formula="1" formulaRange="1"/>
   </ignoredErrors>
@@ -13496,7 +13567,7 @@
     <col min="1" max="1" width="12.875" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="25" width="9" style="22"/>
-    <col min="26" max="26" width="9" style="308"/>
+    <col min="26" max="26" width="9" style="287"/>
     <col min="27" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
@@ -13567,7 +13638,7 @@
       <c r="Y1" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="Z1" s="305" t="s">
+      <c r="Z1" s="284" t="s">
         <v>91</v>
       </c>
       <c r="AA1" s="25" t="s">
@@ -13650,7 +13721,7 @@
         <f>AVERAGE(L2:O2)</f>
         <v>45.525000000000006</v>
       </c>
-      <c r="Z2" s="260">
+      <c r="Z2" s="239">
         <f>AVERAGE(P2:S2)</f>
         <v>55.975000000000009</v>
       </c>
@@ -13735,7 +13806,7 @@
       <c r="Y3" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="Z3" s="275" t="s">
+      <c r="Z3" s="254" t="s">
         <v>33</v>
       </c>
     </row>
@@ -13818,7 +13889,7 @@
         <f>Y2/X2-1</f>
         <v>0.3975441289332311</v>
       </c>
-      <c r="Z4" s="306">
+      <c r="Z4" s="285">
         <f>Z2/Y2-1</f>
         <v>0.22954420647995599</v>
       </c>
@@ -13845,7 +13916,7 @@
       <c r="W5" s="36"/>
       <c r="X5" s="36"/>
       <c r="Y5" s="36"/>
-      <c r="Z5" s="307"/>
+      <c r="Z5" s="286"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
@@ -13912,7 +13983,7 @@
         <f>AVERAGE(L6:O6)</f>
         <v>22.375</v>
       </c>
-      <c r="Z6" s="260">
+      <c r="Z6" s="239">
         <f>AVERAGE(P6:S6)</f>
         <v>25.366666666666664</v>
       </c>
@@ -13993,7 +14064,7 @@
       <c r="Y7" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="275" t="s">
+      <c r="Z7" s="254" t="s">
         <v>33</v>
       </c>
     </row>
@@ -14072,7 +14143,7 @@
         <f>Y6/X6-1</f>
         <v>0.27857142857142847</v>
       </c>
-      <c r="Z8" s="306">
+      <c r="Z8" s="285">
         <f>Z6/Y6-1</f>
         <v>0.13370577281191798</v>
       </c>
@@ -14087,7 +14158,7 @@
       <c r="W9" s="36"/>
       <c r="X9" s="36"/>
       <c r="Y9" s="36"/>
-      <c r="Z9" s="307"/>
+      <c r="Z9" s="286"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B10" s="27" t="s">
@@ -14154,7 +14225,7 @@
         <f>AVERAGE(L10:O10)</f>
         <v>22</v>
       </c>
-      <c r="Z10" s="260">
+      <c r="Z10" s="239">
         <f>AVERAGE(P10:S10)</f>
         <v>29.3</v>
       </c>
@@ -14235,7 +14306,7 @@
       <c r="Y11" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="275" t="s">
+      <c r="Z11" s="254" t="s">
         <v>33</v>
       </c>
     </row>
@@ -14314,7 +14385,7 @@
         <f>Y10/X10-1</f>
         <v>1.0370370370370368</v>
       </c>
-      <c r="Z12" s="306">
+      <c r="Z12" s="285">
         <f>Z10/Y10-1</f>
         <v>0.33181818181818179</v>
       </c>
@@ -14400,7 +14471,7 @@
         <f>AVERAGE(L14:O14)</f>
         <v>10353.5</v>
       </c>
-      <c r="Z14" s="309">
+      <c r="Z14" s="288">
         <f>AVERAGE(P14:S14)</f>
         <v>12560.04</v>
       </c>
@@ -14482,7 +14553,7 @@
       <c r="Y15" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="Z15" s="275" t="s">
+      <c r="Z15" s="254" t="s">
         <v>33</v>
       </c>
     </row>
@@ -14562,7 +14633,7 @@
         <f>Y14/X14-1</f>
         <v>6.1189975913493511E-2</v>
       </c>
-      <c r="Z16" s="306">
+      <c r="Z16" s="285">
         <f>Z14/Y14-1</f>
         <v>0.21312020089824713</v>
       </c>
@@ -14869,7 +14940,7 @@
       <c r="S24" s="102"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
   <ignoredErrors>

--- a/$RBLX.xlsx
+++ b/$RBLX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE25A89-482C-4B98-B131-9B7CF0DA9428}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1E7C42-B562-447A-9E10-5C84D267BBFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{DB6ABC51-E0DE-6747-8CA5-53C172A4844D}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="321">
   <si>
     <t>Price</t>
   </si>
@@ -984,6 +984,12 @@
   </si>
   <si>
     <t>Employees</t>
+  </si>
+  <si>
+    <t>Price/Bookings</t>
+  </si>
+  <si>
+    <t>P/Bookings</t>
   </si>
 </sst>
 </file>
@@ -1002,9 +1008,16 @@
     <numFmt numFmtId="171" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="172" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1597,722 +1610,732 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="325">
+  <cellXfs count="329">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="32" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="41" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="32" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="29" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="29" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="29" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="32" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="41" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="32" fillId="10" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="32" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="29" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="29" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="29" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="29" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="29" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="32" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="24" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="41" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="42" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="42" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="46" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="47" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" 